--- a/通用测试平台.xlsx
+++ b/通用测试平台.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75C676CE-3654-4EB5-B79B-02FCED775E9E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="BL104" authorId="0" shapeId="0" xr:uid="{8030D5E7-4309-45F3-A38F-AB7C233825B0}">
+    <comment ref="BL103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="265">
   <si>
     <t>组织管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,15 +671,384 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数管理</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启/禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增/修改用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询区参考接口管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxx用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选的下拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mock规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增mock规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看和编辑以tab页的形式展现，编辑可以删除修改mock规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求体参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求体类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type（请求头，请求体）</t>
+    <t>body_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">content_type </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chirld_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -688,19 +1056,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_del</t>
+    <t>10请求头参数；21请求体参数(kv型参数)；22请求体参数（json型参数）3检查点参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -708,244 +1068,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>parent_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数管理</t>
-  </si>
-  <si>
-    <t>操作</t>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启/禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增/修改用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXX接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看</t>
-  </si>
-  <si>
-    <t>查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询区参考接口管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中加深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxx用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多选的下拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mock规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mock响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增mock规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看和编辑以tab页的形式展现，编辑可以删除修改mock规则</t>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,6 +1201,14 @@
       <u/>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1195,7 +1370,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1333,8 +1508,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1389,13 +1614,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1407,13 +1668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1422,30 +1677,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="137">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="187">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1514,74 +1757,125 @@
     <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1882,52 +2176,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:DO197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DO198"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL186" sqref="AL186"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="AH192" sqref="AH192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="13" width="4.375" style="29"/>
-    <col min="14" max="14" width="4.375" style="7"/>
+    <col min="2" max="13" width="4.33203125" style="29"/>
+    <col min="14" max="14" width="4.33203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:46" ht="18" customHeight="1">
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="U1" s="32" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="U1" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
     </row>
     <row r="2" spans="2:46" ht="18" customHeight="1">
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
     </row>
     <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="30"/>
@@ -2018,7 +2312,7 @@
     </row>
     <row r="8" spans="2:46" ht="18" customHeight="1">
       <c r="D8" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="3"/>
@@ -2090,22 +2384,22 @@
     </row>
     <row r="10" spans="2:46" ht="18" customHeight="1">
       <c r="D10" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="42" t="s">
+      <c r="S10" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="42"/>
-      <c r="U10" s="34" t="s">
+      <c r="T10" s="54"/>
+      <c r="U10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34" t="s">
+      <c r="V10" s="47"/>
+      <c r="W10" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="34"/>
+      <c r="X10" s="47"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2131,23 +2425,23 @@
     </row>
     <row r="11" spans="2:46" ht="18" customHeight="1">
       <c r="D11" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="34" t="s">
+      <c r="T11" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34" t="s">
+      <c r="U11" s="47"/>
+      <c r="V11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34" t="s">
+      <c r="W11" s="47"/>
+      <c r="X11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="41"/>
+      <c r="Y11" s="53"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -2174,10 +2468,10 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="34" t="s">
+      <c r="T12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="34"/>
+      <c r="U12" s="47"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -2207,10 +2501,10 @@
     <row r="13" spans="2:46" ht="18" customHeight="1">
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="34" t="s">
+      <c r="S13" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="34"/>
+      <c r="T13" s="47"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -2248,10 +2542,10 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="34" t="s">
+      <c r="T14" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="34"/>
+      <c r="U14" s="47"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -2280,10 +2574,10 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="34" t="s">
+      <c r="T15" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="34"/>
+      <c r="U15" s="47"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -2379,10 +2673,10 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="38" t="s">
+      <c r="AE18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="39"/>
+      <c r="AF18" s="42"/>
       <c r="AG18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -2576,35 +2870,35 @@
     <row r="28" spans="2:46" ht="18" customHeight="1">
       <c r="Q28" s="6"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="34" t="s">
+      <c r="S28" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="T28" s="34"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="39"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="42"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="34" t="s">
+      <c r="Y28" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="39"/>
-      <c r="AD28" s="34" t="s">
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="42"/>
+      <c r="AD28" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
       <c r="AI28" s="24" t="s">
         <v>56</v>
       </c>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="38" t="s">
+      <c r="AK28" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="AL28" s="39"/>
+      <c r="AL28" s="42"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -2655,18 +2949,18 @@
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="33" t="s">
+      <c r="S30" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33" t="s">
+      <c r="T30" s="46"/>
+      <c r="U30" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33" t="s">
+      <c r="V30" s="46"/>
+      <c r="W30" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="X30" s="33"/>
+      <c r="X30" s="46"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -2731,45 +3025,45 @@
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="38" t="s">
+      <c r="S32" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="T32" s="39"/>
-      <c r="U32" s="38" t="s">
+      <c r="T32" s="42"/>
+      <c r="U32" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="V32" s="39"/>
-      <c r="W32" s="38" t="s">
+      <c r="V32" s="42"/>
+      <c r="W32" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="38" t="s">
+      <c r="X32" s="48"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="39"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="42"/>
       <c r="AC32" s="38" t="s">
         <v>22</v>
       </c>
       <c r="AD32" s="39"/>
-      <c r="AE32" s="38" t="s">
+      <c r="AE32" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="38" t="s">
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="38" t="s">
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="44"/>
-      <c r="AO32" s="39"/>
+      <c r="AJ32" s="48"/>
+      <c r="AK32" s="48"/>
+      <c r="AL32" s="48"/>
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="48"/>
+      <c r="AO32" s="42"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
@@ -2782,39 +3076,39 @@
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="38" t="s">
+      <c r="S33" s="41"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="V33" s="39"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="39"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="42"/>
       <c r="AE33" s="11"/>
       <c r="AF33" s="13"/>
-      <c r="AG33" s="38" t="s">
+      <c r="AG33" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="38" t="s">
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AJ33" s="39"/>
-      <c r="AK33" s="38" t="s">
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AL33" s="44"/>
-      <c r="AM33" s="39"/>
-      <c r="AN33" s="38" t="s">
+      <c r="AL33" s="48"/>
+      <c r="AM33" s="42"/>
+      <c r="AN33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AO33" s="39"/>
+      <c r="AO33" s="42"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
@@ -2827,39 +3121,39 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="38" t="s">
+      <c r="S34" s="41"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="V34" s="39"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="39"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="42"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="13"/>
-      <c r="AG34" s="38" t="s">
+      <c r="AG34" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AH34" s="39"/>
-      <c r="AI34" s="38" t="s">
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AJ34" s="39"/>
-      <c r="AK34" s="38" t="s">
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AL34" s="44"/>
-      <c r="AM34" s="39"/>
-      <c r="AN34" s="38" t="s">
+      <c r="AL34" s="48"/>
+      <c r="AM34" s="42"/>
+      <c r="AN34" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AO34" s="39"/>
+      <c r="AO34" s="42"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
@@ -2872,37 +3166,37 @@
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="38" t="s">
+      <c r="S35" s="41"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="39"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="39"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="42"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="13"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
-      <c r="AI35" s="38" t="s">
+      <c r="AI35" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="38" t="s">
+      <c r="AJ35" s="42"/>
+      <c r="AK35" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AL35" s="44"/>
-      <c r="AM35" s="39"/>
-      <c r="AN35" s="38" t="s">
+      <c r="AL35" s="48"/>
+      <c r="AM35" s="42"/>
+      <c r="AN35" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AO35" s="39"/>
+      <c r="AO35" s="42"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
@@ -2915,17 +3209,17 @@
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="38" t="s">
+      <c r="S36" s="41"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="V36" s="39"/>
+      <c r="V36" s="42"/>
       <c r="W36" s="38"/>
-      <c r="X36" s="44"/>
+      <c r="X36" s="40"/>
       <c r="Y36" s="39"/>
       <c r="Z36" s="38"/>
-      <c r="AA36" s="44"/>
+      <c r="AA36" s="40"/>
       <c r="AB36" s="39"/>
       <c r="AC36" s="38"/>
       <c r="AD36" s="39"/>
@@ -2933,19 +3227,19 @@
       <c r="AF36" s="13"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
-      <c r="AI36" s="38" t="s">
+      <c r="AI36" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="38" t="s">
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AL36" s="44"/>
-      <c r="AM36" s="39"/>
-      <c r="AN36" s="38" t="s">
+      <c r="AL36" s="48"/>
+      <c r="AM36" s="42"/>
+      <c r="AN36" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AO36" s="39"/>
+      <c r="AO36" s="42"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
@@ -2958,37 +3252,37 @@
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="38" t="s">
+      <c r="S37" s="41"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="V37" s="39"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="44"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="38"/>
-      <c r="AD37" s="39"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="42"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="13"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
-      <c r="AI37" s="38" t="s">
+      <c r="AI37" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="38" t="s">
+      <c r="AJ37" s="42"/>
+      <c r="AK37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AL37" s="44"/>
-      <c r="AM37" s="39"/>
-      <c r="AN37" s="38" t="s">
+      <c r="AL37" s="48"/>
+      <c r="AM37" s="42"/>
+      <c r="AN37" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AO37" s="39"/>
+      <c r="AO37" s="42"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
@@ -2998,29 +3292,29 @@
     <row r="38" spans="2:67" ht="18" customHeight="1">
       <c r="Q38" s="6"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="39"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="39"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="41"/>
+      <c r="AD38" s="42"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="13"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="38"/>
-      <c r="AJ38" s="39"/>
-      <c r="AK38" s="38"/>
-      <c r="AL38" s="44"/>
-      <c r="AM38" s="39"/>
-      <c r="AN38" s="38"/>
-      <c r="AO38" s="39"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="42"/>
+      <c r="AK38" s="41"/>
+      <c r="AL38" s="48"/>
+      <c r="AM38" s="42"/>
+      <c r="AN38" s="41"/>
+      <c r="AO38" s="42"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
@@ -3170,10 +3464,10 @@
         <v>133</v>
       </c>
       <c r="Q46" s="6"/>
-      <c r="R46" s="33" t="s">
+      <c r="R46" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="S46" s="33"/>
+      <c r="S46" s="46"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -3249,14 +3543,14 @@
       <c r="BB47" s="7"/>
       <c r="BF47" s="6"/>
       <c r="BG47" s="1"/>
-      <c r="BH47" s="33" t="s">
+      <c r="BH47" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="BI47" s="33"/>
-      <c r="BJ47" s="33" t="s">
+      <c r="BI47" s="46"/>
+      <c r="BJ47" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="BK47" s="33"/>
+      <c r="BK47" s="46"/>
       <c r="BL47" s="1"/>
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
@@ -3270,23 +3564,23 @@
       <c r="R48" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="S48" s="33" t="s">
+      <c r="S48" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33" t="s">
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W48" s="33"/>
-      <c r="X48" s="33" t="s">
+      <c r="W48" s="46"/>
+      <c r="X48" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="33"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
@@ -3325,23 +3619,23 @@
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="15"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33" t="s">
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33" t="s">
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33" t="s">
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="AC49" s="33"/>
+      <c r="AC49" s="46"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
@@ -3366,14 +3660,14 @@
       <c r="BH49" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BI49" s="33" t="s">
+      <c r="BI49" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="BJ49" s="33"/>
-      <c r="BK49" s="33" t="s">
+      <c r="BJ49" s="46"/>
+      <c r="BK49" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="BL49" s="33"/>
+      <c r="BL49" s="46"/>
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
       <c r="BO49" s="7"/>
@@ -3384,17 +3678,17 @@
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="15"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="46"/>
+      <c r="AA50" s="46"/>
+      <c r="AB50" s="46"/>
+      <c r="AC50" s="46"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
@@ -3419,14 +3713,14 @@
       <c r="BH50" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI50" s="33" t="s">
+      <c r="BI50" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="BJ50" s="33"/>
-      <c r="BK50" s="33" t="s">
+      <c r="BJ50" s="46"/>
+      <c r="BK50" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="BL50" s="33"/>
+      <c r="BL50" s="46"/>
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
       <c r="BO50" s="7"/>
@@ -3437,17 +3731,17 @@
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="15"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="46"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
@@ -3455,15 +3749,15 @@
       <c r="AN51" s="6"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
-      <c r="AQ51" s="38" t="s">
+      <c r="AQ51" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="AR51" s="39"/>
+      <c r="AR51" s="42"/>
       <c r="AS51" s="1"/>
-      <c r="AT51" s="38" t="s">
+      <c r="AT51" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AU51" s="39"/>
+      <c r="AU51" s="42"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
@@ -3476,14 +3770,14 @@
       <c r="BH51" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BI51" s="33" t="s">
+      <c r="BI51" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="BJ51" s="33"/>
-      <c r="BK51" s="33" t="s">
+      <c r="BJ51" s="46"/>
+      <c r="BK51" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BL51" s="33"/>
+      <c r="BL51" s="46"/>
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
       <c r="BO51" s="7"/>
@@ -3491,17 +3785,17 @@
     <row r="52" spans="2:67" ht="18" customHeight="1">
       <c r="Q52" s="6"/>
       <c r="R52" s="15"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="46"/>
+      <c r="AB52" s="46"/>
+      <c r="AC52" s="46"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
@@ -3526,14 +3820,14 @@
       <c r="BH52" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BI52" s="33" t="s">
+      <c r="BI52" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="BJ52" s="33"/>
-      <c r="BK52" s="33" t="s">
+      <c r="BJ52" s="46"/>
+      <c r="BK52" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="BL52" s="33"/>
+      <c r="BL52" s="46"/>
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
       <c r="BO52" s="7"/>
@@ -3541,17 +3835,17 @@
     <row r="53" spans="2:67" ht="18" customHeight="1">
       <c r="Q53" s="6"/>
       <c r="R53" s="15"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="33"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="33"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46"/>
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="46"/>
+      <c r="AA53" s="46"/>
+      <c r="AB53" s="46"/>
+      <c r="AC53" s="46"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
@@ -3576,10 +3870,10 @@
       <c r="BH53" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI53" s="33"/>
-      <c r="BJ53" s="33"/>
-      <c r="BK53" s="33"/>
-      <c r="BL53" s="33"/>
+      <c r="BI53" s="46"/>
+      <c r="BJ53" s="46"/>
+      <c r="BK53" s="46"/>
+      <c r="BL53" s="46"/>
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
       <c r="BO53" s="7"/>
@@ -3587,17 +3881,17 @@
     <row r="54" spans="2:67" ht="18" customHeight="1">
       <c r="Q54" s="6"/>
       <c r="R54" s="15"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="33"/>
-      <c r="W54" s="33"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="33"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="46"/>
+      <c r="AB54" s="46"/>
+      <c r="AC54" s="46"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
@@ -3622,10 +3916,10 @@
       <c r="BH54" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI54" s="33"/>
-      <c r="BJ54" s="33"/>
-      <c r="BK54" s="33"/>
-      <c r="BL54" s="33"/>
+      <c r="BI54" s="46"/>
+      <c r="BJ54" s="46"/>
+      <c r="BK54" s="46"/>
+      <c r="BL54" s="46"/>
       <c r="BM54" s="1"/>
       <c r="BN54" s="1"/>
       <c r="BO54" s="7"/>
@@ -3633,17 +3927,17 @@
     <row r="55" spans="2:67" ht="18" customHeight="1">
       <c r="Q55" s="6"/>
       <c r="R55" s="15"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="46"/>
+      <c r="AB55" s="46"/>
+      <c r="AC55" s="46"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
@@ -3668,10 +3962,10 @@
       <c r="BH55" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI55" s="33"/>
-      <c r="BJ55" s="33"/>
-      <c r="BK55" s="33"/>
-      <c r="BL55" s="33"/>
+      <c r="BI55" s="46"/>
+      <c r="BJ55" s="46"/>
+      <c r="BK55" s="46"/>
+      <c r="BL55" s="46"/>
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
       <c r="BO55" s="7"/>
@@ -3679,17 +3973,17 @@
     <row r="56" spans="2:67" ht="18" customHeight="1">
       <c r="Q56" s="6"/>
       <c r="R56" s="15"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="33"/>
-      <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="46"/>
+      <c r="AB56" s="46"/>
+      <c r="AC56" s="46"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
@@ -3697,10 +3991,10 @@
       <c r="BF56" s="6"/>
       <c r="BG56" s="1"/>
       <c r="BH56" s="15"/>
-      <c r="BI56" s="33"/>
-      <c r="BJ56" s="33"/>
-      <c r="BK56" s="33"/>
-      <c r="BL56" s="33"/>
+      <c r="BI56" s="46"/>
+      <c r="BJ56" s="46"/>
+      <c r="BK56" s="46"/>
+      <c r="BL56" s="46"/>
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
       <c r="BO56" s="7"/>
@@ -3755,10 +4049,10 @@
       <c r="BF58" s="6"/>
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
-      <c r="BI58" s="38" t="s">
+      <c r="BI58" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="BJ58" s="39"/>
+      <c r="BJ58" s="42"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
       <c r="BM58" s="1"/>
@@ -3921,21 +4215,21 @@
         <v>136</v>
       </c>
       <c r="Q66" s="6"/>
-      <c r="R66" s="34" t="s">
+      <c r="R66" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="35" t="s">
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="36"/>
-      <c r="AA66" s="36"/>
-      <c r="AB66" s="37"/>
+      <c r="V66" s="50"/>
+      <c r="W66" s="50"/>
+      <c r="X66" s="50"/>
+      <c r="Y66" s="50"/>
+      <c r="Z66" s="50"/>
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="51"/>
       <c r="AC66" s="16" t="s">
         <v>56</v>
       </c>
@@ -3944,10 +4238,10 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="38" t="s">
+      <c r="AI66" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="AJ66" s="39"/>
+      <c r="AJ66" s="42"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
@@ -3963,21 +4257,21 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="7"/>
       <c r="AZ66" s="6"/>
-      <c r="BA66" s="34" t="s">
+      <c r="BA66" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="BB66" s="34"/>
-      <c r="BC66" s="34"/>
-      <c r="BD66" s="35" t="s">
+      <c r="BB66" s="47"/>
+      <c r="BC66" s="47"/>
+      <c r="BD66" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="BE66" s="36"/>
-      <c r="BF66" s="36"/>
-      <c r="BG66" s="36"/>
-      <c r="BH66" s="36"/>
-      <c r="BI66" s="36"/>
-      <c r="BJ66" s="36"/>
-      <c r="BK66" s="37"/>
+      <c r="BE66" s="50"/>
+      <c r="BF66" s="50"/>
+      <c r="BG66" s="50"/>
+      <c r="BH66" s="50"/>
+      <c r="BI66" s="50"/>
+      <c r="BJ66" s="50"/>
+      <c r="BK66" s="51"/>
       <c r="BL66" s="16" t="s">
         <v>56</v>
       </c>
@@ -4229,18 +4523,18 @@
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="40" t="s">
+      <c r="S70" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="T70" s="40"/>
-      <c r="U70" s="34" t="s">
+      <c r="T70" s="56"/>
+      <c r="U70" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="V70" s="34"/>
-      <c r="W70" s="34" t="s">
+      <c r="V70" s="47"/>
+      <c r="W70" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="X70" s="34"/>
+      <c r="X70" s="47"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -4269,18 +4563,18 @@
       <c r="AX70" s="7"/>
       <c r="AZ70" s="6"/>
       <c r="BA70" s="6"/>
-      <c r="BB70" s="42" t="s">
+      <c r="BB70" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="BC70" s="42"/>
-      <c r="BD70" s="34" t="s">
+      <c r="BC70" s="54"/>
+      <c r="BD70" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="BE70" s="34"/>
-      <c r="BF70" s="34" t="s">
+      <c r="BE70" s="47"/>
+      <c r="BF70" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="BG70" s="34"/>
+      <c r="BG70" s="47"/>
       <c r="BH70" s="7"/>
       <c r="BI70" s="1"/>
       <c r="BJ70" s="1"/>
@@ -4315,18 +4609,18 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="34" t="s">
+      <c r="T71" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="U71" s="34"/>
-      <c r="V71" s="34" t="s">
+      <c r="U71" s="47"/>
+      <c r="V71" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="W71" s="34"/>
-      <c r="X71" s="34" t="s">
+      <c r="W71" s="47"/>
+      <c r="X71" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="Y71" s="41"/>
+      <c r="Y71" s="53"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
@@ -4357,18 +4651,18 @@
       <c r="AZ71" s="6"/>
       <c r="BA71" s="6"/>
       <c r="BB71" s="1"/>
-      <c r="BC71" s="34" t="s">
+      <c r="BC71" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="BD71" s="34"/>
-      <c r="BE71" s="34" t="s">
+      <c r="BD71" s="47"/>
+      <c r="BE71" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="BF71" s="34"/>
-      <c r="BG71" s="34" t="s">
+      <c r="BF71" s="47"/>
+      <c r="BG71" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="BH71" s="41"/>
+      <c r="BH71" s="53"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
@@ -4399,15 +4693,15 @@
     </row>
     <row r="72" spans="3:85" ht="18" customHeight="1">
       <c r="C72" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="34" t="s">
+      <c r="T72" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="U72" s="34"/>
+      <c r="U72" s="47"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
@@ -4442,10 +4736,10 @@
       <c r="AZ72" s="6"/>
       <c r="BA72" s="6"/>
       <c r="BB72" s="1"/>
-      <c r="BC72" s="34" t="s">
+      <c r="BC72" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="BD72" s="34"/>
+      <c r="BD72" s="47"/>
       <c r="BE72" s="1"/>
       <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
@@ -4481,10 +4775,10 @@
     <row r="73" spans="3:85" ht="18" customHeight="1">
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="S73" s="34" t="s">
+      <c r="S73" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="T73" s="34"/>
+      <c r="T73" s="47"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -4521,10 +4815,10 @@
       <c r="AX73" s="7"/>
       <c r="AZ73" s="6"/>
       <c r="BA73" s="6"/>
-      <c r="BB73" s="34" t="s">
+      <c r="BB73" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="BC73" s="34"/>
+      <c r="BC73" s="47"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
       <c r="BF73" s="1"/>
@@ -4568,10 +4862,10 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="34" t="s">
+      <c r="T74" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="U74" s="34"/>
+      <c r="U74" s="47"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
@@ -4604,10 +4898,10 @@
       <c r="AZ74" s="6"/>
       <c r="BA74" s="6"/>
       <c r="BB74" s="1"/>
-      <c r="BC74" s="34" t="s">
+      <c r="BC74" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="BD74" s="34"/>
+      <c r="BD74" s="47"/>
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
       <c r="BG74" s="1"/>
@@ -4642,10 +4936,10 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="34" t="s">
+      <c r="T75" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="U75" s="34"/>
+      <c r="U75" s="47"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
@@ -4678,10 +4972,10 @@
       <c r="AZ75" s="6"/>
       <c r="BA75" s="6"/>
       <c r="BB75" s="1"/>
-      <c r="BC75" s="34" t="s">
+      <c r="BC75" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="BD75" s="34"/>
+      <c r="BD75" s="47"/>
       <c r="BE75" s="1"/>
       <c r="BF75" s="1"/>
       <c r="BG75" s="1"/>
@@ -4867,10 +5161,10 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
-      <c r="AE78" s="38" t="s">
+      <c r="AE78" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AF78" s="39"/>
+      <c r="AF78" s="42"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
@@ -4903,10 +5197,10 @@
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
       <c r="BM78" s="1"/>
-      <c r="BN78" s="38" t="s">
+      <c r="BN78" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="BO78" s="39"/>
+      <c r="BO78" s="42"/>
       <c r="BP78" s="1"/>
       <c r="BQ78" s="1"/>
       <c r="BR78" s="1"/>
@@ -5256,21 +5550,21 @@
     <row r="88" spans="2:85" ht="18" customHeight="1">
       <c r="Q88" s="6"/>
       <c r="R88" s="1"/>
-      <c r="S88" s="34" t="s">
+      <c r="S88" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="T88" s="34"/>
-      <c r="U88" s="34"/>
-      <c r="V88" s="35" t="s">
+      <c r="T88" s="47"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="W88" s="36"/>
-      <c r="X88" s="36"/>
-      <c r="Y88" s="36"/>
-      <c r="Z88" s="36"/>
-      <c r="AA88" s="36"/>
-      <c r="AB88" s="36"/>
-      <c r="AC88" s="37"/>
+      <c r="W88" s="50"/>
+      <c r="X88" s="50"/>
+      <c r="Y88" s="50"/>
+      <c r="Z88" s="50"/>
+      <c r="AA88" s="50"/>
+      <c r="AB88" s="50"/>
+      <c r="AC88" s="51"/>
       <c r="AD88" s="16" t="s">
         <v>56</v>
       </c>
@@ -5304,10 +5598,10 @@
       </c>
       <c r="Q89" s="6"/>
       <c r="R89" s="1"/>
-      <c r="S89" s="33" t="s">
+      <c r="S89" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="T89" s="33"/>
+      <c r="T89" s="46"/>
       <c r="U89" s="14"/>
       <c r="V89" s="20"/>
       <c r="W89" s="20"/>
@@ -5348,48 +5642,48 @@
       </c>
       <c r="Q90" s="6"/>
       <c r="R90" s="1"/>
-      <c r="S90" s="33" t="s">
+      <c r="S90" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="T90" s="33"/>
-      <c r="U90" s="33"/>
-      <c r="V90" s="38" t="s">
+      <c r="T90" s="46"/>
+      <c r="U90" s="46"/>
+      <c r="V90" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="W90" s="44"/>
-      <c r="X90" s="44"/>
-      <c r="Y90" s="39"/>
-      <c r="Z90" s="33" t="s">
+      <c r="W90" s="48"/>
+      <c r="X90" s="48"/>
+      <c r="Y90" s="42"/>
+      <c r="Z90" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AA90" s="33"/>
-      <c r="AB90" s="33" t="s">
+      <c r="AA90" s="46"/>
+      <c r="AB90" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="AC90" s="33"/>
-      <c r="AD90" s="33"/>
-      <c r="AE90" s="33"/>
-      <c r="AF90" s="33"/>
-      <c r="AG90" s="33"/>
+      <c r="AC90" s="46"/>
+      <c r="AD90" s="46"/>
+      <c r="AE90" s="46"/>
+      <c r="AF90" s="46"/>
+      <c r="AG90" s="46"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="7"/>
       <c r="AM90" s="6"/>
       <c r="AN90" s="1"/>
-      <c r="AO90" s="34" t="s">
+      <c r="AO90" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="AP90" s="34"/>
-      <c r="AQ90" s="34"/>
-      <c r="AR90" s="35" t="s">
+      <c r="AP90" s="47"/>
+      <c r="AQ90" s="47"/>
+      <c r="AR90" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AS90" s="36"/>
-      <c r="AT90" s="36"/>
-      <c r="AU90" s="36"/>
-      <c r="AV90" s="36"/>
-      <c r="AW90" s="36"/>
-      <c r="AX90" s="36"/>
-      <c r="AY90" s="37"/>
+      <c r="AS90" s="50"/>
+      <c r="AT90" s="50"/>
+      <c r="AU90" s="50"/>
+      <c r="AV90" s="50"/>
+      <c r="AW90" s="50"/>
+      <c r="AX90" s="50"/>
+      <c r="AY90" s="51"/>
       <c r="AZ90" s="25" t="s">
         <v>56</v>
       </c>
@@ -5402,29 +5696,29 @@
       </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="1"/>
-      <c r="S91" s="33" t="s">
+      <c r="S91" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="T91" s="33"/>
-      <c r="U91" s="33"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="44"/>
-      <c r="X91" s="44"/>
-      <c r="Y91" s="39"/>
-      <c r="Z91" s="38"/>
-      <c r="AA91" s="39"/>
-      <c r="AB91" s="33" t="s">
+      <c r="T91" s="46"/>
+      <c r="U91" s="46"/>
+      <c r="V91" s="41"/>
+      <c r="W91" s="48"/>
+      <c r="X91" s="48"/>
+      <c r="Y91" s="42"/>
+      <c r="Z91" s="41"/>
+      <c r="AA91" s="42"/>
+      <c r="AB91" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AC91" s="33"/>
-      <c r="AD91" s="38" t="s">
+      <c r="AC91" s="46"/>
+      <c r="AD91" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AE91" s="39"/>
-      <c r="AF91" s="38" t="s">
+      <c r="AE91" s="42"/>
+      <c r="AF91" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="AG91" s="39"/>
+      <c r="AG91" s="42"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="7"/>
       <c r="AM91" s="6"/>
@@ -5450,23 +5744,23 @@
       </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="1"/>
-      <c r="S92" s="33" t="s">
+      <c r="S92" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="T92" s="33"/>
-      <c r="U92" s="33"/>
-      <c r="V92" s="38"/>
-      <c r="W92" s="44"/>
-      <c r="X92" s="44"/>
-      <c r="Y92" s="39"/>
-      <c r="Z92" s="38"/>
-      <c r="AA92" s="39"/>
-      <c r="AB92" s="33"/>
-      <c r="AC92" s="33"/>
-      <c r="AD92" s="38"/>
-      <c r="AE92" s="39"/>
-      <c r="AF92" s="38"/>
-      <c r="AG92" s="39"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="46"/>
+      <c r="V92" s="41"/>
+      <c r="W92" s="48"/>
+      <c r="X92" s="48"/>
+      <c r="Y92" s="42"/>
+      <c r="Z92" s="41"/>
+      <c r="AA92" s="42"/>
+      <c r="AB92" s="46"/>
+      <c r="AC92" s="46"/>
+      <c r="AD92" s="41"/>
+      <c r="AE92" s="42"/>
+      <c r="AF92" s="41"/>
+      <c r="AG92" s="42"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="7"/>
       <c r="AM92" s="6"/>
@@ -5494,23 +5788,23 @@
       </c>
       <c r="Q93" s="6"/>
       <c r="R93" s="1"/>
-      <c r="S93" s="33" t="s">
+      <c r="S93" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="T93" s="33"/>
-      <c r="U93" s="33"/>
-      <c r="V93" s="38"/>
-      <c r="W93" s="44"/>
-      <c r="X93" s="44"/>
-      <c r="Y93" s="39"/>
-      <c r="Z93" s="38"/>
-      <c r="AA93" s="39"/>
-      <c r="AB93" s="33"/>
-      <c r="AC93" s="33"/>
-      <c r="AD93" s="38"/>
-      <c r="AE93" s="39"/>
-      <c r="AF93" s="38"/>
-      <c r="AG93" s="39"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="46"/>
+      <c r="V93" s="41"/>
+      <c r="W93" s="48"/>
+      <c r="X93" s="48"/>
+      <c r="Y93" s="42"/>
+      <c r="Z93" s="41"/>
+      <c r="AA93" s="42"/>
+      <c r="AB93" s="46"/>
+      <c r="AC93" s="46"/>
+      <c r="AD93" s="41"/>
+      <c r="AE93" s="42"/>
+      <c r="AF93" s="41"/>
+      <c r="AG93" s="42"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="7"/>
       <c r="AM93" s="6"/>
@@ -5532,41 +5826,41 @@
     </row>
     <row r="94" spans="2:85" ht="18" customHeight="1">
       <c r="D94" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="43" t="s">
+      <c r="S94" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="T94" s="43"/>
-      <c r="U94" s="43"/>
-      <c r="V94" s="38"/>
-      <c r="W94" s="44"/>
-      <c r="X94" s="44"/>
-      <c r="Y94" s="39"/>
-      <c r="Z94" s="38"/>
-      <c r="AA94" s="39"/>
-      <c r="AB94" s="33"/>
-      <c r="AC94" s="33"/>
-      <c r="AD94" s="38"/>
-      <c r="AE94" s="39"/>
-      <c r="AF94" s="38"/>
-      <c r="AG94" s="39"/>
+      <c r="T94" s="57"/>
+      <c r="U94" s="57"/>
+      <c r="V94" s="41"/>
+      <c r="W94" s="48"/>
+      <c r="X94" s="48"/>
+      <c r="Y94" s="42"/>
+      <c r="Z94" s="41"/>
+      <c r="AA94" s="42"/>
+      <c r="AB94" s="46"/>
+      <c r="AC94" s="46"/>
+      <c r="AD94" s="41"/>
+      <c r="AE94" s="42"/>
+      <c r="AF94" s="41"/>
+      <c r="AG94" s="42"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="7"/>
       <c r="AM94" s="6"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
-      <c r="AP94" s="38" t="s">
+      <c r="AP94" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="AQ94" s="39"/>
+      <c r="AQ94" s="42"/>
       <c r="AR94" s="1"/>
-      <c r="AS94" s="38" t="s">
+      <c r="AS94" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AT94" s="39"/>
+      <c r="AT94" s="42"/>
       <c r="AU94" s="1"/>
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
@@ -5577,6 +5871,9 @@
       <c r="BB94" s="7"/>
     </row>
     <row r="95" spans="2:85" ht="18" customHeight="1">
+      <c r="D95" s="29" t="s">
+        <v>223</v>
+      </c>
       <c r="Q95" s="6"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
@@ -5651,7 +5948,7 @@
     </row>
     <row r="100" spans="2:92" ht="18" customHeight="1">
       <c r="D100" s="31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q100" t="s">
         <v>83</v>
@@ -5748,18 +6045,18 @@
         <v>122</v>
       </c>
       <c r="Q102" s="6"/>
-      <c r="R102" s="34" t="s">
+      <c r="R102" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="S102" s="34"/>
-      <c r="T102" s="34"/>
-      <c r="U102" s="38" t="s">
+      <c r="S102" s="47"/>
+      <c r="T102" s="47"/>
+      <c r="U102" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="V102" s="44"/>
-      <c r="W102" s="44"/>
-      <c r="X102" s="44"/>
-      <c r="Y102" s="44"/>
+      <c r="V102" s="48"/>
+      <c r="W102" s="48"/>
+      <c r="X102" s="48"/>
+      <c r="Y102" s="48"/>
       <c r="Z102" s="26" t="s">
         <v>56</v>
       </c>
@@ -5768,47 +6065,48 @@
         <v>87</v>
       </c>
       <c r="AC102" s="28"/>
-      <c r="AD102" s="38" t="s">
+      <c r="AD102" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="AE102" s="44"/>
-      <c r="AF102" s="44"/>
-      <c r="AG102" s="44"/>
-      <c r="AH102" s="44"/>
+      <c r="AE102" s="48"/>
+      <c r="AF102" s="48"/>
+      <c r="AG102" s="48"/>
+      <c r="AH102" s="48"/>
       <c r="AI102" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="AK102" s="34" t="s">
+      <c r="AK102" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="AL102" s="41"/>
-      <c r="AM102" s="38" t="s">
+      <c r="AL102" s="53"/>
+      <c r="AM102" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="AN102" s="44"/>
-      <c r="AO102" s="44"/>
-      <c r="AP102" s="44"/>
-      <c r="AQ102" s="44"/>
+      <c r="AN102" s="48"/>
+      <c r="AO102" s="48"/>
+      <c r="AP102" s="48"/>
+      <c r="AQ102" s="48"/>
       <c r="AR102" s="26" t="s">
         <v>56</v>
       </c>
       <c r="AS102" s="1"/>
-      <c r="AT102" s="34" t="s">
+      <c r="AT102" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="AU102" s="34"/>
-      <c r="AV102" s="38"/>
-      <c r="AW102" s="44"/>
-      <c r="AX102" s="39"/>
-      <c r="AZ102" s="38" t="s">
+      <c r="AU102" s="47"/>
+      <c r="AV102" s="41"/>
+      <c r="AW102" s="48"/>
+      <c r="AX102" s="42"/>
+      <c r="AZ102" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="BA102" s="39"/>
+      <c r="BA102" s="42"/>
       <c r="BB102" s="1"/>
       <c r="BC102" s="7"/>
       <c r="BE102" s="6"/>
-      <c r="BF102" s="1"/>
-      <c r="BG102" s="1"/>
+      <c r="BF102" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="BH102" s="1"/>
       <c r="BI102" s="1"/>
       <c r="BJ102" s="1"/>
@@ -5879,19 +6177,24 @@
       <c r="BB103" s="1"/>
       <c r="BC103" s="7"/>
       <c r="BE103" s="6"/>
-      <c r="BF103" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH103" s="1"/>
-      <c r="BI103" s="1"/>
-      <c r="BJ103" s="1"/>
-      <c r="BK103" s="1"/>
-      <c r="BL103" s="1"/>
-      <c r="BM103" s="1"/>
-      <c r="BN103" s="1"/>
-      <c r="BO103" s="1"/>
-      <c r="BP103" s="1"/>
-      <c r="BQ103" s="1"/>
+      <c r="BF103" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG103" s="12"/>
+      <c r="BH103" s="13"/>
+      <c r="BI103" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ103" s="12"/>
+      <c r="BK103" s="12"/>
+      <c r="BL103" s="13"/>
+      <c r="BM103" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN103" s="12"/>
+      <c r="BO103" s="13"/>
+      <c r="BP103" s="12"/>
+      <c r="BQ103" s="13"/>
       <c r="BR103" s="1"/>
       <c r="BS103" s="1"/>
       <c r="BT103" s="1"/>
@@ -5922,20 +6225,20 @@
         <v>149</v>
       </c>
       <c r="Q104" s="6"/>
-      <c r="R104" s="38" t="s">
+      <c r="R104" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="S104" s="39"/>
+      <c r="S104" s="42"/>
       <c r="T104" s="1"/>
-      <c r="U104" s="38" t="s">
+      <c r="U104" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="V104" s="39"/>
+      <c r="V104" s="42"/>
       <c r="W104" s="1"/>
-      <c r="X104" s="38" t="s">
+      <c r="X104" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="Y104" s="39"/>
+      <c r="Y104" s="42"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
@@ -5967,24 +6270,20 @@
       <c r="BB104" s="1"/>
       <c r="BC104" s="7"/>
       <c r="BE104" s="6"/>
-      <c r="BF104" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG104" s="12"/>
-      <c r="BH104" s="13"/>
-      <c r="BI104" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="BJ104" s="12"/>
-      <c r="BK104" s="12"/>
-      <c r="BL104" s="13"/>
-      <c r="BM104" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="BN104" s="12"/>
-      <c r="BO104" s="13"/>
-      <c r="BP104" s="12"/>
-      <c r="BQ104" s="13"/>
+      <c r="BF104" s="8"/>
+      <c r="BG104" s="2"/>
+      <c r="BH104" s="9"/>
+      <c r="BI104" s="8"/>
+      <c r="BJ104" s="2"/>
+      <c r="BK104" s="2"/>
+      <c r="BL104" s="9"/>
+      <c r="BM104" s="8"/>
+      <c r="BN104" s="2"/>
+      <c r="BO104" s="9"/>
+      <c r="BP104" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ104" s="34"/>
       <c r="BR104" s="1"/>
       <c r="BS104" s="1"/>
       <c r="BT104" s="1"/>
@@ -6062,10 +6361,10 @@
       <c r="BM105" s="8"/>
       <c r="BN105" s="2"/>
       <c r="BO105" s="9"/>
-      <c r="BP105" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="BQ105" s="39"/>
+      <c r="BP105" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ105" s="34"/>
       <c r="BR105" s="1"/>
       <c r="BS105" s="1"/>
       <c r="BT105" s="1"/>
@@ -6099,49 +6398,49 @@
       <c r="R106" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S106" s="38" t="s">
+      <c r="S106" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="T106" s="44"/>
-      <c r="U106" s="44"/>
-      <c r="V106" s="39"/>
-      <c r="W106" s="38" t="s">
+      <c r="T106" s="48"/>
+      <c r="U106" s="48"/>
+      <c r="V106" s="42"/>
+      <c r="W106" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="X106" s="44"/>
-      <c r="Y106" s="39"/>
-      <c r="Z106" s="38" t="s">
+      <c r="X106" s="48"/>
+      <c r="Y106" s="42"/>
+      <c r="Z106" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="AA106" s="39"/>
-      <c r="AB106" s="38" t="s">
+      <c r="AA106" s="42"/>
+      <c r="AB106" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="AC106" s="44"/>
-      <c r="AD106" s="39"/>
-      <c r="AE106" s="38" t="s">
+      <c r="AC106" s="48"/>
+      <c r="AD106" s="42"/>
+      <c r="AE106" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="AF106" s="44"/>
-      <c r="AG106" s="39"/>
-      <c r="AH106" s="38" t="s">
+      <c r="AF106" s="48"/>
+      <c r="AG106" s="42"/>
+      <c r="AH106" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="AI106" s="44"/>
-      <c r="AJ106" s="39"/>
-      <c r="AK106" s="38" t="s">
+      <c r="AI106" s="48"/>
+      <c r="AJ106" s="42"/>
+      <c r="AK106" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="AL106" s="44"/>
-      <c r="AM106" s="39"/>
-      <c r="AN106" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO106" s="44"/>
-      <c r="AP106" s="44"/>
-      <c r="AQ106" s="44"/>
-      <c r="AR106" s="44"/>
-      <c r="AS106" s="39"/>
+      <c r="AL106" s="48"/>
+      <c r="AM106" s="42"/>
+      <c r="AN106" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO106" s="48"/>
+      <c r="AP106" s="48"/>
+      <c r="AQ106" s="48"/>
+      <c r="AR106" s="48"/>
+      <c r="AS106" s="42"/>
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
       <c r="AV106" s="1"/>
@@ -6153,20 +6452,18 @@
       <c r="BB106" s="1"/>
       <c r="BC106" s="7"/>
       <c r="BE106" s="6"/>
-      <c r="BF106" s="8"/>
-      <c r="BG106" s="2"/>
-      <c r="BH106" s="9"/>
-      <c r="BI106" s="8"/>
-      <c r="BJ106" s="2"/>
-      <c r="BK106" s="2"/>
-      <c r="BL106" s="9"/>
-      <c r="BM106" s="8"/>
-      <c r="BN106" s="2"/>
-      <c r="BO106" s="9"/>
-      <c r="BP106" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="BQ106" s="39"/>
+      <c r="BF106" s="1"/>
+      <c r="BG106" s="1"/>
+      <c r="BH106" s="1"/>
+      <c r="BI106" s="1"/>
+      <c r="BJ106" s="1"/>
+      <c r="BK106" s="1"/>
+      <c r="BL106" s="1"/>
+      <c r="BM106" s="1"/>
+      <c r="BN106" s="1"/>
+      <c r="BO106" s="1"/>
+      <c r="BP106" s="1"/>
+      <c r="BQ106" s="1"/>
       <c r="BR106" s="1"/>
       <c r="BS106" s="1"/>
       <c r="BT106" s="1"/>
@@ -6221,12 +6518,12 @@
       <c r="AM107" s="1"/>
       <c r="AN107" s="1"/>
       <c r="AO107" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AP107" s="27"/>
       <c r="AQ107" s="27"/>
       <c r="AR107" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AS107" s="27"/>
       <c r="AT107" s="1"/>
@@ -6240,19 +6537,27 @@
       <c r="BB107" s="1"/>
       <c r="BC107" s="7"/>
       <c r="BE107" s="6"/>
-      <c r="BF107" s="1"/>
+      <c r="BF107" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="BG107" s="1"/>
       <c r="BH107" s="1"/>
       <c r="BI107" s="1"/>
-      <c r="BJ107" s="1"/>
+      <c r="BJ107" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="BK107" s="1"/>
       <c r="BL107" s="1"/>
-      <c r="BM107" s="1"/>
-      <c r="BN107" s="1"/>
-      <c r="BO107" s="1"/>
-      <c r="BP107" s="1"/>
-      <c r="BQ107" s="1"/>
-      <c r="BR107" s="1"/>
+      <c r="BM107" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="BN107" s="48"/>
+      <c r="BO107" s="48"/>
+      <c r="BP107" s="48"/>
+      <c r="BQ107" s="48"/>
+      <c r="BR107" s="32" t="s">
+        <v>56</v>
+      </c>
       <c r="BS107" s="1"/>
       <c r="BT107" s="1"/>
       <c r="BU107" s="1"/>
@@ -6321,39 +6626,47 @@
       <c r="BB108" s="1"/>
       <c r="BC108" s="7"/>
       <c r="BE108" s="6"/>
-      <c r="BF108" s="1"/>
-      <c r="BG108" s="1"/>
-      <c r="BH108" s="1"/>
-      <c r="BI108" s="1"/>
-      <c r="BJ108" s="1"/>
-      <c r="BK108" s="1"/>
-      <c r="BL108" s="1"/>
-      <c r="BM108" s="1"/>
-      <c r="BN108" s="1"/>
-      <c r="BO108" s="1"/>
-      <c r="BP108" s="1"/>
-      <c r="BQ108" s="1"/>
+      <c r="BF108" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG108" s="12"/>
+      <c r="BH108" s="13"/>
+      <c r="BI108" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="BJ108" s="12"/>
+      <c r="BK108" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL108" s="13"/>
+      <c r="BM108" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN108" s="12"/>
+      <c r="BO108" s="13"/>
+      <c r="BP108" s="12"/>
+      <c r="BQ108" s="13"/>
       <c r="BR108" s="1"/>
       <c r="BS108" s="1"/>
       <c r="BT108" s="1"/>
       <c r="BU108" s="1"/>
       <c r="BV108" s="7"/>
       <c r="BX108" s="6"/>
-      <c r="BY108" s="34" t="s">
+      <c r="BY108" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="BZ108" s="34"/>
-      <c r="CA108" s="34"/>
-      <c r="CB108" s="35" t="s">
+      <c r="BZ108" s="47"/>
+      <c r="CA108" s="47"/>
+      <c r="CB108" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="CC108" s="36"/>
-      <c r="CD108" s="36"/>
-      <c r="CE108" s="36"/>
-      <c r="CF108" s="36"/>
-      <c r="CG108" s="36"/>
-      <c r="CH108" s="36"/>
-      <c r="CI108" s="37"/>
+      <c r="CC108" s="50"/>
+      <c r="CD108" s="50"/>
+      <c r="CE108" s="50"/>
+      <c r="CF108" s="50"/>
+      <c r="CG108" s="50"/>
+      <c r="CH108" s="50"/>
+      <c r="CI108" s="51"/>
       <c r="CJ108" s="16" t="s">
         <v>56</v>
       </c>
@@ -6406,20 +6719,20 @@
       <c r="BB109" s="1"/>
       <c r="BC109" s="7"/>
       <c r="BE109" s="6"/>
-      <c r="BF109" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BG109" s="1"/>
-      <c r="BH109" s="1"/>
-      <c r="BI109" s="1"/>
-      <c r="BJ109" s="1"/>
-      <c r="BK109" s="1"/>
-      <c r="BL109" s="1"/>
-      <c r="BM109" s="1"/>
-      <c r="BN109" s="1"/>
-      <c r="BO109" s="1"/>
-      <c r="BP109" s="1"/>
-      <c r="BQ109" s="1"/>
+      <c r="BF109" s="8"/>
+      <c r="BG109" s="2"/>
+      <c r="BH109" s="9"/>
+      <c r="BI109" s="8"/>
+      <c r="BJ109" s="2"/>
+      <c r="BK109" s="2"/>
+      <c r="BL109" s="9"/>
+      <c r="BM109" s="8"/>
+      <c r="BN109" s="2"/>
+      <c r="BO109" s="9"/>
+      <c r="BP109" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ109" s="34"/>
       <c r="BR109" s="1"/>
       <c r="BS109" s="1"/>
       <c r="BT109" s="1"/>
@@ -6483,44 +6796,40 @@
       <c r="BB110" s="1"/>
       <c r="BC110" s="7"/>
       <c r="BE110" s="6"/>
-      <c r="BF110" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG110" s="12"/>
-      <c r="BH110" s="13"/>
-      <c r="BI110" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="BJ110" s="12"/>
-      <c r="BK110" s="12"/>
-      <c r="BL110" s="13"/>
-      <c r="BM110" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="BN110" s="12"/>
-      <c r="BO110" s="13"/>
-      <c r="BP110" s="12"/>
-      <c r="BQ110" s="13"/>
+      <c r="BF110" s="8"/>
+      <c r="BG110" s="2"/>
+      <c r="BH110" s="9"/>
+      <c r="BI110" s="8"/>
+      <c r="BJ110" s="2"/>
+      <c r="BK110" s="2"/>
+      <c r="BL110" s="9"/>
+      <c r="BM110" s="8"/>
+      <c r="BN110" s="2"/>
+      <c r="BO110" s="9"/>
+      <c r="BP110" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ110" s="34"/>
       <c r="BR110" s="1"/>
       <c r="BS110" s="1"/>
       <c r="BT110" s="1"/>
       <c r="BU110" s="1"/>
       <c r="BV110" s="7"/>
       <c r="BX110" s="6"/>
-      <c r="BY110" s="34" t="s">
+      <c r="BY110" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="BZ110" s="41"/>
-      <c r="CA110" s="35" t="s">
+      <c r="BZ110" s="53"/>
+      <c r="CA110" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="CB110" s="36"/>
-      <c r="CC110" s="36"/>
-      <c r="CD110" s="36"/>
-      <c r="CE110" s="36"/>
-      <c r="CF110" s="36"/>
-      <c r="CG110" s="36"/>
-      <c r="CH110" s="37"/>
+      <c r="CB110" s="50"/>
+      <c r="CC110" s="50"/>
+      <c r="CD110" s="50"/>
+      <c r="CE110" s="50"/>
+      <c r="CF110" s="50"/>
+      <c r="CG110" s="50"/>
+      <c r="CH110" s="51"/>
       <c r="CI110" s="16" t="s">
         <v>56</v>
       </c>
@@ -6531,8 +6840,8 @@
       <c r="CN110" s="7"/>
     </row>
     <row r="111" spans="2:92" ht="18" customHeight="1">
-      <c r="D111" s="31" t="s">
-        <v>155</v>
+      <c r="B111" s="31" t="s">
+        <v>236</v>
       </c>
       <c r="Q111" s="6"/>
       <c r="R111" s="1"/>
@@ -6574,20 +6883,18 @@
       <c r="BB111" s="1"/>
       <c r="BC111" s="7"/>
       <c r="BE111" s="6"/>
-      <c r="BF111" s="8"/>
-      <c r="BG111" s="2"/>
-      <c r="BH111" s="9"/>
-      <c r="BI111" s="8"/>
-      <c r="BJ111" s="2"/>
-      <c r="BK111" s="2"/>
-      <c r="BL111" s="9"/>
-      <c r="BM111" s="8"/>
-      <c r="BN111" s="2"/>
-      <c r="BO111" s="9"/>
-      <c r="BP111" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="BQ111" s="39"/>
+      <c r="BF111" s="1"/>
+      <c r="BG111" s="1"/>
+      <c r="BH111" s="1"/>
+      <c r="BI111" s="1"/>
+      <c r="BJ111" s="1"/>
+      <c r="BK111" s="1"/>
+      <c r="BL111" s="1"/>
+      <c r="BM111" s="1"/>
+      <c r="BN111" s="1"/>
+      <c r="BO111" s="1"/>
+      <c r="BP111" s="1"/>
+      <c r="BQ111" s="1"/>
       <c r="BR111" s="1"/>
       <c r="BS111" s="1"/>
       <c r="BT111" s="1"/>
@@ -6612,6 +6919,12 @@
       <c r="CN111" s="7"/>
     </row>
     <row r="112" spans="2:92" ht="18" customHeight="1">
+      <c r="F112" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J112" s="31" t="s">
+        <v>243</v>
+      </c>
       <c r="Q112" s="6"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -6652,40 +6965,40 @@
       <c r="BB112" s="1"/>
       <c r="BC112" s="7"/>
       <c r="BE112" s="6"/>
-      <c r="BF112" s="8"/>
-      <c r="BG112" s="2"/>
-      <c r="BH112" s="9"/>
-      <c r="BI112" s="8"/>
-      <c r="BJ112" s="2"/>
-      <c r="BK112" s="2"/>
-      <c r="BL112" s="9"/>
-      <c r="BM112" s="8"/>
-      <c r="BN112" s="2"/>
-      <c r="BO112" s="9"/>
-      <c r="BP112" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="BQ112" s="39"/>
+      <c r="BF112" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG112" s="1"/>
+      <c r="BH112" s="1"/>
+      <c r="BI112" s="1"/>
+      <c r="BJ112" s="1"/>
+      <c r="BK112" s="1"/>
+      <c r="BL112" s="1"/>
+      <c r="BM112" s="1"/>
+      <c r="BN112" s="1"/>
+      <c r="BO112" s="1"/>
+      <c r="BP112" s="1"/>
+      <c r="BQ112" s="1"/>
       <c r="BR112" s="1"/>
       <c r="BS112" s="1"/>
       <c r="BT112" s="1"/>
       <c r="BU112" s="1"/>
       <c r="BV112" s="7"/>
       <c r="BX112" s="6"/>
-      <c r="BY112" s="34" t="s">
+      <c r="BY112" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="BZ112" s="41"/>
-      <c r="CA112" s="35" t="s">
+      <c r="BZ112" s="53"/>
+      <c r="CA112" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="CB112" s="36"/>
-      <c r="CC112" s="36"/>
-      <c r="CD112" s="36"/>
-      <c r="CE112" s="36"/>
-      <c r="CF112" s="36"/>
-      <c r="CG112" s="36"/>
-      <c r="CH112" s="37"/>
+      <c r="CB112" s="50"/>
+      <c r="CC112" s="50"/>
+      <c r="CD112" s="50"/>
+      <c r="CE112" s="50"/>
+      <c r="CF112" s="50"/>
+      <c r="CG112" s="50"/>
+      <c r="CH112" s="51"/>
       <c r="CI112" s="26" t="s">
         <v>56</v>
       </c>
@@ -6695,9 +7008,15 @@
       <c r="CM112" s="1"/>
       <c r="CN112" s="7"/>
     </row>
-    <row r="113" spans="2:119" ht="18" customHeight="1">
-      <c r="D113" s="29" t="s">
+    <row r="113" spans="1:119" ht="18" customHeight="1">
+      <c r="B113" s="29" t="s">
         <v>122</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J113" s="29" t="s">
+        <v>240</v>
       </c>
       <c r="Q113" s="6"/>
       <c r="R113" s="1"/>
@@ -6739,18 +7058,24 @@
       <c r="BB113" s="1"/>
       <c r="BC113" s="7"/>
       <c r="BE113" s="6"/>
-      <c r="BF113" s="1"/>
-      <c r="BG113" s="1"/>
-      <c r="BH113" s="1"/>
-      <c r="BI113" s="1"/>
-      <c r="BJ113" s="1"/>
-      <c r="BK113" s="1"/>
-      <c r="BL113" s="1"/>
-      <c r="BM113" s="1"/>
-      <c r="BN113" s="1"/>
-      <c r="BO113" s="1"/>
-      <c r="BP113" s="1"/>
-      <c r="BQ113" s="1"/>
+      <c r="BF113" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG113" s="12"/>
+      <c r="BH113" s="13"/>
+      <c r="BI113" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="BJ113" s="12"/>
+      <c r="BK113" s="12"/>
+      <c r="BL113" s="13"/>
+      <c r="BM113" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN113" s="12"/>
+      <c r="BO113" s="13"/>
+      <c r="BP113" s="12"/>
+      <c r="BQ113" s="13"/>
       <c r="BR113" s="1"/>
       <c r="BS113" s="1"/>
       <c r="BT113" s="1"/>
@@ -6773,9 +7098,15 @@
       <c r="CM113" s="1"/>
       <c r="CN113" s="7"/>
     </row>
-    <row r="114" spans="2:119" ht="18" customHeight="1">
-      <c r="D114" s="29" t="s">
-        <v>156</v>
+    <row r="114" spans="1:119" ht="18" customHeight="1">
+      <c r="B114" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J114" s="29" t="s">
+        <v>242</v>
       </c>
       <c r="Q114" s="6"/>
       <c r="R114" s="1"/>
@@ -6817,18 +7148,20 @@
       <c r="BB114" s="1"/>
       <c r="BC114" s="7"/>
       <c r="BE114" s="6"/>
-      <c r="BF114" s="1"/>
-      <c r="BG114" s="1"/>
-      <c r="BH114" s="1"/>
-      <c r="BI114" s="1"/>
-      <c r="BJ114" s="1"/>
-      <c r="BK114" s="1"/>
-      <c r="BL114" s="1"/>
-      <c r="BM114" s="1"/>
-      <c r="BN114" s="1"/>
-      <c r="BO114" s="1"/>
-      <c r="BP114" s="1"/>
-      <c r="BQ114" s="1"/>
+      <c r="BF114" s="8"/>
+      <c r="BG114" s="2"/>
+      <c r="BH114" s="9"/>
+      <c r="BI114" s="8"/>
+      <c r="BJ114" s="2"/>
+      <c r="BK114" s="2"/>
+      <c r="BL114" s="9"/>
+      <c r="BM114" s="8"/>
+      <c r="BN114" s="2"/>
+      <c r="BO114" s="9"/>
+      <c r="BP114" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ114" s="34"/>
       <c r="BR114" s="1"/>
       <c r="BS114" s="1"/>
       <c r="BT114" s="1"/>
@@ -6854,9 +7187,15 @@
       <c r="CM114" s="1"/>
       <c r="CN114" s="7"/>
     </row>
-    <row r="115" spans="2:119" ht="18" customHeight="1">
-      <c r="D115" s="29" t="s">
-        <v>157</v>
+    <row r="115" spans="1:119" ht="18" customHeight="1">
+      <c r="B115" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="J115" s="29" t="s">
+        <v>241</v>
       </c>
       <c r="Q115" s="6"/>
       <c r="R115" s="1"/>
@@ -6898,22 +7237,20 @@
       <c r="BB115" s="1"/>
       <c r="BC115" s="7"/>
       <c r="BE115" s="6"/>
-      <c r="BF115" s="1"/>
-      <c r="BG115" s="1"/>
-      <c r="BH115" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="BI115" s="39"/>
-      <c r="BJ115" s="1"/>
-      <c r="BK115" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL115" s="39"/>
-      <c r="BM115" s="1"/>
-      <c r="BN115" s="1"/>
-      <c r="BO115" s="1"/>
-      <c r="BP115" s="1"/>
-      <c r="BQ115" s="1"/>
+      <c r="BF115" s="8"/>
+      <c r="BG115" s="2"/>
+      <c r="BH115" s="9"/>
+      <c r="BI115" s="8"/>
+      <c r="BJ115" s="2"/>
+      <c r="BK115" s="2"/>
+      <c r="BL115" s="9"/>
+      <c r="BM115" s="8"/>
+      <c r="BN115" s="2"/>
+      <c r="BO115" s="9"/>
+      <c r="BP115" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ115" s="42"/>
       <c r="BR115" s="1"/>
       <c r="BS115" s="1"/>
       <c r="BT115" s="1"/>
@@ -6937,9 +7274,12 @@
       <c r="CM115" s="1"/>
       <c r="CN115" s="7"/>
     </row>
-    <row r="116" spans="2:119" ht="18" customHeight="1">
-      <c r="D116" s="29" t="s">
-        <v>158</v>
+    <row r="116" spans="1:119" ht="18" customHeight="1">
+      <c r="B116" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="J116" s="29" t="s">
+        <v>244</v>
       </c>
       <c r="Q116" s="6"/>
       <c r="R116" s="1"/>
@@ -6981,18 +7321,6 @@
       <c r="BB116" s="1"/>
       <c r="BC116" s="7"/>
       <c r="BE116" s="6"/>
-      <c r="BF116" s="1"/>
-      <c r="BG116" s="1"/>
-      <c r="BH116" s="1"/>
-      <c r="BI116" s="1"/>
-      <c r="BJ116" s="1"/>
-      <c r="BK116" s="1"/>
-      <c r="BL116" s="1"/>
-      <c r="BM116" s="1"/>
-      <c r="BN116" s="1"/>
-      <c r="BO116" s="1"/>
-      <c r="BP116" s="1"/>
-      <c r="BQ116" s="1"/>
       <c r="BR116" s="1"/>
       <c r="BS116" s="1"/>
       <c r="BT116" s="1"/>
@@ -7000,15 +7328,15 @@
       <c r="BV116" s="7"/>
       <c r="BX116" s="6"/>
       <c r="BY116" s="1"/>
-      <c r="BZ116" s="38" t="s">
+      <c r="BZ116" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="CA116" s="39"/>
+      <c r="CA116" s="42"/>
       <c r="CB116" s="1"/>
-      <c r="CC116" s="38" t="s">
+      <c r="CC116" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="CD116" s="39"/>
+      <c r="CD116" s="42"/>
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
       <c r="CG116" s="1"/>
@@ -7020,9 +7348,9 @@
       <c r="CM116" s="1"/>
       <c r="CN116" s="7"/>
     </row>
-    <row r="117" spans="2:119" ht="18" customHeight="1">
-      <c r="D117" s="29" t="s">
-        <v>159</v>
+    <row r="117" spans="1:119" ht="18" customHeight="1">
+      <c r="B117" s="29" t="s">
+        <v>237</v>
       </c>
       <c r="Q117" s="6"/>
       <c r="R117" s="1"/>
@@ -7064,18 +7392,14 @@
       <c r="BB117" s="1"/>
       <c r="BC117" s="7"/>
       <c r="BE117" s="6"/>
-      <c r="BF117" s="1"/>
-      <c r="BG117" s="1"/>
-      <c r="BH117" s="1"/>
-      <c r="BI117" s="1"/>
-      <c r="BJ117" s="1"/>
-      <c r="BK117" s="1"/>
-      <c r="BL117" s="1"/>
-      <c r="BM117" s="1"/>
-      <c r="BN117" s="1"/>
-      <c r="BO117" s="1"/>
-      <c r="BP117" s="1"/>
-      <c r="BQ117" s="1"/>
+      <c r="BH117" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI117" s="42"/>
+      <c r="BK117" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL117" s="42"/>
       <c r="BR117" s="1"/>
       <c r="BS117" s="1"/>
       <c r="BT117" s="1"/>
@@ -7099,9 +7423,15 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="7"/>
     </row>
-    <row r="118" spans="2:119" ht="18" customHeight="1">
-      <c r="D118" s="29" t="s">
-        <v>153</v>
+    <row r="118" spans="1:119" ht="18" customHeight="1">
+      <c r="B118" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="K118" s="31" t="s">
+        <v>246</v>
       </c>
       <c r="Q118" s="8"/>
       <c r="R118" s="2"/>
@@ -7178,65 +7508,59 @@
       <c r="CM118" s="2"/>
       <c r="CN118" s="9"/>
     </row>
-    <row r="119" spans="2:119" ht="18" customHeight="1">
-      <c r="D119" s="29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="2:119" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="30"/>
-      <c r="I121" s="30"/>
-      <c r="J121" s="30"/>
-      <c r="K121" s="30"/>
-      <c r="L121" s="30"/>
-      <c r="M121" s="30"/>
-      <c r="N121" s="9"/>
-    </row>
-    <row r="123" spans="2:119" ht="18" customHeight="1">
-      <c r="Q123" t="s">
+    <row r="119" spans="1:119" ht="18" customHeight="1">
+      <c r="F119" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="K119" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:119" ht="18" customHeight="1">
+      <c r="F120" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K120" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:119" ht="18" customHeight="1">
+      <c r="F121" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K121" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="122" spans="1:119" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
+      <c r="N122" s="7"/>
+    </row>
+    <row r="123" spans="1:119" ht="18" customHeight="1">
+      <c r="A123" s="29"/>
+    </row>
+    <row r="124" spans="1:119" ht="18" customHeight="1">
+      <c r="D124" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q124" t="s">
         <v>94</v>
       </c>
-      <c r="T123" t="s">
+      <c r="T124" t="s">
         <v>113</v>
       </c>
-      <c r="CK123" s="1"/>
-      <c r="CL123" s="1"/>
-      <c r="CM123" s="1"/>
-      <c r="CN123" s="1"/>
-      <c r="CO123" s="1"/>
-      <c r="CP123" s="1"/>
-      <c r="CQ123" s="1"/>
-      <c r="CR123" s="1"/>
-      <c r="CS123" s="1"/>
-      <c r="CT123" s="1"/>
-      <c r="CU123" s="1"/>
-    </row>
-    <row r="124" spans="2:119" ht="18" customHeight="1">
-      <c r="Q124" s="3"/>
-      <c r="R124" s="4"/>
-      <c r="S124" s="4"/>
-      <c r="T124" s="4"/>
-      <c r="U124" s="4"/>
-      <c r="V124" s="4"/>
-      <c r="W124" s="4"/>
-      <c r="X124" s="4"/>
-      <c r="Y124" s="4"/>
-      <c r="Z124" s="4"/>
-      <c r="AA124" s="4"/>
-      <c r="AB124" s="4"/>
-      <c r="AC124" s="4"/>
-      <c r="AD124" s="4"/>
-      <c r="AE124" s="4"/>
-      <c r="AF124" s="4"/>
-      <c r="AG124" s="4"/>
-      <c r="AH124" s="4"/>
-      <c r="AI124" s="5"/>
       <c r="CK124" s="1"/>
       <c r="CL124" s="1"/>
       <c r="CM124" s="1"/>
@@ -7249,84 +7573,87 @@
       <c r="CT124" s="1"/>
       <c r="CU124" s="1"/>
     </row>
-    <row r="125" spans="2:119" ht="18" customHeight="1">
-      <c r="Q125" s="6"/>
-      <c r="R125" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S125" s="1"/>
-      <c r="T125" s="33"/>
-      <c r="U125" s="33"/>
-      <c r="V125" s="33"/>
-      <c r="W125" s="1"/>
-      <c r="X125" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y125" s="1"/>
-      <c r="Z125" s="33"/>
-      <c r="AA125" s="33"/>
-      <c r="AB125" s="33"/>
-      <c r="AC125" s="1"/>
-      <c r="AD125" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE125" s="39"/>
-      <c r="AF125" s="1"/>
-      <c r="AG125" s="1"/>
-      <c r="AH125" s="1"/>
-      <c r="AI125" s="7"/>
-      <c r="AL125" t="s">
-        <v>178</v>
-      </c>
-      <c r="AX125" t="s">
-        <v>174</v>
-      </c>
-      <c r="BM125" t="s">
-        <v>188</v>
-      </c>
-      <c r="CC125" t="s">
-        <v>187</v>
-      </c>
+    <row r="125" spans="1:119" ht="18" customHeight="1">
+      <c r="Q125" s="3"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+      <c r="AB125" s="4"/>
+      <c r="AC125" s="4"/>
+      <c r="AD125" s="4"/>
+      <c r="AE125" s="4"/>
+      <c r="AF125" s="4"/>
+      <c r="AG125" s="4"/>
+      <c r="AH125" s="4"/>
+      <c r="AI125" s="5"/>
       <c r="CK125" s="1"/>
       <c r="CL125" s="1"/>
-      <c r="CM125" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="DC125" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="DD125" s="1"/>
-      <c r="DE125" s="1"/>
-      <c r="DF125" s="1"/>
-      <c r="DG125" s="1"/>
-      <c r="DH125" s="1"/>
-      <c r="DI125" s="1"/>
-      <c r="DJ125" s="1"/>
-    </row>
-    <row r="126" spans="2:119" ht="18" customHeight="1">
+      <c r="CM125" s="1"/>
+      <c r="CN125" s="1"/>
+      <c r="CO125" s="1"/>
+      <c r="CP125" s="1"/>
+      <c r="CQ125" s="1"/>
+      <c r="CR125" s="1"/>
+      <c r="CS125" s="1"/>
+      <c r="CT125" s="1"/>
+      <c r="CU125" s="1"/>
+    </row>
+    <row r="126" spans="1:119" ht="18" customHeight="1">
+      <c r="D126" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="Q126" s="6"/>
-      <c r="R126" s="1"/>
+      <c r="R126" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="S126" s="1"/>
-      <c r="T126" s="1"/>
-      <c r="U126" s="1"/>
-      <c r="V126" s="1"/>
+      <c r="T126" s="46"/>
+      <c r="U126" s="46"/>
+      <c r="V126" s="46"/>
       <c r="W126" s="1"/>
-      <c r="X126" s="1"/>
+      <c r="X126" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="Y126" s="1"/>
-      <c r="Z126" s="1"/>
-      <c r="AA126" s="1"/>
-      <c r="AB126" s="1"/>
+      <c r="Z126" s="46"/>
+      <c r="AA126" s="46"/>
+      <c r="AB126" s="46"/>
       <c r="AC126" s="1"/>
-      <c r="AD126" s="1"/>
-      <c r="AE126" s="1"/>
+      <c r="AD126" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE126" s="42"/>
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
       <c r="AI126" s="7"/>
+      <c r="AL126" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX126" t="s">
+        <v>171</v>
+      </c>
+      <c r="BM126" t="s">
+        <v>185</v>
+      </c>
+      <c r="CC126" t="s">
+        <v>184</v>
+      </c>
       <c r="CK126" s="1"/>
       <c r="CL126" s="1"/>
-      <c r="CM126" s="1"/>
-      <c r="DC126" s="1"/>
+      <c r="CM126" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DC126" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="DD126" s="1"/>
       <c r="DE126" s="1"/>
       <c r="DF126" s="1"/>
@@ -7335,22 +7662,19 @@
       <c r="DI126" s="1"/>
       <c r="DJ126" s="1"/>
     </row>
-    <row r="127" spans="2:119" ht="18" customHeight="1">
+    <row r="127" spans="1:119" ht="18" customHeight="1">
+      <c r="D127" s="29" t="s">
+        <v>222</v>
+      </c>
       <c r="Q127" s="6"/>
-      <c r="R127" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="S127" s="33"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
       <c r="T127" s="1"/>
-      <c r="U127" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="V127" s="33"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
       <c r="W127" s="1"/>
-      <c r="X127" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y127" s="33"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
@@ -7361,98 +7685,37 @@
       <c r="AG127" s="1"/>
       <c r="AH127" s="1"/>
       <c r="AI127" s="7"/>
-      <c r="AL127" s="3"/>
-      <c r="AM127" s="4"/>
-      <c r="AN127" s="4"/>
-      <c r="AO127" s="4"/>
-      <c r="AP127" s="4"/>
-      <c r="AQ127" s="4"/>
-      <c r="AR127" s="4"/>
-      <c r="AS127" s="4"/>
-      <c r="AT127" s="4"/>
-      <c r="AU127" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX127" s="3"/>
-      <c r="AY127" s="4"/>
-      <c r="AZ127" s="4"/>
-      <c r="BA127" s="4"/>
-      <c r="BB127" s="4"/>
-      <c r="BC127" s="4"/>
-      <c r="BD127" s="4"/>
-      <c r="BE127" s="4"/>
-      <c r="BF127" s="4"/>
-      <c r="BG127" s="4"/>
-      <c r="BH127" s="4"/>
-      <c r="BI127" s="4"/>
-      <c r="BJ127" s="4"/>
-      <c r="BK127" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM127" s="3"/>
-      <c r="BN127" s="4"/>
-      <c r="BO127" s="4"/>
-      <c r="BP127" s="4"/>
-      <c r="BQ127" s="4"/>
-      <c r="BR127" s="4"/>
-      <c r="BS127" s="4"/>
-      <c r="BT127" s="4"/>
-      <c r="BU127" s="4"/>
-      <c r="BV127" s="4"/>
-      <c r="BW127" s="4"/>
-      <c r="BX127" s="4"/>
-      <c r="BY127" s="4"/>
-      <c r="BZ127" s="4"/>
-      <c r="CA127" s="5"/>
-      <c r="CC127" s="3"/>
-      <c r="CD127" s="4"/>
-      <c r="CE127" s="4"/>
-      <c r="CF127" s="4"/>
-      <c r="CG127" s="4"/>
-      <c r="CH127" s="4"/>
-      <c r="CI127" s="4"/>
-      <c r="CJ127" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="CK127" s="1"/>
       <c r="CL127" s="1"/>
-      <c r="CM127" s="3"/>
-      <c r="CN127" s="4"/>
-      <c r="CO127" s="4"/>
-      <c r="CP127" s="4"/>
-      <c r="CQ127" s="4"/>
-      <c r="CR127" s="4"/>
-      <c r="CS127" s="4"/>
-      <c r="CT127" s="4"/>
-      <c r="CU127" s="4"/>
-      <c r="CV127" s="4"/>
-      <c r="CW127" s="4"/>
-      <c r="CX127" s="4"/>
-      <c r="CY127" s="5"/>
-      <c r="DC127" s="3"/>
-      <c r="DD127" s="4"/>
-      <c r="DE127" s="4"/>
-      <c r="DF127" s="4"/>
-      <c r="DG127" s="4"/>
-      <c r="DH127" s="4"/>
-      <c r="DI127" s="4"/>
-      <c r="DJ127" s="4"/>
-      <c r="DK127" s="4"/>
-      <c r="DL127" s="4"/>
-      <c r="DM127" s="4"/>
-      <c r="DN127" s="4"/>
-      <c r="DO127" s="5"/>
-    </row>
-    <row r="128" spans="2:119" ht="18" customHeight="1">
+      <c r="CM127" s="1"/>
+      <c r="DC127" s="1"/>
+      <c r="DD127" s="1"/>
+      <c r="DE127" s="1"/>
+      <c r="DF127" s="1"/>
+      <c r="DG127" s="1"/>
+      <c r="DH127" s="1"/>
+      <c r="DI127" s="1"/>
+      <c r="DJ127" s="1"/>
+    </row>
+    <row r="128" spans="1:119" ht="18" customHeight="1">
+      <c r="D128" s="29" t="s">
+        <v>224</v>
+      </c>
       <c r="Q128" s="6"/>
-      <c r="R128" s="1"/>
-      <c r="S128" s="1"/>
+      <c r="R128" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="S128" s="46"/>
       <c r="T128" s="1"/>
-      <c r="U128" s="1"/>
-      <c r="V128" s="1"/>
+      <c r="U128" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="V128" s="46"/>
       <c r="W128" s="1"/>
-      <c r="X128" s="1"/>
-      <c r="Y128" s="1"/>
+      <c r="X128" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y128" s="46"/>
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
@@ -7463,139 +7726,133 @@
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
       <c r="AI128" s="7"/>
-      <c r="AL128" s="6"/>
-      <c r="AM128" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN128" s="1"/>
-      <c r="AO128" s="33"/>
-      <c r="AP128" s="33"/>
-      <c r="AQ128" s="33"/>
-      <c r="AR128" s="33"/>
-      <c r="AS128" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT128" s="1"/>
-      <c r="AU128" s="7"/>
-      <c r="AX128" s="6"/>
-      <c r="AY128" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AZ128" s="1"/>
-      <c r="BA128" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB128" s="1"/>
-      <c r="BC128" s="1"/>
-      <c r="BD128" s="1"/>
-      <c r="BE128" s="1"/>
-      <c r="BF128" s="1"/>
-      <c r="BG128" s="1"/>
-      <c r="BH128" s="1"/>
-      <c r="BI128" s="1"/>
-      <c r="BJ128" s="1"/>
-      <c r="BK128" s="7"/>
-      <c r="BM128" s="6"/>
-      <c r="BN128" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BO128" s="1"/>
-      <c r="BP128" s="1"/>
-      <c r="BQ128" s="1"/>
-      <c r="BR128" s="1"/>
-      <c r="BS128" s="1"/>
-      <c r="BT128" s="1"/>
-      <c r="BU128" s="1"/>
-      <c r="BV128" s="1"/>
-      <c r="BW128" s="1"/>
-      <c r="BX128" s="1"/>
-      <c r="BY128" s="1"/>
-      <c r="BZ128" s="1"/>
-      <c r="CA128" s="7"/>
-      <c r="CC128" s="6"/>
-      <c r="CD128" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CF128" s="1"/>
-      <c r="CG128" s="1"/>
-      <c r="CH128" s="1"/>
-      <c r="CI128" s="1"/>
-      <c r="CJ128" s="7"/>
+      <c r="AL128" s="3"/>
+      <c r="AM128" s="4"/>
+      <c r="AN128" s="4"/>
+      <c r="AO128" s="4"/>
+      <c r="AP128" s="4"/>
+      <c r="AQ128" s="4"/>
+      <c r="AR128" s="4"/>
+      <c r="AS128" s="4"/>
+      <c r="AT128" s="4"/>
+      <c r="AU128" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX128" s="3"/>
+      <c r="AY128" s="4"/>
+      <c r="AZ128" s="4"/>
+      <c r="BA128" s="4"/>
+      <c r="BB128" s="4"/>
+      <c r="BC128" s="4"/>
+      <c r="BD128" s="4"/>
+      <c r="BE128" s="4"/>
+      <c r="BF128" s="4"/>
+      <c r="BG128" s="4"/>
+      <c r="BH128" s="4"/>
+      <c r="BI128" s="4"/>
+      <c r="BJ128" s="4"/>
+      <c r="BK128" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM128" s="3"/>
+      <c r="BN128" s="4"/>
+      <c r="BO128" s="4"/>
+      <c r="BP128" s="4"/>
+      <c r="BQ128" s="4"/>
+      <c r="BR128" s="4"/>
+      <c r="BS128" s="4"/>
+      <c r="BT128" s="4"/>
+      <c r="BU128" s="4"/>
+      <c r="BV128" s="4"/>
+      <c r="BW128" s="4"/>
+      <c r="BX128" s="4"/>
+      <c r="BY128" s="4"/>
+      <c r="BZ128" s="4"/>
+      <c r="CA128" s="5"/>
+      <c r="CC128" s="3"/>
+      <c r="CD128" s="4"/>
+      <c r="CE128" s="4"/>
+      <c r="CF128" s="4"/>
+      <c r="CG128" s="4"/>
+      <c r="CH128" s="4"/>
+      <c r="CI128" s="4"/>
+      <c r="CJ128" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="CK128" s="1"/>
       <c r="CL128" s="1"/>
-      <c r="CM128" s="6"/>
-      <c r="CN128" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="CO128" s="1"/>
-      <c r="CP128" s="1"/>
-      <c r="CQ128" s="1"/>
-      <c r="CR128" s="1"/>
-      <c r="CS128" s="1"/>
-      <c r="CT128" s="1"/>
-      <c r="CU128" s="1"/>
-      <c r="CV128" s="1"/>
-      <c r="CW128" s="1"/>
-      <c r="CX128" s="1"/>
-      <c r="CY128" s="7"/>
-      <c r="DC128" s="6"/>
-      <c r="DD128" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="DE128" s="1"/>
-      <c r="DF128" s="1"/>
-      <c r="DG128" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="DH128" s="1"/>
-      <c r="DI128" s="1"/>
-      <c r="DJ128" s="1"/>
-      <c r="DK128" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="DL128" s="1"/>
-      <c r="DM128" s="1"/>
-      <c r="DN128" s="1"/>
-      <c r="DO128" s="7"/>
-    </row>
-    <row r="129" spans="2:119" ht="18" customHeight="1">
+      <c r="CM128" s="3"/>
+      <c r="CN128" s="4"/>
+      <c r="CO128" s="4"/>
+      <c r="CP128" s="4"/>
+      <c r="CQ128" s="4"/>
+      <c r="CR128" s="4"/>
+      <c r="CS128" s="4"/>
+      <c r="CT128" s="4"/>
+      <c r="CU128" s="4"/>
+      <c r="CV128" s="4"/>
+      <c r="CW128" s="4"/>
+      <c r="CX128" s="4"/>
+      <c r="CY128" s="5"/>
+      <c r="DC128" s="3"/>
+      <c r="DD128" s="4"/>
+      <c r="DE128" s="4"/>
+      <c r="DF128" s="4"/>
+      <c r="DG128" s="4"/>
+      <c r="DH128" s="4"/>
+      <c r="DI128" s="4"/>
+      <c r="DJ128" s="4"/>
+      <c r="DK128" s="4"/>
+      <c r="DL128" s="4"/>
+      <c r="DM128" s="4"/>
+      <c r="DN128" s="4"/>
+      <c r="DO128" s="5"/>
+    </row>
+    <row r="129" spans="4:119" ht="18" customHeight="1">
+      <c r="D129" s="29" t="s">
+        <v>225</v>
+      </c>
       <c r="Q129" s="6"/>
-      <c r="R129" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="S129" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="T129" s="39"/>
-      <c r="U129" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="V129" s="39"/>
-      <c r="W129" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="X129" s="39"/>
-      <c r="Y129" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z129" s="39"/>
-      <c r="AA129" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB129" s="44"/>
-      <c r="AC129" s="44"/>
-      <c r="AD129" s="44"/>
-      <c r="AE129" s="44"/>
-      <c r="AF129" s="44"/>
-      <c r="AG129" s="44"/>
-      <c r="AH129" s="39"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
+      <c r="AA129" s="1"/>
+      <c r="AB129" s="1"/>
+      <c r="AC129" s="1"/>
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="1"/>
+      <c r="AF129" s="1"/>
+      <c r="AG129" s="1"/>
+      <c r="AH129" s="1"/>
       <c r="AI129" s="7"/>
       <c r="AL129" s="6"/>
-      <c r="AV129" s="6"/>
+      <c r="AM129" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN129" s="1"/>
+      <c r="AO129" s="46"/>
+      <c r="AP129" s="46"/>
+      <c r="AQ129" s="46"/>
+      <c r="AR129" s="46"/>
+      <c r="AS129" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT129" s="1"/>
+      <c r="AU129" s="7"/>
       <c r="AX129" s="6"/>
-      <c r="AY129" s="1"/>
+      <c r="AY129" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="AZ129" s="1"/>
-      <c r="BA129" s="1"/>
+      <c r="BA129" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="BB129" s="1"/>
       <c r="BC129" s="1"/>
       <c r="BD129" s="1"/>
@@ -7607,7 +7864,9 @@
       <c r="BJ129" s="1"/>
       <c r="BK129" s="7"/>
       <c r="BM129" s="6"/>
-      <c r="BN129" s="1"/>
+      <c r="BN129" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="BO129" s="1"/>
       <c r="BP129" s="1"/>
       <c r="BQ129" s="1"/>
@@ -7622,245 +7881,246 @@
       <c r="BZ129" s="1"/>
       <c r="CA129" s="7"/>
       <c r="CC129" s="6"/>
-      <c r="CD129" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="CE129" s="12"/>
-      <c r="CF129" s="13"/>
-      <c r="CG129" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH129" s="13"/>
+      <c r="CD129" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF129" s="1"/>
+      <c r="CG129" s="1"/>
+      <c r="CH129" s="1"/>
       <c r="CI129" s="1"/>
       <c r="CJ129" s="7"/>
       <c r="CK129" s="1"/>
       <c r="CL129" s="1"/>
       <c r="CM129" s="6"/>
-      <c r="CN129" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="CO129" s="12"/>
-      <c r="CP129" s="13"/>
-      <c r="CQ129" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="CR129" s="13"/>
-      <c r="CS129" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="CT129" s="13"/>
+      <c r="CN129" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CO129" s="1"/>
+      <c r="CP129" s="1"/>
+      <c r="CQ129" s="1"/>
+      <c r="CR129" s="1"/>
+      <c r="CS129" s="1"/>
+      <c r="CT129" s="1"/>
       <c r="CU129" s="1"/>
       <c r="CV129" s="1"/>
       <c r="CW129" s="1"/>
       <c r="CX129" s="1"/>
       <c r="CY129" s="7"/>
       <c r="DC129" s="6"/>
-      <c r="DD129" s="1"/>
+      <c r="DD129" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="DE129" s="1"/>
       <c r="DF129" s="1"/>
-      <c r="DG129" s="1"/>
+      <c r="DG129" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="DH129" s="1"/>
       <c r="DI129" s="1"/>
       <c r="DJ129" s="1"/>
-      <c r="DK129" s="1"/>
+      <c r="DK129" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="DL129" s="1"/>
       <c r="DM129" s="1"/>
       <c r="DN129" s="1"/>
       <c r="DO129" s="7"/>
     </row>
-    <row r="130" spans="2:119" ht="18" customHeight="1">
+    <row r="130" spans="4:119" ht="18" customHeight="1">
+      <c r="D130" s="29" t="s">
+        <v>226</v>
+      </c>
       <c r="Q130" s="6"/>
-      <c r="R130" s="15"/>
-      <c r="S130" s="38"/>
-      <c r="T130" s="39"/>
-      <c r="U130" s="38"/>
-      <c r="V130" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="W130" s="38"/>
-      <c r="X130" s="39"/>
-      <c r="Y130" s="38"/>
-      <c r="Z130" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA130" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB130" s="33"/>
-      <c r="AC130" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD130" s="33"/>
-      <c r="AE130" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF130" s="33"/>
-      <c r="AG130" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH130" s="33"/>
+      <c r="R130" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="S130" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T130" s="42"/>
+      <c r="U130" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="V130" s="42"/>
+      <c r="W130" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="X130" s="42"/>
+      <c r="Y130" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z130" s="42"/>
+      <c r="AA130" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB130" s="48"/>
+      <c r="AC130" s="48"/>
+      <c r="AD130" s="48"/>
+      <c r="AE130" s="48"/>
+      <c r="AF130" s="48"/>
+      <c r="AG130" s="48"/>
+      <c r="AH130" s="42"/>
       <c r="AI130" s="7"/>
       <c r="AL130" s="6"/>
-      <c r="AM130" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN130" s="1"/>
-      <c r="AO130" s="11"/>
-      <c r="AP130" s="12"/>
-      <c r="AQ130" s="12"/>
-      <c r="AR130" s="12"/>
-      <c r="AS130" s="13"/>
-      <c r="AU130" s="7"/>
+      <c r="AV130" s="6"/>
       <c r="AX130" s="6"/>
-      <c r="AY130" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ130" s="33"/>
-      <c r="BA130" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="BB130" s="33"/>
-      <c r="BC130" s="33"/>
-      <c r="BD130" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="BE130" s="33"/>
-      <c r="BF130" s="33"/>
-      <c r="BG130" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="BH130" s="39"/>
+      <c r="AY130" s="1"/>
+      <c r="AZ130" s="1"/>
+      <c r="BA130" s="1"/>
+      <c r="BB130" s="1"/>
+      <c r="BC130" s="1"/>
+      <c r="BD130" s="1"/>
+      <c r="BE130" s="1"/>
+      <c r="BF130" s="1"/>
+      <c r="BG130" s="1"/>
+      <c r="BH130" s="1"/>
       <c r="BI130" s="1"/>
       <c r="BJ130" s="1"/>
       <c r="BK130" s="7"/>
       <c r="BM130" s="6"/>
       <c r="BN130" s="1"/>
-      <c r="BO130" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP130" s="39"/>
-      <c r="BQ130" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="BR130" s="39"/>
-      <c r="BS130" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="BT130" s="39"/>
+      <c r="BO130" s="1"/>
+      <c r="BP130" s="1"/>
+      <c r="BQ130" s="1"/>
+      <c r="BR130" s="1"/>
+      <c r="BS130" s="1"/>
+      <c r="BT130" s="1"/>
       <c r="BU130" s="1"/>
       <c r="BV130" s="1"/>
       <c r="BW130" s="1"/>
+      <c r="BX130" s="1"/>
       <c r="BY130" s="1"/>
       <c r="BZ130" s="1"/>
       <c r="CA130" s="7"/>
       <c r="CC130" s="6"/>
-      <c r="CD130" s="8"/>
-      <c r="CE130" s="2"/>
-      <c r="CF130" s="9"/>
-      <c r="CG130" s="8"/>
-      <c r="CH130" s="9"/>
+      <c r="CD130" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE130" s="12"/>
+      <c r="CF130" s="13"/>
+      <c r="CG130" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="CH130" s="13"/>
       <c r="CI130" s="1"/>
       <c r="CJ130" s="7"/>
       <c r="CK130" s="1"/>
       <c r="CL130" s="1"/>
       <c r="CM130" s="6"/>
-      <c r="CN130" s="8"/>
-      <c r="CO130" s="2"/>
-      <c r="CP130" s="9"/>
-      <c r="CQ130" s="8"/>
-      <c r="CR130" s="9"/>
-      <c r="CS130" s="38"/>
-      <c r="CT130" s="39"/>
-      <c r="CU130" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="CV130" s="39"/>
+      <c r="CN130" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="CO130" s="12"/>
+      <c r="CP130" s="13"/>
+      <c r="CQ130" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="CR130" s="13"/>
+      <c r="CS130" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="CT130" s="13"/>
+      <c r="CU130" s="1"/>
+      <c r="CV130" s="1"/>
       <c r="CW130" s="1"/>
       <c r="CX130" s="1"/>
       <c r="CY130" s="7"/>
       <c r="DC130" s="6"/>
-      <c r="DD130" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="DD130" s="1"/>
       <c r="DE130" s="1"/>
-      <c r="DF130" s="3"/>
-      <c r="DG130" s="4"/>
-      <c r="DH130" s="4"/>
-      <c r="DI130" s="4"/>
-      <c r="DJ130" s="4"/>
-      <c r="DK130" s="4"/>
-      <c r="DL130" s="4"/>
-      <c r="DM130" s="4"/>
-      <c r="DN130" s="5"/>
+      <c r="DF130" s="1"/>
+      <c r="DG130" s="1"/>
+      <c r="DH130" s="1"/>
+      <c r="DI130" s="1"/>
+      <c r="DJ130" s="1"/>
+      <c r="DK130" s="1"/>
+      <c r="DL130" s="1"/>
+      <c r="DM130" s="1"/>
+      <c r="DN130" s="1"/>
       <c r="DO130" s="7"/>
     </row>
-    <row r="131" spans="2:119" ht="18" customHeight="1">
+    <row r="131" spans="4:119" ht="18" customHeight="1">
       <c r="Q131" s="6"/>
       <c r="R131" s="15"/>
-      <c r="S131" s="38"/>
-      <c r="T131" s="39"/>
-      <c r="U131" s="38"/>
-      <c r="V131" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="W131" s="38"/>
-      <c r="X131" s="39"/>
-      <c r="Y131" s="38"/>
-      <c r="Z131" s="39"/>
-      <c r="AA131" s="33"/>
-      <c r="AB131" s="33"/>
-      <c r="AC131" s="33"/>
-      <c r="AD131" s="33"/>
-      <c r="AE131" s="33"/>
-      <c r="AF131" s="33"/>
-      <c r="AG131" s="33"/>
-      <c r="AH131" s="33"/>
+      <c r="S131" s="41"/>
+      <c r="T131" s="42"/>
+      <c r="U131" s="41"/>
+      <c r="V131" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="W131" s="41"/>
+      <c r="X131" s="42"/>
+      <c r="Y131" s="41"/>
+      <c r="Z131" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA131" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB131" s="46"/>
+      <c r="AC131" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD131" s="46"/>
+      <c r="AE131" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF131" s="46"/>
+      <c r="AG131" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH131" s="46"/>
       <c r="AI131" s="7"/>
       <c r="AL131" s="6"/>
-      <c r="AM131" s="1"/>
+      <c r="AM131" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="AN131" s="1"/>
-      <c r="AO131" s="1"/>
-      <c r="AP131" s="1"/>
-      <c r="AQ131" s="1"/>
-      <c r="AR131" s="1"/>
-      <c r="AS131" s="1"/>
-      <c r="AT131" s="1"/>
+      <c r="AO131" s="11"/>
+      <c r="AP131" s="12"/>
+      <c r="AQ131" s="12"/>
+      <c r="AR131" s="12"/>
+      <c r="AS131" s="13"/>
       <c r="AU131" s="7"/>
       <c r="AX131" s="6"/>
-      <c r="AY131" s="33">
-        <v>1</v>
-      </c>
-      <c r="AZ131" s="33"/>
-      <c r="BA131" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="BB131" s="45"/>
-      <c r="BC131" s="45"/>
-      <c r="BD131" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="BE131" s="33"/>
-      <c r="BF131" s="33"/>
-      <c r="BG131" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="BH131" s="39"/>
-      <c r="BI131" s="23" t="s">
-        <v>211</v>
-      </c>
+      <c r="AY131" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ131" s="46"/>
+      <c r="BA131" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB131" s="46"/>
+      <c r="BC131" s="46"/>
+      <c r="BD131" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE131" s="46"/>
+      <c r="BF131" s="46"/>
+      <c r="BG131" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="BH131" s="42"/>
+      <c r="BI131" s="1"/>
+      <c r="BJ131" s="1"/>
       <c r="BK131" s="7"/>
       <c r="BM131" s="6"/>
       <c r="BN131" s="1"/>
-      <c r="BO131" s="38"/>
-      <c r="BP131" s="39"/>
-      <c r="BQ131" s="38"/>
-      <c r="BR131" s="39"/>
-      <c r="BS131" s="38"/>
-      <c r="BT131" s="39"/>
+      <c r="BO131" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="BP131" s="42"/>
+      <c r="BQ131" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="BR131" s="42"/>
+      <c r="BS131" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="BT131" s="42"/>
       <c r="BU131" s="1"/>
       <c r="BV131" s="1"/>
       <c r="BW131" s="1"/>
-      <c r="BX131" s="1"/>
       <c r="BY131" s="1"/>
       <c r="BZ131" s="1"/>
       <c r="CA131" s="7"/>
@@ -7880,197 +8140,215 @@
       <c r="CP131" s="9"/>
       <c r="CQ131" s="8"/>
       <c r="CR131" s="9"/>
-      <c r="CS131" s="38"/>
-      <c r="CT131" s="39"/>
-      <c r="CU131" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV131" s="39"/>
+      <c r="CS131" s="41"/>
+      <c r="CT131" s="42"/>
+      <c r="CU131" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CV131" s="42"/>
       <c r="CW131" s="1"/>
       <c r="CX131" s="1"/>
       <c r="CY131" s="7"/>
       <c r="DC131" s="6"/>
-      <c r="DD131" s="1"/>
+      <c r="DD131" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="DE131" s="1"/>
-      <c r="DF131" s="8"/>
-      <c r="DG131" s="2"/>
-      <c r="DH131" s="2"/>
-      <c r="DI131" s="2"/>
-      <c r="DJ131" s="2"/>
-      <c r="DK131" s="2"/>
-      <c r="DL131" s="2"/>
-      <c r="DM131" s="2"/>
-      <c r="DN131" s="9"/>
+      <c r="DF131" s="3"/>
+      <c r="DG131" s="4"/>
+      <c r="DH131" s="4"/>
+      <c r="DI131" s="4"/>
+      <c r="DJ131" s="4"/>
+      <c r="DK131" s="4"/>
+      <c r="DL131" s="4"/>
+      <c r="DM131" s="4"/>
+      <c r="DN131" s="5"/>
       <c r="DO131" s="7"/>
     </row>
-    <row r="132" spans="2:119" ht="18" customHeight="1">
+    <row r="132" spans="4:119" ht="18" customHeight="1">
+      <c r="D132" s="31" t="s">
+        <v>227</v>
+      </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="15"/>
-      <c r="S132" s="38"/>
-      <c r="T132" s="39"/>
-      <c r="U132" s="38"/>
-      <c r="V132" s="39"/>
-      <c r="W132" s="38"/>
-      <c r="X132" s="39"/>
-      <c r="Y132" s="38"/>
-      <c r="Z132" s="39"/>
-      <c r="AA132" s="33"/>
-      <c r="AB132" s="33"/>
-      <c r="AC132" s="33"/>
-      <c r="AD132" s="33"/>
-      <c r="AE132" s="33"/>
-      <c r="AF132" s="33"/>
-      <c r="AG132" s="33"/>
-      <c r="AH132" s="33"/>
+      <c r="S132" s="41"/>
+      <c r="T132" s="42"/>
+      <c r="U132" s="41"/>
+      <c r="V132" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="W132" s="41"/>
+      <c r="X132" s="42"/>
+      <c r="Y132" s="41"/>
+      <c r="Z132" s="42"/>
+      <c r="AA132" s="46"/>
+      <c r="AB132" s="46"/>
+      <c r="AC132" s="46"/>
+      <c r="AD132" s="46"/>
+      <c r="AE132" s="46"/>
+      <c r="AF132" s="46"/>
+      <c r="AG132" s="46"/>
+      <c r="AH132" s="46"/>
       <c r="AI132" s="7"/>
       <c r="AL132" s="6"/>
-      <c r="AM132" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="AM132" s="1"/>
       <c r="AN132" s="1"/>
-      <c r="AO132" s="3"/>
-      <c r="AP132" s="4"/>
-      <c r="AQ132" s="4"/>
-      <c r="AR132" s="4"/>
-      <c r="AS132" s="5"/>
+      <c r="AO132" s="1"/>
+      <c r="AP132" s="1"/>
+      <c r="AQ132" s="1"/>
+      <c r="AR132" s="1"/>
+      <c r="AS132" s="1"/>
+      <c r="AT132" s="1"/>
       <c r="AU132" s="7"/>
       <c r="AX132" s="6"/>
-      <c r="AY132" s="33">
-        <v>2</v>
-      </c>
-      <c r="AZ132" s="33"/>
-      <c r="BA132" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB132" s="33"/>
-      <c r="BC132" s="33"/>
-      <c r="BD132" s="33"/>
-      <c r="BE132" s="33"/>
-      <c r="BF132" s="33"/>
-      <c r="BG132" s="38"/>
-      <c r="BH132" s="39"/>
+      <c r="AY132" s="46">
+        <v>1</v>
+      </c>
+      <c r="AZ132" s="46"/>
+      <c r="BA132" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB132" s="52"/>
+      <c r="BC132" s="52"/>
+      <c r="BD132" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE132" s="46"/>
+      <c r="BF132" s="46"/>
+      <c r="BG132" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH132" s="42"/>
       <c r="BI132" s="23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="BK132" s="7"/>
       <c r="BM132" s="6"/>
       <c r="BN132" s="1"/>
-      <c r="BO132" s="38"/>
-      <c r="BP132" s="39"/>
-      <c r="BQ132" s="38"/>
-      <c r="BR132" s="39"/>
-      <c r="BS132" s="38"/>
-      <c r="BT132" s="39"/>
+      <c r="BO132" s="41"/>
+      <c r="BP132" s="42"/>
+      <c r="BQ132" s="41"/>
+      <c r="BR132" s="42"/>
+      <c r="BS132" s="41"/>
+      <c r="BT132" s="42"/>
       <c r="BU132" s="1"/>
-      <c r="BV132" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="BV132" s="1"/>
       <c r="BW132" s="1"/>
       <c r="BX132" s="1"/>
       <c r="BY132" s="1"/>
       <c r="BZ132" s="1"/>
       <c r="CA132" s="7"/>
       <c r="CC132" s="6"/>
-      <c r="CD132" s="1"/>
-      <c r="CE132" s="1"/>
-      <c r="CF132" s="1"/>
-      <c r="CG132" s="1"/>
-      <c r="CH132" s="1"/>
+      <c r="CD132" s="8"/>
+      <c r="CE132" s="2"/>
+      <c r="CF132" s="9"/>
+      <c r="CG132" s="8"/>
+      <c r="CH132" s="9"/>
       <c r="CI132" s="1"/>
       <c r="CJ132" s="7"/>
       <c r="CK132" s="1"/>
       <c r="CL132" s="1"/>
       <c r="CM132" s="6"/>
-      <c r="CN132" s="1"/>
-      <c r="CO132" s="1"/>
-      <c r="CP132" s="1"/>
-      <c r="CQ132" s="1"/>
-      <c r="CR132" s="1"/>
-      <c r="CS132" s="1"/>
-      <c r="CT132" s="1"/>
-      <c r="CU132" s="1"/>
-      <c r="CV132" s="1"/>
+      <c r="CN132" s="8"/>
+      <c r="CO132" s="2"/>
+      <c r="CP132" s="9"/>
+      <c r="CQ132" s="8"/>
+      <c r="CR132" s="9"/>
+      <c r="CS132" s="41"/>
+      <c r="CT132" s="42"/>
+      <c r="CU132" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="CV132" s="42"/>
       <c r="CW132" s="1"/>
       <c r="CX132" s="1"/>
       <c r="CY132" s="7"/>
       <c r="DC132" s="6"/>
       <c r="DD132" s="1"/>
       <c r="DE132" s="1"/>
-      <c r="DF132" s="1"/>
-      <c r="DG132" s="1"/>
-      <c r="DH132" s="1"/>
-      <c r="DI132" s="1"/>
-      <c r="DJ132" s="1"/>
-      <c r="DK132" s="1"/>
-      <c r="DL132" s="1"/>
-      <c r="DM132" s="1"/>
-      <c r="DN132" s="1"/>
+      <c r="DF132" s="8"/>
+      <c r="DG132" s="2"/>
+      <c r="DH132" s="2"/>
+      <c r="DI132" s="2"/>
+      <c r="DJ132" s="2"/>
+      <c r="DK132" s="2"/>
+      <c r="DL132" s="2"/>
+      <c r="DM132" s="2"/>
+      <c r="DN132" s="9"/>
       <c r="DO132" s="7"/>
     </row>
-    <row r="133" spans="2:119" ht="18" customHeight="1">
+    <row r="133" spans="4:119" ht="18" customHeight="1">
+      <c r="D133" s="29" t="s">
+        <v>228</v>
+      </c>
       <c r="Q133" s="6"/>
       <c r="R133" s="15"/>
-      <c r="S133" s="38"/>
-      <c r="T133" s="39"/>
-      <c r="U133" s="38"/>
-      <c r="V133" s="39"/>
-      <c r="W133" s="38"/>
-      <c r="X133" s="39"/>
-      <c r="Y133" s="38"/>
-      <c r="Z133" s="39"/>
-      <c r="AA133" s="33"/>
-      <c r="AB133" s="33"/>
-      <c r="AC133" s="33"/>
-      <c r="AD133" s="33"/>
-      <c r="AE133" s="33"/>
-      <c r="AF133" s="33"/>
-      <c r="AG133" s="33"/>
-      <c r="AH133" s="33"/>
+      <c r="S133" s="41"/>
+      <c r="T133" s="42"/>
+      <c r="U133" s="41"/>
+      <c r="V133" s="42"/>
+      <c r="W133" s="41"/>
+      <c r="X133" s="42"/>
+      <c r="Y133" s="41"/>
+      <c r="Z133" s="42"/>
+      <c r="AA133" s="46"/>
+      <c r="AB133" s="46"/>
+      <c r="AC133" s="46"/>
+      <c r="AD133" s="46"/>
+      <c r="AE133" s="46"/>
+      <c r="AF133" s="46"/>
+      <c r="AG133" s="46"/>
+      <c r="AH133" s="46"/>
       <c r="AI133" s="7"/>
       <c r="AL133" s="6"/>
-      <c r="AM133" s="1"/>
+      <c r="AM133" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="AN133" s="1"/>
-      <c r="AO133" s="6"/>
-      <c r="AP133" s="1"/>
-      <c r="AQ133" s="1"/>
-      <c r="AR133" s="1"/>
-      <c r="AS133" s="7"/>
+      <c r="AO133" s="3"/>
+      <c r="AP133" s="4"/>
+      <c r="AQ133" s="4"/>
+      <c r="AR133" s="4"/>
+      <c r="AS133" s="5"/>
       <c r="AU133" s="7"/>
       <c r="AX133" s="6"/>
-      <c r="AY133" s="33">
-        <v>3</v>
-      </c>
-      <c r="AZ133" s="33"/>
-      <c r="BA133" s="33"/>
-      <c r="BB133" s="33"/>
-      <c r="BC133" s="33"/>
-      <c r="BD133" s="33"/>
-      <c r="BE133" s="33"/>
-      <c r="BF133" s="33"/>
-      <c r="BG133" s="38"/>
-      <c r="BH133" s="39"/>
-      <c r="BI133" s="1"/>
-      <c r="BJ133" s="1"/>
+      <c r="AY133" s="46">
+        <v>2</v>
+      </c>
+      <c r="AZ133" s="46"/>
+      <c r="BA133" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB133" s="46"/>
+      <c r="BC133" s="46"/>
+      <c r="BD133" s="46"/>
+      <c r="BE133" s="46"/>
+      <c r="BF133" s="46"/>
+      <c r="BG133" s="41"/>
+      <c r="BH133" s="42"/>
+      <c r="BI133" s="23" t="s">
+        <v>209</v>
+      </c>
       <c r="BK133" s="7"/>
       <c r="BM133" s="6"/>
       <c r="BN133" s="1"/>
-      <c r="BO133" s="38"/>
-      <c r="BP133" s="39"/>
-      <c r="BQ133" s="38"/>
-      <c r="BR133" s="39"/>
-      <c r="BS133" s="38"/>
-      <c r="BT133" s="39"/>
+      <c r="BO133" s="41"/>
+      <c r="BP133" s="42"/>
+      <c r="BQ133" s="41"/>
+      <c r="BR133" s="42"/>
+      <c r="BS133" s="41"/>
+      <c r="BT133" s="42"/>
       <c r="BU133" s="1"/>
-      <c r="BV133" s="1"/>
+      <c r="BV133" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="BW133" s="1"/>
       <c r="BX133" s="1"/>
       <c r="BY133" s="1"/>
       <c r="BZ133" s="1"/>
       <c r="CA133" s="7"/>
       <c r="CC133" s="6"/>
-      <c r="CD133" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="CD133" s="1"/>
       <c r="CE133" s="1"/>
       <c r="CF133" s="1"/>
       <c r="CG133" s="1"/>
@@ -8080,15 +8358,11 @@
       <c r="CK133" s="1"/>
       <c r="CL133" s="1"/>
       <c r="CM133" s="6"/>
-      <c r="CN133" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="CO133" s="39"/>
+      <c r="CN133" s="1"/>
+      <c r="CO133" s="1"/>
       <c r="CP133" s="1"/>
-      <c r="CQ133" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR133" s="39"/>
+      <c r="CQ133" s="1"/>
+      <c r="CR133" s="1"/>
       <c r="CS133" s="1"/>
       <c r="CT133" s="1"/>
       <c r="CU133" s="1"/>
@@ -8097,9 +8371,7 @@
       <c r="CX133" s="1"/>
       <c r="CY133" s="7"/>
       <c r="DC133" s="6"/>
-      <c r="DD133" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="DD133" s="1"/>
       <c r="DE133" s="1"/>
       <c r="DF133" s="1"/>
       <c r="DG133" s="1"/>
@@ -8112,84 +8384,93 @@
       <c r="DN133" s="1"/>
       <c r="DO133" s="7"/>
     </row>
-    <row r="134" spans="2:119" ht="18" customHeight="1">
+    <row r="134" spans="4:119" ht="18" customHeight="1">
+      <c r="D134" s="29" t="s">
+        <v>229</v>
+      </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="15"/>
-      <c r="S134" s="38"/>
-      <c r="T134" s="39"/>
-      <c r="U134" s="38"/>
-      <c r="V134" s="39"/>
-      <c r="W134" s="38"/>
-      <c r="X134" s="39"/>
-      <c r="Y134" s="38"/>
-      <c r="Z134" s="39"/>
-      <c r="AA134" s="33"/>
-      <c r="AB134" s="33"/>
-      <c r="AC134" s="33"/>
-      <c r="AD134" s="33"/>
-      <c r="AE134" s="33"/>
-      <c r="AF134" s="33"/>
-      <c r="AG134" s="33"/>
-      <c r="AH134" s="33"/>
+      <c r="S134" s="41"/>
+      <c r="T134" s="42"/>
+      <c r="U134" s="41"/>
+      <c r="V134" s="42"/>
+      <c r="W134" s="41"/>
+      <c r="X134" s="42"/>
+      <c r="Y134" s="41"/>
+      <c r="Z134" s="42"/>
+      <c r="AA134" s="46"/>
+      <c r="AB134" s="46"/>
+      <c r="AC134" s="46"/>
+      <c r="AD134" s="46"/>
+      <c r="AE134" s="46"/>
+      <c r="AF134" s="46"/>
+      <c r="AG134" s="46"/>
+      <c r="AH134" s="46"/>
       <c r="AI134" s="7"/>
       <c r="AL134" s="6"/>
       <c r="AM134" s="1"/>
       <c r="AN134" s="1"/>
-      <c r="AO134" s="8"/>
-      <c r="AP134" s="2"/>
-      <c r="AQ134" s="2"/>
-      <c r="AR134" s="2"/>
-      <c r="AS134" s="9"/>
+      <c r="AO134" s="6"/>
+      <c r="AP134" s="1"/>
+      <c r="AQ134" s="1"/>
+      <c r="AR134" s="1"/>
+      <c r="AS134" s="7"/>
       <c r="AU134" s="7"/>
       <c r="AX134" s="6"/>
-      <c r="AY134" s="1"/>
-      <c r="AZ134" s="1"/>
-      <c r="BA134" s="1"/>
-      <c r="BB134" s="1"/>
-      <c r="BC134" s="1"/>
-      <c r="BD134" s="1"/>
-      <c r="BE134" s="1"/>
-      <c r="BF134" s="1"/>
-      <c r="BG134" s="1"/>
-      <c r="BH134" s="1"/>
+      <c r="AY134" s="46">
+        <v>3</v>
+      </c>
+      <c r="AZ134" s="46"/>
+      <c r="BA134" s="46"/>
+      <c r="BB134" s="46"/>
+      <c r="BC134" s="46"/>
+      <c r="BD134" s="46"/>
+      <c r="BE134" s="46"/>
+      <c r="BF134" s="46"/>
+      <c r="BG134" s="41"/>
+      <c r="BH134" s="42"/>
       <c r="BI134" s="1"/>
       <c r="BJ134" s="1"/>
       <c r="BK134" s="7"/>
       <c r="BM134" s="6"/>
       <c r="BN134" s="1"/>
-      <c r="BO134" s="1"/>
-      <c r="BP134" s="1"/>
-      <c r="BQ134" s="1"/>
-      <c r="BR134" s="1"/>
-      <c r="BS134" s="1"/>
-      <c r="BT134" s="1"/>
+      <c r="BO134" s="41"/>
+      <c r="BP134" s="42"/>
+      <c r="BQ134" s="41"/>
+      <c r="BR134" s="42"/>
+      <c r="BS134" s="41"/>
+      <c r="BT134" s="42"/>
       <c r="BU134" s="1"/>
-      <c r="BV134" s="1"/>
+      <c r="BV134" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="BW134" s="1"/>
       <c r="BX134" s="1"/>
       <c r="BY134" s="1"/>
       <c r="BZ134" s="1"/>
       <c r="CA134" s="7"/>
       <c r="CC134" s="6"/>
-      <c r="CD134" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="CE134" s="12"/>
-      <c r="CF134" s="13"/>
-      <c r="CG134" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH134" s="13"/>
+      <c r="CD134" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE134" s="1"/>
+      <c r="CF134" s="1"/>
+      <c r="CG134" s="1"/>
+      <c r="CH134" s="1"/>
       <c r="CI134" s="1"/>
       <c r="CJ134" s="7"/>
       <c r="CK134" s="1"/>
       <c r="CL134" s="1"/>
       <c r="CM134" s="6"/>
-      <c r="CN134" s="1"/>
-      <c r="CO134" s="1"/>
+      <c r="CN134" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO134" s="42"/>
       <c r="CP134" s="1"/>
-      <c r="CQ134" s="1"/>
-      <c r="CR134" s="1"/>
+      <c r="CQ134" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="CR134" s="42"/>
       <c r="CS134" s="1"/>
       <c r="CT134" s="1"/>
       <c r="CU134" s="1"/>
@@ -8198,7 +8479,9 @@
       <c r="CX134" s="1"/>
       <c r="CY134" s="7"/>
       <c r="DC134" s="6"/>
-      <c r="DD134" s="1"/>
+      <c r="DD134" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="DE134" s="1"/>
       <c r="DF134" s="1"/>
       <c r="DG134" s="1"/>
@@ -8211,48 +8494,46 @@
       <c r="DN134" s="1"/>
       <c r="DO134" s="7"/>
     </row>
-    <row r="135" spans="2:119" ht="18" customHeight="1">
+    <row r="135" spans="4:119" ht="18" customHeight="1">
+      <c r="D135" s="29" t="s">
+        <v>230</v>
+      </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="15"/>
-      <c r="S135" s="38"/>
-      <c r="T135" s="39"/>
-      <c r="U135" s="38"/>
-      <c r="V135" s="39"/>
-      <c r="W135" s="38"/>
-      <c r="X135" s="39"/>
-      <c r="Y135" s="38"/>
-      <c r="Z135" s="39"/>
-      <c r="AA135" s="33"/>
-      <c r="AB135" s="33"/>
-      <c r="AC135" s="33"/>
-      <c r="AD135" s="33"/>
-      <c r="AE135" s="33"/>
-      <c r="AF135" s="33"/>
-      <c r="AG135" s="33"/>
-      <c r="AH135" s="33"/>
+      <c r="S135" s="41"/>
+      <c r="T135" s="42"/>
+      <c r="U135" s="41"/>
+      <c r="V135" s="42"/>
+      <c r="W135" s="41"/>
+      <c r="X135" s="42"/>
+      <c r="Y135" s="41"/>
+      <c r="Z135" s="42"/>
+      <c r="AA135" s="46"/>
+      <c r="AB135" s="46"/>
+      <c r="AC135" s="46"/>
+      <c r="AD135" s="46"/>
+      <c r="AE135" s="46"/>
+      <c r="AF135" s="46"/>
+      <c r="AG135" s="46"/>
+      <c r="AH135" s="46"/>
       <c r="AI135" s="7"/>
       <c r="AL135" s="6"/>
       <c r="AM135" s="1"/>
       <c r="AN135" s="1"/>
-      <c r="AO135" s="1"/>
-      <c r="AP135" s="1"/>
-      <c r="AQ135" s="1"/>
-      <c r="AR135" s="1"/>
-      <c r="AS135" s="1"/>
-      <c r="AT135" s="1"/>
+      <c r="AO135" s="8"/>
+      <c r="AP135" s="2"/>
+      <c r="AQ135" s="2"/>
+      <c r="AR135" s="2"/>
+      <c r="AS135" s="9"/>
       <c r="AU135" s="7"/>
       <c r="AX135" s="6"/>
       <c r="AY135" s="1"/>
       <c r="AZ135" s="1"/>
-      <c r="BA135" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB135" s="39"/>
+      <c r="BA135" s="1"/>
+      <c r="BB135" s="1"/>
       <c r="BC135" s="1"/>
-      <c r="BD135" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE135" s="39"/>
+      <c r="BD135" s="1"/>
+      <c r="BE135" s="1"/>
       <c r="BF135" s="1"/>
       <c r="BG135" s="1"/>
       <c r="BH135" s="1"/>
@@ -8262,10 +8543,8 @@
       <c r="BM135" s="6"/>
       <c r="BN135" s="1"/>
       <c r="BO135" s="1"/>
-      <c r="BP135" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="BQ135" s="39"/>
+      <c r="BP135" s="1"/>
+      <c r="BQ135" s="1"/>
       <c r="BR135" s="1"/>
       <c r="BS135" s="1"/>
       <c r="BT135" s="1"/>
@@ -8277,92 +8556,91 @@
       <c r="BZ135" s="1"/>
       <c r="CA135" s="7"/>
       <c r="CC135" s="6"/>
-      <c r="CD135" s="8"/>
-      <c r="CE135" s="2"/>
-      <c r="CF135" s="9"/>
-      <c r="CG135" s="8"/>
-      <c r="CH135" s="9"/>
+      <c r="CD135" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE135" s="12"/>
+      <c r="CF135" s="13"/>
+      <c r="CG135" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="CH135" s="13"/>
       <c r="CI135" s="1"/>
       <c r="CJ135" s="7"/>
       <c r="CK135" s="1"/>
       <c r="CL135" s="1"/>
-      <c r="CM135" s="8"/>
-      <c r="CN135" s="2"/>
-      <c r="CO135" s="2"/>
-      <c r="CP135" s="2"/>
-      <c r="CQ135" s="2"/>
-      <c r="CR135" s="2"/>
-      <c r="CS135" s="2"/>
-      <c r="CT135" s="2"/>
-      <c r="CU135" s="2"/>
-      <c r="CV135" s="2"/>
-      <c r="CW135" s="2"/>
-      <c r="CX135" s="2"/>
-      <c r="CY135" s="9"/>
+      <c r="CM135" s="6"/>
+      <c r="CN135" s="1"/>
+      <c r="CO135" s="1"/>
+      <c r="CP135" s="1"/>
+      <c r="CQ135" s="1"/>
+      <c r="CR135" s="1"/>
+      <c r="CS135" s="1"/>
+      <c r="CT135" s="1"/>
+      <c r="CU135" s="1"/>
+      <c r="CV135" s="1"/>
+      <c r="CW135" s="1"/>
+      <c r="CX135" s="1"/>
+      <c r="CY135" s="7"/>
       <c r="DC135" s="6"/>
-      <c r="DD135" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="DE135" s="33"/>
-      <c r="DF135" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="DG135" s="33"/>
-      <c r="DH135" s="33"/>
-      <c r="DI135" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="DJ135" s="33"/>
-      <c r="DK135" s="33"/>
-      <c r="DL135" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="DM135" s="39"/>
+      <c r="DD135" s="1"/>
+      <c r="DE135" s="1"/>
+      <c r="DF135" s="1"/>
+      <c r="DG135" s="1"/>
+      <c r="DH135" s="1"/>
+      <c r="DI135" s="1"/>
+      <c r="DJ135" s="1"/>
+      <c r="DK135" s="1"/>
+      <c r="DL135" s="1"/>
+      <c r="DM135" s="1"/>
       <c r="DN135" s="1"/>
       <c r="DO135" s="7"/>
     </row>
-    <row r="136" spans="2:119" ht="18" customHeight="1">
+    <row r="136" spans="4:119" ht="18" customHeight="1">
+      <c r="D136" s="29" t="s">
+        <v>261</v>
+      </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="15"/>
-      <c r="S136" s="38"/>
-      <c r="T136" s="39"/>
-      <c r="U136" s="38"/>
-      <c r="V136" s="39"/>
-      <c r="W136" s="38"/>
-      <c r="X136" s="39"/>
-      <c r="Y136" s="38"/>
-      <c r="Z136" s="39"/>
-      <c r="AA136" s="33"/>
-      <c r="AB136" s="33"/>
-      <c r="AC136" s="33"/>
-      <c r="AD136" s="33"/>
-      <c r="AE136" s="33"/>
-      <c r="AF136" s="33"/>
-      <c r="AG136" s="33"/>
-      <c r="AH136" s="33"/>
+      <c r="S136" s="41"/>
+      <c r="T136" s="42"/>
+      <c r="U136" s="41"/>
+      <c r="V136" s="42"/>
+      <c r="W136" s="41"/>
+      <c r="X136" s="42"/>
+      <c r="Y136" s="41"/>
+      <c r="Z136" s="42"/>
+      <c r="AA136" s="46"/>
+      <c r="AB136" s="46"/>
+      <c r="AC136" s="46"/>
+      <c r="AD136" s="46"/>
+      <c r="AE136" s="46"/>
+      <c r="AF136" s="46"/>
+      <c r="AG136" s="46"/>
+      <c r="AH136" s="46"/>
       <c r="AI136" s="7"/>
       <c r="AL136" s="6"/>
       <c r="AM136" s="1"/>
-      <c r="AN136" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO136" s="39"/>
+      <c r="AN136" s="1"/>
+      <c r="AO136" s="1"/>
       <c r="AP136" s="1"/>
-      <c r="AQ136" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR136" s="39"/>
+      <c r="AQ136" s="1"/>
+      <c r="AR136" s="1"/>
       <c r="AS136" s="1"/>
       <c r="AT136" s="1"/>
       <c r="AU136" s="7"/>
       <c r="AX136" s="6"/>
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
-      <c r="BA136" s="1"/>
-      <c r="BB136" s="1"/>
+      <c r="BA136" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB136" s="42"/>
       <c r="BC136" s="1"/>
-      <c r="BD136" s="1"/>
-      <c r="BE136" s="1"/>
+      <c r="BD136" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE136" s="42"/>
       <c r="BF136" s="1"/>
       <c r="BG136" s="1"/>
       <c r="BH136" s="1"/>
@@ -8372,8 +8650,10 @@
       <c r="BM136" s="6"/>
       <c r="BN136" s="1"/>
       <c r="BO136" s="1"/>
-      <c r="BP136" s="1"/>
-      <c r="BQ136" s="1"/>
+      <c r="BP136" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="BQ136" s="42"/>
       <c r="BR136" s="1"/>
       <c r="BS136" s="1"/>
       <c r="BT136" s="1"/>
@@ -8394,59 +8674,78 @@
       <c r="CJ136" s="7"/>
       <c r="CK136" s="1"/>
       <c r="CL136" s="1"/>
-      <c r="CM136" s="1"/>
+      <c r="CM136" s="8"/>
+      <c r="CN136" s="2"/>
+      <c r="CO136" s="2"/>
+      <c r="CP136" s="2"/>
+      <c r="CQ136" s="2"/>
+      <c r="CR136" s="2"/>
+      <c r="CS136" s="2"/>
+      <c r="CT136" s="2"/>
+      <c r="CU136" s="2"/>
+      <c r="CV136" s="2"/>
+      <c r="CW136" s="2"/>
+      <c r="CX136" s="2"/>
+      <c r="CY136" s="9"/>
       <c r="DC136" s="6"/>
-      <c r="DD136" s="33">
-        <v>1</v>
-      </c>
-      <c r="DE136" s="33"/>
-      <c r="DF136" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="DG136" s="33"/>
-      <c r="DH136" s="33"/>
-      <c r="DI136" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="DJ136" s="33"/>
-      <c r="DK136" s="33"/>
-      <c r="DL136" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="DM136" s="39"/>
+      <c r="DD136" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="DE136" s="46"/>
+      <c r="DF136" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG136" s="46"/>
+      <c r="DH136" s="46"/>
+      <c r="DI136" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="DJ136" s="46"/>
+      <c r="DK136" s="46"/>
+      <c r="DL136" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="DM136" s="42"/>
       <c r="DN136" s="1"/>
       <c r="DO136" s="7"/>
     </row>
-    <row r="137" spans="2:119" ht="18" customHeight="1">
+    <row r="137" spans="4:119" ht="18" customHeight="1">
+      <c r="D137" s="29" t="s">
+        <v>241</v>
+      </c>
       <c r="Q137" s="6"/>
       <c r="R137" s="15"/>
-      <c r="S137" s="38"/>
-      <c r="T137" s="39"/>
-      <c r="U137" s="38"/>
-      <c r="V137" s="39"/>
-      <c r="W137" s="38"/>
-      <c r="X137" s="39"/>
-      <c r="Y137" s="38"/>
-      <c r="Z137" s="39"/>
-      <c r="AA137" s="33"/>
-      <c r="AB137" s="33"/>
-      <c r="AC137" s="33"/>
-      <c r="AD137" s="33"/>
-      <c r="AE137" s="33"/>
-      <c r="AF137" s="33"/>
-      <c r="AG137" s="33"/>
-      <c r="AH137" s="33"/>
+      <c r="S137" s="41"/>
+      <c r="T137" s="42"/>
+      <c r="U137" s="41"/>
+      <c r="V137" s="42"/>
+      <c r="W137" s="41"/>
+      <c r="X137" s="42"/>
+      <c r="Y137" s="41"/>
+      <c r="Z137" s="42"/>
+      <c r="AA137" s="46"/>
+      <c r="AB137" s="46"/>
+      <c r="AC137" s="46"/>
+      <c r="AD137" s="46"/>
+      <c r="AE137" s="46"/>
+      <c r="AF137" s="46"/>
+      <c r="AG137" s="46"/>
+      <c r="AH137" s="46"/>
       <c r="AI137" s="7"/>
-      <c r="AL137" s="8"/>
-      <c r="AM137" s="2"/>
-      <c r="AN137" s="2"/>
-      <c r="AO137" s="2"/>
-      <c r="AP137" s="2"/>
-      <c r="AQ137" s="2"/>
-      <c r="AR137" s="2"/>
-      <c r="AS137" s="2"/>
-      <c r="AT137" s="2"/>
-      <c r="AU137" s="9"/>
+      <c r="AL137" s="6"/>
+      <c r="AM137" s="1"/>
+      <c r="AN137" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO137" s="42"/>
+      <c r="AP137" s="1"/>
+      <c r="AQ137" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR137" s="42"/>
+      <c r="AS137" s="1"/>
+      <c r="AT137" s="1"/>
+      <c r="AU137" s="7"/>
       <c r="AX137" s="6"/>
       <c r="AY137" s="1"/>
       <c r="AZ137" s="1"/>
@@ -8477,163 +8776,241 @@
       <c r="BZ137" s="1"/>
       <c r="CA137" s="7"/>
       <c r="CC137" s="6"/>
+      <c r="CD137" s="8"/>
+      <c r="CE137" s="2"/>
+      <c r="CF137" s="9"/>
+      <c r="CG137" s="8"/>
+      <c r="CH137" s="9"/>
       <c r="CI137" s="1"/>
       <c r="CJ137" s="7"/>
       <c r="CK137" s="1"/>
       <c r="CL137" s="1"/>
       <c r="CM137" s="1"/>
       <c r="DC137" s="6"/>
-      <c r="DD137" s="33">
-        <v>2</v>
-      </c>
-      <c r="DE137" s="33"/>
-      <c r="DF137" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="DG137" s="33"/>
-      <c r="DH137" s="33"/>
-      <c r="DI137" s="33"/>
-      <c r="DJ137" s="33"/>
-      <c r="DK137" s="33"/>
-      <c r="DL137" s="38"/>
-      <c r="DM137" s="39"/>
+      <c r="DD137" s="46">
+        <v>1</v>
+      </c>
+      <c r="DE137" s="46"/>
+      <c r="DF137" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="DG137" s="46"/>
+      <c r="DH137" s="46"/>
+      <c r="DI137" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="DJ137" s="46"/>
+      <c r="DK137" s="46"/>
+      <c r="DL137" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="DM137" s="42"/>
       <c r="DN137" s="1"/>
       <c r="DO137" s="7"/>
     </row>
-    <row r="138" spans="2:119" ht="18" customHeight="1">
+    <row r="138" spans="4:119" ht="18" customHeight="1">
+      <c r="D138" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G138" s="29" t="s">
+        <v>252</v>
+      </c>
       <c r="Q138" s="6"/>
-      <c r="R138" s="1"/>
-      <c r="S138" s="1"/>
-      <c r="T138" s="1"/>
-      <c r="U138" s="1"/>
-      <c r="V138" s="1"/>
-      <c r="W138" s="1"/>
-      <c r="X138" s="1"/>
-      <c r="Y138" s="1"/>
-      <c r="Z138" s="1"/>
-      <c r="AA138" s="1"/>
-      <c r="AB138" s="1"/>
-      <c r="AC138" s="1"/>
-      <c r="AD138" s="1"/>
-      <c r="AE138" s="1"/>
-      <c r="AF138" s="1"/>
-      <c r="AG138" s="1"/>
-      <c r="AH138" s="1"/>
+      <c r="R138" s="15"/>
+      <c r="S138" s="41"/>
+      <c r="T138" s="42"/>
+      <c r="U138" s="41"/>
+      <c r="V138" s="42"/>
+      <c r="W138" s="41"/>
+      <c r="X138" s="42"/>
+      <c r="Y138" s="41"/>
+      <c r="Z138" s="42"/>
+      <c r="AA138" s="46"/>
+      <c r="AB138" s="46"/>
+      <c r="AC138" s="46"/>
+      <c r="AD138" s="46"/>
+      <c r="AE138" s="46"/>
+      <c r="AF138" s="46"/>
+      <c r="AG138" s="46"/>
+      <c r="AH138" s="46"/>
       <c r="AI138" s="7"/>
-      <c r="AX138" s="8"/>
-      <c r="AY138" s="2"/>
-      <c r="AZ138" s="2"/>
-      <c r="BA138" s="2"/>
-      <c r="BB138" s="2"/>
-      <c r="BC138" s="2"/>
-      <c r="BD138" s="2"/>
-      <c r="BE138" s="2"/>
-      <c r="BF138" s="2"/>
-      <c r="BG138" s="2"/>
-      <c r="BH138" s="2"/>
-      <c r="BI138" s="2"/>
-      <c r="BJ138" s="2"/>
-      <c r="BK138" s="9"/>
-      <c r="BM138" s="8"/>
-      <c r="BN138" s="2"/>
-      <c r="BO138" s="2"/>
-      <c r="BP138" s="2"/>
-      <c r="BQ138" s="2"/>
-      <c r="BR138" s="2"/>
-      <c r="BS138" s="2"/>
-      <c r="BT138" s="2"/>
-      <c r="BU138" s="2"/>
-      <c r="BV138" s="2"/>
-      <c r="BW138" s="2"/>
-      <c r="BX138" s="2"/>
-      <c r="BY138" s="2"/>
-      <c r="BZ138" s="2"/>
-      <c r="CA138" s="9"/>
+      <c r="AL138" s="8"/>
+      <c r="AM138" s="2"/>
+      <c r="AN138" s="2"/>
+      <c r="AO138" s="2"/>
+      <c r="AP138" s="2"/>
+      <c r="AQ138" s="2"/>
+      <c r="AR138" s="2"/>
+      <c r="AS138" s="2"/>
+      <c r="AT138" s="2"/>
+      <c r="AU138" s="9"/>
+      <c r="AX138" s="6"/>
+      <c r="AY138" s="1"/>
+      <c r="AZ138" s="1"/>
+      <c r="BA138" s="1"/>
+      <c r="BB138" s="1"/>
+      <c r="BC138" s="1"/>
+      <c r="BD138" s="1"/>
+      <c r="BE138" s="1"/>
+      <c r="BF138" s="1"/>
+      <c r="BG138" s="1"/>
+      <c r="BH138" s="1"/>
+      <c r="BI138" s="1"/>
+      <c r="BJ138" s="1"/>
+      <c r="BK138" s="7"/>
+      <c r="BM138" s="6"/>
+      <c r="BN138" s="1"/>
+      <c r="BO138" s="1"/>
+      <c r="BP138" s="1"/>
+      <c r="BQ138" s="1"/>
+      <c r="BR138" s="1"/>
+      <c r="BS138" s="1"/>
+      <c r="BT138" s="1"/>
+      <c r="BU138" s="1"/>
+      <c r="BV138" s="1"/>
+      <c r="BW138" s="1"/>
+      <c r="BX138" s="1"/>
+      <c r="BY138" s="1"/>
+      <c r="BZ138" s="1"/>
+      <c r="CA138" s="7"/>
       <c r="CC138" s="6"/>
-      <c r="CD138" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="CE138" s="39"/>
-      <c r="CF138" s="1"/>
-      <c r="CG138" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="CH138" s="39"/>
       <c r="CI138" s="1"/>
       <c r="CJ138" s="7"/>
       <c r="CK138" s="1"/>
       <c r="CL138" s="1"/>
       <c r="CM138" s="1"/>
       <c r="DC138" s="6"/>
-      <c r="DD138" s="33">
-        <v>3</v>
-      </c>
-      <c r="DE138" s="33"/>
-      <c r="DF138" s="33"/>
-      <c r="DG138" s="33"/>
-      <c r="DH138" s="33"/>
-      <c r="DI138" s="33"/>
-      <c r="DJ138" s="33"/>
-      <c r="DK138" s="33"/>
-      <c r="DL138" s="38"/>
-      <c r="DM138" s="39"/>
+      <c r="DD138" s="46">
+        <v>2</v>
+      </c>
+      <c r="DE138" s="46"/>
+      <c r="DF138" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="DG138" s="46"/>
+      <c r="DH138" s="46"/>
+      <c r="DI138" s="46"/>
+      <c r="DJ138" s="46"/>
+      <c r="DK138" s="46"/>
+      <c r="DL138" s="41"/>
+      <c r="DM138" s="42"/>
       <c r="DN138" s="1"/>
       <c r="DO138" s="7"/>
     </row>
-    <row r="139" spans="2:119" ht="18" customHeight="1">
-      <c r="Q139" s="8"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2"/>
-      <c r="V139" s="2"/>
-      <c r="W139" s="2"/>
-      <c r="X139" s="2"/>
-      <c r="Y139" s="2"/>
-      <c r="Z139" s="2"/>
-      <c r="AA139" s="2"/>
-      <c r="AB139" s="2"/>
-      <c r="AC139" s="2"/>
-      <c r="AD139" s="2"/>
-      <c r="AE139" s="2"/>
-      <c r="AF139" s="2"/>
-      <c r="AG139" s="2"/>
-      <c r="AH139" s="2"/>
-      <c r="AI139" s="9"/>
+    <row r="139" spans="4:119" ht="18" customHeight="1">
+      <c r="D139" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
+      <c r="X139" s="1"/>
+      <c r="Y139" s="1"/>
+      <c r="Z139" s="1"/>
+      <c r="AA139" s="1"/>
+      <c r="AB139" s="1"/>
+      <c r="AC139" s="1"/>
+      <c r="AD139" s="1"/>
+      <c r="AE139" s="1"/>
+      <c r="AF139" s="1"/>
+      <c r="AG139" s="1"/>
+      <c r="AH139" s="1"/>
+      <c r="AI139" s="7"/>
+      <c r="AX139" s="8"/>
+      <c r="AY139" s="2"/>
+      <c r="AZ139" s="2"/>
+      <c r="BA139" s="2"/>
+      <c r="BB139" s="2"/>
+      <c r="BC139" s="2"/>
+      <c r="BD139" s="2"/>
+      <c r="BE139" s="2"/>
+      <c r="BF139" s="2"/>
+      <c r="BG139" s="2"/>
+      <c r="BH139" s="2"/>
+      <c r="BI139" s="2"/>
+      <c r="BJ139" s="2"/>
+      <c r="BK139" s="9"/>
+      <c r="BM139" s="8"/>
+      <c r="BN139" s="2"/>
+      <c r="BO139" s="2"/>
+      <c r="BP139" s="2"/>
+      <c r="BQ139" s="2"/>
+      <c r="BR139" s="2"/>
+      <c r="BS139" s="2"/>
+      <c r="BT139" s="2"/>
+      <c r="BU139" s="2"/>
+      <c r="BV139" s="2"/>
+      <c r="BW139" s="2"/>
+      <c r="BX139" s="2"/>
+      <c r="BY139" s="2"/>
+      <c r="BZ139" s="2"/>
+      <c r="CA139" s="9"/>
       <c r="CC139" s="6"/>
-      <c r="CD139" s="1"/>
-      <c r="CE139" s="1"/>
+      <c r="CD139" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="CE139" s="42"/>
       <c r="CF139" s="1"/>
-      <c r="CG139" s="1"/>
-      <c r="CH139" s="1"/>
+      <c r="CG139" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="CH139" s="42"/>
       <c r="CI139" s="1"/>
       <c r="CJ139" s="7"/>
       <c r="CK139" s="1"/>
       <c r="CL139" s="1"/>
       <c r="CM139" s="1"/>
       <c r="DC139" s="6"/>
-      <c r="DD139" s="1"/>
-      <c r="DE139" s="1"/>
-      <c r="DF139" s="1"/>
-      <c r="DG139" s="1"/>
-      <c r="DH139" s="1"/>
-      <c r="DI139" s="1"/>
-      <c r="DJ139" s="1"/>
-      <c r="DK139" s="1"/>
-      <c r="DL139" s="1"/>
-      <c r="DM139" s="1"/>
+      <c r="DD139" s="46">
+        <v>3</v>
+      </c>
+      <c r="DE139" s="46"/>
+      <c r="DF139" s="46"/>
+      <c r="DG139" s="46"/>
+      <c r="DH139" s="46"/>
+      <c r="DI139" s="46"/>
+      <c r="DJ139" s="46"/>
+      <c r="DK139" s="46"/>
+      <c r="DL139" s="41"/>
+      <c r="DM139" s="42"/>
       <c r="DN139" s="1"/>
       <c r="DO139" s="7"/>
     </row>
-    <row r="140" spans="2:119" ht="18" customHeight="1">
-      <c r="CC140" s="8"/>
-      <c r="CD140" s="2"/>
-      <c r="CE140" s="2"/>
-      <c r="CF140" s="2"/>
-      <c r="CG140" s="2"/>
-      <c r="CH140" s="2"/>
-      <c r="CI140" s="2"/>
-      <c r="CJ140" s="9"/>
+    <row r="140" spans="4:119" ht="18" customHeight="1">
+      <c r="D140" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q140" s="8"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2"/>
+      <c r="V140" s="2"/>
+      <c r="W140" s="2"/>
+      <c r="X140" s="2"/>
+      <c r="Y140" s="2"/>
+      <c r="Z140" s="2"/>
+      <c r="AA140" s="2"/>
+      <c r="AB140" s="2"/>
+      <c r="AC140" s="2"/>
+      <c r="AD140" s="2"/>
+      <c r="AE140" s="2"/>
+      <c r="AF140" s="2"/>
+      <c r="AG140" s="2"/>
+      <c r="AH140" s="2"/>
+      <c r="AI140" s="9"/>
+      <c r="CC140" s="6"/>
+      <c r="CD140" s="1"/>
+      <c r="CE140" s="1"/>
+      <c r="CF140" s="1"/>
+      <c r="CG140" s="1"/>
+      <c r="CH140" s="1"/>
+      <c r="CI140" s="1"/>
+      <c r="CJ140" s="7"/>
       <c r="CK140" s="1"/>
       <c r="CL140" s="1"/>
       <c r="CM140" s="1"/>
@@ -8644,119 +9021,113 @@
       <c r="DG140" s="1"/>
       <c r="DH140" s="1"/>
       <c r="DI140" s="1"/>
-      <c r="DJ140" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="DK140" s="39"/>
+      <c r="DJ140" s="1"/>
+      <c r="DK140" s="1"/>
       <c r="DL140" s="1"/>
       <c r="DM140" s="1"/>
       <c r="DN140" s="1"/>
       <c r="DO140" s="7"/>
     </row>
-    <row r="141" spans="2:119" ht="18" customHeight="1">
+    <row r="141" spans="4:119" ht="18" customHeight="1">
+      <c r="CC141" s="8"/>
+      <c r="CD141" s="2"/>
+      <c r="CE141" s="2"/>
+      <c r="CF141" s="2"/>
+      <c r="CG141" s="2"/>
+      <c r="CH141" s="2"/>
+      <c r="CI141" s="2"/>
+      <c r="CJ141" s="9"/>
       <c r="CK141" s="1"/>
       <c r="CL141" s="1"/>
       <c r="CM141" s="1"/>
-      <c r="DC141" s="8"/>
-      <c r="DD141" s="2"/>
-      <c r="DE141" s="2"/>
-      <c r="DF141" s="2"/>
-      <c r="DG141" s="2"/>
-      <c r="DH141" s="2"/>
-      <c r="DI141" s="2"/>
-      <c r="DJ141" s="2"/>
-      <c r="DK141" s="2"/>
-      <c r="DL141" s="2"/>
-      <c r="DM141" s="2"/>
-      <c r="DN141" s="2"/>
-      <c r="DO141" s="9"/>
-    </row>
-    <row r="142" spans="2:119" ht="18" customHeight="1">
+      <c r="DC141" s="6"/>
+      <c r="DD141" s="1"/>
+      <c r="DE141" s="1"/>
+      <c r="DF141" s="1"/>
+      <c r="DG141" s="1"/>
+      <c r="DH141" s="1"/>
+      <c r="DI141" s="1"/>
+      <c r="DJ141" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="DK141" s="42"/>
+      <c r="DL141" s="1"/>
+      <c r="DM141" s="1"/>
+      <c r="DN141" s="1"/>
+      <c r="DO141" s="7"/>
+    </row>
+    <row r="142" spans="4:119" ht="18" customHeight="1">
       <c r="CK142" s="1"/>
       <c r="CL142" s="1"/>
       <c r="CM142" s="1"/>
-    </row>
-    <row r="143" spans="2:119" ht="18" customHeight="1">
+      <c r="DC142" s="8"/>
+      <c r="DD142" s="2"/>
+      <c r="DE142" s="2"/>
+      <c r="DF142" s="2"/>
+      <c r="DG142" s="2"/>
+      <c r="DH142" s="2"/>
+      <c r="DI142" s="2"/>
+      <c r="DJ142" s="2"/>
+      <c r="DK142" s="2"/>
+      <c r="DL142" s="2"/>
+      <c r="DM142" s="2"/>
+      <c r="DN142" s="2"/>
+      <c r="DO142" s="9"/>
+    </row>
+    <row r="143" spans="4:119" ht="18" customHeight="1">
       <c r="CK143" s="1"/>
       <c r="CL143" s="1"/>
       <c r="CM143" s="1"/>
-      <c r="CN143" s="1"/>
-      <c r="CO143" s="1"/>
-      <c r="CP143" s="1"/>
-      <c r="CQ143" s="1"/>
-      <c r="CR143" s="1"/>
-      <c r="CS143" s="1"/>
-      <c r="CT143" s="1"/>
-      <c r="CU143" s="1"/>
-    </row>
-    <row r="144" spans="2:119" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="30"/>
-      <c r="I144" s="30"/>
-      <c r="J144" s="30"/>
-      <c r="K144" s="30"/>
-      <c r="L144" s="30"/>
-      <c r="M144" s="30"/>
-      <c r="N144" s="9"/>
-    </row>
-    <row r="145" spans="2:60" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B145" s="46"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="46"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="46"/>
-      <c r="I145" s="46"/>
-      <c r="J145" s="46"/>
-      <c r="K145" s="46"/>
-      <c r="L145" s="46"/>
-      <c r="M145" s="46"/>
-      <c r="N145" s="7"/>
-    </row>
-    <row r="146" spans="2:60" ht="18" customHeight="1">
-      <c r="Q146" t="s">
+    </row>
+    <row r="144" spans="4:119" ht="18" customHeight="1">
+      <c r="CK144" s="1"/>
+      <c r="CL144" s="1"/>
+      <c r="CM144" s="1"/>
+      <c r="CN144" s="1"/>
+      <c r="CO144" s="1"/>
+      <c r="CP144" s="1"/>
+      <c r="CQ144" s="1"/>
+      <c r="CR144" s="1"/>
+      <c r="CS144" s="1"/>
+      <c r="CT144" s="1"/>
+      <c r="CU144" s="1"/>
+    </row>
+    <row r="145" spans="2:60" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="30"/>
+      <c r="M145" s="30"/>
+      <c r="N145" s="9"/>
+    </row>
+    <row r="146" spans="2:60" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B146" s="35"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="35"/>
+      <c r="F146" s="35"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="35"/>
+      <c r="I146" s="35"/>
+      <c r="J146" s="35"/>
+      <c r="K146" s="35"/>
+      <c r="L146" s="35"/>
+      <c r="M146" s="35"/>
+      <c r="N146" s="7"/>
+    </row>
+    <row r="147" spans="2:60" ht="18" customHeight="1">
+      <c r="D147" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q147" t="s">
         <v>95</v>
-      </c>
-      <c r="AS146" s="1"/>
-      <c r="AT146" s="1"/>
-      <c r="AV146" s="1"/>
-      <c r="AW146" s="1"/>
-      <c r="AX146" s="1"/>
-      <c r="AY146" s="1"/>
-      <c r="AZ146" s="1"/>
-      <c r="BA146" s="1"/>
-      <c r="BB146" s="1"/>
-      <c r="BC146" s="1"/>
-      <c r="BD146" s="1"/>
-      <c r="BE146" s="1"/>
-      <c r="BF146" s="1"/>
-      <c r="BG146" s="1"/>
-      <c r="BH146" s="1"/>
-    </row>
-    <row r="147" spans="2:60" ht="18" customHeight="1">
-      <c r="Q147" s="3"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="4"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="4"/>
-      <c r="X147" s="4"/>
-      <c r="Y147" s="4"/>
-      <c r="Z147" s="4"/>
-      <c r="AA147" s="4"/>
-      <c r="AB147" s="4"/>
-      <c r="AC147" s="4"/>
-      <c r="AD147" s="4"/>
-      <c r="AE147" s="5"/>
-      <c r="AI147" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="AS147" s="1"/>
       <c r="AT147" s="1"/>
@@ -8775,30 +9146,27 @@
       <c r="BH147" s="1"/>
     </row>
     <row r="148" spans="2:60" ht="18" customHeight="1">
-      <c r="Q148" s="6"/>
-      <c r="R148" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S148" s="33"/>
-      <c r="T148" s="33"/>
-      <c r="U148" s="33"/>
-      <c r="V148" s="33"/>
-      <c r="W148" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="X148" s="1"/>
-      <c r="Y148" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z148" s="33"/>
-      <c r="AA148" s="33"/>
-      <c r="AB148" s="33"/>
-      <c r="AC148" s="33"/>
-      <c r="AD148" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE148" s="7"/>
-      <c r="AI148" s="1"/>
+      <c r="D148" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
+      <c r="Z148" s="4"/>
+      <c r="AA148" s="4"/>
+      <c r="AB148" s="4"/>
+      <c r="AC148" s="4"/>
+      <c r="AD148" s="4"/>
+      <c r="AE148" s="5"/>
+      <c r="AI148" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="AS148" s="1"/>
       <c r="AT148" s="1"/>
       <c r="AV148" s="1"/>
@@ -8816,34 +9184,37 @@
       <c r="BH148" s="1"/>
     </row>
     <row r="149" spans="2:60" ht="18" customHeight="1">
+      <c r="D149" s="29" t="s">
+        <v>255</v>
+      </c>
       <c r="Q149" s="6"/>
-      <c r="R149" s="1"/>
-      <c r="S149" s="1"/>
-      <c r="T149" s="1"/>
-      <c r="U149" s="1"/>
-      <c r="V149" s="1"/>
-      <c r="W149" s="1"/>
+      <c r="R149" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S149" s="46"/>
+      <c r="T149" s="46"/>
+      <c r="U149" s="46"/>
+      <c r="V149" s="46"/>
+      <c r="W149" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="X149" s="1"/>
-      <c r="Y149" s="1"/>
-      <c r="Z149" s="1"/>
-      <c r="AC149" s="1"/>
-      <c r="AD149" s="1"/>
+      <c r="Y149" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z149" s="46"/>
+      <c r="AA149" s="46"/>
+      <c r="AB149" s="46"/>
+      <c r="AC149" s="46"/>
+      <c r="AD149" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="AE149" s="7"/>
-      <c r="AH149" s="1"/>
       <c r="AI149" s="1"/>
-      <c r="AJ149" s="1"/>
-      <c r="AK149" s="1"/>
-      <c r="AL149" s="1"/>
-      <c r="AM149" s="1"/>
-      <c r="AN149" s="1"/>
-      <c r="AO149" s="1"/>
-      <c r="AP149" s="1"/>
-      <c r="AQ149" s="1"/>
-      <c r="AR149" s="1"/>
       <c r="AS149" s="1"/>
       <c r="AT149" s="1"/>
-      <c r="AU149" s="1"/>
       <c r="AV149" s="1"/>
+      <c r="AW149" s="1"/>
       <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
@@ -8857,10 +9228,11 @@
       <c r="BH149" s="1"/>
     </row>
     <row r="150" spans="2:60" ht="18" customHeight="1">
+      <c r="D150" s="29" t="s">
+        <v>256</v>
+      </c>
       <c r="Q150" s="6"/>
-      <c r="R150" s="15" t="s">
-        <v>167</v>
-      </c>
+      <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
@@ -8873,19 +9245,17 @@
       <c r="AD150" s="1"/>
       <c r="AE150" s="7"/>
       <c r="AH150" s="1"/>
-      <c r="AI150" s="3"/>
-      <c r="AJ150" s="4"/>
-      <c r="AK150" s="4"/>
-      <c r="AL150" s="4"/>
-      <c r="AM150" s="4"/>
-      <c r="AN150" s="4"/>
-      <c r="AO150" s="4"/>
-      <c r="AP150" s="4"/>
-      <c r="AQ150" s="4"/>
-      <c r="AR150" s="4"/>
-      <c r="AS150" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="AI150" s="1"/>
+      <c r="AJ150" s="1"/>
+      <c r="AK150" s="1"/>
+      <c r="AL150" s="1"/>
+      <c r="AM150" s="1"/>
+      <c r="AN150" s="1"/>
+      <c r="AO150" s="1"/>
+      <c r="AP150" s="1"/>
+      <c r="AQ150" s="1"/>
+      <c r="AR150" s="1"/>
+      <c r="AS150" s="1"/>
       <c r="AT150" s="1"/>
       <c r="AU150" s="1"/>
       <c r="AV150" s="1"/>
@@ -8902,8 +9272,13 @@
       <c r="BH150" s="1"/>
     </row>
     <row r="151" spans="2:60" ht="18" customHeight="1">
+      <c r="D151" s="29" t="s">
+        <v>257</v>
+      </c>
       <c r="Q151" s="6"/>
-      <c r="R151" s="1"/>
+      <c r="R151" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
@@ -8916,64 +9291,61 @@
       <c r="AD151" s="1"/>
       <c r="AE151" s="7"/>
       <c r="AH151" s="1"/>
-      <c r="AI151" s="6"/>
-      <c r="AJ151" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK151" s="1"/>
-      <c r="AL151" s="33"/>
-      <c r="AM151" s="33"/>
-      <c r="AN151" s="33"/>
-      <c r="AO151" s="33"/>
-      <c r="AP151" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ151" s="1"/>
-      <c r="AR151" s="1"/>
-      <c r="AS151" s="7"/>
+      <c r="AI151" s="3"/>
+      <c r="AJ151" s="4"/>
+      <c r="AK151" s="4"/>
+      <c r="AL151" s="4"/>
+      <c r="AM151" s="4"/>
+      <c r="AN151" s="4"/>
+      <c r="AO151" s="4"/>
+      <c r="AP151" s="4"/>
+      <c r="AQ151" s="4"/>
+      <c r="AR151" s="4"/>
+      <c r="AS151" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="AT151" s="1"/>
       <c r="AU151" s="1"/>
       <c r="AV151" s="1"/>
+      <c r="AX151" s="1"/>
+      <c r="AY151" s="1"/>
+      <c r="AZ151" s="1"/>
+      <c r="BA151" s="1"/>
+      <c r="BB151" s="1"/>
+      <c r="BC151" s="1"/>
+      <c r="BD151" s="1"/>
+      <c r="BE151" s="1"/>
+      <c r="BF151" s="1"/>
+      <c r="BG151" s="1"/>
+      <c r="BH151" s="1"/>
     </row>
     <row r="152" spans="2:60" ht="18" customHeight="1">
       <c r="Q152" s="6"/>
-      <c r="R152" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="S152" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="T152" s="39"/>
-      <c r="U152" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="V152" s="39"/>
-      <c r="W152" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="X152" s="39"/>
-      <c r="Y152" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z152" s="39"/>
-      <c r="AA152" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB152" s="39"/>
-      <c r="AC152" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD152" s="39"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+      <c r="Y152" s="1"/>
+      <c r="Z152" s="1"/>
+      <c r="AC152" s="1"/>
+      <c r="AD152" s="1"/>
       <c r="AE152" s="7"/>
       <c r="AH152" s="1"/>
       <c r="AI152" s="6"/>
-      <c r="AJ152" s="1"/>
+      <c r="AJ152" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="AK152" s="1"/>
-      <c r="AL152" s="1"/>
-      <c r="AM152" s="1"/>
-      <c r="AN152" s="1"/>
-      <c r="AO152" s="1"/>
-      <c r="AP152" s="1"/>
+      <c r="AL152" s="46"/>
+      <c r="AM152" s="46"/>
+      <c r="AN152" s="46"/>
+      <c r="AO152" s="46"/>
+      <c r="AP152" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="AQ152" s="1"/>
       <c r="AR152" s="1"/>
       <c r="AS152" s="7"/>
@@ -8982,38 +9354,47 @@
       <c r="AV152" s="1"/>
     </row>
     <row r="153" spans="2:60" ht="18" customHeight="1">
+      <c r="D153" s="31" t="s">
+        <v>258</v>
+      </c>
       <c r="Q153" s="6"/>
-      <c r="R153" s="11"/>
-      <c r="S153" s="38"/>
-      <c r="T153" s="39"/>
-      <c r="U153" s="38"/>
-      <c r="V153" s="39"/>
-      <c r="W153" s="38"/>
-      <c r="X153" s="39"/>
-      <c r="Y153" s="11"/>
-      <c r="Z153" s="13"/>
-      <c r="AA153" s="11"/>
-      <c r="AB153" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC153" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD153" s="47" t="s">
-        <v>214</v>
-      </c>
+      <c r="R153" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S153" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="T153" s="42"/>
+      <c r="U153" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="V153" s="42"/>
+      <c r="W153" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="X153" s="42"/>
+      <c r="Y153" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z153" s="42"/>
+      <c r="AA153" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB153" s="42"/>
+      <c r="AC153" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD153" s="42"/>
       <c r="AE153" s="7"/>
       <c r="AH153" s="1"/>
       <c r="AI153" s="6"/>
-      <c r="AJ153" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="AJ153" s="1"/>
       <c r="AK153" s="1"/>
-      <c r="AL153" s="11"/>
-      <c r="AM153" s="12"/>
-      <c r="AN153" s="12"/>
-      <c r="AO153" s="12"/>
-      <c r="AP153" s="13"/>
+      <c r="AL153" s="1"/>
+      <c r="AM153" s="1"/>
+      <c r="AN153" s="1"/>
+      <c r="AO153" s="1"/>
+      <c r="AP153" s="1"/>
       <c r="AQ153" s="1"/>
       <c r="AR153" s="1"/>
       <c r="AS153" s="7"/>
@@ -9022,30 +9403,41 @@
       <c r="AV153" s="1"/>
     </row>
     <row r="154" spans="2:60" ht="18" customHeight="1">
+      <c r="D154" s="29" t="s">
+        <v>254</v>
+      </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="11"/>
-      <c r="S154" s="38"/>
-      <c r="T154" s="39"/>
-      <c r="U154" s="38"/>
-      <c r="V154" s="39"/>
-      <c r="W154" s="38"/>
-      <c r="X154" s="39"/>
+      <c r="S154" s="41"/>
+      <c r="T154" s="42"/>
+      <c r="U154" s="41"/>
+      <c r="V154" s="42"/>
+      <c r="W154" s="41"/>
+      <c r="X154" s="42"/>
       <c r="Y154" s="11"/>
       <c r="Z154" s="13"/>
       <c r="AA154" s="11"/>
-      <c r="AB154" s="13"/>
-      <c r="AC154" s="11"/>
-      <c r="AD154" s="47"/>
+      <c r="AB154" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC154" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD154" s="36" t="s">
+        <v>211</v>
+      </c>
       <c r="AE154" s="7"/>
       <c r="AH154" s="1"/>
       <c r="AI154" s="6"/>
-      <c r="AJ154" s="1"/>
+      <c r="AJ154" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="AK154" s="1"/>
-      <c r="AL154" s="1"/>
-      <c r="AM154" s="1"/>
-      <c r="AN154" s="1"/>
-      <c r="AO154" s="1"/>
-      <c r="AP154" s="1"/>
+      <c r="AL154" s="11"/>
+      <c r="AM154" s="12"/>
+      <c r="AN154" s="12"/>
+      <c r="AO154" s="12"/>
+      <c r="AP154" s="13"/>
       <c r="AQ154" s="1"/>
       <c r="AR154" s="1"/>
       <c r="AS154" s="7"/>
@@ -9054,32 +9446,33 @@
       <c r="AV154" s="1"/>
     </row>
     <row r="155" spans="2:60" ht="18" customHeight="1">
+      <c r="D155" s="29" t="s">
+        <v>259</v>
+      </c>
       <c r="Q155" s="6"/>
       <c r="R155" s="11"/>
-      <c r="S155" s="38"/>
-      <c r="T155" s="39"/>
-      <c r="U155" s="38"/>
-      <c r="V155" s="39"/>
-      <c r="W155" s="38"/>
-      <c r="X155" s="39"/>
+      <c r="S155" s="41"/>
+      <c r="T155" s="42"/>
+      <c r="U155" s="41"/>
+      <c r="V155" s="42"/>
+      <c r="W155" s="41"/>
+      <c r="X155" s="42"/>
       <c r="Y155" s="11"/>
       <c r="Z155" s="13"/>
       <c r="AA155" s="11"/>
       <c r="AB155" s="13"/>
       <c r="AC155" s="11"/>
-      <c r="AD155" s="47"/>
+      <c r="AD155" s="36"/>
       <c r="AE155" s="7"/>
       <c r="AH155" s="1"/>
       <c r="AI155" s="6"/>
-      <c r="AJ155" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="AJ155" s="1"/>
       <c r="AK155" s="1"/>
-      <c r="AL155" s="3"/>
-      <c r="AM155" s="4"/>
-      <c r="AN155" s="4"/>
-      <c r="AO155" s="4"/>
-      <c r="AP155" s="5"/>
+      <c r="AL155" s="1"/>
+      <c r="AM155" s="1"/>
+      <c r="AN155" s="1"/>
+      <c r="AO155" s="1"/>
+      <c r="AP155" s="1"/>
       <c r="AQ155" s="1"/>
       <c r="AR155" s="1"/>
       <c r="AS155" s="7"/>
@@ -9088,30 +9481,35 @@
       <c r="AV155" s="1"/>
     </row>
     <row r="156" spans="2:60" ht="18" customHeight="1">
+      <c r="D156" s="29" t="s">
+        <v>260</v>
+      </c>
       <c r="Q156" s="6"/>
       <c r="R156" s="11"/>
-      <c r="S156" s="38"/>
-      <c r="T156" s="39"/>
-      <c r="U156" s="38"/>
-      <c r="V156" s="39"/>
-      <c r="W156" s="38"/>
-      <c r="X156" s="39"/>
+      <c r="S156" s="41"/>
+      <c r="T156" s="42"/>
+      <c r="U156" s="41"/>
+      <c r="V156" s="42"/>
+      <c r="W156" s="41"/>
+      <c r="X156" s="42"/>
       <c r="Y156" s="11"/>
       <c r="Z156" s="13"/>
       <c r="AA156" s="11"/>
       <c r="AB156" s="13"/>
       <c r="AC156" s="11"/>
-      <c r="AD156" s="47"/>
+      <c r="AD156" s="36"/>
       <c r="AE156" s="7"/>
       <c r="AH156" s="1"/>
       <c r="AI156" s="6"/>
-      <c r="AJ156" s="1"/>
+      <c r="AJ156" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="AK156" s="1"/>
-      <c r="AL156" s="8"/>
-      <c r="AM156" s="2"/>
-      <c r="AN156" s="2"/>
-      <c r="AO156" s="2"/>
-      <c r="AP156" s="9"/>
+      <c r="AL156" s="3"/>
+      <c r="AM156" s="4"/>
+      <c r="AN156" s="4"/>
+      <c r="AO156" s="4"/>
+      <c r="AP156" s="5"/>
       <c r="AQ156" s="1"/>
       <c r="AR156" s="1"/>
       <c r="AS156" s="7"/>
@@ -9122,28 +9520,28 @@
     <row r="157" spans="2:60" ht="18" customHeight="1">
       <c r="Q157" s="6"/>
       <c r="R157" s="11"/>
-      <c r="S157" s="38"/>
-      <c r="T157" s="39"/>
-      <c r="U157" s="38"/>
-      <c r="V157" s="39"/>
-      <c r="W157" s="38"/>
-      <c r="X157" s="39"/>
+      <c r="S157" s="41"/>
+      <c r="T157" s="42"/>
+      <c r="U157" s="41"/>
+      <c r="V157" s="42"/>
+      <c r="W157" s="41"/>
+      <c r="X157" s="42"/>
       <c r="Y157" s="11"/>
       <c r="Z157" s="13"/>
       <c r="AA157" s="11"/>
       <c r="AB157" s="13"/>
       <c r="AC157" s="11"/>
-      <c r="AD157" s="47"/>
+      <c r="AD157" s="36"/>
       <c r="AE157" s="7"/>
       <c r="AH157" s="1"/>
       <c r="AI157" s="6"/>
       <c r="AJ157" s="1"/>
       <c r="AK157" s="1"/>
-      <c r="AL157" s="1"/>
-      <c r="AM157" s="1"/>
-      <c r="AN157" s="1"/>
-      <c r="AO157" s="1"/>
-      <c r="AP157" s="1"/>
+      <c r="AL157" s="8"/>
+      <c r="AM157" s="2"/>
+      <c r="AN157" s="2"/>
+      <c r="AO157" s="2"/>
+      <c r="AP157" s="9"/>
       <c r="AQ157" s="1"/>
       <c r="AR157" s="1"/>
       <c r="AS157" s="7"/>
@@ -9154,31 +9552,28 @@
     <row r="158" spans="2:60" ht="18" customHeight="1">
       <c r="Q158" s="6"/>
       <c r="R158" s="11"/>
-      <c r="S158" s="38"/>
-      <c r="T158" s="39"/>
-      <c r="U158" s="38"/>
-      <c r="V158" s="39"/>
-      <c r="W158" s="38"/>
-      <c r="X158" s="39"/>
+      <c r="S158" s="41"/>
+      <c r="T158" s="42"/>
+      <c r="U158" s="41"/>
+      <c r="V158" s="42"/>
+      <c r="W158" s="41"/>
+      <c r="X158" s="42"/>
       <c r="Y158" s="11"/>
       <c r="Z158" s="13"/>
       <c r="AA158" s="11"/>
       <c r="AB158" s="13"/>
       <c r="AC158" s="11"/>
-      <c r="AD158" s="47"/>
+      <c r="AD158" s="36"/>
       <c r="AE158" s="7"/>
       <c r="AH158" s="1"/>
       <c r="AI158" s="6"/>
-      <c r="AJ158" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL158" s="33"/>
-      <c r="AM158" s="33"/>
-      <c r="AN158" s="33"/>
-      <c r="AO158" s="33"/>
-      <c r="AP158" s="26" t="s">
-        <v>56</v>
-      </c>
+      <c r="AJ158" s="1"/>
+      <c r="AK158" s="1"/>
+      <c r="AL158" s="1"/>
+      <c r="AM158" s="1"/>
+      <c r="AN158" s="1"/>
+      <c r="AO158" s="1"/>
+      <c r="AP158" s="1"/>
       <c r="AQ158" s="1"/>
       <c r="AR158" s="1"/>
       <c r="AS158" s="7"/>
@@ -9189,63 +9584,62 @@
     <row r="159" spans="2:60" ht="18" customHeight="1">
       <c r="Q159" s="6"/>
       <c r="R159" s="11"/>
-      <c r="S159" s="38"/>
-      <c r="T159" s="39"/>
-      <c r="U159" s="38"/>
-      <c r="V159" s="39"/>
-      <c r="W159" s="38"/>
-      <c r="X159" s="39"/>
+      <c r="S159" s="41"/>
+      <c r="T159" s="42"/>
+      <c r="U159" s="41"/>
+      <c r="V159" s="42"/>
+      <c r="W159" s="41"/>
+      <c r="X159" s="42"/>
       <c r="Y159" s="11"/>
       <c r="Z159" s="13"/>
       <c r="AA159" s="11"/>
       <c r="AB159" s="13"/>
       <c r="AC159" s="11"/>
-      <c r="AD159" s="47"/>
+      <c r="AD159" s="36"/>
       <c r="AE159" s="7"/>
       <c r="AH159" s="1"/>
       <c r="AI159" s="6"/>
-      <c r="AS159" s="1"/>
-      <c r="AT159" s="6"/>
+      <c r="AJ159" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL159" s="46"/>
+      <c r="AM159" s="46"/>
+      <c r="AN159" s="46"/>
+      <c r="AO159" s="46"/>
+      <c r="AP159" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ159" s="1"/>
+      <c r="AR159" s="1"/>
+      <c r="AS159" s="7"/>
+      <c r="AT159" s="1"/>
       <c r="AU159" s="1"/>
       <c r="AV159" s="1"/>
     </row>
     <row r="160" spans="2:60" ht="18" customHeight="1">
       <c r="Q160" s="6"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
-      <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
-      <c r="W160" s="1"/>
-      <c r="X160" s="1"/>
-      <c r="Y160" s="1"/>
-      <c r="Z160" s="1"/>
-      <c r="AC160" s="1"/>
-      <c r="AD160" s="1"/>
+      <c r="R160" s="11"/>
+      <c r="S160" s="41"/>
+      <c r="T160" s="42"/>
+      <c r="U160" s="41"/>
+      <c r="V160" s="42"/>
+      <c r="W160" s="41"/>
+      <c r="X160" s="42"/>
+      <c r="Y160" s="11"/>
+      <c r="Z160" s="13"/>
+      <c r="AA160" s="11"/>
+      <c r="AB160" s="13"/>
+      <c r="AC160" s="11"/>
+      <c r="AD160" s="36"/>
       <c r="AE160" s="7"/>
       <c r="AH160" s="1"/>
       <c r="AI160" s="6"/>
-      <c r="AJ160" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK160" s="1"/>
-      <c r="AL160" s="33"/>
-      <c r="AM160" s="33"/>
-      <c r="AN160" s="33"/>
-      <c r="AO160" s="33"/>
-      <c r="AP160" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ160" s="1"/>
-      <c r="AR160" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="AS160" s="1"/>
       <c r="AT160" s="6"/>
       <c r="AU160" s="1"/>
       <c r="AV160" s="1"/>
     </row>
-    <row r="161" spans="17:60" ht="18" customHeight="1">
+    <row r="161" spans="4:60" ht="18" customHeight="1">
       <c r="Q161" s="6"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
@@ -9261,18 +9655,27 @@
       <c r="AE161" s="7"/>
       <c r="AH161" s="1"/>
       <c r="AI161" s="6"/>
-      <c r="AJ161" s="1"/>
-      <c r="AN161" s="1"/>
-      <c r="AO161" s="1"/>
-      <c r="AP161" s="1"/>
+      <c r="AJ161" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK161" s="1"/>
+      <c r="AL161" s="46"/>
+      <c r="AM161" s="46"/>
+      <c r="AN161" s="46"/>
+      <c r="AO161" s="46"/>
+      <c r="AP161" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="AQ161" s="1"/>
-      <c r="AR161" s="1"/>
+      <c r="AR161" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="AS161" s="1"/>
       <c r="AT161" s="6"/>
       <c r="AU161" s="1"/>
       <c r="AV161" s="1"/>
     </row>
-    <row r="162" spans="17:60" ht="18" customHeight="1">
+    <row r="162" spans="4:60" ht="18" customHeight="1">
       <c r="Q162" s="6"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
@@ -9289,13 +9692,6 @@
       <c r="AH162" s="1"/>
       <c r="AI162" s="6"/>
       <c r="AJ162" s="1"/>
-      <c r="AK162" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL162" s="1"/>
-      <c r="AM162" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="AN162" s="1"/>
       <c r="AO162" s="1"/>
       <c r="AP162" s="1"/>
@@ -9306,107 +9702,130 @@
       <c r="AU162" s="1"/>
       <c r="AV162" s="1"/>
     </row>
-    <row r="163" spans="17:60" ht="18" customHeight="1">
-      <c r="Q163" s="8"/>
-      <c r="R163" s="2"/>
-      <c r="S163" s="2"/>
-      <c r="T163" s="2"/>
-      <c r="U163" s="2"/>
-      <c r="V163" s="2"/>
-      <c r="W163" s="2"/>
-      <c r="X163" s="2"/>
-      <c r="Y163" s="2"/>
-      <c r="AC163" s="2"/>
-      <c r="AD163" s="2"/>
-      <c r="AE163" s="9"/>
-      <c r="AI163" s="8"/>
-      <c r="AJ163" s="2"/>
-      <c r="AK163" s="2"/>
-      <c r="AL163" s="2"/>
-      <c r="AM163" s="2"/>
-      <c r="AN163" s="2"/>
-      <c r="AO163" s="2"/>
-      <c r="AP163" s="2"/>
-      <c r="AQ163" s="2"/>
-      <c r="AR163" s="2"/>
-      <c r="AS163" s="9"/>
-    </row>
-    <row r="164" spans="17:60" ht="18" customHeight="1">
-      <c r="Z164" s="4"/>
-      <c r="AA164" s="4"/>
-      <c r="AB164" s="4"/>
-      <c r="AD164" s="1"/>
-      <c r="AS164" s="1"/>
-    </row>
-    <row r="165" spans="17:60" ht="18" customHeight="1">
+    <row r="163" spans="4:60" ht="18" customHeight="1">
+      <c r="Q163" s="6"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
+      <c r="X163" s="1"/>
+      <c r="Y163" s="1"/>
+      <c r="Z163" s="1"/>
+      <c r="AC163" s="1"/>
+      <c r="AD163" s="1"/>
+      <c r="AE163" s="7"/>
+      <c r="AH163" s="1"/>
+      <c r="AI163" s="6"/>
+      <c r="AJ163" s="1"/>
+      <c r="AK163" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL163" s="1"/>
+      <c r="AM163" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN163" s="1"/>
+      <c r="AO163" s="1"/>
+      <c r="AP163" s="1"/>
+      <c r="AQ163" s="1"/>
+      <c r="AR163" s="1"/>
+      <c r="AS163" s="1"/>
+      <c r="AT163" s="6"/>
+      <c r="AU163" s="1"/>
+      <c r="AV163" s="1"/>
+    </row>
+    <row r="164" spans="4:60" ht="18" customHeight="1">
+      <c r="Q164" s="8"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="2"/>
+      <c r="X164" s="2"/>
+      <c r="Y164" s="2"/>
+      <c r="AC164" s="2"/>
+      <c r="AD164" s="2"/>
+      <c r="AE164" s="9"/>
+      <c r="AI164" s="8"/>
+      <c r="AJ164" s="2"/>
+      <c r="AK164" s="2"/>
+      <c r="AL164" s="2"/>
+      <c r="AM164" s="2"/>
+      <c r="AN164" s="2"/>
+      <c r="AO164" s="2"/>
+      <c r="AP164" s="2"/>
+      <c r="AQ164" s="2"/>
+      <c r="AR164" s="2"/>
+      <c r="AS164" s="9"/>
+    </row>
+    <row r="165" spans="4:60" ht="18" customHeight="1">
+      <c r="Z165" s="4"/>
+      <c r="AA165" s="4"/>
+      <c r="AB165" s="4"/>
       <c r="AD165" s="1"/>
       <c r="AS165" s="1"/>
-      <c r="AT165" s="1"/>
-      <c r="AU165" s="1"/>
-      <c r="AV165" s="1"/>
-      <c r="AW165" s="1"/>
-      <c r="AX165" s="1"/>
-      <c r="AY165" s="1"/>
-      <c r="AZ165" s="1"/>
-      <c r="BA165" s="1"/>
-      <c r="BB165" s="1"/>
-      <c r="BC165" s="1"/>
-      <c r="BD165" s="1"/>
-      <c r="BE165" s="1"/>
-      <c r="BF165" s="1"/>
-      <c r="BG165" s="1"/>
-      <c r="BH165" s="1"/>
-    </row>
-    <row r="167" spans="17:60" ht="18" customHeight="1">
-      <c r="Q167" t="s">
+    </row>
+    <row r="166" spans="4:60" ht="18" customHeight="1">
+      <c r="AD166" s="1"/>
+      <c r="AS166" s="1"/>
+      <c r="AT166" s="1"/>
+      <c r="AU166" s="1"/>
+      <c r="AV166" s="1"/>
+      <c r="AW166" s="1"/>
+      <c r="AX166" s="1"/>
+      <c r="AY166" s="1"/>
+      <c r="AZ166" s="1"/>
+      <c r="BA166" s="1"/>
+      <c r="BB166" s="1"/>
+      <c r="BC166" s="1"/>
+      <c r="BD166" s="1"/>
+      <c r="BE166" s="1"/>
+      <c r="BF166" s="1"/>
+      <c r="BG166" s="1"/>
+      <c r="BH166" s="1"/>
+    </row>
+    <row r="168" spans="4:60" ht="18" customHeight="1">
+      <c r="Q168" t="s">
         <v>96</v>
       </c>
-      <c r="T167" t="s">
+      <c r="T168" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="168" spans="17:60" ht="18" customHeight="1">
-      <c r="Q168" s="3"/>
-      <c r="R168" s="4"/>
-      <c r="S168" s="4"/>
-      <c r="T168" s="4"/>
-      <c r="U168" s="4"/>
-      <c r="V168" s="4"/>
-      <c r="W168" s="4"/>
-      <c r="X168" s="4"/>
-      <c r="Y168" s="4"/>
-      <c r="Z168" s="4"/>
-      <c r="AA168" s="4"/>
-      <c r="AB168" s="4"/>
-      <c r="AC168" s="4"/>
-      <c r="AD168" s="4"/>
-      <c r="AE168" s="4"/>
-      <c r="AF168" s="4"/>
-      <c r="AG168" s="4"/>
-      <c r="AH168" s="4"/>
-      <c r="AI168" s="4"/>
-      <c r="AJ168" s="4"/>
-      <c r="AK168" s="4"/>
-      <c r="AL168" s="4"/>
-      <c r="AM168" s="4"/>
-      <c r="AN168" s="4"/>
-      <c r="AO168" s="5"/>
-    </row>
-    <row r="169" spans="17:60" ht="18" customHeight="1">
-      <c r="Q169" s="6"/>
-      <c r="AE169" s="1"/>
-      <c r="AF169" s="1"/>
-      <c r="AG169" s="1"/>
-      <c r="AH169" s="1"/>
-      <c r="AI169" s="1"/>
-      <c r="AJ169" s="1"/>
-      <c r="AK169" s="1"/>
-      <c r="AL169" s="1"/>
-      <c r="AM169" s="1"/>
-      <c r="AN169" s="1"/>
-      <c r="AO169" s="7"/>
-    </row>
-    <row r="170" spans="17:60" ht="18" customHeight="1">
+    <row r="169" spans="4:60" ht="18" customHeight="1">
+      <c r="Q169" s="3"/>
+      <c r="R169" s="4"/>
+      <c r="S169" s="4"/>
+      <c r="T169" s="4"/>
+      <c r="U169" s="4"/>
+      <c r="V169" s="4"/>
+      <c r="W169" s="4"/>
+      <c r="X169" s="4"/>
+      <c r="Y169" s="4"/>
+      <c r="Z169" s="4"/>
+      <c r="AA169" s="4"/>
+      <c r="AB169" s="4"/>
+      <c r="AC169" s="4"/>
+      <c r="AD169" s="4"/>
+      <c r="AE169" s="4"/>
+      <c r="AF169" s="4"/>
+      <c r="AG169" s="4"/>
+      <c r="AH169" s="4"/>
+      <c r="AI169" s="4"/>
+      <c r="AJ169" s="4"/>
+      <c r="AK169" s="4"/>
+      <c r="AL169" s="4"/>
+      <c r="AM169" s="4"/>
+      <c r="AN169" s="4"/>
+      <c r="AO169" s="5"/>
+    </row>
+    <row r="170" spans="4:60" ht="18" customHeight="1">
+      <c r="D170" s="31" t="s">
+        <v>262</v>
+      </c>
       <c r="Q170" s="6"/>
       <c r="AE170" s="1"/>
       <c r="AF170" s="1"/>
@@ -9420,7 +9839,10 @@
       <c r="AN170" s="1"/>
       <c r="AO170" s="7"/>
     </row>
-    <row r="171" spans="17:60" ht="18" customHeight="1">
+    <row r="171" spans="4:60" ht="18" customHeight="1">
+      <c r="D171" s="29" t="s">
+        <v>254</v>
+      </c>
       <c r="Q171" s="6"/>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
@@ -9434,21 +9856,11 @@
       <c r="AN171" s="1"/>
       <c r="AO171" s="7"/>
     </row>
-    <row r="172" spans="17:60" ht="18" customHeight="1">
+    <row r="172" spans="4:60" ht="18" customHeight="1">
+      <c r="D172" s="29" t="s">
+        <v>263</v>
+      </c>
       <c r="Q172" s="6"/>
-      <c r="R172" s="1"/>
-      <c r="S172" s="1"/>
-      <c r="T172" s="1"/>
-      <c r="U172" s="1"/>
-      <c r="V172" s="1"/>
-      <c r="W172" s="1"/>
-      <c r="X172" s="1"/>
-      <c r="Y172" s="1"/>
-      <c r="Z172" s="1"/>
-      <c r="AA172" s="1"/>
-      <c r="AB172" s="1"/>
-      <c r="AC172" s="1"/>
-      <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
       <c r="AF172" s="1"/>
       <c r="AG172" s="1"/>
@@ -9461,7 +9873,10 @@
       <c r="AN172" s="1"/>
       <c r="AO172" s="7"/>
     </row>
-    <row r="173" spans="17:60" ht="18" customHeight="1">
+    <row r="173" spans="4:60" ht="18" customHeight="1">
+      <c r="D173" s="29" t="s">
+        <v>264</v>
+      </c>
       <c r="Q173" s="6"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
@@ -9488,7 +9903,7 @@
       <c r="AN173" s="1"/>
       <c r="AO173" s="7"/>
     </row>
-    <row r="174" spans="17:60" ht="18" customHeight="1">
+    <row r="174" spans="4:60" ht="18" customHeight="1">
       <c r="Q174" s="6"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
@@ -9515,7 +9930,7 @@
       <c r="AN174" s="1"/>
       <c r="AO174" s="7"/>
     </row>
-    <row r="175" spans="17:60" ht="18" customHeight="1">
+    <row r="175" spans="4:60" ht="18" customHeight="1">
       <c r="Q175" s="6"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
@@ -9542,7 +9957,7 @@
       <c r="AN175" s="1"/>
       <c r="AO175" s="7"/>
     </row>
-    <row r="176" spans="17:60" ht="18" customHeight="1">
+    <row r="176" spans="4:60" ht="18" customHeight="1">
       <c r="Q176" s="6"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
@@ -9651,198 +10066,184 @@
       <c r="AO179" s="7"/>
     </row>
     <row r="180" spans="2:43" ht="18" customHeight="1">
-      <c r="Q180" s="8"/>
-      <c r="R180" s="2"/>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2"/>
-      <c r="V180" s="2"/>
-      <c r="W180" s="2"/>
-      <c r="X180" s="2"/>
-      <c r="Y180" s="2"/>
-      <c r="Z180" s="2"/>
-      <c r="AA180" s="2"/>
-      <c r="AB180" s="2"/>
-      <c r="AC180" s="2"/>
-      <c r="AD180" s="2"/>
-      <c r="AE180" s="2"/>
-      <c r="AF180" s="2"/>
-      <c r="AG180" s="2"/>
-      <c r="AH180" s="2"/>
-      <c r="AI180" s="2"/>
-      <c r="AJ180" s="2"/>
-      <c r="AK180" s="2"/>
-      <c r="AL180" s="2"/>
-      <c r="AM180" s="2"/>
-      <c r="AN180" s="2"/>
-      <c r="AO180" s="9"/>
-    </row>
-    <row r="182" spans="2:43" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B182" s="30"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="30"/>
-      <c r="E182" s="30"/>
-      <c r="F182" s="30"/>
-      <c r="G182" s="30"/>
-      <c r="H182" s="30"/>
-      <c r="I182" s="30"/>
-      <c r="J182" s="30"/>
-      <c r="K182" s="30"/>
-      <c r="L182" s="30"/>
-      <c r="M182" s="30"/>
-      <c r="N182" s="9"/>
-    </row>
-    <row r="184" spans="2:43" ht="18" customHeight="1">
-      <c r="Q184" t="s">
-        <v>207</v>
-      </c>
+      <c r="Q180" s="6"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+      <c r="U180" s="1"/>
+      <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
+      <c r="X180" s="1"/>
+      <c r="Y180" s="1"/>
+      <c r="Z180" s="1"/>
+      <c r="AA180" s="1"/>
+      <c r="AB180" s="1"/>
+      <c r="AC180" s="1"/>
+      <c r="AD180" s="1"/>
+      <c r="AE180" s="1"/>
+      <c r="AF180" s="1"/>
+      <c r="AG180" s="1"/>
+      <c r="AH180" s="1"/>
+      <c r="AI180" s="1"/>
+      <c r="AJ180" s="1"/>
+      <c r="AK180" s="1"/>
+      <c r="AL180" s="1"/>
+      <c r="AM180" s="1"/>
+      <c r="AN180" s="1"/>
+      <c r="AO180" s="7"/>
+    </row>
+    <row r="181" spans="2:43" ht="18" customHeight="1">
+      <c r="Q181" s="8"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2"/>
+      <c r="V181" s="2"/>
+      <c r="W181" s="2"/>
+      <c r="X181" s="2"/>
+      <c r="Y181" s="2"/>
+      <c r="Z181" s="2"/>
+      <c r="AA181" s="2"/>
+      <c r="AB181" s="2"/>
+      <c r="AC181" s="2"/>
+      <c r="AD181" s="2"/>
+      <c r="AE181" s="2"/>
+      <c r="AF181" s="2"/>
+      <c r="AG181" s="2"/>
+      <c r="AH181" s="2"/>
+      <c r="AI181" s="2"/>
+      <c r="AJ181" s="2"/>
+      <c r="AK181" s="2"/>
+      <c r="AL181" s="2"/>
+      <c r="AM181" s="2"/>
+      <c r="AN181" s="2"/>
+      <c r="AO181" s="9"/>
+    </row>
+    <row r="183" spans="2:43" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
+      <c r="E183" s="30"/>
+      <c r="F183" s="30"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="30"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="30"/>
+      <c r="K183" s="30"/>
+      <c r="L183" s="30"/>
+      <c r="M183" s="30"/>
+      <c r="N183" s="9"/>
     </row>
     <row r="185" spans="2:43" ht="18" customHeight="1">
-      <c r="Q185" s="3"/>
-      <c r="R185" s="4"/>
-      <c r="S185" s="4"/>
-      <c r="T185" s="4"/>
-      <c r="U185" s="4"/>
-      <c r="V185" s="4"/>
-      <c r="W185" s="4"/>
-      <c r="X185" s="4"/>
-      <c r="Y185" s="4"/>
-      <c r="Z185" s="4"/>
-      <c r="AA185" s="4"/>
-      <c r="AB185" s="4"/>
-      <c r="AC185" s="4"/>
-      <c r="AD185" s="4"/>
-      <c r="AE185" s="5"/>
-      <c r="AG185" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL185" t="s">
-        <v>222</v>
+      <c r="Q185" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="2:43" ht="18" customHeight="1">
-      <c r="Q186" s="6"/>
-      <c r="R186" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S186" s="33"/>
-      <c r="T186" s="33"/>
-      <c r="U186" s="33"/>
-      <c r="V186" s="33"/>
-      <c r="W186" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="X186" s="1"/>
-      <c r="Y186" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z186" s="1"/>
-      <c r="AA186" s="33"/>
-      <c r="AB186" s="33"/>
-      <c r="AC186" s="33"/>
-      <c r="AD186" s="1"/>
-      <c r="AE186" s="7"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="4"/>
+      <c r="S186" s="4"/>
+      <c r="T186" s="4"/>
+      <c r="U186" s="4"/>
+      <c r="V186" s="4"/>
+      <c r="W186" s="4"/>
+      <c r="X186" s="4"/>
+      <c r="Y186" s="4"/>
+      <c r="Z186" s="4"/>
+      <c r="AA186" s="4"/>
+      <c r="AB186" s="4"/>
+      <c r="AC186" s="4"/>
+      <c r="AD186" s="4"/>
+      <c r="AE186" s="5"/>
+      <c r="AG186" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="187" spans="2:43" ht="18" customHeight="1">
       <c r="Q187" s="6"/>
-      <c r="W187" s="1"/>
+      <c r="R187" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S187" s="46"/>
+      <c r="T187" s="46"/>
+      <c r="U187" s="46"/>
+      <c r="V187" s="46"/>
+      <c r="W187" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="X187" s="1"/>
-      <c r="Y187" s="1"/>
+      <c r="Y187" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="Z187" s="1"/>
-      <c r="AA187" s="1"/>
-      <c r="AB187" s="1"/>
-      <c r="AC187" s="1"/>
+      <c r="AA187" s="46"/>
+      <c r="AB187" s="46"/>
+      <c r="AC187" s="46"/>
       <c r="AD187" s="1"/>
       <c r="AE187" s="7"/>
-      <c r="AG187" s="3"/>
-      <c r="AH187" s="4"/>
-      <c r="AI187" s="4"/>
-      <c r="AJ187" s="4"/>
-      <c r="AK187" s="4"/>
-      <c r="AL187" s="4"/>
-      <c r="AM187" s="4"/>
-      <c r="AN187" s="4"/>
-      <c r="AO187" s="4"/>
-      <c r="AP187" s="4"/>
-      <c r="AQ187" s="5"/>
     </row>
     <row r="188" spans="2:43" ht="18" customHeight="1">
       <c r="Q188" s="6"/>
-      <c r="R188" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="S188" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="T188" s="33"/>
-      <c r="U188" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="V188" s="33"/>
-      <c r="W188" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="X188" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y188" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z188" s="50"/>
-      <c r="AA188" s="51"/>
+      <c r="W188" s="1"/>
+      <c r="X188" s="1"/>
+      <c r="Y188" s="1"/>
+      <c r="Z188" s="1"/>
+      <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
       <c r="AC188" s="1"/>
       <c r="AD188" s="1"/>
       <c r="AE188" s="7"/>
-      <c r="AG188" s="6"/>
-      <c r="AI188" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL188" s="1"/>
-      <c r="AM188" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO188" s="1"/>
-      <c r="AP188" s="1"/>
-      <c r="AQ188" s="7"/>
+      <c r="AG188" s="3"/>
+      <c r="AH188" s="4"/>
+      <c r="AI188" s="4"/>
+      <c r="AJ188" s="4"/>
+      <c r="AK188" s="4"/>
+      <c r="AL188" s="4"/>
+      <c r="AM188" s="4"/>
+      <c r="AN188" s="4"/>
+      <c r="AO188" s="4"/>
+      <c r="AP188" s="4"/>
+      <c r="AQ188" s="5"/>
     </row>
     <row r="189" spans="2:43" ht="18" customHeight="1">
       <c r="Q189" s="6"/>
-      <c r="R189" s="1"/>
-      <c r="S189" s="1"/>
-      <c r="T189" s="1"/>
-      <c r="U189" s="1"/>
-      <c r="V189" s="1"/>
-      <c r="W189" s="1"/>
-      <c r="X189" s="1"/>
-      <c r="Y189" t="s">
+      <c r="R189" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="S189" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="T189" s="46"/>
+      <c r="U189" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="V189" s="46"/>
+      <c r="W189" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="X189" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Z189" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA189" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="Y189" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z189" s="44"/>
+      <c r="AA189" s="45"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
       <c r="AE189" s="7"/>
       <c r="AG189" s="6"/>
-      <c r="AH189" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI189" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ189" s="39"/>
-      <c r="AL189" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM189" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN189" s="39"/>
+      <c r="AI189" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL189" s="1"/>
+      <c r="AM189" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="AO189" s="1"/>
       <c r="AP189" s="1"/>
       <c r="AQ189" s="7"/>
@@ -9856,24 +10257,30 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
-      <c r="Y190" s="1"/>
-      <c r="Z190" s="1"/>
-      <c r="AA190" s="1"/>
+      <c r="Y190" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z190" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA190" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
       <c r="AD190" s="1"/>
       <c r="AE190" s="7"/>
       <c r="AG190" s="6"/>
-      <c r="AH190" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI190" s="38"/>
-      <c r="AJ190" s="39"/>
-      <c r="AL190" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM190" s="38"/>
-      <c r="AN190" s="39"/>
+      <c r="AH190" s="58"/>
+      <c r="AI190" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ190" s="42"/>
+      <c r="AL190" s="58"/>
+      <c r="AM190" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN190" s="42"/>
       <c r="AO190" s="1"/>
       <c r="AP190" s="1"/>
       <c r="AQ190" s="7"/>
@@ -9895,16 +10302,12 @@
       <c r="AD191" s="1"/>
       <c r="AE191" s="7"/>
       <c r="AG191" s="6"/>
-      <c r="AH191" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI191" s="38"/>
-      <c r="AJ191" s="39"/>
-      <c r="AL191" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM191" s="38"/>
-      <c r="AN191" s="39"/>
+      <c r="AH191" s="58"/>
+      <c r="AI191" s="41"/>
+      <c r="AJ191" s="42"/>
+      <c r="AL191" s="58"/>
+      <c r="AM191" s="41"/>
+      <c r="AN191" s="42"/>
       <c r="AO191" s="1"/>
       <c r="AP191" s="1"/>
       <c r="AQ191" s="7"/>
@@ -9926,9 +10329,12 @@
       <c r="AD192" s="1"/>
       <c r="AE192" s="7"/>
       <c r="AG192" s="6"/>
-      <c r="AL192" s="1"/>
-      <c r="AM192" s="1"/>
-      <c r="AN192" s="1"/>
+      <c r="AH192" s="58"/>
+      <c r="AI192" s="41"/>
+      <c r="AJ192" s="42"/>
+      <c r="AL192" s="58"/>
+      <c r="AM192" s="41"/>
+      <c r="AN192" s="42"/>
       <c r="AO192" s="1"/>
       <c r="AP192" s="1"/>
       <c r="AQ192" s="7"/>
@@ -9950,12 +10356,6 @@
       <c r="AD193" s="1"/>
       <c r="AE193" s="7"/>
       <c r="AG193" s="6"/>
-      <c r="AH193" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI193" s="1"/>
-      <c r="AJ193" s="1"/>
-      <c r="AK193" s="1"/>
       <c r="AL193" s="1"/>
       <c r="AM193" s="1"/>
       <c r="AN193" s="1"/>
@@ -9980,15 +10380,6 @@
       <c r="AD194" s="1"/>
       <c r="AE194" s="7"/>
       <c r="AG194" s="6"/>
-      <c r="AH194" s="3"/>
-      <c r="AI194" s="4"/>
-      <c r="AJ194" s="4"/>
-      <c r="AK194" s="4"/>
-      <c r="AL194" s="4"/>
-      <c r="AM194" s="4"/>
-      <c r="AN194" s="4"/>
-      <c r="AO194" s="4"/>
-      <c r="AP194" s="5"/>
       <c r="AQ194" s="7"/>
     </row>
     <row r="195" spans="17:43" ht="18" customHeight="1">
@@ -10008,15 +10399,6 @@
       <c r="AD195" s="1"/>
       <c r="AE195" s="7"/>
       <c r="AG195" s="6"/>
-      <c r="AH195" s="8"/>
-      <c r="AI195" s="2"/>
-      <c r="AJ195" s="2"/>
-      <c r="AK195" s="2"/>
-      <c r="AL195" s="2"/>
-      <c r="AM195" s="2"/>
-      <c r="AN195" s="2"/>
-      <c r="AO195" s="2"/>
-      <c r="AP195" s="9"/>
       <c r="AQ195" s="7"/>
     </row>
     <row r="196" spans="17:43" ht="18" customHeight="1">
@@ -10036,378 +10418,127 @@
       <c r="AD196" s="1"/>
       <c r="AE196" s="7"/>
       <c r="AG196" s="6"/>
-      <c r="AH196" s="1"/>
-      <c r="AI196" s="1"/>
-      <c r="AJ196" s="1"/>
-      <c r="AK196" s="1"/>
-      <c r="AL196" s="1"/>
-      <c r="AM196" s="1"/>
-      <c r="AN196" s="1"/>
-      <c r="AO196" s="1"/>
-      <c r="AP196" s="1"/>
       <c r="AQ196" s="7"/>
     </row>
     <row r="197" spans="17:43" ht="18" customHeight="1">
-      <c r="Q197" s="8"/>
-      <c r="R197" s="2"/>
-      <c r="S197" s="2"/>
-      <c r="T197" s="2"/>
-      <c r="U197" s="2"/>
-      <c r="V197" s="2"/>
-      <c r="W197" s="2"/>
-      <c r="X197" s="2"/>
-      <c r="Y197" s="2"/>
-      <c r="Z197" s="2"/>
-      <c r="AA197" s="2"/>
-      <c r="AB197" s="2"/>
-      <c r="AC197" s="2"/>
-      <c r="AD197" s="2"/>
-      <c r="AE197" s="9"/>
-      <c r="AG197" s="8"/>
-      <c r="AH197" s="2"/>
-      <c r="AI197" s="2"/>
-      <c r="AJ197" s="2"/>
-      <c r="AK197" s="2"/>
-      <c r="AL197" s="2"/>
-      <c r="AM197" s="2"/>
-      <c r="AN197" s="2"/>
-      <c r="AO197" s="2"/>
-      <c r="AP197" s="2"/>
-      <c r="AQ197" s="9"/>
+      <c r="Q197" s="6"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
+      <c r="W197" s="1"/>
+      <c r="X197" s="1"/>
+      <c r="Y197" s="1"/>
+      <c r="Z197" s="1"/>
+      <c r="AA197" s="1"/>
+      <c r="AB197" s="1"/>
+      <c r="AC197" s="1"/>
+      <c r="AD197" s="1"/>
+      <c r="AE197" s="7"/>
+      <c r="AG197" s="6"/>
+      <c r="AH197" s="1"/>
+      <c r="AI197" s="1"/>
+      <c r="AJ197" s="1"/>
+      <c r="AK197" s="1"/>
+      <c r="AL197" s="1"/>
+      <c r="AM197" s="1"/>
+      <c r="AN197" s="1"/>
+      <c r="AO197" s="1"/>
+      <c r="AP197" s="1"/>
+      <c r="AQ197" s="7"/>
+    </row>
+    <row r="198" spans="17:43" ht="18" customHeight="1">
+      <c r="Q198" s="8"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2"/>
+      <c r="V198" s="2"/>
+      <c r="W198" s="2"/>
+      <c r="X198" s="2"/>
+      <c r="Y198" s="2"/>
+      <c r="Z198" s="2"/>
+      <c r="AA198" s="2"/>
+      <c r="AB198" s="2"/>
+      <c r="AC198" s="2"/>
+      <c r="AD198" s="2"/>
+      <c r="AE198" s="9"/>
+      <c r="AG198" s="8"/>
+      <c r="AH198" s="2"/>
+      <c r="AI198" s="2"/>
+      <c r="AJ198" s="2"/>
+      <c r="AK198" s="2"/>
+      <c r="AL198" s="2"/>
+      <c r="AM198" s="2"/>
+      <c r="AN198" s="2"/>
+      <c r="AO198" s="2"/>
+      <c r="AP198" s="2"/>
+      <c r="AQ198" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="418">
-    <mergeCell ref="AI191:AJ191"/>
-    <mergeCell ref="AM189:AN189"/>
-    <mergeCell ref="AM190:AN190"/>
-    <mergeCell ref="AM191:AN191"/>
-    <mergeCell ref="Y188:AA188"/>
-    <mergeCell ref="S186:V186"/>
-    <mergeCell ref="AA186:AC186"/>
-    <mergeCell ref="S188:T188"/>
-    <mergeCell ref="U188:V188"/>
-    <mergeCell ref="AI189:AJ189"/>
-    <mergeCell ref="AI190:AJ190"/>
-    <mergeCell ref="AD102:AH102"/>
-    <mergeCell ref="AK102:AL102"/>
-    <mergeCell ref="AM102:AQ102"/>
-    <mergeCell ref="AT102:AU102"/>
-    <mergeCell ref="AV102:AX102"/>
-    <mergeCell ref="Y152:Z152"/>
-    <mergeCell ref="AL158:AO158"/>
-    <mergeCell ref="AL160:AO160"/>
-    <mergeCell ref="S148:V148"/>
-    <mergeCell ref="Z148:AC148"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="U158:V158"/>
-    <mergeCell ref="W158:X158"/>
-    <mergeCell ref="S159:T159"/>
-    <mergeCell ref="U159:V159"/>
-    <mergeCell ref="W159:X159"/>
-    <mergeCell ref="AL151:AO151"/>
-    <mergeCell ref="AN136:AO136"/>
-    <mergeCell ref="AQ136:AR136"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="S156:T156"/>
-    <mergeCell ref="U156:V156"/>
-    <mergeCell ref="W156:X156"/>
-    <mergeCell ref="S157:T157"/>
-    <mergeCell ref="U157:V157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="S152:T152"/>
-    <mergeCell ref="U152:V152"/>
-    <mergeCell ref="W152:X152"/>
-    <mergeCell ref="AA152:AB152"/>
-    <mergeCell ref="AC152:AD152"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="U154:V154"/>
-    <mergeCell ref="W154:X154"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="AO128:AR128"/>
-    <mergeCell ref="AC130:AD130"/>
-    <mergeCell ref="AA131:AB131"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AA132:AB132"/>
-    <mergeCell ref="AC132:AD132"/>
-    <mergeCell ref="AA133:AB133"/>
-    <mergeCell ref="AC133:AD133"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="AC134:AD134"/>
-    <mergeCell ref="Y135:Z135"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="W136:X136"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="W137:X137"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="S129:T129"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="DD138:DE138"/>
-    <mergeCell ref="DF138:DH138"/>
-    <mergeCell ref="DI138:DK138"/>
-    <mergeCell ref="DL138:DM138"/>
-    <mergeCell ref="DJ140:DK140"/>
-    <mergeCell ref="U129:V129"/>
-    <mergeCell ref="W129:X129"/>
-    <mergeCell ref="AA129:AH129"/>
-    <mergeCell ref="U130:V130"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="Y130:Z130"/>
-    <mergeCell ref="U131:V131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="Y131:Z131"/>
-    <mergeCell ref="U132:V132"/>
-    <mergeCell ref="W132:X132"/>
-    <mergeCell ref="Y132:Z132"/>
-    <mergeCell ref="U133:V133"/>
-    <mergeCell ref="W133:X133"/>
-    <mergeCell ref="Y133:Z133"/>
-    <mergeCell ref="U134:V134"/>
-    <mergeCell ref="W134:X134"/>
-    <mergeCell ref="Y134:Z134"/>
-    <mergeCell ref="U135:V135"/>
-    <mergeCell ref="DL135:DM135"/>
-    <mergeCell ref="DD136:DE136"/>
-    <mergeCell ref="DF136:DH136"/>
-    <mergeCell ref="DI136:DK136"/>
-    <mergeCell ref="DL136:DM136"/>
-    <mergeCell ref="DD137:DE137"/>
-    <mergeCell ref="DF137:DH137"/>
-    <mergeCell ref="DI137:DK137"/>
-    <mergeCell ref="DL137:DM137"/>
-    <mergeCell ref="CU130:CV130"/>
-    <mergeCell ref="CU131:CV131"/>
-    <mergeCell ref="CS130:CT130"/>
-    <mergeCell ref="CS131:CT131"/>
-    <mergeCell ref="DD135:DE135"/>
-    <mergeCell ref="DF135:DH135"/>
-    <mergeCell ref="DI135:DK135"/>
-    <mergeCell ref="CD138:CE138"/>
-    <mergeCell ref="CG138:CH138"/>
-    <mergeCell ref="BG130:BH130"/>
-    <mergeCell ref="BG131:BH131"/>
-    <mergeCell ref="BG132:BH132"/>
-    <mergeCell ref="BG133:BH133"/>
-    <mergeCell ref="CN133:CO133"/>
-    <mergeCell ref="CQ133:CR133"/>
-    <mergeCell ref="BO132:BP132"/>
-    <mergeCell ref="BQ132:BR132"/>
-    <mergeCell ref="BS132:BT132"/>
-    <mergeCell ref="BO133:BP133"/>
-    <mergeCell ref="BQ133:BR133"/>
-    <mergeCell ref="BS133:BT133"/>
-    <mergeCell ref="CA112:CH112"/>
-    <mergeCell ref="AN106:AS106"/>
-    <mergeCell ref="BA131:BC131"/>
-    <mergeCell ref="AY130:AZ130"/>
-    <mergeCell ref="BA130:BC130"/>
-    <mergeCell ref="BD130:BF130"/>
-    <mergeCell ref="AY131:AZ131"/>
-    <mergeCell ref="BD131:BF131"/>
-    <mergeCell ref="AY132:AZ132"/>
-    <mergeCell ref="BA132:BC132"/>
-    <mergeCell ref="BD132:BF132"/>
-    <mergeCell ref="BH115:BI115"/>
-    <mergeCell ref="BK115:BL115"/>
-    <mergeCell ref="BZ116:CA116"/>
-    <mergeCell ref="CC116:CD116"/>
-    <mergeCell ref="BO130:BP130"/>
-    <mergeCell ref="BQ130:BR130"/>
-    <mergeCell ref="BS130:BT130"/>
-    <mergeCell ref="BO131:BP131"/>
-    <mergeCell ref="BQ131:BR131"/>
-    <mergeCell ref="BS131:BT131"/>
-    <mergeCell ref="AE136:AF136"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="BY112:BZ112"/>
-    <mergeCell ref="AY133:AZ133"/>
-    <mergeCell ref="BA133:BC133"/>
-    <mergeCell ref="BD133:BF133"/>
-    <mergeCell ref="BA135:BB135"/>
-    <mergeCell ref="BD135:BE135"/>
-    <mergeCell ref="AG130:AH130"/>
-    <mergeCell ref="AG131:AH131"/>
-    <mergeCell ref="AG132:AH132"/>
-    <mergeCell ref="AG133:AH133"/>
-    <mergeCell ref="AG134:AH134"/>
-    <mergeCell ref="AG135:AH135"/>
-    <mergeCell ref="AG136:AH136"/>
-    <mergeCell ref="AG137:AH137"/>
-    <mergeCell ref="BP135:BQ135"/>
-    <mergeCell ref="AE130:AF130"/>
-    <mergeCell ref="AE131:AF131"/>
-    <mergeCell ref="AE132:AF132"/>
-    <mergeCell ref="AE133:AF133"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="AE135:AF135"/>
-    <mergeCell ref="W135:X135"/>
-    <mergeCell ref="R127:S127"/>
-    <mergeCell ref="Y129:Z129"/>
-    <mergeCell ref="U127:V127"/>
-    <mergeCell ref="X127:Y127"/>
-    <mergeCell ref="T125:V125"/>
-    <mergeCell ref="Z125:AB125"/>
-    <mergeCell ref="AD125:AE125"/>
-    <mergeCell ref="AA130:AB130"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="BP105:BQ105"/>
-    <mergeCell ref="BP106:BQ106"/>
-    <mergeCell ref="BP111:BQ111"/>
-    <mergeCell ref="BP112:BQ112"/>
-    <mergeCell ref="CB108:CI108"/>
-    <mergeCell ref="BY110:BZ110"/>
-    <mergeCell ref="CA110:CH110"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="BI58:BJ58"/>
-    <mergeCell ref="BH47:BI47"/>
-    <mergeCell ref="BJ47:BK47"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="BK49:BL49"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="BK50:BL50"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BI52:BJ52"/>
-    <mergeCell ref="BK52:BL52"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="BY108:CA108"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AI32:AO32"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AC36:AD36"/>
+  <mergeCells count="412">
+    <mergeCell ref="BP115:BQ115"/>
+    <mergeCell ref="BH117:BI117"/>
+    <mergeCell ref="BK117:BL117"/>
+    <mergeCell ref="BM107:BQ107"/>
+    <mergeCell ref="U1:Y2"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="AO90:AQ90"/>
+    <mergeCell ref="AR90:AY90"/>
+    <mergeCell ref="AS94:AT94"/>
+    <mergeCell ref="AP94:AQ94"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="AE78:AF78"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:AC88"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="S92:U92"/>
+    <mergeCell ref="S93:U93"/>
+    <mergeCell ref="S94:U94"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="BI54:BJ54"/>
+    <mergeCell ref="BK54:BL54"/>
+    <mergeCell ref="BI55:BJ55"/>
+    <mergeCell ref="BK55:BL55"/>
+    <mergeCell ref="BI56:BJ56"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="S73:T73"/>
     <mergeCell ref="S35:T35"/>
     <mergeCell ref="U35:V35"/>
     <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="S106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="AE106:AG106"/>
-    <mergeCell ref="AH106:AJ106"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="X48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="BK56:BL56"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="BA66:BC66"/>
+    <mergeCell ref="BD66:BK66"/>
+    <mergeCell ref="BB70:BC70"/>
+    <mergeCell ref="BD70:BE70"/>
+    <mergeCell ref="BF70:BG70"/>
+    <mergeCell ref="BC71:BD71"/>
+    <mergeCell ref="BE71:BF71"/>
+    <mergeCell ref="BG71:BH71"/>
+    <mergeCell ref="BC72:BD72"/>
+    <mergeCell ref="BB73:BC73"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:AB66"/>
     <mergeCell ref="AD91:AE91"/>
     <mergeCell ref="AB90:AG90"/>
     <mergeCell ref="Z91:AA91"/>
@@ -10432,74 +10563,338 @@
     <mergeCell ref="V92:Y92"/>
     <mergeCell ref="V91:Y91"/>
     <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="BC74:BD74"/>
-    <mergeCell ref="BC75:BD75"/>
-    <mergeCell ref="BN78:BO78"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
     <mergeCell ref="S56:U56"/>
     <mergeCell ref="V56:W56"/>
     <mergeCell ref="X56:Y56"/>
     <mergeCell ref="Z56:AA56"/>
     <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="BA66:BC66"/>
-    <mergeCell ref="BD66:BK66"/>
-    <mergeCell ref="BB70:BC70"/>
-    <mergeCell ref="BD70:BE70"/>
-    <mergeCell ref="BF70:BG70"/>
-    <mergeCell ref="BC71:BD71"/>
-    <mergeCell ref="BE71:BF71"/>
-    <mergeCell ref="BG71:BH71"/>
-    <mergeCell ref="BC72:BD72"/>
-    <mergeCell ref="BB73:BC73"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:AB66"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AO38"/>
+    <mergeCell ref="S106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="AE106:AG106"/>
+    <mergeCell ref="AH106:AJ106"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="X48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="CA110:CH110"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AN37:AO37"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="BI58:BJ58"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="BK49:BL49"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="BK50:BL50"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BI52:BJ52"/>
+    <mergeCell ref="BK52:BL52"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="BY108:CA108"/>
+    <mergeCell ref="BC74:BD74"/>
+    <mergeCell ref="BC75:BD75"/>
+    <mergeCell ref="BN78:BO78"/>
     <mergeCell ref="BI53:BJ53"/>
     <mergeCell ref="BK53:BL53"/>
-    <mergeCell ref="BI54:BJ54"/>
-    <mergeCell ref="BK54:BL54"/>
-    <mergeCell ref="BI55:BJ55"/>
-    <mergeCell ref="BK55:BL55"/>
-    <mergeCell ref="BI56:BJ56"/>
-    <mergeCell ref="BK56:BL56"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="U1:Y2"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="AO90:AQ90"/>
-    <mergeCell ref="AR90:AY90"/>
-    <mergeCell ref="AS94:AT94"/>
-    <mergeCell ref="AP94:AQ94"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="AE78:AF78"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:AC88"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="S92:U92"/>
-    <mergeCell ref="S93:U93"/>
-    <mergeCell ref="S94:U94"/>
-    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="Z126:AB126"/>
+    <mergeCell ref="AD126:AE126"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD102:AH102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="AM102:AQ102"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI32:AO32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="BP136:BQ136"/>
+    <mergeCell ref="AE131:AF131"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AE133:AF133"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="W136:X136"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="AY134:AZ134"/>
+    <mergeCell ref="BA134:BC134"/>
+    <mergeCell ref="BD134:BF134"/>
+    <mergeCell ref="BA136:BB136"/>
+    <mergeCell ref="BD136:BE136"/>
+    <mergeCell ref="AG131:AH131"/>
+    <mergeCell ref="AG132:AH132"/>
+    <mergeCell ref="AG133:AH133"/>
+    <mergeCell ref="AG134:AH134"/>
+    <mergeCell ref="AG135:AH135"/>
+    <mergeCell ref="AG136:AH136"/>
+    <mergeCell ref="BG133:BH133"/>
+    <mergeCell ref="CA112:CH112"/>
+    <mergeCell ref="AN106:AS106"/>
+    <mergeCell ref="BA132:BC132"/>
+    <mergeCell ref="AY131:AZ131"/>
+    <mergeCell ref="BA131:BC131"/>
+    <mergeCell ref="BD131:BF131"/>
+    <mergeCell ref="AY132:AZ132"/>
+    <mergeCell ref="BD132:BF132"/>
+    <mergeCell ref="AY133:AZ133"/>
+    <mergeCell ref="BA133:BC133"/>
+    <mergeCell ref="BD133:BF133"/>
+    <mergeCell ref="BZ116:CA116"/>
+    <mergeCell ref="CC116:CD116"/>
+    <mergeCell ref="BO131:BP131"/>
+    <mergeCell ref="BQ131:BR131"/>
+    <mergeCell ref="BS131:BT131"/>
+    <mergeCell ref="BO132:BP132"/>
+    <mergeCell ref="BQ132:BR132"/>
+    <mergeCell ref="BS132:BT132"/>
+    <mergeCell ref="BY112:BZ112"/>
+    <mergeCell ref="CB108:CI108"/>
+    <mergeCell ref="BY110:BZ110"/>
+    <mergeCell ref="BG131:BH131"/>
+    <mergeCell ref="BG132:BH132"/>
+    <mergeCell ref="BG134:BH134"/>
+    <mergeCell ref="CN134:CO134"/>
+    <mergeCell ref="CQ134:CR134"/>
+    <mergeCell ref="BO133:BP133"/>
+    <mergeCell ref="BQ133:BR133"/>
+    <mergeCell ref="BS133:BT133"/>
+    <mergeCell ref="BO134:BP134"/>
+    <mergeCell ref="BQ134:BR134"/>
+    <mergeCell ref="BS134:BT134"/>
+    <mergeCell ref="CU131:CV131"/>
+    <mergeCell ref="CU132:CV132"/>
+    <mergeCell ref="CS131:CT131"/>
+    <mergeCell ref="CS132:CT132"/>
+    <mergeCell ref="DD136:DE136"/>
+    <mergeCell ref="DF136:DH136"/>
+    <mergeCell ref="DI136:DK136"/>
+    <mergeCell ref="CD139:CE139"/>
+    <mergeCell ref="CG139:CH139"/>
+    <mergeCell ref="DD139:DE139"/>
+    <mergeCell ref="DF139:DH139"/>
+    <mergeCell ref="DI139:DK139"/>
+    <mergeCell ref="DL136:DM136"/>
+    <mergeCell ref="DD137:DE137"/>
+    <mergeCell ref="DF137:DH137"/>
+    <mergeCell ref="DI137:DK137"/>
+    <mergeCell ref="DL137:DM137"/>
+    <mergeCell ref="DD138:DE138"/>
+    <mergeCell ref="DF138:DH138"/>
+    <mergeCell ref="DI138:DK138"/>
+    <mergeCell ref="DL138:DM138"/>
+    <mergeCell ref="DL139:DM139"/>
+    <mergeCell ref="DJ141:DK141"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="AA130:AH130"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="Y131:Z131"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
+    <mergeCell ref="Y132:Z132"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
+    <mergeCell ref="Y133:Z133"/>
+    <mergeCell ref="U134:V134"/>
+    <mergeCell ref="W134:X134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="W135:X135"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="W137:X137"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="U138:V138"/>
+    <mergeCell ref="W138:X138"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="AC138:AD138"/>
+    <mergeCell ref="AO129:AR129"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="AC133:AD133"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AG137:AH137"/>
+    <mergeCell ref="AG138:AH138"/>
+    <mergeCell ref="W158:X158"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="AA153:AB153"/>
+    <mergeCell ref="AC153:AD153"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="U154:V154"/>
+    <mergeCell ref="W154:X154"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
+    <mergeCell ref="AT102:AU102"/>
+    <mergeCell ref="AV102:AX102"/>
+    <mergeCell ref="Y153:Z153"/>
+    <mergeCell ref="AL159:AO159"/>
+    <mergeCell ref="AL161:AO161"/>
+    <mergeCell ref="S149:V149"/>
+    <mergeCell ref="Z149:AC149"/>
+    <mergeCell ref="S159:T159"/>
+    <mergeCell ref="U159:V159"/>
+    <mergeCell ref="W159:X159"/>
+    <mergeCell ref="S160:T160"/>
+    <mergeCell ref="U160:V160"/>
+    <mergeCell ref="W160:X160"/>
+    <mergeCell ref="AL152:AO152"/>
+    <mergeCell ref="AN137:AO137"/>
+    <mergeCell ref="AQ137:AR137"/>
+    <mergeCell ref="S156:T156"/>
+    <mergeCell ref="U156:V156"/>
+    <mergeCell ref="W156:X156"/>
+    <mergeCell ref="S157:T157"/>
+    <mergeCell ref="U157:V157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="U158:V158"/>
+    <mergeCell ref="AI192:AJ192"/>
+    <mergeCell ref="AM190:AN190"/>
+    <mergeCell ref="AM191:AN191"/>
+    <mergeCell ref="AM192:AN192"/>
+    <mergeCell ref="Y189:AA189"/>
+    <mergeCell ref="S187:V187"/>
+    <mergeCell ref="AA187:AC187"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="U189:V189"/>
+    <mergeCell ref="AI190:AJ190"/>
+    <mergeCell ref="AI191:AJ191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/通用测试平台.xlsx
+++ b/通用测试平台.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="279">
   <si>
     <t>组织管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1024,27 +1024,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>response_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chirld_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10请求头参数；21请求体参数(kv型参数)；22请求体参数（json型参数）3检查点参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">content_type </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>response_para</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complex_para</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent_para</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chirld_para</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>para_type</t>
+    <t xml:space="preserve">body_content_type </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1052,59 +1144,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10请求头参数；21请求体参数(kv型参数)；22请求体参数（json型参数）3检查点参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>environment_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_name</t>
+    <t>header_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respone_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1370,7 +1426,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1558,8 +1614,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1635,10 +1693,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,45 +1745,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="189">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1782,6 +1841,7 @@
     <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1875,6 +1935,7 @@
     <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2179,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO198"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="AH192" sqref="AH192"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -2190,38 +2251,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:46" ht="18" customHeight="1">
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="U1" s="55" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="U1" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
     </row>
     <row r="2" spans="2:46" ht="18" customHeight="1">
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
     </row>
     <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="30"/>
@@ -2673,10 +2734,10 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="41" t="s">
+      <c r="AE18" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="42"/>
+      <c r="AF18" s="43"/>
       <c r="AG18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -2874,16 +2935,16 @@
         <v>115</v>
       </c>
       <c r="T28" s="47"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="43"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="47" t="s">
         <v>116</v>
       </c>
       <c r="Z28" s="47"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="43"/>
       <c r="AD28" s="47" t="s">
         <v>117</v>
       </c>
@@ -2895,10 +2956,10 @@
         <v>56</v>
       </c>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="41" t="s">
+      <c r="AK28" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="AL28" s="42"/>
+      <c r="AL28" s="43"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -3025,45 +3086,45 @@
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="41" t="s">
+      <c r="S32" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="T32" s="42"/>
-      <c r="U32" s="41" t="s">
+      <c r="T32" s="43"/>
+      <c r="U32" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="V32" s="42"/>
-      <c r="W32" s="41" t="s">
+      <c r="V32" s="43"/>
+      <c r="W32" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="41" t="s">
+      <c r="X32" s="44"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="42"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="43"/>
       <c r="AC32" s="38" t="s">
         <v>22</v>
       </c>
       <c r="AD32" s="39"/>
-      <c r="AE32" s="41" t="s">
+      <c r="AE32" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="41" t="s">
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="41" t="s">
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="48"/>
-      <c r="AN32" s="48"/>
-      <c r="AO32" s="42"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="43"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
@@ -3076,39 +3137,39 @@
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="41" t="s">
+      <c r="S33" s="42"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="V33" s="42"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="42"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="43"/>
       <c r="AE33" s="11"/>
       <c r="AF33" s="13"/>
-      <c r="AG33" s="41" t="s">
+      <c r="AG33" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="41" t="s">
+      <c r="AH33" s="43"/>
+      <c r="AI33" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="41" t="s">
+      <c r="AJ33" s="43"/>
+      <c r="AK33" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL33" s="48"/>
-      <c r="AM33" s="42"/>
-      <c r="AN33" s="41" t="s">
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="43"/>
+      <c r="AN33" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AO33" s="42"/>
+      <c r="AO33" s="43"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
@@ -3121,39 +3182,39 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="41" t="s">
+      <c r="S34" s="42"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="V34" s="42"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="42"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="43"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="13"/>
-      <c r="AG34" s="41" t="s">
+      <c r="AG34" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="41" t="s">
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AJ34" s="42"/>
-      <c r="AK34" s="41" t="s">
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL34" s="48"/>
-      <c r="AM34" s="42"/>
-      <c r="AN34" s="41" t="s">
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AO34" s="42"/>
+      <c r="AO34" s="43"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
@@ -3166,37 +3227,37 @@
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="41" t="s">
+      <c r="S35" s="42"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="42"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="42"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="42"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="43"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="13"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
-      <c r="AI35" s="41" t="s">
+      <c r="AI35" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AJ35" s="42"/>
-      <c r="AK35" s="41" t="s">
+      <c r="AJ35" s="43"/>
+      <c r="AK35" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL35" s="48"/>
-      <c r="AM35" s="42"/>
-      <c r="AN35" s="41" t="s">
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="43"/>
+      <c r="AN35" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AO35" s="42"/>
+      <c r="AO35" s="43"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
@@ -3209,12 +3270,12 @@
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="41" t="s">
+      <c r="S36" s="42"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="V36" s="42"/>
+      <c r="V36" s="43"/>
       <c r="W36" s="38"/>
       <c r="X36" s="40"/>
       <c r="Y36" s="39"/>
@@ -3227,19 +3288,19 @@
       <c r="AF36" s="13"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
-      <c r="AI36" s="41" t="s">
+      <c r="AI36" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AJ36" s="42"/>
-      <c r="AK36" s="41" t="s">
+      <c r="AJ36" s="43"/>
+      <c r="AK36" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL36" s="48"/>
-      <c r="AM36" s="42"/>
-      <c r="AN36" s="41" t="s">
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="43"/>
+      <c r="AN36" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AO36" s="42"/>
+      <c r="AO36" s="43"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
@@ -3252,37 +3313,37 @@
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="41" t="s">
+      <c r="S37" s="42"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="V37" s="42"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="42"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="43"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="13"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
-      <c r="AI37" s="41" t="s">
+      <c r="AI37" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AJ37" s="42"/>
-      <c r="AK37" s="41" t="s">
+      <c r="AJ37" s="43"/>
+      <c r="AK37" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL37" s="48"/>
-      <c r="AM37" s="42"/>
-      <c r="AN37" s="41" t="s">
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="43"/>
+      <c r="AN37" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AO37" s="42"/>
+      <c r="AO37" s="43"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
@@ -3292,29 +3353,29 @@
     <row r="38" spans="2:67" ht="18" customHeight="1">
       <c r="Q38" s="6"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="41"/>
-      <c r="AD38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="43"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="13"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="41"/>
-      <c r="AJ38" s="42"/>
-      <c r="AK38" s="41"/>
-      <c r="AL38" s="48"/>
-      <c r="AM38" s="42"/>
-      <c r="AN38" s="41"/>
-      <c r="AO38" s="42"/>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="44"/>
+      <c r="AM38" s="43"/>
+      <c r="AN38" s="42"/>
+      <c r="AO38" s="43"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
@@ -3749,15 +3810,15 @@
       <c r="AN51" s="6"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
-      <c r="AQ51" s="41" t="s">
+      <c r="AQ51" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AR51" s="42"/>
+      <c r="AR51" s="43"/>
       <c r="AS51" s="1"/>
-      <c r="AT51" s="41" t="s">
+      <c r="AT51" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AU51" s="42"/>
+      <c r="AU51" s="43"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
@@ -4049,10 +4110,10 @@
       <c r="BF58" s="6"/>
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
-      <c r="BI58" s="41" t="s">
+      <c r="BI58" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="BJ58" s="42"/>
+      <c r="BJ58" s="43"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
       <c r="BM58" s="1"/>
@@ -4220,16 +4281,16 @@
       </c>
       <c r="S66" s="47"/>
       <c r="T66" s="47"/>
-      <c r="U66" s="49" t="s">
+      <c r="U66" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="V66" s="50"/>
-      <c r="W66" s="50"/>
-      <c r="X66" s="50"/>
-      <c r="Y66" s="50"/>
-      <c r="Z66" s="50"/>
-      <c r="AA66" s="50"/>
-      <c r="AB66" s="51"/>
+      <c r="V66" s="49"/>
+      <c r="W66" s="49"/>
+      <c r="X66" s="49"/>
+      <c r="Y66" s="49"/>
+      <c r="Z66" s="49"/>
+      <c r="AA66" s="49"/>
+      <c r="AB66" s="50"/>
       <c r="AC66" s="16" t="s">
         <v>56</v>
       </c>
@@ -4238,10 +4299,10 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="41" t="s">
+      <c r="AI66" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="AJ66" s="42"/>
+      <c r="AJ66" s="43"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
@@ -4262,16 +4323,16 @@
       </c>
       <c r="BB66" s="47"/>
       <c r="BC66" s="47"/>
-      <c r="BD66" s="49" t="s">
+      <c r="BD66" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="BE66" s="50"/>
-      <c r="BF66" s="50"/>
-      <c r="BG66" s="50"/>
-      <c r="BH66" s="50"/>
-      <c r="BI66" s="50"/>
-      <c r="BJ66" s="50"/>
-      <c r="BK66" s="51"/>
+      <c r="BE66" s="49"/>
+      <c r="BF66" s="49"/>
+      <c r="BG66" s="49"/>
+      <c r="BH66" s="49"/>
+      <c r="BI66" s="49"/>
+      <c r="BJ66" s="49"/>
+      <c r="BK66" s="50"/>
       <c r="BL66" s="16" t="s">
         <v>56</v>
       </c>
@@ -4523,10 +4584,10 @@
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="56" t="s">
+      <c r="S70" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="T70" s="56"/>
+      <c r="T70" s="52"/>
       <c r="U70" s="47" t="s">
         <v>7</v>
       </c>
@@ -5161,10 +5222,10 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
-      <c r="AE78" s="41" t="s">
+      <c r="AE78" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AF78" s="42"/>
+      <c r="AF78" s="43"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
@@ -5197,10 +5258,10 @@
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
       <c r="BM78" s="1"/>
-      <c r="BN78" s="41" t="s">
+      <c r="BN78" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="BO78" s="42"/>
+      <c r="BO78" s="43"/>
       <c r="BP78" s="1"/>
       <c r="BQ78" s="1"/>
       <c r="BR78" s="1"/>
@@ -5555,16 +5616,16 @@
       </c>
       <c r="T88" s="47"/>
       <c r="U88" s="47"/>
-      <c r="V88" s="49" t="s">
+      <c r="V88" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="W88" s="50"/>
-      <c r="X88" s="50"/>
-      <c r="Y88" s="50"/>
-      <c r="Z88" s="50"/>
-      <c r="AA88" s="50"/>
-      <c r="AB88" s="50"/>
-      <c r="AC88" s="51"/>
+      <c r="W88" s="49"/>
+      <c r="X88" s="49"/>
+      <c r="Y88" s="49"/>
+      <c r="Z88" s="49"/>
+      <c r="AA88" s="49"/>
+      <c r="AB88" s="49"/>
+      <c r="AC88" s="50"/>
       <c r="AD88" s="16" t="s">
         <v>56</v>
       </c>
@@ -5647,12 +5708,12 @@
       </c>
       <c r="T90" s="46"/>
       <c r="U90" s="46"/>
-      <c r="V90" s="41" t="s">
+      <c r="V90" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="W90" s="48"/>
-      <c r="X90" s="48"/>
-      <c r="Y90" s="42"/>
+      <c r="W90" s="44"/>
+      <c r="X90" s="44"/>
+      <c r="Y90" s="43"/>
       <c r="Z90" s="46" t="s">
         <v>78</v>
       </c>
@@ -5674,16 +5735,16 @@
       </c>
       <c r="AP90" s="47"/>
       <c r="AQ90" s="47"/>
-      <c r="AR90" s="49" t="s">
+      <c r="AR90" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="AS90" s="50"/>
-      <c r="AT90" s="50"/>
-      <c r="AU90" s="50"/>
-      <c r="AV90" s="50"/>
-      <c r="AW90" s="50"/>
-      <c r="AX90" s="50"/>
-      <c r="AY90" s="51"/>
+      <c r="AS90" s="49"/>
+      <c r="AT90" s="49"/>
+      <c r="AU90" s="49"/>
+      <c r="AV90" s="49"/>
+      <c r="AW90" s="49"/>
+      <c r="AX90" s="49"/>
+      <c r="AY90" s="50"/>
       <c r="AZ90" s="25" t="s">
         <v>56</v>
       </c>
@@ -5701,24 +5762,24 @@
       </c>
       <c r="T91" s="46"/>
       <c r="U91" s="46"/>
-      <c r="V91" s="41"/>
-      <c r="W91" s="48"/>
-      <c r="X91" s="48"/>
-      <c r="Y91" s="42"/>
-      <c r="Z91" s="41"/>
-      <c r="AA91" s="42"/>
+      <c r="V91" s="42"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="43"/>
+      <c r="Z91" s="42"/>
+      <c r="AA91" s="43"/>
       <c r="AB91" s="46" t="s">
         <v>7</v>
       </c>
       <c r="AC91" s="46"/>
-      <c r="AD91" s="41" t="s">
+      <c r="AD91" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AE91" s="42"/>
-      <c r="AF91" s="41" t="s">
+      <c r="AE91" s="43"/>
+      <c r="AF91" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AG91" s="42"/>
+      <c r="AG91" s="43"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="7"/>
       <c r="AM91" s="6"/>
@@ -5749,18 +5810,18 @@
       </c>
       <c r="T92" s="46"/>
       <c r="U92" s="46"/>
-      <c r="V92" s="41"/>
-      <c r="W92" s="48"/>
-      <c r="X92" s="48"/>
-      <c r="Y92" s="42"/>
-      <c r="Z92" s="41"/>
-      <c r="AA92" s="42"/>
+      <c r="V92" s="42"/>
+      <c r="W92" s="44"/>
+      <c r="X92" s="44"/>
+      <c r="Y92" s="43"/>
+      <c r="Z92" s="42"/>
+      <c r="AA92" s="43"/>
       <c r="AB92" s="46"/>
       <c r="AC92" s="46"/>
-      <c r="AD92" s="41"/>
-      <c r="AE92" s="42"/>
-      <c r="AF92" s="41"/>
-      <c r="AG92" s="42"/>
+      <c r="AD92" s="42"/>
+      <c r="AE92" s="43"/>
+      <c r="AF92" s="42"/>
+      <c r="AG92" s="43"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="7"/>
       <c r="AM92" s="6"/>
@@ -5793,18 +5854,18 @@
       </c>
       <c r="T93" s="46"/>
       <c r="U93" s="46"/>
-      <c r="V93" s="41"/>
-      <c r="W93" s="48"/>
-      <c r="X93" s="48"/>
-      <c r="Y93" s="42"/>
-      <c r="Z93" s="41"/>
-      <c r="AA93" s="42"/>
+      <c r="V93" s="42"/>
+      <c r="W93" s="44"/>
+      <c r="X93" s="44"/>
+      <c r="Y93" s="43"/>
+      <c r="Z93" s="42"/>
+      <c r="AA93" s="43"/>
       <c r="AB93" s="46"/>
       <c r="AC93" s="46"/>
-      <c r="AD93" s="41"/>
-      <c r="AE93" s="42"/>
-      <c r="AF93" s="41"/>
-      <c r="AG93" s="42"/>
+      <c r="AD93" s="42"/>
+      <c r="AE93" s="43"/>
+      <c r="AF93" s="42"/>
+      <c r="AG93" s="43"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="7"/>
       <c r="AM93" s="6"/>
@@ -5830,37 +5891,37 @@
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="57" t="s">
+      <c r="S94" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="T94" s="57"/>
-      <c r="U94" s="57"/>
-      <c r="V94" s="41"/>
-      <c r="W94" s="48"/>
-      <c r="X94" s="48"/>
-      <c r="Y94" s="42"/>
-      <c r="Z94" s="41"/>
-      <c r="AA94" s="42"/>
+      <c r="T94" s="51"/>
+      <c r="U94" s="51"/>
+      <c r="V94" s="42"/>
+      <c r="W94" s="44"/>
+      <c r="X94" s="44"/>
+      <c r="Y94" s="43"/>
+      <c r="Z94" s="42"/>
+      <c r="AA94" s="43"/>
       <c r="AB94" s="46"/>
       <c r="AC94" s="46"/>
-      <c r="AD94" s="41"/>
-      <c r="AE94" s="42"/>
-      <c r="AF94" s="41"/>
-      <c r="AG94" s="42"/>
+      <c r="AD94" s="42"/>
+      <c r="AE94" s="43"/>
+      <c r="AF94" s="42"/>
+      <c r="AG94" s="43"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="7"/>
       <c r="AM94" s="6"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
-      <c r="AP94" s="41" t="s">
+      <c r="AP94" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="AQ94" s="42"/>
+      <c r="AQ94" s="43"/>
       <c r="AR94" s="1"/>
-      <c r="AS94" s="41" t="s">
+      <c r="AS94" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AT94" s="42"/>
+      <c r="AT94" s="43"/>
       <c r="AU94" s="1"/>
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
@@ -6050,13 +6111,13 @@
       </c>
       <c r="S102" s="47"/>
       <c r="T102" s="47"/>
-      <c r="U102" s="41" t="s">
+      <c r="U102" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="V102" s="48"/>
-      <c r="W102" s="48"/>
-      <c r="X102" s="48"/>
-      <c r="Y102" s="48"/>
+      <c r="V102" s="44"/>
+      <c r="W102" s="44"/>
+      <c r="X102" s="44"/>
+      <c r="Y102" s="44"/>
       <c r="Z102" s="26" t="s">
         <v>56</v>
       </c>
@@ -6065,13 +6126,13 @@
         <v>87</v>
       </c>
       <c r="AC102" s="28"/>
-      <c r="AD102" s="41" t="s">
+      <c r="AD102" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AE102" s="48"/>
-      <c r="AF102" s="48"/>
-      <c r="AG102" s="48"/>
-      <c r="AH102" s="48"/>
+      <c r="AE102" s="44"/>
+      <c r="AF102" s="44"/>
+      <c r="AG102" s="44"/>
+      <c r="AH102" s="44"/>
       <c r="AI102" s="26" t="s">
         <v>56</v>
       </c>
@@ -6079,13 +6140,13 @@
         <v>89</v>
       </c>
       <c r="AL102" s="53"/>
-      <c r="AM102" s="41" t="s">
+      <c r="AM102" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AN102" s="48"/>
-      <c r="AO102" s="48"/>
-      <c r="AP102" s="48"/>
-      <c r="AQ102" s="48"/>
+      <c r="AN102" s="44"/>
+      <c r="AO102" s="44"/>
+      <c r="AP102" s="44"/>
+      <c r="AQ102" s="44"/>
       <c r="AR102" s="26" t="s">
         <v>56</v>
       </c>
@@ -6094,13 +6155,13 @@
         <v>84</v>
       </c>
       <c r="AU102" s="47"/>
-      <c r="AV102" s="41"/>
-      <c r="AW102" s="48"/>
-      <c r="AX102" s="42"/>
-      <c r="AZ102" s="41" t="s">
+      <c r="AV102" s="42"/>
+      <c r="AW102" s="44"/>
+      <c r="AX102" s="43"/>
+      <c r="AZ102" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="BA102" s="42"/>
+      <c r="BA102" s="43"/>
       <c r="BB102" s="1"/>
       <c r="BC102" s="7"/>
       <c r="BE102" s="6"/>
@@ -6225,20 +6286,20 @@
         <v>149</v>
       </c>
       <c r="Q104" s="6"/>
-      <c r="R104" s="41" t="s">
+      <c r="R104" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="S104" s="42"/>
+      <c r="S104" s="43"/>
       <c r="T104" s="1"/>
-      <c r="U104" s="41" t="s">
+      <c r="U104" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="V104" s="42"/>
+      <c r="V104" s="43"/>
       <c r="W104" s="1"/>
-      <c r="X104" s="41" t="s">
+      <c r="X104" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="Y104" s="42"/>
+      <c r="Y104" s="43"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
@@ -6398,49 +6459,49 @@
       <c r="R106" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S106" s="41" t="s">
+      <c r="S106" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="T106" s="48"/>
-      <c r="U106" s="48"/>
-      <c r="V106" s="42"/>
-      <c r="W106" s="41" t="s">
+      <c r="T106" s="44"/>
+      <c r="U106" s="44"/>
+      <c r="V106" s="43"/>
+      <c r="W106" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="X106" s="48"/>
-      <c r="Y106" s="42"/>
-      <c r="Z106" s="41" t="s">
+      <c r="X106" s="44"/>
+      <c r="Y106" s="43"/>
+      <c r="Z106" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="AA106" s="42"/>
-      <c r="AB106" s="41" t="s">
+      <c r="AA106" s="43"/>
+      <c r="AB106" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AC106" s="48"/>
-      <c r="AD106" s="42"/>
-      <c r="AE106" s="41" t="s">
+      <c r="AC106" s="44"/>
+      <c r="AD106" s="43"/>
+      <c r="AE106" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="AF106" s="48"/>
-      <c r="AG106" s="42"/>
-      <c r="AH106" s="41" t="s">
+      <c r="AF106" s="44"/>
+      <c r="AG106" s="43"/>
+      <c r="AH106" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="AI106" s="48"/>
-      <c r="AJ106" s="42"/>
-      <c r="AK106" s="41" t="s">
+      <c r="AI106" s="44"/>
+      <c r="AJ106" s="43"/>
+      <c r="AK106" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="AL106" s="48"/>
-      <c r="AM106" s="42"/>
-      <c r="AN106" s="41" t="s">
+      <c r="AL106" s="44"/>
+      <c r="AM106" s="43"/>
+      <c r="AN106" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="AO106" s="48"/>
-      <c r="AP106" s="48"/>
-      <c r="AQ106" s="48"/>
-      <c r="AR106" s="48"/>
-      <c r="AS106" s="42"/>
+      <c r="AO106" s="44"/>
+      <c r="AP106" s="44"/>
+      <c r="AQ106" s="44"/>
+      <c r="AR106" s="44"/>
+      <c r="AS106" s="43"/>
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
       <c r="AV106" s="1"/>
@@ -6548,13 +6609,13 @@
       </c>
       <c r="BK107" s="1"/>
       <c r="BL107" s="1"/>
-      <c r="BM107" s="41" t="s">
+      <c r="BM107" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="BN107" s="48"/>
-      <c r="BO107" s="48"/>
-      <c r="BP107" s="48"/>
-      <c r="BQ107" s="48"/>
+      <c r="BN107" s="44"/>
+      <c r="BO107" s="44"/>
+      <c r="BP107" s="44"/>
+      <c r="BQ107" s="44"/>
       <c r="BR107" s="32" t="s">
         <v>56</v>
       </c>
@@ -6657,16 +6718,16 @@
       </c>
       <c r="BZ108" s="47"/>
       <c r="CA108" s="47"/>
-      <c r="CB108" s="49" t="s">
+      <c r="CB108" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="CC108" s="50"/>
-      <c r="CD108" s="50"/>
-      <c r="CE108" s="50"/>
-      <c r="CF108" s="50"/>
-      <c r="CG108" s="50"/>
-      <c r="CH108" s="50"/>
-      <c r="CI108" s="51"/>
+      <c r="CC108" s="49"/>
+      <c r="CD108" s="49"/>
+      <c r="CE108" s="49"/>
+      <c r="CF108" s="49"/>
+      <c r="CG108" s="49"/>
+      <c r="CH108" s="49"/>
+      <c r="CI108" s="50"/>
       <c r="CJ108" s="16" t="s">
         <v>56</v>
       </c>
@@ -6820,16 +6881,16 @@
         <v>87</v>
       </c>
       <c r="BZ110" s="53"/>
-      <c r="CA110" s="49" t="s">
+      <c r="CA110" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="CB110" s="50"/>
-      <c r="CC110" s="50"/>
-      <c r="CD110" s="50"/>
-      <c r="CE110" s="50"/>
-      <c r="CF110" s="50"/>
-      <c r="CG110" s="50"/>
-      <c r="CH110" s="51"/>
+      <c r="CB110" s="49"/>
+      <c r="CC110" s="49"/>
+      <c r="CD110" s="49"/>
+      <c r="CE110" s="49"/>
+      <c r="CF110" s="49"/>
+      <c r="CG110" s="49"/>
+      <c r="CH110" s="50"/>
       <c r="CI110" s="16" t="s">
         <v>56</v>
       </c>
@@ -6989,16 +7050,16 @@
         <v>89</v>
       </c>
       <c r="BZ112" s="53"/>
-      <c r="CA112" s="49" t="s">
+      <c r="CA112" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="CB112" s="50"/>
-      <c r="CC112" s="50"/>
-      <c r="CD112" s="50"/>
-      <c r="CE112" s="50"/>
-      <c r="CF112" s="50"/>
-      <c r="CG112" s="50"/>
-      <c r="CH112" s="51"/>
+      <c r="CB112" s="49"/>
+      <c r="CC112" s="49"/>
+      <c r="CD112" s="49"/>
+      <c r="CE112" s="49"/>
+      <c r="CF112" s="49"/>
+      <c r="CG112" s="49"/>
+      <c r="CH112" s="50"/>
       <c r="CI112" s="26" t="s">
         <v>56</v>
       </c>
@@ -7247,10 +7308,10 @@
       <c r="BM115" s="8"/>
       <c r="BN115" s="2"/>
       <c r="BO115" s="9"/>
-      <c r="BP115" s="41" t="s">
+      <c r="BP115" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="BQ115" s="42"/>
+      <c r="BQ115" s="43"/>
       <c r="BR115" s="1"/>
       <c r="BS115" s="1"/>
       <c r="BT115" s="1"/>
@@ -7279,7 +7340,7 @@
         <v>159</v>
       </c>
       <c r="J116" s="29" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="Q116" s="6"/>
       <c r="R116" s="1"/>
@@ -7328,15 +7389,15 @@
       <c r="BV116" s="7"/>
       <c r="BX116" s="6"/>
       <c r="BY116" s="1"/>
-      <c r="BZ116" s="41" t="s">
+      <c r="BZ116" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="CA116" s="42"/>
+      <c r="CA116" s="43"/>
       <c r="CB116" s="1"/>
-      <c r="CC116" s="41" t="s">
+      <c r="CC116" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="CD116" s="42"/>
+      <c r="CD116" s="43"/>
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
       <c r="CG116" s="1"/>
@@ -7392,14 +7453,14 @@
       <c r="BB117" s="1"/>
       <c r="BC117" s="7"/>
       <c r="BE117" s="6"/>
-      <c r="BH117" s="41" t="s">
+      <c r="BH117" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="BI117" s="42"/>
-      <c r="BK117" s="41" t="s">
+      <c r="BI117" s="43"/>
+      <c r="BK117" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="BL117" s="42"/>
+      <c r="BL117" s="43"/>
       <c r="BR117" s="1"/>
       <c r="BS117" s="1"/>
       <c r="BT117" s="1"/>
@@ -7428,10 +7489,10 @@
         <v>238</v>
       </c>
       <c r="F118" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K118" s="31" t="s">
         <v>245</v>
-      </c>
-      <c r="K118" s="31" t="s">
-        <v>246</v>
       </c>
       <c r="Q118" s="8"/>
       <c r="R118" s="2"/>
@@ -7521,7 +7582,7 @@
         <v>242</v>
       </c>
       <c r="K120" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="1:119" ht="18" customHeight="1">
@@ -7529,7 +7590,7 @@
         <v>241</v>
       </c>
       <c r="K121" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:119" s="2" customFormat="1" ht="18" customHeight="1">
@@ -7626,10 +7687,10 @@
       <c r="AA126" s="46"/>
       <c r="AB126" s="46"/>
       <c r="AC126" s="1"/>
-      <c r="AD126" s="41" t="s">
+      <c r="AD126" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="AE126" s="42"/>
+      <c r="AE126" s="43"/>
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
@@ -7934,32 +7995,32 @@
       <c r="R130" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="S130" s="41" t="s">
+      <c r="S130" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="T130" s="42"/>
-      <c r="U130" s="41" t="s">
+      <c r="T130" s="43"/>
+      <c r="U130" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="V130" s="42"/>
-      <c r="W130" s="41" t="s">
+      <c r="V130" s="43"/>
+      <c r="W130" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="X130" s="42"/>
-      <c r="Y130" s="41" t="s">
+      <c r="X130" s="43"/>
+      <c r="Y130" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="Z130" s="42"/>
-      <c r="AA130" s="41" t="s">
+      <c r="Z130" s="43"/>
+      <c r="AA130" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="AB130" s="48"/>
-      <c r="AC130" s="48"/>
-      <c r="AD130" s="48"/>
-      <c r="AE130" s="48"/>
-      <c r="AF130" s="48"/>
-      <c r="AG130" s="48"/>
-      <c r="AH130" s="42"/>
+      <c r="AB130" s="44"/>
+      <c r="AC130" s="44"/>
+      <c r="AD130" s="44"/>
+      <c r="AE130" s="44"/>
+      <c r="AF130" s="44"/>
+      <c r="AG130" s="44"/>
+      <c r="AH130" s="43"/>
       <c r="AI130" s="7"/>
       <c r="AL130" s="6"/>
       <c r="AV130" s="6"/>
@@ -8042,16 +8103,16 @@
     <row r="131" spans="4:119" ht="18" customHeight="1">
       <c r="Q131" s="6"/>
       <c r="R131" s="15"/>
-      <c r="S131" s="41"/>
-      <c r="T131" s="42"/>
-      <c r="U131" s="41"/>
-      <c r="V131" s="42" t="s">
+      <c r="S131" s="42"/>
+      <c r="T131" s="43"/>
+      <c r="U131" s="42"/>
+      <c r="V131" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="W131" s="41"/>
-      <c r="X131" s="42"/>
-      <c r="Y131" s="41"/>
-      <c r="Z131" s="42" t="s">
+      <c r="W131" s="42"/>
+      <c r="X131" s="43"/>
+      <c r="Y131" s="42"/>
+      <c r="Z131" s="43" t="s">
         <v>170</v>
       </c>
       <c r="AA131" s="46" t="s">
@@ -8097,27 +8158,27 @@
       </c>
       <c r="BE131" s="46"/>
       <c r="BF131" s="46"/>
-      <c r="BG131" s="41" t="s">
+      <c r="BG131" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="BH131" s="42"/>
+      <c r="BH131" s="43"/>
       <c r="BI131" s="1"/>
       <c r="BJ131" s="1"/>
       <c r="BK131" s="7"/>
       <c r="BM131" s="6"/>
       <c r="BN131" s="1"/>
-      <c r="BO131" s="41" t="s">
+      <c r="BO131" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="BP131" s="42"/>
-      <c r="BQ131" s="41" t="s">
+      <c r="BP131" s="43"/>
+      <c r="BQ131" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="BR131" s="42"/>
-      <c r="BS131" s="41" t="s">
+      <c r="BR131" s="43"/>
+      <c r="BS131" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="BT131" s="42"/>
+      <c r="BT131" s="43"/>
       <c r="BU131" s="1"/>
       <c r="BV131" s="1"/>
       <c r="BW131" s="1"/>
@@ -8140,12 +8201,12 @@
       <c r="CP131" s="9"/>
       <c r="CQ131" s="8"/>
       <c r="CR131" s="9"/>
-      <c r="CS131" s="41"/>
-      <c r="CT131" s="42"/>
-      <c r="CU131" s="41" t="s">
+      <c r="CS131" s="42"/>
+      <c r="CT131" s="43"/>
+      <c r="CU131" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="CV131" s="42"/>
+      <c r="CV131" s="43"/>
       <c r="CW131" s="1"/>
       <c r="CX131" s="1"/>
       <c r="CY131" s="7"/>
@@ -8171,16 +8232,16 @@
       </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="15"/>
-      <c r="S132" s="41"/>
-      <c r="T132" s="42"/>
-      <c r="U132" s="41"/>
-      <c r="V132" s="42" t="s">
+      <c r="S132" s="42"/>
+      <c r="T132" s="43"/>
+      <c r="U132" s="42"/>
+      <c r="V132" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="W132" s="41"/>
-      <c r="X132" s="42"/>
-      <c r="Y132" s="41"/>
-      <c r="Z132" s="42"/>
+      <c r="W132" s="42"/>
+      <c r="X132" s="43"/>
+      <c r="Y132" s="42"/>
+      <c r="Z132" s="43"/>
       <c r="AA132" s="46"/>
       <c r="AB132" s="46"/>
       <c r="AC132" s="46"/>
@@ -8205,32 +8266,32 @@
         <v>1</v>
       </c>
       <c r="AZ132" s="46"/>
-      <c r="BA132" s="52" t="s">
+      <c r="BA132" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="BB132" s="52"/>
-      <c r="BC132" s="52"/>
+      <c r="BB132" s="55"/>
+      <c r="BC132" s="55"/>
       <c r="BD132" s="46" t="s">
         <v>184</v>
       </c>
       <c r="BE132" s="46"/>
       <c r="BF132" s="46"/>
-      <c r="BG132" s="41" t="s">
+      <c r="BG132" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="BH132" s="42"/>
+      <c r="BH132" s="43"/>
       <c r="BI132" s="23" t="s">
         <v>208</v>
       </c>
       <c r="BK132" s="7"/>
       <c r="BM132" s="6"/>
       <c r="BN132" s="1"/>
-      <c r="BO132" s="41"/>
-      <c r="BP132" s="42"/>
-      <c r="BQ132" s="41"/>
-      <c r="BR132" s="42"/>
-      <c r="BS132" s="41"/>
-      <c r="BT132" s="42"/>
+      <c r="BO132" s="42"/>
+      <c r="BP132" s="43"/>
+      <c r="BQ132" s="42"/>
+      <c r="BR132" s="43"/>
+      <c r="BS132" s="42"/>
+      <c r="BT132" s="43"/>
       <c r="BU132" s="1"/>
       <c r="BV132" s="1"/>
       <c r="BW132" s="1"/>
@@ -8254,12 +8315,12 @@
       <c r="CP132" s="9"/>
       <c r="CQ132" s="8"/>
       <c r="CR132" s="9"/>
-      <c r="CS132" s="41"/>
-      <c r="CT132" s="42"/>
-      <c r="CU132" s="41" t="s">
+      <c r="CS132" s="42"/>
+      <c r="CT132" s="43"/>
+      <c r="CU132" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="CV132" s="42"/>
+      <c r="CV132" s="43"/>
       <c r="CW132" s="1"/>
       <c r="CX132" s="1"/>
       <c r="CY132" s="7"/>
@@ -8283,14 +8344,14 @@
       </c>
       <c r="Q133" s="6"/>
       <c r="R133" s="15"/>
-      <c r="S133" s="41"/>
-      <c r="T133" s="42"/>
-      <c r="U133" s="41"/>
-      <c r="V133" s="42"/>
-      <c r="W133" s="41"/>
-      <c r="X133" s="42"/>
-      <c r="Y133" s="41"/>
-      <c r="Z133" s="42"/>
+      <c r="S133" s="42"/>
+      <c r="T133" s="43"/>
+      <c r="U133" s="42"/>
+      <c r="V133" s="43"/>
+      <c r="W133" s="42"/>
+      <c r="X133" s="43"/>
+      <c r="Y133" s="42"/>
+      <c r="Z133" s="43"/>
       <c r="AA133" s="46"/>
       <c r="AB133" s="46"/>
       <c r="AC133" s="46"/>
@@ -8324,20 +8385,20 @@
       <c r="BD133" s="46"/>
       <c r="BE133" s="46"/>
       <c r="BF133" s="46"/>
-      <c r="BG133" s="41"/>
-      <c r="BH133" s="42"/>
+      <c r="BG133" s="42"/>
+      <c r="BH133" s="43"/>
       <c r="BI133" s="23" t="s">
         <v>209</v>
       </c>
       <c r="BK133" s="7"/>
       <c r="BM133" s="6"/>
       <c r="BN133" s="1"/>
-      <c r="BO133" s="41"/>
-      <c r="BP133" s="42"/>
-      <c r="BQ133" s="41"/>
-      <c r="BR133" s="42"/>
-      <c r="BS133" s="41"/>
-      <c r="BT133" s="42"/>
+      <c r="BO133" s="42"/>
+      <c r="BP133" s="43"/>
+      <c r="BQ133" s="42"/>
+      <c r="BR133" s="43"/>
+      <c r="BS133" s="42"/>
+      <c r="BT133" s="43"/>
       <c r="BU133" s="1"/>
       <c r="BV133" s="1" t="s">
         <v>192</v>
@@ -8390,14 +8451,14 @@
       </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="15"/>
-      <c r="S134" s="41"/>
-      <c r="T134" s="42"/>
-      <c r="U134" s="41"/>
-      <c r="V134" s="42"/>
-      <c r="W134" s="41"/>
-      <c r="X134" s="42"/>
-      <c r="Y134" s="41"/>
-      <c r="Z134" s="42"/>
+      <c r="S134" s="42"/>
+      <c r="T134" s="43"/>
+      <c r="U134" s="42"/>
+      <c r="V134" s="43"/>
+      <c r="W134" s="42"/>
+      <c r="X134" s="43"/>
+      <c r="Y134" s="42"/>
+      <c r="Z134" s="43"/>
       <c r="AA134" s="46"/>
       <c r="AB134" s="46"/>
       <c r="AC134" s="46"/>
@@ -8427,19 +8488,19 @@
       <c r="BD134" s="46"/>
       <c r="BE134" s="46"/>
       <c r="BF134" s="46"/>
-      <c r="BG134" s="41"/>
-      <c r="BH134" s="42"/>
+      <c r="BG134" s="42"/>
+      <c r="BH134" s="43"/>
       <c r="BI134" s="1"/>
       <c r="BJ134" s="1"/>
       <c r="BK134" s="7"/>
       <c r="BM134" s="6"/>
       <c r="BN134" s="1"/>
-      <c r="BO134" s="41"/>
-      <c r="BP134" s="42"/>
-      <c r="BQ134" s="41"/>
-      <c r="BR134" s="42"/>
-      <c r="BS134" s="41"/>
-      <c r="BT134" s="42"/>
+      <c r="BO134" s="42"/>
+      <c r="BP134" s="43"/>
+      <c r="BQ134" s="42"/>
+      <c r="BR134" s="43"/>
+      <c r="BS134" s="42"/>
+      <c r="BT134" s="43"/>
       <c r="BU134" s="1"/>
       <c r="BV134" s="1" t="s">
         <v>231</v>
@@ -8462,15 +8523,15 @@
       <c r="CK134" s="1"/>
       <c r="CL134" s="1"/>
       <c r="CM134" s="6"/>
-      <c r="CN134" s="41" t="s">
+      <c r="CN134" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="CO134" s="42"/>
+      <c r="CO134" s="43"/>
       <c r="CP134" s="1"/>
-      <c r="CQ134" s="41" t="s">
+      <c r="CQ134" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="CR134" s="42"/>
+      <c r="CR134" s="43"/>
       <c r="CS134" s="1"/>
       <c r="CT134" s="1"/>
       <c r="CU134" s="1"/>
@@ -8500,14 +8561,14 @@
       </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="15"/>
-      <c r="S135" s="41"/>
-      <c r="T135" s="42"/>
-      <c r="U135" s="41"/>
-      <c r="V135" s="42"/>
-      <c r="W135" s="41"/>
-      <c r="X135" s="42"/>
-      <c r="Y135" s="41"/>
-      <c r="Z135" s="42"/>
+      <c r="S135" s="42"/>
+      <c r="T135" s="43"/>
+      <c r="U135" s="42"/>
+      <c r="V135" s="43"/>
+      <c r="W135" s="42"/>
+      <c r="X135" s="43"/>
+      <c r="Y135" s="42"/>
+      <c r="Z135" s="43"/>
       <c r="AA135" s="46"/>
       <c r="AB135" s="46"/>
       <c r="AC135" s="46"/>
@@ -8598,18 +8659,18 @@
     </row>
     <row r="136" spans="4:119" ht="18" customHeight="1">
       <c r="D136" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="15"/>
-      <c r="S136" s="41"/>
-      <c r="T136" s="42"/>
-      <c r="U136" s="41"/>
-      <c r="V136" s="42"/>
-      <c r="W136" s="41"/>
-      <c r="X136" s="42"/>
-      <c r="Y136" s="41"/>
-      <c r="Z136" s="42"/>
+      <c r="S136" s="42"/>
+      <c r="T136" s="43"/>
+      <c r="U136" s="42"/>
+      <c r="V136" s="43"/>
+      <c r="W136" s="42"/>
+      <c r="X136" s="43"/>
+      <c r="Y136" s="42"/>
+      <c r="Z136" s="43"/>
       <c r="AA136" s="46"/>
       <c r="AB136" s="46"/>
       <c r="AC136" s="46"/>
@@ -8632,15 +8693,15 @@
       <c r="AX136" s="6"/>
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
-      <c r="BA136" s="41" t="s">
+      <c r="BA136" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="BB136" s="42"/>
+      <c r="BB136" s="43"/>
       <c r="BC136" s="1"/>
-      <c r="BD136" s="41" t="s">
+      <c r="BD136" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="BE136" s="42"/>
+      <c r="BE136" s="43"/>
       <c r="BF136" s="1"/>
       <c r="BG136" s="1"/>
       <c r="BH136" s="1"/>
@@ -8650,10 +8711,10 @@
       <c r="BM136" s="6"/>
       <c r="BN136" s="1"/>
       <c r="BO136" s="1"/>
-      <c r="BP136" s="41" t="s">
+      <c r="BP136" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="BQ136" s="42"/>
+      <c r="BQ136" s="43"/>
       <c r="BR136" s="1"/>
       <c r="BS136" s="1"/>
       <c r="BT136" s="1"/>
@@ -8702,10 +8763,10 @@
       </c>
       <c r="DJ136" s="46"/>
       <c r="DK136" s="46"/>
-      <c r="DL136" s="41" t="s">
+      <c r="DL136" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="DM136" s="42"/>
+      <c r="DM136" s="43"/>
       <c r="DN136" s="1"/>
       <c r="DO136" s="7"/>
     </row>
@@ -8715,14 +8776,14 @@
       </c>
       <c r="Q137" s="6"/>
       <c r="R137" s="15"/>
-      <c r="S137" s="41"/>
-      <c r="T137" s="42"/>
-      <c r="U137" s="41"/>
-      <c r="V137" s="42"/>
-      <c r="W137" s="41"/>
-      <c r="X137" s="42"/>
-      <c r="Y137" s="41"/>
-      <c r="Z137" s="42"/>
+      <c r="S137" s="42"/>
+      <c r="T137" s="43"/>
+      <c r="U137" s="42"/>
+      <c r="V137" s="43"/>
+      <c r="W137" s="42"/>
+      <c r="X137" s="43"/>
+      <c r="Y137" s="42"/>
+      <c r="Z137" s="43"/>
       <c r="AA137" s="46"/>
       <c r="AB137" s="46"/>
       <c r="AC137" s="46"/>
@@ -8734,15 +8795,15 @@
       <c r="AI137" s="7"/>
       <c r="AL137" s="6"/>
       <c r="AM137" s="1"/>
-      <c r="AN137" s="41" t="s">
+      <c r="AN137" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AO137" s="42"/>
+      <c r="AO137" s="43"/>
       <c r="AP137" s="1"/>
-      <c r="AQ137" s="41" t="s">
+      <c r="AQ137" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AR137" s="42"/>
+      <c r="AR137" s="43"/>
       <c r="AS137" s="1"/>
       <c r="AT137" s="1"/>
       <c r="AU137" s="7"/>
@@ -8801,30 +8862,30 @@
       </c>
       <c r="DJ137" s="46"/>
       <c r="DK137" s="46"/>
-      <c r="DL137" s="41" t="s">
+      <c r="DL137" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="DM137" s="42"/>
+      <c r="DM137" s="43"/>
       <c r="DN137" s="1"/>
       <c r="DO137" s="7"/>
     </row>
     <row r="138" spans="4:119" ht="18" customHeight="1">
       <c r="D138" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G138" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q138" s="6"/>
       <c r="R138" s="15"/>
-      <c r="S138" s="41"/>
-      <c r="T138" s="42"/>
-      <c r="U138" s="41"/>
-      <c r="V138" s="42"/>
-      <c r="W138" s="41"/>
-      <c r="X138" s="42"/>
-      <c r="Y138" s="41"/>
-      <c r="Z138" s="42"/>
+      <c r="S138" s="42"/>
+      <c r="T138" s="43"/>
+      <c r="U138" s="42"/>
+      <c r="V138" s="43"/>
+      <c r="W138" s="42"/>
+      <c r="X138" s="43"/>
+      <c r="Y138" s="42"/>
+      <c r="Z138" s="43"/>
       <c r="AA138" s="46"/>
       <c r="AB138" s="46"/>
       <c r="AC138" s="46"/>
@@ -8892,14 +8953,14 @@
       <c r="DI138" s="46"/>
       <c r="DJ138" s="46"/>
       <c r="DK138" s="46"/>
-      <c r="DL138" s="41"/>
-      <c r="DM138" s="42"/>
+      <c r="DL138" s="42"/>
+      <c r="DM138" s="43"/>
       <c r="DN138" s="1"/>
       <c r="DO138" s="7"/>
     </row>
     <row r="139" spans="4:119" ht="18" customHeight="1">
       <c r="D139" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q139" s="6"/>
       <c r="R139" s="1"/>
@@ -8950,15 +9011,15 @@
       <c r="BZ139" s="2"/>
       <c r="CA139" s="9"/>
       <c r="CC139" s="6"/>
-      <c r="CD139" s="41" t="s">
+      <c r="CD139" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="CE139" s="42"/>
+      <c r="CE139" s="43"/>
       <c r="CF139" s="1"/>
-      <c r="CG139" s="41" t="s">
+      <c r="CG139" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="CH139" s="42"/>
+      <c r="CH139" s="43"/>
       <c r="CI139" s="1"/>
       <c r="CJ139" s="7"/>
       <c r="CK139" s="1"/>
@@ -8975,14 +9036,14 @@
       <c r="DI139" s="46"/>
       <c r="DJ139" s="46"/>
       <c r="DK139" s="46"/>
-      <c r="DL139" s="41"/>
-      <c r="DM139" s="42"/>
+      <c r="DL139" s="42"/>
+      <c r="DM139" s="43"/>
       <c r="DN139" s="1"/>
       <c r="DO139" s="7"/>
     </row>
     <row r="140" spans="4:119" ht="18" customHeight="1">
       <c r="D140" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q140" s="8"/>
       <c r="R140" s="2"/>
@@ -9047,10 +9108,10 @@
       <c r="DG141" s="1"/>
       <c r="DH141" s="1"/>
       <c r="DI141" s="1"/>
-      <c r="DJ141" s="41" t="s">
+      <c r="DJ141" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="DK141" s="42"/>
+      <c r="DK141" s="43"/>
       <c r="DL141" s="1"/>
       <c r="DM141" s="1"/>
       <c r="DN141" s="1"/>
@@ -9124,7 +9185,7 @@
     </row>
     <row r="147" spans="2:60" ht="18" customHeight="1">
       <c r="D147" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q147" t="s">
         <v>95</v>
@@ -9147,7 +9208,7 @@
     </row>
     <row r="148" spans="2:60" ht="18" customHeight="1">
       <c r="D148" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="4"/>
@@ -9185,7 +9246,7 @@
     </row>
     <row r="149" spans="2:60" ht="18" customHeight="1">
       <c r="D149" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q149" s="6"/>
       <c r="R149" s="1" t="s">
@@ -9229,7 +9290,7 @@
     </row>
     <row r="150" spans="2:60" ht="18" customHeight="1">
       <c r="D150" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q150" s="6"/>
       <c r="R150" s="1"/>
@@ -9273,7 +9334,7 @@
     </row>
     <row r="151" spans="2:60" ht="18" customHeight="1">
       <c r="D151" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q151" s="6"/>
       <c r="R151" s="15" t="s">
@@ -9355,36 +9416,36 @@
     </row>
     <row r="153" spans="2:60" ht="18" customHeight="1">
       <c r="D153" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q153" s="6"/>
       <c r="R153" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="S153" s="41" t="s">
+      <c r="S153" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="T153" s="42"/>
-      <c r="U153" s="41" t="s">
+      <c r="T153" s="43"/>
+      <c r="U153" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="V153" s="42"/>
-      <c r="W153" s="41" t="s">
+      <c r="V153" s="43"/>
+      <c r="W153" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="X153" s="42"/>
-      <c r="Y153" s="41" t="s">
+      <c r="X153" s="43"/>
+      <c r="Y153" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="Z153" s="42"/>
-      <c r="AA153" s="41" t="s">
+      <c r="Z153" s="43"/>
+      <c r="AA153" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="AB153" s="42"/>
-      <c r="AC153" s="41" t="s">
+      <c r="AB153" s="43"/>
+      <c r="AC153" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="AD153" s="42"/>
+      <c r="AD153" s="43"/>
       <c r="AE153" s="7"/>
       <c r="AH153" s="1"/>
       <c r="AI153" s="6"/>
@@ -9404,16 +9465,16 @@
     </row>
     <row r="154" spans="2:60" ht="18" customHeight="1">
       <c r="D154" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="11"/>
-      <c r="S154" s="41"/>
-      <c r="T154" s="42"/>
-      <c r="U154" s="41"/>
-      <c r="V154" s="42"/>
-      <c r="W154" s="41"/>
-      <c r="X154" s="42"/>
+      <c r="S154" s="42"/>
+      <c r="T154" s="43"/>
+      <c r="U154" s="42"/>
+      <c r="V154" s="43"/>
+      <c r="W154" s="42"/>
+      <c r="X154" s="43"/>
       <c r="Y154" s="11"/>
       <c r="Z154" s="13"/>
       <c r="AA154" s="11"/>
@@ -9447,16 +9508,16 @@
     </row>
     <row r="155" spans="2:60" ht="18" customHeight="1">
       <c r="D155" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q155" s="6"/>
       <c r="R155" s="11"/>
-      <c r="S155" s="41"/>
-      <c r="T155" s="42"/>
-      <c r="U155" s="41"/>
-      <c r="V155" s="42"/>
-      <c r="W155" s="41"/>
-      <c r="X155" s="42"/>
+      <c r="S155" s="42"/>
+      <c r="T155" s="43"/>
+      <c r="U155" s="42"/>
+      <c r="V155" s="43"/>
+      <c r="W155" s="42"/>
+      <c r="X155" s="43"/>
       <c r="Y155" s="11"/>
       <c r="Z155" s="13"/>
       <c r="AA155" s="11"/>
@@ -9482,16 +9543,16 @@
     </row>
     <row r="156" spans="2:60" ht="18" customHeight="1">
       <c r="D156" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q156" s="6"/>
       <c r="R156" s="11"/>
-      <c r="S156" s="41"/>
-      <c r="T156" s="42"/>
-      <c r="U156" s="41"/>
-      <c r="V156" s="42"/>
-      <c r="W156" s="41"/>
-      <c r="X156" s="42"/>
+      <c r="S156" s="42"/>
+      <c r="T156" s="43"/>
+      <c r="U156" s="42"/>
+      <c r="V156" s="43"/>
+      <c r="W156" s="42"/>
+      <c r="X156" s="43"/>
       <c r="Y156" s="11"/>
       <c r="Z156" s="13"/>
       <c r="AA156" s="11"/>
@@ -9520,12 +9581,12 @@
     <row r="157" spans="2:60" ht="18" customHeight="1">
       <c r="Q157" s="6"/>
       <c r="R157" s="11"/>
-      <c r="S157" s="41"/>
-      <c r="T157" s="42"/>
-      <c r="U157" s="41"/>
-      <c r="V157" s="42"/>
-      <c r="W157" s="41"/>
-      <c r="X157" s="42"/>
+      <c r="S157" s="42"/>
+      <c r="T157" s="43"/>
+      <c r="U157" s="42"/>
+      <c r="V157" s="43"/>
+      <c r="W157" s="42"/>
+      <c r="X157" s="43"/>
       <c r="Y157" s="11"/>
       <c r="Z157" s="13"/>
       <c r="AA157" s="11"/>
@@ -9552,12 +9613,12 @@
     <row r="158" spans="2:60" ht="18" customHeight="1">
       <c r="Q158" s="6"/>
       <c r="R158" s="11"/>
-      <c r="S158" s="41"/>
-      <c r="T158" s="42"/>
-      <c r="U158" s="41"/>
-      <c r="V158" s="42"/>
-      <c r="W158" s="41"/>
-      <c r="X158" s="42"/>
+      <c r="S158" s="42"/>
+      <c r="T158" s="43"/>
+      <c r="U158" s="42"/>
+      <c r="V158" s="43"/>
+      <c r="W158" s="42"/>
+      <c r="X158" s="43"/>
       <c r="Y158" s="11"/>
       <c r="Z158" s="13"/>
       <c r="AA158" s="11"/>
@@ -9584,12 +9645,12 @@
     <row r="159" spans="2:60" ht="18" customHeight="1">
       <c r="Q159" s="6"/>
       <c r="R159" s="11"/>
-      <c r="S159" s="41"/>
-      <c r="T159" s="42"/>
-      <c r="U159" s="41"/>
-      <c r="V159" s="42"/>
-      <c r="W159" s="41"/>
-      <c r="X159" s="42"/>
+      <c r="S159" s="42"/>
+      <c r="T159" s="43"/>
+      <c r="U159" s="42"/>
+      <c r="V159" s="43"/>
+      <c r="W159" s="42"/>
+      <c r="X159" s="43"/>
       <c r="Y159" s="11"/>
       <c r="Z159" s="13"/>
       <c r="AA159" s="11"/>
@@ -9619,12 +9680,12 @@
     <row r="160" spans="2:60" ht="18" customHeight="1">
       <c r="Q160" s="6"/>
       <c r="R160" s="11"/>
-      <c r="S160" s="41"/>
-      <c r="T160" s="42"/>
-      <c r="U160" s="41"/>
-      <c r="V160" s="42"/>
-      <c r="W160" s="41"/>
-      <c r="X160" s="42"/>
+      <c r="S160" s="42"/>
+      <c r="T160" s="43"/>
+      <c r="U160" s="42"/>
+      <c r="V160" s="43"/>
+      <c r="W160" s="42"/>
+      <c r="X160" s="43"/>
       <c r="Y160" s="11"/>
       <c r="Z160" s="13"/>
       <c r="AA160" s="11"/>
@@ -9824,7 +9885,7 @@
     </row>
     <row r="170" spans="4:60" ht="18" customHeight="1">
       <c r="D170" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q170" s="6"/>
       <c r="AE170" s="1"/>
@@ -9841,7 +9902,7 @@
     </row>
     <row r="171" spans="4:60" ht="18" customHeight="1">
       <c r="D171" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q171" s="6"/>
       <c r="AE171" s="1"/>
@@ -9858,7 +9919,7 @@
     </row>
     <row r="172" spans="4:60" ht="18" customHeight="1">
       <c r="D172" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q172" s="6"/>
       <c r="AE172" s="1"/>
@@ -9875,7 +9936,7 @@
     </row>
     <row r="173" spans="4:60" ht="18" customHeight="1">
       <c r="D173" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q173" s="6"/>
       <c r="R173" s="1"/>
@@ -10140,6 +10201,9 @@
       </c>
     </row>
     <row r="186" spans="2:43" ht="18" customHeight="1">
+      <c r="D186" s="29" t="s">
+        <v>264</v>
+      </c>
       <c r="Q186" s="3"/>
       <c r="R186" s="4"/>
       <c r="S186" s="4"/>
@@ -10163,6 +10227,9 @@
       </c>
     </row>
     <row r="187" spans="2:43" ht="18" customHeight="1">
+      <c r="D187" s="29" t="s">
+        <v>265</v>
+      </c>
       <c r="Q187" s="6"/>
       <c r="R187" s="1" t="s">
         <v>205</v>
@@ -10186,6 +10253,9 @@
       <c r="AE187" s="7"/>
     </row>
     <row r="188" spans="2:43" ht="18" customHeight="1">
+      <c r="D188" s="29" t="s">
+        <v>266</v>
+      </c>
       <c r="Q188" s="6"/>
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
@@ -10209,6 +10279,9 @@
       <c r="AQ188" s="5"/>
     </row>
     <row r="189" spans="2:43" ht="18" customHeight="1">
+      <c r="D189" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="Q189" s="6"/>
       <c r="R189" s="15" t="s">
         <v>165</v>
@@ -10224,14 +10297,12 @@
       <c r="W189" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="X189" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y189" s="43" t="s">
+      <c r="X189" s="37"/>
+      <c r="Y189" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="Z189" s="44"/>
-      <c r="AA189" s="45"/>
+      <c r="Z189" s="57"/>
+      <c r="AA189" s="58"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
@@ -10249,6 +10320,9 @@
       <c r="AQ189" s="7"/>
     </row>
     <row r="190" spans="2:43" ht="18" customHeight="1">
+      <c r="D190" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="Q190" s="6"/>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
@@ -10271,21 +10345,28 @@
       <c r="AD190" s="1"/>
       <c r="AE190" s="7"/>
       <c r="AG190" s="6"/>
-      <c r="AH190" s="58"/>
-      <c r="AI190" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ190" s="42"/>
-      <c r="AL190" s="58"/>
-      <c r="AM190" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN190" s="42"/>
-      <c r="AO190" s="1"/>
+      <c r="AH190" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI190" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ190" s="43"/>
+      <c r="AL190" s="41"/>
+      <c r="AM190" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN190" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO190" s="43"/>
       <c r="AP190" s="1"/>
       <c r="AQ190" s="7"/>
     </row>
     <row r="191" spans="2:43" ht="18" customHeight="1">
+      <c r="D191" s="29" t="s">
+        <v>274</v>
+      </c>
       <c r="Q191" s="6"/>
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
@@ -10302,17 +10383,20 @@
       <c r="AD191" s="1"/>
       <c r="AE191" s="7"/>
       <c r="AG191" s="6"/>
-      <c r="AH191" s="58"/>
-      <c r="AI191" s="41"/>
-      <c r="AJ191" s="42"/>
-      <c r="AL191" s="58"/>
-      <c r="AM191" s="41"/>
+      <c r="AH191" s="59"/>
+      <c r="AI191" s="42"/>
+      <c r="AJ191" s="43"/>
+      <c r="AL191" s="41"/>
+      <c r="AM191" s="59"/>
       <c r="AN191" s="42"/>
-      <c r="AO191" s="1"/>
+      <c r="AO191" s="43"/>
       <c r="AP191" s="1"/>
       <c r="AQ191" s="7"/>
     </row>
     <row r="192" spans="2:43" ht="18" customHeight="1">
+      <c r="D192" s="29" t="s">
+        <v>275</v>
+      </c>
       <c r="Q192" s="6"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
@@ -10329,17 +10413,20 @@
       <c r="AD192" s="1"/>
       <c r="AE192" s="7"/>
       <c r="AG192" s="6"/>
-      <c r="AH192" s="58"/>
-      <c r="AI192" s="41"/>
-      <c r="AJ192" s="42"/>
-      <c r="AL192" s="58"/>
-      <c r="AM192" s="41"/>
+      <c r="AH192" s="59"/>
+      <c r="AI192" s="42"/>
+      <c r="AJ192" s="43"/>
+      <c r="AL192" s="41"/>
+      <c r="AM192" s="59"/>
       <c r="AN192" s="42"/>
-      <c r="AO192" s="1"/>
+      <c r="AO192" s="43"/>
       <c r="AP192" s="1"/>
       <c r="AQ192" s="7"/>
     </row>
-    <row r="193" spans="17:43" ht="18" customHeight="1">
+    <row r="193" spans="4:43" ht="18" customHeight="1">
+      <c r="D193" s="29" t="s">
+        <v>271</v>
+      </c>
       <c r="Q193" s="6"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
@@ -10363,7 +10450,10 @@
       <c r="AP193" s="1"/>
       <c r="AQ193" s="7"/>
     </row>
-    <row r="194" spans="17:43" ht="18" customHeight="1">
+    <row r="194" spans="4:43" ht="18" customHeight="1">
+      <c r="D194" s="29" t="s">
+        <v>276</v>
+      </c>
       <c r="Q194" s="6"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
@@ -10380,9 +10470,15 @@
       <c r="AD194" s="1"/>
       <c r="AE194" s="7"/>
       <c r="AG194" s="6"/>
+      <c r="AI194" t="s">
+        <v>269</v>
+      </c>
       <c r="AQ194" s="7"/>
     </row>
-    <row r="195" spans="17:43" ht="18" customHeight="1">
+    <row r="195" spans="4:43" ht="18" customHeight="1">
+      <c r="D195" s="29" t="s">
+        <v>277</v>
+      </c>
       <c r="Q195" s="6"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
@@ -10399,9 +10495,19 @@
       <c r="AD195" s="1"/>
       <c r="AE195" s="7"/>
       <c r="AG195" s="6"/>
+      <c r="AI195" s="3"/>
+      <c r="AJ195" s="4"/>
+      <c r="AK195" s="4"/>
+      <c r="AL195" s="4"/>
+      <c r="AM195" s="4"/>
+      <c r="AN195" s="4"/>
+      <c r="AO195" s="5"/>
       <c r="AQ195" s="7"/>
     </row>
-    <row r="196" spans="17:43" ht="18" customHeight="1">
+    <row r="196" spans="4:43" ht="18" customHeight="1">
+      <c r="D196" s="29" t="s">
+        <v>278</v>
+      </c>
       <c r="Q196" s="6"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
@@ -10418,9 +10524,16 @@
       <c r="AD196" s="1"/>
       <c r="AE196" s="7"/>
       <c r="AG196" s="6"/>
+      <c r="AI196" s="8"/>
+      <c r="AJ196" s="2"/>
+      <c r="AK196" s="2"/>
+      <c r="AL196" s="2"/>
+      <c r="AM196" s="2"/>
+      <c r="AN196" s="2"/>
+      <c r="AO196" s="9"/>
       <c r="AQ196" s="7"/>
     </row>
-    <row r="197" spans="17:43" ht="18" customHeight="1">
+    <row r="197" spans="4:43" ht="18" customHeight="1">
       <c r="Q197" s="6"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
@@ -10448,7 +10561,7 @@
       <c r="AP197" s="1"/>
       <c r="AQ197" s="7"/>
     </row>
-    <row r="198" spans="17:43" ht="18" customHeight="1">
+    <row r="198" spans="4:43" ht="18" customHeight="1">
       <c r="Q198" s="8"/>
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
@@ -10478,6 +10591,394 @@
     </row>
   </sheetData>
   <mergeCells count="412">
+    <mergeCell ref="AI192:AJ192"/>
+    <mergeCell ref="Y189:AA189"/>
+    <mergeCell ref="S187:V187"/>
+    <mergeCell ref="AA187:AC187"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="U189:V189"/>
+    <mergeCell ref="AI190:AJ190"/>
+    <mergeCell ref="AI191:AJ191"/>
+    <mergeCell ref="AN190:AO190"/>
+    <mergeCell ref="AN191:AO191"/>
+    <mergeCell ref="AN192:AO192"/>
+    <mergeCell ref="AT102:AU102"/>
+    <mergeCell ref="AV102:AX102"/>
+    <mergeCell ref="Y153:Z153"/>
+    <mergeCell ref="AL159:AO159"/>
+    <mergeCell ref="AL161:AO161"/>
+    <mergeCell ref="S149:V149"/>
+    <mergeCell ref="Z149:AC149"/>
+    <mergeCell ref="S159:T159"/>
+    <mergeCell ref="U159:V159"/>
+    <mergeCell ref="W159:X159"/>
+    <mergeCell ref="S160:T160"/>
+    <mergeCell ref="U160:V160"/>
+    <mergeCell ref="W160:X160"/>
+    <mergeCell ref="AL152:AO152"/>
+    <mergeCell ref="AN137:AO137"/>
+    <mergeCell ref="AQ137:AR137"/>
+    <mergeCell ref="S156:T156"/>
+    <mergeCell ref="U156:V156"/>
+    <mergeCell ref="W156:X156"/>
+    <mergeCell ref="S157:T157"/>
+    <mergeCell ref="U157:V157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="U158:V158"/>
+    <mergeCell ref="W158:X158"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="AA153:AB153"/>
+    <mergeCell ref="AC153:AD153"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="U154:V154"/>
+    <mergeCell ref="W154:X154"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="AC138:AD138"/>
+    <mergeCell ref="AO129:AR129"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="AC133:AD133"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AG137:AH137"/>
+    <mergeCell ref="AG138:AH138"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="U138:V138"/>
+    <mergeCell ref="W138:X138"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="DL139:DM139"/>
+    <mergeCell ref="DJ141:DK141"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="AA130:AH130"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="Y131:Z131"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
+    <mergeCell ref="Y132:Z132"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
+    <mergeCell ref="Y133:Z133"/>
+    <mergeCell ref="U134:V134"/>
+    <mergeCell ref="W134:X134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="W135:X135"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="W137:X137"/>
+    <mergeCell ref="DL136:DM136"/>
+    <mergeCell ref="DD137:DE137"/>
+    <mergeCell ref="DF137:DH137"/>
+    <mergeCell ref="DI137:DK137"/>
+    <mergeCell ref="DL137:DM137"/>
+    <mergeCell ref="DD138:DE138"/>
+    <mergeCell ref="DF138:DH138"/>
+    <mergeCell ref="DI138:DK138"/>
+    <mergeCell ref="DL138:DM138"/>
+    <mergeCell ref="CU131:CV131"/>
+    <mergeCell ref="CU132:CV132"/>
+    <mergeCell ref="CS131:CT131"/>
+    <mergeCell ref="CS132:CT132"/>
+    <mergeCell ref="DD136:DE136"/>
+    <mergeCell ref="DF136:DH136"/>
+    <mergeCell ref="DI136:DK136"/>
+    <mergeCell ref="CD139:CE139"/>
+    <mergeCell ref="CG139:CH139"/>
+    <mergeCell ref="DD139:DE139"/>
+    <mergeCell ref="DF139:DH139"/>
+    <mergeCell ref="DI139:DK139"/>
+    <mergeCell ref="BG134:BH134"/>
+    <mergeCell ref="CN134:CO134"/>
+    <mergeCell ref="CQ134:CR134"/>
+    <mergeCell ref="BO133:BP133"/>
+    <mergeCell ref="BQ133:BR133"/>
+    <mergeCell ref="BS133:BT133"/>
+    <mergeCell ref="BO134:BP134"/>
+    <mergeCell ref="BQ134:BR134"/>
+    <mergeCell ref="BS134:BT134"/>
+    <mergeCell ref="CA112:CH112"/>
+    <mergeCell ref="AN106:AS106"/>
+    <mergeCell ref="BA132:BC132"/>
+    <mergeCell ref="AY131:AZ131"/>
+    <mergeCell ref="BA131:BC131"/>
+    <mergeCell ref="BD131:BF131"/>
+    <mergeCell ref="AY132:AZ132"/>
+    <mergeCell ref="BD132:BF132"/>
+    <mergeCell ref="AY133:AZ133"/>
+    <mergeCell ref="BA133:BC133"/>
+    <mergeCell ref="BD133:BF133"/>
+    <mergeCell ref="BZ116:CA116"/>
+    <mergeCell ref="CC116:CD116"/>
+    <mergeCell ref="BO131:BP131"/>
+    <mergeCell ref="BQ131:BR131"/>
+    <mergeCell ref="BS131:BT131"/>
+    <mergeCell ref="BO132:BP132"/>
+    <mergeCell ref="BQ132:BR132"/>
+    <mergeCell ref="BS132:BT132"/>
+    <mergeCell ref="BY112:BZ112"/>
+    <mergeCell ref="CB108:CI108"/>
+    <mergeCell ref="BY110:BZ110"/>
+    <mergeCell ref="BG131:BH131"/>
+    <mergeCell ref="BG132:BH132"/>
+    <mergeCell ref="BP136:BQ136"/>
+    <mergeCell ref="AE131:AF131"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AE133:AF133"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="W136:X136"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="AY134:AZ134"/>
+    <mergeCell ref="BA134:BC134"/>
+    <mergeCell ref="BD134:BF134"/>
+    <mergeCell ref="BA136:BB136"/>
+    <mergeCell ref="BD136:BE136"/>
+    <mergeCell ref="AG131:AH131"/>
+    <mergeCell ref="AG132:AH132"/>
+    <mergeCell ref="AG133:AH133"/>
+    <mergeCell ref="AG134:AH134"/>
+    <mergeCell ref="AG135:AH135"/>
+    <mergeCell ref="AG136:AH136"/>
+    <mergeCell ref="BG133:BH133"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="Z126:AB126"/>
+    <mergeCell ref="AD126:AE126"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD102:AH102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="AM102:AQ102"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI32:AO32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="CA110:CH110"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AN37:AO37"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="BI58:BJ58"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="BK49:BL49"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="BK50:BL50"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BI52:BJ52"/>
+    <mergeCell ref="BK52:BL52"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="BY108:CA108"/>
+    <mergeCell ref="BC74:BD74"/>
+    <mergeCell ref="BC75:BD75"/>
+    <mergeCell ref="BN78:BO78"/>
+    <mergeCell ref="BI53:BJ53"/>
+    <mergeCell ref="BK53:BL53"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AO38"/>
+    <mergeCell ref="S106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="AE106:AG106"/>
+    <mergeCell ref="AH106:AJ106"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="X48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="V91:Y91"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="BB73:BC73"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:AB66"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AB90:AG90"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AD93:AE93"/>
+    <mergeCell ref="AF93:AG93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AD94:AE94"/>
+    <mergeCell ref="AF94:AG94"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="V94:Y94"/>
+    <mergeCell ref="V93:Y93"/>
+    <mergeCell ref="BA66:BC66"/>
+    <mergeCell ref="BD66:BK66"/>
+    <mergeCell ref="BB70:BC70"/>
+    <mergeCell ref="BD70:BE70"/>
+    <mergeCell ref="BF70:BG70"/>
+    <mergeCell ref="BC71:BD71"/>
+    <mergeCell ref="BE71:BF71"/>
+    <mergeCell ref="BG71:BH71"/>
+    <mergeCell ref="BC72:BD72"/>
+    <mergeCell ref="BK56:BL56"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W34:Y34"/>
     <mergeCell ref="BP115:BQ115"/>
     <mergeCell ref="BH117:BI117"/>
     <mergeCell ref="BK117:BL117"/>
@@ -10502,394 +11003,6 @@
     <mergeCell ref="BI55:BJ55"/>
     <mergeCell ref="BK55:BL55"/>
     <mergeCell ref="BI56:BJ56"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="BK56:BL56"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="BA66:BC66"/>
-    <mergeCell ref="BD66:BK66"/>
-    <mergeCell ref="BB70:BC70"/>
-    <mergeCell ref="BD70:BE70"/>
-    <mergeCell ref="BF70:BG70"/>
-    <mergeCell ref="BC71:BD71"/>
-    <mergeCell ref="BE71:BF71"/>
-    <mergeCell ref="BG71:BH71"/>
-    <mergeCell ref="BC72:BD72"/>
-    <mergeCell ref="BB73:BC73"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:AB66"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="AB90:AG90"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="AF91:AG91"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AF93:AG93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AD94:AE94"/>
-    <mergeCell ref="AF94:AG94"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="V94:Y94"/>
-    <mergeCell ref="V93:Y93"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="V91:Y91"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="S106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="AE106:AG106"/>
-    <mergeCell ref="AH106:AJ106"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="X48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="CA110:CH110"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="BI58:BJ58"/>
-    <mergeCell ref="BH47:BI47"/>
-    <mergeCell ref="BJ47:BK47"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="BK49:BL49"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="BK50:BL50"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BI52:BJ52"/>
-    <mergeCell ref="BK52:BL52"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="BY108:CA108"/>
-    <mergeCell ref="BC74:BD74"/>
-    <mergeCell ref="BC75:BD75"/>
-    <mergeCell ref="BN78:BO78"/>
-    <mergeCell ref="BI53:BJ53"/>
-    <mergeCell ref="BK53:BL53"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="Z126:AB126"/>
-    <mergeCell ref="AD126:AE126"/>
-    <mergeCell ref="AA131:AB131"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD102:AH102"/>
-    <mergeCell ref="AK102:AL102"/>
-    <mergeCell ref="AM102:AQ102"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AI32:AO32"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="BP136:BQ136"/>
-    <mergeCell ref="AE131:AF131"/>
-    <mergeCell ref="AE132:AF132"/>
-    <mergeCell ref="AE133:AF133"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="AE135:AF135"/>
-    <mergeCell ref="AE136:AF136"/>
-    <mergeCell ref="W136:X136"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="Y130:Z130"/>
-    <mergeCell ref="U128:V128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="AY134:AZ134"/>
-    <mergeCell ref="BA134:BC134"/>
-    <mergeCell ref="BD134:BF134"/>
-    <mergeCell ref="BA136:BB136"/>
-    <mergeCell ref="BD136:BE136"/>
-    <mergeCell ref="AG131:AH131"/>
-    <mergeCell ref="AG132:AH132"/>
-    <mergeCell ref="AG133:AH133"/>
-    <mergeCell ref="AG134:AH134"/>
-    <mergeCell ref="AG135:AH135"/>
-    <mergeCell ref="AG136:AH136"/>
-    <mergeCell ref="BG133:BH133"/>
-    <mergeCell ref="CA112:CH112"/>
-    <mergeCell ref="AN106:AS106"/>
-    <mergeCell ref="BA132:BC132"/>
-    <mergeCell ref="AY131:AZ131"/>
-    <mergeCell ref="BA131:BC131"/>
-    <mergeCell ref="BD131:BF131"/>
-    <mergeCell ref="AY132:AZ132"/>
-    <mergeCell ref="BD132:BF132"/>
-    <mergeCell ref="AY133:AZ133"/>
-    <mergeCell ref="BA133:BC133"/>
-    <mergeCell ref="BD133:BF133"/>
-    <mergeCell ref="BZ116:CA116"/>
-    <mergeCell ref="CC116:CD116"/>
-    <mergeCell ref="BO131:BP131"/>
-    <mergeCell ref="BQ131:BR131"/>
-    <mergeCell ref="BS131:BT131"/>
-    <mergeCell ref="BO132:BP132"/>
-    <mergeCell ref="BQ132:BR132"/>
-    <mergeCell ref="BS132:BT132"/>
-    <mergeCell ref="BY112:BZ112"/>
-    <mergeCell ref="CB108:CI108"/>
-    <mergeCell ref="BY110:BZ110"/>
-    <mergeCell ref="BG131:BH131"/>
-    <mergeCell ref="BG132:BH132"/>
-    <mergeCell ref="BG134:BH134"/>
-    <mergeCell ref="CN134:CO134"/>
-    <mergeCell ref="CQ134:CR134"/>
-    <mergeCell ref="BO133:BP133"/>
-    <mergeCell ref="BQ133:BR133"/>
-    <mergeCell ref="BS133:BT133"/>
-    <mergeCell ref="BO134:BP134"/>
-    <mergeCell ref="BQ134:BR134"/>
-    <mergeCell ref="BS134:BT134"/>
-    <mergeCell ref="CU131:CV131"/>
-    <mergeCell ref="CU132:CV132"/>
-    <mergeCell ref="CS131:CT131"/>
-    <mergeCell ref="CS132:CT132"/>
-    <mergeCell ref="DD136:DE136"/>
-    <mergeCell ref="DF136:DH136"/>
-    <mergeCell ref="DI136:DK136"/>
-    <mergeCell ref="CD139:CE139"/>
-    <mergeCell ref="CG139:CH139"/>
-    <mergeCell ref="DD139:DE139"/>
-    <mergeCell ref="DF139:DH139"/>
-    <mergeCell ref="DI139:DK139"/>
-    <mergeCell ref="DL136:DM136"/>
-    <mergeCell ref="DD137:DE137"/>
-    <mergeCell ref="DF137:DH137"/>
-    <mergeCell ref="DI137:DK137"/>
-    <mergeCell ref="DL137:DM137"/>
-    <mergeCell ref="DD138:DE138"/>
-    <mergeCell ref="DF138:DH138"/>
-    <mergeCell ref="DI138:DK138"/>
-    <mergeCell ref="DL138:DM138"/>
-    <mergeCell ref="DL139:DM139"/>
-    <mergeCell ref="DJ141:DK141"/>
-    <mergeCell ref="U130:V130"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="AA130:AH130"/>
-    <mergeCell ref="U131:V131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="Y131:Z131"/>
-    <mergeCell ref="U132:V132"/>
-    <mergeCell ref="W132:X132"/>
-    <mergeCell ref="Y132:Z132"/>
-    <mergeCell ref="U133:V133"/>
-    <mergeCell ref="W133:X133"/>
-    <mergeCell ref="Y133:Z133"/>
-    <mergeCell ref="U134:V134"/>
-    <mergeCell ref="W134:X134"/>
-    <mergeCell ref="Y134:Z134"/>
-    <mergeCell ref="U135:V135"/>
-    <mergeCell ref="W135:X135"/>
-    <mergeCell ref="Y135:Z135"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="W137:X137"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="U138:V138"/>
-    <mergeCell ref="W138:X138"/>
-    <mergeCell ref="Y138:Z138"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="AA138:AB138"/>
-    <mergeCell ref="AC138:AD138"/>
-    <mergeCell ref="AO129:AR129"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AA132:AB132"/>
-    <mergeCell ref="AC132:AD132"/>
-    <mergeCell ref="AA133:AB133"/>
-    <mergeCell ref="AC133:AD133"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="AC134:AD134"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AG137:AH137"/>
-    <mergeCell ref="AG138:AH138"/>
-    <mergeCell ref="W158:X158"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="AA153:AB153"/>
-    <mergeCell ref="AC153:AD153"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="U154:V154"/>
-    <mergeCell ref="W154:X154"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="AT102:AU102"/>
-    <mergeCell ref="AV102:AX102"/>
-    <mergeCell ref="Y153:Z153"/>
-    <mergeCell ref="AL159:AO159"/>
-    <mergeCell ref="AL161:AO161"/>
-    <mergeCell ref="S149:V149"/>
-    <mergeCell ref="Z149:AC149"/>
-    <mergeCell ref="S159:T159"/>
-    <mergeCell ref="U159:V159"/>
-    <mergeCell ref="W159:X159"/>
-    <mergeCell ref="S160:T160"/>
-    <mergeCell ref="U160:V160"/>
-    <mergeCell ref="W160:X160"/>
-    <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="AN137:AO137"/>
-    <mergeCell ref="AQ137:AR137"/>
-    <mergeCell ref="S156:T156"/>
-    <mergeCell ref="U156:V156"/>
-    <mergeCell ref="W156:X156"/>
-    <mergeCell ref="S157:T157"/>
-    <mergeCell ref="U157:V157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="U158:V158"/>
-    <mergeCell ref="AI192:AJ192"/>
-    <mergeCell ref="AM190:AN190"/>
-    <mergeCell ref="AM191:AN191"/>
-    <mergeCell ref="AM192:AN192"/>
-    <mergeCell ref="Y189:AA189"/>
-    <mergeCell ref="S187:V187"/>
-    <mergeCell ref="AA187:AC187"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="U189:V189"/>
-    <mergeCell ref="AI190:AJ190"/>
-    <mergeCell ref="AI191:AJ191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/通用测试平台.xlsx
+++ b/通用测试平台.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="286">
   <si>
     <t>组织管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1028,139 +1028,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>parent_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chirld_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">content_type </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">body_content_type </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respone_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10请求头参数；21请求体参数(kv型参数)；22请求体参数（json型参数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1检查响应头；2检查响应body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>complex_para</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent_para</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chirld_para</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>para_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10请求头参数；21请求体参数(kv型参数)；22请求体参数（json型参数）3检查点参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>environment_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">content_type </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">body_content_type </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>respone_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1426,7 +1454,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="189">
+  <cellStyleXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1616,8 +1644,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1681,7 +1737,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1694,22 +1749,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1721,10 +1783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1733,21 +1792,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="189">
+  <cellStyles count="217">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1842,6 +1897,20 @@
     <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1936,6 +2005,20 @@
     <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2240,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO198"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="AB200" sqref="AB200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -2251,38 +2334,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:46" ht="18" customHeight="1">
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="U1" s="45" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="U1" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
     </row>
     <row r="2" spans="2:46" ht="18" customHeight="1">
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
     </row>
     <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="30"/>
@@ -2449,18 +2532,18 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="54" t="s">
+      <c r="S10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="54"/>
-      <c r="U10" s="47" t="s">
+      <c r="T10" s="55"/>
+      <c r="U10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47" t="s">
+      <c r="V10" s="48"/>
+      <c r="W10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="47"/>
+      <c r="X10" s="48"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2491,18 +2574,18 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="47" t="s">
+      <c r="T11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47" t="s">
+      <c r="U11" s="48"/>
+      <c r="V11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47" t="s">
+      <c r="W11" s="48"/>
+      <c r="X11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="53"/>
+      <c r="Y11" s="54"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -2529,10 +2612,10 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="47" t="s">
+      <c r="T12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="47"/>
+      <c r="U12" s="48"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -2562,10 +2645,10 @@
     <row r="13" spans="2:46" ht="18" customHeight="1">
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="47" t="s">
+      <c r="S13" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="47"/>
+      <c r="T13" s="48"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -2603,10 +2686,10 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="47" t="s">
+      <c r="T14" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="47"/>
+      <c r="U14" s="48"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -2635,10 +2718,10 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="47" t="s">
+      <c r="T15" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="47"/>
+      <c r="U15" s="48"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -2931,27 +3014,27 @@
     <row r="28" spans="2:46" ht="18" customHeight="1">
       <c r="Q28" s="6"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="47" t="s">
+      <c r="S28" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="T28" s="47"/>
+      <c r="T28" s="48"/>
       <c r="U28" s="42"/>
-      <c r="V28" s="44"/>
+      <c r="V28" s="49"/>
       <c r="W28" s="43"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="47" t="s">
+      <c r="Y28" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="Z28" s="47"/>
+      <c r="Z28" s="48"/>
       <c r="AA28" s="42"/>
       <c r="AB28" s="43"/>
-      <c r="AD28" s="47" t="s">
+      <c r="AD28" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
       <c r="AI28" s="24" t="s">
         <v>56</v>
       </c>
@@ -3010,18 +3093,18 @@
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="46" t="s">
+      <c r="S30" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46" t="s">
+      <c r="T30" s="47"/>
+      <c r="U30" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46" t="s">
+      <c r="V30" s="47"/>
+      <c r="W30" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="X30" s="46"/>
+      <c r="X30" s="47"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -3097,21 +3180,21 @@
       <c r="W32" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="44"/>
+      <c r="X32" s="49"/>
       <c r="Y32" s="43"/>
       <c r="Z32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AA32" s="44"/>
+      <c r="AA32" s="49"/>
       <c r="AB32" s="43"/>
-      <c r="AC32" s="38" t="s">
+      <c r="AC32" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AD32" s="39"/>
+      <c r="AD32" s="38"/>
       <c r="AE32" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AF32" s="44"/>
+      <c r="AF32" s="49"/>
       <c r="AG32" s="42" t="s">
         <v>32</v>
       </c>
@@ -3119,11 +3202,11 @@
       <c r="AI32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="44"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
       <c r="AO32" s="43"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
@@ -3144,10 +3227,10 @@
       </c>
       <c r="V33" s="43"/>
       <c r="W33" s="42"/>
-      <c r="X33" s="44"/>
+      <c r="X33" s="49"/>
       <c r="Y33" s="43"/>
       <c r="Z33" s="42"/>
-      <c r="AA33" s="44"/>
+      <c r="AA33" s="49"/>
       <c r="AB33" s="43"/>
       <c r="AC33" s="42"/>
       <c r="AD33" s="43"/>
@@ -3164,7 +3247,7 @@
       <c r="AK33" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL33" s="44"/>
+      <c r="AL33" s="49"/>
       <c r="AM33" s="43"/>
       <c r="AN33" s="42" t="s">
         <v>21</v>
@@ -3189,10 +3272,10 @@
       </c>
       <c r="V34" s="43"/>
       <c r="W34" s="42"/>
-      <c r="X34" s="44"/>
+      <c r="X34" s="49"/>
       <c r="Y34" s="43"/>
       <c r="Z34" s="42"/>
-      <c r="AA34" s="44"/>
+      <c r="AA34" s="49"/>
       <c r="AB34" s="43"/>
       <c r="AC34" s="42"/>
       <c r="AD34" s="43"/>
@@ -3209,7 +3292,7 @@
       <c r="AK34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL34" s="44"/>
+      <c r="AL34" s="49"/>
       <c r="AM34" s="43"/>
       <c r="AN34" s="42" t="s">
         <v>8</v>
@@ -3234,10 +3317,10 @@
       </c>
       <c r="V35" s="43"/>
       <c r="W35" s="42"/>
-      <c r="X35" s="44"/>
+      <c r="X35" s="49"/>
       <c r="Y35" s="43"/>
       <c r="Z35" s="42"/>
-      <c r="AA35" s="44"/>
+      <c r="AA35" s="49"/>
       <c r="AB35" s="43"/>
       <c r="AC35" s="42"/>
       <c r="AD35" s="43"/>
@@ -3252,7 +3335,7 @@
       <c r="AK35" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL35" s="44"/>
+      <c r="AL35" s="49"/>
       <c r="AM35" s="43"/>
       <c r="AN35" s="42" t="s">
         <v>8</v>
@@ -3276,14 +3359,14 @@
         <v>26</v>
       </c>
       <c r="V36" s="43"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="39"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="38"/>
       <c r="AE36" s="11"/>
       <c r="AF36" s="13"/>
       <c r="AG36" s="12"/>
@@ -3295,7 +3378,7 @@
       <c r="AK36" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL36" s="44"/>
+      <c r="AL36" s="49"/>
       <c r="AM36" s="43"/>
       <c r="AN36" s="42" t="s">
         <v>8</v>
@@ -3320,10 +3403,10 @@
       </c>
       <c r="V37" s="43"/>
       <c r="W37" s="42"/>
-      <c r="X37" s="44"/>
+      <c r="X37" s="49"/>
       <c r="Y37" s="43"/>
       <c r="Z37" s="42"/>
-      <c r="AA37" s="44"/>
+      <c r="AA37" s="49"/>
       <c r="AB37" s="43"/>
       <c r="AC37" s="42"/>
       <c r="AD37" s="43"/>
@@ -3338,7 +3421,7 @@
       <c r="AK37" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL37" s="44"/>
+      <c r="AL37" s="49"/>
       <c r="AM37" s="43"/>
       <c r="AN37" s="42" t="s">
         <v>8</v>
@@ -3358,10 +3441,10 @@
       <c r="U38" s="42"/>
       <c r="V38" s="43"/>
       <c r="W38" s="42"/>
-      <c r="X38" s="44"/>
+      <c r="X38" s="49"/>
       <c r="Y38" s="43"/>
       <c r="Z38" s="42"/>
-      <c r="AA38" s="44"/>
+      <c r="AA38" s="49"/>
       <c r="AB38" s="43"/>
       <c r="AC38" s="42"/>
       <c r="AD38" s="43"/>
@@ -3372,7 +3455,7 @@
       <c r="AI38" s="42"/>
       <c r="AJ38" s="43"/>
       <c r="AK38" s="42"/>
-      <c r="AL38" s="44"/>
+      <c r="AL38" s="49"/>
       <c r="AM38" s="43"/>
       <c r="AN38" s="42"/>
       <c r="AO38" s="43"/>
@@ -3525,10 +3608,10 @@
         <v>133</v>
       </c>
       <c r="Q46" s="6"/>
-      <c r="R46" s="46" t="s">
+      <c r="R46" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="S46" s="46"/>
+      <c r="S46" s="47"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -3604,14 +3687,14 @@
       <c r="BB47" s="7"/>
       <c r="BF47" s="6"/>
       <c r="BG47" s="1"/>
-      <c r="BH47" s="46" t="s">
+      <c r="BH47" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="BI47" s="46"/>
-      <c r="BJ47" s="46" t="s">
+      <c r="BI47" s="47"/>
+      <c r="BJ47" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="BK47" s="46"/>
+      <c r="BK47" s="47"/>
       <c r="BL47" s="1"/>
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
@@ -3625,23 +3708,23 @@
       <c r="R48" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="S48" s="46" t="s">
+      <c r="S48" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46" t="s">
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46" t="s">
+      <c r="W48" s="47"/>
+      <c r="X48" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="46"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
@@ -3680,23 +3763,23 @@
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="15"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46" t="s">
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="46" t="s">
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AA49" s="46"/>
-      <c r="AB49" s="46" t="s">
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AC49" s="46"/>
+      <c r="AC49" s="47"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
@@ -3721,14 +3804,14 @@
       <c r="BH49" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BI49" s="46" t="s">
+      <c r="BI49" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="BJ49" s="46"/>
-      <c r="BK49" s="46" t="s">
+      <c r="BJ49" s="47"/>
+      <c r="BK49" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="BL49" s="46"/>
+      <c r="BL49" s="47"/>
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
       <c r="BO49" s="7"/>
@@ -3739,17 +3822,17 @@
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="15"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="46"/>
-      <c r="AA50" s="46"/>
-      <c r="AB50" s="46"/>
-      <c r="AC50" s="46"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="47"/>
+      <c r="Y50" s="47"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
@@ -3774,14 +3857,14 @@
       <c r="BH50" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI50" s="46" t="s">
+      <c r="BI50" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="BJ50" s="46"/>
-      <c r="BK50" s="46" t="s">
+      <c r="BJ50" s="47"/>
+      <c r="BK50" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="BL50" s="46"/>
+      <c r="BL50" s="47"/>
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
       <c r="BO50" s="7"/>
@@ -3792,17 +3875,17 @@
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="15"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="46"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="46"/>
-      <c r="AB51" s="46"/>
-      <c r="AC51" s="46"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
@@ -3831,14 +3914,14 @@
       <c r="BH51" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BI51" s="46" t="s">
+      <c r="BI51" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="BJ51" s="46"/>
-      <c r="BK51" s="46" t="s">
+      <c r="BJ51" s="47"/>
+      <c r="BK51" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="BL51" s="46"/>
+      <c r="BL51" s="47"/>
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
       <c r="BO51" s="7"/>
@@ -3846,17 +3929,17 @@
     <row r="52" spans="2:67" ht="18" customHeight="1">
       <c r="Q52" s="6"/>
       <c r="R52" s="15"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46"/>
-      <c r="Y52" s="46"/>
-      <c r="Z52" s="46"/>
-      <c r="AA52" s="46"/>
-      <c r="AB52" s="46"/>
-      <c r="AC52" s="46"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="47"/>
+      <c r="Y52" s="47"/>
+      <c r="Z52" s="47"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
+      <c r="AC52" s="47"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
@@ -3881,14 +3964,14 @@
       <c r="BH52" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BI52" s="46" t="s">
+      <c r="BI52" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="BJ52" s="46"/>
-      <c r="BK52" s="46" t="s">
+      <c r="BJ52" s="47"/>
+      <c r="BK52" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="BL52" s="46"/>
+      <c r="BL52" s="47"/>
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
       <c r="BO52" s="7"/>
@@ -3896,17 +3979,17 @@
     <row r="53" spans="2:67" ht="18" customHeight="1">
       <c r="Q53" s="6"/>
       <c r="R53" s="15"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="46"/>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="46"/>
-      <c r="AA53" s="46"/>
-      <c r="AB53" s="46"/>
-      <c r="AC53" s="46"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="47"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
@@ -3931,10 +4014,10 @@
       <c r="BH53" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI53" s="46"/>
-      <c r="BJ53" s="46"/>
-      <c r="BK53" s="46"/>
-      <c r="BL53" s="46"/>
+      <c r="BI53" s="47"/>
+      <c r="BJ53" s="47"/>
+      <c r="BK53" s="47"/>
+      <c r="BL53" s="47"/>
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
       <c r="BO53" s="7"/>
@@ -3942,17 +4025,17 @@
     <row r="54" spans="2:67" ht="18" customHeight="1">
       <c r="Q54" s="6"/>
       <c r="R54" s="15"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="46"/>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="46"/>
-      <c r="AA54" s="46"/>
-      <c r="AB54" s="46"/>
-      <c r="AC54" s="46"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
@@ -3977,10 +4060,10 @@
       <c r="BH54" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI54" s="46"/>
-      <c r="BJ54" s="46"/>
-      <c r="BK54" s="46"/>
-      <c r="BL54" s="46"/>
+      <c r="BI54" s="47"/>
+      <c r="BJ54" s="47"/>
+      <c r="BK54" s="47"/>
+      <c r="BL54" s="47"/>
       <c r="BM54" s="1"/>
       <c r="BN54" s="1"/>
       <c r="BO54" s="7"/>
@@ -3988,17 +4071,17 @@
     <row r="55" spans="2:67" ht="18" customHeight="1">
       <c r="Q55" s="6"/>
       <c r="R55" s="15"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="46"/>
-      <c r="Y55" s="46"/>
-      <c r="Z55" s="46"/>
-      <c r="AA55" s="46"/>
-      <c r="AB55" s="46"/>
-      <c r="AC55" s="46"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
+      <c r="AC55" s="47"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
@@ -4023,10 +4106,10 @@
       <c r="BH55" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI55" s="46"/>
-      <c r="BJ55" s="46"/>
-      <c r="BK55" s="46"/>
-      <c r="BL55" s="46"/>
+      <c r="BI55" s="47"/>
+      <c r="BJ55" s="47"/>
+      <c r="BK55" s="47"/>
+      <c r="BL55" s="47"/>
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
       <c r="BO55" s="7"/>
@@ -4034,17 +4117,17 @@
     <row r="56" spans="2:67" ht="18" customHeight="1">
       <c r="Q56" s="6"/>
       <c r="R56" s="15"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
-      <c r="X56" s="46"/>
-      <c r="Y56" s="46"/>
-      <c r="Z56" s="46"/>
-      <c r="AA56" s="46"/>
-      <c r="AB56" s="46"/>
-      <c r="AC56" s="46"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
@@ -4052,10 +4135,10 @@
       <c r="BF56" s="6"/>
       <c r="BG56" s="1"/>
       <c r="BH56" s="15"/>
-      <c r="BI56" s="46"/>
-      <c r="BJ56" s="46"/>
-      <c r="BK56" s="46"/>
-      <c r="BL56" s="46"/>
+      <c r="BI56" s="47"/>
+      <c r="BJ56" s="47"/>
+      <c r="BK56" s="47"/>
+      <c r="BL56" s="47"/>
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
       <c r="BO56" s="7"/>
@@ -4276,21 +4359,21 @@
         <v>136</v>
       </c>
       <c r="Q66" s="6"/>
-      <c r="R66" s="47" t="s">
+      <c r="R66" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="S66" s="47"/>
-      <c r="T66" s="47"/>
-      <c r="U66" s="48" t="s">
+      <c r="S66" s="48"/>
+      <c r="T66" s="48"/>
+      <c r="U66" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="V66" s="49"/>
-      <c r="W66" s="49"/>
-      <c r="X66" s="49"/>
-      <c r="Y66" s="49"/>
-      <c r="Z66" s="49"/>
-      <c r="AA66" s="49"/>
-      <c r="AB66" s="50"/>
+      <c r="V66" s="51"/>
+      <c r="W66" s="51"/>
+      <c r="X66" s="51"/>
+      <c r="Y66" s="51"/>
+      <c r="Z66" s="51"/>
+      <c r="AA66" s="51"/>
+      <c r="AB66" s="52"/>
       <c r="AC66" s="16" t="s">
         <v>56</v>
       </c>
@@ -4318,21 +4401,21 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="7"/>
       <c r="AZ66" s="6"/>
-      <c r="BA66" s="47" t="s">
+      <c r="BA66" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="BB66" s="47"/>
-      <c r="BC66" s="47"/>
-      <c r="BD66" s="48" t="s">
+      <c r="BB66" s="48"/>
+      <c r="BC66" s="48"/>
+      <c r="BD66" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="BE66" s="49"/>
-      <c r="BF66" s="49"/>
-      <c r="BG66" s="49"/>
-      <c r="BH66" s="49"/>
-      <c r="BI66" s="49"/>
-      <c r="BJ66" s="49"/>
-      <c r="BK66" s="50"/>
+      <c r="BE66" s="51"/>
+      <c r="BF66" s="51"/>
+      <c r="BG66" s="51"/>
+      <c r="BH66" s="51"/>
+      <c r="BI66" s="51"/>
+      <c r="BJ66" s="51"/>
+      <c r="BK66" s="52"/>
       <c r="BL66" s="16" t="s">
         <v>56</v>
       </c>
@@ -4584,18 +4667,18 @@
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="52" t="s">
+      <c r="S70" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="T70" s="52"/>
-      <c r="U70" s="47" t="s">
+      <c r="T70" s="57"/>
+      <c r="U70" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="V70" s="47"/>
-      <c r="W70" s="47" t="s">
+      <c r="V70" s="48"/>
+      <c r="W70" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="X70" s="47"/>
+      <c r="X70" s="48"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -4624,18 +4707,18 @@
       <c r="AX70" s="7"/>
       <c r="AZ70" s="6"/>
       <c r="BA70" s="6"/>
-      <c r="BB70" s="54" t="s">
+      <c r="BB70" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="BC70" s="54"/>
-      <c r="BD70" s="47" t="s">
+      <c r="BC70" s="55"/>
+      <c r="BD70" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="BE70" s="47"/>
-      <c r="BF70" s="47" t="s">
+      <c r="BE70" s="48"/>
+      <c r="BF70" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="BG70" s="47"/>
+      <c r="BG70" s="48"/>
       <c r="BH70" s="7"/>
       <c r="BI70" s="1"/>
       <c r="BJ70" s="1"/>
@@ -4670,18 +4753,18 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="47" t="s">
+      <c r="T71" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="U71" s="47"/>
-      <c r="V71" s="47" t="s">
+      <c r="U71" s="48"/>
+      <c r="V71" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="W71" s="47"/>
-      <c r="X71" s="47" t="s">
+      <c r="W71" s="48"/>
+      <c r="X71" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Y71" s="53"/>
+      <c r="Y71" s="54"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
@@ -4712,18 +4795,18 @@
       <c r="AZ71" s="6"/>
       <c r="BA71" s="6"/>
       <c r="BB71" s="1"/>
-      <c r="BC71" s="47" t="s">
+      <c r="BC71" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="BD71" s="47"/>
-      <c r="BE71" s="47" t="s">
+      <c r="BD71" s="48"/>
+      <c r="BE71" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="BF71" s="47"/>
-      <c r="BG71" s="47" t="s">
+      <c r="BF71" s="48"/>
+      <c r="BG71" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="BH71" s="53"/>
+      <c r="BH71" s="54"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
@@ -4759,10 +4842,10 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="47" t="s">
+      <c r="T72" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="U72" s="47"/>
+      <c r="U72" s="48"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
@@ -4797,10 +4880,10 @@
       <c r="AZ72" s="6"/>
       <c r="BA72" s="6"/>
       <c r="BB72" s="1"/>
-      <c r="BC72" s="47" t="s">
+      <c r="BC72" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="BD72" s="47"/>
+      <c r="BD72" s="48"/>
       <c r="BE72" s="1"/>
       <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
@@ -4836,10 +4919,10 @@
     <row r="73" spans="3:85" ht="18" customHeight="1">
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="S73" s="47" t="s">
+      <c r="S73" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="T73" s="47"/>
+      <c r="T73" s="48"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -4876,10 +4959,10 @@
       <c r="AX73" s="7"/>
       <c r="AZ73" s="6"/>
       <c r="BA73" s="6"/>
-      <c r="BB73" s="47" t="s">
+      <c r="BB73" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="BC73" s="47"/>
+      <c r="BC73" s="48"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
       <c r="BF73" s="1"/>
@@ -4923,10 +5006,10 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="47" t="s">
+      <c r="T74" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="U74" s="47"/>
+      <c r="U74" s="48"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
@@ -4959,10 +5042,10 @@
       <c r="AZ74" s="6"/>
       <c r="BA74" s="6"/>
       <c r="BB74" s="1"/>
-      <c r="BC74" s="47" t="s">
+      <c r="BC74" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="BD74" s="47"/>
+      <c r="BD74" s="48"/>
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
       <c r="BG74" s="1"/>
@@ -4997,10 +5080,10 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="47" t="s">
+      <c r="T75" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="U75" s="47"/>
+      <c r="U75" s="48"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
@@ -5033,10 +5116,10 @@
       <c r="AZ75" s="6"/>
       <c r="BA75" s="6"/>
       <c r="BB75" s="1"/>
-      <c r="BC75" s="47" t="s">
+      <c r="BC75" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="BD75" s="47"/>
+      <c r="BD75" s="48"/>
       <c r="BE75" s="1"/>
       <c r="BF75" s="1"/>
       <c r="BG75" s="1"/>
@@ -5611,21 +5694,21 @@
     <row r="88" spans="2:85" ht="18" customHeight="1">
       <c r="Q88" s="6"/>
       <c r="R88" s="1"/>
-      <c r="S88" s="47" t="s">
+      <c r="S88" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="T88" s="47"/>
-      <c r="U88" s="47"/>
-      <c r="V88" s="48" t="s">
+      <c r="T88" s="48"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="W88" s="49"/>
-      <c r="X88" s="49"/>
-      <c r="Y88" s="49"/>
-      <c r="Z88" s="49"/>
-      <c r="AA88" s="49"/>
-      <c r="AB88" s="49"/>
-      <c r="AC88" s="50"/>
+      <c r="W88" s="51"/>
+      <c r="X88" s="51"/>
+      <c r="Y88" s="51"/>
+      <c r="Z88" s="51"/>
+      <c r="AA88" s="51"/>
+      <c r="AB88" s="51"/>
+      <c r="AC88" s="52"/>
       <c r="AD88" s="16" t="s">
         <v>56</v>
       </c>
@@ -5659,10 +5742,10 @@
       </c>
       <c r="Q89" s="6"/>
       <c r="R89" s="1"/>
-      <c r="S89" s="46" t="s">
+      <c r="S89" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T89" s="46"/>
+      <c r="T89" s="47"/>
       <c r="U89" s="14"/>
       <c r="V89" s="20"/>
       <c r="W89" s="20"/>
@@ -5703,48 +5786,48 @@
       </c>
       <c r="Q90" s="6"/>
       <c r="R90" s="1"/>
-      <c r="S90" s="46" t="s">
+      <c r="S90" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="T90" s="46"/>
-      <c r="U90" s="46"/>
+      <c r="T90" s="47"/>
+      <c r="U90" s="47"/>
       <c r="V90" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="W90" s="44"/>
-      <c r="X90" s="44"/>
+      <c r="W90" s="49"/>
+      <c r="X90" s="49"/>
       <c r="Y90" s="43"/>
-      <c r="Z90" s="46" t="s">
+      <c r="Z90" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="AA90" s="46"/>
-      <c r="AB90" s="46" t="s">
+      <c r="AA90" s="47"/>
+      <c r="AB90" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AC90" s="46"/>
-      <c r="AD90" s="46"/>
-      <c r="AE90" s="46"/>
-      <c r="AF90" s="46"/>
-      <c r="AG90" s="46"/>
+      <c r="AC90" s="47"/>
+      <c r="AD90" s="47"/>
+      <c r="AE90" s="47"/>
+      <c r="AF90" s="47"/>
+      <c r="AG90" s="47"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="7"/>
       <c r="AM90" s="6"/>
       <c r="AN90" s="1"/>
-      <c r="AO90" s="47" t="s">
+      <c r="AO90" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AP90" s="47"/>
-      <c r="AQ90" s="47"/>
-      <c r="AR90" s="48" t="s">
+      <c r="AP90" s="48"/>
+      <c r="AQ90" s="48"/>
+      <c r="AR90" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="AS90" s="49"/>
-      <c r="AT90" s="49"/>
-      <c r="AU90" s="49"/>
-      <c r="AV90" s="49"/>
-      <c r="AW90" s="49"/>
-      <c r="AX90" s="49"/>
-      <c r="AY90" s="50"/>
+      <c r="AS90" s="51"/>
+      <c r="AT90" s="51"/>
+      <c r="AU90" s="51"/>
+      <c r="AV90" s="51"/>
+      <c r="AW90" s="51"/>
+      <c r="AX90" s="51"/>
+      <c r="AY90" s="52"/>
       <c r="AZ90" s="25" t="s">
         <v>56</v>
       </c>
@@ -5757,21 +5840,21 @@
       </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="1"/>
-      <c r="S91" s="46" t="s">
+      <c r="S91" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="T91" s="46"/>
-      <c r="U91" s="46"/>
+      <c r="T91" s="47"/>
+      <c r="U91" s="47"/>
       <c r="V91" s="42"/>
-      <c r="W91" s="44"/>
-      <c r="X91" s="44"/>
+      <c r="W91" s="49"/>
+      <c r="X91" s="49"/>
       <c r="Y91" s="43"/>
       <c r="Z91" s="42"/>
       <c r="AA91" s="43"/>
-      <c r="AB91" s="46" t="s">
+      <c r="AB91" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AC91" s="46"/>
+      <c r="AC91" s="47"/>
       <c r="AD91" s="42" t="s">
         <v>8</v>
       </c>
@@ -5805,19 +5888,19 @@
       </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="1"/>
-      <c r="S92" s="46" t="s">
+      <c r="S92" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="T92" s="46"/>
-      <c r="U92" s="46"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
       <c r="V92" s="42"/>
-      <c r="W92" s="44"/>
-      <c r="X92" s="44"/>
+      <c r="W92" s="49"/>
+      <c r="X92" s="49"/>
       <c r="Y92" s="43"/>
       <c r="Z92" s="42"/>
       <c r="AA92" s="43"/>
-      <c r="AB92" s="46"/>
-      <c r="AC92" s="46"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="47"/>
       <c r="AD92" s="42"/>
       <c r="AE92" s="43"/>
       <c r="AF92" s="42"/>
@@ -5849,19 +5932,19 @@
       </c>
       <c r="Q93" s="6"/>
       <c r="R93" s="1"/>
-      <c r="S93" s="46" t="s">
+      <c r="S93" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="T93" s="46"/>
-      <c r="U93" s="46"/>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47"/>
       <c r="V93" s="42"/>
-      <c r="W93" s="44"/>
-      <c r="X93" s="44"/>
+      <c r="W93" s="49"/>
+      <c r="X93" s="49"/>
       <c r="Y93" s="43"/>
       <c r="Z93" s="42"/>
       <c r="AA93" s="43"/>
-      <c r="AB93" s="46"/>
-      <c r="AC93" s="46"/>
+      <c r="AB93" s="47"/>
+      <c r="AC93" s="47"/>
       <c r="AD93" s="42"/>
       <c r="AE93" s="43"/>
       <c r="AF93" s="42"/>
@@ -5891,19 +5974,19 @@
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="51" t="s">
+      <c r="S94" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="T94" s="51"/>
-      <c r="U94" s="51"/>
+      <c r="T94" s="58"/>
+      <c r="U94" s="58"/>
       <c r="V94" s="42"/>
-      <c r="W94" s="44"/>
-      <c r="X94" s="44"/>
+      <c r="W94" s="49"/>
+      <c r="X94" s="49"/>
       <c r="Y94" s="43"/>
       <c r="Z94" s="42"/>
       <c r="AA94" s="43"/>
-      <c r="AB94" s="46"/>
-      <c r="AC94" s="46"/>
+      <c r="AB94" s="47"/>
+      <c r="AC94" s="47"/>
       <c r="AD94" s="42"/>
       <c r="AE94" s="43"/>
       <c r="AF94" s="42"/>
@@ -6106,18 +6189,18 @@
         <v>122</v>
       </c>
       <c r="Q102" s="6"/>
-      <c r="R102" s="47" t="s">
+      <c r="R102" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="S102" s="47"/>
-      <c r="T102" s="47"/>
+      <c r="S102" s="48"/>
+      <c r="T102" s="48"/>
       <c r="U102" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="V102" s="44"/>
-      <c r="W102" s="44"/>
-      <c r="X102" s="44"/>
-      <c r="Y102" s="44"/>
+      <c r="V102" s="49"/>
+      <c r="W102" s="49"/>
+      <c r="X102" s="49"/>
+      <c r="Y102" s="49"/>
       <c r="Z102" s="26" t="s">
         <v>56</v>
       </c>
@@ -6129,34 +6212,34 @@
       <c r="AD102" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AE102" s="44"/>
-      <c r="AF102" s="44"/>
-      <c r="AG102" s="44"/>
-      <c r="AH102" s="44"/>
+      <c r="AE102" s="49"/>
+      <c r="AF102" s="49"/>
+      <c r="AG102" s="49"/>
+      <c r="AH102" s="49"/>
       <c r="AI102" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="AK102" s="47" t="s">
+      <c r="AK102" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="AL102" s="53"/>
+      <c r="AL102" s="54"/>
       <c r="AM102" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AN102" s="44"/>
-      <c r="AO102" s="44"/>
-      <c r="AP102" s="44"/>
-      <c r="AQ102" s="44"/>
+      <c r="AN102" s="49"/>
+      <c r="AO102" s="49"/>
+      <c r="AP102" s="49"/>
+      <c r="AQ102" s="49"/>
       <c r="AR102" s="26" t="s">
         <v>56</v>
       </c>
       <c r="AS102" s="1"/>
-      <c r="AT102" s="47" t="s">
+      <c r="AT102" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="AU102" s="47"/>
+      <c r="AU102" s="48"/>
       <c r="AV102" s="42"/>
-      <c r="AW102" s="44"/>
+      <c r="AW102" s="49"/>
       <c r="AX102" s="43"/>
       <c r="AZ102" s="42" t="s">
         <v>118</v>
@@ -6462,13 +6545,13 @@
       <c r="S106" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="T106" s="44"/>
-      <c r="U106" s="44"/>
+      <c r="T106" s="49"/>
+      <c r="U106" s="49"/>
       <c r="V106" s="43"/>
       <c r="W106" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="X106" s="44"/>
+      <c r="X106" s="49"/>
       <c r="Y106" s="43"/>
       <c r="Z106" s="42" t="s">
         <v>86</v>
@@ -6477,30 +6560,30 @@
       <c r="AB106" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AC106" s="44"/>
+      <c r="AC106" s="49"/>
       <c r="AD106" s="43"/>
       <c r="AE106" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="AF106" s="44"/>
+      <c r="AF106" s="49"/>
       <c r="AG106" s="43"/>
       <c r="AH106" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="AI106" s="44"/>
+      <c r="AI106" s="49"/>
       <c r="AJ106" s="43"/>
       <c r="AK106" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="AL106" s="44"/>
+      <c r="AL106" s="49"/>
       <c r="AM106" s="43"/>
       <c r="AN106" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="AO106" s="44"/>
-      <c r="AP106" s="44"/>
-      <c r="AQ106" s="44"/>
-      <c r="AR106" s="44"/>
+      <c r="AO106" s="49"/>
+      <c r="AP106" s="49"/>
+      <c r="AQ106" s="49"/>
+      <c r="AR106" s="49"/>
       <c r="AS106" s="43"/>
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
@@ -6612,10 +6695,10 @@
       <c r="BM107" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="BN107" s="44"/>
-      <c r="BO107" s="44"/>
-      <c r="BP107" s="44"/>
-      <c r="BQ107" s="44"/>
+      <c r="BN107" s="49"/>
+      <c r="BO107" s="49"/>
+      <c r="BP107" s="49"/>
+      <c r="BQ107" s="49"/>
       <c r="BR107" s="32" t="s">
         <v>56</v>
       </c>
@@ -6713,21 +6796,21 @@
       <c r="BU108" s="1"/>
       <c r="BV108" s="7"/>
       <c r="BX108" s="6"/>
-      <c r="BY108" s="47" t="s">
+      <c r="BY108" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="BZ108" s="47"/>
-      <c r="CA108" s="47"/>
-      <c r="CB108" s="48" t="s">
+      <c r="BZ108" s="48"/>
+      <c r="CA108" s="48"/>
+      <c r="CB108" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="CC108" s="49"/>
-      <c r="CD108" s="49"/>
-      <c r="CE108" s="49"/>
-      <c r="CF108" s="49"/>
-      <c r="CG108" s="49"/>
-      <c r="CH108" s="49"/>
-      <c r="CI108" s="50"/>
+      <c r="CC108" s="51"/>
+      <c r="CD108" s="51"/>
+      <c r="CE108" s="51"/>
+      <c r="CF108" s="51"/>
+      <c r="CG108" s="51"/>
+      <c r="CH108" s="51"/>
+      <c r="CI108" s="52"/>
       <c r="CJ108" s="16" t="s">
         <v>56</v>
       </c>
@@ -6877,20 +6960,20 @@
       <c r="BU110" s="1"/>
       <c r="BV110" s="7"/>
       <c r="BX110" s="6"/>
-      <c r="BY110" s="47" t="s">
+      <c r="BY110" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="BZ110" s="53"/>
-      <c r="CA110" s="48" t="s">
+      <c r="BZ110" s="54"/>
+      <c r="CA110" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="CB110" s="49"/>
-      <c r="CC110" s="49"/>
-      <c r="CD110" s="49"/>
-      <c r="CE110" s="49"/>
-      <c r="CF110" s="49"/>
-      <c r="CG110" s="49"/>
-      <c r="CH110" s="50"/>
+      <c r="CB110" s="51"/>
+      <c r="CC110" s="51"/>
+      <c r="CD110" s="51"/>
+      <c r="CE110" s="51"/>
+      <c r="CF110" s="51"/>
+      <c r="CG110" s="51"/>
+      <c r="CH110" s="52"/>
       <c r="CI110" s="16" t="s">
         <v>56</v>
       </c>
@@ -7046,20 +7129,20 @@
       <c r="BU112" s="1"/>
       <c r="BV112" s="7"/>
       <c r="BX112" s="6"/>
-      <c r="BY112" s="47" t="s">
+      <c r="BY112" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="BZ112" s="53"/>
-      <c r="CA112" s="48" t="s">
+      <c r="BZ112" s="54"/>
+      <c r="CA112" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="CB112" s="49"/>
-      <c r="CC112" s="49"/>
-      <c r="CD112" s="49"/>
-      <c r="CE112" s="49"/>
-      <c r="CF112" s="49"/>
-      <c r="CG112" s="49"/>
-      <c r="CH112" s="50"/>
+      <c r="CB112" s="51"/>
+      <c r="CC112" s="51"/>
+      <c r="CD112" s="51"/>
+      <c r="CE112" s="51"/>
+      <c r="CF112" s="51"/>
+      <c r="CG112" s="51"/>
+      <c r="CH112" s="52"/>
       <c r="CI112" s="26" t="s">
         <v>56</v>
       </c>
@@ -7340,7 +7423,7 @@
         <v>159</v>
       </c>
       <c r="J116" s="29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q116" s="6"/>
       <c r="R116" s="1"/>
@@ -7492,7 +7575,7 @@
         <v>244</v>
       </c>
       <c r="K118" s="31" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="Q118" s="8"/>
       <c r="R118" s="2"/>
@@ -7582,7 +7665,7 @@
         <v>242</v>
       </c>
       <c r="K120" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:119" ht="18" customHeight="1">
@@ -7590,7 +7673,7 @@
         <v>241</v>
       </c>
       <c r="K121" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:119" s="2" customFormat="1" ht="18" customHeight="1">
@@ -7675,17 +7758,17 @@
         <v>166</v>
       </c>
       <c r="S126" s="1"/>
-      <c r="T126" s="46"/>
-      <c r="U126" s="46"/>
-      <c r="V126" s="46"/>
+      <c r="T126" s="47"/>
+      <c r="U126" s="47"/>
+      <c r="V126" s="47"/>
       <c r="W126" s="1"/>
       <c r="X126" s="1" t="s">
         <v>168</v>
       </c>
       <c r="Y126" s="1"/>
-      <c r="Z126" s="46"/>
-      <c r="AA126" s="46"/>
-      <c r="AB126" s="46"/>
+      <c r="Z126" s="47"/>
+      <c r="AA126" s="47"/>
+      <c r="AB126" s="47"/>
       <c r="AC126" s="1"/>
       <c r="AD126" s="42" t="s">
         <v>118</v>
@@ -7763,20 +7846,20 @@
         <v>224</v>
       </c>
       <c r="Q128" s="6"/>
-      <c r="R128" s="46" t="s">
+      <c r="R128" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="S128" s="46"/>
+      <c r="S128" s="47"/>
       <c r="T128" s="1"/>
-      <c r="U128" s="46" t="s">
+      <c r="U128" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="V128" s="46"/>
+      <c r="V128" s="47"/>
       <c r="W128" s="1"/>
-      <c r="X128" s="46" t="s">
+      <c r="X128" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="Y128" s="46"/>
+      <c r="Y128" s="47"/>
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
@@ -7897,10 +7980,10 @@
         <v>207</v>
       </c>
       <c r="AN129" s="1"/>
-      <c r="AO129" s="46"/>
-      <c r="AP129" s="46"/>
-      <c r="AQ129" s="46"/>
-      <c r="AR129" s="46"/>
+      <c r="AO129" s="47"/>
+      <c r="AP129" s="47"/>
+      <c r="AQ129" s="47"/>
+      <c r="AR129" s="47"/>
       <c r="AS129" s="26" t="s">
         <v>56</v>
       </c>
@@ -8014,12 +8097,12 @@
       <c r="AA130" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="AB130" s="44"/>
-      <c r="AC130" s="44"/>
-      <c r="AD130" s="44"/>
-      <c r="AE130" s="44"/>
-      <c r="AF130" s="44"/>
-      <c r="AG130" s="44"/>
+      <c r="AB130" s="49"/>
+      <c r="AC130" s="49"/>
+      <c r="AD130" s="49"/>
+      <c r="AE130" s="49"/>
+      <c r="AF130" s="49"/>
+      <c r="AG130" s="49"/>
       <c r="AH130" s="43"/>
       <c r="AI130" s="7"/>
       <c r="AL130" s="6"/>
@@ -8115,22 +8198,22 @@
       <c r="Z131" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="AA131" s="46" t="s">
+      <c r="AA131" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="AB131" s="46"/>
-      <c r="AC131" s="46" t="s">
+      <c r="AB131" s="47"/>
+      <c r="AC131" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="AD131" s="46"/>
-      <c r="AE131" s="46" t="s">
+      <c r="AD131" s="47"/>
+      <c r="AE131" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="AF131" s="46"/>
-      <c r="AG131" s="46" t="s">
+      <c r="AF131" s="47"/>
+      <c r="AG131" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="AH131" s="46"/>
+      <c r="AH131" s="47"/>
       <c r="AI131" s="7"/>
       <c r="AL131" s="6"/>
       <c r="AM131" s="1" t="s">
@@ -8144,20 +8227,20 @@
       <c r="AS131" s="13"/>
       <c r="AU131" s="7"/>
       <c r="AX131" s="6"/>
-      <c r="AY131" s="46" t="s">
+      <c r="AY131" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="AZ131" s="46"/>
-      <c r="BA131" s="46" t="s">
+      <c r="AZ131" s="47"/>
+      <c r="BA131" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="BB131" s="46"/>
-      <c r="BC131" s="46"/>
-      <c r="BD131" s="46" t="s">
+      <c r="BB131" s="47"/>
+      <c r="BC131" s="47"/>
+      <c r="BD131" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="BE131" s="46"/>
-      <c r="BF131" s="46"/>
+      <c r="BE131" s="47"/>
+      <c r="BF131" s="47"/>
       <c r="BG131" s="42" t="s">
         <v>199</v>
       </c>
@@ -8242,14 +8325,14 @@
       <c r="X132" s="43"/>
       <c r="Y132" s="42"/>
       <c r="Z132" s="43"/>
-      <c r="AA132" s="46"/>
-      <c r="AB132" s="46"/>
-      <c r="AC132" s="46"/>
-      <c r="AD132" s="46"/>
-      <c r="AE132" s="46"/>
-      <c r="AF132" s="46"/>
-      <c r="AG132" s="46"/>
-      <c r="AH132" s="46"/>
+      <c r="AA132" s="47"/>
+      <c r="AB132" s="47"/>
+      <c r="AC132" s="47"/>
+      <c r="AD132" s="47"/>
+      <c r="AE132" s="47"/>
+      <c r="AF132" s="47"/>
+      <c r="AG132" s="47"/>
+      <c r="AH132" s="47"/>
       <c r="AI132" s="7"/>
       <c r="AL132" s="6"/>
       <c r="AM132" s="1"/>
@@ -8262,20 +8345,20 @@
       <c r="AT132" s="1"/>
       <c r="AU132" s="7"/>
       <c r="AX132" s="6"/>
-      <c r="AY132" s="46">
+      <c r="AY132" s="47">
         <v>1</v>
       </c>
-      <c r="AZ132" s="46"/>
-      <c r="BA132" s="55" t="s">
+      <c r="AZ132" s="47"/>
+      <c r="BA132" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="BB132" s="55"/>
-      <c r="BC132" s="55"/>
-      <c r="BD132" s="46" t="s">
+      <c r="BB132" s="53"/>
+      <c r="BC132" s="53"/>
+      <c r="BD132" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="BE132" s="46"/>
-      <c r="BF132" s="46"/>
+      <c r="BE132" s="47"/>
+      <c r="BF132" s="47"/>
       <c r="BG132" s="42" t="s">
         <v>200</v>
       </c>
@@ -8352,14 +8435,14 @@
       <c r="X133" s="43"/>
       <c r="Y133" s="42"/>
       <c r="Z133" s="43"/>
-      <c r="AA133" s="46"/>
-      <c r="AB133" s="46"/>
-      <c r="AC133" s="46"/>
-      <c r="AD133" s="46"/>
-      <c r="AE133" s="46"/>
-      <c r="AF133" s="46"/>
-      <c r="AG133" s="46"/>
-      <c r="AH133" s="46"/>
+      <c r="AA133" s="47"/>
+      <c r="AB133" s="47"/>
+      <c r="AC133" s="47"/>
+      <c r="AD133" s="47"/>
+      <c r="AE133" s="47"/>
+      <c r="AF133" s="47"/>
+      <c r="AG133" s="47"/>
+      <c r="AH133" s="47"/>
       <c r="AI133" s="7"/>
       <c r="AL133" s="6"/>
       <c r="AM133" s="1" t="s">
@@ -8373,18 +8456,18 @@
       <c r="AS133" s="5"/>
       <c r="AU133" s="7"/>
       <c r="AX133" s="6"/>
-      <c r="AY133" s="46">
+      <c r="AY133" s="47">
         <v>2</v>
       </c>
-      <c r="AZ133" s="46"/>
-      <c r="BA133" s="46" t="s">
+      <c r="AZ133" s="47"/>
+      <c r="BA133" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="BB133" s="46"/>
-      <c r="BC133" s="46"/>
-      <c r="BD133" s="46"/>
-      <c r="BE133" s="46"/>
-      <c r="BF133" s="46"/>
+      <c r="BB133" s="47"/>
+      <c r="BC133" s="47"/>
+      <c r="BD133" s="47"/>
+      <c r="BE133" s="47"/>
+      <c r="BF133" s="47"/>
       <c r="BG133" s="42"/>
       <c r="BH133" s="43"/>
       <c r="BI133" s="23" t="s">
@@ -8459,14 +8542,14 @@
       <c r="X134" s="43"/>
       <c r="Y134" s="42"/>
       <c r="Z134" s="43"/>
-      <c r="AA134" s="46"/>
-      <c r="AB134" s="46"/>
-      <c r="AC134" s="46"/>
-      <c r="AD134" s="46"/>
-      <c r="AE134" s="46"/>
-      <c r="AF134" s="46"/>
-      <c r="AG134" s="46"/>
-      <c r="AH134" s="46"/>
+      <c r="AA134" s="47"/>
+      <c r="AB134" s="47"/>
+      <c r="AC134" s="47"/>
+      <c r="AD134" s="47"/>
+      <c r="AE134" s="47"/>
+      <c r="AF134" s="47"/>
+      <c r="AG134" s="47"/>
+      <c r="AH134" s="47"/>
       <c r="AI134" s="7"/>
       <c r="AL134" s="6"/>
       <c r="AM134" s="1"/>
@@ -8478,16 +8561,16 @@
       <c r="AS134" s="7"/>
       <c r="AU134" s="7"/>
       <c r="AX134" s="6"/>
-      <c r="AY134" s="46">
+      <c r="AY134" s="47">
         <v>3</v>
       </c>
-      <c r="AZ134" s="46"/>
-      <c r="BA134" s="46"/>
-      <c r="BB134" s="46"/>
-      <c r="BC134" s="46"/>
-      <c r="BD134" s="46"/>
-      <c r="BE134" s="46"/>
-      <c r="BF134" s="46"/>
+      <c r="AZ134" s="47"/>
+      <c r="BA134" s="47"/>
+      <c r="BB134" s="47"/>
+      <c r="BC134" s="47"/>
+      <c r="BD134" s="47"/>
+      <c r="BE134" s="47"/>
+      <c r="BF134" s="47"/>
       <c r="BG134" s="42"/>
       <c r="BH134" s="43"/>
       <c r="BI134" s="1"/>
@@ -8569,14 +8652,14 @@
       <c r="X135" s="43"/>
       <c r="Y135" s="42"/>
       <c r="Z135" s="43"/>
-      <c r="AA135" s="46"/>
-      <c r="AB135" s="46"/>
-      <c r="AC135" s="46"/>
-      <c r="AD135" s="46"/>
-      <c r="AE135" s="46"/>
-      <c r="AF135" s="46"/>
-      <c r="AG135" s="46"/>
-      <c r="AH135" s="46"/>
+      <c r="AA135" s="47"/>
+      <c r="AB135" s="47"/>
+      <c r="AC135" s="47"/>
+      <c r="AD135" s="47"/>
+      <c r="AE135" s="47"/>
+      <c r="AF135" s="47"/>
+      <c r="AG135" s="47"/>
+      <c r="AH135" s="47"/>
       <c r="AI135" s="7"/>
       <c r="AL135" s="6"/>
       <c r="AM135" s="1"/>
@@ -8659,7 +8742,7 @@
     </row>
     <row r="136" spans="4:119" ht="18" customHeight="1">
       <c r="D136" s="29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="15"/>
@@ -8671,14 +8754,14 @@
       <c r="X136" s="43"/>
       <c r="Y136" s="42"/>
       <c r="Z136" s="43"/>
-      <c r="AA136" s="46"/>
-      <c r="AB136" s="46"/>
-      <c r="AC136" s="46"/>
-      <c r="AD136" s="46"/>
-      <c r="AE136" s="46"/>
-      <c r="AF136" s="46"/>
-      <c r="AG136" s="46"/>
-      <c r="AH136" s="46"/>
+      <c r="AA136" s="47"/>
+      <c r="AB136" s="47"/>
+      <c r="AC136" s="47"/>
+      <c r="AD136" s="47"/>
+      <c r="AE136" s="47"/>
+      <c r="AF136" s="47"/>
+      <c r="AG136" s="47"/>
+      <c r="AH136" s="47"/>
       <c r="AI136" s="7"/>
       <c r="AL136" s="6"/>
       <c r="AM136" s="1"/>
@@ -8749,20 +8832,20 @@
       <c r="CX136" s="2"/>
       <c r="CY136" s="9"/>
       <c r="DC136" s="6"/>
-      <c r="DD136" s="46" t="s">
+      <c r="DD136" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="DE136" s="46"/>
-      <c r="DF136" s="46" t="s">
+      <c r="DE136" s="47"/>
+      <c r="DF136" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="DG136" s="46"/>
-      <c r="DH136" s="46"/>
-      <c r="DI136" s="46" t="s">
+      <c r="DG136" s="47"/>
+      <c r="DH136" s="47"/>
+      <c r="DI136" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="DJ136" s="46"/>
-      <c r="DK136" s="46"/>
+      <c r="DJ136" s="47"/>
+      <c r="DK136" s="47"/>
       <c r="DL136" s="42" t="s">
         <v>199</v>
       </c>
@@ -8784,14 +8867,14 @@
       <c r="X137" s="43"/>
       <c r="Y137" s="42"/>
       <c r="Z137" s="43"/>
-      <c r="AA137" s="46"/>
-      <c r="AB137" s="46"/>
-      <c r="AC137" s="46"/>
-      <c r="AD137" s="46"/>
-      <c r="AE137" s="46"/>
-      <c r="AF137" s="46"/>
-      <c r="AG137" s="46"/>
-      <c r="AH137" s="46"/>
+      <c r="AA137" s="47"/>
+      <c r="AB137" s="47"/>
+      <c r="AC137" s="47"/>
+      <c r="AD137" s="47"/>
+      <c r="AE137" s="47"/>
+      <c r="AF137" s="47"/>
+      <c r="AG137" s="47"/>
+      <c r="AH137" s="47"/>
       <c r="AI137" s="7"/>
       <c r="AL137" s="6"/>
       <c r="AM137" s="1"/>
@@ -8848,20 +8931,20 @@
       <c r="CL137" s="1"/>
       <c r="CM137" s="1"/>
       <c r="DC137" s="6"/>
-      <c r="DD137" s="46">
+      <c r="DD137" s="47">
         <v>1</v>
       </c>
-      <c r="DE137" s="46"/>
-      <c r="DF137" s="46" t="s">
+      <c r="DE137" s="47"/>
+      <c r="DF137" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="DG137" s="46"/>
-      <c r="DH137" s="46"/>
-      <c r="DI137" s="46" t="s">
+      <c r="DG137" s="47"/>
+      <c r="DH137" s="47"/>
+      <c r="DI137" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="DJ137" s="46"/>
-      <c r="DK137" s="46"/>
+      <c r="DJ137" s="47"/>
+      <c r="DK137" s="47"/>
       <c r="DL137" s="42" t="s">
         <v>186</v>
       </c>
@@ -8871,10 +8954,10 @@
     </row>
     <row r="138" spans="4:119" ht="18" customHeight="1">
       <c r="D138" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G138" s="29" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="Q138" s="6"/>
       <c r="R138" s="15"/>
@@ -8886,14 +8969,14 @@
       <c r="X138" s="43"/>
       <c r="Y138" s="42"/>
       <c r="Z138" s="43"/>
-      <c r="AA138" s="46"/>
-      <c r="AB138" s="46"/>
-      <c r="AC138" s="46"/>
-      <c r="AD138" s="46"/>
-      <c r="AE138" s="46"/>
-      <c r="AF138" s="46"/>
-      <c r="AG138" s="46"/>
-      <c r="AH138" s="46"/>
+      <c r="AA138" s="47"/>
+      <c r="AB138" s="47"/>
+      <c r="AC138" s="47"/>
+      <c r="AD138" s="47"/>
+      <c r="AE138" s="47"/>
+      <c r="AF138" s="47"/>
+      <c r="AG138" s="47"/>
+      <c r="AH138" s="47"/>
       <c r="AI138" s="7"/>
       <c r="AL138" s="8"/>
       <c r="AM138" s="2"/>
@@ -8941,18 +9024,18 @@
       <c r="CL138" s="1"/>
       <c r="CM138" s="1"/>
       <c r="DC138" s="6"/>
-      <c r="DD138" s="46">
+      <c r="DD138" s="47">
         <v>2</v>
       </c>
-      <c r="DE138" s="46"/>
-      <c r="DF138" s="46" t="s">
+      <c r="DE138" s="47"/>
+      <c r="DF138" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="DG138" s="46"/>
-      <c r="DH138" s="46"/>
-      <c r="DI138" s="46"/>
-      <c r="DJ138" s="46"/>
-      <c r="DK138" s="46"/>
+      <c r="DG138" s="47"/>
+      <c r="DH138" s="47"/>
+      <c r="DI138" s="47"/>
+      <c r="DJ138" s="47"/>
+      <c r="DK138" s="47"/>
       <c r="DL138" s="42"/>
       <c r="DM138" s="43"/>
       <c r="DN138" s="1"/>
@@ -8960,7 +9043,7 @@
     </row>
     <row r="139" spans="4:119" ht="18" customHeight="1">
       <c r="D139" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q139" s="6"/>
       <c r="R139" s="1"/>
@@ -9026,16 +9109,16 @@
       <c r="CL139" s="1"/>
       <c r="CM139" s="1"/>
       <c r="DC139" s="6"/>
-      <c r="DD139" s="46">
+      <c r="DD139" s="47">
         <v>3</v>
       </c>
-      <c r="DE139" s="46"/>
-      <c r="DF139" s="46"/>
-      <c r="DG139" s="46"/>
-      <c r="DH139" s="46"/>
-      <c r="DI139" s="46"/>
-      <c r="DJ139" s="46"/>
-      <c r="DK139" s="46"/>
+      <c r="DE139" s="47"/>
+      <c r="DF139" s="47"/>
+      <c r="DG139" s="47"/>
+      <c r="DH139" s="47"/>
+      <c r="DI139" s="47"/>
+      <c r="DJ139" s="47"/>
+      <c r="DK139" s="47"/>
       <c r="DL139" s="42"/>
       <c r="DM139" s="43"/>
       <c r="DN139" s="1"/>
@@ -9043,7 +9126,7 @@
     </row>
     <row r="140" spans="4:119" ht="18" customHeight="1">
       <c r="D140" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q140" s="8"/>
       <c r="R140" s="2"/>
@@ -9118,6 +9201,9 @@
       <c r="DO141" s="7"/>
     </row>
     <row r="142" spans="4:119" ht="18" customHeight="1">
+      <c r="D142" s="31" t="s">
+        <v>278</v>
+      </c>
       <c r="CK142" s="1"/>
       <c r="CL142" s="1"/>
       <c r="CM142" s="1"/>
@@ -9136,11 +9222,17 @@
       <c r="DO142" s="9"/>
     </row>
     <row r="143" spans="4:119" ht="18" customHeight="1">
+      <c r="D143" s="29" t="s">
+        <v>279</v>
+      </c>
       <c r="CK143" s="1"/>
       <c r="CL143" s="1"/>
       <c r="CM143" s="1"/>
     </row>
     <row r="144" spans="4:119" ht="18" customHeight="1">
+      <c r="D144" s="29" t="s">
+        <v>280</v>
+      </c>
       <c r="CK144" s="1"/>
       <c r="CL144" s="1"/>
       <c r="CM144" s="1"/>
@@ -9153,39 +9245,47 @@
       <c r="CT144" s="1"/>
       <c r="CU144" s="1"/>
     </row>
-    <row r="145" spans="2:60" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
-      <c r="I145" s="30"/>
-      <c r="J145" s="30"/>
-      <c r="K145" s="30"/>
-      <c r="L145" s="30"/>
-      <c r="M145" s="30"/>
-      <c r="N145" s="9"/>
-    </row>
-    <row r="146" spans="2:60" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B146" s="35"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="35"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="35"/>
-      <c r="I146" s="35"/>
-      <c r="J146" s="35"/>
-      <c r="K146" s="35"/>
-      <c r="L146" s="35"/>
-      <c r="M146" s="35"/>
+    <row r="145" spans="1:60" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="29"/>
+      <c r="K145" s="29"/>
+      <c r="L145" s="29"/>
+      <c r="M145" s="29"/>
+      <c r="N145" s="7"/>
+    </row>
+    <row r="146" spans="1:60" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A146" s="29"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="29"/>
+      <c r="M146" s="29"/>
       <c r="N146" s="7"/>
     </row>
-    <row r="147" spans="2:60" ht="18" customHeight="1">
-      <c r="D147" s="31" t="s">
-        <v>252</v>
+    <row r="147" spans="1:60" ht="18" customHeight="1">
+      <c r="D147" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="Q147" t="s">
         <v>95</v>
@@ -9206,10 +9306,7 @@
       <c r="BG147" s="1"/>
       <c r="BH147" s="1"/>
     </row>
-    <row r="148" spans="2:60" ht="18" customHeight="1">
-      <c r="D148" s="29" t="s">
-        <v>253</v>
-      </c>
+    <row r="148" spans="1:60" ht="18" customHeight="1">
       <c r="Q148" s="3"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
@@ -9244,18 +9341,15 @@
       <c r="BG148" s="1"/>
       <c r="BH148" s="1"/>
     </row>
-    <row r="149" spans="2:60" ht="18" customHeight="1">
-      <c r="D149" s="29" t="s">
-        <v>254</v>
-      </c>
+    <row r="149" spans="1:60" ht="18" customHeight="1">
       <c r="Q149" s="6"/>
       <c r="R149" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="S149" s="46"/>
-      <c r="T149" s="46"/>
-      <c r="U149" s="46"/>
-      <c r="V149" s="46"/>
+      <c r="S149" s="47"/>
+      <c r="T149" s="47"/>
+      <c r="U149" s="47"/>
+      <c r="V149" s="47"/>
       <c r="W149" s="26" t="s">
         <v>56</v>
       </c>
@@ -9263,10 +9357,10 @@
       <c r="Y149" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Z149" s="46"/>
-      <c r="AA149" s="46"/>
-      <c r="AB149" s="46"/>
-      <c r="AC149" s="46"/>
+      <c r="Z149" s="47"/>
+      <c r="AA149" s="47"/>
+      <c r="AB149" s="47"/>
+      <c r="AC149" s="47"/>
       <c r="AD149" s="26" t="s">
         <v>56</v>
       </c>
@@ -9288,9 +9382,9 @@
       <c r="BG149" s="1"/>
       <c r="BH149" s="1"/>
     </row>
-    <row r="150" spans="2:60" ht="18" customHeight="1">
-      <c r="D150" s="29" t="s">
-        <v>255</v>
+    <row r="150" spans="1:60" ht="18" customHeight="1">
+      <c r="D150" s="31" t="s">
+        <v>250</v>
       </c>
       <c r="Q150" s="6"/>
       <c r="R150" s="1"/>
@@ -9332,9 +9426,9 @@
       <c r="BG150" s="1"/>
       <c r="BH150" s="1"/>
     </row>
-    <row r="151" spans="2:60" ht="18" customHeight="1">
+    <row r="151" spans="1:60" ht="18" customHeight="1">
       <c r="D151" s="29" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q151" s="6"/>
       <c r="R151" s="15" t="s">
@@ -9380,7 +9474,10 @@
       <c r="BG151" s="1"/>
       <c r="BH151" s="1"/>
     </row>
-    <row r="152" spans="2:60" ht="18" customHeight="1">
+    <row r="152" spans="1:60" ht="18" customHeight="1">
+      <c r="D152" s="29" t="s">
+        <v>252</v>
+      </c>
       <c r="Q152" s="6"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
@@ -9400,10 +9497,10 @@
         <v>205</v>
       </c>
       <c r="AK152" s="1"/>
-      <c r="AL152" s="46"/>
-      <c r="AM152" s="46"/>
-      <c r="AN152" s="46"/>
-      <c r="AO152" s="46"/>
+      <c r="AL152" s="47"/>
+      <c r="AM152" s="47"/>
+      <c r="AN152" s="47"/>
+      <c r="AO152" s="47"/>
       <c r="AP152" s="26" t="s">
         <v>56</v>
       </c>
@@ -9414,9 +9511,9 @@
       <c r="AU152" s="1"/>
       <c r="AV152" s="1"/>
     </row>
-    <row r="153" spans="2:60" ht="18" customHeight="1">
-      <c r="D153" s="31" t="s">
-        <v>257</v>
+    <row r="153" spans="1:60" ht="18" customHeight="1">
+      <c r="D153" s="29" t="s">
+        <v>253</v>
       </c>
       <c r="Q153" s="6"/>
       <c r="R153" s="11" t="s">
@@ -9463,9 +9560,9 @@
       <c r="AU153" s="1"/>
       <c r="AV153" s="1"/>
     </row>
-    <row r="154" spans="2:60" ht="18" customHeight="1">
+    <row r="154" spans="1:60" ht="18" customHeight="1">
       <c r="D154" s="29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="11"/>
@@ -9484,7 +9581,7 @@
       <c r="AC154" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="AD154" s="36" t="s">
+      <c r="AD154" s="35" t="s">
         <v>211</v>
       </c>
       <c r="AE154" s="7"/>
@@ -9506,10 +9603,7 @@
       <c r="AU154" s="1"/>
       <c r="AV154" s="1"/>
     </row>
-    <row r="155" spans="2:60" ht="18" customHeight="1">
-      <c r="D155" s="29" t="s">
-        <v>258</v>
-      </c>
+    <row r="155" spans="1:60" ht="18" customHeight="1">
       <c r="Q155" s="6"/>
       <c r="R155" s="11"/>
       <c r="S155" s="42"/>
@@ -9523,7 +9617,7 @@
       <c r="AA155" s="11"/>
       <c r="AB155" s="13"/>
       <c r="AC155" s="11"/>
-      <c r="AD155" s="36"/>
+      <c r="AD155" s="35"/>
       <c r="AE155" s="7"/>
       <c r="AH155" s="1"/>
       <c r="AI155" s="6"/>
@@ -9541,9 +9635,9 @@
       <c r="AU155" s="1"/>
       <c r="AV155" s="1"/>
     </row>
-    <row r="156" spans="2:60" ht="18" customHeight="1">
-      <c r="D156" s="29" t="s">
-        <v>259</v>
+    <row r="156" spans="1:60" ht="18" customHeight="1">
+      <c r="D156" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="Q156" s="6"/>
       <c r="R156" s="11"/>
@@ -9558,7 +9652,7 @@
       <c r="AA156" s="11"/>
       <c r="AB156" s="13"/>
       <c r="AC156" s="11"/>
-      <c r="AD156" s="36"/>
+      <c r="AD156" s="35"/>
       <c r="AE156" s="7"/>
       <c r="AH156" s="1"/>
       <c r="AI156" s="6"/>
@@ -9578,7 +9672,10 @@
       <c r="AU156" s="1"/>
       <c r="AV156" s="1"/>
     </row>
-    <row r="157" spans="2:60" ht="18" customHeight="1">
+    <row r="157" spans="1:60" ht="18" customHeight="1">
+      <c r="D157" s="29" t="s">
+        <v>251</v>
+      </c>
       <c r="Q157" s="6"/>
       <c r="R157" s="11"/>
       <c r="S157" s="42"/>
@@ -9592,7 +9689,7 @@
       <c r="AA157" s="11"/>
       <c r="AB157" s="13"/>
       <c r="AC157" s="11"/>
-      <c r="AD157" s="36"/>
+      <c r="AD157" s="35"/>
       <c r="AE157" s="7"/>
       <c r="AH157" s="1"/>
       <c r="AI157" s="6"/>
@@ -9610,7 +9707,10 @@
       <c r="AU157" s="1"/>
       <c r="AV157" s="1"/>
     </row>
-    <row r="158" spans="2:60" ht="18" customHeight="1">
+    <row r="158" spans="1:60" ht="18" customHeight="1">
+      <c r="D158" s="29" t="s">
+        <v>256</v>
+      </c>
       <c r="Q158" s="6"/>
       <c r="R158" s="11"/>
       <c r="S158" s="42"/>
@@ -9624,7 +9724,7 @@
       <c r="AA158" s="11"/>
       <c r="AB158" s="13"/>
       <c r="AC158" s="11"/>
-      <c r="AD158" s="36"/>
+      <c r="AD158" s="35"/>
       <c r="AE158" s="7"/>
       <c r="AH158" s="1"/>
       <c r="AI158" s="6"/>
@@ -9642,7 +9742,10 @@
       <c r="AU158" s="1"/>
       <c r="AV158" s="1"/>
     </row>
-    <row r="159" spans="2:60" ht="18" customHeight="1">
+    <row r="159" spans="1:60" ht="18" customHeight="1">
+      <c r="D159" s="29" t="s">
+        <v>257</v>
+      </c>
       <c r="Q159" s="6"/>
       <c r="R159" s="11"/>
       <c r="S159" s="42"/>
@@ -9656,17 +9759,17 @@
       <c r="AA159" s="11"/>
       <c r="AB159" s="13"/>
       <c r="AC159" s="11"/>
-      <c r="AD159" s="36"/>
+      <c r="AD159" s="35"/>
       <c r="AE159" s="7"/>
       <c r="AH159" s="1"/>
       <c r="AI159" s="6"/>
       <c r="AJ159" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AL159" s="46"/>
-      <c r="AM159" s="46"/>
-      <c r="AN159" s="46"/>
-      <c r="AO159" s="46"/>
+      <c r="AL159" s="47"/>
+      <c r="AM159" s="47"/>
+      <c r="AN159" s="47"/>
+      <c r="AO159" s="47"/>
       <c r="AP159" s="26" t="s">
         <v>56</v>
       </c>
@@ -9677,7 +9780,7 @@
       <c r="AU159" s="1"/>
       <c r="AV159" s="1"/>
     </row>
-    <row r="160" spans="2:60" ht="18" customHeight="1">
+    <row r="160" spans="1:60" ht="18" customHeight="1">
       <c r="Q160" s="6"/>
       <c r="R160" s="11"/>
       <c r="S160" s="42"/>
@@ -9691,7 +9794,7 @@
       <c r="AA160" s="11"/>
       <c r="AB160" s="13"/>
       <c r="AC160" s="11"/>
-      <c r="AD160" s="36"/>
+      <c r="AD160" s="35"/>
       <c r="AE160" s="7"/>
       <c r="AH160" s="1"/>
       <c r="AI160" s="6"/>
@@ -9720,10 +9823,10 @@
         <v>206</v>
       </c>
       <c r="AK161" s="1"/>
-      <c r="AL161" s="46"/>
-      <c r="AM161" s="46"/>
-      <c r="AN161" s="46"/>
-      <c r="AO161" s="46"/>
+      <c r="AL161" s="47"/>
+      <c r="AM161" s="47"/>
+      <c r="AN161" s="47"/>
+      <c r="AO161" s="47"/>
       <c r="AP161" s="26" t="s">
         <v>56</v>
       </c>
@@ -9885,7 +9988,7 @@
     </row>
     <row r="170" spans="4:60" ht="18" customHeight="1">
       <c r="D170" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q170" s="6"/>
       <c r="AE170" s="1"/>
@@ -9902,7 +10005,7 @@
     </row>
     <row r="171" spans="4:60" ht="18" customHeight="1">
       <c r="D171" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q171" s="6"/>
       <c r="AE171" s="1"/>
@@ -9919,7 +10022,7 @@
     </row>
     <row r="172" spans="4:60" ht="18" customHeight="1">
       <c r="D172" s="29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q172" s="6"/>
       <c r="AE172" s="1"/>
@@ -9936,7 +10039,7 @@
     </row>
     <row r="173" spans="4:60" ht="18" customHeight="1">
       <c r="D173" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q173" s="6"/>
       <c r="R173" s="1"/>
@@ -10202,7 +10305,7 @@
     </row>
     <row r="186" spans="2:43" ht="18" customHeight="1">
       <c r="D186" s="29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q186" s="3"/>
       <c r="R186" s="4"/>
@@ -10228,16 +10331,16 @@
     </row>
     <row r="187" spans="2:43" ht="18" customHeight="1">
       <c r="D187" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q187" s="6"/>
       <c r="R187" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="S187" s="46"/>
-      <c r="T187" s="46"/>
-      <c r="U187" s="46"/>
-      <c r="V187" s="46"/>
+      <c r="S187" s="47"/>
+      <c r="T187" s="47"/>
+      <c r="U187" s="47"/>
+      <c r="V187" s="47"/>
       <c r="W187" s="26" t="s">
         <v>56</v>
       </c>
@@ -10246,15 +10349,15 @@
         <v>181</v>
       </c>
       <c r="Z187" s="1"/>
-      <c r="AA187" s="46"/>
-      <c r="AB187" s="46"/>
-      <c r="AC187" s="46"/>
+      <c r="AA187" s="47"/>
+      <c r="AB187" s="47"/>
+      <c r="AC187" s="47"/>
       <c r="AD187" s="1"/>
       <c r="AE187" s="7"/>
     </row>
     <row r="188" spans="2:43" ht="18" customHeight="1">
       <c r="D188" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q188" s="6"/>
       <c r="W188" s="1"/>
@@ -10280,29 +10383,29 @@
     </row>
     <row r="189" spans="2:43" ht="18" customHeight="1">
       <c r="D189" s="29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q189" s="6"/>
       <c r="R189" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="S189" s="46" t="s">
+      <c r="S189" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="T189" s="46"/>
-      <c r="U189" s="46" t="s">
+      <c r="T189" s="47"/>
+      <c r="U189" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="V189" s="46"/>
-      <c r="W189" s="37" t="s">
+      <c r="V189" s="47"/>
+      <c r="W189" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="X189" s="37"/>
-      <c r="Y189" s="56" t="s">
+      <c r="X189" s="36"/>
+      <c r="Y189" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="Z189" s="57"/>
-      <c r="AA189" s="58"/>
+      <c r="Z189" s="45"/>
+      <c r="AA189" s="46"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
@@ -10321,7 +10424,7 @@
     </row>
     <row r="190" spans="2:43" ht="18" customHeight="1">
       <c r="D190" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q190" s="6"/>
       <c r="R190" s="1"/>
@@ -10345,19 +10448,19 @@
       <c r="AD190" s="1"/>
       <c r="AE190" s="7"/>
       <c r="AG190" s="6"/>
-      <c r="AH190" s="59" t="s">
-        <v>272</v>
+      <c r="AH190" s="41" t="s">
+        <v>270</v>
       </c>
       <c r="AI190" s="42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AJ190" s="43"/>
-      <c r="AL190" s="41"/>
-      <c r="AM190" s="59" t="s">
-        <v>272</v>
+      <c r="AL190" s="40"/>
+      <c r="AM190" s="41" t="s">
+        <v>270</v>
       </c>
       <c r="AN190" s="42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AO190" s="43"/>
       <c r="AP190" s="1"/>
@@ -10365,7 +10468,7 @@
     </row>
     <row r="191" spans="2:43" ht="18" customHeight="1">
       <c r="D191" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q191" s="6"/>
       <c r="R191" s="1"/>
@@ -10383,11 +10486,11 @@
       <c r="AD191" s="1"/>
       <c r="AE191" s="7"/>
       <c r="AG191" s="6"/>
-      <c r="AH191" s="59"/>
+      <c r="AH191" s="41"/>
       <c r="AI191" s="42"/>
       <c r="AJ191" s="43"/>
-      <c r="AL191" s="41"/>
-      <c r="AM191" s="59"/>
+      <c r="AL191" s="40"/>
+      <c r="AM191" s="41"/>
       <c r="AN191" s="42"/>
       <c r="AO191" s="43"/>
       <c r="AP191" s="1"/>
@@ -10395,7 +10498,7 @@
     </row>
     <row r="192" spans="2:43" ht="18" customHeight="1">
       <c r="D192" s="29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q192" s="6"/>
       <c r="R192" s="1"/>
@@ -10413,11 +10516,11 @@
       <c r="AD192" s="1"/>
       <c r="AE192" s="7"/>
       <c r="AG192" s="6"/>
-      <c r="AH192" s="59"/>
+      <c r="AH192" s="41"/>
       <c r="AI192" s="42"/>
       <c r="AJ192" s="43"/>
-      <c r="AL192" s="41"/>
-      <c r="AM192" s="59"/>
+      <c r="AL192" s="40"/>
+      <c r="AM192" s="41"/>
       <c r="AN192" s="42"/>
       <c r="AO192" s="43"/>
       <c r="AP192" s="1"/>
@@ -10425,7 +10528,7 @@
     </row>
     <row r="193" spans="4:43" ht="18" customHeight="1">
       <c r="D193" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q193" s="6"/>
       <c r="R193" s="1"/>
@@ -10452,7 +10555,7 @@
     </row>
     <row r="194" spans="4:43" ht="18" customHeight="1">
       <c r="D194" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q194" s="6"/>
       <c r="R194" s="1"/>
@@ -10471,13 +10574,13 @@
       <c r="AE194" s="7"/>
       <c r="AG194" s="6"/>
       <c r="AI194" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AQ194" s="7"/>
     </row>
     <row r="195" spans="4:43" ht="18" customHeight="1">
       <c r="D195" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q195" s="6"/>
       <c r="R195" s="1"/>
@@ -10506,7 +10609,7 @@
     </row>
     <row r="196" spans="4:43" ht="18" customHeight="1">
       <c r="D196" s="29" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q196" s="6"/>
       <c r="R196" s="1"/>
@@ -10591,17 +10694,383 @@
     </row>
   </sheetData>
   <mergeCells count="412">
-    <mergeCell ref="AI192:AJ192"/>
-    <mergeCell ref="Y189:AA189"/>
-    <mergeCell ref="S187:V187"/>
-    <mergeCell ref="AA187:AC187"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="U189:V189"/>
-    <mergeCell ref="AI190:AJ190"/>
-    <mergeCell ref="AI191:AJ191"/>
-    <mergeCell ref="AN190:AO190"/>
-    <mergeCell ref="AN191:AO191"/>
-    <mergeCell ref="AN192:AO192"/>
+    <mergeCell ref="BP115:BQ115"/>
+    <mergeCell ref="BH117:BI117"/>
+    <mergeCell ref="BK117:BL117"/>
+    <mergeCell ref="BM107:BQ107"/>
+    <mergeCell ref="U1:Y2"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="AO90:AQ90"/>
+    <mergeCell ref="AR90:AY90"/>
+    <mergeCell ref="AS94:AT94"/>
+    <mergeCell ref="AP94:AQ94"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="AE78:AF78"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:AC88"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="S92:U92"/>
+    <mergeCell ref="S93:U93"/>
+    <mergeCell ref="S94:U94"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="BI54:BJ54"/>
+    <mergeCell ref="BK54:BL54"/>
+    <mergeCell ref="BI55:BJ55"/>
+    <mergeCell ref="BK55:BL55"/>
+    <mergeCell ref="BI56:BJ56"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="BK56:BL56"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="BA66:BC66"/>
+    <mergeCell ref="BD66:BK66"/>
+    <mergeCell ref="BB70:BC70"/>
+    <mergeCell ref="BD70:BE70"/>
+    <mergeCell ref="BF70:BG70"/>
+    <mergeCell ref="BC71:BD71"/>
+    <mergeCell ref="BE71:BF71"/>
+    <mergeCell ref="BG71:BH71"/>
+    <mergeCell ref="BC72:BD72"/>
+    <mergeCell ref="BB73:BC73"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:AB66"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AB90:AG90"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AD93:AE93"/>
+    <mergeCell ref="AF93:AG93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AD94:AE94"/>
+    <mergeCell ref="AF94:AG94"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="V94:Y94"/>
+    <mergeCell ref="V93:Y93"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="V91:Y91"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AO38"/>
+    <mergeCell ref="S106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="AE106:AG106"/>
+    <mergeCell ref="AH106:AJ106"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="X48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="CA110:CH110"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AN37:AO37"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="BI58:BJ58"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="BK49:BL49"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="BK50:BL50"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BI52:BJ52"/>
+    <mergeCell ref="BK52:BL52"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="BY108:CA108"/>
+    <mergeCell ref="BC74:BD74"/>
+    <mergeCell ref="BC75:BD75"/>
+    <mergeCell ref="BN78:BO78"/>
+    <mergeCell ref="BI53:BJ53"/>
+    <mergeCell ref="BK53:BL53"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="Z126:AB126"/>
+    <mergeCell ref="AD126:AE126"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD102:AH102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="AM102:AQ102"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI32:AO32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="BP136:BQ136"/>
+    <mergeCell ref="AE131:AF131"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AE133:AF133"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="W136:X136"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="AY134:AZ134"/>
+    <mergeCell ref="BA134:BC134"/>
+    <mergeCell ref="BD134:BF134"/>
+    <mergeCell ref="BA136:BB136"/>
+    <mergeCell ref="BD136:BE136"/>
+    <mergeCell ref="AG131:AH131"/>
+    <mergeCell ref="AG132:AH132"/>
+    <mergeCell ref="AG133:AH133"/>
+    <mergeCell ref="AG134:AH134"/>
+    <mergeCell ref="AG135:AH135"/>
+    <mergeCell ref="AG136:AH136"/>
+    <mergeCell ref="BG133:BH133"/>
+    <mergeCell ref="CA112:CH112"/>
+    <mergeCell ref="AN106:AS106"/>
+    <mergeCell ref="BA132:BC132"/>
+    <mergeCell ref="AY131:AZ131"/>
+    <mergeCell ref="BA131:BC131"/>
+    <mergeCell ref="BD131:BF131"/>
+    <mergeCell ref="AY132:AZ132"/>
+    <mergeCell ref="BD132:BF132"/>
+    <mergeCell ref="AY133:AZ133"/>
+    <mergeCell ref="BA133:BC133"/>
+    <mergeCell ref="BD133:BF133"/>
+    <mergeCell ref="BZ116:CA116"/>
+    <mergeCell ref="CC116:CD116"/>
+    <mergeCell ref="BO131:BP131"/>
+    <mergeCell ref="BQ131:BR131"/>
+    <mergeCell ref="BS131:BT131"/>
+    <mergeCell ref="BO132:BP132"/>
+    <mergeCell ref="BQ132:BR132"/>
+    <mergeCell ref="BS132:BT132"/>
+    <mergeCell ref="BY112:BZ112"/>
+    <mergeCell ref="CB108:CI108"/>
+    <mergeCell ref="BY110:BZ110"/>
+    <mergeCell ref="BG131:BH131"/>
+    <mergeCell ref="BG132:BH132"/>
+    <mergeCell ref="BG134:BH134"/>
+    <mergeCell ref="CN134:CO134"/>
+    <mergeCell ref="CQ134:CR134"/>
+    <mergeCell ref="BO133:BP133"/>
+    <mergeCell ref="BQ133:BR133"/>
+    <mergeCell ref="BS133:BT133"/>
+    <mergeCell ref="BO134:BP134"/>
+    <mergeCell ref="BQ134:BR134"/>
+    <mergeCell ref="BS134:BT134"/>
+    <mergeCell ref="CU131:CV131"/>
+    <mergeCell ref="CU132:CV132"/>
+    <mergeCell ref="CS131:CT131"/>
+    <mergeCell ref="CS132:CT132"/>
+    <mergeCell ref="DD136:DE136"/>
+    <mergeCell ref="DF136:DH136"/>
+    <mergeCell ref="DI136:DK136"/>
+    <mergeCell ref="CD139:CE139"/>
+    <mergeCell ref="CG139:CH139"/>
+    <mergeCell ref="DD139:DE139"/>
+    <mergeCell ref="DF139:DH139"/>
+    <mergeCell ref="DI139:DK139"/>
+    <mergeCell ref="DL136:DM136"/>
+    <mergeCell ref="DD137:DE137"/>
+    <mergeCell ref="DF137:DH137"/>
+    <mergeCell ref="DI137:DK137"/>
+    <mergeCell ref="DL137:DM137"/>
+    <mergeCell ref="DD138:DE138"/>
+    <mergeCell ref="DF138:DH138"/>
+    <mergeCell ref="DI138:DK138"/>
+    <mergeCell ref="DL138:DM138"/>
+    <mergeCell ref="DL139:DM139"/>
+    <mergeCell ref="DJ141:DK141"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="AA130:AH130"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="Y131:Z131"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
+    <mergeCell ref="Y132:Z132"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
+    <mergeCell ref="Y133:Z133"/>
+    <mergeCell ref="U134:V134"/>
+    <mergeCell ref="W134:X134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="W135:X135"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="W137:X137"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="U138:V138"/>
+    <mergeCell ref="W138:X138"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="AC138:AD138"/>
+    <mergeCell ref="AO129:AR129"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="AC133:AD133"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AG137:AH137"/>
+    <mergeCell ref="AG138:AH138"/>
+    <mergeCell ref="W158:X158"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="AA153:AB153"/>
+    <mergeCell ref="AC153:AD153"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="U154:V154"/>
+    <mergeCell ref="W154:X154"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
     <mergeCell ref="AT102:AU102"/>
     <mergeCell ref="AV102:AX102"/>
     <mergeCell ref="Y153:Z153"/>
@@ -10626,383 +11095,17 @@
     <mergeCell ref="W157:X157"/>
     <mergeCell ref="S158:T158"/>
     <mergeCell ref="U158:V158"/>
-    <mergeCell ref="W158:X158"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="AA153:AB153"/>
-    <mergeCell ref="AC153:AD153"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="U154:V154"/>
-    <mergeCell ref="W154:X154"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="AA138:AB138"/>
-    <mergeCell ref="AC138:AD138"/>
-    <mergeCell ref="AO129:AR129"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AA132:AB132"/>
-    <mergeCell ref="AC132:AD132"/>
-    <mergeCell ref="AA133:AB133"/>
-    <mergeCell ref="AC133:AD133"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="AC134:AD134"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AG137:AH137"/>
-    <mergeCell ref="AG138:AH138"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="U138:V138"/>
-    <mergeCell ref="W138:X138"/>
-    <mergeCell ref="Y138:Z138"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="DL139:DM139"/>
-    <mergeCell ref="DJ141:DK141"/>
-    <mergeCell ref="U130:V130"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="AA130:AH130"/>
-    <mergeCell ref="U131:V131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="Y131:Z131"/>
-    <mergeCell ref="U132:V132"/>
-    <mergeCell ref="W132:X132"/>
-    <mergeCell ref="Y132:Z132"/>
-    <mergeCell ref="U133:V133"/>
-    <mergeCell ref="W133:X133"/>
-    <mergeCell ref="Y133:Z133"/>
-    <mergeCell ref="U134:V134"/>
-    <mergeCell ref="W134:X134"/>
-    <mergeCell ref="Y134:Z134"/>
-    <mergeCell ref="U135:V135"/>
-    <mergeCell ref="W135:X135"/>
-    <mergeCell ref="Y135:Z135"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="W137:X137"/>
-    <mergeCell ref="DL136:DM136"/>
-    <mergeCell ref="DD137:DE137"/>
-    <mergeCell ref="DF137:DH137"/>
-    <mergeCell ref="DI137:DK137"/>
-    <mergeCell ref="DL137:DM137"/>
-    <mergeCell ref="DD138:DE138"/>
-    <mergeCell ref="DF138:DH138"/>
-    <mergeCell ref="DI138:DK138"/>
-    <mergeCell ref="DL138:DM138"/>
-    <mergeCell ref="CU131:CV131"/>
-    <mergeCell ref="CU132:CV132"/>
-    <mergeCell ref="CS131:CT131"/>
-    <mergeCell ref="CS132:CT132"/>
-    <mergeCell ref="DD136:DE136"/>
-    <mergeCell ref="DF136:DH136"/>
-    <mergeCell ref="DI136:DK136"/>
-    <mergeCell ref="CD139:CE139"/>
-    <mergeCell ref="CG139:CH139"/>
-    <mergeCell ref="DD139:DE139"/>
-    <mergeCell ref="DF139:DH139"/>
-    <mergeCell ref="DI139:DK139"/>
-    <mergeCell ref="BG134:BH134"/>
-    <mergeCell ref="CN134:CO134"/>
-    <mergeCell ref="CQ134:CR134"/>
-    <mergeCell ref="BO133:BP133"/>
-    <mergeCell ref="BQ133:BR133"/>
-    <mergeCell ref="BS133:BT133"/>
-    <mergeCell ref="BO134:BP134"/>
-    <mergeCell ref="BQ134:BR134"/>
-    <mergeCell ref="BS134:BT134"/>
-    <mergeCell ref="CA112:CH112"/>
-    <mergeCell ref="AN106:AS106"/>
-    <mergeCell ref="BA132:BC132"/>
-    <mergeCell ref="AY131:AZ131"/>
-    <mergeCell ref="BA131:BC131"/>
-    <mergeCell ref="BD131:BF131"/>
-    <mergeCell ref="AY132:AZ132"/>
-    <mergeCell ref="BD132:BF132"/>
-    <mergeCell ref="AY133:AZ133"/>
-    <mergeCell ref="BA133:BC133"/>
-    <mergeCell ref="BD133:BF133"/>
-    <mergeCell ref="BZ116:CA116"/>
-    <mergeCell ref="CC116:CD116"/>
-    <mergeCell ref="BO131:BP131"/>
-    <mergeCell ref="BQ131:BR131"/>
-    <mergeCell ref="BS131:BT131"/>
-    <mergeCell ref="BO132:BP132"/>
-    <mergeCell ref="BQ132:BR132"/>
-    <mergeCell ref="BS132:BT132"/>
-    <mergeCell ref="BY112:BZ112"/>
-    <mergeCell ref="CB108:CI108"/>
-    <mergeCell ref="BY110:BZ110"/>
-    <mergeCell ref="BG131:BH131"/>
-    <mergeCell ref="BG132:BH132"/>
-    <mergeCell ref="BP136:BQ136"/>
-    <mergeCell ref="AE131:AF131"/>
-    <mergeCell ref="AE132:AF132"/>
-    <mergeCell ref="AE133:AF133"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="AE135:AF135"/>
-    <mergeCell ref="AE136:AF136"/>
-    <mergeCell ref="W136:X136"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="Y130:Z130"/>
-    <mergeCell ref="U128:V128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="AY134:AZ134"/>
-    <mergeCell ref="BA134:BC134"/>
-    <mergeCell ref="BD134:BF134"/>
-    <mergeCell ref="BA136:BB136"/>
-    <mergeCell ref="BD136:BE136"/>
-    <mergeCell ref="AG131:AH131"/>
-    <mergeCell ref="AG132:AH132"/>
-    <mergeCell ref="AG133:AH133"/>
-    <mergeCell ref="AG134:AH134"/>
-    <mergeCell ref="AG135:AH135"/>
-    <mergeCell ref="AG136:AH136"/>
-    <mergeCell ref="BG133:BH133"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="Z126:AB126"/>
-    <mergeCell ref="AD126:AE126"/>
-    <mergeCell ref="AA131:AB131"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD102:AH102"/>
-    <mergeCell ref="AK102:AL102"/>
-    <mergeCell ref="AM102:AQ102"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AI32:AO32"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="CA110:CH110"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="BI58:BJ58"/>
-    <mergeCell ref="BH47:BI47"/>
-    <mergeCell ref="BJ47:BK47"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="BK49:BL49"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="BK50:BL50"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BI52:BJ52"/>
-    <mergeCell ref="BK52:BL52"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="BY108:CA108"/>
-    <mergeCell ref="BC74:BD74"/>
-    <mergeCell ref="BC75:BD75"/>
-    <mergeCell ref="BN78:BO78"/>
-    <mergeCell ref="BI53:BJ53"/>
-    <mergeCell ref="BK53:BL53"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="S106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="AE106:AG106"/>
-    <mergeCell ref="AH106:AJ106"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="X48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="V91:Y91"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="BB73:BC73"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:AB66"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="AB90:AG90"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="AF91:AG91"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AF93:AG93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AD94:AE94"/>
-    <mergeCell ref="AF94:AG94"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="V94:Y94"/>
-    <mergeCell ref="V93:Y93"/>
-    <mergeCell ref="BA66:BC66"/>
-    <mergeCell ref="BD66:BK66"/>
-    <mergeCell ref="BB70:BC70"/>
-    <mergeCell ref="BD70:BE70"/>
-    <mergeCell ref="BF70:BG70"/>
-    <mergeCell ref="BC71:BD71"/>
-    <mergeCell ref="BE71:BF71"/>
-    <mergeCell ref="BG71:BH71"/>
-    <mergeCell ref="BC72:BD72"/>
-    <mergeCell ref="BK56:BL56"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="BP115:BQ115"/>
-    <mergeCell ref="BH117:BI117"/>
-    <mergeCell ref="BK117:BL117"/>
-    <mergeCell ref="BM107:BQ107"/>
-    <mergeCell ref="U1:Y2"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="AO90:AQ90"/>
-    <mergeCell ref="AR90:AY90"/>
-    <mergeCell ref="AS94:AT94"/>
-    <mergeCell ref="AP94:AQ94"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="AE78:AF78"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:AC88"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="S92:U92"/>
-    <mergeCell ref="S93:U93"/>
-    <mergeCell ref="S94:U94"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="BI54:BJ54"/>
-    <mergeCell ref="BK54:BL54"/>
-    <mergeCell ref="BI55:BJ55"/>
-    <mergeCell ref="BK55:BL55"/>
-    <mergeCell ref="BI56:BJ56"/>
+    <mergeCell ref="AI192:AJ192"/>
+    <mergeCell ref="Y189:AA189"/>
+    <mergeCell ref="S187:V187"/>
+    <mergeCell ref="AA187:AC187"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="U189:V189"/>
+    <mergeCell ref="AI190:AJ190"/>
+    <mergeCell ref="AI191:AJ191"/>
+    <mergeCell ref="AN190:AO190"/>
+    <mergeCell ref="AN191:AO191"/>
+    <mergeCell ref="AN192:AO192"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/通用测试平台.xlsx
+++ b/通用测试平台.xlsx
@@ -1756,22 +1756,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1783,7 +1777,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1792,13 +1789,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2323,7 +2323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO198"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="AB200" sqref="AB200"/>
     </sheetView>
   </sheetViews>
@@ -2334,38 +2334,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:46" ht="18" customHeight="1">
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="U1" s="56" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="U1" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
     </row>
     <row r="2" spans="2:46" ht="18" customHeight="1">
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
     </row>
     <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="30"/>
@@ -2532,18 +2532,18 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="55" t="s">
+      <c r="S10" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="55"/>
-      <c r="U10" s="48" t="s">
+      <c r="T10" s="54"/>
+      <c r="U10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48" t="s">
+      <c r="V10" s="47"/>
+      <c r="W10" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="48"/>
+      <c r="X10" s="47"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2574,18 +2574,18 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="48" t="s">
+      <c r="T11" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48" t="s">
+      <c r="U11" s="47"/>
+      <c r="V11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48" t="s">
+      <c r="W11" s="47"/>
+      <c r="X11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="54"/>
+      <c r="Y11" s="53"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -2612,10 +2612,10 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="48" t="s">
+      <c r="T12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="48"/>
+      <c r="U12" s="47"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -2645,10 +2645,10 @@
     <row r="13" spans="2:46" ht="18" customHeight="1">
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="48" t="s">
+      <c r="S13" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="48"/>
+      <c r="T13" s="47"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -2686,10 +2686,10 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="48" t="s">
+      <c r="T14" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="48"/>
+      <c r="U14" s="47"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -2718,10 +2718,10 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="48" t="s">
+      <c r="T15" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="48"/>
+      <c r="U15" s="47"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -3014,27 +3014,27 @@
     <row r="28" spans="2:46" ht="18" customHeight="1">
       <c r="Q28" s="6"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="48" t="s">
+      <c r="S28" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="T28" s="48"/>
+      <c r="T28" s="47"/>
       <c r="U28" s="42"/>
-      <c r="V28" s="49"/>
+      <c r="V28" s="44"/>
       <c r="W28" s="43"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="48" t="s">
+      <c r="Y28" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="Z28" s="48"/>
+      <c r="Z28" s="47"/>
       <c r="AA28" s="42"/>
       <c r="AB28" s="43"/>
-      <c r="AD28" s="48" t="s">
+      <c r="AD28" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
       <c r="AI28" s="24" t="s">
         <v>56</v>
       </c>
@@ -3093,18 +3093,18 @@
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="47" t="s">
+      <c r="S30" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47" t="s">
+      <c r="T30" s="46"/>
+      <c r="U30" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47" t="s">
+      <c r="V30" s="46"/>
+      <c r="W30" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="X30" s="47"/>
+      <c r="X30" s="46"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -3180,12 +3180,12 @@
       <c r="W32" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="49"/>
+      <c r="X32" s="44"/>
       <c r="Y32" s="43"/>
       <c r="Z32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AA32" s="49"/>
+      <c r="AA32" s="44"/>
       <c r="AB32" s="43"/>
       <c r="AC32" s="37" t="s">
         <v>22</v>
@@ -3194,7 +3194,7 @@
       <c r="AE32" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AF32" s="49"/>
+      <c r="AF32" s="44"/>
       <c r="AG32" s="42" t="s">
         <v>32</v>
       </c>
@@ -3202,11 +3202,11 @@
       <c r="AI32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="49"/>
-      <c r="AL32" s="49"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="49"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
       <c r="AO32" s="43"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
@@ -3227,10 +3227,10 @@
       </c>
       <c r="V33" s="43"/>
       <c r="W33" s="42"/>
-      <c r="X33" s="49"/>
+      <c r="X33" s="44"/>
       <c r="Y33" s="43"/>
       <c r="Z33" s="42"/>
-      <c r="AA33" s="49"/>
+      <c r="AA33" s="44"/>
       <c r="AB33" s="43"/>
       <c r="AC33" s="42"/>
       <c r="AD33" s="43"/>
@@ -3247,7 +3247,7 @@
       <c r="AK33" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL33" s="49"/>
+      <c r="AL33" s="44"/>
       <c r="AM33" s="43"/>
       <c r="AN33" s="42" t="s">
         <v>21</v>
@@ -3272,10 +3272,10 @@
       </c>
       <c r="V34" s="43"/>
       <c r="W34" s="42"/>
-      <c r="X34" s="49"/>
+      <c r="X34" s="44"/>
       <c r="Y34" s="43"/>
       <c r="Z34" s="42"/>
-      <c r="AA34" s="49"/>
+      <c r="AA34" s="44"/>
       <c r="AB34" s="43"/>
       <c r="AC34" s="42"/>
       <c r="AD34" s="43"/>
@@ -3292,7 +3292,7 @@
       <c r="AK34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL34" s="49"/>
+      <c r="AL34" s="44"/>
       <c r="AM34" s="43"/>
       <c r="AN34" s="42" t="s">
         <v>8</v>
@@ -3317,10 +3317,10 @@
       </c>
       <c r="V35" s="43"/>
       <c r="W35" s="42"/>
-      <c r="X35" s="49"/>
+      <c r="X35" s="44"/>
       <c r="Y35" s="43"/>
       <c r="Z35" s="42"/>
-      <c r="AA35" s="49"/>
+      <c r="AA35" s="44"/>
       <c r="AB35" s="43"/>
       <c r="AC35" s="42"/>
       <c r="AD35" s="43"/>
@@ -3335,7 +3335,7 @@
       <c r="AK35" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL35" s="49"/>
+      <c r="AL35" s="44"/>
       <c r="AM35" s="43"/>
       <c r="AN35" s="42" t="s">
         <v>8</v>
@@ -3378,7 +3378,7 @@
       <c r="AK36" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL36" s="49"/>
+      <c r="AL36" s="44"/>
       <c r="AM36" s="43"/>
       <c r="AN36" s="42" t="s">
         <v>8</v>
@@ -3403,10 +3403,10 @@
       </c>
       <c r="V37" s="43"/>
       <c r="W37" s="42"/>
-      <c r="X37" s="49"/>
+      <c r="X37" s="44"/>
       <c r="Y37" s="43"/>
       <c r="Z37" s="42"/>
-      <c r="AA37" s="49"/>
+      <c r="AA37" s="44"/>
       <c r="AB37" s="43"/>
       <c r="AC37" s="42"/>
       <c r="AD37" s="43"/>
@@ -3421,7 +3421,7 @@
       <c r="AK37" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL37" s="49"/>
+      <c r="AL37" s="44"/>
       <c r="AM37" s="43"/>
       <c r="AN37" s="42" t="s">
         <v>8</v>
@@ -3441,10 +3441,10 @@
       <c r="U38" s="42"/>
       <c r="V38" s="43"/>
       <c r="W38" s="42"/>
-      <c r="X38" s="49"/>
+      <c r="X38" s="44"/>
       <c r="Y38" s="43"/>
       <c r="Z38" s="42"/>
-      <c r="AA38" s="49"/>
+      <c r="AA38" s="44"/>
       <c r="AB38" s="43"/>
       <c r="AC38" s="42"/>
       <c r="AD38" s="43"/>
@@ -3455,7 +3455,7 @@
       <c r="AI38" s="42"/>
       <c r="AJ38" s="43"/>
       <c r="AK38" s="42"/>
-      <c r="AL38" s="49"/>
+      <c r="AL38" s="44"/>
       <c r="AM38" s="43"/>
       <c r="AN38" s="42"/>
       <c r="AO38" s="43"/>
@@ -3608,10 +3608,10 @@
         <v>133</v>
       </c>
       <c r="Q46" s="6"/>
-      <c r="R46" s="47" t="s">
+      <c r="R46" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="S46" s="47"/>
+      <c r="S46" s="46"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -3687,14 +3687,14 @@
       <c r="BB47" s="7"/>
       <c r="BF47" s="6"/>
       <c r="BG47" s="1"/>
-      <c r="BH47" s="47" t="s">
+      <c r="BH47" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="BI47" s="47"/>
-      <c r="BJ47" s="47" t="s">
+      <c r="BI47" s="46"/>
+      <c r="BJ47" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="BK47" s="47"/>
+      <c r="BK47" s="46"/>
       <c r="BL47" s="1"/>
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
@@ -3708,23 +3708,23 @@
       <c r="R48" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="S48" s="47" t="s">
+      <c r="S48" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47" t="s">
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W48" s="47"/>
-      <c r="X48" s="47" t="s">
+      <c r="W48" s="46"/>
+      <c r="X48" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="47"/>
-      <c r="AA48" s="47"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
@@ -3763,23 +3763,23 @@
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="15"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="47" t="s">
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="Y49" s="47"/>
-      <c r="Z49" s="47" t="s">
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AA49" s="47"/>
-      <c r="AB49" s="47" t="s">
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="AC49" s="47"/>
+      <c r="AC49" s="46"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
@@ -3804,14 +3804,14 @@
       <c r="BH49" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BI49" s="47" t="s">
+      <c r="BI49" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="BJ49" s="47"/>
-      <c r="BK49" s="47" t="s">
+      <c r="BJ49" s="46"/>
+      <c r="BK49" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="BL49" s="47"/>
+      <c r="BL49" s="46"/>
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
       <c r="BO49" s="7"/>
@@ -3822,17 +3822,17 @@
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="15"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="47"/>
-      <c r="Y50" s="47"/>
-      <c r="Z50" s="47"/>
-      <c r="AA50" s="47"/>
-      <c r="AB50" s="47"/>
-      <c r="AC50" s="47"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="46"/>
+      <c r="AA50" s="46"/>
+      <c r="AB50" s="46"/>
+      <c r="AC50" s="46"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
@@ -3857,14 +3857,14 @@
       <c r="BH50" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI50" s="47" t="s">
+      <c r="BI50" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="BJ50" s="47"/>
-      <c r="BK50" s="47" t="s">
+      <c r="BJ50" s="46"/>
+      <c r="BK50" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="BL50" s="47"/>
+      <c r="BL50" s="46"/>
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
       <c r="BO50" s="7"/>
@@ -3875,17 +3875,17 @@
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="15"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="47"/>
-      <c r="Y51" s="47"/>
-      <c r="Z51" s="47"/>
-      <c r="AA51" s="47"/>
-      <c r="AB51" s="47"/>
-      <c r="AC51" s="47"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="46"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
@@ -3914,14 +3914,14 @@
       <c r="BH51" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BI51" s="47" t="s">
+      <c r="BI51" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="BJ51" s="47"/>
-      <c r="BK51" s="47" t="s">
+      <c r="BJ51" s="46"/>
+      <c r="BK51" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BL51" s="47"/>
+      <c r="BL51" s="46"/>
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
       <c r="BO51" s="7"/>
@@ -3929,17 +3929,17 @@
     <row r="52" spans="2:67" ht="18" customHeight="1">
       <c r="Q52" s="6"/>
       <c r="R52" s="15"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="47"/>
-      <c r="Y52" s="47"/>
-      <c r="Z52" s="47"/>
-      <c r="AA52" s="47"/>
-      <c r="AB52" s="47"/>
-      <c r="AC52" s="47"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="46"/>
+      <c r="AB52" s="46"/>
+      <c r="AC52" s="46"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
@@ -3964,14 +3964,14 @@
       <c r="BH52" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BI52" s="47" t="s">
+      <c r="BI52" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="BJ52" s="47"/>
-      <c r="BK52" s="47" t="s">
+      <c r="BJ52" s="46"/>
+      <c r="BK52" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="BL52" s="47"/>
+      <c r="BL52" s="46"/>
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
       <c r="BO52" s="7"/>
@@ -3979,17 +3979,17 @@
     <row r="53" spans="2:67" ht="18" customHeight="1">
       <c r="Q53" s="6"/>
       <c r="R53" s="15"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="47"/>
-      <c r="Y53" s="47"/>
-      <c r="Z53" s="47"/>
-      <c r="AA53" s="47"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="47"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46"/>
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="46"/>
+      <c r="AA53" s="46"/>
+      <c r="AB53" s="46"/>
+      <c r="AC53" s="46"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
@@ -4014,10 +4014,10 @@
       <c r="BH53" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI53" s="47"/>
-      <c r="BJ53" s="47"/>
-      <c r="BK53" s="47"/>
-      <c r="BL53" s="47"/>
+      <c r="BI53" s="46"/>
+      <c r="BJ53" s="46"/>
+      <c r="BK53" s="46"/>
+      <c r="BL53" s="46"/>
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
       <c r="BO53" s="7"/>
@@ -4025,17 +4025,17 @@
     <row r="54" spans="2:67" ht="18" customHeight="1">
       <c r="Q54" s="6"/>
       <c r="R54" s="15"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="47"/>
-      <c r="Y54" s="47"/>
-      <c r="Z54" s="47"/>
-      <c r="AA54" s="47"/>
-      <c r="AB54" s="47"/>
-      <c r="AC54" s="47"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="46"/>
+      <c r="AB54" s="46"/>
+      <c r="AC54" s="46"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
@@ -4060,10 +4060,10 @@
       <c r="BH54" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI54" s="47"/>
-      <c r="BJ54" s="47"/>
-      <c r="BK54" s="47"/>
-      <c r="BL54" s="47"/>
+      <c r="BI54" s="46"/>
+      <c r="BJ54" s="46"/>
+      <c r="BK54" s="46"/>
+      <c r="BL54" s="46"/>
       <c r="BM54" s="1"/>
       <c r="BN54" s="1"/>
       <c r="BO54" s="7"/>
@@ -4071,17 +4071,17 @@
     <row r="55" spans="2:67" ht="18" customHeight="1">
       <c r="Q55" s="6"/>
       <c r="R55" s="15"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="47"/>
-      <c r="Y55" s="47"/>
-      <c r="Z55" s="47"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="47"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="46"/>
+      <c r="AB55" s="46"/>
+      <c r="AC55" s="46"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
@@ -4106,10 +4106,10 @@
       <c r="BH55" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI55" s="47"/>
-      <c r="BJ55" s="47"/>
-      <c r="BK55" s="47"/>
-      <c r="BL55" s="47"/>
+      <c r="BI55" s="46"/>
+      <c r="BJ55" s="46"/>
+      <c r="BK55" s="46"/>
+      <c r="BL55" s="46"/>
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
       <c r="BO55" s="7"/>
@@ -4117,17 +4117,17 @@
     <row r="56" spans="2:67" ht="18" customHeight="1">
       <c r="Q56" s="6"/>
       <c r="R56" s="15"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="47"/>
-      <c r="Y56" s="47"/>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="46"/>
+      <c r="AB56" s="46"/>
+      <c r="AC56" s="46"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
@@ -4135,10 +4135,10 @@
       <c r="BF56" s="6"/>
       <c r="BG56" s="1"/>
       <c r="BH56" s="15"/>
-      <c r="BI56" s="47"/>
-      <c r="BJ56" s="47"/>
-      <c r="BK56" s="47"/>
-      <c r="BL56" s="47"/>
+      <c r="BI56" s="46"/>
+      <c r="BJ56" s="46"/>
+      <c r="BK56" s="46"/>
+      <c r="BL56" s="46"/>
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
       <c r="BO56" s="7"/>
@@ -4359,21 +4359,21 @@
         <v>136</v>
       </c>
       <c r="Q66" s="6"/>
-      <c r="R66" s="48" t="s">
+      <c r="R66" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="S66" s="48"/>
-      <c r="T66" s="48"/>
-      <c r="U66" s="50" t="s">
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="V66" s="51"/>
-      <c r="W66" s="51"/>
-      <c r="X66" s="51"/>
-      <c r="Y66" s="51"/>
-      <c r="Z66" s="51"/>
-      <c r="AA66" s="51"/>
-      <c r="AB66" s="52"/>
+      <c r="V66" s="49"/>
+      <c r="W66" s="49"/>
+      <c r="X66" s="49"/>
+      <c r="Y66" s="49"/>
+      <c r="Z66" s="49"/>
+      <c r="AA66" s="49"/>
+      <c r="AB66" s="50"/>
       <c r="AC66" s="16" t="s">
         <v>56</v>
       </c>
@@ -4401,21 +4401,21 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="7"/>
       <c r="AZ66" s="6"/>
-      <c r="BA66" s="48" t="s">
+      <c r="BA66" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="BB66" s="48"/>
-      <c r="BC66" s="48"/>
-      <c r="BD66" s="50" t="s">
+      <c r="BB66" s="47"/>
+      <c r="BC66" s="47"/>
+      <c r="BD66" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="BE66" s="51"/>
-      <c r="BF66" s="51"/>
-      <c r="BG66" s="51"/>
-      <c r="BH66" s="51"/>
-      <c r="BI66" s="51"/>
-      <c r="BJ66" s="51"/>
-      <c r="BK66" s="52"/>
+      <c r="BE66" s="49"/>
+      <c r="BF66" s="49"/>
+      <c r="BG66" s="49"/>
+      <c r="BH66" s="49"/>
+      <c r="BI66" s="49"/>
+      <c r="BJ66" s="49"/>
+      <c r="BK66" s="50"/>
       <c r="BL66" s="16" t="s">
         <v>56</v>
       </c>
@@ -4667,18 +4667,18 @@
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="57" t="s">
+      <c r="S70" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="T70" s="57"/>
-      <c r="U70" s="48" t="s">
+      <c r="T70" s="52"/>
+      <c r="U70" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="V70" s="48"/>
-      <c r="W70" s="48" t="s">
+      <c r="V70" s="47"/>
+      <c r="W70" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="X70" s="48"/>
+      <c r="X70" s="47"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -4707,18 +4707,18 @@
       <c r="AX70" s="7"/>
       <c r="AZ70" s="6"/>
       <c r="BA70" s="6"/>
-      <c r="BB70" s="55" t="s">
+      <c r="BB70" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="BC70" s="55"/>
-      <c r="BD70" s="48" t="s">
+      <c r="BC70" s="54"/>
+      <c r="BD70" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="BE70" s="48"/>
-      <c r="BF70" s="48" t="s">
+      <c r="BE70" s="47"/>
+      <c r="BF70" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="BG70" s="48"/>
+      <c r="BG70" s="47"/>
       <c r="BH70" s="7"/>
       <c r="BI70" s="1"/>
       <c r="BJ70" s="1"/>
@@ -4753,18 +4753,18 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="48" t="s">
+      <c r="T71" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="U71" s="48"/>
-      <c r="V71" s="48" t="s">
+      <c r="U71" s="47"/>
+      <c r="V71" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="W71" s="48"/>
-      <c r="X71" s="48" t="s">
+      <c r="W71" s="47"/>
+      <c r="X71" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="Y71" s="54"/>
+      <c r="Y71" s="53"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
@@ -4795,18 +4795,18 @@
       <c r="AZ71" s="6"/>
       <c r="BA71" s="6"/>
       <c r="BB71" s="1"/>
-      <c r="BC71" s="48" t="s">
+      <c r="BC71" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="BD71" s="48"/>
-      <c r="BE71" s="48" t="s">
+      <c r="BD71" s="47"/>
+      <c r="BE71" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="BF71" s="48"/>
-      <c r="BG71" s="48" t="s">
+      <c r="BF71" s="47"/>
+      <c r="BG71" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="BH71" s="54"/>
+      <c r="BH71" s="53"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
@@ -4842,10 +4842,10 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="48" t="s">
+      <c r="T72" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="U72" s="48"/>
+      <c r="U72" s="47"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
@@ -4880,10 +4880,10 @@
       <c r="AZ72" s="6"/>
       <c r="BA72" s="6"/>
       <c r="BB72" s="1"/>
-      <c r="BC72" s="48" t="s">
+      <c r="BC72" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="BD72" s="48"/>
+      <c r="BD72" s="47"/>
       <c r="BE72" s="1"/>
       <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
@@ -4919,10 +4919,10 @@
     <row r="73" spans="3:85" ht="18" customHeight="1">
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="S73" s="48" t="s">
+      <c r="S73" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="T73" s="48"/>
+      <c r="T73" s="47"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -4959,10 +4959,10 @@
       <c r="AX73" s="7"/>
       <c r="AZ73" s="6"/>
       <c r="BA73" s="6"/>
-      <c r="BB73" s="48" t="s">
+      <c r="BB73" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="BC73" s="48"/>
+      <c r="BC73" s="47"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
       <c r="BF73" s="1"/>
@@ -5006,10 +5006,10 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="48" t="s">
+      <c r="T74" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="U74" s="48"/>
+      <c r="U74" s="47"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
@@ -5042,10 +5042,10 @@
       <c r="AZ74" s="6"/>
       <c r="BA74" s="6"/>
       <c r="BB74" s="1"/>
-      <c r="BC74" s="48" t="s">
+      <c r="BC74" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="BD74" s="48"/>
+      <c r="BD74" s="47"/>
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
       <c r="BG74" s="1"/>
@@ -5080,10 +5080,10 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="48" t="s">
+      <c r="T75" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="U75" s="48"/>
+      <c r="U75" s="47"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
@@ -5116,10 +5116,10 @@
       <c r="AZ75" s="6"/>
       <c r="BA75" s="6"/>
       <c r="BB75" s="1"/>
-      <c r="BC75" s="48" t="s">
+      <c r="BC75" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="BD75" s="48"/>
+      <c r="BD75" s="47"/>
       <c r="BE75" s="1"/>
       <c r="BF75" s="1"/>
       <c r="BG75" s="1"/>
@@ -5694,21 +5694,21 @@
     <row r="88" spans="2:85" ht="18" customHeight="1">
       <c r="Q88" s="6"/>
       <c r="R88" s="1"/>
-      <c r="S88" s="48" t="s">
+      <c r="S88" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="T88" s="48"/>
-      <c r="U88" s="48"/>
-      <c r="V88" s="50" t="s">
+      <c r="T88" s="47"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="W88" s="51"/>
-      <c r="X88" s="51"/>
-      <c r="Y88" s="51"/>
-      <c r="Z88" s="51"/>
-      <c r="AA88" s="51"/>
-      <c r="AB88" s="51"/>
-      <c r="AC88" s="52"/>
+      <c r="W88" s="49"/>
+      <c r="X88" s="49"/>
+      <c r="Y88" s="49"/>
+      <c r="Z88" s="49"/>
+      <c r="AA88" s="49"/>
+      <c r="AB88" s="49"/>
+      <c r="AC88" s="50"/>
       <c r="AD88" s="16" t="s">
         <v>56</v>
       </c>
@@ -5742,10 +5742,10 @@
       </c>
       <c r="Q89" s="6"/>
       <c r="R89" s="1"/>
-      <c r="S89" s="47" t="s">
+      <c r="S89" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="T89" s="47"/>
+      <c r="T89" s="46"/>
       <c r="U89" s="14"/>
       <c r="V89" s="20"/>
       <c r="W89" s="20"/>
@@ -5786,48 +5786,48 @@
       </c>
       <c r="Q90" s="6"/>
       <c r="R90" s="1"/>
-      <c r="S90" s="47" t="s">
+      <c r="S90" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="T90" s="47"/>
-      <c r="U90" s="47"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="46"/>
       <c r="V90" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="W90" s="49"/>
-      <c r="X90" s="49"/>
+      <c r="W90" s="44"/>
+      <c r="X90" s="44"/>
       <c r="Y90" s="43"/>
-      <c r="Z90" s="47" t="s">
+      <c r="Z90" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AA90" s="47"/>
-      <c r="AB90" s="47" t="s">
+      <c r="AA90" s="46"/>
+      <c r="AB90" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="AC90" s="47"/>
-      <c r="AD90" s="47"/>
-      <c r="AE90" s="47"/>
-      <c r="AF90" s="47"/>
-      <c r="AG90" s="47"/>
+      <c r="AC90" s="46"/>
+      <c r="AD90" s="46"/>
+      <c r="AE90" s="46"/>
+      <c r="AF90" s="46"/>
+      <c r="AG90" s="46"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="7"/>
       <c r="AM90" s="6"/>
       <c r="AN90" s="1"/>
-      <c r="AO90" s="48" t="s">
+      <c r="AO90" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="AP90" s="48"/>
-      <c r="AQ90" s="48"/>
-      <c r="AR90" s="50" t="s">
+      <c r="AP90" s="47"/>
+      <c r="AQ90" s="47"/>
+      <c r="AR90" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="AS90" s="51"/>
-      <c r="AT90" s="51"/>
-      <c r="AU90" s="51"/>
-      <c r="AV90" s="51"/>
-      <c r="AW90" s="51"/>
-      <c r="AX90" s="51"/>
-      <c r="AY90" s="52"/>
+      <c r="AS90" s="49"/>
+      <c r="AT90" s="49"/>
+      <c r="AU90" s="49"/>
+      <c r="AV90" s="49"/>
+      <c r="AW90" s="49"/>
+      <c r="AX90" s="49"/>
+      <c r="AY90" s="50"/>
       <c r="AZ90" s="25" t="s">
         <v>56</v>
       </c>
@@ -5840,21 +5840,21 @@
       </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="1"/>
-      <c r="S91" s="47" t="s">
+      <c r="S91" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="T91" s="47"/>
-      <c r="U91" s="47"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="46"/>
       <c r="V91" s="42"/>
-      <c r="W91" s="49"/>
-      <c r="X91" s="49"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
       <c r="Y91" s="43"/>
       <c r="Z91" s="42"/>
       <c r="AA91" s="43"/>
-      <c r="AB91" s="47" t="s">
+      <c r="AB91" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AC91" s="47"/>
+      <c r="AC91" s="46"/>
       <c r="AD91" s="42" t="s">
         <v>8</v>
       </c>
@@ -5888,19 +5888,19 @@
       </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="1"/>
-      <c r="S92" s="47" t="s">
+      <c r="S92" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="46"/>
       <c r="V92" s="42"/>
-      <c r="W92" s="49"/>
-      <c r="X92" s="49"/>
+      <c r="W92" s="44"/>
+      <c r="X92" s="44"/>
       <c r="Y92" s="43"/>
       <c r="Z92" s="42"/>
       <c r="AA92" s="43"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
+      <c r="AB92" s="46"/>
+      <c r="AC92" s="46"/>
       <c r="AD92" s="42"/>
       <c r="AE92" s="43"/>
       <c r="AF92" s="42"/>
@@ -5932,19 +5932,19 @@
       </c>
       <c r="Q93" s="6"/>
       <c r="R93" s="1"/>
-      <c r="S93" s="47" t="s">
+      <c r="S93" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="46"/>
       <c r="V93" s="42"/>
-      <c r="W93" s="49"/>
-      <c r="X93" s="49"/>
+      <c r="W93" s="44"/>
+      <c r="X93" s="44"/>
       <c r="Y93" s="43"/>
       <c r="Z93" s="42"/>
       <c r="AA93" s="43"/>
-      <c r="AB93" s="47"/>
-      <c r="AC93" s="47"/>
+      <c r="AB93" s="46"/>
+      <c r="AC93" s="46"/>
       <c r="AD93" s="42"/>
       <c r="AE93" s="43"/>
       <c r="AF93" s="42"/>
@@ -5974,19 +5974,19 @@
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="58" t="s">
+      <c r="S94" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="T94" s="58"/>
-      <c r="U94" s="58"/>
+      <c r="T94" s="51"/>
+      <c r="U94" s="51"/>
       <c r="V94" s="42"/>
-      <c r="W94" s="49"/>
-      <c r="X94" s="49"/>
+      <c r="W94" s="44"/>
+      <c r="X94" s="44"/>
       <c r="Y94" s="43"/>
       <c r="Z94" s="42"/>
       <c r="AA94" s="43"/>
-      <c r="AB94" s="47"/>
-      <c r="AC94" s="47"/>
+      <c r="AB94" s="46"/>
+      <c r="AC94" s="46"/>
       <c r="AD94" s="42"/>
       <c r="AE94" s="43"/>
       <c r="AF94" s="42"/>
@@ -6189,18 +6189,18 @@
         <v>122</v>
       </c>
       <c r="Q102" s="6"/>
-      <c r="R102" s="48" t="s">
+      <c r="R102" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="S102" s="48"/>
-      <c r="T102" s="48"/>
+      <c r="S102" s="47"/>
+      <c r="T102" s="47"/>
       <c r="U102" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="V102" s="49"/>
-      <c r="W102" s="49"/>
-      <c r="X102" s="49"/>
-      <c r="Y102" s="49"/>
+      <c r="V102" s="44"/>
+      <c r="W102" s="44"/>
+      <c r="X102" s="44"/>
+      <c r="Y102" s="44"/>
       <c r="Z102" s="26" t="s">
         <v>56</v>
       </c>
@@ -6212,34 +6212,34 @@
       <c r="AD102" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AE102" s="49"/>
-      <c r="AF102" s="49"/>
-      <c r="AG102" s="49"/>
-      <c r="AH102" s="49"/>
+      <c r="AE102" s="44"/>
+      <c r="AF102" s="44"/>
+      <c r="AG102" s="44"/>
+      <c r="AH102" s="44"/>
       <c r="AI102" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="AK102" s="48" t="s">
+      <c r="AK102" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="AL102" s="54"/>
+      <c r="AL102" s="53"/>
       <c r="AM102" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AN102" s="49"/>
-      <c r="AO102" s="49"/>
-      <c r="AP102" s="49"/>
-      <c r="AQ102" s="49"/>
+      <c r="AN102" s="44"/>
+      <c r="AO102" s="44"/>
+      <c r="AP102" s="44"/>
+      <c r="AQ102" s="44"/>
       <c r="AR102" s="26" t="s">
         <v>56</v>
       </c>
       <c r="AS102" s="1"/>
-      <c r="AT102" s="48" t="s">
+      <c r="AT102" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="AU102" s="48"/>
+      <c r="AU102" s="47"/>
       <c r="AV102" s="42"/>
-      <c r="AW102" s="49"/>
+      <c r="AW102" s="44"/>
       <c r="AX102" s="43"/>
       <c r="AZ102" s="42" t="s">
         <v>118</v>
@@ -6545,13 +6545,13 @@
       <c r="S106" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="T106" s="49"/>
-      <c r="U106" s="49"/>
+      <c r="T106" s="44"/>
+      <c r="U106" s="44"/>
       <c r="V106" s="43"/>
       <c r="W106" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="X106" s="49"/>
+      <c r="X106" s="44"/>
       <c r="Y106" s="43"/>
       <c r="Z106" s="42" t="s">
         <v>86</v>
@@ -6560,30 +6560,30 @@
       <c r="AB106" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AC106" s="49"/>
+      <c r="AC106" s="44"/>
       <c r="AD106" s="43"/>
       <c r="AE106" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="AF106" s="49"/>
+      <c r="AF106" s="44"/>
       <c r="AG106" s="43"/>
       <c r="AH106" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="AI106" s="49"/>
+      <c r="AI106" s="44"/>
       <c r="AJ106" s="43"/>
       <c r="AK106" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="AL106" s="49"/>
+      <c r="AL106" s="44"/>
       <c r="AM106" s="43"/>
       <c r="AN106" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="AO106" s="49"/>
-      <c r="AP106" s="49"/>
-      <c r="AQ106" s="49"/>
-      <c r="AR106" s="49"/>
+      <c r="AO106" s="44"/>
+      <c r="AP106" s="44"/>
+      <c r="AQ106" s="44"/>
+      <c r="AR106" s="44"/>
       <c r="AS106" s="43"/>
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
@@ -6695,10 +6695,10 @@
       <c r="BM107" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="BN107" s="49"/>
-      <c r="BO107" s="49"/>
-      <c r="BP107" s="49"/>
-      <c r="BQ107" s="49"/>
+      <c r="BN107" s="44"/>
+      <c r="BO107" s="44"/>
+      <c r="BP107" s="44"/>
+      <c r="BQ107" s="44"/>
       <c r="BR107" s="32" t="s">
         <v>56</v>
       </c>
@@ -6796,21 +6796,21 @@
       <c r="BU108" s="1"/>
       <c r="BV108" s="7"/>
       <c r="BX108" s="6"/>
-      <c r="BY108" s="48" t="s">
+      <c r="BY108" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="BZ108" s="48"/>
-      <c r="CA108" s="48"/>
-      <c r="CB108" s="50" t="s">
+      <c r="BZ108" s="47"/>
+      <c r="CA108" s="47"/>
+      <c r="CB108" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="CC108" s="51"/>
-      <c r="CD108" s="51"/>
-      <c r="CE108" s="51"/>
-      <c r="CF108" s="51"/>
-      <c r="CG108" s="51"/>
-      <c r="CH108" s="51"/>
-      <c r="CI108" s="52"/>
+      <c r="CC108" s="49"/>
+      <c r="CD108" s="49"/>
+      <c r="CE108" s="49"/>
+      <c r="CF108" s="49"/>
+      <c r="CG108" s="49"/>
+      <c r="CH108" s="49"/>
+      <c r="CI108" s="50"/>
       <c r="CJ108" s="16" t="s">
         <v>56</v>
       </c>
@@ -6960,20 +6960,20 @@
       <c r="BU110" s="1"/>
       <c r="BV110" s="7"/>
       <c r="BX110" s="6"/>
-      <c r="BY110" s="48" t="s">
+      <c r="BY110" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="BZ110" s="54"/>
-      <c r="CA110" s="50" t="s">
+      <c r="BZ110" s="53"/>
+      <c r="CA110" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="CB110" s="51"/>
-      <c r="CC110" s="51"/>
-      <c r="CD110" s="51"/>
-      <c r="CE110" s="51"/>
-      <c r="CF110" s="51"/>
-      <c r="CG110" s="51"/>
-      <c r="CH110" s="52"/>
+      <c r="CB110" s="49"/>
+      <c r="CC110" s="49"/>
+      <c r="CD110" s="49"/>
+      <c r="CE110" s="49"/>
+      <c r="CF110" s="49"/>
+      <c r="CG110" s="49"/>
+      <c r="CH110" s="50"/>
       <c r="CI110" s="16" t="s">
         <v>56</v>
       </c>
@@ -7129,20 +7129,20 @@
       <c r="BU112" s="1"/>
       <c r="BV112" s="7"/>
       <c r="BX112" s="6"/>
-      <c r="BY112" s="48" t="s">
+      <c r="BY112" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="BZ112" s="54"/>
-      <c r="CA112" s="50" t="s">
+      <c r="BZ112" s="53"/>
+      <c r="CA112" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="CB112" s="51"/>
-      <c r="CC112" s="51"/>
-      <c r="CD112" s="51"/>
-      <c r="CE112" s="51"/>
-      <c r="CF112" s="51"/>
-      <c r="CG112" s="51"/>
-      <c r="CH112" s="52"/>
+      <c r="CB112" s="49"/>
+      <c r="CC112" s="49"/>
+      <c r="CD112" s="49"/>
+      <c r="CE112" s="49"/>
+      <c r="CF112" s="49"/>
+      <c r="CG112" s="49"/>
+      <c r="CH112" s="50"/>
       <c r="CI112" s="26" t="s">
         <v>56</v>
       </c>
@@ -7758,17 +7758,17 @@
         <v>166</v>
       </c>
       <c r="S126" s="1"/>
-      <c r="T126" s="47"/>
-      <c r="U126" s="47"/>
-      <c r="V126" s="47"/>
+      <c r="T126" s="46"/>
+      <c r="U126" s="46"/>
+      <c r="V126" s="46"/>
       <c r="W126" s="1"/>
       <c r="X126" s="1" t="s">
         <v>168</v>
       </c>
       <c r="Y126" s="1"/>
-      <c r="Z126" s="47"/>
-      <c r="AA126" s="47"/>
-      <c r="AB126" s="47"/>
+      <c r="Z126" s="46"/>
+      <c r="AA126" s="46"/>
+      <c r="AB126" s="46"/>
       <c r="AC126" s="1"/>
       <c r="AD126" s="42" t="s">
         <v>118</v>
@@ -7846,20 +7846,20 @@
         <v>224</v>
       </c>
       <c r="Q128" s="6"/>
-      <c r="R128" s="47" t="s">
+      <c r="R128" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="S128" s="47"/>
+      <c r="S128" s="46"/>
       <c r="T128" s="1"/>
-      <c r="U128" s="47" t="s">
+      <c r="U128" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="V128" s="47"/>
+      <c r="V128" s="46"/>
       <c r="W128" s="1"/>
-      <c r="X128" s="47" t="s">
+      <c r="X128" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="Y128" s="47"/>
+      <c r="Y128" s="46"/>
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
@@ -7980,10 +7980,10 @@
         <v>207</v>
       </c>
       <c r="AN129" s="1"/>
-      <c r="AO129" s="47"/>
-      <c r="AP129" s="47"/>
-      <c r="AQ129" s="47"/>
-      <c r="AR129" s="47"/>
+      <c r="AO129" s="46"/>
+      <c r="AP129" s="46"/>
+      <c r="AQ129" s="46"/>
+      <c r="AR129" s="46"/>
       <c r="AS129" s="26" t="s">
         <v>56</v>
       </c>
@@ -8097,12 +8097,12 @@
       <c r="AA130" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="AB130" s="49"/>
-      <c r="AC130" s="49"/>
-      <c r="AD130" s="49"/>
-      <c r="AE130" s="49"/>
-      <c r="AF130" s="49"/>
-      <c r="AG130" s="49"/>
+      <c r="AB130" s="44"/>
+      <c r="AC130" s="44"/>
+      <c r="AD130" s="44"/>
+      <c r="AE130" s="44"/>
+      <c r="AF130" s="44"/>
+      <c r="AG130" s="44"/>
       <c r="AH130" s="43"/>
       <c r="AI130" s="7"/>
       <c r="AL130" s="6"/>
@@ -8198,22 +8198,22 @@
       <c r="Z131" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="AA131" s="47" t="s">
+      <c r="AA131" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="AB131" s="47"/>
-      <c r="AC131" s="47" t="s">
+      <c r="AB131" s="46"/>
+      <c r="AC131" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AD131" s="47"/>
-      <c r="AE131" s="47" t="s">
+      <c r="AD131" s="46"/>
+      <c r="AE131" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="AF131" s="47"/>
-      <c r="AG131" s="47" t="s">
+      <c r="AF131" s="46"/>
+      <c r="AG131" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="AH131" s="47"/>
+      <c r="AH131" s="46"/>
       <c r="AI131" s="7"/>
       <c r="AL131" s="6"/>
       <c r="AM131" s="1" t="s">
@@ -8227,20 +8227,20 @@
       <c r="AS131" s="13"/>
       <c r="AU131" s="7"/>
       <c r="AX131" s="6"/>
-      <c r="AY131" s="47" t="s">
+      <c r="AY131" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="AZ131" s="47"/>
-      <c r="BA131" s="47" t="s">
+      <c r="AZ131" s="46"/>
+      <c r="BA131" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="BB131" s="47"/>
-      <c r="BC131" s="47"/>
-      <c r="BD131" s="47" t="s">
+      <c r="BB131" s="46"/>
+      <c r="BC131" s="46"/>
+      <c r="BD131" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="BE131" s="47"/>
-      <c r="BF131" s="47"/>
+      <c r="BE131" s="46"/>
+      <c r="BF131" s="46"/>
       <c r="BG131" s="42" t="s">
         <v>199</v>
       </c>
@@ -8325,14 +8325,14 @@
       <c r="X132" s="43"/>
       <c r="Y132" s="42"/>
       <c r="Z132" s="43"/>
-      <c r="AA132" s="47"/>
-      <c r="AB132" s="47"/>
-      <c r="AC132" s="47"/>
-      <c r="AD132" s="47"/>
-      <c r="AE132" s="47"/>
-      <c r="AF132" s="47"/>
-      <c r="AG132" s="47"/>
-      <c r="AH132" s="47"/>
+      <c r="AA132" s="46"/>
+      <c r="AB132" s="46"/>
+      <c r="AC132" s="46"/>
+      <c r="AD132" s="46"/>
+      <c r="AE132" s="46"/>
+      <c r="AF132" s="46"/>
+      <c r="AG132" s="46"/>
+      <c r="AH132" s="46"/>
       <c r="AI132" s="7"/>
       <c r="AL132" s="6"/>
       <c r="AM132" s="1"/>
@@ -8345,20 +8345,20 @@
       <c r="AT132" s="1"/>
       <c r="AU132" s="7"/>
       <c r="AX132" s="6"/>
-      <c r="AY132" s="47">
+      <c r="AY132" s="46">
         <v>1</v>
       </c>
-      <c r="AZ132" s="47"/>
-      <c r="BA132" s="53" t="s">
+      <c r="AZ132" s="46"/>
+      <c r="BA132" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="BB132" s="53"/>
-      <c r="BC132" s="53"/>
-      <c r="BD132" s="47" t="s">
+      <c r="BB132" s="55"/>
+      <c r="BC132" s="55"/>
+      <c r="BD132" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="BE132" s="47"/>
-      <c r="BF132" s="47"/>
+      <c r="BE132" s="46"/>
+      <c r="BF132" s="46"/>
       <c r="BG132" s="42" t="s">
         <v>200</v>
       </c>
@@ -8435,14 +8435,14 @@
       <c r="X133" s="43"/>
       <c r="Y133" s="42"/>
       <c r="Z133" s="43"/>
-      <c r="AA133" s="47"/>
-      <c r="AB133" s="47"/>
-      <c r="AC133" s="47"/>
-      <c r="AD133" s="47"/>
-      <c r="AE133" s="47"/>
-      <c r="AF133" s="47"/>
-      <c r="AG133" s="47"/>
-      <c r="AH133" s="47"/>
+      <c r="AA133" s="46"/>
+      <c r="AB133" s="46"/>
+      <c r="AC133" s="46"/>
+      <c r="AD133" s="46"/>
+      <c r="AE133" s="46"/>
+      <c r="AF133" s="46"/>
+      <c r="AG133" s="46"/>
+      <c r="AH133" s="46"/>
       <c r="AI133" s="7"/>
       <c r="AL133" s="6"/>
       <c r="AM133" s="1" t="s">
@@ -8456,18 +8456,18 @@
       <c r="AS133" s="5"/>
       <c r="AU133" s="7"/>
       <c r="AX133" s="6"/>
-      <c r="AY133" s="47">
+      <c r="AY133" s="46">
         <v>2</v>
       </c>
-      <c r="AZ133" s="47"/>
-      <c r="BA133" s="47" t="s">
+      <c r="AZ133" s="46"/>
+      <c r="BA133" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="BB133" s="47"/>
-      <c r="BC133" s="47"/>
-      <c r="BD133" s="47"/>
-      <c r="BE133" s="47"/>
-      <c r="BF133" s="47"/>
+      <c r="BB133" s="46"/>
+      <c r="BC133" s="46"/>
+      <c r="BD133" s="46"/>
+      <c r="BE133" s="46"/>
+      <c r="BF133" s="46"/>
       <c r="BG133" s="42"/>
       <c r="BH133" s="43"/>
       <c r="BI133" s="23" t="s">
@@ -8542,14 +8542,14 @@
       <c r="X134" s="43"/>
       <c r="Y134" s="42"/>
       <c r="Z134" s="43"/>
-      <c r="AA134" s="47"/>
-      <c r="AB134" s="47"/>
-      <c r="AC134" s="47"/>
-      <c r="AD134" s="47"/>
-      <c r="AE134" s="47"/>
-      <c r="AF134" s="47"/>
-      <c r="AG134" s="47"/>
-      <c r="AH134" s="47"/>
+      <c r="AA134" s="46"/>
+      <c r="AB134" s="46"/>
+      <c r="AC134" s="46"/>
+      <c r="AD134" s="46"/>
+      <c r="AE134" s="46"/>
+      <c r="AF134" s="46"/>
+      <c r="AG134" s="46"/>
+      <c r="AH134" s="46"/>
       <c r="AI134" s="7"/>
       <c r="AL134" s="6"/>
       <c r="AM134" s="1"/>
@@ -8561,16 +8561,16 @@
       <c r="AS134" s="7"/>
       <c r="AU134" s="7"/>
       <c r="AX134" s="6"/>
-      <c r="AY134" s="47">
+      <c r="AY134" s="46">
         <v>3</v>
       </c>
-      <c r="AZ134" s="47"/>
-      <c r="BA134" s="47"/>
-      <c r="BB134" s="47"/>
-      <c r="BC134" s="47"/>
-      <c r="BD134" s="47"/>
-      <c r="BE134" s="47"/>
-      <c r="BF134" s="47"/>
+      <c r="AZ134" s="46"/>
+      <c r="BA134" s="46"/>
+      <c r="BB134" s="46"/>
+      <c r="BC134" s="46"/>
+      <c r="BD134" s="46"/>
+      <c r="BE134" s="46"/>
+      <c r="BF134" s="46"/>
       <c r="BG134" s="42"/>
       <c r="BH134" s="43"/>
       <c r="BI134" s="1"/>
@@ -8652,14 +8652,14 @@
       <c r="X135" s="43"/>
       <c r="Y135" s="42"/>
       <c r="Z135" s="43"/>
-      <c r="AA135" s="47"/>
-      <c r="AB135" s="47"/>
-      <c r="AC135" s="47"/>
-      <c r="AD135" s="47"/>
-      <c r="AE135" s="47"/>
-      <c r="AF135" s="47"/>
-      <c r="AG135" s="47"/>
-      <c r="AH135" s="47"/>
+      <c r="AA135" s="46"/>
+      <c r="AB135" s="46"/>
+      <c r="AC135" s="46"/>
+      <c r="AD135" s="46"/>
+      <c r="AE135" s="46"/>
+      <c r="AF135" s="46"/>
+      <c r="AG135" s="46"/>
+      <c r="AH135" s="46"/>
       <c r="AI135" s="7"/>
       <c r="AL135" s="6"/>
       <c r="AM135" s="1"/>
@@ -8754,14 +8754,14 @@
       <c r="X136" s="43"/>
       <c r="Y136" s="42"/>
       <c r="Z136" s="43"/>
-      <c r="AA136" s="47"/>
-      <c r="AB136" s="47"/>
-      <c r="AC136" s="47"/>
-      <c r="AD136" s="47"/>
-      <c r="AE136" s="47"/>
-      <c r="AF136" s="47"/>
-      <c r="AG136" s="47"/>
-      <c r="AH136" s="47"/>
+      <c r="AA136" s="46"/>
+      <c r="AB136" s="46"/>
+      <c r="AC136" s="46"/>
+      <c r="AD136" s="46"/>
+      <c r="AE136" s="46"/>
+      <c r="AF136" s="46"/>
+      <c r="AG136" s="46"/>
+      <c r="AH136" s="46"/>
       <c r="AI136" s="7"/>
       <c r="AL136" s="6"/>
       <c r="AM136" s="1"/>
@@ -8832,20 +8832,20 @@
       <c r="CX136" s="2"/>
       <c r="CY136" s="9"/>
       <c r="DC136" s="6"/>
-      <c r="DD136" s="47" t="s">
+      <c r="DD136" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="DE136" s="47"/>
-      <c r="DF136" s="47" t="s">
+      <c r="DE136" s="46"/>
+      <c r="DF136" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="DG136" s="47"/>
-      <c r="DH136" s="47"/>
-      <c r="DI136" s="47" t="s">
+      <c r="DG136" s="46"/>
+      <c r="DH136" s="46"/>
+      <c r="DI136" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="DJ136" s="47"/>
-      <c r="DK136" s="47"/>
+      <c r="DJ136" s="46"/>
+      <c r="DK136" s="46"/>
       <c r="DL136" s="42" t="s">
         <v>199</v>
       </c>
@@ -8867,14 +8867,14 @@
       <c r="X137" s="43"/>
       <c r="Y137" s="42"/>
       <c r="Z137" s="43"/>
-      <c r="AA137" s="47"/>
-      <c r="AB137" s="47"/>
-      <c r="AC137" s="47"/>
-      <c r="AD137" s="47"/>
-      <c r="AE137" s="47"/>
-      <c r="AF137" s="47"/>
-      <c r="AG137" s="47"/>
-      <c r="AH137" s="47"/>
+      <c r="AA137" s="46"/>
+      <c r="AB137" s="46"/>
+      <c r="AC137" s="46"/>
+      <c r="AD137" s="46"/>
+      <c r="AE137" s="46"/>
+      <c r="AF137" s="46"/>
+      <c r="AG137" s="46"/>
+      <c r="AH137" s="46"/>
       <c r="AI137" s="7"/>
       <c r="AL137" s="6"/>
       <c r="AM137" s="1"/>
@@ -8931,20 +8931,20 @@
       <c r="CL137" s="1"/>
       <c r="CM137" s="1"/>
       <c r="DC137" s="6"/>
-      <c r="DD137" s="47">
+      <c r="DD137" s="46">
         <v>1</v>
       </c>
-      <c r="DE137" s="47"/>
-      <c r="DF137" s="47" t="s">
+      <c r="DE137" s="46"/>
+      <c r="DF137" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="DG137" s="47"/>
-      <c r="DH137" s="47"/>
-      <c r="DI137" s="47" t="s">
+      <c r="DG137" s="46"/>
+      <c r="DH137" s="46"/>
+      <c r="DI137" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="DJ137" s="47"/>
-      <c r="DK137" s="47"/>
+      <c r="DJ137" s="46"/>
+      <c r="DK137" s="46"/>
       <c r="DL137" s="42" t="s">
         <v>186</v>
       </c>
@@ -8969,14 +8969,14 @@
       <c r="X138" s="43"/>
       <c r="Y138" s="42"/>
       <c r="Z138" s="43"/>
-      <c r="AA138" s="47"/>
-      <c r="AB138" s="47"/>
-      <c r="AC138" s="47"/>
-      <c r="AD138" s="47"/>
-      <c r="AE138" s="47"/>
-      <c r="AF138" s="47"/>
-      <c r="AG138" s="47"/>
-      <c r="AH138" s="47"/>
+      <c r="AA138" s="46"/>
+      <c r="AB138" s="46"/>
+      <c r="AC138" s="46"/>
+      <c r="AD138" s="46"/>
+      <c r="AE138" s="46"/>
+      <c r="AF138" s="46"/>
+      <c r="AG138" s="46"/>
+      <c r="AH138" s="46"/>
       <c r="AI138" s="7"/>
       <c r="AL138" s="8"/>
       <c r="AM138" s="2"/>
@@ -9024,18 +9024,18 @@
       <c r="CL138" s="1"/>
       <c r="CM138" s="1"/>
       <c r="DC138" s="6"/>
-      <c r="DD138" s="47">
+      <c r="DD138" s="46">
         <v>2</v>
       </c>
-      <c r="DE138" s="47"/>
-      <c r="DF138" s="47" t="s">
+      <c r="DE138" s="46"/>
+      <c r="DF138" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="DG138" s="47"/>
-      <c r="DH138" s="47"/>
-      <c r="DI138" s="47"/>
-      <c r="DJ138" s="47"/>
-      <c r="DK138" s="47"/>
+      <c r="DG138" s="46"/>
+      <c r="DH138" s="46"/>
+      <c r="DI138" s="46"/>
+      <c r="DJ138" s="46"/>
+      <c r="DK138" s="46"/>
       <c r="DL138" s="42"/>
       <c r="DM138" s="43"/>
       <c r="DN138" s="1"/>
@@ -9109,16 +9109,16 @@
       <c r="CL139" s="1"/>
       <c r="CM139" s="1"/>
       <c r="DC139" s="6"/>
-      <c r="DD139" s="47">
+      <c r="DD139" s="46">
         <v>3</v>
       </c>
-      <c r="DE139" s="47"/>
-      <c r="DF139" s="47"/>
-      <c r="DG139" s="47"/>
-      <c r="DH139" s="47"/>
-      <c r="DI139" s="47"/>
-      <c r="DJ139" s="47"/>
-      <c r="DK139" s="47"/>
+      <c r="DE139" s="46"/>
+      <c r="DF139" s="46"/>
+      <c r="DG139" s="46"/>
+      <c r="DH139" s="46"/>
+      <c r="DI139" s="46"/>
+      <c r="DJ139" s="46"/>
+      <c r="DK139" s="46"/>
       <c r="DL139" s="42"/>
       <c r="DM139" s="43"/>
       <c r="DN139" s="1"/>
@@ -9346,10 +9346,10 @@
       <c r="R149" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="S149" s="47"/>
-      <c r="T149" s="47"/>
-      <c r="U149" s="47"/>
-      <c r="V149" s="47"/>
+      <c r="S149" s="46"/>
+      <c r="T149" s="46"/>
+      <c r="U149" s="46"/>
+      <c r="V149" s="46"/>
       <c r="W149" s="26" t="s">
         <v>56</v>
       </c>
@@ -9357,10 +9357,10 @@
       <c r="Y149" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Z149" s="47"/>
-      <c r="AA149" s="47"/>
-      <c r="AB149" s="47"/>
-      <c r="AC149" s="47"/>
+      <c r="Z149" s="46"/>
+      <c r="AA149" s="46"/>
+      <c r="AB149" s="46"/>
+      <c r="AC149" s="46"/>
       <c r="AD149" s="26" t="s">
         <v>56</v>
       </c>
@@ -9497,10 +9497,10 @@
         <v>205</v>
       </c>
       <c r="AK152" s="1"/>
-      <c r="AL152" s="47"/>
-      <c r="AM152" s="47"/>
-      <c r="AN152" s="47"/>
-      <c r="AO152" s="47"/>
+      <c r="AL152" s="46"/>
+      <c r="AM152" s="46"/>
+      <c r="AN152" s="46"/>
+      <c r="AO152" s="46"/>
       <c r="AP152" s="26" t="s">
         <v>56</v>
       </c>
@@ -9766,10 +9766,10 @@
       <c r="AJ159" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AL159" s="47"/>
-      <c r="AM159" s="47"/>
-      <c r="AN159" s="47"/>
-      <c r="AO159" s="47"/>
+      <c r="AL159" s="46"/>
+      <c r="AM159" s="46"/>
+      <c r="AN159" s="46"/>
+      <c r="AO159" s="46"/>
       <c r="AP159" s="26" t="s">
         <v>56</v>
       </c>
@@ -9823,10 +9823,10 @@
         <v>206</v>
       </c>
       <c r="AK161" s="1"/>
-      <c r="AL161" s="47"/>
-      <c r="AM161" s="47"/>
-      <c r="AN161" s="47"/>
-      <c r="AO161" s="47"/>
+      <c r="AL161" s="46"/>
+      <c r="AM161" s="46"/>
+      <c r="AN161" s="46"/>
+      <c r="AO161" s="46"/>
       <c r="AP161" s="26" t="s">
         <v>56</v>
       </c>
@@ -10337,10 +10337,10 @@
       <c r="R187" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="S187" s="47"/>
-      <c r="T187" s="47"/>
-      <c r="U187" s="47"/>
-      <c r="V187" s="47"/>
+      <c r="S187" s="46"/>
+      <c r="T187" s="46"/>
+      <c r="U187" s="46"/>
+      <c r="V187" s="46"/>
       <c r="W187" s="26" t="s">
         <v>56</v>
       </c>
@@ -10349,9 +10349,9 @@
         <v>181</v>
       </c>
       <c r="Z187" s="1"/>
-      <c r="AA187" s="47"/>
-      <c r="AB187" s="47"/>
-      <c r="AC187" s="47"/>
+      <c r="AA187" s="46"/>
+      <c r="AB187" s="46"/>
+      <c r="AC187" s="46"/>
       <c r="AD187" s="1"/>
       <c r="AE187" s="7"/>
     </row>
@@ -10389,23 +10389,23 @@
       <c r="R189" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="S189" s="47" t="s">
+      <c r="S189" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="T189" s="47"/>
-      <c r="U189" s="47" t="s">
+      <c r="T189" s="46"/>
+      <c r="U189" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="V189" s="47"/>
+      <c r="V189" s="46"/>
       <c r="W189" s="36" t="s">
         <v>189</v>
       </c>
       <c r="X189" s="36"/>
-      <c r="Y189" s="44" t="s">
+      <c r="Y189" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="Z189" s="45"/>
-      <c r="AA189" s="46"/>
+      <c r="Z189" s="57"/>
+      <c r="AA189" s="58"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
@@ -10694,6 +10694,394 @@
     </row>
   </sheetData>
   <mergeCells count="412">
+    <mergeCell ref="AI192:AJ192"/>
+    <mergeCell ref="Y189:AA189"/>
+    <mergeCell ref="S187:V187"/>
+    <mergeCell ref="AA187:AC187"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="U189:V189"/>
+    <mergeCell ref="AI190:AJ190"/>
+    <mergeCell ref="AI191:AJ191"/>
+    <mergeCell ref="AN190:AO190"/>
+    <mergeCell ref="AN191:AO191"/>
+    <mergeCell ref="AN192:AO192"/>
+    <mergeCell ref="AT102:AU102"/>
+    <mergeCell ref="AV102:AX102"/>
+    <mergeCell ref="Y153:Z153"/>
+    <mergeCell ref="AL159:AO159"/>
+    <mergeCell ref="AL161:AO161"/>
+    <mergeCell ref="S149:V149"/>
+    <mergeCell ref="Z149:AC149"/>
+    <mergeCell ref="S159:T159"/>
+    <mergeCell ref="U159:V159"/>
+    <mergeCell ref="W159:X159"/>
+    <mergeCell ref="S160:T160"/>
+    <mergeCell ref="U160:V160"/>
+    <mergeCell ref="W160:X160"/>
+    <mergeCell ref="AL152:AO152"/>
+    <mergeCell ref="AN137:AO137"/>
+    <mergeCell ref="AQ137:AR137"/>
+    <mergeCell ref="S156:T156"/>
+    <mergeCell ref="U156:V156"/>
+    <mergeCell ref="W156:X156"/>
+    <mergeCell ref="S157:T157"/>
+    <mergeCell ref="U157:V157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="U158:V158"/>
+    <mergeCell ref="W158:X158"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="AA153:AB153"/>
+    <mergeCell ref="AC153:AD153"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="U154:V154"/>
+    <mergeCell ref="W154:X154"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="AC138:AD138"/>
+    <mergeCell ref="AO129:AR129"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="AC133:AD133"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AG137:AH137"/>
+    <mergeCell ref="AG138:AH138"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="U138:V138"/>
+    <mergeCell ref="W138:X138"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="DL139:DM139"/>
+    <mergeCell ref="DJ141:DK141"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="AA130:AH130"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="Y131:Z131"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
+    <mergeCell ref="Y132:Z132"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
+    <mergeCell ref="Y133:Z133"/>
+    <mergeCell ref="U134:V134"/>
+    <mergeCell ref="W134:X134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="W135:X135"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="W137:X137"/>
+    <mergeCell ref="DL136:DM136"/>
+    <mergeCell ref="DD137:DE137"/>
+    <mergeCell ref="DF137:DH137"/>
+    <mergeCell ref="DI137:DK137"/>
+    <mergeCell ref="DL137:DM137"/>
+    <mergeCell ref="DD138:DE138"/>
+    <mergeCell ref="DF138:DH138"/>
+    <mergeCell ref="DI138:DK138"/>
+    <mergeCell ref="DL138:DM138"/>
+    <mergeCell ref="CU131:CV131"/>
+    <mergeCell ref="CU132:CV132"/>
+    <mergeCell ref="CS131:CT131"/>
+    <mergeCell ref="CS132:CT132"/>
+    <mergeCell ref="DD136:DE136"/>
+    <mergeCell ref="DF136:DH136"/>
+    <mergeCell ref="DI136:DK136"/>
+    <mergeCell ref="CD139:CE139"/>
+    <mergeCell ref="CG139:CH139"/>
+    <mergeCell ref="DD139:DE139"/>
+    <mergeCell ref="DF139:DH139"/>
+    <mergeCell ref="DI139:DK139"/>
+    <mergeCell ref="BG134:BH134"/>
+    <mergeCell ref="CN134:CO134"/>
+    <mergeCell ref="CQ134:CR134"/>
+    <mergeCell ref="BO133:BP133"/>
+    <mergeCell ref="BQ133:BR133"/>
+    <mergeCell ref="BS133:BT133"/>
+    <mergeCell ref="BO134:BP134"/>
+    <mergeCell ref="BQ134:BR134"/>
+    <mergeCell ref="BS134:BT134"/>
+    <mergeCell ref="CA112:CH112"/>
+    <mergeCell ref="AN106:AS106"/>
+    <mergeCell ref="BA132:BC132"/>
+    <mergeCell ref="AY131:AZ131"/>
+    <mergeCell ref="BA131:BC131"/>
+    <mergeCell ref="BD131:BF131"/>
+    <mergeCell ref="AY132:AZ132"/>
+    <mergeCell ref="BD132:BF132"/>
+    <mergeCell ref="AY133:AZ133"/>
+    <mergeCell ref="BA133:BC133"/>
+    <mergeCell ref="BD133:BF133"/>
+    <mergeCell ref="BZ116:CA116"/>
+    <mergeCell ref="CC116:CD116"/>
+    <mergeCell ref="BO131:BP131"/>
+    <mergeCell ref="BQ131:BR131"/>
+    <mergeCell ref="BS131:BT131"/>
+    <mergeCell ref="BO132:BP132"/>
+    <mergeCell ref="BQ132:BR132"/>
+    <mergeCell ref="BS132:BT132"/>
+    <mergeCell ref="BY112:BZ112"/>
+    <mergeCell ref="CB108:CI108"/>
+    <mergeCell ref="BY110:BZ110"/>
+    <mergeCell ref="BG131:BH131"/>
+    <mergeCell ref="BG132:BH132"/>
+    <mergeCell ref="BP136:BQ136"/>
+    <mergeCell ref="AE131:AF131"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AE133:AF133"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="W136:X136"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="AY134:AZ134"/>
+    <mergeCell ref="BA134:BC134"/>
+    <mergeCell ref="BD134:BF134"/>
+    <mergeCell ref="BA136:BB136"/>
+    <mergeCell ref="BD136:BE136"/>
+    <mergeCell ref="AG131:AH131"/>
+    <mergeCell ref="AG132:AH132"/>
+    <mergeCell ref="AG133:AH133"/>
+    <mergeCell ref="AG134:AH134"/>
+    <mergeCell ref="AG135:AH135"/>
+    <mergeCell ref="AG136:AH136"/>
+    <mergeCell ref="BG133:BH133"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="Z126:AB126"/>
+    <mergeCell ref="AD126:AE126"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD102:AH102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="AM102:AQ102"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI32:AO32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="CA110:CH110"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AN37:AO37"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="BI58:BJ58"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="BK49:BL49"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="BK50:BL50"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BI52:BJ52"/>
+    <mergeCell ref="BK52:BL52"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="BY108:CA108"/>
+    <mergeCell ref="BC74:BD74"/>
+    <mergeCell ref="BC75:BD75"/>
+    <mergeCell ref="BN78:BO78"/>
+    <mergeCell ref="BI53:BJ53"/>
+    <mergeCell ref="BK53:BL53"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AO38"/>
+    <mergeCell ref="S106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="AE106:AG106"/>
+    <mergeCell ref="AH106:AJ106"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="X48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="V91:Y91"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="BB73:BC73"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:AB66"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AB90:AG90"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AD93:AE93"/>
+    <mergeCell ref="AF93:AG93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AD94:AE94"/>
+    <mergeCell ref="AF94:AG94"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="V94:Y94"/>
+    <mergeCell ref="V93:Y93"/>
+    <mergeCell ref="BA66:BC66"/>
+    <mergeCell ref="BD66:BK66"/>
+    <mergeCell ref="BB70:BC70"/>
+    <mergeCell ref="BD70:BE70"/>
+    <mergeCell ref="BF70:BG70"/>
+    <mergeCell ref="BC71:BD71"/>
+    <mergeCell ref="BE71:BF71"/>
+    <mergeCell ref="BG71:BH71"/>
+    <mergeCell ref="BC72:BD72"/>
+    <mergeCell ref="BK56:BL56"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W34:Y34"/>
     <mergeCell ref="BP115:BQ115"/>
     <mergeCell ref="BH117:BI117"/>
     <mergeCell ref="BK117:BL117"/>
@@ -10718,394 +11106,6 @@
     <mergeCell ref="BI55:BJ55"/>
     <mergeCell ref="BK55:BL55"/>
     <mergeCell ref="BI56:BJ56"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="BK56:BL56"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="BA66:BC66"/>
-    <mergeCell ref="BD66:BK66"/>
-    <mergeCell ref="BB70:BC70"/>
-    <mergeCell ref="BD70:BE70"/>
-    <mergeCell ref="BF70:BG70"/>
-    <mergeCell ref="BC71:BD71"/>
-    <mergeCell ref="BE71:BF71"/>
-    <mergeCell ref="BG71:BH71"/>
-    <mergeCell ref="BC72:BD72"/>
-    <mergeCell ref="BB73:BC73"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:AB66"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="AB90:AG90"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="AF91:AG91"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AF93:AG93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AD94:AE94"/>
-    <mergeCell ref="AF94:AG94"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="V94:Y94"/>
-    <mergeCell ref="V93:Y93"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="V91:Y91"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="S106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="AE106:AG106"/>
-    <mergeCell ref="AH106:AJ106"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="X48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="CA110:CH110"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="BI58:BJ58"/>
-    <mergeCell ref="BH47:BI47"/>
-    <mergeCell ref="BJ47:BK47"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="BK49:BL49"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="BK50:BL50"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BI52:BJ52"/>
-    <mergeCell ref="BK52:BL52"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="BY108:CA108"/>
-    <mergeCell ref="BC74:BD74"/>
-    <mergeCell ref="BC75:BD75"/>
-    <mergeCell ref="BN78:BO78"/>
-    <mergeCell ref="BI53:BJ53"/>
-    <mergeCell ref="BK53:BL53"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="Z126:AB126"/>
-    <mergeCell ref="AD126:AE126"/>
-    <mergeCell ref="AA131:AB131"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD102:AH102"/>
-    <mergeCell ref="AK102:AL102"/>
-    <mergeCell ref="AM102:AQ102"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AI32:AO32"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="BP136:BQ136"/>
-    <mergeCell ref="AE131:AF131"/>
-    <mergeCell ref="AE132:AF132"/>
-    <mergeCell ref="AE133:AF133"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="AE135:AF135"/>
-    <mergeCell ref="AE136:AF136"/>
-    <mergeCell ref="W136:X136"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="Y130:Z130"/>
-    <mergeCell ref="U128:V128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="AY134:AZ134"/>
-    <mergeCell ref="BA134:BC134"/>
-    <mergeCell ref="BD134:BF134"/>
-    <mergeCell ref="BA136:BB136"/>
-    <mergeCell ref="BD136:BE136"/>
-    <mergeCell ref="AG131:AH131"/>
-    <mergeCell ref="AG132:AH132"/>
-    <mergeCell ref="AG133:AH133"/>
-    <mergeCell ref="AG134:AH134"/>
-    <mergeCell ref="AG135:AH135"/>
-    <mergeCell ref="AG136:AH136"/>
-    <mergeCell ref="BG133:BH133"/>
-    <mergeCell ref="CA112:CH112"/>
-    <mergeCell ref="AN106:AS106"/>
-    <mergeCell ref="BA132:BC132"/>
-    <mergeCell ref="AY131:AZ131"/>
-    <mergeCell ref="BA131:BC131"/>
-    <mergeCell ref="BD131:BF131"/>
-    <mergeCell ref="AY132:AZ132"/>
-    <mergeCell ref="BD132:BF132"/>
-    <mergeCell ref="AY133:AZ133"/>
-    <mergeCell ref="BA133:BC133"/>
-    <mergeCell ref="BD133:BF133"/>
-    <mergeCell ref="BZ116:CA116"/>
-    <mergeCell ref="CC116:CD116"/>
-    <mergeCell ref="BO131:BP131"/>
-    <mergeCell ref="BQ131:BR131"/>
-    <mergeCell ref="BS131:BT131"/>
-    <mergeCell ref="BO132:BP132"/>
-    <mergeCell ref="BQ132:BR132"/>
-    <mergeCell ref="BS132:BT132"/>
-    <mergeCell ref="BY112:BZ112"/>
-    <mergeCell ref="CB108:CI108"/>
-    <mergeCell ref="BY110:BZ110"/>
-    <mergeCell ref="BG131:BH131"/>
-    <mergeCell ref="BG132:BH132"/>
-    <mergeCell ref="BG134:BH134"/>
-    <mergeCell ref="CN134:CO134"/>
-    <mergeCell ref="CQ134:CR134"/>
-    <mergeCell ref="BO133:BP133"/>
-    <mergeCell ref="BQ133:BR133"/>
-    <mergeCell ref="BS133:BT133"/>
-    <mergeCell ref="BO134:BP134"/>
-    <mergeCell ref="BQ134:BR134"/>
-    <mergeCell ref="BS134:BT134"/>
-    <mergeCell ref="CU131:CV131"/>
-    <mergeCell ref="CU132:CV132"/>
-    <mergeCell ref="CS131:CT131"/>
-    <mergeCell ref="CS132:CT132"/>
-    <mergeCell ref="DD136:DE136"/>
-    <mergeCell ref="DF136:DH136"/>
-    <mergeCell ref="DI136:DK136"/>
-    <mergeCell ref="CD139:CE139"/>
-    <mergeCell ref="CG139:CH139"/>
-    <mergeCell ref="DD139:DE139"/>
-    <mergeCell ref="DF139:DH139"/>
-    <mergeCell ref="DI139:DK139"/>
-    <mergeCell ref="DL136:DM136"/>
-    <mergeCell ref="DD137:DE137"/>
-    <mergeCell ref="DF137:DH137"/>
-    <mergeCell ref="DI137:DK137"/>
-    <mergeCell ref="DL137:DM137"/>
-    <mergeCell ref="DD138:DE138"/>
-    <mergeCell ref="DF138:DH138"/>
-    <mergeCell ref="DI138:DK138"/>
-    <mergeCell ref="DL138:DM138"/>
-    <mergeCell ref="DL139:DM139"/>
-    <mergeCell ref="DJ141:DK141"/>
-    <mergeCell ref="U130:V130"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="AA130:AH130"/>
-    <mergeCell ref="U131:V131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="Y131:Z131"/>
-    <mergeCell ref="U132:V132"/>
-    <mergeCell ref="W132:X132"/>
-    <mergeCell ref="Y132:Z132"/>
-    <mergeCell ref="U133:V133"/>
-    <mergeCell ref="W133:X133"/>
-    <mergeCell ref="Y133:Z133"/>
-    <mergeCell ref="U134:V134"/>
-    <mergeCell ref="W134:X134"/>
-    <mergeCell ref="Y134:Z134"/>
-    <mergeCell ref="U135:V135"/>
-    <mergeCell ref="W135:X135"/>
-    <mergeCell ref="Y135:Z135"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="W137:X137"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="U138:V138"/>
-    <mergeCell ref="W138:X138"/>
-    <mergeCell ref="Y138:Z138"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="AA138:AB138"/>
-    <mergeCell ref="AC138:AD138"/>
-    <mergeCell ref="AO129:AR129"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AA132:AB132"/>
-    <mergeCell ref="AC132:AD132"/>
-    <mergeCell ref="AA133:AB133"/>
-    <mergeCell ref="AC133:AD133"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="AC134:AD134"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AG137:AH137"/>
-    <mergeCell ref="AG138:AH138"/>
-    <mergeCell ref="W158:X158"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="AA153:AB153"/>
-    <mergeCell ref="AC153:AD153"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="U154:V154"/>
-    <mergeCell ref="W154:X154"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="AT102:AU102"/>
-    <mergeCell ref="AV102:AX102"/>
-    <mergeCell ref="Y153:Z153"/>
-    <mergeCell ref="AL159:AO159"/>
-    <mergeCell ref="AL161:AO161"/>
-    <mergeCell ref="S149:V149"/>
-    <mergeCell ref="Z149:AC149"/>
-    <mergeCell ref="S159:T159"/>
-    <mergeCell ref="U159:V159"/>
-    <mergeCell ref="W159:X159"/>
-    <mergeCell ref="S160:T160"/>
-    <mergeCell ref="U160:V160"/>
-    <mergeCell ref="W160:X160"/>
-    <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="AN137:AO137"/>
-    <mergeCell ref="AQ137:AR137"/>
-    <mergeCell ref="S156:T156"/>
-    <mergeCell ref="U156:V156"/>
-    <mergeCell ref="W156:X156"/>
-    <mergeCell ref="S157:T157"/>
-    <mergeCell ref="U157:V157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="U158:V158"/>
-    <mergeCell ref="AI192:AJ192"/>
-    <mergeCell ref="Y189:AA189"/>
-    <mergeCell ref="S187:V187"/>
-    <mergeCell ref="AA187:AC187"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="U189:V189"/>
-    <mergeCell ref="AI190:AJ190"/>
-    <mergeCell ref="AI191:AJ191"/>
-    <mergeCell ref="AN190:AO190"/>
-    <mergeCell ref="AN191:AO191"/>
-    <mergeCell ref="AN192:AO192"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/通用测试平台.xlsx
+++ b/通用测试平台.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/General_Test_Platform/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -55,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="289">
   <si>
     <t>组织管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1189,6 +1197,42 @@
   </si>
   <si>
     <t>complex_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>££££·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查响应body数据项时，jsonpath表达式检查</t>
+    <rPh sb="0" eb="1">
+      <t>jian'cha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'ying</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>biao'da'shi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jian'cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <rPh sb="0" eb="1">
+      <t>dao'chu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1803,6 +1847,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="217">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1911,115 +1956,114 @@
     <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2321,19 +2365,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO198"/>
+  <dimension ref="A1:DO200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB200" sqref="AB200"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="AL120" sqref="AL120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="13" width="4.33203125" style="29"/>
     <col min="14" max="14" width="4.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" ht="18" customHeight="1">
+    <row r="1" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="45" t="s">
         <v>120</v>
       </c>
@@ -2352,7 +2396,7 @@
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
     </row>
-    <row r="2" spans="2:46" ht="18" customHeight="1">
+    <row r="2" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -2367,7 +2411,7 @@
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
     </row>
-    <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -2382,12 +2426,12 @@
       <c r="M3" s="30"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="5" spans="2:46" ht="18" customHeight="1">
+    <row r="5" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:46" ht="18" customHeight="1">
+    <row r="6" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="31" t="s">
         <v>121</v>
       </c>
@@ -2422,7 +2466,7 @@
       <c r="AS6" s="4"/>
       <c r="AT6" s="5"/>
     </row>
-    <row r="7" spans="2:46" ht="18" customHeight="1">
+    <row r="7" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q7" s="6"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -2454,7 +2498,7 @@
       <c r="AS7" s="1"/>
       <c r="AT7" s="7"/>
     </row>
-    <row r="8" spans="2:46" ht="18" customHeight="1">
+    <row r="8" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="29" t="s">
         <v>160</v>
       </c>
@@ -2489,7 +2533,7 @@
       <c r="AS8" s="5"/>
       <c r="AT8" s="7"/>
     </row>
-    <row r="9" spans="2:46" ht="18" customHeight="1">
+    <row r="9" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="29" t="s">
         <v>123</v>
       </c>
@@ -2526,7 +2570,7 @@
       <c r="AS9" s="7"/>
       <c r="AT9" s="7"/>
     </row>
-    <row r="10" spans="2:46" ht="18" customHeight="1">
+    <row r="10" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="29" t="s">
         <v>161</v>
       </c>
@@ -2567,7 +2611,7 @@
       <c r="AS10" s="7"/>
       <c r="AT10" s="7"/>
     </row>
-    <row r="11" spans="2:46" ht="18" customHeight="1">
+    <row r="11" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="29" t="s">
         <v>157</v>
       </c>
@@ -2608,7 +2652,7 @@
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
     </row>
-    <row r="12" spans="2:46" ht="18" customHeight="1">
+    <row r="12" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="1"/>
@@ -2642,7 +2686,7 @@
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
     </row>
-    <row r="13" spans="2:46" ht="18" customHeight="1">
+    <row r="13" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="47" t="s">
@@ -2682,7 +2726,7 @@
       <c r="AS13" s="7"/>
       <c r="AT13" s="7"/>
     </row>
-    <row r="14" spans="2:46" ht="18" customHeight="1">
+    <row r="14" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="1"/>
@@ -2714,7 +2758,7 @@
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
     </row>
-    <row r="15" spans="2:46" ht="18" customHeight="1">
+    <row r="15" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="1"/>
@@ -2746,7 +2790,7 @@
       <c r="AS15" s="7"/>
       <c r="AT15" s="7"/>
     </row>
-    <row r="16" spans="2:46" ht="18" customHeight="1">
+    <row r="16" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="1"/>
@@ -2776,7 +2820,7 @@
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
     </row>
-    <row r="17" spans="2:46" ht="18" customHeight="1">
+    <row r="17" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="1"/>
@@ -2802,7 +2846,7 @@
       <c r="AS17" s="7"/>
       <c r="AT17" s="7"/>
     </row>
-    <row r="18" spans="2:46" ht="18" customHeight="1">
+    <row r="18" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="1"/>
@@ -2832,7 +2876,7 @@
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
     </row>
-    <row r="19" spans="2:46" ht="18" customHeight="1">
+    <row r="19" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="1"/>
@@ -2860,7 +2904,7 @@
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
     </row>
-    <row r="20" spans="2:46" ht="18" customHeight="1">
+    <row r="20" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q20" s="6"/>
       <c r="R20" s="8"/>
       <c r="S20" s="2"/>
@@ -2892,7 +2936,7 @@
       <c r="AS20" s="9"/>
       <c r="AT20" s="7"/>
     </row>
-    <row r="21" spans="2:46" ht="18" customHeight="1">
+    <row r="21" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q21" s="6"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2924,7 +2968,7 @@
       <c r="AS21" s="1"/>
       <c r="AT21" s="7"/>
     </row>
-    <row r="22" spans="2:46" ht="18" customHeight="1">
+    <row r="22" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q22" s="8"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -2956,7 +3000,7 @@
       <c r="AS22" s="2"/>
       <c r="AT22" s="9"/>
     </row>
-    <row r="24" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="24" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -2971,12 +3015,12 @@
       <c r="M24" s="30"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="26" spans="2:46" ht="18" customHeight="1">
+    <row r="26" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:46" ht="18" customHeight="1">
+    <row r="27" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="31" t="s">
         <v>125</v>
       </c>
@@ -3011,7 +3055,7 @@
       <c r="AS27" s="4"/>
       <c r="AT27" s="5"/>
     </row>
-    <row r="28" spans="2:46" ht="18" customHeight="1">
+    <row r="28" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q28" s="6"/>
       <c r="R28" s="1"/>
       <c r="S28" s="47" t="s">
@@ -3052,7 +3096,7 @@
       <c r="AS28" s="1"/>
       <c r="AT28" s="7"/>
     </row>
-    <row r="29" spans="2:46" ht="18" customHeight="1">
+    <row r="29" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="29" t="s">
         <v>122</v>
       </c>
@@ -3087,7 +3131,7 @@
       <c r="AS29" s="1"/>
       <c r="AT29" s="7"/>
     </row>
-    <row r="30" spans="2:46" ht="18" customHeight="1">
+    <row r="30" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="29" t="s">
         <v>126</v>
       </c>
@@ -3128,7 +3172,7 @@
       <c r="AS30" s="1"/>
       <c r="AT30" s="7"/>
     </row>
-    <row r="31" spans="2:46" ht="18" customHeight="1">
+    <row r="31" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="29" t="s">
         <v>127</v>
       </c>
@@ -3163,7 +3207,7 @@
       <c r="AS31" s="1"/>
       <c r="AT31" s="7"/>
     </row>
-    <row r="32" spans="2:46" ht="18" customHeight="1">
+    <row r="32" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="29" t="s">
         <v>128</v>
       </c>
@@ -3214,7 +3258,7 @@
       <c r="AS32" s="1"/>
       <c r="AT32" s="7"/>
     </row>
-    <row r="33" spans="2:67" ht="18" customHeight="1">
+    <row r="33" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="29" t="s">
         <v>139</v>
       </c>
@@ -3259,7 +3303,7 @@
       <c r="AS33" s="1"/>
       <c r="AT33" s="7"/>
     </row>
-    <row r="34" spans="2:67" ht="18" customHeight="1">
+    <row r="34" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="29" t="s">
         <v>129</v>
       </c>
@@ -3304,7 +3348,7 @@
       <c r="AS34" s="1"/>
       <c r="AT34" s="7"/>
     </row>
-    <row r="35" spans="2:67" ht="18" customHeight="1">
+    <row r="35" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="29" t="s">
         <v>130</v>
       </c>
@@ -3347,7 +3391,7 @@
       <c r="AS35" s="1"/>
       <c r="AT35" s="7"/>
     </row>
-    <row r="36" spans="2:67" ht="18" customHeight="1">
+    <row r="36" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="29" t="s">
         <v>131</v>
       </c>
@@ -3390,7 +3434,7 @@
       <c r="AS36" s="1"/>
       <c r="AT36" s="7"/>
     </row>
-    <row r="37" spans="2:67" ht="18" customHeight="1">
+    <row r="37" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="29" t="s">
         <v>132</v>
       </c>
@@ -3433,7 +3477,7 @@
       <c r="AS37" s="1"/>
       <c r="AT37" s="7"/>
     </row>
-    <row r="38" spans="2:67" ht="18" customHeight="1">
+    <row r="38" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q38" s="6"/>
       <c r="R38" s="1"/>
       <c r="S38" s="42"/>
@@ -3465,7 +3509,7 @@
       <c r="AS38" s="1"/>
       <c r="AT38" s="7"/>
     </row>
-    <row r="39" spans="2:67" ht="18" customHeight="1">
+    <row r="39" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="6"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -3497,7 +3541,7 @@
       <c r="AS39" s="1"/>
       <c r="AT39" s="7"/>
     </row>
-    <row r="40" spans="2:67" ht="18" customHeight="1">
+    <row r="40" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q40" s="8"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -3529,7 +3573,7 @@
       <c r="AS40" s="2"/>
       <c r="AT40" s="9"/>
     </row>
-    <row r="42" spans="2:67" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="42" spans="2:67" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -3544,7 +3588,7 @@
       <c r="M42" s="30"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="44" spans="2:67" ht="18" customHeight="1">
+    <row r="44" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q44" t="s">
         <v>33</v>
       </c>
@@ -3555,7 +3599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:67" ht="18" customHeight="1">
+    <row r="45" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q45" s="3"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
@@ -3603,7 +3647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:67" ht="18" customHeight="1">
+    <row r="46" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="31" t="s">
         <v>133</v>
       </c>
@@ -3652,7 +3696,7 @@
       <c r="BN46" s="1"/>
       <c r="BO46" s="7"/>
     </row>
-    <row r="47" spans="2:67" ht="18" customHeight="1">
+    <row r="47" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q47" s="6"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -3700,7 +3744,7 @@
       <c r="BN47" s="1"/>
       <c r="BO47" s="7"/>
     </row>
-    <row r="48" spans="2:67" ht="18" customHeight="1">
+    <row r="48" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="29" t="s">
         <v>122</v>
       </c>
@@ -3757,7 +3801,7 @@
       <c r="BN48" s="1"/>
       <c r="BO48" s="7"/>
     </row>
-    <row r="49" spans="2:67" ht="18" customHeight="1">
+    <row r="49" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="29" t="s">
         <v>134</v>
       </c>
@@ -3816,7 +3860,7 @@
       <c r="BN49" s="1"/>
       <c r="BO49" s="7"/>
     </row>
-    <row r="50" spans="2:67" ht="18" customHeight="1">
+    <row r="50" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="29" t="s">
         <v>130</v>
       </c>
@@ -3869,7 +3913,7 @@
       <c r="BN50" s="1"/>
       <c r="BO50" s="7"/>
     </row>
-    <row r="51" spans="2:67" ht="18" customHeight="1">
+    <row r="51" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="29" t="s">
         <v>135</v>
       </c>
@@ -3926,7 +3970,7 @@
       <c r="BN51" s="1"/>
       <c r="BO51" s="7"/>
     </row>
-    <row r="52" spans="2:67" ht="18" customHeight="1">
+    <row r="52" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q52" s="6"/>
       <c r="R52" s="15"/>
       <c r="S52" s="46"/>
@@ -3976,7 +4020,7 @@
       <c r="BN52" s="1"/>
       <c r="BO52" s="7"/>
     </row>
-    <row r="53" spans="2:67" ht="18" customHeight="1">
+    <row r="53" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q53" s="6"/>
       <c r="R53" s="15"/>
       <c r="S53" s="46"/>
@@ -4022,7 +4066,7 @@
       <c r="BN53" s="1"/>
       <c r="BO53" s="7"/>
     </row>
-    <row r="54" spans="2:67" ht="18" customHeight="1">
+    <row r="54" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q54" s="6"/>
       <c r="R54" s="15"/>
       <c r="S54" s="46"/>
@@ -4068,7 +4112,7 @@
       <c r="BN54" s="1"/>
       <c r="BO54" s="7"/>
     </row>
-    <row r="55" spans="2:67" ht="18" customHeight="1">
+    <row r="55" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q55" s="6"/>
       <c r="R55" s="15"/>
       <c r="S55" s="46"/>
@@ -4114,7 +4158,7 @@
       <c r="BN55" s="1"/>
       <c r="BO55" s="7"/>
     </row>
-    <row r="56" spans="2:67" ht="18" customHeight="1">
+    <row r="56" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q56" s="6"/>
       <c r="R56" s="15"/>
       <c r="S56" s="46"/>
@@ -4143,7 +4187,7 @@
       <c r="BN56" s="1"/>
       <c r="BO56" s="7"/>
     </row>
-    <row r="57" spans="2:67" ht="18" customHeight="1">
+    <row r="57" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q57" s="6"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -4172,7 +4216,7 @@
       <c r="BN57" s="1"/>
       <c r="BO57" s="7"/>
     </row>
-    <row r="58" spans="2:67" ht="18" customHeight="1">
+    <row r="58" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q58" s="6"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -4203,7 +4247,7 @@
       <c r="BN58" s="1"/>
       <c r="BO58" s="7"/>
     </row>
-    <row r="59" spans="2:67" ht="18" customHeight="1">
+    <row r="59" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q59" s="6"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -4232,7 +4276,7 @@
       <c r="BN59" s="1"/>
       <c r="BO59" s="7"/>
     </row>
-    <row r="60" spans="2:67" ht="18" customHeight="1">
+    <row r="60" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q60" s="8"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -4261,7 +4305,7 @@
       <c r="BN60" s="2"/>
       <c r="BO60" s="9"/>
     </row>
-    <row r="62" spans="2:67" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="62" spans="2:67" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
@@ -4276,7 +4320,7 @@
       <c r="M62" s="30"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="64" spans="2:67" ht="18" customHeight="1">
+    <row r="64" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q64" t="s">
         <v>69</v>
       </c>
@@ -4284,7 +4328,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="3:85" ht="18" customHeight="1">
+    <row r="65" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q65" s="3"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
@@ -4354,7 +4398,7 @@
       <c r="CF65" s="4"/>
       <c r="CG65" s="5"/>
     </row>
-    <row r="66" spans="3:85" ht="18" customHeight="1">
+    <row r="66" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="31" t="s">
         <v>136</v>
       </c>
@@ -4441,7 +4485,7 @@
       <c r="CF66" s="1"/>
       <c r="CG66" s="7"/>
     </row>
-    <row r="67" spans="3:85" ht="18" customHeight="1">
+    <row r="67" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q67" s="6"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -4511,7 +4555,7 @@
       <c r="CF67" s="1"/>
       <c r="CG67" s="7"/>
     </row>
-    <row r="68" spans="3:85" ht="18" customHeight="1">
+    <row r="68" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="29" t="s">
         <v>122</v>
       </c>
@@ -4584,7 +4628,7 @@
       <c r="CF68" s="1"/>
       <c r="CG68" s="7"/>
     </row>
-    <row r="69" spans="3:85" ht="18" customHeight="1">
+    <row r="69" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="29" t="s">
         <v>137</v>
       </c>
@@ -4661,7 +4705,7 @@
       <c r="CF69" s="1"/>
       <c r="CG69" s="7"/>
     </row>
-    <row r="70" spans="3:85" ht="18" customHeight="1">
+    <row r="70" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="29" t="s">
         <v>138</v>
       </c>
@@ -4746,7 +4790,7 @@
       <c r="CF70" s="1"/>
       <c r="CG70" s="7"/>
     </row>
-    <row r="71" spans="3:85" ht="18" customHeight="1">
+    <row r="71" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="29" t="s">
         <v>140</v>
       </c>
@@ -4835,7 +4879,7 @@
       <c r="CF71" s="1"/>
       <c r="CG71" s="7"/>
     </row>
-    <row r="72" spans="3:85" ht="18" customHeight="1">
+    <row r="72" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="29" t="s">
         <v>157</v>
       </c>
@@ -4916,7 +4960,7 @@
       <c r="CF72" s="1"/>
       <c r="CG72" s="7"/>
     </row>
-    <row r="73" spans="3:85" ht="18" customHeight="1">
+    <row r="73" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="47" t="s">
@@ -5002,7 +5046,7 @@
       <c r="CF73" s="1"/>
       <c r="CG73" s="7"/>
     </row>
-    <row r="74" spans="3:85" ht="18" customHeight="1">
+    <row r="74" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="1"/>
@@ -5076,7 +5120,7 @@
       <c r="CF74" s="1"/>
       <c r="CG74" s="7"/>
     </row>
-    <row r="75" spans="3:85" ht="18" customHeight="1">
+    <row r="75" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="1"/>
@@ -5150,7 +5194,7 @@
       <c r="CF75" s="1"/>
       <c r="CG75" s="7"/>
     </row>
-    <row r="76" spans="3:85" ht="18" customHeight="1">
+    <row r="76" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="1"/>
@@ -5220,7 +5264,7 @@
       <c r="CF76" s="1"/>
       <c r="CG76" s="7"/>
     </row>
-    <row r="77" spans="3:85" ht="18" customHeight="1">
+    <row r="77" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="1"/>
@@ -5290,7 +5334,7 @@
       <c r="CF77" s="1"/>
       <c r="CG77" s="7"/>
     </row>
-    <row r="78" spans="3:85" ht="18" customHeight="1">
+    <row r="78" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="1"/>
@@ -5364,7 +5408,7 @@
       <c r="CF78" s="1"/>
       <c r="CG78" s="7"/>
     </row>
-    <row r="79" spans="3:85" ht="18" customHeight="1">
+    <row r="79" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="1"/>
@@ -5434,7 +5478,7 @@
       <c r="CF79" s="1"/>
       <c r="CG79" s="7"/>
     </row>
-    <row r="80" spans="3:85" ht="18" customHeight="1">
+    <row r="80" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q80" s="6"/>
       <c r="R80" s="8"/>
       <c r="S80" s="2"/>
@@ -5504,7 +5548,7 @@
       <c r="CF80" s="1"/>
       <c r="CG80" s="7"/>
     </row>
-    <row r="81" spans="2:85" ht="18" customHeight="1">
+    <row r="81" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q81" s="6"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -5574,7 +5618,7 @@
       <c r="CF81" s="1"/>
       <c r="CG81" s="7"/>
     </row>
-    <row r="82" spans="2:85" ht="18" customHeight="1">
+    <row r="82" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q82" s="8"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
@@ -5644,7 +5688,7 @@
       <c r="CF82" s="2"/>
       <c r="CG82" s="9"/>
     </row>
-    <row r="84" spans="2:85" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="84" spans="2:85" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
       <c r="D84" s="30"/>
@@ -5659,7 +5703,7 @@
       <c r="M84" s="30"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="86" spans="2:85" ht="18" customHeight="1">
+    <row r="86" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q86" t="s">
         <v>71</v>
       </c>
@@ -5667,7 +5711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="2:85" ht="18" customHeight="1">
+    <row r="87" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="31" t="s">
         <v>141</v>
       </c>
@@ -5691,7 +5735,7 @@
       <c r="AH87" s="4"/>
       <c r="AI87" s="5"/>
     </row>
-    <row r="88" spans="2:85" ht="18" customHeight="1">
+    <row r="88" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q88" s="6"/>
       <c r="R88" s="1"/>
       <c r="S88" s="47" t="s">
@@ -5736,7 +5780,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="2:85" ht="18" customHeight="1">
+    <row r="89" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D89" s="29" t="s">
         <v>142</v>
       </c>
@@ -5780,7 +5824,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="7"/>
     </row>
-    <row r="90" spans="2:85" ht="18" customHeight="1">
+    <row r="90" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D90" s="29" t="s">
         <v>143</v>
       </c>
@@ -5834,7 +5878,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="7"/>
     </row>
-    <row r="91" spans="2:85" ht="18" customHeight="1">
+    <row r="91" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D91" s="29" t="s">
         <v>130</v>
       </c>
@@ -5882,7 +5926,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="7"/>
     </row>
-    <row r="92" spans="2:85" ht="18" customHeight="1">
+    <row r="92" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D92" s="29" t="s">
         <v>144</v>
       </c>
@@ -5926,7 +5970,7 @@
       <c r="BA92" s="1"/>
       <c r="BB92" s="7"/>
     </row>
-    <row r="93" spans="2:85" ht="18" customHeight="1">
+    <row r="93" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="29" t="s">
         <v>145</v>
       </c>
@@ -5968,7 +6012,7 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="7"/>
     </row>
-    <row r="94" spans="2:85" ht="18" customHeight="1">
+    <row r="94" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D94" s="29" t="s">
         <v>157</v>
       </c>
@@ -6014,7 +6058,7 @@
       <c r="BA94" s="1"/>
       <c r="BB94" s="7"/>
     </row>
-    <row r="95" spans="2:85" ht="18" customHeight="1">
+    <row r="95" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D95" s="29" t="s">
         <v>223</v>
       </c>
@@ -6054,7 +6098,7 @@
       <c r="BA95" s="2"/>
       <c r="BB95" s="9"/>
     </row>
-    <row r="96" spans="2:85" ht="18" customHeight="1">
+    <row r="96" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q96" s="8"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
@@ -6075,7 +6119,7 @@
       <c r="AH96" s="2"/>
       <c r="AI96" s="9"/>
     </row>
-    <row r="98" spans="2:92" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="98" spans="2:92" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
       <c r="D98" s="30"/>
@@ -6090,7 +6134,7 @@
       <c r="M98" s="30"/>
       <c r="N98" s="9"/>
     </row>
-    <row r="100" spans="2:92" ht="18" customHeight="1">
+    <row r="100" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D100" s="31" t="s">
         <v>158</v>
       </c>
@@ -6104,7 +6148,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="2:92" ht="18" customHeight="1">
+    <row r="101" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q101" s="3"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
@@ -6184,7 +6228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="2:92" ht="18" customHeight="1">
+    <row r="102" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D102" s="29" t="s">
         <v>122</v>
       </c>
@@ -6284,7 +6328,7 @@
       <c r="CM102" s="1"/>
       <c r="CN102" s="7"/>
     </row>
-    <row r="103" spans="2:92" ht="18" customHeight="1">
+    <row r="103" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D103" s="29" t="s">
         <v>148</v>
       </c>
@@ -6364,7 +6408,7 @@
       <c r="CM103" s="1"/>
       <c r="CN103" s="7"/>
     </row>
-    <row r="104" spans="2:92" ht="18" customHeight="1">
+    <row r="104" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D104" s="29" t="s">
         <v>149</v>
       </c>
@@ -6400,7 +6444,9 @@
       <c r="AN104" s="1"/>
       <c r="AO104" s="1"/>
       <c r="AP104" s="1"/>
-      <c r="AQ104" s="1"/>
+      <c r="AQ104" s="15" t="s">
+        <v>288</v>
+      </c>
       <c r="AR104" s="1"/>
       <c r="AS104" s="1"/>
       <c r="AT104" s="1"/>
@@ -6451,7 +6497,7 @@
       <c r="CM104" s="1"/>
       <c r="CN104" s="7"/>
     </row>
-    <row r="105" spans="2:92" ht="18" customHeight="1">
+    <row r="105" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D105" s="29" t="s">
         <v>150</v>
       </c>
@@ -6534,7 +6580,7 @@
       <c r="CM105" s="1"/>
       <c r="CN105" s="7"/>
     </row>
-    <row r="106" spans="2:92" ht="18" customHeight="1">
+    <row r="106" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D106" s="29" t="s">
         <v>151</v>
       </c>
@@ -6631,7 +6677,7 @@
       <c r="CM106" s="1"/>
       <c r="CN106" s="7"/>
     </row>
-    <row r="107" spans="2:92" ht="18" customHeight="1">
+    <row r="107" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="29" t="s">
         <v>152</v>
       </c>
@@ -6724,7 +6770,7 @@
       <c r="CM107" s="1"/>
       <c r="CN107" s="7"/>
     </row>
-    <row r="108" spans="2:92" ht="18" customHeight="1">
+    <row r="108" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="29" t="s">
         <v>153</v>
       </c>
@@ -6819,7 +6865,7 @@
       <c r="CM108" s="1"/>
       <c r="CN108" s="7"/>
     </row>
-    <row r="109" spans="2:92" ht="18" customHeight="1">
+    <row r="109" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D109" s="29" t="s">
         <v>124</v>
       </c>
@@ -6900,7 +6946,7 @@
       <c r="CM109" s="1"/>
       <c r="CN109" s="7"/>
     </row>
-    <row r="110" spans="2:92" ht="18" customHeight="1">
+    <row r="110" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q110" s="6"/>
       <c r="R110" s="1"/>
       <c r="T110" s="1"/>
@@ -6983,7 +7029,7 @@
       <c r="CM110" s="1"/>
       <c r="CN110" s="7"/>
     </row>
-    <row r="111" spans="2:92" ht="18" customHeight="1">
+    <row r="111" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="31" t="s">
         <v>236</v>
       </c>
@@ -7062,7 +7108,7 @@
       <c r="CM111" s="1"/>
       <c r="CN111" s="7"/>
     </row>
-    <row r="112" spans="2:92" ht="18" customHeight="1">
+    <row r="112" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="31" t="s">
         <v>239</v>
       </c>
@@ -7152,7 +7198,7 @@
       <c r="CM112" s="1"/>
       <c r="CN112" s="7"/>
     </row>
-    <row r="113" spans="1:119" ht="18" customHeight="1">
+    <row r="113" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="29" t="s">
         <v>122</v>
       </c>
@@ -7242,7 +7288,7 @@
       <c r="CM113" s="1"/>
       <c r="CN113" s="7"/>
     </row>
-    <row r="114" spans="1:119" ht="18" customHeight="1">
+    <row r="114" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="29" t="s">
         <v>155</v>
       </c>
@@ -7331,7 +7377,7 @@
       <c r="CM114" s="1"/>
       <c r="CN114" s="7"/>
     </row>
-    <row r="115" spans="1:119" ht="18" customHeight="1">
+    <row r="115" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="29" t="s">
         <v>156</v>
       </c>
@@ -7418,7 +7464,7 @@
       <c r="CM115" s="1"/>
       <c r="CN115" s="7"/>
     </row>
-    <row r="116" spans="1:119" ht="18" customHeight="1">
+    <row r="116" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="29" t="s">
         <v>159</v>
       </c>
@@ -7492,7 +7538,7 @@
       <c r="CM116" s="1"/>
       <c r="CN116" s="7"/>
     </row>
-    <row r="117" spans="1:119" ht="18" customHeight="1">
+    <row r="117" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="29" t="s">
         <v>237</v>
       </c>
@@ -7567,7 +7613,7 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="7"/>
     </row>
-    <row r="118" spans="1:119" ht="18" customHeight="1">
+    <row r="118" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="29" t="s">
         <v>238</v>
       </c>
@@ -7652,7 +7698,7 @@
       <c r="CM118" s="2"/>
       <c r="CN118" s="9"/>
     </row>
-    <row r="119" spans="1:119" ht="18" customHeight="1">
+    <row r="119" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F119" s="29" t="s">
         <v>240</v>
       </c>
@@ -7660,7 +7706,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:119" ht="18" customHeight="1">
+    <row r="120" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="29" t="s">
         <v>242</v>
       </c>
@@ -7668,7 +7714,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="121" spans="1:119" ht="18" customHeight="1">
+    <row r="121" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="29" t="s">
         <v>241</v>
       </c>
@@ -7676,7 +7722,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:119" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="122" spans="1:119" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="29"/>
       <c r="B122" s="29"/>
       <c r="C122" s="29"/>
@@ -7692,10 +7738,10 @@
       <c r="M122" s="29"/>
       <c r="N122" s="7"/>
     </row>
-    <row r="123" spans="1:119" ht="18" customHeight="1">
+    <row r="123" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" spans="1:119" ht="18" customHeight="1">
+    <row r="124" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D124" s="31" t="s">
         <v>219</v>
       </c>
@@ -7717,7 +7763,7 @@
       <c r="CT124" s="1"/>
       <c r="CU124" s="1"/>
     </row>
-    <row r="125" spans="1:119" ht="18" customHeight="1">
+    <row r="125" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q125" s="3"/>
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
@@ -7749,7 +7795,7 @@
       <c r="CT125" s="1"/>
       <c r="CU125" s="1"/>
     </row>
-    <row r="126" spans="1:119" ht="18" customHeight="1">
+    <row r="126" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D126" s="29" t="s">
         <v>220</v>
       </c>
@@ -7806,7 +7852,7 @@
       <c r="DI126" s="1"/>
       <c r="DJ126" s="1"/>
     </row>
-    <row r="127" spans="1:119" ht="18" customHeight="1">
+    <row r="127" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D127" s="29" t="s">
         <v>222</v>
       </c>
@@ -7841,7 +7887,7 @@
       <c r="DI127" s="1"/>
       <c r="DJ127" s="1"/>
     </row>
-    <row r="128" spans="1:119" ht="18" customHeight="1">
+    <row r="128" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D128" s="29" t="s">
         <v>224</v>
       </c>
@@ -7952,7 +7998,7 @@
       <c r="DN128" s="4"/>
       <c r="DO128" s="5"/>
     </row>
-    <row r="129" spans="4:119" ht="18" customHeight="1">
+    <row r="129" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D129" s="29" t="s">
         <v>225</v>
       </c>
@@ -8070,7 +8116,7 @@
       <c r="DN129" s="1"/>
       <c r="DO129" s="7"/>
     </row>
-    <row r="130" spans="4:119" ht="18" customHeight="1">
+    <row r="130" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D130" s="29" t="s">
         <v>226</v>
       </c>
@@ -8183,7 +8229,7 @@
       <c r="DN130" s="1"/>
       <c r="DO130" s="7"/>
     </row>
-    <row r="131" spans="4:119" ht="18" customHeight="1">
+    <row r="131" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q131" s="6"/>
       <c r="R131" s="15"/>
       <c r="S131" s="42"/>
@@ -8309,7 +8355,7 @@
       <c r="DN131" s="5"/>
       <c r="DO131" s="7"/>
     </row>
-    <row r="132" spans="4:119" ht="18" customHeight="1">
+    <row r="132" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D132" s="31" t="s">
         <v>227</v>
       </c>
@@ -8421,7 +8467,7 @@
       <c r="DN132" s="9"/>
       <c r="DO132" s="7"/>
     </row>
-    <row r="133" spans="4:119" ht="18" customHeight="1">
+    <row r="133" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D133" s="29" t="s">
         <v>228</v>
       </c>
@@ -8528,7 +8574,7 @@
       <c r="DN133" s="1"/>
       <c r="DO133" s="7"/>
     </row>
-    <row r="134" spans="4:119" ht="18" customHeight="1">
+    <row r="134" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D134" s="29" t="s">
         <v>229</v>
       </c>
@@ -8638,7 +8684,7 @@
       <c r="DN134" s="1"/>
       <c r="DO134" s="7"/>
     </row>
-    <row r="135" spans="4:119" ht="18" customHeight="1">
+    <row r="135" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D135" s="29" t="s">
         <v>230</v>
       </c>
@@ -8740,7 +8786,7 @@
       <c r="DN135" s="1"/>
       <c r="DO135" s="7"/>
     </row>
-    <row r="136" spans="4:119" ht="18" customHeight="1">
+    <row r="136" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D136" s="29" t="s">
         <v>258</v>
       </c>
@@ -8853,7 +8899,7 @@
       <c r="DN136" s="1"/>
       <c r="DO136" s="7"/>
     </row>
-    <row r="137" spans="4:119" ht="18" customHeight="1">
+    <row r="137" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D137" s="29" t="s">
         <v>241</v>
       </c>
@@ -8952,7 +8998,7 @@
       <c r="DN137" s="1"/>
       <c r="DO137" s="7"/>
     </row>
-    <row r="138" spans="4:119" ht="18" customHeight="1">
+    <row r="138" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D138" s="29" t="s">
         <v>247</v>
       </c>
@@ -9041,7 +9087,7 @@
       <c r="DN138" s="1"/>
       <c r="DO138" s="7"/>
     </row>
-    <row r="139" spans="4:119" ht="18" customHeight="1">
+    <row r="139" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D139" s="29" t="s">
         <v>248</v>
       </c>
@@ -9124,7 +9170,7 @@
       <c r="DN139" s="1"/>
       <c r="DO139" s="7"/>
     </row>
-    <row r="140" spans="4:119" ht="18" customHeight="1">
+    <row r="140" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D140" s="29" t="s">
         <v>249</v>
       </c>
@@ -9172,7 +9218,7 @@
       <c r="DN140" s="1"/>
       <c r="DO140" s="7"/>
     </row>
-    <row r="141" spans="4:119" ht="18" customHeight="1">
+    <row r="141" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="CC141" s="8"/>
       <c r="CD141" s="2"/>
       <c r="CE141" s="2"/>
@@ -9200,7 +9246,7 @@
       <c r="DN141" s="1"/>
       <c r="DO141" s="7"/>
     </row>
-    <row r="142" spans="4:119" ht="18" customHeight="1">
+    <row r="142" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D142" s="31" t="s">
         <v>278</v>
       </c>
@@ -9221,7 +9267,7 @@
       <c r="DN142" s="2"/>
       <c r="DO142" s="9"/>
     </row>
-    <row r="143" spans="4:119" ht="18" customHeight="1">
+    <row r="143" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D143" s="29" t="s">
         <v>279</v>
       </c>
@@ -9229,7 +9275,7 @@
       <c r="CL143" s="1"/>
       <c r="CM143" s="1"/>
     </row>
-    <row r="144" spans="4:119" ht="18" customHeight="1">
+    <row r="144" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D144" s="29" t="s">
         <v>280</v>
       </c>
@@ -9245,7 +9291,7 @@
       <c r="CT144" s="1"/>
       <c r="CU144" s="1"/>
     </row>
-    <row r="145" spans="1:60" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="145" spans="1:60" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="29"/>
       <c r="B145" s="29"/>
       <c r="C145" s="29"/>
@@ -9265,7 +9311,7 @@
       <c r="M145" s="29"/>
       <c r="N145" s="7"/>
     </row>
-    <row r="146" spans="1:60" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="146" spans="1:60" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="29"/>
       <c r="B146" s="29"/>
       <c r="C146" s="29"/>
@@ -9273,7 +9319,6 @@
         <v>283</v>
       </c>
       <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
       <c r="G146" s="29"/>
       <c r="H146" s="29"/>
       <c r="I146" s="29"/>
@@ -9283,9 +9328,12 @@
       <c r="M146" s="29"/>
       <c r="N146" s="7"/>
     </row>
-    <row r="147" spans="1:60" ht="18" customHeight="1">
+    <row r="147" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D147" s="29" t="s">
         <v>284</v>
+      </c>
+      <c r="F147" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="Q147" t="s">
         <v>95</v>
@@ -9306,7 +9354,7 @@
       <c r="BG147" s="1"/>
       <c r="BH147" s="1"/>
     </row>
-    <row r="148" spans="1:60" ht="18" customHeight="1">
+    <row r="148" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q148" s="3"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
@@ -9341,7 +9389,7 @@
       <c r="BG148" s="1"/>
       <c r="BH148" s="1"/>
     </row>
-    <row r="149" spans="1:60" ht="18" customHeight="1">
+    <row r="149" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q149" s="6"/>
       <c r="R149" s="1" t="s">
         <v>205</v>
@@ -9382,7 +9430,7 @@
       <c r="BG149" s="1"/>
       <c r="BH149" s="1"/>
     </row>
-    <row r="150" spans="1:60" ht="18" customHeight="1">
+    <row r="150" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D150" s="31" t="s">
         <v>250</v>
       </c>
@@ -9426,7 +9474,7 @@
       <c r="BG150" s="1"/>
       <c r="BH150" s="1"/>
     </row>
-    <row r="151" spans="1:60" ht="18" customHeight="1">
+    <row r="151" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D151" s="29" t="s">
         <v>251</v>
       </c>
@@ -9474,7 +9522,7 @@
       <c r="BG151" s="1"/>
       <c r="BH151" s="1"/>
     </row>
-    <row r="152" spans="1:60" ht="18" customHeight="1">
+    <row r="152" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D152" s="29" t="s">
         <v>252</v>
       </c>
@@ -9511,7 +9559,7 @@
       <c r="AU152" s="1"/>
       <c r="AV152" s="1"/>
     </row>
-    <row r="153" spans="1:60" ht="18" customHeight="1">
+    <row r="153" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D153" s="29" t="s">
         <v>253</v>
       </c>
@@ -9560,7 +9608,7 @@
       <c r="AU153" s="1"/>
       <c r="AV153" s="1"/>
     </row>
-    <row r="154" spans="1:60" ht="18" customHeight="1">
+    <row r="154" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D154" s="29" t="s">
         <v>254</v>
       </c>
@@ -9603,7 +9651,7 @@
       <c r="AU154" s="1"/>
       <c r="AV154" s="1"/>
     </row>
-    <row r="155" spans="1:60" ht="18" customHeight="1">
+    <row r="155" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q155" s="6"/>
       <c r="R155" s="11"/>
       <c r="S155" s="42"/>
@@ -9635,7 +9683,7 @@
       <c r="AU155" s="1"/>
       <c r="AV155" s="1"/>
     </row>
-    <row r="156" spans="1:60" ht="18" customHeight="1">
+    <row r="156" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D156" s="31" t="s">
         <v>255</v>
       </c>
@@ -9672,7 +9720,7 @@
       <c r="AU156" s="1"/>
       <c r="AV156" s="1"/>
     </row>
-    <row r="157" spans="1:60" ht="18" customHeight="1">
+    <row r="157" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D157" s="29" t="s">
         <v>251</v>
       </c>
@@ -9707,7 +9755,7 @@
       <c r="AU157" s="1"/>
       <c r="AV157" s="1"/>
     </row>
-    <row r="158" spans="1:60" ht="18" customHeight="1">
+    <row r="158" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D158" s="29" t="s">
         <v>256</v>
       </c>
@@ -9742,7 +9790,7 @@
       <c r="AU158" s="1"/>
       <c r="AV158" s="1"/>
     </row>
-    <row r="159" spans="1:60" ht="18" customHeight="1">
+    <row r="159" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D159" s="29" t="s">
         <v>257</v>
       </c>
@@ -9780,7 +9828,7 @@
       <c r="AU159" s="1"/>
       <c r="AV159" s="1"/>
     </row>
-    <row r="160" spans="1:60" ht="18" customHeight="1">
+    <row r="160" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q160" s="6"/>
       <c r="R160" s="11"/>
       <c r="S160" s="42"/>
@@ -9803,7 +9851,7 @@
       <c r="AU160" s="1"/>
       <c r="AV160" s="1"/>
     </row>
-    <row r="161" spans="4:60" ht="18" customHeight="1">
+    <row r="161" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q161" s="6"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
@@ -9839,7 +9887,7 @@
       <c r="AU161" s="1"/>
       <c r="AV161" s="1"/>
     </row>
-    <row r="162" spans="4:60" ht="18" customHeight="1">
+    <row r="162" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q162" s="6"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
@@ -9866,7 +9914,7 @@
       <c r="AU162" s="1"/>
       <c r="AV162" s="1"/>
     </row>
-    <row r="163" spans="4:60" ht="18" customHeight="1">
+    <row r="163" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q163" s="6"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
@@ -9900,7 +9948,7 @@
       <c r="AU163" s="1"/>
       <c r="AV163" s="1"/>
     </row>
-    <row r="164" spans="4:60" ht="18" customHeight="1">
+    <row r="164" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q164" s="8"/>
       <c r="R164" s="2"/>
       <c r="S164" s="2"/>
@@ -9925,14 +9973,14 @@
       <c r="AR164" s="2"/>
       <c r="AS164" s="9"/>
     </row>
-    <row r="165" spans="4:60" ht="18" customHeight="1">
+    <row r="165" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
       <c r="AB165" s="4"/>
       <c r="AD165" s="1"/>
       <c r="AS165" s="1"/>
     </row>
-    <row r="166" spans="4:60" ht="18" customHeight="1">
+    <row r="166" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AD166" s="1"/>
       <c r="AS166" s="1"/>
       <c r="AT166" s="1"/>
@@ -9951,7 +9999,7 @@
       <c r="BG166" s="1"/>
       <c r="BH166" s="1"/>
     </row>
-    <row r="168" spans="4:60" ht="18" customHeight="1">
+    <row r="168" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q168" t="s">
         <v>96</v>
       </c>
@@ -9959,7 +10007,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="4:60" ht="18" customHeight="1">
+    <row r="169" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q169" s="3"/>
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
@@ -9986,7 +10034,7 @@
       <c r="AN169" s="4"/>
       <c r="AO169" s="5"/>
     </row>
-    <row r="170" spans="4:60" ht="18" customHeight="1">
+    <row r="170" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D170" s="31" t="s">
         <v>259</v>
       </c>
@@ -10003,7 +10051,7 @@
       <c r="AN170" s="1"/>
       <c r="AO170" s="7"/>
     </row>
-    <row r="171" spans="4:60" ht="18" customHeight="1">
+    <row r="171" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D171" s="29" t="s">
         <v>251</v>
       </c>
@@ -10020,7 +10068,7 @@
       <c r="AN171" s="1"/>
       <c r="AO171" s="7"/>
     </row>
-    <row r="172" spans="4:60" ht="18" customHeight="1">
+    <row r="172" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D172" s="29" t="s">
         <v>260</v>
       </c>
@@ -10037,7 +10085,7 @@
       <c r="AN172" s="1"/>
       <c r="AO172" s="7"/>
     </row>
-    <row r="173" spans="4:60" ht="18" customHeight="1">
+    <row r="173" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="29" t="s">
         <v>261</v>
       </c>
@@ -10067,7 +10115,7 @@
       <c r="AN173" s="1"/>
       <c r="AO173" s="7"/>
     </row>
-    <row r="174" spans="4:60" ht="18" customHeight="1">
+    <row r="174" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q174" s="6"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
@@ -10094,7 +10142,7 @@
       <c r="AN174" s="1"/>
       <c r="AO174" s="7"/>
     </row>
-    <row r="175" spans="4:60" ht="18" customHeight="1">
+    <row r="175" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q175" s="6"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
@@ -10121,7 +10169,7 @@
       <c r="AN175" s="1"/>
       <c r="AO175" s="7"/>
     </row>
-    <row r="176" spans="4:60" ht="18" customHeight="1">
+    <row r="176" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q176" s="6"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
@@ -10148,7 +10196,7 @@
       <c r="AN176" s="1"/>
       <c r="AO176" s="7"/>
     </row>
-    <row r="177" spans="2:43" ht="18" customHeight="1">
+    <row r="177" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q177" s="6"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
@@ -10175,7 +10223,7 @@
       <c r="AN177" s="1"/>
       <c r="AO177" s="7"/>
     </row>
-    <row r="178" spans="2:43" ht="18" customHeight="1">
+    <row r="178" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q178" s="6"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
@@ -10202,7 +10250,7 @@
       <c r="AN178" s="1"/>
       <c r="AO178" s="7"/>
     </row>
-    <row r="179" spans="2:43" ht="18" customHeight="1">
+    <row r="179" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q179" s="6"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
@@ -10229,7 +10277,7 @@
       <c r="AN179" s="1"/>
       <c r="AO179" s="7"/>
     </row>
-    <row r="180" spans="2:43" ht="18" customHeight="1">
+    <row r="180" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q180" s="6"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
@@ -10256,7 +10304,7 @@
       <c r="AN180" s="1"/>
       <c r="AO180" s="7"/>
     </row>
-    <row r="181" spans="2:43" ht="18" customHeight="1">
+    <row r="181" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q181" s="8"/>
       <c r="R181" s="2"/>
       <c r="S181" s="2"/>
@@ -10283,7 +10331,7 @@
       <c r="AN181" s="2"/>
       <c r="AO181" s="9"/>
     </row>
-    <row r="183" spans="2:43" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="183" spans="2:43" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B183" s="30"/>
       <c r="C183" s="30"/>
       <c r="D183" s="30"/>
@@ -10298,12 +10346,12 @@
       <c r="M183" s="30"/>
       <c r="N183" s="9"/>
     </row>
-    <row r="185" spans="2:43" ht="18" customHeight="1">
+    <row r="185" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q185" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="186" spans="2:43" ht="18" customHeight="1">
+    <row r="186" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D186" s="29" t="s">
         <v>262</v>
       </c>
@@ -10329,7 +10377,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="187" spans="2:43" ht="18" customHeight="1">
+    <row r="187" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D187" s="29" t="s">
         <v>263</v>
       </c>
@@ -10355,7 +10403,7 @@
       <c r="AD187" s="1"/>
       <c r="AE187" s="7"/>
     </row>
-    <row r="188" spans="2:43" ht="18" customHeight="1">
+    <row r="188" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D188" s="29" t="s">
         <v>264</v>
       </c>
@@ -10381,7 +10429,7 @@
       <c r="AP188" s="4"/>
       <c r="AQ188" s="5"/>
     </row>
-    <row r="189" spans="2:43" ht="18" customHeight="1">
+    <row r="189" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D189" s="29" t="s">
         <v>265</v>
       </c>
@@ -10422,7 +10470,7 @@
       <c r="AP189" s="1"/>
       <c r="AQ189" s="7"/>
     </row>
-    <row r="190" spans="2:43" ht="18" customHeight="1">
+    <row r="190" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D190" s="29" t="s">
         <v>266</v>
       </c>
@@ -10466,7 +10514,7 @@
       <c r="AP190" s="1"/>
       <c r="AQ190" s="7"/>
     </row>
-    <row r="191" spans="2:43" ht="18" customHeight="1">
+    <row r="191" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D191" s="29" t="s">
         <v>272</v>
       </c>
@@ -10496,7 +10544,7 @@
       <c r="AP191" s="1"/>
       <c r="AQ191" s="7"/>
     </row>
-    <row r="192" spans="2:43" ht="18" customHeight="1">
+    <row r="192" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D192" s="29" t="s">
         <v>273</v>
       </c>
@@ -10526,7 +10574,7 @@
       <c r="AP192" s="1"/>
       <c r="AQ192" s="7"/>
     </row>
-    <row r="193" spans="4:43" ht="18" customHeight="1">
+    <row r="193" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D193" s="29" t="s">
         <v>269</v>
       </c>
@@ -10553,7 +10601,7 @@
       <c r="AP193" s="1"/>
       <c r="AQ193" s="7"/>
     </row>
-    <row r="194" spans="4:43" ht="18" customHeight="1">
+    <row r="194" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D194" s="29" t="s">
         <v>274</v>
       </c>
@@ -10578,7 +10626,7 @@
       </c>
       <c r="AQ194" s="7"/>
     </row>
-    <row r="195" spans="4:43" ht="18" customHeight="1">
+    <row r="195" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D195" s="29" t="s">
         <v>275</v>
       </c>
@@ -10607,7 +10655,7 @@
       <c r="AO195" s="5"/>
       <c r="AQ195" s="7"/>
     </row>
-    <row r="196" spans="4:43" ht="18" customHeight="1">
+    <row r="196" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D196" s="29" t="s">
         <v>276</v>
       </c>
@@ -10636,7 +10684,7 @@
       <c r="AO196" s="9"/>
       <c r="AQ196" s="7"/>
     </row>
-    <row r="197" spans="4:43" ht="18" customHeight="1">
+    <row r="197" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q197" s="6"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
@@ -10664,7 +10712,7 @@
       <c r="AP197" s="1"/>
       <c r="AQ197" s="7"/>
     </row>
-    <row r="198" spans="4:43" ht="18" customHeight="1">
+    <row r="198" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q198" s="8"/>
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
@@ -10691,6 +10739,11 @@
       <c r="AO198" s="2"/>
       <c r="AP198" s="2"/>
       <c r="AQ198" s="9"/>
+    </row>
+    <row r="200" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB200" t="s">
+        <v>286</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="412">
@@ -11111,10 +11164,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/通用测试平台.xlsx
+++ b/通用测试平台.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/General_Test_Platform/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{08D1E096-F9EC-46F7-AB8B-5B6F5CE9E807}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="BL103" authorId="0">
+    <comment ref="BL103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -181,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1235,12 +1223,20 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>在职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1800,16 +1796,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1821,10 +1823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1833,16 +1832,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2364,54 +2360,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DO200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="AL120" sqref="AL120"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="2" max="13" width="4.33203125" style="29"/>
-    <col min="14" max="14" width="4.33203125" style="7"/>
+    <col min="2" max="13" width="4.375" style="29"/>
+    <col min="14" max="14" width="4.375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="U1" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-    </row>
-    <row r="2" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-    </row>
-    <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:46" ht="18" customHeight="1">
+      <c r="C1" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="U1" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+    </row>
+    <row r="2" spans="2:46" ht="18" customHeight="1">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+    </row>
+    <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -2426,14 +2422,14 @@
       <c r="M3" s="30"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="5" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:46" ht="18" customHeight="1">
       <c r="Q5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:46" ht="18" customHeight="1">
       <c r="D6" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="4"/>
@@ -2466,7 +2462,7 @@
       <c r="AS6" s="4"/>
       <c r="AT6" s="5"/>
     </row>
-    <row r="7" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:46" ht="18" customHeight="1">
       <c r="Q7" s="6"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -2498,9 +2494,9 @@
       <c r="AS7" s="1"/>
       <c r="AT7" s="7"/>
     </row>
-    <row r="8" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:46" ht="18" customHeight="1">
       <c r="D8" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="3"/>
@@ -2533,9 +2529,9 @@
       <c r="AS8" s="5"/>
       <c r="AT8" s="7"/>
     </row>
-    <row r="9" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:46" ht="18" customHeight="1">
       <c r="D9" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6" t="s">
@@ -2570,24 +2566,24 @@
       <c r="AS9" s="7"/>
       <c r="AT9" s="7"/>
     </row>
-    <row r="10" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:46" ht="18" customHeight="1">
       <c r="D10" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="54" t="s">
+      <c r="S10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="54"/>
-      <c r="U10" s="47" t="s">
+      <c r="T10" s="55"/>
+      <c r="U10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47" t="s">
+      <c r="V10" s="48"/>
+      <c r="W10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="47"/>
+      <c r="X10" s="48"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2611,25 +2607,25 @@
       <c r="AS10" s="7"/>
       <c r="AT10" s="7"/>
     </row>
-    <row r="11" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:46" ht="18" customHeight="1">
       <c r="D11" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="47" t="s">
+      <c r="T11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47" t="s">
+      <c r="U11" s="48"/>
+      <c r="V11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47" t="s">
+      <c r="W11" s="48"/>
+      <c r="X11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="53"/>
+      <c r="Y11" s="54"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -2652,14 +2648,14 @@
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
     </row>
-    <row r="12" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:46" ht="18" customHeight="1">
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="47" t="s">
+      <c r="T12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="47"/>
+      <c r="U12" s="48"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -2686,13 +2682,13 @@
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
     </row>
-    <row r="13" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:46" ht="18" customHeight="1">
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="47" t="s">
+      <c r="S13" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="47"/>
+      <c r="T13" s="48"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -2726,14 +2722,14 @@
       <c r="AS13" s="7"/>
       <c r="AT13" s="7"/>
     </row>
-    <row r="14" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:46" ht="18" customHeight="1">
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="47" t="s">
+      <c r="T14" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="47"/>
+      <c r="U14" s="48"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -2758,14 +2754,14 @@
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
     </row>
-    <row r="15" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:46" ht="18" customHeight="1">
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="47" t="s">
+      <c r="T15" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="47"/>
+      <c r="U15" s="48"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -2790,7 +2786,7 @@
       <c r="AS15" s="7"/>
       <c r="AT15" s="7"/>
     </row>
-    <row r="16" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:46" ht="18" customHeight="1">
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="1"/>
@@ -2820,7 +2816,7 @@
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
     </row>
-    <row r="17" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:46" ht="18" customHeight="1">
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="1"/>
@@ -2846,7 +2842,7 @@
       <c r="AS17" s="7"/>
       <c r="AT17" s="7"/>
     </row>
-    <row r="18" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:46" ht="18" customHeight="1">
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="1"/>
@@ -2876,7 +2872,7 @@
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
     </row>
-    <row r="19" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:46" ht="18" customHeight="1">
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="1"/>
@@ -2904,7 +2900,7 @@
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
     </row>
-    <row r="20" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:46" ht="18" customHeight="1">
       <c r="Q20" s="6"/>
       <c r="R20" s="8"/>
       <c r="S20" s="2"/>
@@ -2936,7 +2932,7 @@
       <c r="AS20" s="9"/>
       <c r="AT20" s="7"/>
     </row>
-    <row r="21" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:46" ht="18" customHeight="1">
       <c r="Q21" s="6"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2968,7 +2964,7 @@
       <c r="AS21" s="1"/>
       <c r="AT21" s="7"/>
     </row>
-    <row r="22" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:46" ht="18" customHeight="1">
       <c r="Q22" s="8"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -3000,7 +2996,7 @@
       <c r="AS22" s="2"/>
       <c r="AT22" s="9"/>
     </row>
-    <row r="24" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -3015,14 +3011,14 @@
       <c r="M24" s="30"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="26" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:46" ht="18" customHeight="1">
       <c r="Q26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:46" ht="18" customHeight="1">
       <c r="C27" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="4"/>
@@ -3055,36 +3051,36 @@
       <c r="AS27" s="4"/>
       <c r="AT27" s="5"/>
     </row>
-    <row r="28" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:46" ht="18" customHeight="1">
       <c r="Q28" s="6"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="T28" s="47"/>
+      <c r="S28" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="T28" s="48"/>
       <c r="U28" s="42"/>
-      <c r="V28" s="44"/>
+      <c r="V28" s="49"/>
       <c r="W28" s="43"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z28" s="47"/>
+      <c r="Y28" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z28" s="48"/>
       <c r="AA28" s="42"/>
       <c r="AB28" s="43"/>
-      <c r="AD28" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
+      <c r="AD28" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
       <c r="AI28" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL28" s="43"/>
       <c r="AM28" s="1"/>
@@ -3096,9 +3092,9 @@
       <c r="AS28" s="1"/>
       <c r="AT28" s="7"/>
     </row>
-    <row r="29" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:46" ht="18" customHeight="1">
       <c r="C29" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="1"/>
@@ -3131,24 +3127,24 @@
       <c r="AS29" s="1"/>
       <c r="AT29" s="7"/>
     </row>
-    <row r="30" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:46" ht="18" customHeight="1">
       <c r="C30" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="46" t="s">
+      <c r="S30" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="X30" s="46"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="X30" s="47"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -3172,9 +3168,9 @@
       <c r="AS30" s="1"/>
       <c r="AT30" s="7"/>
     </row>
-    <row r="31" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:46" ht="18" customHeight="1">
       <c r="C31" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="1"/>
@@ -3207,9 +3203,9 @@
       <c r="AS31" s="1"/>
       <c r="AT31" s="7"/>
     </row>
-    <row r="32" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:46" ht="18" customHeight="1">
       <c r="C32" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="1"/>
@@ -3224,12 +3220,12 @@
       <c r="W32" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="44"/>
+      <c r="X32" s="49"/>
       <c r="Y32" s="43"/>
       <c r="Z32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AA32" s="44"/>
+      <c r="AA32" s="49"/>
       <c r="AB32" s="43"/>
       <c r="AC32" s="37" t="s">
         <v>22</v>
@@ -3238,19 +3234,19 @@
       <c r="AE32" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AF32" s="44"/>
+      <c r="AF32" s="49"/>
       <c r="AG32" s="42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH32" s="43"/>
       <c r="AI32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="44"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
       <c r="AO32" s="43"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
@@ -3258,9 +3254,9 @@
       <c r="AS32" s="1"/>
       <c r="AT32" s="7"/>
     </row>
-    <row r="33" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:67" ht="18" customHeight="1">
       <c r="C33" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="1"/>
@@ -3271,17 +3267,17 @@
       </c>
       <c r="V33" s="43"/>
       <c r="W33" s="42"/>
-      <c r="X33" s="44"/>
+      <c r="X33" s="49"/>
       <c r="Y33" s="43"/>
       <c r="Z33" s="42"/>
-      <c r="AA33" s="44"/>
+      <c r="AA33" s="49"/>
       <c r="AB33" s="43"/>
       <c r="AC33" s="42"/>
       <c r="AD33" s="43"/>
       <c r="AE33" s="11"/>
       <c r="AF33" s="13"/>
       <c r="AG33" s="42" t="s">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="AH33" s="43"/>
       <c r="AI33" s="42" t="s">
@@ -3291,7 +3287,7 @@
       <c r="AK33" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL33" s="44"/>
+      <c r="AL33" s="49"/>
       <c r="AM33" s="43"/>
       <c r="AN33" s="42" t="s">
         <v>21</v>
@@ -3303,9 +3299,9 @@
       <c r="AS33" s="1"/>
       <c r="AT33" s="7"/>
     </row>
-    <row r="34" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:67" ht="18" customHeight="1">
       <c r="C34" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="1"/>
@@ -3316,17 +3312,17 @@
       </c>
       <c r="V34" s="43"/>
       <c r="W34" s="42"/>
-      <c r="X34" s="44"/>
+      <c r="X34" s="49"/>
       <c r="Y34" s="43"/>
       <c r="Z34" s="42"/>
-      <c r="AA34" s="44"/>
+      <c r="AA34" s="49"/>
       <c r="AB34" s="43"/>
       <c r="AC34" s="42"/>
       <c r="AD34" s="43"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="13"/>
       <c r="AG34" s="42" t="s">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="AH34" s="43"/>
       <c r="AI34" s="42" t="s">
@@ -3336,7 +3332,7 @@
       <c r="AK34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL34" s="44"/>
+      <c r="AL34" s="49"/>
       <c r="AM34" s="43"/>
       <c r="AN34" s="42" t="s">
         <v>8</v>
@@ -3348,9 +3344,9 @@
       <c r="AS34" s="1"/>
       <c r="AT34" s="7"/>
     </row>
-    <row r="35" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:67" ht="18" customHeight="1">
       <c r="C35" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="1"/>
@@ -3361,10 +3357,10 @@
       </c>
       <c r="V35" s="43"/>
       <c r="W35" s="42"/>
-      <c r="X35" s="44"/>
+      <c r="X35" s="49"/>
       <c r="Y35" s="43"/>
       <c r="Z35" s="42"/>
-      <c r="AA35" s="44"/>
+      <c r="AA35" s="49"/>
       <c r="AB35" s="43"/>
       <c r="AC35" s="42"/>
       <c r="AD35" s="43"/>
@@ -3379,7 +3375,7 @@
       <c r="AK35" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL35" s="44"/>
+      <c r="AL35" s="49"/>
       <c r="AM35" s="43"/>
       <c r="AN35" s="42" t="s">
         <v>8</v>
@@ -3391,9 +3387,9 @@
       <c r="AS35" s="1"/>
       <c r="AT35" s="7"/>
     </row>
-    <row r="36" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:67" ht="18" customHeight="1">
       <c r="C36" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="1"/>
@@ -3422,7 +3418,7 @@
       <c r="AK36" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL36" s="44"/>
+      <c r="AL36" s="49"/>
       <c r="AM36" s="43"/>
       <c r="AN36" s="42" t="s">
         <v>8</v>
@@ -3434,9 +3430,9 @@
       <c r="AS36" s="1"/>
       <c r="AT36" s="7"/>
     </row>
-    <row r="37" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:67" ht="18" customHeight="1">
       <c r="C37" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="1"/>
@@ -3447,10 +3443,10 @@
       </c>
       <c r="V37" s="43"/>
       <c r="W37" s="42"/>
-      <c r="X37" s="44"/>
+      <c r="X37" s="49"/>
       <c r="Y37" s="43"/>
       <c r="Z37" s="42"/>
-      <c r="AA37" s="44"/>
+      <c r="AA37" s="49"/>
       <c r="AB37" s="43"/>
       <c r="AC37" s="42"/>
       <c r="AD37" s="43"/>
@@ -3465,7 +3461,7 @@
       <c r="AK37" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AL37" s="44"/>
+      <c r="AL37" s="49"/>
       <c r="AM37" s="43"/>
       <c r="AN37" s="42" t="s">
         <v>8</v>
@@ -3477,7 +3473,7 @@
       <c r="AS37" s="1"/>
       <c r="AT37" s="7"/>
     </row>
-    <row r="38" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:67" ht="18" customHeight="1">
       <c r="Q38" s="6"/>
       <c r="R38" s="1"/>
       <c r="S38" s="42"/>
@@ -3485,10 +3481,10 @@
       <c r="U38" s="42"/>
       <c r="V38" s="43"/>
       <c r="W38" s="42"/>
-      <c r="X38" s="44"/>
+      <c r="X38" s="49"/>
       <c r="Y38" s="43"/>
       <c r="Z38" s="42"/>
-      <c r="AA38" s="44"/>
+      <c r="AA38" s="49"/>
       <c r="AB38" s="43"/>
       <c r="AC38" s="42"/>
       <c r="AD38" s="43"/>
@@ -3499,7 +3495,7 @@
       <c r="AI38" s="42"/>
       <c r="AJ38" s="43"/>
       <c r="AK38" s="42"/>
-      <c r="AL38" s="44"/>
+      <c r="AL38" s="49"/>
       <c r="AM38" s="43"/>
       <c r="AN38" s="42"/>
       <c r="AO38" s="43"/>
@@ -3509,7 +3505,7 @@
       <c r="AS38" s="1"/>
       <c r="AT38" s="7"/>
     </row>
-    <row r="39" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:67" ht="18" customHeight="1">
       <c r="Q39" s="6"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -3541,7 +3537,7 @@
       <c r="AS39" s="1"/>
       <c r="AT39" s="7"/>
     </row>
-    <row r="40" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:67" ht="18" customHeight="1">
       <c r="Q40" s="8"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -3573,7 +3569,7 @@
       <c r="AS40" s="2"/>
       <c r="AT40" s="9"/>
     </row>
-    <row r="42" spans="2:67" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:67" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -3588,18 +3584,18 @@
       <c r="M42" s="30"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="44" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:67" ht="18" customHeight="1">
       <c r="Q44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AN44" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF44" t="s">
         <v>41</v>
       </c>
-      <c r="BF44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="2:67" ht="18" customHeight="1">
       <c r="Q45" s="3"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
@@ -3632,7 +3628,7 @@
       <c r="AZ45" s="4"/>
       <c r="BA45" s="4"/>
       <c r="BB45" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BF45" s="3"/>
       <c r="BG45" s="4"/>
@@ -3644,18 +3640,18 @@
       <c r="BM45" s="4"/>
       <c r="BN45" s="4"/>
       <c r="BO45" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="2:67" ht="18" customHeight="1">
       <c r="C46" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q46" s="6"/>
-      <c r="R46" s="46" t="s">
+      <c r="R46" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="S46" s="46"/>
+      <c r="S46" s="47"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -3696,7 +3692,7 @@
       <c r="BN46" s="1"/>
       <c r="BO46" s="7"/>
     </row>
-    <row r="47" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:67" ht="18" customHeight="1">
       <c r="Q47" s="6"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -3731,44 +3727,44 @@
       <c r="BB47" s="7"/>
       <c r="BF47" s="6"/>
       <c r="BG47" s="1"/>
-      <c r="BH47" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="BI47" s="46"/>
-      <c r="BJ47" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="BK47" s="46"/>
+      <c r="BH47" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI47" s="47"/>
+      <c r="BJ47" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK47" s="47"/>
       <c r="BL47" s="1"/>
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
       <c r="BO47" s="7"/>
     </row>
-    <row r="48" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:67" ht="18" customHeight="1">
       <c r="C48" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="S48" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46" t="s">
+      <c r="S48" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46" t="s">
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="46"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
@@ -3776,7 +3772,7 @@
       <c r="AN48" s="6"/>
       <c r="AO48" s="1"/>
       <c r="AP48" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ48" s="1"/>
       <c r="AR48" s="1"/>
@@ -3801,29 +3797,29 @@
       <c r="BN48" s="1"/>
       <c r="BO48" s="7"/>
     </row>
-    <row r="49" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:67" ht="18" customHeight="1">
       <c r="C49" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="15"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="46" t="s">
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AA49" s="46"/>
-      <c r="AB49" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC49" s="46"/>
+      <c r="AC49" s="47"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
@@ -3846,37 +3842,37 @@
       <c r="BF49" s="6"/>
       <c r="BG49" s="1"/>
       <c r="BH49" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI49" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI49" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="BJ49" s="46"/>
-      <c r="BK49" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="BL49" s="46"/>
+      <c r="BJ49" s="47"/>
+      <c r="BK49" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL49" s="47"/>
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
       <c r="BO49" s="7"/>
     </row>
-    <row r="50" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:67" ht="18" customHeight="1">
       <c r="C50" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="15"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="46"/>
-      <c r="AA50" s="46"/>
-      <c r="AB50" s="46"/>
-      <c r="AC50" s="46"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="47"/>
+      <c r="Y50" s="47"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
@@ -3899,37 +3895,37 @@
       <c r="BF50" s="6"/>
       <c r="BG50" s="1"/>
       <c r="BH50" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI50" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ50" s="47"/>
+      <c r="BK50" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="BI50" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="BJ50" s="46"/>
-      <c r="BK50" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="BL50" s="46"/>
+      <c r="BL50" s="47"/>
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
       <c r="BO50" s="7"/>
     </row>
-    <row r="51" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:67" ht="18" customHeight="1">
       <c r="C51" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="15"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="46"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="46"/>
-      <c r="AB51" s="46"/>
-      <c r="AC51" s="46"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
@@ -3938,12 +3934,12 @@
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
       <c r="AQ51" s="42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AR51" s="43"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AU51" s="43"/>
       <c r="AV51" s="1"/>
@@ -3956,34 +3952,34 @@
       <c r="BF51" s="6"/>
       <c r="BG51" s="1"/>
       <c r="BH51" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI51" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="BJ51" s="46"/>
-      <c r="BK51" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="BL51" s="46"/>
+      <c r="BI51" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ51" s="47"/>
+      <c r="BK51" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL51" s="47"/>
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
       <c r="BO51" s="7"/>
     </row>
-    <row r="52" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:67" ht="18" customHeight="1">
       <c r="Q52" s="6"/>
       <c r="R52" s="15"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46"/>
-      <c r="Y52" s="46"/>
-      <c r="Z52" s="46"/>
-      <c r="AA52" s="46"/>
-      <c r="AB52" s="46"/>
-      <c r="AC52" s="46"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="47"/>
+      <c r="Y52" s="47"/>
+      <c r="Z52" s="47"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
+      <c r="AC52" s="47"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
@@ -4006,34 +4002,34 @@
       <c r="BF52" s="6"/>
       <c r="BG52" s="1"/>
       <c r="BH52" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI52" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="BJ52" s="46"/>
-      <c r="BK52" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="BL52" s="46"/>
+        <v>48</v>
+      </c>
+      <c r="BI52" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ52" s="47"/>
+      <c r="BK52" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="BL52" s="47"/>
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
       <c r="BO52" s="7"/>
     </row>
-    <row r="53" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:67" ht="18" customHeight="1">
       <c r="Q53" s="6"/>
       <c r="R53" s="15"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="46"/>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="46"/>
-      <c r="AA53" s="46"/>
-      <c r="AB53" s="46"/>
-      <c r="AC53" s="46"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="47"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
@@ -4056,30 +4052,30 @@
       <c r="BF53" s="6"/>
       <c r="BG53" s="1"/>
       <c r="BH53" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI53" s="46"/>
-      <c r="BJ53" s="46"/>
-      <c r="BK53" s="46"/>
-      <c r="BL53" s="46"/>
+        <v>49</v>
+      </c>
+      <c r="BI53" s="47"/>
+      <c r="BJ53" s="47"/>
+      <c r="BK53" s="47"/>
+      <c r="BL53" s="47"/>
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
       <c r="BO53" s="7"/>
     </row>
-    <row r="54" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:67" ht="18" customHeight="1">
       <c r="Q54" s="6"/>
       <c r="R54" s="15"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="46"/>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="46"/>
-      <c r="AA54" s="46"/>
-      <c r="AB54" s="46"/>
-      <c r="AC54" s="46"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
@@ -4102,30 +4098,30 @@
       <c r="BF54" s="6"/>
       <c r="BG54" s="1"/>
       <c r="BH54" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI54" s="46"/>
-      <c r="BJ54" s="46"/>
-      <c r="BK54" s="46"/>
-      <c r="BL54" s="46"/>
+        <v>49</v>
+      </c>
+      <c r="BI54" s="47"/>
+      <c r="BJ54" s="47"/>
+      <c r="BK54" s="47"/>
+      <c r="BL54" s="47"/>
       <c r="BM54" s="1"/>
       <c r="BN54" s="1"/>
       <c r="BO54" s="7"/>
     </row>
-    <row r="55" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:67" ht="18" customHeight="1">
       <c r="Q55" s="6"/>
       <c r="R55" s="15"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="46"/>
-      <c r="Y55" s="46"/>
-      <c r="Z55" s="46"/>
-      <c r="AA55" s="46"/>
-      <c r="AB55" s="46"/>
-      <c r="AC55" s="46"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
+      <c r="AC55" s="47"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
@@ -4148,30 +4144,30 @@
       <c r="BF55" s="6"/>
       <c r="BG55" s="1"/>
       <c r="BH55" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI55" s="46"/>
-      <c r="BJ55" s="46"/>
-      <c r="BK55" s="46"/>
-      <c r="BL55" s="46"/>
+        <v>49</v>
+      </c>
+      <c r="BI55" s="47"/>
+      <c r="BJ55" s="47"/>
+      <c r="BK55" s="47"/>
+      <c r="BL55" s="47"/>
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
       <c r="BO55" s="7"/>
     </row>
-    <row r="56" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:67" ht="18" customHeight="1">
       <c r="Q56" s="6"/>
       <c r="R56" s="15"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
-      <c r="X56" s="46"/>
-      <c r="Y56" s="46"/>
-      <c r="Z56" s="46"/>
-      <c r="AA56" s="46"/>
-      <c r="AB56" s="46"/>
-      <c r="AC56" s="46"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
@@ -4179,15 +4175,15 @@
       <c r="BF56" s="6"/>
       <c r="BG56" s="1"/>
       <c r="BH56" s="15"/>
-      <c r="BI56" s="46"/>
-      <c r="BJ56" s="46"/>
-      <c r="BK56" s="46"/>
-      <c r="BL56" s="46"/>
+      <c r="BI56" s="47"/>
+      <c r="BJ56" s="47"/>
+      <c r="BK56" s="47"/>
+      <c r="BL56" s="47"/>
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
       <c r="BO56" s="7"/>
     </row>
-    <row r="57" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:67" ht="18" customHeight="1">
       <c r="Q57" s="6"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -4216,7 +4212,7 @@
       <c r="BN57" s="1"/>
       <c r="BO57" s="7"/>
     </row>
-    <row r="58" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:67" ht="18" customHeight="1">
       <c r="Q58" s="6"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -4238,7 +4234,7 @@
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
       <c r="BI58" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="BJ58" s="43"/>
       <c r="BK58" s="1"/>
@@ -4247,7 +4243,7 @@
       <c r="BN58" s="1"/>
       <c r="BO58" s="7"/>
     </row>
-    <row r="59" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:67" ht="18" customHeight="1">
       <c r="Q59" s="6"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -4276,7 +4272,7 @@
       <c r="BN59" s="1"/>
       <c r="BO59" s="7"/>
     </row>
-    <row r="60" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:67" ht="18" customHeight="1">
       <c r="Q60" s="8"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -4305,7 +4301,7 @@
       <c r="BN60" s="2"/>
       <c r="BO60" s="9"/>
     </row>
-    <row r="62" spans="2:67" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:67" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
@@ -4320,15 +4316,15 @@
       <c r="M62" s="30"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="64" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:67" ht="18" customHeight="1">
       <c r="Q64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AZ64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="3:85" ht="18" customHeight="1">
       <c r="Q65" s="3"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
@@ -4398,28 +4394,28 @@
       <c r="CF65" s="4"/>
       <c r="CG65" s="5"/>
     </row>
-    <row r="66" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:85" ht="18" customHeight="1">
       <c r="C66" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q66" s="6"/>
-      <c r="R66" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="S66" s="47"/>
-      <c r="T66" s="47"/>
-      <c r="U66" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="V66" s="49"/>
-      <c r="W66" s="49"/>
-      <c r="X66" s="49"/>
-      <c r="Y66" s="49"/>
-      <c r="Z66" s="49"/>
-      <c r="AA66" s="49"/>
-      <c r="AB66" s="50"/>
+      <c r="R66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="S66" s="48"/>
+      <c r="T66" s="48"/>
+      <c r="U66" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="V66" s="51"/>
+      <c r="W66" s="51"/>
+      <c r="X66" s="51"/>
+      <c r="Y66" s="51"/>
+      <c r="Z66" s="51"/>
+      <c r="AA66" s="51"/>
+      <c r="AB66" s="52"/>
       <c r="AC66" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
@@ -4427,7 +4423,7 @@
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
       <c r="AI66" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AJ66" s="43"/>
       <c r="AK66" s="1"/>
@@ -4445,23 +4441,23 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="7"/>
       <c r="AZ66" s="6"/>
-      <c r="BA66" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="BB66" s="47"/>
-      <c r="BC66" s="47"/>
-      <c r="BD66" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE66" s="49"/>
-      <c r="BF66" s="49"/>
-      <c r="BG66" s="49"/>
-      <c r="BH66" s="49"/>
-      <c r="BI66" s="49"/>
-      <c r="BJ66" s="49"/>
-      <c r="BK66" s="50"/>
+      <c r="BA66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB66" s="48"/>
+      <c r="BC66" s="48"/>
+      <c r="BD66" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE66" s="51"/>
+      <c r="BF66" s="51"/>
+      <c r="BG66" s="51"/>
+      <c r="BH66" s="51"/>
+      <c r="BI66" s="51"/>
+      <c r="BJ66" s="51"/>
+      <c r="BK66" s="52"/>
       <c r="BL66" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
@@ -4485,7 +4481,7 @@
       <c r="CF66" s="1"/>
       <c r="CG66" s="7"/>
     </row>
-    <row r="67" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:85" ht="18" customHeight="1">
       <c r="Q67" s="6"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -4555,9 +4551,9 @@
       <c r="CF67" s="1"/>
       <c r="CG67" s="7"/>
     </row>
-    <row r="68" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:85" ht="18" customHeight="1">
       <c r="C68" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="3"/>
@@ -4628,13 +4624,13 @@
       <c r="CF68" s="1"/>
       <c r="CG68" s="7"/>
     </row>
-    <row r="69" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:85" ht="18" customHeight="1">
       <c r="C69" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S69" s="22"/>
       <c r="T69" s="1"/>
@@ -4670,7 +4666,7 @@
       <c r="AX69" s="7"/>
       <c r="AZ69" s="6"/>
       <c r="BA69" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BB69" s="1"/>
       <c r="BC69" s="1"/>
@@ -4705,24 +4701,24 @@
       <c r="CF69" s="1"/>
       <c r="CG69" s="7"/>
     </row>
-    <row r="70" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:85" ht="18" customHeight="1">
       <c r="C70" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="T70" s="52"/>
-      <c r="U70" s="47" t="s">
+      <c r="S70" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="T70" s="57"/>
+      <c r="U70" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="V70" s="47"/>
-      <c r="W70" s="47" t="s">
+      <c r="V70" s="48"/>
+      <c r="W70" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="X70" s="47"/>
+      <c r="X70" s="48"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -4751,18 +4747,18 @@
       <c r="AX70" s="7"/>
       <c r="AZ70" s="6"/>
       <c r="BA70" s="6"/>
-      <c r="BB70" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC70" s="54"/>
-      <c r="BD70" s="47" t="s">
+      <c r="BB70" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC70" s="55"/>
+      <c r="BD70" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="BE70" s="47"/>
-      <c r="BF70" s="47" t="s">
+      <c r="BE70" s="48"/>
+      <c r="BF70" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="BG70" s="47"/>
+      <c r="BG70" s="48"/>
       <c r="BH70" s="7"/>
       <c r="BI70" s="1"/>
       <c r="BJ70" s="1"/>
@@ -4790,25 +4786,25 @@
       <c r="CF70" s="1"/>
       <c r="CG70" s="7"/>
     </row>
-    <row r="71" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:85" ht="18" customHeight="1">
       <c r="C71" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="U71" s="47"/>
-      <c r="V71" s="47" t="s">
+      <c r="T71" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U71" s="48"/>
+      <c r="V71" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="W71" s="47"/>
-      <c r="X71" s="47" t="s">
+      <c r="W71" s="48"/>
+      <c r="X71" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Y71" s="53"/>
+      <c r="Y71" s="54"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
@@ -4819,7 +4815,7 @@
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
       <c r="AI71" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AJ71" s="12"/>
       <c r="AK71" s="12"/>
@@ -4839,18 +4835,18 @@
       <c r="AZ71" s="6"/>
       <c r="BA71" s="6"/>
       <c r="BB71" s="1"/>
-      <c r="BC71" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD71" s="47"/>
-      <c r="BE71" s="47" t="s">
+      <c r="BC71" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD71" s="48"/>
+      <c r="BE71" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="BF71" s="47"/>
-      <c r="BG71" s="47" t="s">
+      <c r="BF71" s="48"/>
+      <c r="BG71" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="BH71" s="53"/>
+      <c r="BH71" s="54"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
@@ -4861,7 +4857,7 @@
       <c r="BP71" s="1"/>
       <c r="BQ71" s="1"/>
       <c r="BR71" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BS71" s="12"/>
       <c r="BT71" s="12"/>
@@ -4879,17 +4875,17 @@
       <c r="CF71" s="1"/>
       <c r="CG71" s="7"/>
     </row>
-    <row r="72" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:85" ht="18" customHeight="1">
       <c r="C72" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="U72" s="47"/>
+      <c r="T72" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="U72" s="48"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
@@ -4904,7 +4900,7 @@
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
       <c r="AI72" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AJ72" s="12"/>
       <c r="AK72" s="12"/>
@@ -4924,10 +4920,10 @@
       <c r="AZ72" s="6"/>
       <c r="BA72" s="6"/>
       <c r="BB72" s="1"/>
-      <c r="BC72" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD72" s="47"/>
+      <c r="BC72" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD72" s="48"/>
       <c r="BE72" s="1"/>
       <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
@@ -4942,7 +4938,7 @@
       <c r="BP72" s="1"/>
       <c r="BQ72" s="1"/>
       <c r="BR72" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BS72" s="12"/>
       <c r="BT72" s="12"/>
@@ -4960,13 +4956,13 @@
       <c r="CF72" s="1"/>
       <c r="CG72" s="7"/>
     </row>
-    <row r="73" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:85" ht="18" customHeight="1">
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="S73" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="T73" s="47"/>
+      <c r="S73" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="T73" s="48"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -4978,7 +4974,7 @@
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF73" s="1"/>
       <c r="AG73" s="10" t="s">
@@ -5003,10 +4999,10 @@
       <c r="AX73" s="7"/>
       <c r="AZ73" s="6"/>
       <c r="BA73" s="6"/>
-      <c r="BB73" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC73" s="47"/>
+      <c r="BB73" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC73" s="48"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
       <c r="BF73" s="1"/>
@@ -5015,14 +5011,14 @@
       <c r="BI73" s="1"/>
       <c r="BJ73" s="1"/>
       <c r="BK73" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL73" s="1"/>
       <c r="BM73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BN73" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BO73" s="1"/>
       <c r="BP73" s="10" t="s">
@@ -5046,14 +5042,14 @@
       <c r="CF73" s="1"/>
       <c r="CG73" s="7"/>
     </row>
-    <row r="74" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:85" ht="18" customHeight="1">
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="U74" s="47"/>
+      <c r="T74" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="U74" s="48"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
@@ -5086,10 +5082,10 @@
       <c r="AZ74" s="6"/>
       <c r="BA74" s="6"/>
       <c r="BB74" s="1"/>
-      <c r="BC74" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD74" s="47"/>
+      <c r="BC74" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD74" s="48"/>
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
       <c r="BG74" s="1"/>
@@ -5120,14 +5116,14 @@
       <c r="CF74" s="1"/>
       <c r="CG74" s="7"/>
     </row>
-    <row r="75" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:85" ht="18" customHeight="1">
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="U75" s="47"/>
+      <c r="T75" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="U75" s="48"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
@@ -5160,10 +5156,10 @@
       <c r="AZ75" s="6"/>
       <c r="BA75" s="6"/>
       <c r="BB75" s="1"/>
-      <c r="BC75" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD75" s="47"/>
+      <c r="BC75" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD75" s="48"/>
       <c r="BE75" s="1"/>
       <c r="BF75" s="1"/>
       <c r="BG75" s="1"/>
@@ -5194,7 +5190,7 @@
       <c r="CF75" s="1"/>
       <c r="CG75" s="7"/>
     </row>
-    <row r="76" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:85" ht="18" customHeight="1">
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="1"/>
@@ -5264,7 +5260,7 @@
       <c r="CF76" s="1"/>
       <c r="CG76" s="7"/>
     </row>
-    <row r="77" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:85" ht="18" customHeight="1">
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="1"/>
@@ -5334,7 +5330,7 @@
       <c r="CF77" s="1"/>
       <c r="CG77" s="7"/>
     </row>
-    <row r="78" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:85" ht="18" customHeight="1">
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="1"/>
@@ -5408,7 +5404,7 @@
       <c r="CF78" s="1"/>
       <c r="CG78" s="7"/>
     </row>
-    <row r="79" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:85" ht="18" customHeight="1">
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="1"/>
@@ -5478,7 +5474,7 @@
       <c r="CF79" s="1"/>
       <c r="CG79" s="7"/>
     </row>
-    <row r="80" spans="3:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:85" ht="18" customHeight="1">
       <c r="Q80" s="6"/>
       <c r="R80" s="8"/>
       <c r="S80" s="2"/>
@@ -5548,7 +5544,7 @@
       <c r="CF80" s="1"/>
       <c r="CG80" s="7"/>
     </row>
-    <row r="81" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:85" ht="18" customHeight="1">
       <c r="Q81" s="6"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -5618,7 +5614,7 @@
       <c r="CF81" s="1"/>
       <c r="CG81" s="7"/>
     </row>
-    <row r="82" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:85" ht="18" customHeight="1">
       <c r="Q82" s="8"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
@@ -5688,7 +5684,7 @@
       <c r="CF82" s="2"/>
       <c r="CG82" s="9"/>
     </row>
-    <row r="84" spans="2:85" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:85" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
       <c r="D84" s="30"/>
@@ -5703,17 +5699,17 @@
       <c r="M84" s="30"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="86" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:85" ht="18" customHeight="1">
       <c r="Q86" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AM86" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="2:85" ht="18" customHeight="1">
       <c r="D87" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q87" s="3"/>
       <c r="R87" s="4"/>
@@ -5735,26 +5731,26 @@
       <c r="AH87" s="4"/>
       <c r="AI87" s="5"/>
     </row>
-    <row r="88" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:85" ht="18" customHeight="1">
       <c r="Q88" s="6"/>
       <c r="R88" s="1"/>
-      <c r="S88" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="T88" s="47"/>
-      <c r="U88" s="47"/>
-      <c r="V88" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="W88" s="49"/>
-      <c r="X88" s="49"/>
-      <c r="Y88" s="49"/>
-      <c r="Z88" s="49"/>
-      <c r="AA88" s="49"/>
-      <c r="AB88" s="49"/>
-      <c r="AC88" s="50"/>
+      <c r="S88" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="T88" s="48"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="W88" s="51"/>
+      <c r="X88" s="51"/>
+      <c r="Y88" s="51"/>
+      <c r="Z88" s="51"/>
+      <c r="AA88" s="51"/>
+      <c r="AB88" s="51"/>
+      <c r="AC88" s="52"/>
       <c r="AD88" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
@@ -5777,19 +5773,19 @@
       <c r="AZ88" s="4"/>
       <c r="BA88" s="4"/>
       <c r="BB88" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="2:85" ht="18" customHeight="1">
       <c r="D89" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q89" s="6"/>
       <c r="R89" s="1"/>
-      <c r="S89" s="46" t="s">
+      <c r="S89" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T89" s="46"/>
+      <c r="T89" s="47"/>
       <c r="U89" s="14"/>
       <c r="V89" s="20"/>
       <c r="W89" s="20"/>
@@ -5808,7 +5804,7 @@
       <c r="AM89" s="6"/>
       <c r="AN89" s="1"/>
       <c r="AO89" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP89" s="1"/>
       <c r="AQ89" s="1"/>
@@ -5824,87 +5820,87 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="7"/>
     </row>
-    <row r="90" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:85" ht="18" customHeight="1">
       <c r="D90" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q90" s="6"/>
       <c r="R90" s="1"/>
-      <c r="S90" s="46" t="s">
+      <c r="S90" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="T90" s="47"/>
+      <c r="U90" s="47"/>
+      <c r="V90" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="W90" s="49"/>
+      <c r="X90" s="49"/>
+      <c r="Y90" s="43"/>
+      <c r="Z90" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="T90" s="46"/>
-      <c r="U90" s="46"/>
-      <c r="V90" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="W90" s="44"/>
-      <c r="X90" s="44"/>
-      <c r="Y90" s="43"/>
-      <c r="Z90" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA90" s="46"/>
-      <c r="AB90" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC90" s="46"/>
-      <c r="AD90" s="46"/>
-      <c r="AE90" s="46"/>
-      <c r="AF90" s="46"/>
-      <c r="AG90" s="46"/>
+      <c r="AA90" s="47"/>
+      <c r="AB90" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC90" s="47"/>
+      <c r="AD90" s="47"/>
+      <c r="AE90" s="47"/>
+      <c r="AF90" s="47"/>
+      <c r="AG90" s="47"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="7"/>
       <c r="AM90" s="6"/>
       <c r="AN90" s="1"/>
-      <c r="AO90" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP90" s="47"/>
-      <c r="AQ90" s="47"/>
-      <c r="AR90" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS90" s="49"/>
-      <c r="AT90" s="49"/>
-      <c r="AU90" s="49"/>
-      <c r="AV90" s="49"/>
-      <c r="AW90" s="49"/>
-      <c r="AX90" s="49"/>
-      <c r="AY90" s="50"/>
+      <c r="AO90" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP90" s="48"/>
+      <c r="AQ90" s="48"/>
+      <c r="AR90" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS90" s="51"/>
+      <c r="AT90" s="51"/>
+      <c r="AU90" s="51"/>
+      <c r="AV90" s="51"/>
+      <c r="AW90" s="51"/>
+      <c r="AX90" s="51"/>
+      <c r="AY90" s="52"/>
       <c r="AZ90" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BA90" s="1"/>
       <c r="BB90" s="7"/>
     </row>
-    <row r="91" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:85" ht="18" customHeight="1">
       <c r="D91" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="1"/>
-      <c r="S91" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="T91" s="46"/>
-      <c r="U91" s="46"/>
+      <c r="S91" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="T91" s="47"/>
+      <c r="U91" s="47"/>
       <c r="V91" s="42"/>
-      <c r="W91" s="44"/>
-      <c r="X91" s="44"/>
+      <c r="W91" s="49"/>
+      <c r="X91" s="49"/>
       <c r="Y91" s="43"/>
       <c r="Z91" s="42"/>
       <c r="AA91" s="43"/>
-      <c r="AB91" s="46" t="s">
+      <c r="AB91" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AC91" s="46"/>
+      <c r="AC91" s="47"/>
       <c r="AD91" s="42" t="s">
         <v>8</v>
       </c>
       <c r="AE91" s="43"/>
       <c r="AF91" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AG91" s="43"/>
       <c r="AH91" s="1"/>
@@ -5926,25 +5922,25 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="7"/>
     </row>
-    <row r="92" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:85" ht="18" customHeight="1">
       <c r="D92" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="1"/>
-      <c r="S92" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="T92" s="46"/>
-      <c r="U92" s="46"/>
+      <c r="S92" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
       <c r="V92" s="42"/>
-      <c r="W92" s="44"/>
-      <c r="X92" s="44"/>
+      <c r="W92" s="49"/>
+      <c r="X92" s="49"/>
       <c r="Y92" s="43"/>
       <c r="Z92" s="42"/>
       <c r="AA92" s="43"/>
-      <c r="AB92" s="46"/>
-      <c r="AC92" s="46"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="47"/>
       <c r="AD92" s="42"/>
       <c r="AE92" s="43"/>
       <c r="AF92" s="42"/>
@@ -5954,7 +5950,7 @@
       <c r="AM92" s="6"/>
       <c r="AN92" s="1"/>
       <c r="AO92" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AP92" s="11"/>
       <c r="AQ92" s="12"/>
@@ -5970,25 +5966,25 @@
       <c r="BA92" s="1"/>
       <c r="BB92" s="7"/>
     </row>
-    <row r="93" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:85" ht="18" customHeight="1">
       <c r="D93" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q93" s="6"/>
       <c r="R93" s="1"/>
-      <c r="S93" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="T93" s="46"/>
-      <c r="U93" s="46"/>
+      <c r="S93" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47"/>
       <c r="V93" s="42"/>
-      <c r="W93" s="44"/>
-      <c r="X93" s="44"/>
+      <c r="W93" s="49"/>
+      <c r="X93" s="49"/>
       <c r="Y93" s="43"/>
       <c r="Z93" s="42"/>
       <c r="AA93" s="43"/>
-      <c r="AB93" s="46"/>
-      <c r="AC93" s="46"/>
+      <c r="AB93" s="47"/>
+      <c r="AC93" s="47"/>
       <c r="AD93" s="42"/>
       <c r="AE93" s="43"/>
       <c r="AF93" s="42"/>
@@ -6012,25 +6008,25 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="7"/>
     </row>
-    <row r="94" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:85" ht="18" customHeight="1">
       <c r="D94" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="T94" s="51"/>
-      <c r="U94" s="51"/>
+      <c r="S94" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="T94" s="58"/>
+      <c r="U94" s="58"/>
       <c r="V94" s="42"/>
-      <c r="W94" s="44"/>
-      <c r="X94" s="44"/>
+      <c r="W94" s="49"/>
+      <c r="X94" s="49"/>
       <c r="Y94" s="43"/>
       <c r="Z94" s="42"/>
       <c r="AA94" s="43"/>
-      <c r="AB94" s="46"/>
-      <c r="AC94" s="46"/>
+      <c r="AB94" s="47"/>
+      <c r="AC94" s="47"/>
       <c r="AD94" s="42"/>
       <c r="AE94" s="43"/>
       <c r="AF94" s="42"/>
@@ -6041,12 +6037,12 @@
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
       <c r="AP94" s="42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AQ94" s="43"/>
       <c r="AR94" s="1"/>
       <c r="AS94" s="42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AT94" s="43"/>
       <c r="AU94" s="1"/>
@@ -6058,9 +6054,9 @@
       <c r="BA94" s="1"/>
       <c r="BB94" s="7"/>
     </row>
-    <row r="95" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:85" ht="18" customHeight="1">
       <c r="D95" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q95" s="6"/>
       <c r="R95" s="1"/>
@@ -6098,7 +6094,7 @@
       <c r="BA95" s="2"/>
       <c r="BB95" s="9"/>
     </row>
-    <row r="96" spans="2:85" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:85" ht="18" customHeight="1">
       <c r="Q96" s="8"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
@@ -6119,7 +6115,7 @@
       <c r="AH96" s="2"/>
       <c r="AI96" s="9"/>
     </row>
-    <row r="98" spans="2:92" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:92" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
       <c r="D98" s="30"/>
@@ -6134,21 +6130,21 @@
       <c r="M98" s="30"/>
       <c r="N98" s="9"/>
     </row>
-    <row r="100" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:92" ht="18" customHeight="1">
       <c r="D100" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q100" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BE100" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BX100" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="2:92" ht="18" customHeight="1">
       <c r="Q101" s="3"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
@@ -6206,7 +6202,7 @@
       <c r="BT101" s="4"/>
       <c r="BU101" s="4"/>
       <c r="BV101" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BX101" s="3"/>
       <c r="BY101" s="4"/>
@@ -6225,75 +6221,75 @@
       <c r="CL101" s="4"/>
       <c r="CM101" s="4"/>
       <c r="CN101" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="2:92" ht="18" customHeight="1">
       <c r="D102" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q102" s="6"/>
-      <c r="R102" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="S102" s="47"/>
-      <c r="T102" s="47"/>
+      <c r="R102" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="S102" s="48"/>
+      <c r="T102" s="48"/>
       <c r="U102" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="V102" s="44"/>
-      <c r="W102" s="44"/>
-      <c r="X102" s="44"/>
-      <c r="Y102" s="44"/>
+        <v>86</v>
+      </c>
+      <c r="V102" s="49"/>
+      <c r="W102" s="49"/>
+      <c r="X102" s="49"/>
+      <c r="Y102" s="49"/>
       <c r="Z102" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA102" s="1"/>
       <c r="AB102" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC102" s="28"/>
       <c r="AD102" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE102" s="44"/>
-      <c r="AF102" s="44"/>
-      <c r="AG102" s="44"/>
-      <c r="AH102" s="44"/>
+        <v>55</v>
+      </c>
+      <c r="AE102" s="49"/>
+      <c r="AF102" s="49"/>
+      <c r="AG102" s="49"/>
+      <c r="AH102" s="49"/>
       <c r="AI102" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK102" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL102" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="AK102" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL102" s="54"/>
       <c r="AM102" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN102" s="44"/>
-      <c r="AO102" s="44"/>
-      <c r="AP102" s="44"/>
-      <c r="AQ102" s="44"/>
+        <v>55</v>
+      </c>
+      <c r="AN102" s="49"/>
+      <c r="AO102" s="49"/>
+      <c r="AP102" s="49"/>
+      <c r="AQ102" s="49"/>
       <c r="AR102" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AS102" s="1"/>
-      <c r="AT102" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU102" s="47"/>
+      <c r="AT102" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU102" s="48"/>
       <c r="AV102" s="42"/>
-      <c r="AW102" s="44"/>
+      <c r="AW102" s="49"/>
       <c r="AX102" s="43"/>
       <c r="AZ102" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BA102" s="43"/>
       <c r="BB102" s="1"/>
       <c r="BC102" s="7"/>
       <c r="BE102" s="6"/>
       <c r="BF102" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BH102" s="1"/>
       <c r="BI102" s="1"/>
@@ -6328,9 +6324,9 @@
       <c r="CM102" s="1"/>
       <c r="CN102" s="7"/>
     </row>
-    <row r="103" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:92" ht="18" customHeight="1">
       <c r="D103" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q103" s="6"/>
       <c r="R103" s="1"/>
@@ -6366,18 +6362,18 @@
       <c r="BC103" s="7"/>
       <c r="BE103" s="6"/>
       <c r="BF103" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BG103" s="12"/>
       <c r="BH103" s="13"/>
       <c r="BI103" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BJ103" s="12"/>
       <c r="BK103" s="12"/>
       <c r="BL103" s="13"/>
       <c r="BM103" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BN103" s="12"/>
       <c r="BO103" s="13"/>
@@ -6390,7 +6386,7 @@
       <c r="BV103" s="7"/>
       <c r="BX103" s="6"/>
       <c r="BY103" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BZ103" s="1"/>
       <c r="CA103" s="1"/>
@@ -6408,23 +6404,23 @@
       <c r="CM103" s="1"/>
       <c r="CN103" s="7"/>
     </row>
-    <row r="104" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:92" ht="18" customHeight="1">
       <c r="D104" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q104" s="6"/>
       <c r="R104" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S104" s="43"/>
       <c r="T104" s="1"/>
       <c r="U104" s="42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V104" s="43"/>
       <c r="W104" s="1"/>
       <c r="X104" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y104" s="43"/>
       <c r="Z104" s="1"/>
@@ -6445,7 +6441,7 @@
       <c r="AO104" s="1"/>
       <c r="AP104" s="1"/>
       <c r="AQ104" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AR104" s="1"/>
       <c r="AS104" s="1"/>
@@ -6471,7 +6467,7 @@
       <c r="BN104" s="2"/>
       <c r="BO104" s="9"/>
       <c r="BP104" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BQ104" s="34"/>
       <c r="BR104" s="1"/>
@@ -6497,9 +6493,9 @@
       <c r="CM104" s="1"/>
       <c r="CN104" s="7"/>
     </row>
-    <row r="105" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:92" ht="18" customHeight="1">
       <c r="D105" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q105" s="6"/>
       <c r="R105" s="1"/>
@@ -6552,7 +6548,7 @@
       <c r="BN105" s="2"/>
       <c r="BO105" s="9"/>
       <c r="BP105" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BQ105" s="34"/>
       <c r="BR105" s="1"/>
@@ -6562,7 +6558,7 @@
       <c r="BV105" s="7"/>
       <c r="BX105" s="6"/>
       <c r="BY105" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BZ105" s="1"/>
       <c r="CA105" s="1"/>
@@ -6580,56 +6576,56 @@
       <c r="CM105" s="1"/>
       <c r="CN105" s="7"/>
     </row>
-    <row r="106" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:92" ht="18" customHeight="1">
       <c r="D106" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q106" s="6"/>
       <c r="R106" s="15" t="s">
         <v>14</v>
       </c>
       <c r="S106" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="T106" s="44"/>
-      <c r="U106" s="44"/>
+        <v>82</v>
+      </c>
+      <c r="T106" s="49"/>
+      <c r="U106" s="49"/>
       <c r="V106" s="43"/>
       <c r="W106" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="X106" s="44"/>
+        <v>83</v>
+      </c>
+      <c r="X106" s="49"/>
       <c r="Y106" s="43"/>
       <c r="Z106" s="42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA106" s="43"/>
       <c r="AB106" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC106" s="44"/>
+        <v>88</v>
+      </c>
+      <c r="AC106" s="49"/>
       <c r="AD106" s="43"/>
       <c r="AE106" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF106" s="44"/>
+        <v>85</v>
+      </c>
+      <c r="AF106" s="49"/>
       <c r="AG106" s="43"/>
       <c r="AH106" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI106" s="44"/>
+        <v>87</v>
+      </c>
+      <c r="AI106" s="49"/>
       <c r="AJ106" s="43"/>
       <c r="AK106" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL106" s="44"/>
+        <v>152</v>
+      </c>
+      <c r="AL106" s="49"/>
       <c r="AM106" s="43"/>
       <c r="AN106" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO106" s="44"/>
-      <c r="AP106" s="44"/>
-      <c r="AQ106" s="44"/>
-      <c r="AR106" s="44"/>
+        <v>161</v>
+      </c>
+      <c r="AO106" s="49"/>
+      <c r="AP106" s="49"/>
+      <c r="AQ106" s="49"/>
+      <c r="AR106" s="49"/>
       <c r="AS106" s="43"/>
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
@@ -6677,9 +6673,9 @@
       <c r="CM106" s="1"/>
       <c r="CN106" s="7"/>
     </row>
-    <row r="107" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:92" ht="18" customHeight="1">
       <c r="D107" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q107" s="6"/>
       <c r="R107" s="1"/>
@@ -6691,7 +6687,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
       <c r="Z107" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
@@ -6708,12 +6704,12 @@
       <c r="AM107" s="1"/>
       <c r="AN107" s="1"/>
       <c r="AO107" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AP107" s="27"/>
       <c r="AQ107" s="27"/>
       <c r="AR107" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AS107" s="27"/>
       <c r="AT107" s="1"/>
@@ -6728,25 +6724,25 @@
       <c r="BC107" s="7"/>
       <c r="BE107" s="6"/>
       <c r="BF107" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BG107" s="1"/>
       <c r="BH107" s="1"/>
       <c r="BI107" s="1"/>
       <c r="BJ107" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="BK107" s="1"/>
       <c r="BL107" s="1"/>
       <c r="BM107" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="BN107" s="44"/>
-      <c r="BO107" s="44"/>
-      <c r="BP107" s="44"/>
-      <c r="BQ107" s="44"/>
+        <v>55</v>
+      </c>
+      <c r="BN107" s="49"/>
+      <c r="BO107" s="49"/>
+      <c r="BP107" s="49"/>
+      <c r="BQ107" s="49"/>
       <c r="BR107" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BS107" s="1"/>
       <c r="BT107" s="1"/>
@@ -6770,9 +6766,9 @@
       <c r="CM107" s="1"/>
       <c r="CN107" s="7"/>
     </row>
-    <row r="108" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:92" ht="18" customHeight="1">
       <c r="D108" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q108" s="6"/>
       <c r="R108" s="1"/>
@@ -6784,7 +6780,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
       <c r="Z108" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
@@ -6817,20 +6813,20 @@
       <c r="BC108" s="7"/>
       <c r="BE108" s="6"/>
       <c r="BF108" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BG108" s="12"/>
       <c r="BH108" s="13"/>
       <c r="BI108" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="BJ108" s="12"/>
       <c r="BK108" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BL108" s="13"/>
       <c r="BM108" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BN108" s="12"/>
       <c r="BO108" s="13"/>
@@ -6842,32 +6838,32 @@
       <c r="BU108" s="1"/>
       <c r="BV108" s="7"/>
       <c r="BX108" s="6"/>
-      <c r="BY108" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="BZ108" s="47"/>
-      <c r="CA108" s="47"/>
-      <c r="CB108" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="CC108" s="49"/>
-      <c r="CD108" s="49"/>
-      <c r="CE108" s="49"/>
-      <c r="CF108" s="49"/>
-      <c r="CG108" s="49"/>
-      <c r="CH108" s="49"/>
-      <c r="CI108" s="50"/>
+      <c r="BY108" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ108" s="48"/>
+      <c r="CA108" s="48"/>
+      <c r="CB108" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC108" s="51"/>
+      <c r="CD108" s="51"/>
+      <c r="CE108" s="51"/>
+      <c r="CF108" s="51"/>
+      <c r="CG108" s="51"/>
+      <c r="CH108" s="51"/>
+      <c r="CI108" s="52"/>
       <c r="CJ108" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="CK108" s="1"/>
       <c r="CL108" s="1"/>
       <c r="CM108" s="1"/>
       <c r="CN108" s="7"/>
     </row>
-    <row r="109" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:92" ht="18" customHeight="1">
       <c r="D109" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q109" s="6"/>
       <c r="R109" s="1"/>
@@ -6920,7 +6916,7 @@
       <c r="BN109" s="2"/>
       <c r="BO109" s="9"/>
       <c r="BP109" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BQ109" s="34"/>
       <c r="BR109" s="1"/>
@@ -6946,7 +6942,7 @@
       <c r="CM109" s="1"/>
       <c r="CN109" s="7"/>
     </row>
-    <row r="110" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:92" ht="18" customHeight="1">
       <c r="Q110" s="6"/>
       <c r="R110" s="1"/>
       <c r="T110" s="1"/>
@@ -6997,7 +6993,7 @@
       <c r="BN110" s="2"/>
       <c r="BO110" s="9"/>
       <c r="BP110" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BQ110" s="34"/>
       <c r="BR110" s="1"/>
@@ -7006,22 +7002,22 @@
       <c r="BU110" s="1"/>
       <c r="BV110" s="7"/>
       <c r="BX110" s="6"/>
-      <c r="BY110" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="BZ110" s="53"/>
-      <c r="CA110" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB110" s="49"/>
-      <c r="CC110" s="49"/>
-      <c r="CD110" s="49"/>
-      <c r="CE110" s="49"/>
-      <c r="CF110" s="49"/>
-      <c r="CG110" s="49"/>
-      <c r="CH110" s="50"/>
+      <c r="BY110" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ110" s="54"/>
+      <c r="CA110" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB110" s="51"/>
+      <c r="CC110" s="51"/>
+      <c r="CD110" s="51"/>
+      <c r="CE110" s="51"/>
+      <c r="CF110" s="51"/>
+      <c r="CG110" s="51"/>
+      <c r="CH110" s="52"/>
       <c r="CI110" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="CJ110" s="1"/>
       <c r="CK110" s="1"/>
@@ -7029,9 +7025,9 @@
       <c r="CM110" s="1"/>
       <c r="CN110" s="7"/>
     </row>
-    <row r="111" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:92" ht="18" customHeight="1">
       <c r="B111" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q111" s="6"/>
       <c r="R111" s="1"/>
@@ -7108,12 +7104,12 @@
       <c r="CM111" s="1"/>
       <c r="CN111" s="7"/>
     </row>
-    <row r="112" spans="2:92" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:92" ht="18" customHeight="1">
       <c r="F112" s="31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J112" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q112" s="6"/>
       <c r="R112" s="1"/>
@@ -7156,7 +7152,7 @@
       <c r="BC112" s="7"/>
       <c r="BE112" s="6"/>
       <c r="BF112" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BG112" s="1"/>
       <c r="BH112" s="1"/>
@@ -7175,22 +7171,22 @@
       <c r="BU112" s="1"/>
       <c r="BV112" s="7"/>
       <c r="BX112" s="6"/>
-      <c r="BY112" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="BZ112" s="53"/>
-      <c r="CA112" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB112" s="49"/>
-      <c r="CC112" s="49"/>
-      <c r="CD112" s="49"/>
-      <c r="CE112" s="49"/>
-      <c r="CF112" s="49"/>
-      <c r="CG112" s="49"/>
-      <c r="CH112" s="50"/>
+      <c r="BY112" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ112" s="54"/>
+      <c r="CA112" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="CB112" s="51"/>
+      <c r="CC112" s="51"/>
+      <c r="CD112" s="51"/>
+      <c r="CE112" s="51"/>
+      <c r="CF112" s="51"/>
+      <c r="CG112" s="51"/>
+      <c r="CH112" s="52"/>
       <c r="CI112" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="CJ112" s="1"/>
       <c r="CK112" s="1"/>
@@ -7198,15 +7194,15 @@
       <c r="CM112" s="1"/>
       <c r="CN112" s="7"/>
     </row>
-    <row r="113" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:119" ht="18" customHeight="1">
       <c r="B113" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F113" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J113" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q113" s="6"/>
       <c r="R113" s="1"/>
@@ -7249,18 +7245,18 @@
       <c r="BC113" s="7"/>
       <c r="BE113" s="6"/>
       <c r="BF113" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BG113" s="12"/>
       <c r="BH113" s="13"/>
       <c r="BI113" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="BJ113" s="12"/>
       <c r="BK113" s="12"/>
       <c r="BL113" s="13"/>
       <c r="BM113" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BN113" s="12"/>
       <c r="BO113" s="13"/>
@@ -7288,15 +7284,15 @@
       <c r="CM113" s="1"/>
       <c r="CN113" s="7"/>
     </row>
-    <row r="114" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:119" ht="18" customHeight="1">
       <c r="B114" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F114" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J114" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q114" s="6"/>
       <c r="R114" s="1"/>
@@ -7349,7 +7345,7 @@
       <c r="BN114" s="2"/>
       <c r="BO114" s="9"/>
       <c r="BP114" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BQ114" s="34"/>
       <c r="BR114" s="1"/>
@@ -7359,7 +7355,7 @@
       <c r="BV114" s="7"/>
       <c r="BX114" s="6"/>
       <c r="BY114" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BZ114" s="1"/>
       <c r="CA114" s="1"/>
@@ -7377,15 +7373,15 @@
       <c r="CM114" s="1"/>
       <c r="CN114" s="7"/>
     </row>
-    <row r="115" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:119" ht="18" customHeight="1">
       <c r="B115" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F115" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J115" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q115" s="6"/>
       <c r="R115" s="1"/>
@@ -7438,7 +7434,7 @@
       <c r="BN115" s="2"/>
       <c r="BO115" s="9"/>
       <c r="BP115" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BQ115" s="43"/>
       <c r="BR115" s="1"/>
@@ -7464,12 +7460,12 @@
       <c r="CM115" s="1"/>
       <c r="CN115" s="7"/>
     </row>
-    <row r="116" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:119" ht="18" customHeight="1">
       <c r="B116" s="29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J116" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q116" s="6"/>
       <c r="R116" s="1"/>
@@ -7524,7 +7520,7 @@
       <c r="CA116" s="43"/>
       <c r="CB116" s="1"/>
       <c r="CC116" s="42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CD116" s="43"/>
       <c r="CE116" s="1"/>
@@ -7538,9 +7534,9 @@
       <c r="CM116" s="1"/>
       <c r="CN116" s="7"/>
     </row>
-    <row r="117" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:119" ht="18" customHeight="1">
       <c r="B117" s="29" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q117" s="6"/>
       <c r="R117" s="1"/>
@@ -7587,7 +7583,7 @@
       </c>
       <c r="BI117" s="43"/>
       <c r="BK117" s="42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BL117" s="43"/>
       <c r="BR117" s="1"/>
@@ -7613,15 +7609,15 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="7"/>
     </row>
-    <row r="118" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:119" ht="18" customHeight="1">
       <c r="B118" s="29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K118" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q118" s="8"/>
       <c r="R118" s="2"/>
@@ -7698,31 +7694,31 @@
       <c r="CM118" s="2"/>
       <c r="CN118" s="9"/>
     </row>
-    <row r="119" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:119" ht="18" customHeight="1">
       <c r="F119" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="K119" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120" spans="1:119" ht="18" customHeight="1">
+      <c r="F120" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="K119" s="29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="120" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F120" s="29" t="s">
-        <v>242</v>
-      </c>
       <c r="K120" s="29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="121" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:119" ht="18" customHeight="1">
       <c r="F121" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K121" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="122" spans="1:119" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:119" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A122" s="29"/>
       <c r="B122" s="29"/>
       <c r="C122" s="29"/>
@@ -7738,18 +7734,18 @@
       <c r="M122" s="29"/>
       <c r="N122" s="7"/>
     </row>
-    <row r="123" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:119" ht="18" customHeight="1">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:119" ht="18" customHeight="1">
       <c r="D124" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q124" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T124" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="CK124" s="1"/>
       <c r="CL124" s="1"/>
@@ -7763,7 +7759,7 @@
       <c r="CT124" s="1"/>
       <c r="CU124" s="1"/>
     </row>
-    <row r="125" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:119" ht="18" customHeight="1">
       <c r="Q125" s="3"/>
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
@@ -7795,29 +7791,29 @@
       <c r="CT125" s="1"/>
       <c r="CU125" s="1"/>
     </row>
-    <row r="126" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:119" ht="18" customHeight="1">
       <c r="D126" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q126" s="6"/>
       <c r="R126" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S126" s="1"/>
-      <c r="T126" s="46"/>
-      <c r="U126" s="46"/>
-      <c r="V126" s="46"/>
+      <c r="T126" s="47"/>
+      <c r="U126" s="47"/>
+      <c r="V126" s="47"/>
       <c r="W126" s="1"/>
       <c r="X126" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Y126" s="1"/>
-      <c r="Z126" s="46"/>
-      <c r="AA126" s="46"/>
-      <c r="AB126" s="46"/>
+      <c r="Z126" s="47"/>
+      <c r="AA126" s="47"/>
+      <c r="AB126" s="47"/>
       <c r="AC126" s="1"/>
       <c r="AD126" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AE126" s="43"/>
       <c r="AF126" s="1"/>
@@ -7825,24 +7821,24 @@
       <c r="AH126" s="1"/>
       <c r="AI126" s="7"/>
       <c r="AL126" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AX126" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="BM126" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="CC126" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="CK126" s="1"/>
       <c r="CL126" s="1"/>
       <c r="CM126" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="DC126" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="DD126" s="1"/>
       <c r="DE126" s="1"/>
@@ -7852,9 +7848,9 @@
       <c r="DI126" s="1"/>
       <c r="DJ126" s="1"/>
     </row>
-    <row r="127" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:119" ht="18" customHeight="1">
       <c r="D127" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q127" s="6"/>
       <c r="R127" s="1"/>
@@ -7887,25 +7883,25 @@
       <c r="DI127" s="1"/>
       <c r="DJ127" s="1"/>
     </row>
-    <row r="128" spans="1:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:119" ht="18" customHeight="1">
       <c r="D128" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q128" s="6"/>
-      <c r="R128" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="S128" s="46"/>
+      <c r="R128" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="S128" s="47"/>
       <c r="T128" s="1"/>
-      <c r="U128" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="V128" s="46"/>
+      <c r="U128" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="V128" s="47"/>
       <c r="W128" s="1"/>
-      <c r="X128" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y128" s="46"/>
+      <c r="X128" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y128" s="47"/>
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
@@ -7926,7 +7922,7 @@
       <c r="AS128" s="4"/>
       <c r="AT128" s="4"/>
       <c r="AU128" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AX128" s="3"/>
       <c r="AY128" s="4"/>
@@ -7942,7 +7938,7 @@
       <c r="BI128" s="4"/>
       <c r="BJ128" s="4"/>
       <c r="BK128" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BM128" s="3"/>
       <c r="BN128" s="4"/>
@@ -7967,7 +7963,7 @@
       <c r="CH128" s="4"/>
       <c r="CI128" s="4"/>
       <c r="CJ128" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CK128" s="1"/>
       <c r="CL128" s="1"/>
@@ -7998,9 +7994,9 @@
       <c r="DN128" s="4"/>
       <c r="DO128" s="5"/>
     </row>
-    <row r="129" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="4:119" ht="18" customHeight="1">
       <c r="D129" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q129" s="6"/>
       <c r="R129" s="1"/>
@@ -8023,25 +8019,25 @@
       <c r="AI129" s="7"/>
       <c r="AL129" s="6"/>
       <c r="AM129" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AN129" s="1"/>
-      <c r="AO129" s="46"/>
-      <c r="AP129" s="46"/>
-      <c r="AQ129" s="46"/>
-      <c r="AR129" s="46"/>
+      <c r="AO129" s="47"/>
+      <c r="AP129" s="47"/>
+      <c r="AQ129" s="47"/>
+      <c r="AR129" s="47"/>
       <c r="AS129" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AT129" s="1"/>
       <c r="AU129" s="7"/>
       <c r="AX129" s="6"/>
       <c r="AY129" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AZ129" s="1"/>
       <c r="BA129" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BB129" s="1"/>
       <c r="BC129" s="1"/>
@@ -8055,7 +8051,7 @@
       <c r="BK129" s="7"/>
       <c r="BM129" s="6"/>
       <c r="BN129" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="BO129" s="1"/>
       <c r="BP129" s="1"/>
@@ -8072,7 +8068,7 @@
       <c r="CA129" s="7"/>
       <c r="CC129" s="6"/>
       <c r="CD129" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="CF129" s="1"/>
       <c r="CG129" s="1"/>
@@ -8083,7 +8079,7 @@
       <c r="CL129" s="1"/>
       <c r="CM129" s="6"/>
       <c r="CN129" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="CO129" s="1"/>
       <c r="CP129" s="1"/>
@@ -8098,57 +8094,57 @@
       <c r="CY129" s="7"/>
       <c r="DC129" s="6"/>
       <c r="DD129" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="DE129" s="1"/>
       <c r="DF129" s="1"/>
       <c r="DG129" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="DH129" s="1"/>
       <c r="DI129" s="1"/>
       <c r="DJ129" s="1"/>
       <c r="DK129" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="DL129" s="1"/>
       <c r="DM129" s="1"/>
       <c r="DN129" s="1"/>
       <c r="DO129" s="7"/>
     </row>
-    <row r="130" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="4:119" ht="18" customHeight="1">
       <c r="D130" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q130" s="6"/>
       <c r="R130" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S130" s="42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T130" s="43"/>
       <c r="U130" s="42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V130" s="43"/>
       <c r="W130" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="X130" s="43"/>
       <c r="Y130" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Z130" s="43"/>
       <c r="AA130" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB130" s="44"/>
-      <c r="AC130" s="44"/>
-      <c r="AD130" s="44"/>
-      <c r="AE130" s="44"/>
-      <c r="AF130" s="44"/>
-      <c r="AG130" s="44"/>
+        <v>167</v>
+      </c>
+      <c r="AB130" s="49"/>
+      <c r="AC130" s="49"/>
+      <c r="AD130" s="49"/>
+      <c r="AE130" s="49"/>
+      <c r="AF130" s="49"/>
+      <c r="AG130" s="49"/>
       <c r="AH130" s="43"/>
       <c r="AI130" s="7"/>
       <c r="AL130" s="6"/>
@@ -8184,12 +8180,12 @@
       <c r="CA130" s="7"/>
       <c r="CC130" s="6"/>
       <c r="CD130" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CE130" s="12"/>
       <c r="CF130" s="13"/>
       <c r="CG130" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="CH130" s="13"/>
       <c r="CI130" s="1"/>
@@ -8198,16 +8194,16 @@
       <c r="CL130" s="1"/>
       <c r="CM130" s="6"/>
       <c r="CN130" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CO130" s="12"/>
       <c r="CP130" s="13"/>
       <c r="CQ130" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="CR130" s="13"/>
       <c r="CS130" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="CT130" s="13"/>
       <c r="CU130" s="1"/>
@@ -8229,41 +8225,41 @@
       <c r="DN130" s="1"/>
       <c r="DO130" s="7"/>
     </row>
-    <row r="131" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="4:119" ht="18" customHeight="1">
       <c r="Q131" s="6"/>
       <c r="R131" s="15"/>
       <c r="S131" s="42"/>
       <c r="T131" s="43"/>
       <c r="U131" s="42"/>
       <c r="V131" s="43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W131" s="42"/>
       <c r="X131" s="43"/>
       <c r="Y131" s="42"/>
       <c r="Z131" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA131" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB131" s="46"/>
-      <c r="AC131" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD131" s="46"/>
-      <c r="AE131" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF131" s="46"/>
-      <c r="AG131" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH131" s="46"/>
+        <v>168</v>
+      </c>
+      <c r="AA131" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB131" s="47"/>
+      <c r="AC131" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD131" s="47"/>
+      <c r="AE131" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF131" s="47"/>
+      <c r="AG131" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH131" s="47"/>
       <c r="AI131" s="7"/>
       <c r="AL131" s="6"/>
       <c r="AM131" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AN131" s="1"/>
       <c r="AO131" s="11"/>
@@ -8273,22 +8269,22 @@
       <c r="AS131" s="13"/>
       <c r="AU131" s="7"/>
       <c r="AX131" s="6"/>
-      <c r="AY131" s="46" t="s">
+      <c r="AY131" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ131" s="47"/>
+      <c r="BA131" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB131" s="47"/>
+      <c r="BC131" s="47"/>
+      <c r="BD131" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="AZ131" s="46"/>
-      <c r="BA131" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB131" s="46"/>
-      <c r="BC131" s="46"/>
-      <c r="BD131" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE131" s="46"/>
-      <c r="BF131" s="46"/>
+      <c r="BE131" s="47"/>
+      <c r="BF131" s="47"/>
       <c r="BG131" s="42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BH131" s="43"/>
       <c r="BI131" s="1"/>
@@ -8297,15 +8293,15 @@
       <c r="BM131" s="6"/>
       <c r="BN131" s="1"/>
       <c r="BO131" s="42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BP131" s="43"/>
       <c r="BQ131" s="42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="BR131" s="43"/>
       <c r="BS131" s="42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="BT131" s="43"/>
       <c r="BU131" s="1"/>
@@ -8333,7 +8329,7 @@
       <c r="CS131" s="42"/>
       <c r="CT131" s="43"/>
       <c r="CU131" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="CV131" s="43"/>
       <c r="CW131" s="1"/>
@@ -8341,7 +8337,7 @@
       <c r="CY131" s="7"/>
       <c r="DC131" s="6"/>
       <c r="DD131" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="DE131" s="1"/>
       <c r="DF131" s="3"/>
@@ -8355,9 +8351,9 @@
       <c r="DN131" s="5"/>
       <c r="DO131" s="7"/>
     </row>
-    <row r="132" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="4:119" ht="18" customHeight="1">
       <c r="D132" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="15"/>
@@ -8365,20 +8361,20 @@
       <c r="T132" s="43"/>
       <c r="U132" s="42"/>
       <c r="V132" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W132" s="42"/>
       <c r="X132" s="43"/>
       <c r="Y132" s="42"/>
       <c r="Z132" s="43"/>
-      <c r="AA132" s="46"/>
-      <c r="AB132" s="46"/>
-      <c r="AC132" s="46"/>
-      <c r="AD132" s="46"/>
-      <c r="AE132" s="46"/>
-      <c r="AF132" s="46"/>
-      <c r="AG132" s="46"/>
-      <c r="AH132" s="46"/>
+      <c r="AA132" s="47"/>
+      <c r="AB132" s="47"/>
+      <c r="AC132" s="47"/>
+      <c r="AD132" s="47"/>
+      <c r="AE132" s="47"/>
+      <c r="AF132" s="47"/>
+      <c r="AG132" s="47"/>
+      <c r="AH132" s="47"/>
       <c r="AI132" s="7"/>
       <c r="AL132" s="6"/>
       <c r="AM132" s="1"/>
@@ -8391,26 +8387,26 @@
       <c r="AT132" s="1"/>
       <c r="AU132" s="7"/>
       <c r="AX132" s="6"/>
-      <c r="AY132" s="46">
+      <c r="AY132" s="47">
         <v>1</v>
       </c>
-      <c r="AZ132" s="46"/>
-      <c r="BA132" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="BB132" s="55"/>
-      <c r="BC132" s="55"/>
-      <c r="BD132" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="BE132" s="46"/>
-      <c r="BF132" s="46"/>
+      <c r="AZ132" s="47"/>
+      <c r="BA132" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB132" s="53"/>
+      <c r="BC132" s="53"/>
+      <c r="BD132" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE132" s="47"/>
+      <c r="BF132" s="47"/>
       <c r="BG132" s="42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BH132" s="43"/>
       <c r="BI132" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BK132" s="7"/>
       <c r="BM132" s="6"/>
@@ -8447,7 +8443,7 @@
       <c r="CS132" s="42"/>
       <c r="CT132" s="43"/>
       <c r="CU132" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="CV132" s="43"/>
       <c r="CW132" s="1"/>
@@ -8467,9 +8463,9 @@
       <c r="DN132" s="9"/>
       <c r="DO132" s="7"/>
     </row>
-    <row r="133" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="4:119" ht="18" customHeight="1">
       <c r="D133" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q133" s="6"/>
       <c r="R133" s="15"/>
@@ -8481,18 +8477,18 @@
       <c r="X133" s="43"/>
       <c r="Y133" s="42"/>
       <c r="Z133" s="43"/>
-      <c r="AA133" s="46"/>
-      <c r="AB133" s="46"/>
-      <c r="AC133" s="46"/>
-      <c r="AD133" s="46"/>
-      <c r="AE133" s="46"/>
-      <c r="AF133" s="46"/>
-      <c r="AG133" s="46"/>
-      <c r="AH133" s="46"/>
+      <c r="AA133" s="47"/>
+      <c r="AB133" s="47"/>
+      <c r="AC133" s="47"/>
+      <c r="AD133" s="47"/>
+      <c r="AE133" s="47"/>
+      <c r="AF133" s="47"/>
+      <c r="AG133" s="47"/>
+      <c r="AH133" s="47"/>
       <c r="AI133" s="7"/>
       <c r="AL133" s="6"/>
       <c r="AM133" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AN133" s="1"/>
       <c r="AO133" s="3"/>
@@ -8502,22 +8498,22 @@
       <c r="AS133" s="5"/>
       <c r="AU133" s="7"/>
       <c r="AX133" s="6"/>
-      <c r="AY133" s="46">
+      <c r="AY133" s="47">
         <v>2</v>
       </c>
-      <c r="AZ133" s="46"/>
-      <c r="BA133" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB133" s="46"/>
-      <c r="BC133" s="46"/>
-      <c r="BD133" s="46"/>
-      <c r="BE133" s="46"/>
-      <c r="BF133" s="46"/>
+      <c r="AZ133" s="47"/>
+      <c r="BA133" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB133" s="47"/>
+      <c r="BC133" s="47"/>
+      <c r="BD133" s="47"/>
+      <c r="BE133" s="47"/>
+      <c r="BF133" s="47"/>
       <c r="BG133" s="42"/>
       <c r="BH133" s="43"/>
       <c r="BI133" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BK133" s="7"/>
       <c r="BM133" s="6"/>
@@ -8530,7 +8526,7 @@
       <c r="BT133" s="43"/>
       <c r="BU133" s="1"/>
       <c r="BV133" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="BW133" s="1"/>
       <c r="BX133" s="1"/>
@@ -8574,9 +8570,9 @@
       <c r="DN133" s="1"/>
       <c r="DO133" s="7"/>
     </row>
-    <row r="134" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="4:119" ht="18" customHeight="1">
       <c r="D134" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="15"/>
@@ -8588,14 +8584,14 @@
       <c r="X134" s="43"/>
       <c r="Y134" s="42"/>
       <c r="Z134" s="43"/>
-      <c r="AA134" s="46"/>
-      <c r="AB134" s="46"/>
-      <c r="AC134" s="46"/>
-      <c r="AD134" s="46"/>
-      <c r="AE134" s="46"/>
-      <c r="AF134" s="46"/>
-      <c r="AG134" s="46"/>
-      <c r="AH134" s="46"/>
+      <c r="AA134" s="47"/>
+      <c r="AB134" s="47"/>
+      <c r="AC134" s="47"/>
+      <c r="AD134" s="47"/>
+      <c r="AE134" s="47"/>
+      <c r="AF134" s="47"/>
+      <c r="AG134" s="47"/>
+      <c r="AH134" s="47"/>
       <c r="AI134" s="7"/>
       <c r="AL134" s="6"/>
       <c r="AM134" s="1"/>
@@ -8607,16 +8603,16 @@
       <c r="AS134" s="7"/>
       <c r="AU134" s="7"/>
       <c r="AX134" s="6"/>
-      <c r="AY134" s="46">
+      <c r="AY134" s="47">
         <v>3</v>
       </c>
-      <c r="AZ134" s="46"/>
-      <c r="BA134" s="46"/>
-      <c r="BB134" s="46"/>
-      <c r="BC134" s="46"/>
-      <c r="BD134" s="46"/>
-      <c r="BE134" s="46"/>
-      <c r="BF134" s="46"/>
+      <c r="AZ134" s="47"/>
+      <c r="BA134" s="47"/>
+      <c r="BB134" s="47"/>
+      <c r="BC134" s="47"/>
+      <c r="BD134" s="47"/>
+      <c r="BE134" s="47"/>
+      <c r="BF134" s="47"/>
       <c r="BG134" s="42"/>
       <c r="BH134" s="43"/>
       <c r="BI134" s="1"/>
@@ -8632,7 +8628,7 @@
       <c r="BT134" s="43"/>
       <c r="BU134" s="1"/>
       <c r="BV134" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="BW134" s="1"/>
       <c r="BX134" s="1"/>
@@ -8641,7 +8637,7 @@
       <c r="CA134" s="7"/>
       <c r="CC134" s="6"/>
       <c r="CD134" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="CE134" s="1"/>
       <c r="CF134" s="1"/>
@@ -8658,7 +8654,7 @@
       <c r="CO134" s="43"/>
       <c r="CP134" s="1"/>
       <c r="CQ134" s="42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CR134" s="43"/>
       <c r="CS134" s="1"/>
@@ -8670,7 +8666,7 @@
       <c r="CY134" s="7"/>
       <c r="DC134" s="6"/>
       <c r="DD134" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="DE134" s="1"/>
       <c r="DF134" s="1"/>
@@ -8684,9 +8680,9 @@
       <c r="DN134" s="1"/>
       <c r="DO134" s="7"/>
     </row>
-    <row r="135" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="4:119" ht="18" customHeight="1">
       <c r="D135" s="29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="15"/>
@@ -8698,14 +8694,14 @@
       <c r="X135" s="43"/>
       <c r="Y135" s="42"/>
       <c r="Z135" s="43"/>
-      <c r="AA135" s="46"/>
-      <c r="AB135" s="46"/>
-      <c r="AC135" s="46"/>
-      <c r="AD135" s="46"/>
-      <c r="AE135" s="46"/>
-      <c r="AF135" s="46"/>
-      <c r="AG135" s="46"/>
-      <c r="AH135" s="46"/>
+      <c r="AA135" s="47"/>
+      <c r="AB135" s="47"/>
+      <c r="AC135" s="47"/>
+      <c r="AD135" s="47"/>
+      <c r="AE135" s="47"/>
+      <c r="AF135" s="47"/>
+      <c r="AG135" s="47"/>
+      <c r="AH135" s="47"/>
       <c r="AI135" s="7"/>
       <c r="AL135" s="6"/>
       <c r="AM135" s="1"/>
@@ -8747,12 +8743,12 @@
       <c r="CA135" s="7"/>
       <c r="CC135" s="6"/>
       <c r="CD135" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CE135" s="12"/>
       <c r="CF135" s="13"/>
       <c r="CG135" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="CH135" s="13"/>
       <c r="CI135" s="1"/>
@@ -8786,9 +8782,9 @@
       <c r="DN135" s="1"/>
       <c r="DO135" s="7"/>
     </row>
-    <row r="136" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="4:119" ht="18" customHeight="1">
       <c r="D136" s="29" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="15"/>
@@ -8800,14 +8796,14 @@
       <c r="X136" s="43"/>
       <c r="Y136" s="42"/>
       <c r="Z136" s="43"/>
-      <c r="AA136" s="46"/>
-      <c r="AB136" s="46"/>
-      <c r="AC136" s="46"/>
-      <c r="AD136" s="46"/>
-      <c r="AE136" s="46"/>
-      <c r="AF136" s="46"/>
-      <c r="AG136" s="46"/>
-      <c r="AH136" s="46"/>
+      <c r="AA136" s="47"/>
+      <c r="AB136" s="47"/>
+      <c r="AC136" s="47"/>
+      <c r="AD136" s="47"/>
+      <c r="AE136" s="47"/>
+      <c r="AF136" s="47"/>
+      <c r="AG136" s="47"/>
+      <c r="AH136" s="47"/>
       <c r="AI136" s="7"/>
       <c r="AL136" s="6"/>
       <c r="AM136" s="1"/>
@@ -8828,7 +8824,7 @@
       <c r="BB136" s="43"/>
       <c r="BC136" s="1"/>
       <c r="BD136" s="42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BE136" s="43"/>
       <c r="BF136" s="1"/>
@@ -8841,7 +8837,7 @@
       <c r="BN136" s="1"/>
       <c r="BO136" s="1"/>
       <c r="BP136" s="42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="BQ136" s="43"/>
       <c r="BR136" s="1"/>
@@ -8878,30 +8874,30 @@
       <c r="CX136" s="2"/>
       <c r="CY136" s="9"/>
       <c r="DC136" s="6"/>
-      <c r="DD136" s="46" t="s">
+      <c r="DD136" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="DE136" s="47"/>
+      <c r="DF136" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="DG136" s="47"/>
+      <c r="DH136" s="47"/>
+      <c r="DI136" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="DE136" s="46"/>
-      <c r="DF136" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="DG136" s="46"/>
-      <c r="DH136" s="46"/>
-      <c r="DI136" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="DJ136" s="46"/>
-      <c r="DK136" s="46"/>
+      <c r="DJ136" s="47"/>
+      <c r="DK136" s="47"/>
       <c r="DL136" s="42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="DM136" s="43"/>
       <c r="DN136" s="1"/>
       <c r="DO136" s="7"/>
     </row>
-    <row r="137" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="4:119" ht="18" customHeight="1">
       <c r="D137" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q137" s="6"/>
       <c r="R137" s="15"/>
@@ -8913,14 +8909,14 @@
       <c r="X137" s="43"/>
       <c r="Y137" s="42"/>
       <c r="Z137" s="43"/>
-      <c r="AA137" s="46"/>
-      <c r="AB137" s="46"/>
-      <c r="AC137" s="46"/>
-      <c r="AD137" s="46"/>
-      <c r="AE137" s="46"/>
-      <c r="AF137" s="46"/>
-      <c r="AG137" s="46"/>
-      <c r="AH137" s="46"/>
+      <c r="AA137" s="47"/>
+      <c r="AB137" s="47"/>
+      <c r="AC137" s="47"/>
+      <c r="AD137" s="47"/>
+      <c r="AE137" s="47"/>
+      <c r="AF137" s="47"/>
+      <c r="AG137" s="47"/>
+      <c r="AH137" s="47"/>
       <c r="AI137" s="7"/>
       <c r="AL137" s="6"/>
       <c r="AM137" s="1"/>
@@ -8930,7 +8926,7 @@
       <c r="AO137" s="43"/>
       <c r="AP137" s="1"/>
       <c r="AQ137" s="42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AR137" s="43"/>
       <c r="AS137" s="1"/>
@@ -8977,33 +8973,33 @@
       <c r="CL137" s="1"/>
       <c r="CM137" s="1"/>
       <c r="DC137" s="6"/>
-      <c r="DD137" s="46">
+      <c r="DD137" s="47">
         <v>1</v>
       </c>
-      <c r="DE137" s="46"/>
-      <c r="DF137" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="DG137" s="46"/>
-      <c r="DH137" s="46"/>
-      <c r="DI137" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="DJ137" s="46"/>
-      <c r="DK137" s="46"/>
+      <c r="DE137" s="47"/>
+      <c r="DF137" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="DG137" s="47"/>
+      <c r="DH137" s="47"/>
+      <c r="DI137" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="DJ137" s="47"/>
+      <c r="DK137" s="47"/>
       <c r="DL137" s="42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="DM137" s="43"/>
       <c r="DN137" s="1"/>
       <c r="DO137" s="7"/>
     </row>
-    <row r="138" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="4:119" ht="18" customHeight="1">
       <c r="D138" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G138" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q138" s="6"/>
       <c r="R138" s="15"/>
@@ -9015,14 +9011,14 @@
       <c r="X138" s="43"/>
       <c r="Y138" s="42"/>
       <c r="Z138" s="43"/>
-      <c r="AA138" s="46"/>
-      <c r="AB138" s="46"/>
-      <c r="AC138" s="46"/>
-      <c r="AD138" s="46"/>
-      <c r="AE138" s="46"/>
-      <c r="AF138" s="46"/>
-      <c r="AG138" s="46"/>
-      <c r="AH138" s="46"/>
+      <c r="AA138" s="47"/>
+      <c r="AB138" s="47"/>
+      <c r="AC138" s="47"/>
+      <c r="AD138" s="47"/>
+      <c r="AE138" s="47"/>
+      <c r="AF138" s="47"/>
+      <c r="AG138" s="47"/>
+      <c r="AH138" s="47"/>
       <c r="AI138" s="7"/>
       <c r="AL138" s="8"/>
       <c r="AM138" s="2"/>
@@ -9070,26 +9066,26 @@
       <c r="CL138" s="1"/>
       <c r="CM138" s="1"/>
       <c r="DC138" s="6"/>
-      <c r="DD138" s="46">
+      <c r="DD138" s="47">
         <v>2</v>
       </c>
-      <c r="DE138" s="46"/>
-      <c r="DF138" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="DG138" s="46"/>
-      <c r="DH138" s="46"/>
-      <c r="DI138" s="46"/>
-      <c r="DJ138" s="46"/>
-      <c r="DK138" s="46"/>
+      <c r="DE138" s="47"/>
+      <c r="DF138" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="DG138" s="47"/>
+      <c r="DH138" s="47"/>
+      <c r="DI138" s="47"/>
+      <c r="DJ138" s="47"/>
+      <c r="DK138" s="47"/>
       <c r="DL138" s="42"/>
       <c r="DM138" s="43"/>
       <c r="DN138" s="1"/>
       <c r="DO138" s="7"/>
     </row>
-    <row r="139" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="4:119" ht="18" customHeight="1">
       <c r="D139" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q139" s="6"/>
       <c r="R139" s="1"/>
@@ -9146,7 +9142,7 @@
       <c r="CE139" s="43"/>
       <c r="CF139" s="1"/>
       <c r="CG139" s="42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CH139" s="43"/>
       <c r="CI139" s="1"/>
@@ -9155,24 +9151,24 @@
       <c r="CL139" s="1"/>
       <c r="CM139" s="1"/>
       <c r="DC139" s="6"/>
-      <c r="DD139" s="46">
+      <c r="DD139" s="47">
         <v>3</v>
       </c>
-      <c r="DE139" s="46"/>
-      <c r="DF139" s="46"/>
-      <c r="DG139" s="46"/>
-      <c r="DH139" s="46"/>
-      <c r="DI139" s="46"/>
-      <c r="DJ139" s="46"/>
-      <c r="DK139" s="46"/>
+      <c r="DE139" s="47"/>
+      <c r="DF139" s="47"/>
+      <c r="DG139" s="47"/>
+      <c r="DH139" s="47"/>
+      <c r="DI139" s="47"/>
+      <c r="DJ139" s="47"/>
+      <c r="DK139" s="47"/>
       <c r="DL139" s="42"/>
       <c r="DM139" s="43"/>
       <c r="DN139" s="1"/>
       <c r="DO139" s="7"/>
     </row>
-    <row r="140" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="4:119" ht="18" customHeight="1">
       <c r="D140" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q140" s="8"/>
       <c r="R140" s="2"/>
@@ -9218,7 +9214,7 @@
       <c r="DN140" s="1"/>
       <c r="DO140" s="7"/>
     </row>
-    <row r="141" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="4:119" ht="18" customHeight="1">
       <c r="CC141" s="8"/>
       <c r="CD141" s="2"/>
       <c r="CE141" s="2"/>
@@ -9238,7 +9234,7 @@
       <c r="DH141" s="1"/>
       <c r="DI141" s="1"/>
       <c r="DJ141" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="DK141" s="43"/>
       <c r="DL141" s="1"/>
@@ -9246,9 +9242,9 @@
       <c r="DN141" s="1"/>
       <c r="DO141" s="7"/>
     </row>
-    <row r="142" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="4:119" ht="18" customHeight="1">
       <c r="D142" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="CK142" s="1"/>
       <c r="CL142" s="1"/>
@@ -9267,17 +9263,17 @@
       <c r="DN142" s="2"/>
       <c r="DO142" s="9"/>
     </row>
-    <row r="143" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="4:119" ht="18" customHeight="1">
       <c r="D143" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CK143" s="1"/>
       <c r="CL143" s="1"/>
       <c r="CM143" s="1"/>
     </row>
-    <row r="144" spans="4:119" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="4:119" ht="18" customHeight="1">
       <c r="D144" s="29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="CK144" s="1"/>
       <c r="CL144" s="1"/>
@@ -9291,16 +9287,16 @@
       <c r="CT144" s="1"/>
       <c r="CU144" s="1"/>
     </row>
-    <row r="145" spans="1:60" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:60" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A145" s="29"/>
       <c r="B145" s="29"/>
       <c r="C145" s="29"/>
       <c r="D145" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E145" s="29"/>
       <c r="F145" s="29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G145" s="29"/>
       <c r="H145" s="29"/>
@@ -9311,12 +9307,12 @@
       <c r="M145" s="29"/>
       <c r="N145" s="7"/>
     </row>
-    <row r="146" spans="1:60" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:60" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A146" s="29"/>
       <c r="B146" s="29"/>
       <c r="C146" s="29"/>
       <c r="D146" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E146" s="29"/>
       <c r="G146" s="29"/>
@@ -9328,15 +9324,15 @@
       <c r="M146" s="29"/>
       <c r="N146" s="7"/>
     </row>
-    <row r="147" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:60" ht="18" customHeight="1">
       <c r="D147" s="29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F147" s="29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q147" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AS147" s="1"/>
       <c r="AT147" s="1"/>
@@ -9354,7 +9350,7 @@
       <c r="BG147" s="1"/>
       <c r="BH147" s="1"/>
     </row>
-    <row r="148" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:60" ht="18" customHeight="1">
       <c r="Q148" s="3"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
@@ -9371,7 +9367,7 @@
       <c r="AD148" s="4"/>
       <c r="AE148" s="5"/>
       <c r="AI148" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AS148" s="1"/>
       <c r="AT148" s="1"/>
@@ -9389,28 +9385,28 @@
       <c r="BG148" s="1"/>
       <c r="BH148" s="1"/>
     </row>
-    <row r="149" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:60" ht="18" customHeight="1">
       <c r="Q149" s="6"/>
       <c r="R149" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="S149" s="46"/>
-      <c r="T149" s="46"/>
-      <c r="U149" s="46"/>
-      <c r="V149" s="46"/>
+        <v>203</v>
+      </c>
+      <c r="S149" s="47"/>
+      <c r="T149" s="47"/>
+      <c r="U149" s="47"/>
+      <c r="V149" s="47"/>
       <c r="W149" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X149" s="1"/>
       <c r="Y149" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z149" s="46"/>
-      <c r="AA149" s="46"/>
-      <c r="AB149" s="46"/>
-      <c r="AC149" s="46"/>
+        <v>165</v>
+      </c>
+      <c r="Z149" s="47"/>
+      <c r="AA149" s="47"/>
+      <c r="AB149" s="47"/>
+      <c r="AC149" s="47"/>
       <c r="AD149" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE149" s="7"/>
       <c r="AI149" s="1"/>
@@ -9430,9 +9426,9 @@
       <c r="BG149" s="1"/>
       <c r="BH149" s="1"/>
     </row>
-    <row r="150" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:60" ht="18" customHeight="1">
       <c r="D150" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q150" s="6"/>
       <c r="R150" s="1"/>
@@ -9474,13 +9470,13 @@
       <c r="BG150" s="1"/>
       <c r="BH150" s="1"/>
     </row>
-    <row r="151" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:60" ht="18" customHeight="1">
       <c r="D151" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q151" s="6"/>
       <c r="R151" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
@@ -9505,7 +9501,7 @@
       <c r="AQ151" s="4"/>
       <c r="AR151" s="4"/>
       <c r="AS151" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AT151" s="1"/>
       <c r="AU151" s="1"/>
@@ -9522,9 +9518,9 @@
       <c r="BG151" s="1"/>
       <c r="BH151" s="1"/>
     </row>
-    <row r="152" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:60" ht="18" customHeight="1">
       <c r="D152" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q152" s="6"/>
       <c r="R152" s="1"/>
@@ -9542,15 +9538,15 @@
       <c r="AH152" s="1"/>
       <c r="AI152" s="6"/>
       <c r="AJ152" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AK152" s="1"/>
-      <c r="AL152" s="46"/>
-      <c r="AM152" s="46"/>
-      <c r="AN152" s="46"/>
-      <c r="AO152" s="46"/>
+      <c r="AL152" s="47"/>
+      <c r="AM152" s="47"/>
+      <c r="AN152" s="47"/>
+      <c r="AO152" s="47"/>
       <c r="AP152" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AQ152" s="1"/>
       <c r="AR152" s="1"/>
@@ -9559,36 +9555,36 @@
       <c r="AU152" s="1"/>
       <c r="AV152" s="1"/>
     </row>
-    <row r="153" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:60" ht="18" customHeight="1">
       <c r="D153" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q153" s="6"/>
       <c r="R153" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S153" s="42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T153" s="43"/>
       <c r="U153" s="42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="V153" s="43"/>
       <c r="W153" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="X153" s="43"/>
       <c r="Y153" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Z153" s="43"/>
       <c r="AA153" s="42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AB153" s="43"/>
       <c r="AC153" s="42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AD153" s="43"/>
       <c r="AE153" s="7"/>
@@ -9608,9 +9604,9 @@
       <c r="AU153" s="1"/>
       <c r="AV153" s="1"/>
     </row>
-    <row r="154" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:60" ht="18" customHeight="1">
       <c r="D154" s="29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="11"/>
@@ -9624,19 +9620,19 @@
       <c r="Z154" s="13"/>
       <c r="AA154" s="11"/>
       <c r="AB154" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AC154" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD154" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AE154" s="7"/>
       <c r="AH154" s="1"/>
       <c r="AI154" s="6"/>
       <c r="AJ154" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AK154" s="1"/>
       <c r="AL154" s="11"/>
@@ -9651,7 +9647,7 @@
       <c r="AU154" s="1"/>
       <c r="AV154" s="1"/>
     </row>
-    <row r="155" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:60" ht="18" customHeight="1">
       <c r="Q155" s="6"/>
       <c r="R155" s="11"/>
       <c r="S155" s="42"/>
@@ -9683,9 +9679,9 @@
       <c r="AU155" s="1"/>
       <c r="AV155" s="1"/>
     </row>
-    <row r="156" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:60" ht="18" customHeight="1">
       <c r="D156" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q156" s="6"/>
       <c r="R156" s="11"/>
@@ -9705,7 +9701,7 @@
       <c r="AH156" s="1"/>
       <c r="AI156" s="6"/>
       <c r="AJ156" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AK156" s="1"/>
       <c r="AL156" s="3"/>
@@ -9720,9 +9716,9 @@
       <c r="AU156" s="1"/>
       <c r="AV156" s="1"/>
     </row>
-    <row r="157" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:60" ht="18" customHeight="1">
       <c r="D157" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q157" s="6"/>
       <c r="R157" s="11"/>
@@ -9755,9 +9751,9 @@
       <c r="AU157" s="1"/>
       <c r="AV157" s="1"/>
     </row>
-    <row r="158" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:60" ht="18" customHeight="1">
       <c r="D158" s="29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q158" s="6"/>
       <c r="R158" s="11"/>
@@ -9790,9 +9786,9 @@
       <c r="AU158" s="1"/>
       <c r="AV158" s="1"/>
     </row>
-    <row r="159" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:60" ht="18" customHeight="1">
       <c r="D159" s="29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q159" s="6"/>
       <c r="R159" s="11"/>
@@ -9812,14 +9808,14 @@
       <c r="AH159" s="1"/>
       <c r="AI159" s="6"/>
       <c r="AJ159" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL159" s="46"/>
-      <c r="AM159" s="46"/>
-      <c r="AN159" s="46"/>
-      <c r="AO159" s="46"/>
+        <v>165</v>
+      </c>
+      <c r="AL159" s="47"/>
+      <c r="AM159" s="47"/>
+      <c r="AN159" s="47"/>
+      <c r="AO159" s="47"/>
       <c r="AP159" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AQ159" s="1"/>
       <c r="AR159" s="1"/>
@@ -9828,7 +9824,7 @@
       <c r="AU159" s="1"/>
       <c r="AV159" s="1"/>
     </row>
-    <row r="160" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:60" ht="18" customHeight="1">
       <c r="Q160" s="6"/>
       <c r="R160" s="11"/>
       <c r="S160" s="42"/>
@@ -9851,7 +9847,7 @@
       <c r="AU160" s="1"/>
       <c r="AV160" s="1"/>
     </row>
-    <row r="161" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="4:60" ht="18" customHeight="1">
       <c r="Q161" s="6"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
@@ -9868,26 +9864,26 @@
       <c r="AH161" s="1"/>
       <c r="AI161" s="6"/>
       <c r="AJ161" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK161" s="1"/>
-      <c r="AL161" s="46"/>
-      <c r="AM161" s="46"/>
-      <c r="AN161" s="46"/>
-      <c r="AO161" s="46"/>
+      <c r="AL161" s="47"/>
+      <c r="AM161" s="47"/>
+      <c r="AN161" s="47"/>
+      <c r="AO161" s="47"/>
       <c r="AP161" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AQ161" s="1"/>
       <c r="AR161" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AS161" s="1"/>
       <c r="AT161" s="6"/>
       <c r="AU161" s="1"/>
       <c r="AV161" s="1"/>
     </row>
-    <row r="162" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="4:60" ht="18" customHeight="1">
       <c r="Q162" s="6"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
@@ -9914,7 +9910,7 @@
       <c r="AU162" s="1"/>
       <c r="AV162" s="1"/>
     </row>
-    <row r="163" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="4:60" ht="18" customHeight="1">
       <c r="Q163" s="6"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
@@ -9932,11 +9928,11 @@
       <c r="AI163" s="6"/>
       <c r="AJ163" s="1"/>
       <c r="AK163" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL163" s="1"/>
       <c r="AM163" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN163" s="1"/>
       <c r="AO163" s="1"/>
@@ -9948,7 +9944,7 @@
       <c r="AU163" s="1"/>
       <c r="AV163" s="1"/>
     </row>
-    <row r="164" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="4:60" ht="18" customHeight="1">
       <c r="Q164" s="8"/>
       <c r="R164" s="2"/>
       <c r="S164" s="2"/>
@@ -9973,14 +9969,14 @@
       <c r="AR164" s="2"/>
       <c r="AS164" s="9"/>
     </row>
-    <row r="165" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="4:60" ht="18" customHeight="1">
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
       <c r="AB165" s="4"/>
       <c r="AD165" s="1"/>
       <c r="AS165" s="1"/>
     </row>
-    <row r="166" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="4:60" ht="18" customHeight="1">
       <c r="AD166" s="1"/>
       <c r="AS166" s="1"/>
       <c r="AT166" s="1"/>
@@ -9999,15 +9995,15 @@
       <c r="BG166" s="1"/>
       <c r="BH166" s="1"/>
     </row>
-    <row r="168" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="4:60" ht="18" customHeight="1">
       <c r="Q168" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T168" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="169" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="4:60" ht="18" customHeight="1">
       <c r="Q169" s="3"/>
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
@@ -10034,9 +10030,9 @@
       <c r="AN169" s="4"/>
       <c r="AO169" s="5"/>
     </row>
-    <row r="170" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="4:60" ht="18" customHeight="1">
       <c r="D170" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q170" s="6"/>
       <c r="AE170" s="1"/>
@@ -10051,9 +10047,9 @@
       <c r="AN170" s="1"/>
       <c r="AO170" s="7"/>
     </row>
-    <row r="171" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="4:60" ht="18" customHeight="1">
       <c r="D171" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q171" s="6"/>
       <c r="AE171" s="1"/>
@@ -10068,9 +10064,9 @@
       <c r="AN171" s="1"/>
       <c r="AO171" s="7"/>
     </row>
-    <row r="172" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="4:60" ht="18" customHeight="1">
       <c r="D172" s="29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q172" s="6"/>
       <c r="AE172" s="1"/>
@@ -10085,9 +10081,9 @@
       <c r="AN172" s="1"/>
       <c r="AO172" s="7"/>
     </row>
-    <row r="173" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="4:60" ht="18" customHeight="1">
       <c r="D173" s="29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q173" s="6"/>
       <c r="R173" s="1"/>
@@ -10115,7 +10111,7 @@
       <c r="AN173" s="1"/>
       <c r="AO173" s="7"/>
     </row>
-    <row r="174" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="4:60" ht="18" customHeight="1">
       <c r="Q174" s="6"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
@@ -10142,7 +10138,7 @@
       <c r="AN174" s="1"/>
       <c r="AO174" s="7"/>
     </row>
-    <row r="175" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="4:60" ht="18" customHeight="1">
       <c r="Q175" s="6"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
@@ -10169,7 +10165,7 @@
       <c r="AN175" s="1"/>
       <c r="AO175" s="7"/>
     </row>
-    <row r="176" spans="4:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="4:60" ht="18" customHeight="1">
       <c r="Q176" s="6"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
@@ -10196,7 +10192,7 @@
       <c r="AN176" s="1"/>
       <c r="AO176" s="7"/>
     </row>
-    <row r="177" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:43" ht="18" customHeight="1">
       <c r="Q177" s="6"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
@@ -10223,7 +10219,7 @@
       <c r="AN177" s="1"/>
       <c r="AO177" s="7"/>
     </row>
-    <row r="178" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:43" ht="18" customHeight="1">
       <c r="Q178" s="6"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
@@ -10250,7 +10246,7 @@
       <c r="AN178" s="1"/>
       <c r="AO178" s="7"/>
     </row>
-    <row r="179" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:43" ht="18" customHeight="1">
       <c r="Q179" s="6"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
@@ -10277,7 +10273,7 @@
       <c r="AN179" s="1"/>
       <c r="AO179" s="7"/>
     </row>
-    <row r="180" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:43" ht="18" customHeight="1">
       <c r="Q180" s="6"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
@@ -10304,7 +10300,7 @@
       <c r="AN180" s="1"/>
       <c r="AO180" s="7"/>
     </row>
-    <row r="181" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:43" ht="18" customHeight="1">
       <c r="Q181" s="8"/>
       <c r="R181" s="2"/>
       <c r="S181" s="2"/>
@@ -10331,7 +10327,7 @@
       <c r="AN181" s="2"/>
       <c r="AO181" s="9"/>
     </row>
-    <row r="183" spans="2:43" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:43" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B183" s="30"/>
       <c r="C183" s="30"/>
       <c r="D183" s="30"/>
@@ -10346,14 +10342,14 @@
       <c r="M183" s="30"/>
       <c r="N183" s="9"/>
     </row>
-    <row r="185" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:43" ht="18" customHeight="1">
       <c r="Q185" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="186" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="186" spans="2:43" ht="18" customHeight="1">
       <c r="D186" s="29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q186" s="3"/>
       <c r="R186" s="4"/>
@@ -10371,41 +10367,41 @@
       <c r="AD186" s="4"/>
       <c r="AE186" s="5"/>
       <c r="AG186" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AL186" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="187" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="187" spans="2:43" ht="18" customHeight="1">
       <c r="D187" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q187" s="6"/>
       <c r="R187" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="S187" s="46"/>
-      <c r="T187" s="46"/>
-      <c r="U187" s="46"/>
-      <c r="V187" s="46"/>
+        <v>203</v>
+      </c>
+      <c r="S187" s="47"/>
+      <c r="T187" s="47"/>
+      <c r="U187" s="47"/>
+      <c r="V187" s="47"/>
       <c r="W187" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X187" s="1"/>
       <c r="Y187" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Z187" s="1"/>
-      <c r="AA187" s="46"/>
-      <c r="AB187" s="46"/>
-      <c r="AC187" s="46"/>
+      <c r="AA187" s="47"/>
+      <c r="AB187" s="47"/>
+      <c r="AC187" s="47"/>
       <c r="AD187" s="1"/>
       <c r="AE187" s="7"/>
     </row>
-    <row r="188" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:43" ht="18" customHeight="1">
       <c r="D188" s="29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q188" s="6"/>
       <c r="W188" s="1"/>
@@ -10429,50 +10425,50 @@
       <c r="AP188" s="4"/>
       <c r="AQ188" s="5"/>
     </row>
-    <row r="189" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:43" ht="18" customHeight="1">
       <c r="D189" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q189" s="6"/>
       <c r="R189" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="S189" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="T189" s="46"/>
-      <c r="U189" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="V189" s="46"/>
+        <v>163</v>
+      </c>
+      <c r="S189" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="T189" s="47"/>
+      <c r="U189" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="V189" s="47"/>
       <c r="W189" s="36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="X189" s="36"/>
-      <c r="Y189" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z189" s="57"/>
-      <c r="AA189" s="58"/>
+      <c r="Y189" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z189" s="45"/>
+      <c r="AA189" s="46"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
       <c r="AE189" s="7"/>
       <c r="AG189" s="6"/>
       <c r="AI189" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AL189" s="1"/>
       <c r="AM189" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AO189" s="1"/>
       <c r="AP189" s="1"/>
       <c r="AQ189" s="7"/>
     </row>
-    <row r="190" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:43" ht="18" customHeight="1">
       <c r="D190" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q190" s="6"/>
       <c r="R190" s="1"/>
@@ -10483,13 +10479,13 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
       <c r="Y190" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Z190" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AA190" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
@@ -10497,26 +10493,26 @@
       <c r="AE190" s="7"/>
       <c r="AG190" s="6"/>
       <c r="AH190" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AI190" s="42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ190" s="43"/>
       <c r="AL190" s="40"/>
       <c r="AM190" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AN190" s="42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AO190" s="43"/>
       <c r="AP190" s="1"/>
       <c r="AQ190" s="7"/>
     </row>
-    <row r="191" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:43" ht="18" customHeight="1">
       <c r="D191" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q191" s="6"/>
       <c r="R191" s="1"/>
@@ -10544,9 +10540,9 @@
       <c r="AP191" s="1"/>
       <c r="AQ191" s="7"/>
     </row>
-    <row r="192" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:43" ht="18" customHeight="1">
       <c r="D192" s="29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q192" s="6"/>
       <c r="R192" s="1"/>
@@ -10574,9 +10570,9 @@
       <c r="AP192" s="1"/>
       <c r="AQ192" s="7"/>
     </row>
-    <row r="193" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="4:43" ht="18" customHeight="1">
       <c r="D193" s="29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q193" s="6"/>
       <c r="R193" s="1"/>
@@ -10601,9 +10597,9 @@
       <c r="AP193" s="1"/>
       <c r="AQ193" s="7"/>
     </row>
-    <row r="194" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="4:43" ht="18" customHeight="1">
       <c r="D194" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q194" s="6"/>
       <c r="R194" s="1"/>
@@ -10622,13 +10618,13 @@
       <c r="AE194" s="7"/>
       <c r="AG194" s="6"/>
       <c r="AI194" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AQ194" s="7"/>
     </row>
-    <row r="195" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="4:43" ht="18" customHeight="1">
       <c r="D195" s="29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q195" s="6"/>
       <c r="R195" s="1"/>
@@ -10655,9 +10651,9 @@
       <c r="AO195" s="5"/>
       <c r="AQ195" s="7"/>
     </row>
-    <row r="196" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="4:43" ht="18" customHeight="1">
       <c r="D196" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q196" s="6"/>
       <c r="R196" s="1"/>
@@ -10684,7 +10680,7 @@
       <c r="AO196" s="9"/>
       <c r="AQ196" s="7"/>
     </row>
-    <row r="197" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="4:43" ht="18" customHeight="1">
       <c r="Q197" s="6"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
@@ -10712,7 +10708,7 @@
       <c r="AP197" s="1"/>
       <c r="AQ197" s="7"/>
     </row>
-    <row r="198" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="4:43" ht="18" customHeight="1">
       <c r="Q198" s="8"/>
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
@@ -10740,24 +10736,390 @@
       <c r="AP198" s="2"/>
       <c r="AQ198" s="9"/>
     </row>
-    <row r="200" spans="4:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="4:43" ht="18" customHeight="1">
       <c r="AB200" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="412">
-    <mergeCell ref="AI192:AJ192"/>
-    <mergeCell ref="Y189:AA189"/>
-    <mergeCell ref="S187:V187"/>
-    <mergeCell ref="AA187:AC187"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="U189:V189"/>
-    <mergeCell ref="AI190:AJ190"/>
-    <mergeCell ref="AI191:AJ191"/>
-    <mergeCell ref="AN190:AO190"/>
-    <mergeCell ref="AN191:AO191"/>
-    <mergeCell ref="AN192:AO192"/>
+    <mergeCell ref="BP115:BQ115"/>
+    <mergeCell ref="BH117:BI117"/>
+    <mergeCell ref="BK117:BL117"/>
+    <mergeCell ref="BM107:BQ107"/>
+    <mergeCell ref="U1:Y2"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="AO90:AQ90"/>
+    <mergeCell ref="AR90:AY90"/>
+    <mergeCell ref="AS94:AT94"/>
+    <mergeCell ref="AP94:AQ94"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="AE78:AF78"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:AC88"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="S92:U92"/>
+    <mergeCell ref="S93:U93"/>
+    <mergeCell ref="S94:U94"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="BI54:BJ54"/>
+    <mergeCell ref="BK54:BL54"/>
+    <mergeCell ref="BI55:BJ55"/>
+    <mergeCell ref="BK55:BL55"/>
+    <mergeCell ref="BI56:BJ56"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="BK56:BL56"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="BA66:BC66"/>
+    <mergeCell ref="BD66:BK66"/>
+    <mergeCell ref="BB70:BC70"/>
+    <mergeCell ref="BD70:BE70"/>
+    <mergeCell ref="BF70:BG70"/>
+    <mergeCell ref="BC71:BD71"/>
+    <mergeCell ref="BE71:BF71"/>
+    <mergeCell ref="BG71:BH71"/>
+    <mergeCell ref="BC72:BD72"/>
+    <mergeCell ref="BB73:BC73"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:AB66"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AB90:AG90"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AD93:AE93"/>
+    <mergeCell ref="AF93:AG93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AD94:AE94"/>
+    <mergeCell ref="AF94:AG94"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="V94:Y94"/>
+    <mergeCell ref="V93:Y93"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="V91:Y91"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AO38"/>
+    <mergeCell ref="S106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="AE106:AG106"/>
+    <mergeCell ref="AH106:AJ106"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="X48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="CA110:CH110"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AN37:AO37"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="BI58:BJ58"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="BK49:BL49"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="BK50:BL50"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BI52:BJ52"/>
+    <mergeCell ref="BK52:BL52"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="BY108:CA108"/>
+    <mergeCell ref="BC74:BD74"/>
+    <mergeCell ref="BC75:BD75"/>
+    <mergeCell ref="BN78:BO78"/>
+    <mergeCell ref="BI53:BJ53"/>
+    <mergeCell ref="BK53:BL53"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="Z126:AB126"/>
+    <mergeCell ref="AD126:AE126"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD102:AH102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="AM102:AQ102"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI32:AO32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="BP136:BQ136"/>
+    <mergeCell ref="AE131:AF131"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AE133:AF133"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="W136:X136"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="AY134:AZ134"/>
+    <mergeCell ref="BA134:BC134"/>
+    <mergeCell ref="BD134:BF134"/>
+    <mergeCell ref="BA136:BB136"/>
+    <mergeCell ref="BD136:BE136"/>
+    <mergeCell ref="AG131:AH131"/>
+    <mergeCell ref="AG132:AH132"/>
+    <mergeCell ref="AG133:AH133"/>
+    <mergeCell ref="AG134:AH134"/>
+    <mergeCell ref="AG135:AH135"/>
+    <mergeCell ref="AG136:AH136"/>
+    <mergeCell ref="BG133:BH133"/>
+    <mergeCell ref="CA112:CH112"/>
+    <mergeCell ref="AN106:AS106"/>
+    <mergeCell ref="BA132:BC132"/>
+    <mergeCell ref="AY131:AZ131"/>
+    <mergeCell ref="BA131:BC131"/>
+    <mergeCell ref="BD131:BF131"/>
+    <mergeCell ref="AY132:AZ132"/>
+    <mergeCell ref="BD132:BF132"/>
+    <mergeCell ref="AY133:AZ133"/>
+    <mergeCell ref="BA133:BC133"/>
+    <mergeCell ref="BD133:BF133"/>
+    <mergeCell ref="BZ116:CA116"/>
+    <mergeCell ref="CC116:CD116"/>
+    <mergeCell ref="BO131:BP131"/>
+    <mergeCell ref="BQ131:BR131"/>
+    <mergeCell ref="BS131:BT131"/>
+    <mergeCell ref="BO132:BP132"/>
+    <mergeCell ref="BQ132:BR132"/>
+    <mergeCell ref="BS132:BT132"/>
+    <mergeCell ref="BY112:BZ112"/>
+    <mergeCell ref="CB108:CI108"/>
+    <mergeCell ref="BY110:BZ110"/>
+    <mergeCell ref="BG131:BH131"/>
+    <mergeCell ref="BG132:BH132"/>
+    <mergeCell ref="BG134:BH134"/>
+    <mergeCell ref="CN134:CO134"/>
+    <mergeCell ref="CQ134:CR134"/>
+    <mergeCell ref="BO133:BP133"/>
+    <mergeCell ref="BQ133:BR133"/>
+    <mergeCell ref="BS133:BT133"/>
+    <mergeCell ref="BO134:BP134"/>
+    <mergeCell ref="BQ134:BR134"/>
+    <mergeCell ref="BS134:BT134"/>
+    <mergeCell ref="CU131:CV131"/>
+    <mergeCell ref="CU132:CV132"/>
+    <mergeCell ref="CS131:CT131"/>
+    <mergeCell ref="CS132:CT132"/>
+    <mergeCell ref="DD136:DE136"/>
+    <mergeCell ref="DF136:DH136"/>
+    <mergeCell ref="DI136:DK136"/>
+    <mergeCell ref="CD139:CE139"/>
+    <mergeCell ref="CG139:CH139"/>
+    <mergeCell ref="DD139:DE139"/>
+    <mergeCell ref="DF139:DH139"/>
+    <mergeCell ref="DI139:DK139"/>
+    <mergeCell ref="DL136:DM136"/>
+    <mergeCell ref="DD137:DE137"/>
+    <mergeCell ref="DF137:DH137"/>
+    <mergeCell ref="DI137:DK137"/>
+    <mergeCell ref="DL137:DM137"/>
+    <mergeCell ref="DD138:DE138"/>
+    <mergeCell ref="DF138:DH138"/>
+    <mergeCell ref="DI138:DK138"/>
+    <mergeCell ref="DL138:DM138"/>
+    <mergeCell ref="DL139:DM139"/>
+    <mergeCell ref="DJ141:DK141"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="AA130:AH130"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="Y131:Z131"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
+    <mergeCell ref="Y132:Z132"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
+    <mergeCell ref="Y133:Z133"/>
+    <mergeCell ref="U134:V134"/>
+    <mergeCell ref="W134:X134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="W135:X135"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="W137:X137"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="U138:V138"/>
+    <mergeCell ref="W138:X138"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="AC138:AD138"/>
+    <mergeCell ref="AO129:AR129"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="AC133:AD133"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AG137:AH137"/>
+    <mergeCell ref="AG138:AH138"/>
+    <mergeCell ref="W158:X158"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="AA153:AB153"/>
+    <mergeCell ref="AC153:AD153"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="U154:V154"/>
+    <mergeCell ref="W154:X154"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
     <mergeCell ref="AT102:AU102"/>
     <mergeCell ref="AV102:AX102"/>
     <mergeCell ref="Y153:Z153"/>
@@ -10782,387 +11144,21 @@
     <mergeCell ref="W157:X157"/>
     <mergeCell ref="S158:T158"/>
     <mergeCell ref="U158:V158"/>
-    <mergeCell ref="W158:X158"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="AA153:AB153"/>
-    <mergeCell ref="AC153:AD153"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="U154:V154"/>
-    <mergeCell ref="W154:X154"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="AA138:AB138"/>
-    <mergeCell ref="AC138:AD138"/>
-    <mergeCell ref="AO129:AR129"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AA132:AB132"/>
-    <mergeCell ref="AC132:AD132"/>
-    <mergeCell ref="AA133:AB133"/>
-    <mergeCell ref="AC133:AD133"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="AC134:AD134"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AG137:AH137"/>
-    <mergeCell ref="AG138:AH138"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="U138:V138"/>
-    <mergeCell ref="W138:X138"/>
-    <mergeCell ref="Y138:Z138"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="DL139:DM139"/>
-    <mergeCell ref="DJ141:DK141"/>
-    <mergeCell ref="U130:V130"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="AA130:AH130"/>
-    <mergeCell ref="U131:V131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="Y131:Z131"/>
-    <mergeCell ref="U132:V132"/>
-    <mergeCell ref="W132:X132"/>
-    <mergeCell ref="Y132:Z132"/>
-    <mergeCell ref="U133:V133"/>
-    <mergeCell ref="W133:X133"/>
-    <mergeCell ref="Y133:Z133"/>
-    <mergeCell ref="U134:V134"/>
-    <mergeCell ref="W134:X134"/>
-    <mergeCell ref="Y134:Z134"/>
-    <mergeCell ref="U135:V135"/>
-    <mergeCell ref="W135:X135"/>
-    <mergeCell ref="Y135:Z135"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="W137:X137"/>
-    <mergeCell ref="DL136:DM136"/>
-    <mergeCell ref="DD137:DE137"/>
-    <mergeCell ref="DF137:DH137"/>
-    <mergeCell ref="DI137:DK137"/>
-    <mergeCell ref="DL137:DM137"/>
-    <mergeCell ref="DD138:DE138"/>
-    <mergeCell ref="DF138:DH138"/>
-    <mergeCell ref="DI138:DK138"/>
-    <mergeCell ref="DL138:DM138"/>
-    <mergeCell ref="CU131:CV131"/>
-    <mergeCell ref="CU132:CV132"/>
-    <mergeCell ref="CS131:CT131"/>
-    <mergeCell ref="CS132:CT132"/>
-    <mergeCell ref="DD136:DE136"/>
-    <mergeCell ref="DF136:DH136"/>
-    <mergeCell ref="DI136:DK136"/>
-    <mergeCell ref="CD139:CE139"/>
-    <mergeCell ref="CG139:CH139"/>
-    <mergeCell ref="DD139:DE139"/>
-    <mergeCell ref="DF139:DH139"/>
-    <mergeCell ref="DI139:DK139"/>
-    <mergeCell ref="BG134:BH134"/>
-    <mergeCell ref="CN134:CO134"/>
-    <mergeCell ref="CQ134:CR134"/>
-    <mergeCell ref="BO133:BP133"/>
-    <mergeCell ref="BQ133:BR133"/>
-    <mergeCell ref="BS133:BT133"/>
-    <mergeCell ref="BO134:BP134"/>
-    <mergeCell ref="BQ134:BR134"/>
-    <mergeCell ref="BS134:BT134"/>
-    <mergeCell ref="CA112:CH112"/>
-    <mergeCell ref="AN106:AS106"/>
-    <mergeCell ref="BA132:BC132"/>
-    <mergeCell ref="AY131:AZ131"/>
-    <mergeCell ref="BA131:BC131"/>
-    <mergeCell ref="BD131:BF131"/>
-    <mergeCell ref="AY132:AZ132"/>
-    <mergeCell ref="BD132:BF132"/>
-    <mergeCell ref="AY133:AZ133"/>
-    <mergeCell ref="BA133:BC133"/>
-    <mergeCell ref="BD133:BF133"/>
-    <mergeCell ref="BZ116:CA116"/>
-    <mergeCell ref="CC116:CD116"/>
-    <mergeCell ref="BO131:BP131"/>
-    <mergeCell ref="BQ131:BR131"/>
-    <mergeCell ref="BS131:BT131"/>
-    <mergeCell ref="BO132:BP132"/>
-    <mergeCell ref="BQ132:BR132"/>
-    <mergeCell ref="BS132:BT132"/>
-    <mergeCell ref="BY112:BZ112"/>
-    <mergeCell ref="CB108:CI108"/>
-    <mergeCell ref="BY110:BZ110"/>
-    <mergeCell ref="BG131:BH131"/>
-    <mergeCell ref="BG132:BH132"/>
-    <mergeCell ref="BP136:BQ136"/>
-    <mergeCell ref="AE131:AF131"/>
-    <mergeCell ref="AE132:AF132"/>
-    <mergeCell ref="AE133:AF133"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="AE135:AF135"/>
-    <mergeCell ref="AE136:AF136"/>
-    <mergeCell ref="W136:X136"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="Y130:Z130"/>
-    <mergeCell ref="U128:V128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="AY134:AZ134"/>
-    <mergeCell ref="BA134:BC134"/>
-    <mergeCell ref="BD134:BF134"/>
-    <mergeCell ref="BA136:BB136"/>
-    <mergeCell ref="BD136:BE136"/>
-    <mergeCell ref="AG131:AH131"/>
-    <mergeCell ref="AG132:AH132"/>
-    <mergeCell ref="AG133:AH133"/>
-    <mergeCell ref="AG134:AH134"/>
-    <mergeCell ref="AG135:AH135"/>
-    <mergeCell ref="AG136:AH136"/>
-    <mergeCell ref="BG133:BH133"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="Z126:AB126"/>
-    <mergeCell ref="AD126:AE126"/>
-    <mergeCell ref="AA131:AB131"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD102:AH102"/>
-    <mergeCell ref="AK102:AL102"/>
-    <mergeCell ref="AM102:AQ102"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AI32:AO32"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="CA110:CH110"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="BI58:BJ58"/>
-    <mergeCell ref="BH47:BI47"/>
-    <mergeCell ref="BJ47:BK47"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="BK49:BL49"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="BK50:BL50"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BI52:BJ52"/>
-    <mergeCell ref="BK52:BL52"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="BY108:CA108"/>
-    <mergeCell ref="BC74:BD74"/>
-    <mergeCell ref="BC75:BD75"/>
-    <mergeCell ref="BN78:BO78"/>
-    <mergeCell ref="BI53:BJ53"/>
-    <mergeCell ref="BK53:BL53"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="S106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="AE106:AG106"/>
-    <mergeCell ref="AH106:AJ106"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="X48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="V91:Y91"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="BB73:BC73"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:AB66"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="AB90:AG90"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="AF91:AG91"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AF93:AG93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AD94:AE94"/>
-    <mergeCell ref="AF94:AG94"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="V94:Y94"/>
-    <mergeCell ref="V93:Y93"/>
-    <mergeCell ref="BA66:BC66"/>
-    <mergeCell ref="BD66:BK66"/>
-    <mergeCell ref="BB70:BC70"/>
-    <mergeCell ref="BD70:BE70"/>
-    <mergeCell ref="BF70:BG70"/>
-    <mergeCell ref="BC71:BD71"/>
-    <mergeCell ref="BE71:BF71"/>
-    <mergeCell ref="BG71:BH71"/>
-    <mergeCell ref="BC72:BD72"/>
-    <mergeCell ref="BK56:BL56"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="BP115:BQ115"/>
-    <mergeCell ref="BH117:BI117"/>
-    <mergeCell ref="BK117:BL117"/>
-    <mergeCell ref="BM107:BQ107"/>
-    <mergeCell ref="U1:Y2"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="AO90:AQ90"/>
-    <mergeCell ref="AR90:AY90"/>
-    <mergeCell ref="AS94:AT94"/>
-    <mergeCell ref="AP94:AQ94"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="AE78:AF78"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:AC88"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="S92:U92"/>
-    <mergeCell ref="S93:U93"/>
-    <mergeCell ref="S94:U94"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="BI54:BJ54"/>
-    <mergeCell ref="BK54:BL54"/>
-    <mergeCell ref="BI55:BJ55"/>
-    <mergeCell ref="BK55:BL55"/>
-    <mergeCell ref="BI56:BJ56"/>
+    <mergeCell ref="AI192:AJ192"/>
+    <mergeCell ref="Y189:AA189"/>
+    <mergeCell ref="S187:V187"/>
+    <mergeCell ref="AA187:AC187"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="U189:V189"/>
+    <mergeCell ref="AI190:AJ190"/>
+    <mergeCell ref="AI191:AJ191"/>
+    <mergeCell ref="AN190:AO190"/>
+    <mergeCell ref="AN191:AO191"/>
+    <mergeCell ref="AN192:AO192"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/通用测试平台.xlsx
+++ b/通用测试平台.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{08D1E096-F9EC-46F7-AB8B-5B6F5CE9E807}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -23,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="BL103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="BL103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="290">
   <si>
     <t>组织管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1231,11 +1227,15 @@
     <t>离职</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1713,7 +1713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1790,28 +1790,25 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1823,7 +1820,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1832,13 +1832,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2360,11 +2363,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="AF33" sqref="AF33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18" customHeight="1"/>
@@ -2374,38 +2377,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:46" ht="18" customHeight="1">
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="U1" s="56" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="U1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
     </row>
     <row r="2" spans="2:46" ht="18" customHeight="1">
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="30"/>
@@ -2857,10 +2860,10 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="42" t="s">
+      <c r="AE18" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="43"/>
+      <c r="AF18" s="44"/>
       <c r="AG18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -3058,16 +3061,16 @@
         <v>113</v>
       </c>
       <c r="T28" s="48"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="44"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="48" t="s">
         <v>114</v>
       </c>
       <c r="Z28" s="48"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="44"/>
       <c r="AD28" s="48" t="s">
         <v>115</v>
       </c>
@@ -3079,10 +3082,10 @@
         <v>54</v>
       </c>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="42" t="s">
+      <c r="AK28" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AL28" s="43"/>
+      <c r="AL28" s="44"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -3209,45 +3212,45 @@
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="42" t="s">
+      <c r="S32" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="T32" s="43"/>
-      <c r="U32" s="42" t="s">
+      <c r="T32" s="44"/>
+      <c r="U32" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="V32" s="43"/>
-      <c r="W32" s="42" t="s">
+      <c r="V32" s="44"/>
+      <c r="W32" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="42" t="s">
+      <c r="X32" s="45"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="43"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="44"/>
       <c r="AC32" s="37" t="s">
         <v>22</v>
       </c>
       <c r="AD32" s="38"/>
-      <c r="AE32" s="42" t="s">
+      <c r="AE32" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="42" t="s">
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AH32" s="43"/>
-      <c r="AI32" s="42" t="s">
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="49"/>
-      <c r="AL32" s="49"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="43"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="44"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
@@ -3260,39 +3263,39 @@
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="42" t="s">
+      <c r="S33" s="43"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="V33" s="43"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="43"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="43"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="44"/>
       <c r="AE33" s="11"/>
       <c r="AF33" s="13"/>
-      <c r="AG33" s="42" t="s">
+      <c r="AG33" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="AH33" s="43"/>
-      <c r="AI33" s="42" t="s">
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AJ33" s="43"/>
-      <c r="AK33" s="42" t="s">
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="43"/>
-      <c r="AN33" s="42" t="s">
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AO33" s="43"/>
+      <c r="AO33" s="44"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
@@ -3305,39 +3308,39 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="42" t="s">
+      <c r="S34" s="43"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="V34" s="43"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="49"/>
-      <c r="AB34" s="43"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="43"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="44"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="13"/>
-      <c r="AG34" s="42" t="s">
+      <c r="AG34" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="AH34" s="43"/>
-      <c r="AI34" s="42" t="s">
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AJ34" s="43"/>
-      <c r="AK34" s="42" t="s">
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="43"/>
-      <c r="AN34" s="42" t="s">
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AO34" s="43"/>
+      <c r="AO34" s="44"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
@@ -3350,37 +3353,37 @@
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="42" t="s">
+      <c r="S35" s="43"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="43"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="49"/>
-      <c r="AB35" s="43"/>
-      <c r="AC35" s="42"/>
-      <c r="AD35" s="43"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="44"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="13"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
-      <c r="AI35" s="42" t="s">
+      <c r="AI35" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AJ35" s="43"/>
-      <c r="AK35" s="42" t="s">
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="43"/>
-      <c r="AN35" s="42" t="s">
+      <c r="AL35" s="45"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AO35" s="43"/>
+      <c r="AO35" s="44"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
@@ -3393,12 +3396,12 @@
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="42" t="s">
+      <c r="S36" s="43"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="V36" s="43"/>
+      <c r="V36" s="44"/>
       <c r="W36" s="37"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="38"/>
@@ -3411,19 +3414,19 @@
       <c r="AF36" s="13"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
-      <c r="AI36" s="42" t="s">
+      <c r="AI36" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AJ36" s="43"/>
-      <c r="AK36" s="42" t="s">
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AL36" s="49"/>
-      <c r="AM36" s="43"/>
-      <c r="AN36" s="42" t="s">
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AO36" s="43"/>
+      <c r="AO36" s="44"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
@@ -3436,37 +3439,37 @@
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="42" t="s">
+      <c r="S37" s="43"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="V37" s="43"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="49"/>
-      <c r="AB37" s="43"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="43"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="44"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="13"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
-      <c r="AI37" s="42" t="s">
+      <c r="AI37" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AJ37" s="43"/>
-      <c r="AK37" s="42" t="s">
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AL37" s="49"/>
-      <c r="AM37" s="43"/>
-      <c r="AN37" s="42" t="s">
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AO37" s="43"/>
+      <c r="AO37" s="44"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
@@ -3476,29 +3479,29 @@
     <row r="38" spans="2:67" ht="18" customHeight="1">
       <c r="Q38" s="6"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="49"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="49"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="42"/>
-      <c r="AD38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="44"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="13"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="42"/>
-      <c r="AJ38" s="43"/>
-      <c r="AK38" s="42"/>
-      <c r="AL38" s="49"/>
-      <c r="AM38" s="43"/>
-      <c r="AN38" s="42"/>
-      <c r="AO38" s="43"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="43"/>
+      <c r="AL38" s="45"/>
+      <c r="AM38" s="44"/>
+      <c r="AN38" s="43"/>
+      <c r="AO38" s="44"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
@@ -3933,15 +3936,15 @@
       <c r="AN51" s="6"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
-      <c r="AQ51" s="42" t="s">
+      <c r="AQ51" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AR51" s="43"/>
+      <c r="AR51" s="44"/>
       <c r="AS51" s="1"/>
-      <c r="AT51" s="42" t="s">
+      <c r="AT51" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AU51" s="43"/>
+      <c r="AU51" s="44"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
@@ -4233,10 +4236,10 @@
       <c r="BF58" s="6"/>
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
-      <c r="BI58" s="42" t="s">
+      <c r="BI58" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="BJ58" s="43"/>
+      <c r="BJ58" s="44"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
       <c r="BM58" s="1"/>
@@ -4404,16 +4407,16 @@
       </c>
       <c r="S66" s="48"/>
       <c r="T66" s="48"/>
-      <c r="U66" s="50" t="s">
+      <c r="U66" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="V66" s="51"/>
-      <c r="W66" s="51"/>
-      <c r="X66" s="51"/>
-      <c r="Y66" s="51"/>
-      <c r="Z66" s="51"/>
-      <c r="AA66" s="51"/>
-      <c r="AB66" s="52"/>
+      <c r="V66" s="50"/>
+      <c r="W66" s="50"/>
+      <c r="X66" s="50"/>
+      <c r="Y66" s="50"/>
+      <c r="Z66" s="50"/>
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="51"/>
       <c r="AC66" s="16" t="s">
         <v>54</v>
       </c>
@@ -4422,10 +4425,10 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="42" t="s">
+      <c r="AI66" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AJ66" s="43"/>
+      <c r="AJ66" s="44"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
@@ -4446,16 +4449,16 @@
       </c>
       <c r="BB66" s="48"/>
       <c r="BC66" s="48"/>
-      <c r="BD66" s="50" t="s">
+      <c r="BD66" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="BE66" s="51"/>
-      <c r="BF66" s="51"/>
-      <c r="BG66" s="51"/>
-      <c r="BH66" s="51"/>
-      <c r="BI66" s="51"/>
-      <c r="BJ66" s="51"/>
-      <c r="BK66" s="52"/>
+      <c r="BE66" s="50"/>
+      <c r="BF66" s="50"/>
+      <c r="BG66" s="50"/>
+      <c r="BH66" s="50"/>
+      <c r="BI66" s="50"/>
+      <c r="BJ66" s="50"/>
+      <c r="BK66" s="51"/>
       <c r="BL66" s="16" t="s">
         <v>54</v>
       </c>
@@ -4707,10 +4710,10 @@
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="57" t="s">
+      <c r="S70" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="T70" s="57"/>
+      <c r="T70" s="53"/>
       <c r="U70" s="48" t="s">
         <v>7</v>
       </c>
@@ -5345,10 +5348,10 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
-      <c r="AE78" s="42" t="s">
+      <c r="AE78" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AF78" s="43"/>
+      <c r="AF78" s="44"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
@@ -5381,10 +5384,10 @@
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
       <c r="BM78" s="1"/>
-      <c r="BN78" s="42" t="s">
+      <c r="BN78" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="BO78" s="43"/>
+      <c r="BO78" s="44"/>
       <c r="BP78" s="1"/>
       <c r="BQ78" s="1"/>
       <c r="BR78" s="1"/>
@@ -5739,16 +5742,16 @@
       </c>
       <c r="T88" s="48"/>
       <c r="U88" s="48"/>
-      <c r="V88" s="50" t="s">
+      <c r="V88" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="W88" s="51"/>
-      <c r="X88" s="51"/>
-      <c r="Y88" s="51"/>
-      <c r="Z88" s="51"/>
-      <c r="AA88" s="51"/>
-      <c r="AB88" s="51"/>
-      <c r="AC88" s="52"/>
+      <c r="W88" s="50"/>
+      <c r="X88" s="50"/>
+      <c r="Y88" s="50"/>
+      <c r="Z88" s="50"/>
+      <c r="AA88" s="50"/>
+      <c r="AB88" s="50"/>
+      <c r="AC88" s="51"/>
       <c r="AD88" s="16" t="s">
         <v>54</v>
       </c>
@@ -5831,12 +5834,12 @@
       </c>
       <c r="T90" s="47"/>
       <c r="U90" s="47"/>
-      <c r="V90" s="42" t="s">
+      <c r="V90" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="W90" s="49"/>
-      <c r="X90" s="49"/>
-      <c r="Y90" s="43"/>
+      <c r="W90" s="45"/>
+      <c r="X90" s="45"/>
+      <c r="Y90" s="44"/>
       <c r="Z90" s="47" t="s">
         <v>76</v>
       </c>
@@ -5858,16 +5861,16 @@
       </c>
       <c r="AP90" s="48"/>
       <c r="AQ90" s="48"/>
-      <c r="AR90" s="50" t="s">
+      <c r="AR90" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="AS90" s="51"/>
-      <c r="AT90" s="51"/>
-      <c r="AU90" s="51"/>
-      <c r="AV90" s="51"/>
-      <c r="AW90" s="51"/>
-      <c r="AX90" s="51"/>
-      <c r="AY90" s="52"/>
+      <c r="AS90" s="50"/>
+      <c r="AT90" s="50"/>
+      <c r="AU90" s="50"/>
+      <c r="AV90" s="50"/>
+      <c r="AW90" s="50"/>
+      <c r="AX90" s="50"/>
+      <c r="AY90" s="51"/>
       <c r="AZ90" s="25" t="s">
         <v>54</v>
       </c>
@@ -5885,38 +5888,44 @@
       </c>
       <c r="T91" s="47"/>
       <c r="U91" s="47"/>
-      <c r="V91" s="42"/>
-      <c r="W91" s="49"/>
-      <c r="X91" s="49"/>
-      <c r="Y91" s="43"/>
-      <c r="Z91" s="42"/>
-      <c r="AA91" s="43"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="45"/>
+      <c r="X91" s="45"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="43"/>
+      <c r="AA91" s="44"/>
       <c r="AB91" s="47" t="s">
         <v>7</v>
       </c>
       <c r="AC91" s="47"/>
-      <c r="AD91" s="42" t="s">
+      <c r="AD91" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AE91" s="43"/>
-      <c r="AF91" s="42" t="s">
+      <c r="AE91" s="44"/>
+      <c r="AF91" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="AG91" s="43"/>
+      <c r="AG91" s="44"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="7"/>
       <c r="AM91" s="6"/>
       <c r="AN91" s="1"/>
-      <c r="AO91" s="1"/>
-      <c r="AP91" s="1"/>
-      <c r="AQ91" s="1"/>
-      <c r="AR91" s="1"/>
-      <c r="AS91" s="1"/>
-      <c r="AT91" s="1"/>
-      <c r="AU91" s="1"/>
-      <c r="AV91" s="1"/>
-      <c r="AW91" s="1"/>
-      <c r="AX91" s="1"/>
+      <c r="AO91" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP91" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ91" s="50"/>
+      <c r="AR91" s="50"/>
+      <c r="AS91" s="50"/>
+      <c r="AT91" s="50"/>
+      <c r="AU91" s="50"/>
+      <c r="AV91" s="50"/>
+      <c r="AW91" s="51"/>
+      <c r="AX91" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="AY91" s="1"/>
       <c r="AZ91" s="1"/>
       <c r="BA91" s="1"/>
@@ -5933,18 +5942,18 @@
       </c>
       <c r="T92" s="47"/>
       <c r="U92" s="47"/>
-      <c r="V92" s="42"/>
-      <c r="W92" s="49"/>
-      <c r="X92" s="49"/>
-      <c r="Y92" s="43"/>
-      <c r="Z92" s="42"/>
-      <c r="AA92" s="43"/>
+      <c r="V92" s="43"/>
+      <c r="W92" s="45"/>
+      <c r="X92" s="45"/>
+      <c r="Y92" s="44"/>
+      <c r="Z92" s="43"/>
+      <c r="AA92" s="44"/>
       <c r="AB92" s="47"/>
       <c r="AC92" s="47"/>
-      <c r="AD92" s="42"/>
-      <c r="AE92" s="43"/>
-      <c r="AF92" s="42"/>
-      <c r="AG92" s="43"/>
+      <c r="AD92" s="43"/>
+      <c r="AE92" s="44"/>
+      <c r="AF92" s="43"/>
+      <c r="AG92" s="44"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="7"/>
       <c r="AM92" s="6"/>
@@ -5977,18 +5986,18 @@
       </c>
       <c r="T93" s="47"/>
       <c r="U93" s="47"/>
-      <c r="V93" s="42"/>
-      <c r="W93" s="49"/>
-      <c r="X93" s="49"/>
-      <c r="Y93" s="43"/>
-      <c r="Z93" s="42"/>
-      <c r="AA93" s="43"/>
+      <c r="V93" s="43"/>
+      <c r="W93" s="45"/>
+      <c r="X93" s="45"/>
+      <c r="Y93" s="44"/>
+      <c r="Z93" s="43"/>
+      <c r="AA93" s="44"/>
       <c r="AB93" s="47"/>
       <c r="AC93" s="47"/>
-      <c r="AD93" s="42"/>
-      <c r="AE93" s="43"/>
-      <c r="AF93" s="42"/>
-      <c r="AG93" s="43"/>
+      <c r="AD93" s="43"/>
+      <c r="AE93" s="44"/>
+      <c r="AF93" s="43"/>
+      <c r="AG93" s="44"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="7"/>
       <c r="AM93" s="6"/>
@@ -6014,37 +6023,37 @@
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="58" t="s">
+      <c r="S94" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="T94" s="58"/>
-      <c r="U94" s="58"/>
-      <c r="V94" s="42"/>
-      <c r="W94" s="49"/>
-      <c r="X94" s="49"/>
-      <c r="Y94" s="43"/>
-      <c r="Z94" s="42"/>
-      <c r="AA94" s="43"/>
+      <c r="T94" s="52"/>
+      <c r="U94" s="52"/>
+      <c r="V94" s="43"/>
+      <c r="W94" s="45"/>
+      <c r="X94" s="45"/>
+      <c r="Y94" s="44"/>
+      <c r="Z94" s="43"/>
+      <c r="AA94" s="44"/>
       <c r="AB94" s="47"/>
       <c r="AC94" s="47"/>
-      <c r="AD94" s="42"/>
-      <c r="AE94" s="43"/>
-      <c r="AF94" s="42"/>
-      <c r="AG94" s="43"/>
+      <c r="AD94" s="43"/>
+      <c r="AE94" s="44"/>
+      <c r="AF94" s="43"/>
+      <c r="AG94" s="44"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="7"/>
       <c r="AM94" s="6"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
-      <c r="AP94" s="42" t="s">
+      <c r="AP94" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="AQ94" s="43"/>
+      <c r="AQ94" s="44"/>
       <c r="AR94" s="1"/>
-      <c r="AS94" s="42" t="s">
+      <c r="AS94" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AT94" s="43"/>
+      <c r="AT94" s="44"/>
       <c r="AU94" s="1"/>
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
@@ -6234,13 +6243,13 @@
       </c>
       <c r="S102" s="48"/>
       <c r="T102" s="48"/>
-      <c r="U102" s="42" t="s">
+      <c r="U102" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="V102" s="49"/>
-      <c r="W102" s="49"/>
-      <c r="X102" s="49"/>
-      <c r="Y102" s="49"/>
+      <c r="V102" s="45"/>
+      <c r="W102" s="45"/>
+      <c r="X102" s="45"/>
+      <c r="Y102" s="45"/>
       <c r="Z102" s="26" t="s">
         <v>54</v>
       </c>
@@ -6249,13 +6258,13 @@
         <v>85</v>
       </c>
       <c r="AC102" s="28"/>
-      <c r="AD102" s="42" t="s">
+      <c r="AD102" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AE102" s="49"/>
-      <c r="AF102" s="49"/>
-      <c r="AG102" s="49"/>
-      <c r="AH102" s="49"/>
+      <c r="AE102" s="45"/>
+      <c r="AF102" s="45"/>
+      <c r="AG102" s="45"/>
+      <c r="AH102" s="45"/>
       <c r="AI102" s="26" t="s">
         <v>54</v>
       </c>
@@ -6263,13 +6272,13 @@
         <v>87</v>
       </c>
       <c r="AL102" s="54"/>
-      <c r="AM102" s="42" t="s">
+      <c r="AM102" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AN102" s="49"/>
-      <c r="AO102" s="49"/>
-      <c r="AP102" s="49"/>
-      <c r="AQ102" s="49"/>
+      <c r="AN102" s="45"/>
+      <c r="AO102" s="45"/>
+      <c r="AP102" s="45"/>
+      <c r="AQ102" s="45"/>
       <c r="AR102" s="26" t="s">
         <v>54</v>
       </c>
@@ -6278,13 +6287,13 @@
         <v>82</v>
       </c>
       <c r="AU102" s="48"/>
-      <c r="AV102" s="42"/>
-      <c r="AW102" s="49"/>
-      <c r="AX102" s="43"/>
-      <c r="AZ102" s="42" t="s">
+      <c r="AV102" s="43"/>
+      <c r="AW102" s="45"/>
+      <c r="AX102" s="44"/>
+      <c r="AZ102" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="BA102" s="43"/>
+      <c r="BA102" s="44"/>
       <c r="BB102" s="1"/>
       <c r="BC102" s="7"/>
       <c r="BE102" s="6"/>
@@ -6409,20 +6418,20 @@
         <v>147</v>
       </c>
       <c r="Q104" s="6"/>
-      <c r="R104" s="42" t="s">
+      <c r="R104" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="S104" s="43"/>
+      <c r="S104" s="44"/>
       <c r="T104" s="1"/>
-      <c r="U104" s="42" t="s">
+      <c r="U104" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="V104" s="43"/>
+      <c r="V104" s="44"/>
       <c r="W104" s="1"/>
-      <c r="X104" s="42" t="s">
+      <c r="X104" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="Y104" s="43"/>
+      <c r="Y104" s="44"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
@@ -6584,49 +6593,49 @@
       <c r="R106" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S106" s="42" t="s">
+      <c r="S106" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="T106" s="49"/>
-      <c r="U106" s="49"/>
-      <c r="V106" s="43"/>
-      <c r="W106" s="42" t="s">
+      <c r="T106" s="45"/>
+      <c r="U106" s="45"/>
+      <c r="V106" s="44"/>
+      <c r="W106" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="X106" s="49"/>
-      <c r="Y106" s="43"/>
-      <c r="Z106" s="42" t="s">
+      <c r="X106" s="45"/>
+      <c r="Y106" s="44"/>
+      <c r="Z106" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="AA106" s="43"/>
-      <c r="AB106" s="42" t="s">
+      <c r="AA106" s="44"/>
+      <c r="AB106" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AC106" s="49"/>
-      <c r="AD106" s="43"/>
-      <c r="AE106" s="42" t="s">
+      <c r="AC106" s="45"/>
+      <c r="AD106" s="44"/>
+      <c r="AE106" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="AF106" s="49"/>
-      <c r="AG106" s="43"/>
-      <c r="AH106" s="42" t="s">
+      <c r="AF106" s="45"/>
+      <c r="AG106" s="44"/>
+      <c r="AH106" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="AI106" s="49"/>
-      <c r="AJ106" s="43"/>
-      <c r="AK106" s="42" t="s">
+      <c r="AI106" s="45"/>
+      <c r="AJ106" s="44"/>
+      <c r="AK106" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="AL106" s="49"/>
-      <c r="AM106" s="43"/>
-      <c r="AN106" s="42" t="s">
+      <c r="AL106" s="45"/>
+      <c r="AM106" s="44"/>
+      <c r="AN106" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="AO106" s="49"/>
-      <c r="AP106" s="49"/>
-      <c r="AQ106" s="49"/>
-      <c r="AR106" s="49"/>
-      <c r="AS106" s="43"/>
+      <c r="AO106" s="45"/>
+      <c r="AP106" s="45"/>
+      <c r="AQ106" s="45"/>
+      <c r="AR106" s="45"/>
+      <c r="AS106" s="44"/>
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
       <c r="AV106" s="1"/>
@@ -6734,13 +6743,13 @@
       </c>
       <c r="BK107" s="1"/>
       <c r="BL107" s="1"/>
-      <c r="BM107" s="42" t="s">
+      <c r="BM107" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="BN107" s="49"/>
-      <c r="BO107" s="49"/>
-      <c r="BP107" s="49"/>
-      <c r="BQ107" s="49"/>
+      <c r="BN107" s="45"/>
+      <c r="BO107" s="45"/>
+      <c r="BP107" s="45"/>
+      <c r="BQ107" s="45"/>
       <c r="BR107" s="32" t="s">
         <v>54</v>
       </c>
@@ -6843,16 +6852,16 @@
       </c>
       <c r="BZ108" s="48"/>
       <c r="CA108" s="48"/>
-      <c r="CB108" s="50" t="s">
+      <c r="CB108" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="CC108" s="51"/>
-      <c r="CD108" s="51"/>
-      <c r="CE108" s="51"/>
-      <c r="CF108" s="51"/>
-      <c r="CG108" s="51"/>
-      <c r="CH108" s="51"/>
-      <c r="CI108" s="52"/>
+      <c r="CC108" s="50"/>
+      <c r="CD108" s="50"/>
+      <c r="CE108" s="50"/>
+      <c r="CF108" s="50"/>
+      <c r="CG108" s="50"/>
+      <c r="CH108" s="50"/>
+      <c r="CI108" s="51"/>
       <c r="CJ108" s="16" t="s">
         <v>54</v>
       </c>
@@ -7006,16 +7015,16 @@
         <v>85</v>
       </c>
       <c r="BZ110" s="54"/>
-      <c r="CA110" s="50" t="s">
+      <c r="CA110" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="CB110" s="51"/>
-      <c r="CC110" s="51"/>
-      <c r="CD110" s="51"/>
-      <c r="CE110" s="51"/>
-      <c r="CF110" s="51"/>
-      <c r="CG110" s="51"/>
-      <c r="CH110" s="52"/>
+      <c r="CB110" s="50"/>
+      <c r="CC110" s="50"/>
+      <c r="CD110" s="50"/>
+      <c r="CE110" s="50"/>
+      <c r="CF110" s="50"/>
+      <c r="CG110" s="50"/>
+      <c r="CH110" s="51"/>
       <c r="CI110" s="16" t="s">
         <v>54</v>
       </c>
@@ -7175,16 +7184,16 @@
         <v>87</v>
       </c>
       <c r="BZ112" s="54"/>
-      <c r="CA112" s="50" t="s">
+      <c r="CA112" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="CB112" s="51"/>
-      <c r="CC112" s="51"/>
-      <c r="CD112" s="51"/>
-      <c r="CE112" s="51"/>
-      <c r="CF112" s="51"/>
-      <c r="CG112" s="51"/>
-      <c r="CH112" s="52"/>
+      <c r="CB112" s="50"/>
+      <c r="CC112" s="50"/>
+      <c r="CD112" s="50"/>
+      <c r="CE112" s="50"/>
+      <c r="CF112" s="50"/>
+      <c r="CG112" s="50"/>
+      <c r="CH112" s="51"/>
       <c r="CI112" s="26" t="s">
         <v>54</v>
       </c>
@@ -7433,10 +7442,10 @@
       <c r="BM115" s="8"/>
       <c r="BN115" s="2"/>
       <c r="BO115" s="9"/>
-      <c r="BP115" s="42" t="s">
+      <c r="BP115" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="BQ115" s="43"/>
+      <c r="BQ115" s="44"/>
       <c r="BR115" s="1"/>
       <c r="BS115" s="1"/>
       <c r="BT115" s="1"/>
@@ -7514,15 +7523,15 @@
       <c r="BV116" s="7"/>
       <c r="BX116" s="6"/>
       <c r="BY116" s="1"/>
-      <c r="BZ116" s="42" t="s">
+      <c r="BZ116" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="CA116" s="43"/>
+      <c r="CA116" s="44"/>
       <c r="CB116" s="1"/>
-      <c r="CC116" s="42" t="s">
+      <c r="CC116" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="CD116" s="43"/>
+      <c r="CD116" s="44"/>
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
       <c r="CG116" s="1"/>
@@ -7578,14 +7587,14 @@
       <c r="BB117" s="1"/>
       <c r="BC117" s="7"/>
       <c r="BE117" s="6"/>
-      <c r="BH117" s="42" t="s">
+      <c r="BH117" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="BI117" s="43"/>
-      <c r="BK117" s="42" t="s">
+      <c r="BI117" s="44"/>
+      <c r="BK117" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="BL117" s="43"/>
+      <c r="BL117" s="44"/>
       <c r="BR117" s="1"/>
       <c r="BS117" s="1"/>
       <c r="BT117" s="1"/>
@@ -7812,10 +7821,10 @@
       <c r="AA126" s="47"/>
       <c r="AB126" s="47"/>
       <c r="AC126" s="1"/>
-      <c r="AD126" s="42" t="s">
+      <c r="AD126" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AE126" s="43"/>
+      <c r="AE126" s="44"/>
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
@@ -8120,32 +8129,32 @@
       <c r="R130" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="S130" s="42" t="s">
+      <c r="S130" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="T130" s="43"/>
-      <c r="U130" s="42" t="s">
+      <c r="T130" s="44"/>
+      <c r="U130" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="V130" s="43"/>
-      <c r="W130" s="42" t="s">
+      <c r="V130" s="44"/>
+      <c r="W130" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="X130" s="43"/>
-      <c r="Y130" s="42" t="s">
+      <c r="X130" s="44"/>
+      <c r="Y130" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="Z130" s="43"/>
-      <c r="AA130" s="42" t="s">
+      <c r="Z130" s="44"/>
+      <c r="AA130" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AB130" s="49"/>
-      <c r="AC130" s="49"/>
-      <c r="AD130" s="49"/>
-      <c r="AE130" s="49"/>
-      <c r="AF130" s="49"/>
-      <c r="AG130" s="49"/>
-      <c r="AH130" s="43"/>
+      <c r="AB130" s="45"/>
+      <c r="AC130" s="45"/>
+      <c r="AD130" s="45"/>
+      <c r="AE130" s="45"/>
+      <c r="AF130" s="45"/>
+      <c r="AG130" s="45"/>
+      <c r="AH130" s="44"/>
       <c r="AI130" s="7"/>
       <c r="AL130" s="6"/>
       <c r="AV130" s="6"/>
@@ -8228,16 +8237,16 @@
     <row r="131" spans="4:119" ht="18" customHeight="1">
       <c r="Q131" s="6"/>
       <c r="R131" s="15"/>
-      <c r="S131" s="42"/>
-      <c r="T131" s="43"/>
-      <c r="U131" s="42"/>
-      <c r="V131" s="43" t="s">
+      <c r="S131" s="43"/>
+      <c r="T131" s="44"/>
+      <c r="U131" s="43"/>
+      <c r="V131" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="W131" s="42"/>
-      <c r="X131" s="43"/>
-      <c r="Y131" s="42"/>
-      <c r="Z131" s="43" t="s">
+      <c r="W131" s="43"/>
+      <c r="X131" s="44"/>
+      <c r="Y131" s="43"/>
+      <c r="Z131" s="44" t="s">
         <v>168</v>
       </c>
       <c r="AA131" s="47" t="s">
@@ -8283,27 +8292,27 @@
       </c>
       <c r="BE131" s="47"/>
       <c r="BF131" s="47"/>
-      <c r="BG131" s="42" t="s">
+      <c r="BG131" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="BH131" s="43"/>
+      <c r="BH131" s="44"/>
       <c r="BI131" s="1"/>
       <c r="BJ131" s="1"/>
       <c r="BK131" s="7"/>
       <c r="BM131" s="6"/>
       <c r="BN131" s="1"/>
-      <c r="BO131" s="42" t="s">
+      <c r="BO131" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="BP131" s="43"/>
-      <c r="BQ131" s="42" t="s">
+      <c r="BP131" s="44"/>
+      <c r="BQ131" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="BR131" s="43"/>
-      <c r="BS131" s="42" t="s">
+      <c r="BR131" s="44"/>
+      <c r="BS131" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="BT131" s="43"/>
+      <c r="BT131" s="44"/>
       <c r="BU131" s="1"/>
       <c r="BV131" s="1"/>
       <c r="BW131" s="1"/>
@@ -8326,12 +8335,12 @@
       <c r="CP131" s="9"/>
       <c r="CQ131" s="8"/>
       <c r="CR131" s="9"/>
-      <c r="CS131" s="42"/>
-      <c r="CT131" s="43"/>
-      <c r="CU131" s="42" t="s">
+      <c r="CS131" s="43"/>
+      <c r="CT131" s="44"/>
+      <c r="CU131" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="CV131" s="43"/>
+      <c r="CV131" s="44"/>
       <c r="CW131" s="1"/>
       <c r="CX131" s="1"/>
       <c r="CY131" s="7"/>
@@ -8357,16 +8366,16 @@
       </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="15"/>
-      <c r="S132" s="42"/>
-      <c r="T132" s="43"/>
-      <c r="U132" s="42"/>
-      <c r="V132" s="43" t="s">
+      <c r="S132" s="43"/>
+      <c r="T132" s="44"/>
+      <c r="U132" s="43"/>
+      <c r="V132" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="W132" s="42"/>
-      <c r="X132" s="43"/>
-      <c r="Y132" s="42"/>
-      <c r="Z132" s="43"/>
+      <c r="W132" s="43"/>
+      <c r="X132" s="44"/>
+      <c r="Y132" s="43"/>
+      <c r="Z132" s="44"/>
       <c r="AA132" s="47"/>
       <c r="AB132" s="47"/>
       <c r="AC132" s="47"/>
@@ -8391,32 +8400,32 @@
         <v>1</v>
       </c>
       <c r="AZ132" s="47"/>
-      <c r="BA132" s="53" t="s">
+      <c r="BA132" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="BB132" s="53"/>
-      <c r="BC132" s="53"/>
+      <c r="BB132" s="56"/>
+      <c r="BC132" s="56"/>
       <c r="BD132" s="47" t="s">
         <v>182</v>
       </c>
       <c r="BE132" s="47"/>
       <c r="BF132" s="47"/>
-      <c r="BG132" s="42" t="s">
+      <c r="BG132" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="BH132" s="43"/>
+      <c r="BH132" s="44"/>
       <c r="BI132" s="23" t="s">
         <v>206</v>
       </c>
       <c r="BK132" s="7"/>
       <c r="BM132" s="6"/>
       <c r="BN132" s="1"/>
-      <c r="BO132" s="42"/>
-      <c r="BP132" s="43"/>
-      <c r="BQ132" s="42"/>
-      <c r="BR132" s="43"/>
-      <c r="BS132" s="42"/>
-      <c r="BT132" s="43"/>
+      <c r="BO132" s="43"/>
+      <c r="BP132" s="44"/>
+      <c r="BQ132" s="43"/>
+      <c r="BR132" s="44"/>
+      <c r="BS132" s="43"/>
+      <c r="BT132" s="44"/>
       <c r="BU132" s="1"/>
       <c r="BV132" s="1"/>
       <c r="BW132" s="1"/>
@@ -8440,12 +8449,12 @@
       <c r="CP132" s="9"/>
       <c r="CQ132" s="8"/>
       <c r="CR132" s="9"/>
-      <c r="CS132" s="42"/>
-      <c r="CT132" s="43"/>
-      <c r="CU132" s="42" t="s">
+      <c r="CS132" s="43"/>
+      <c r="CT132" s="44"/>
+      <c r="CU132" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="CV132" s="43"/>
+      <c r="CV132" s="44"/>
       <c r="CW132" s="1"/>
       <c r="CX132" s="1"/>
       <c r="CY132" s="7"/>
@@ -8469,14 +8478,14 @@
       </c>
       <c r="Q133" s="6"/>
       <c r="R133" s="15"/>
-      <c r="S133" s="42"/>
-      <c r="T133" s="43"/>
-      <c r="U133" s="42"/>
-      <c r="V133" s="43"/>
-      <c r="W133" s="42"/>
-      <c r="X133" s="43"/>
-      <c r="Y133" s="42"/>
-      <c r="Z133" s="43"/>
+      <c r="S133" s="43"/>
+      <c r="T133" s="44"/>
+      <c r="U133" s="43"/>
+      <c r="V133" s="44"/>
+      <c r="W133" s="43"/>
+      <c r="X133" s="44"/>
+      <c r="Y133" s="43"/>
+      <c r="Z133" s="44"/>
       <c r="AA133" s="47"/>
       <c r="AB133" s="47"/>
       <c r="AC133" s="47"/>
@@ -8510,20 +8519,20 @@
       <c r="BD133" s="47"/>
       <c r="BE133" s="47"/>
       <c r="BF133" s="47"/>
-      <c r="BG133" s="42"/>
-      <c r="BH133" s="43"/>
+      <c r="BG133" s="43"/>
+      <c r="BH133" s="44"/>
       <c r="BI133" s="23" t="s">
         <v>207</v>
       </c>
       <c r="BK133" s="7"/>
       <c r="BM133" s="6"/>
       <c r="BN133" s="1"/>
-      <c r="BO133" s="42"/>
-      <c r="BP133" s="43"/>
-      <c r="BQ133" s="42"/>
-      <c r="BR133" s="43"/>
-      <c r="BS133" s="42"/>
-      <c r="BT133" s="43"/>
+      <c r="BO133" s="43"/>
+      <c r="BP133" s="44"/>
+      <c r="BQ133" s="43"/>
+      <c r="BR133" s="44"/>
+      <c r="BS133" s="43"/>
+      <c r="BT133" s="44"/>
       <c r="BU133" s="1"/>
       <c r="BV133" s="1" t="s">
         <v>190</v>
@@ -8576,14 +8585,14 @@
       </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="15"/>
-      <c r="S134" s="42"/>
-      <c r="T134" s="43"/>
-      <c r="U134" s="42"/>
-      <c r="V134" s="43"/>
-      <c r="W134" s="42"/>
-      <c r="X134" s="43"/>
-      <c r="Y134" s="42"/>
-      <c r="Z134" s="43"/>
+      <c r="S134" s="43"/>
+      <c r="T134" s="44"/>
+      <c r="U134" s="43"/>
+      <c r="V134" s="44"/>
+      <c r="W134" s="43"/>
+      <c r="X134" s="44"/>
+      <c r="Y134" s="43"/>
+      <c r="Z134" s="44"/>
       <c r="AA134" s="47"/>
       <c r="AB134" s="47"/>
       <c r="AC134" s="47"/>
@@ -8613,19 +8622,19 @@
       <c r="BD134" s="47"/>
       <c r="BE134" s="47"/>
       <c r="BF134" s="47"/>
-      <c r="BG134" s="42"/>
-      <c r="BH134" s="43"/>
+      <c r="BG134" s="43"/>
+      <c r="BH134" s="44"/>
       <c r="BI134" s="1"/>
       <c r="BJ134" s="1"/>
       <c r="BK134" s="7"/>
       <c r="BM134" s="6"/>
       <c r="BN134" s="1"/>
-      <c r="BO134" s="42"/>
-      <c r="BP134" s="43"/>
-      <c r="BQ134" s="42"/>
-      <c r="BR134" s="43"/>
-      <c r="BS134" s="42"/>
-      <c r="BT134" s="43"/>
+      <c r="BO134" s="43"/>
+      <c r="BP134" s="44"/>
+      <c r="BQ134" s="43"/>
+      <c r="BR134" s="44"/>
+      <c r="BS134" s="43"/>
+      <c r="BT134" s="44"/>
       <c r="BU134" s="1"/>
       <c r="BV134" s="1" t="s">
         <v>229</v>
@@ -8648,15 +8657,15 @@
       <c r="CK134" s="1"/>
       <c r="CL134" s="1"/>
       <c r="CM134" s="6"/>
-      <c r="CN134" s="42" t="s">
+      <c r="CN134" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="CO134" s="43"/>
+      <c r="CO134" s="44"/>
       <c r="CP134" s="1"/>
-      <c r="CQ134" s="42" t="s">
+      <c r="CQ134" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="CR134" s="43"/>
+      <c r="CR134" s="44"/>
       <c r="CS134" s="1"/>
       <c r="CT134" s="1"/>
       <c r="CU134" s="1"/>
@@ -8686,14 +8695,14 @@
       </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="15"/>
-      <c r="S135" s="42"/>
-      <c r="T135" s="43"/>
-      <c r="U135" s="42"/>
-      <c r="V135" s="43"/>
-      <c r="W135" s="42"/>
-      <c r="X135" s="43"/>
-      <c r="Y135" s="42"/>
-      <c r="Z135" s="43"/>
+      <c r="S135" s="43"/>
+      <c r="T135" s="44"/>
+      <c r="U135" s="43"/>
+      <c r="V135" s="44"/>
+      <c r="W135" s="43"/>
+      <c r="X135" s="44"/>
+      <c r="Y135" s="43"/>
+      <c r="Z135" s="44"/>
       <c r="AA135" s="47"/>
       <c r="AB135" s="47"/>
       <c r="AC135" s="47"/>
@@ -8788,14 +8797,14 @@
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="15"/>
-      <c r="S136" s="42"/>
-      <c r="T136" s="43"/>
-      <c r="U136" s="42"/>
-      <c r="V136" s="43"/>
-      <c r="W136" s="42"/>
-      <c r="X136" s="43"/>
-      <c r="Y136" s="42"/>
-      <c r="Z136" s="43"/>
+      <c r="S136" s="43"/>
+      <c r="T136" s="44"/>
+      <c r="U136" s="43"/>
+      <c r="V136" s="44"/>
+      <c r="W136" s="43"/>
+      <c r="X136" s="44"/>
+      <c r="Y136" s="43"/>
+      <c r="Z136" s="44"/>
       <c r="AA136" s="47"/>
       <c r="AB136" s="47"/>
       <c r="AC136" s="47"/>
@@ -8818,15 +8827,15 @@
       <c r="AX136" s="6"/>
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
-      <c r="BA136" s="42" t="s">
+      <c r="BA136" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="BB136" s="43"/>
+      <c r="BB136" s="44"/>
       <c r="BC136" s="1"/>
-      <c r="BD136" s="42" t="s">
+      <c r="BD136" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="BE136" s="43"/>
+      <c r="BE136" s="44"/>
       <c r="BF136" s="1"/>
       <c r="BG136" s="1"/>
       <c r="BH136" s="1"/>
@@ -8836,10 +8845,10 @@
       <c r="BM136" s="6"/>
       <c r="BN136" s="1"/>
       <c r="BO136" s="1"/>
-      <c r="BP136" s="42" t="s">
+      <c r="BP136" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="BQ136" s="43"/>
+      <c r="BQ136" s="44"/>
       <c r="BR136" s="1"/>
       <c r="BS136" s="1"/>
       <c r="BT136" s="1"/>
@@ -8888,10 +8897,10 @@
       </c>
       <c r="DJ136" s="47"/>
       <c r="DK136" s="47"/>
-      <c r="DL136" s="42" t="s">
+      <c r="DL136" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="DM136" s="43"/>
+      <c r="DM136" s="44"/>
       <c r="DN136" s="1"/>
       <c r="DO136" s="7"/>
     </row>
@@ -8901,14 +8910,14 @@
       </c>
       <c r="Q137" s="6"/>
       <c r="R137" s="15"/>
-      <c r="S137" s="42"/>
-      <c r="T137" s="43"/>
-      <c r="U137" s="42"/>
-      <c r="V137" s="43"/>
-      <c r="W137" s="42"/>
-      <c r="X137" s="43"/>
-      <c r="Y137" s="42"/>
-      <c r="Z137" s="43"/>
+      <c r="S137" s="43"/>
+      <c r="T137" s="44"/>
+      <c r="U137" s="43"/>
+      <c r="V137" s="44"/>
+      <c r="W137" s="43"/>
+      <c r="X137" s="44"/>
+      <c r="Y137" s="43"/>
+      <c r="Z137" s="44"/>
       <c r="AA137" s="47"/>
       <c r="AB137" s="47"/>
       <c r="AC137" s="47"/>
@@ -8920,15 +8929,15 @@
       <c r="AI137" s="7"/>
       <c r="AL137" s="6"/>
       <c r="AM137" s="1"/>
-      <c r="AN137" s="42" t="s">
+      <c r="AN137" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AO137" s="43"/>
+      <c r="AO137" s="44"/>
       <c r="AP137" s="1"/>
-      <c r="AQ137" s="42" t="s">
+      <c r="AQ137" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AR137" s="43"/>
+      <c r="AR137" s="44"/>
       <c r="AS137" s="1"/>
       <c r="AT137" s="1"/>
       <c r="AU137" s="7"/>
@@ -8987,10 +8996,10 @@
       </c>
       <c r="DJ137" s="47"/>
       <c r="DK137" s="47"/>
-      <c r="DL137" s="42" t="s">
+      <c r="DL137" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="DM137" s="43"/>
+      <c r="DM137" s="44"/>
       <c r="DN137" s="1"/>
       <c r="DO137" s="7"/>
     </row>
@@ -9003,14 +9012,14 @@
       </c>
       <c r="Q138" s="6"/>
       <c r="R138" s="15"/>
-      <c r="S138" s="42"/>
-      <c r="T138" s="43"/>
-      <c r="U138" s="42"/>
-      <c r="V138" s="43"/>
-      <c r="W138" s="42"/>
-      <c r="X138" s="43"/>
-      <c r="Y138" s="42"/>
-      <c r="Z138" s="43"/>
+      <c r="S138" s="43"/>
+      <c r="T138" s="44"/>
+      <c r="U138" s="43"/>
+      <c r="V138" s="44"/>
+      <c r="W138" s="43"/>
+      <c r="X138" s="44"/>
+      <c r="Y138" s="43"/>
+      <c r="Z138" s="44"/>
       <c r="AA138" s="47"/>
       <c r="AB138" s="47"/>
       <c r="AC138" s="47"/>
@@ -9078,8 +9087,8 @@
       <c r="DI138" s="47"/>
       <c r="DJ138" s="47"/>
       <c r="DK138" s="47"/>
-      <c r="DL138" s="42"/>
-      <c r="DM138" s="43"/>
+      <c r="DL138" s="43"/>
+      <c r="DM138" s="44"/>
       <c r="DN138" s="1"/>
       <c r="DO138" s="7"/>
     </row>
@@ -9136,15 +9145,15 @@
       <c r="BZ139" s="2"/>
       <c r="CA139" s="9"/>
       <c r="CC139" s="6"/>
-      <c r="CD139" s="42" t="s">
+      <c r="CD139" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="CE139" s="43"/>
+      <c r="CE139" s="44"/>
       <c r="CF139" s="1"/>
-      <c r="CG139" s="42" t="s">
+      <c r="CG139" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="CH139" s="43"/>
+      <c r="CH139" s="44"/>
       <c r="CI139" s="1"/>
       <c r="CJ139" s="7"/>
       <c r="CK139" s="1"/>
@@ -9161,8 +9170,8 @@
       <c r="DI139" s="47"/>
       <c r="DJ139" s="47"/>
       <c r="DK139" s="47"/>
-      <c r="DL139" s="42"/>
-      <c r="DM139" s="43"/>
+      <c r="DL139" s="43"/>
+      <c r="DM139" s="44"/>
       <c r="DN139" s="1"/>
       <c r="DO139" s="7"/>
     </row>
@@ -9233,10 +9242,10 @@
       <c r="DG141" s="1"/>
       <c r="DH141" s="1"/>
       <c r="DI141" s="1"/>
-      <c r="DJ141" s="42" t="s">
+      <c r="DJ141" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="DK141" s="43"/>
+      <c r="DK141" s="44"/>
       <c r="DL141" s="1"/>
       <c r="DM141" s="1"/>
       <c r="DN141" s="1"/>
@@ -9563,30 +9572,30 @@
       <c r="R153" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="S153" s="42" t="s">
+      <c r="S153" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="T153" s="43"/>
-      <c r="U153" s="42" t="s">
+      <c r="T153" s="44"/>
+      <c r="U153" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="V153" s="43"/>
-      <c r="W153" s="42" t="s">
+      <c r="V153" s="44"/>
+      <c r="W153" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="X153" s="43"/>
-      <c r="Y153" s="42" t="s">
+      <c r="X153" s="44"/>
+      <c r="Y153" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="Z153" s="43"/>
-      <c r="AA153" s="42" t="s">
+      <c r="Z153" s="44"/>
+      <c r="AA153" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="AB153" s="43"/>
-      <c r="AC153" s="42" t="s">
+      <c r="AB153" s="44"/>
+      <c r="AC153" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AD153" s="43"/>
+      <c r="AD153" s="44"/>
       <c r="AE153" s="7"/>
       <c r="AH153" s="1"/>
       <c r="AI153" s="6"/>
@@ -9610,12 +9619,12 @@
       </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="11"/>
-      <c r="S154" s="42"/>
-      <c r="T154" s="43"/>
-      <c r="U154" s="42"/>
-      <c r="V154" s="43"/>
-      <c r="W154" s="42"/>
-      <c r="X154" s="43"/>
+      <c r="S154" s="43"/>
+      <c r="T154" s="44"/>
+      <c r="U154" s="43"/>
+      <c r="V154" s="44"/>
+      <c r="W154" s="43"/>
+      <c r="X154" s="44"/>
       <c r="Y154" s="11"/>
       <c r="Z154" s="13"/>
       <c r="AA154" s="11"/>
@@ -9650,12 +9659,12 @@
     <row r="155" spans="1:60" ht="18" customHeight="1">
       <c r="Q155" s="6"/>
       <c r="R155" s="11"/>
-      <c r="S155" s="42"/>
-      <c r="T155" s="43"/>
-      <c r="U155" s="42"/>
-      <c r="V155" s="43"/>
-      <c r="W155" s="42"/>
-      <c r="X155" s="43"/>
+      <c r="S155" s="43"/>
+      <c r="T155" s="44"/>
+      <c r="U155" s="43"/>
+      <c r="V155" s="44"/>
+      <c r="W155" s="43"/>
+      <c r="X155" s="44"/>
       <c r="Y155" s="11"/>
       <c r="Z155" s="13"/>
       <c r="AA155" s="11"/>
@@ -9685,12 +9694,12 @@
       </c>
       <c r="Q156" s="6"/>
       <c r="R156" s="11"/>
-      <c r="S156" s="42"/>
-      <c r="T156" s="43"/>
-      <c r="U156" s="42"/>
-      <c r="V156" s="43"/>
-      <c r="W156" s="42"/>
-      <c r="X156" s="43"/>
+      <c r="S156" s="43"/>
+      <c r="T156" s="44"/>
+      <c r="U156" s="43"/>
+      <c r="V156" s="44"/>
+      <c r="W156" s="43"/>
+      <c r="X156" s="44"/>
       <c r="Y156" s="11"/>
       <c r="Z156" s="13"/>
       <c r="AA156" s="11"/>
@@ -9722,12 +9731,12 @@
       </c>
       <c r="Q157" s="6"/>
       <c r="R157" s="11"/>
-      <c r="S157" s="42"/>
-      <c r="T157" s="43"/>
-      <c r="U157" s="42"/>
-      <c r="V157" s="43"/>
-      <c r="W157" s="42"/>
-      <c r="X157" s="43"/>
+      <c r="S157" s="43"/>
+      <c r="T157" s="44"/>
+      <c r="U157" s="43"/>
+      <c r="V157" s="44"/>
+      <c r="W157" s="43"/>
+      <c r="X157" s="44"/>
       <c r="Y157" s="11"/>
       <c r="Z157" s="13"/>
       <c r="AA157" s="11"/>
@@ -9757,12 +9766,12 @@
       </c>
       <c r="Q158" s="6"/>
       <c r="R158" s="11"/>
-      <c r="S158" s="42"/>
-      <c r="T158" s="43"/>
-      <c r="U158" s="42"/>
-      <c r="V158" s="43"/>
-      <c r="W158" s="42"/>
-      <c r="X158" s="43"/>
+      <c r="S158" s="43"/>
+      <c r="T158" s="44"/>
+      <c r="U158" s="43"/>
+      <c r="V158" s="44"/>
+      <c r="W158" s="43"/>
+      <c r="X158" s="44"/>
       <c r="Y158" s="11"/>
       <c r="Z158" s="13"/>
       <c r="AA158" s="11"/>
@@ -9792,12 +9801,12 @@
       </c>
       <c r="Q159" s="6"/>
       <c r="R159" s="11"/>
-      <c r="S159" s="42"/>
-      <c r="T159" s="43"/>
-      <c r="U159" s="42"/>
-      <c r="V159" s="43"/>
-      <c r="W159" s="42"/>
-      <c r="X159" s="43"/>
+      <c r="S159" s="43"/>
+      <c r="T159" s="44"/>
+      <c r="U159" s="43"/>
+      <c r="V159" s="44"/>
+      <c r="W159" s="43"/>
+      <c r="X159" s="44"/>
       <c r="Y159" s="11"/>
       <c r="Z159" s="13"/>
       <c r="AA159" s="11"/>
@@ -9827,12 +9836,12 @@
     <row r="160" spans="1:60" ht="18" customHeight="1">
       <c r="Q160" s="6"/>
       <c r="R160" s="11"/>
-      <c r="S160" s="42"/>
-      <c r="T160" s="43"/>
-      <c r="U160" s="42"/>
-      <c r="V160" s="43"/>
-      <c r="W160" s="42"/>
-      <c r="X160" s="43"/>
+      <c r="S160" s="43"/>
+      <c r="T160" s="44"/>
+      <c r="U160" s="43"/>
+      <c r="V160" s="44"/>
+      <c r="W160" s="43"/>
+      <c r="X160" s="44"/>
       <c r="Y160" s="11"/>
       <c r="Z160" s="13"/>
       <c r="AA160" s="11"/>
@@ -10445,11 +10454,11 @@
         <v>187</v>
       </c>
       <c r="X189" s="36"/>
-      <c r="Y189" s="44" t="s">
+      <c r="Y189" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="Z189" s="45"/>
-      <c r="AA189" s="46"/>
+      <c r="Z189" s="58"/>
+      <c r="AA189" s="59"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
@@ -10495,18 +10504,18 @@
       <c r="AH190" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AI190" s="42" t="s">
+      <c r="AI190" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="AJ190" s="43"/>
+      <c r="AJ190" s="44"/>
       <c r="AL190" s="40"/>
       <c r="AM190" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AN190" s="42" t="s">
+      <c r="AN190" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="AO190" s="43"/>
+      <c r="AO190" s="44"/>
       <c r="AP190" s="1"/>
       <c r="AQ190" s="7"/>
     </row>
@@ -10531,12 +10540,12 @@
       <c r="AE191" s="7"/>
       <c r="AG191" s="6"/>
       <c r="AH191" s="41"/>
-      <c r="AI191" s="42"/>
-      <c r="AJ191" s="43"/>
+      <c r="AI191" s="43"/>
+      <c r="AJ191" s="44"/>
       <c r="AL191" s="40"/>
       <c r="AM191" s="41"/>
-      <c r="AN191" s="42"/>
-      <c r="AO191" s="43"/>
+      <c r="AN191" s="43"/>
+      <c r="AO191" s="44"/>
       <c r="AP191" s="1"/>
       <c r="AQ191" s="7"/>
     </row>
@@ -10561,12 +10570,12 @@
       <c r="AE192" s="7"/>
       <c r="AG192" s="6"/>
       <c r="AH192" s="41"/>
-      <c r="AI192" s="42"/>
-      <c r="AJ192" s="43"/>
+      <c r="AI192" s="43"/>
+      <c r="AJ192" s="44"/>
       <c r="AL192" s="40"/>
       <c r="AM192" s="41"/>
-      <c r="AN192" s="42"/>
-      <c r="AO192" s="43"/>
+      <c r="AN192" s="43"/>
+      <c r="AO192" s="44"/>
       <c r="AP192" s="1"/>
       <c r="AQ192" s="7"/>
     </row>
@@ -10742,7 +10751,396 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="413">
+    <mergeCell ref="AP91:AW91"/>
+    <mergeCell ref="AI192:AJ192"/>
+    <mergeCell ref="Y189:AA189"/>
+    <mergeCell ref="S187:V187"/>
+    <mergeCell ref="AA187:AC187"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="U189:V189"/>
+    <mergeCell ref="AI190:AJ190"/>
+    <mergeCell ref="AI191:AJ191"/>
+    <mergeCell ref="AN190:AO190"/>
+    <mergeCell ref="AN191:AO191"/>
+    <mergeCell ref="AN192:AO192"/>
+    <mergeCell ref="AT102:AU102"/>
+    <mergeCell ref="AV102:AX102"/>
+    <mergeCell ref="Y153:Z153"/>
+    <mergeCell ref="AL159:AO159"/>
+    <mergeCell ref="AL161:AO161"/>
+    <mergeCell ref="S149:V149"/>
+    <mergeCell ref="Z149:AC149"/>
+    <mergeCell ref="S159:T159"/>
+    <mergeCell ref="U159:V159"/>
+    <mergeCell ref="W159:X159"/>
+    <mergeCell ref="S160:T160"/>
+    <mergeCell ref="U160:V160"/>
+    <mergeCell ref="W160:X160"/>
+    <mergeCell ref="AL152:AO152"/>
+    <mergeCell ref="AN137:AO137"/>
+    <mergeCell ref="AQ137:AR137"/>
+    <mergeCell ref="S156:T156"/>
+    <mergeCell ref="U156:V156"/>
+    <mergeCell ref="W156:X156"/>
+    <mergeCell ref="S157:T157"/>
+    <mergeCell ref="U157:V157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="U158:V158"/>
+    <mergeCell ref="W158:X158"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="AA153:AB153"/>
+    <mergeCell ref="AC153:AD153"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="U154:V154"/>
+    <mergeCell ref="W154:X154"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="AC138:AD138"/>
+    <mergeCell ref="AO129:AR129"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="AC133:AD133"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AG137:AH137"/>
+    <mergeCell ref="AG138:AH138"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="U138:V138"/>
+    <mergeCell ref="W138:X138"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="DL139:DM139"/>
+    <mergeCell ref="DJ141:DK141"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="AA130:AH130"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="Y131:Z131"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
+    <mergeCell ref="Y132:Z132"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
+    <mergeCell ref="Y133:Z133"/>
+    <mergeCell ref="U134:V134"/>
+    <mergeCell ref="W134:X134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="W135:X135"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="W137:X137"/>
+    <mergeCell ref="DL136:DM136"/>
+    <mergeCell ref="DD137:DE137"/>
+    <mergeCell ref="DF137:DH137"/>
+    <mergeCell ref="DI137:DK137"/>
+    <mergeCell ref="DL137:DM137"/>
+    <mergeCell ref="DD138:DE138"/>
+    <mergeCell ref="DF138:DH138"/>
+    <mergeCell ref="DI138:DK138"/>
+    <mergeCell ref="DL138:DM138"/>
+    <mergeCell ref="CU131:CV131"/>
+    <mergeCell ref="CU132:CV132"/>
+    <mergeCell ref="CS131:CT131"/>
+    <mergeCell ref="CS132:CT132"/>
+    <mergeCell ref="DD136:DE136"/>
+    <mergeCell ref="DF136:DH136"/>
+    <mergeCell ref="DI136:DK136"/>
+    <mergeCell ref="CD139:CE139"/>
+    <mergeCell ref="CG139:CH139"/>
+    <mergeCell ref="DD139:DE139"/>
+    <mergeCell ref="DF139:DH139"/>
+    <mergeCell ref="DI139:DK139"/>
+    <mergeCell ref="BG134:BH134"/>
+    <mergeCell ref="CN134:CO134"/>
+    <mergeCell ref="CQ134:CR134"/>
+    <mergeCell ref="BO133:BP133"/>
+    <mergeCell ref="BQ133:BR133"/>
+    <mergeCell ref="BS133:BT133"/>
+    <mergeCell ref="BO134:BP134"/>
+    <mergeCell ref="BQ134:BR134"/>
+    <mergeCell ref="BS134:BT134"/>
+    <mergeCell ref="CA112:CH112"/>
+    <mergeCell ref="AN106:AS106"/>
+    <mergeCell ref="BA132:BC132"/>
+    <mergeCell ref="AY131:AZ131"/>
+    <mergeCell ref="BA131:BC131"/>
+    <mergeCell ref="BD131:BF131"/>
+    <mergeCell ref="AY132:AZ132"/>
+    <mergeCell ref="BD132:BF132"/>
+    <mergeCell ref="AY133:AZ133"/>
+    <mergeCell ref="BA133:BC133"/>
+    <mergeCell ref="BD133:BF133"/>
+    <mergeCell ref="BZ116:CA116"/>
+    <mergeCell ref="CC116:CD116"/>
+    <mergeCell ref="BO131:BP131"/>
+    <mergeCell ref="BQ131:BR131"/>
+    <mergeCell ref="BS131:BT131"/>
+    <mergeCell ref="BO132:BP132"/>
+    <mergeCell ref="BQ132:BR132"/>
+    <mergeCell ref="BS132:BT132"/>
+    <mergeCell ref="BY112:BZ112"/>
+    <mergeCell ref="CB108:CI108"/>
+    <mergeCell ref="BY110:BZ110"/>
+    <mergeCell ref="BG131:BH131"/>
+    <mergeCell ref="BG132:BH132"/>
+    <mergeCell ref="BP136:BQ136"/>
+    <mergeCell ref="AE131:AF131"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AE133:AF133"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="W136:X136"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="AY134:AZ134"/>
+    <mergeCell ref="BA134:BC134"/>
+    <mergeCell ref="BD134:BF134"/>
+    <mergeCell ref="BA136:BB136"/>
+    <mergeCell ref="BD136:BE136"/>
+    <mergeCell ref="AG131:AH131"/>
+    <mergeCell ref="AG132:AH132"/>
+    <mergeCell ref="AG133:AH133"/>
+    <mergeCell ref="AG134:AH134"/>
+    <mergeCell ref="AG135:AH135"/>
+    <mergeCell ref="AG136:AH136"/>
+    <mergeCell ref="BG133:BH133"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="Z126:AB126"/>
+    <mergeCell ref="AD126:AE126"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD102:AH102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="AM102:AQ102"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI32:AO32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="CA110:CH110"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AN37:AO37"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="BI58:BJ58"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="BK49:BL49"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="BK50:BL50"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BI52:BJ52"/>
+    <mergeCell ref="BK52:BL52"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="BY108:CA108"/>
+    <mergeCell ref="BC74:BD74"/>
+    <mergeCell ref="BC75:BD75"/>
+    <mergeCell ref="BN78:BO78"/>
+    <mergeCell ref="BI53:BJ53"/>
+    <mergeCell ref="BK53:BL53"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AO38"/>
+    <mergeCell ref="S106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="AE106:AG106"/>
+    <mergeCell ref="AH106:AJ106"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="X48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="V91:Y91"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="BB73:BC73"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:AB66"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AB90:AG90"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AD93:AE93"/>
+    <mergeCell ref="AF93:AG93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AD94:AE94"/>
+    <mergeCell ref="AF94:AG94"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="V94:Y94"/>
+    <mergeCell ref="V93:Y93"/>
+    <mergeCell ref="BA66:BC66"/>
+    <mergeCell ref="BD66:BK66"/>
+    <mergeCell ref="BB70:BC70"/>
+    <mergeCell ref="BD70:BE70"/>
+    <mergeCell ref="BF70:BG70"/>
+    <mergeCell ref="BC71:BD71"/>
+    <mergeCell ref="BE71:BF71"/>
+    <mergeCell ref="BG71:BH71"/>
+    <mergeCell ref="BC72:BD72"/>
+    <mergeCell ref="BK56:BL56"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W34:Y34"/>
     <mergeCell ref="BP115:BQ115"/>
     <mergeCell ref="BH117:BI117"/>
     <mergeCell ref="BK117:BL117"/>
@@ -10767,394 +11165,6 @@
     <mergeCell ref="BI55:BJ55"/>
     <mergeCell ref="BK55:BL55"/>
     <mergeCell ref="BI56:BJ56"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="BK56:BL56"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="BA66:BC66"/>
-    <mergeCell ref="BD66:BK66"/>
-    <mergeCell ref="BB70:BC70"/>
-    <mergeCell ref="BD70:BE70"/>
-    <mergeCell ref="BF70:BG70"/>
-    <mergeCell ref="BC71:BD71"/>
-    <mergeCell ref="BE71:BF71"/>
-    <mergeCell ref="BG71:BH71"/>
-    <mergeCell ref="BC72:BD72"/>
-    <mergeCell ref="BB73:BC73"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:AB66"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="AB90:AG90"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="AF91:AG91"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AF93:AG93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AD94:AE94"/>
-    <mergeCell ref="AF94:AG94"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="V94:Y94"/>
-    <mergeCell ref="V93:Y93"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="V91:Y91"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="S106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="AE106:AG106"/>
-    <mergeCell ref="AH106:AJ106"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="X48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="CA110:CH110"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="BI58:BJ58"/>
-    <mergeCell ref="BH47:BI47"/>
-    <mergeCell ref="BJ47:BK47"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="BK49:BL49"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="BK50:BL50"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BI52:BJ52"/>
-    <mergeCell ref="BK52:BL52"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="BY108:CA108"/>
-    <mergeCell ref="BC74:BD74"/>
-    <mergeCell ref="BC75:BD75"/>
-    <mergeCell ref="BN78:BO78"/>
-    <mergeCell ref="BI53:BJ53"/>
-    <mergeCell ref="BK53:BL53"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="Z126:AB126"/>
-    <mergeCell ref="AD126:AE126"/>
-    <mergeCell ref="AA131:AB131"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD102:AH102"/>
-    <mergeCell ref="AK102:AL102"/>
-    <mergeCell ref="AM102:AQ102"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AI32:AO32"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="BP136:BQ136"/>
-    <mergeCell ref="AE131:AF131"/>
-    <mergeCell ref="AE132:AF132"/>
-    <mergeCell ref="AE133:AF133"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="AE135:AF135"/>
-    <mergeCell ref="AE136:AF136"/>
-    <mergeCell ref="W136:X136"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="Y130:Z130"/>
-    <mergeCell ref="U128:V128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="AY134:AZ134"/>
-    <mergeCell ref="BA134:BC134"/>
-    <mergeCell ref="BD134:BF134"/>
-    <mergeCell ref="BA136:BB136"/>
-    <mergeCell ref="BD136:BE136"/>
-    <mergeCell ref="AG131:AH131"/>
-    <mergeCell ref="AG132:AH132"/>
-    <mergeCell ref="AG133:AH133"/>
-    <mergeCell ref="AG134:AH134"/>
-    <mergeCell ref="AG135:AH135"/>
-    <mergeCell ref="AG136:AH136"/>
-    <mergeCell ref="BG133:BH133"/>
-    <mergeCell ref="CA112:CH112"/>
-    <mergeCell ref="AN106:AS106"/>
-    <mergeCell ref="BA132:BC132"/>
-    <mergeCell ref="AY131:AZ131"/>
-    <mergeCell ref="BA131:BC131"/>
-    <mergeCell ref="BD131:BF131"/>
-    <mergeCell ref="AY132:AZ132"/>
-    <mergeCell ref="BD132:BF132"/>
-    <mergeCell ref="AY133:AZ133"/>
-    <mergeCell ref="BA133:BC133"/>
-    <mergeCell ref="BD133:BF133"/>
-    <mergeCell ref="BZ116:CA116"/>
-    <mergeCell ref="CC116:CD116"/>
-    <mergeCell ref="BO131:BP131"/>
-    <mergeCell ref="BQ131:BR131"/>
-    <mergeCell ref="BS131:BT131"/>
-    <mergeCell ref="BO132:BP132"/>
-    <mergeCell ref="BQ132:BR132"/>
-    <mergeCell ref="BS132:BT132"/>
-    <mergeCell ref="BY112:BZ112"/>
-    <mergeCell ref="CB108:CI108"/>
-    <mergeCell ref="BY110:BZ110"/>
-    <mergeCell ref="BG131:BH131"/>
-    <mergeCell ref="BG132:BH132"/>
-    <mergeCell ref="BG134:BH134"/>
-    <mergeCell ref="CN134:CO134"/>
-    <mergeCell ref="CQ134:CR134"/>
-    <mergeCell ref="BO133:BP133"/>
-    <mergeCell ref="BQ133:BR133"/>
-    <mergeCell ref="BS133:BT133"/>
-    <mergeCell ref="BO134:BP134"/>
-    <mergeCell ref="BQ134:BR134"/>
-    <mergeCell ref="BS134:BT134"/>
-    <mergeCell ref="CU131:CV131"/>
-    <mergeCell ref="CU132:CV132"/>
-    <mergeCell ref="CS131:CT131"/>
-    <mergeCell ref="CS132:CT132"/>
-    <mergeCell ref="DD136:DE136"/>
-    <mergeCell ref="DF136:DH136"/>
-    <mergeCell ref="DI136:DK136"/>
-    <mergeCell ref="CD139:CE139"/>
-    <mergeCell ref="CG139:CH139"/>
-    <mergeCell ref="DD139:DE139"/>
-    <mergeCell ref="DF139:DH139"/>
-    <mergeCell ref="DI139:DK139"/>
-    <mergeCell ref="DL136:DM136"/>
-    <mergeCell ref="DD137:DE137"/>
-    <mergeCell ref="DF137:DH137"/>
-    <mergeCell ref="DI137:DK137"/>
-    <mergeCell ref="DL137:DM137"/>
-    <mergeCell ref="DD138:DE138"/>
-    <mergeCell ref="DF138:DH138"/>
-    <mergeCell ref="DI138:DK138"/>
-    <mergeCell ref="DL138:DM138"/>
-    <mergeCell ref="DL139:DM139"/>
-    <mergeCell ref="DJ141:DK141"/>
-    <mergeCell ref="U130:V130"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="AA130:AH130"/>
-    <mergeCell ref="U131:V131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="Y131:Z131"/>
-    <mergeCell ref="U132:V132"/>
-    <mergeCell ref="W132:X132"/>
-    <mergeCell ref="Y132:Z132"/>
-    <mergeCell ref="U133:V133"/>
-    <mergeCell ref="W133:X133"/>
-    <mergeCell ref="Y133:Z133"/>
-    <mergeCell ref="U134:V134"/>
-    <mergeCell ref="W134:X134"/>
-    <mergeCell ref="Y134:Z134"/>
-    <mergeCell ref="U135:V135"/>
-    <mergeCell ref="W135:X135"/>
-    <mergeCell ref="Y135:Z135"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="W137:X137"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="U138:V138"/>
-    <mergeCell ref="W138:X138"/>
-    <mergeCell ref="Y138:Z138"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="AA138:AB138"/>
-    <mergeCell ref="AC138:AD138"/>
-    <mergeCell ref="AO129:AR129"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AA132:AB132"/>
-    <mergeCell ref="AC132:AD132"/>
-    <mergeCell ref="AA133:AB133"/>
-    <mergeCell ref="AC133:AD133"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="AC134:AD134"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AG137:AH137"/>
-    <mergeCell ref="AG138:AH138"/>
-    <mergeCell ref="W158:X158"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="AA153:AB153"/>
-    <mergeCell ref="AC153:AD153"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="U154:V154"/>
-    <mergeCell ref="W154:X154"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="AT102:AU102"/>
-    <mergeCell ref="AV102:AX102"/>
-    <mergeCell ref="Y153:Z153"/>
-    <mergeCell ref="AL159:AO159"/>
-    <mergeCell ref="AL161:AO161"/>
-    <mergeCell ref="S149:V149"/>
-    <mergeCell ref="Z149:AC149"/>
-    <mergeCell ref="S159:T159"/>
-    <mergeCell ref="U159:V159"/>
-    <mergeCell ref="W159:X159"/>
-    <mergeCell ref="S160:T160"/>
-    <mergeCell ref="U160:V160"/>
-    <mergeCell ref="W160:X160"/>
-    <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="AN137:AO137"/>
-    <mergeCell ref="AQ137:AR137"/>
-    <mergeCell ref="S156:T156"/>
-    <mergeCell ref="U156:V156"/>
-    <mergeCell ref="W156:X156"/>
-    <mergeCell ref="S157:T157"/>
-    <mergeCell ref="U157:V157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="U158:V158"/>
-    <mergeCell ref="AI192:AJ192"/>
-    <mergeCell ref="Y189:AA189"/>
-    <mergeCell ref="S187:V187"/>
-    <mergeCell ref="AA187:AC187"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="U189:V189"/>
-    <mergeCell ref="AI190:AJ190"/>
-    <mergeCell ref="AI191:AJ191"/>
-    <mergeCell ref="AN190:AO190"/>
-    <mergeCell ref="AN191:AO191"/>
-    <mergeCell ref="AN192:AO192"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/通用测试平台.xlsx
+++ b/通用测试平台.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="292">
   <si>
     <t>组织管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1229,6 +1229,14 @@
   </si>
   <si>
     <t>环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1793,22 +1801,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1820,10 +1834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1832,16 +1843,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2366,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y100" workbookViewId="0">
+      <selection activeCell="BG123" sqref="BG123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18" customHeight="1"/>
@@ -2377,38 +2385,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:46" ht="18" customHeight="1">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="U1" s="46" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="U1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
     </row>
     <row r="2" spans="2:46" ht="18" customHeight="1">
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="30"/>
@@ -2575,18 +2583,18 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="55" t="s">
+      <c r="S10" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="55"/>
-      <c r="U10" s="48" t="s">
+      <c r="T10" s="56"/>
+      <c r="U10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48" t="s">
+      <c r="V10" s="43"/>
+      <c r="W10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="48"/>
+      <c r="X10" s="43"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2617,18 +2625,18 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="48" t="s">
+      <c r="T11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48" t="s">
+      <c r="U11" s="43"/>
+      <c r="V11" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48" t="s">
+      <c r="W11" s="43"/>
+      <c r="X11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="54"/>
+      <c r="Y11" s="55"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -2655,10 +2663,10 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="48" t="s">
+      <c r="T12" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="48"/>
+      <c r="U12" s="43"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -2688,10 +2696,10 @@
     <row r="13" spans="2:46" ht="18" customHeight="1">
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="48" t="s">
+      <c r="S13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="48"/>
+      <c r="T13" s="43"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -2729,10 +2737,10 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="48" t="s">
+      <c r="T14" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="48"/>
+      <c r="U14" s="43"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -2761,10 +2769,10 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="48" t="s">
+      <c r="T15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="48"/>
+      <c r="U15" s="43"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -2860,10 +2868,10 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="43" t="s">
+      <c r="AE18" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="44"/>
+      <c r="AF18" s="46"/>
       <c r="AG18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -3057,24 +3065,24 @@
     <row r="28" spans="2:46" ht="18" customHeight="1">
       <c r="Q28" s="6"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="48" t="s">
+      <c r="S28" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="T28" s="48"/>
-      <c r="U28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="44"/>
       <c r="V28" s="45"/>
-      <c r="W28" s="44"/>
+      <c r="W28" s="46"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="48" t="s">
+      <c r="Y28" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="44"/>
-      <c r="AD28" s="48" t="s">
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="46"/>
+      <c r="AD28" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AE28" s="48"/>
+      <c r="AE28" s="43"/>
       <c r="AF28" s="47"/>
       <c r="AG28" s="47"/>
       <c r="AH28" s="47"/>
@@ -3082,10 +3090,10 @@
         <v>54</v>
       </c>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="43" t="s">
+      <c r="AK28" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="AL28" s="44"/>
+      <c r="AL28" s="46"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -3212,37 +3220,37 @@
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="43" t="s">
+      <c r="S32" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="T32" s="44"/>
-      <c r="U32" s="43" t="s">
+      <c r="T32" s="46"/>
+      <c r="U32" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="V32" s="44"/>
-      <c r="W32" s="43" t="s">
+      <c r="V32" s="46"/>
+      <c r="W32" s="44" t="s">
         <v>16</v>
       </c>
       <c r="X32" s="45"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="43" t="s">
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="44" t="s">
         <v>17</v>
       </c>
       <c r="AA32" s="45"/>
-      <c r="AB32" s="44"/>
+      <c r="AB32" s="46"/>
       <c r="AC32" s="37" t="s">
         <v>22</v>
       </c>
       <c r="AD32" s="38"/>
-      <c r="AE32" s="43" t="s">
+      <c r="AE32" s="44" t="s">
         <v>28</v>
       </c>
       <c r="AF32" s="45"/>
-      <c r="AG32" s="43" t="s">
+      <c r="AG32" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="43" t="s">
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="44" t="s">
         <v>19</v>
       </c>
       <c r="AJ32" s="45"/>
@@ -3250,7 +3258,7 @@
       <c r="AL32" s="45"/>
       <c r="AM32" s="45"/>
       <c r="AN32" s="45"/>
-      <c r="AO32" s="44"/>
+      <c r="AO32" s="46"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
@@ -3263,39 +3271,39 @@
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="43" t="s">
+      <c r="S33" s="44"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="V33" s="44"/>
-      <c r="W33" s="43"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="44"/>
       <c r="X33" s="45"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="43"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="44"/>
       <c r="AA33" s="45"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="44"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="46"/>
       <c r="AE33" s="11"/>
       <c r="AF33" s="13"/>
-      <c r="AG33" s="43" t="s">
+      <c r="AG33" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="AH33" s="44"/>
-      <c r="AI33" s="43" t="s">
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="43" t="s">
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="44" t="s">
         <v>29</v>
       </c>
       <c r="AL33" s="45"/>
-      <c r="AM33" s="44"/>
-      <c r="AN33" s="43" t="s">
+      <c r="AM33" s="46"/>
+      <c r="AN33" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AO33" s="44"/>
+      <c r="AO33" s="46"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
@@ -3308,39 +3316,39 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="43" t="s">
+      <c r="S34" s="44"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="V34" s="44"/>
-      <c r="W34" s="43"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="44"/>
       <c r="X34" s="45"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="43"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="44"/>
       <c r="AA34" s="45"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="43"/>
-      <c r="AD34" s="44"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="46"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="13"/>
-      <c r="AG34" s="43" t="s">
+      <c r="AG34" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="AH34" s="44"/>
-      <c r="AI34" s="43" t="s">
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="43" t="s">
+      <c r="AJ34" s="46"/>
+      <c r="AK34" s="44" t="s">
         <v>29</v>
       </c>
       <c r="AL34" s="45"/>
-      <c r="AM34" s="44"/>
-      <c r="AN34" s="43" t="s">
+      <c r="AM34" s="46"/>
+      <c r="AN34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AO34" s="44"/>
+      <c r="AO34" s="46"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
@@ -3353,37 +3361,37 @@
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="43" t="s">
+      <c r="S35" s="44"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="44"/>
-      <c r="W35" s="43"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="44"/>
       <c r="X35" s="45"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="43"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="44"/>
       <c r="AA35" s="45"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="43"/>
-      <c r="AD35" s="44"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="46"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="13"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
-      <c r="AI35" s="43" t="s">
+      <c r="AI35" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AJ35" s="44"/>
-      <c r="AK35" s="43" t="s">
+      <c r="AJ35" s="46"/>
+      <c r="AK35" s="44" t="s">
         <v>29</v>
       </c>
       <c r="AL35" s="45"/>
-      <c r="AM35" s="44"/>
-      <c r="AN35" s="43" t="s">
+      <c r="AM35" s="46"/>
+      <c r="AN35" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AO35" s="44"/>
+      <c r="AO35" s="46"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
@@ -3396,12 +3404,12 @@
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="43" t="s">
+      <c r="S36" s="44"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="V36" s="44"/>
+      <c r="V36" s="46"/>
       <c r="W36" s="37"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="38"/>
@@ -3414,19 +3422,19 @@
       <c r="AF36" s="13"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
-      <c r="AI36" s="43" t="s">
+      <c r="AI36" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AJ36" s="44"/>
-      <c r="AK36" s="43" t="s">
+      <c r="AJ36" s="46"/>
+      <c r="AK36" s="44" t="s">
         <v>29</v>
       </c>
       <c r="AL36" s="45"/>
-      <c r="AM36" s="44"/>
-      <c r="AN36" s="43" t="s">
+      <c r="AM36" s="46"/>
+      <c r="AN36" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AO36" s="44"/>
+      <c r="AO36" s="46"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
@@ -3439,37 +3447,37 @@
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="43" t="s">
+      <c r="S37" s="44"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="V37" s="44"/>
-      <c r="W37" s="43"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="44"/>
       <c r="X37" s="45"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="43"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="44"/>
       <c r="AA37" s="45"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="43"/>
-      <c r="AD37" s="44"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="46"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="13"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
-      <c r="AI37" s="43" t="s">
+      <c r="AI37" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="43" t="s">
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="44" t="s">
         <v>29</v>
       </c>
       <c r="AL37" s="45"/>
-      <c r="AM37" s="44"/>
-      <c r="AN37" s="43" t="s">
+      <c r="AM37" s="46"/>
+      <c r="AN37" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AO37" s="44"/>
+      <c r="AO37" s="46"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
@@ -3479,29 +3487,29 @@
     <row r="38" spans="2:67" ht="18" customHeight="1">
       <c r="Q38" s="6"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="43"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="44"/>
       <c r="X38" s="45"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="43"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="44"/>
       <c r="AA38" s="45"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="43"/>
-      <c r="AD38" s="44"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="46"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="13"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="43"/>
-      <c r="AJ38" s="44"/>
-      <c r="AK38" s="43"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="46"/>
+      <c r="AK38" s="44"/>
       <c r="AL38" s="45"/>
-      <c r="AM38" s="44"/>
-      <c r="AN38" s="43"/>
-      <c r="AO38" s="44"/>
+      <c r="AM38" s="46"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="46"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
@@ -3936,15 +3944,15 @@
       <c r="AN51" s="6"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
-      <c r="AQ51" s="43" t="s">
+      <c r="AQ51" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AR51" s="44"/>
+      <c r="AR51" s="46"/>
       <c r="AS51" s="1"/>
-      <c r="AT51" s="43" t="s">
+      <c r="AT51" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AU51" s="44"/>
+      <c r="AU51" s="46"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
@@ -4236,10 +4244,10 @@
       <c r="BF58" s="6"/>
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
-      <c r="BI58" s="43" t="s">
+      <c r="BI58" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="BJ58" s="44"/>
+      <c r="BJ58" s="46"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
       <c r="BM58" s="1"/>
@@ -4402,21 +4410,21 @@
         <v>134</v>
       </c>
       <c r="Q66" s="6"/>
-      <c r="R66" s="48" t="s">
+      <c r="R66" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="S66" s="48"/>
-      <c r="T66" s="48"/>
-      <c r="U66" s="49" t="s">
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="V66" s="50"/>
-      <c r="W66" s="50"/>
-      <c r="X66" s="50"/>
-      <c r="Y66" s="50"/>
-      <c r="Z66" s="50"/>
-      <c r="AA66" s="50"/>
-      <c r="AB66" s="51"/>
+      <c r="V66" s="52"/>
+      <c r="W66" s="52"/>
+      <c r="X66" s="52"/>
+      <c r="Y66" s="52"/>
+      <c r="Z66" s="52"/>
+      <c r="AA66" s="52"/>
+      <c r="AB66" s="53"/>
       <c r="AC66" s="16" t="s">
         <v>54</v>
       </c>
@@ -4425,10 +4433,10 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="43" t="s">
+      <c r="AI66" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="AJ66" s="44"/>
+      <c r="AJ66" s="46"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
@@ -4444,21 +4452,21 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="7"/>
       <c r="AZ66" s="6"/>
-      <c r="BA66" s="48" t="s">
+      <c r="BA66" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BB66" s="48"/>
-      <c r="BC66" s="48"/>
-      <c r="BD66" s="49" t="s">
+      <c r="BB66" s="43"/>
+      <c r="BC66" s="43"/>
+      <c r="BD66" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="BE66" s="50"/>
-      <c r="BF66" s="50"/>
-      <c r="BG66" s="50"/>
-      <c r="BH66" s="50"/>
-      <c r="BI66" s="50"/>
-      <c r="BJ66" s="50"/>
-      <c r="BK66" s="51"/>
+      <c r="BE66" s="52"/>
+      <c r="BF66" s="52"/>
+      <c r="BG66" s="52"/>
+      <c r="BH66" s="52"/>
+      <c r="BI66" s="52"/>
+      <c r="BJ66" s="52"/>
+      <c r="BK66" s="53"/>
       <c r="BL66" s="16" t="s">
         <v>54</v>
       </c>
@@ -4710,18 +4718,18 @@
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="53" t="s">
+      <c r="S70" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="T70" s="53"/>
-      <c r="U70" s="48" t="s">
+      <c r="T70" s="58"/>
+      <c r="U70" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="V70" s="48"/>
-      <c r="W70" s="48" t="s">
+      <c r="V70" s="43"/>
+      <c r="W70" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="X70" s="48"/>
+      <c r="X70" s="43"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -4750,18 +4758,18 @@
       <c r="AX70" s="7"/>
       <c r="AZ70" s="6"/>
       <c r="BA70" s="6"/>
-      <c r="BB70" s="55" t="s">
+      <c r="BB70" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="BC70" s="55"/>
-      <c r="BD70" s="48" t="s">
+      <c r="BC70" s="56"/>
+      <c r="BD70" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="BE70" s="48"/>
-      <c r="BF70" s="48" t="s">
+      <c r="BE70" s="43"/>
+      <c r="BF70" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="BG70" s="48"/>
+      <c r="BG70" s="43"/>
       <c r="BH70" s="7"/>
       <c r="BI70" s="1"/>
       <c r="BJ70" s="1"/>
@@ -4796,18 +4804,18 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="48" t="s">
+      <c r="T71" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="48"/>
-      <c r="V71" s="48" t="s">
+      <c r="U71" s="43"/>
+      <c r="V71" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="W71" s="48"/>
-      <c r="X71" s="48" t="s">
+      <c r="W71" s="43"/>
+      <c r="X71" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Y71" s="54"/>
+      <c r="Y71" s="55"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
@@ -4838,18 +4846,18 @@
       <c r="AZ71" s="6"/>
       <c r="BA71" s="6"/>
       <c r="BB71" s="1"/>
-      <c r="BC71" s="48" t="s">
+      <c r="BC71" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="BD71" s="48"/>
-      <c r="BE71" s="48" t="s">
+      <c r="BD71" s="43"/>
+      <c r="BE71" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="BF71" s="48"/>
-      <c r="BG71" s="48" t="s">
+      <c r="BF71" s="43"/>
+      <c r="BG71" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="BH71" s="54"/>
+      <c r="BH71" s="55"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
@@ -4885,10 +4893,10 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="48" t="s">
+      <c r="T72" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="48"/>
+      <c r="U72" s="43"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
@@ -4923,10 +4931,10 @@
       <c r="AZ72" s="6"/>
       <c r="BA72" s="6"/>
       <c r="BB72" s="1"/>
-      <c r="BC72" s="48" t="s">
+      <c r="BC72" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="BD72" s="48"/>
+      <c r="BD72" s="43"/>
       <c r="BE72" s="1"/>
       <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
@@ -4962,10 +4970,10 @@
     <row r="73" spans="3:85" ht="18" customHeight="1">
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="S73" s="48" t="s">
+      <c r="S73" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="T73" s="48"/>
+      <c r="T73" s="43"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -5002,10 +5010,10 @@
       <c r="AX73" s="7"/>
       <c r="AZ73" s="6"/>
       <c r="BA73" s="6"/>
-      <c r="BB73" s="48" t="s">
+      <c r="BB73" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="BC73" s="48"/>
+      <c r="BC73" s="43"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
       <c r="BF73" s="1"/>
@@ -5049,10 +5057,10 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="48" t="s">
+      <c r="T74" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="U74" s="48"/>
+      <c r="U74" s="43"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
@@ -5085,10 +5093,10 @@
       <c r="AZ74" s="6"/>
       <c r="BA74" s="6"/>
       <c r="BB74" s="1"/>
-      <c r="BC74" s="48" t="s">
+      <c r="BC74" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="BD74" s="48"/>
+      <c r="BD74" s="43"/>
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
       <c r="BG74" s="1"/>
@@ -5123,10 +5131,10 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="48" t="s">
+      <c r="T75" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="U75" s="48"/>
+      <c r="U75" s="43"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
@@ -5159,10 +5167,10 @@
       <c r="AZ75" s="6"/>
       <c r="BA75" s="6"/>
       <c r="BB75" s="1"/>
-      <c r="BC75" s="48" t="s">
+      <c r="BC75" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="BD75" s="48"/>
+      <c r="BD75" s="43"/>
       <c r="BE75" s="1"/>
       <c r="BF75" s="1"/>
       <c r="BG75" s="1"/>
@@ -5348,10 +5356,10 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
-      <c r="AE78" s="43" t="s">
+      <c r="AE78" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AF78" s="44"/>
+      <c r="AF78" s="46"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
@@ -5384,10 +5392,10 @@
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
       <c r="BM78" s="1"/>
-      <c r="BN78" s="43" t="s">
+      <c r="BN78" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="BO78" s="44"/>
+      <c r="BO78" s="46"/>
       <c r="BP78" s="1"/>
       <c r="BQ78" s="1"/>
       <c r="BR78" s="1"/>
@@ -5737,21 +5745,21 @@
     <row r="88" spans="2:85" ht="18" customHeight="1">
       <c r="Q88" s="6"/>
       <c r="R88" s="1"/>
-      <c r="S88" s="48" t="s">
+      <c r="S88" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="T88" s="48"/>
-      <c r="U88" s="48"/>
-      <c r="V88" s="49" t="s">
+      <c r="T88" s="43"/>
+      <c r="U88" s="43"/>
+      <c r="V88" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="W88" s="50"/>
-      <c r="X88" s="50"/>
-      <c r="Y88" s="50"/>
-      <c r="Z88" s="50"/>
-      <c r="AA88" s="50"/>
-      <c r="AB88" s="50"/>
-      <c r="AC88" s="51"/>
+      <c r="W88" s="52"/>
+      <c r="X88" s="52"/>
+      <c r="Y88" s="52"/>
+      <c r="Z88" s="52"/>
+      <c r="AA88" s="52"/>
+      <c r="AB88" s="52"/>
+      <c r="AC88" s="53"/>
       <c r="AD88" s="16" t="s">
         <v>54</v>
       </c>
@@ -5813,11 +5821,11 @@
       <c r="AQ89" s="1"/>
       <c r="AR89" s="1"/>
       <c r="AS89" s="1"/>
-      <c r="AT89" s="1"/>
-      <c r="AU89" s="1"/>
-      <c r="AV89" s="1"/>
-      <c r="AW89" s="1"/>
-      <c r="AX89" s="1"/>
+      <c r="AT89" s="11"/>
+      <c r="AU89" s="12"/>
+      <c r="AV89" s="12"/>
+      <c r="AW89" s="12"/>
+      <c r="AX89" s="13"/>
       <c r="AY89" s="1"/>
       <c r="AZ89" s="1"/>
       <c r="BA89" s="1"/>
@@ -5834,12 +5842,14 @@
       </c>
       <c r="T90" s="47"/>
       <c r="U90" s="47"/>
-      <c r="V90" s="43" t="s">
+      <c r="V90" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="W90" s="46"/>
+      <c r="X90" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="W90" s="45"/>
-      <c r="X90" s="45"/>
-      <c r="Y90" s="44"/>
+      <c r="Y90" s="46"/>
       <c r="Z90" s="47" t="s">
         <v>76</v>
       </c>
@@ -5856,21 +5866,21 @@
       <c r="AI90" s="7"/>
       <c r="AM90" s="6"/>
       <c r="AN90" s="1"/>
-      <c r="AO90" s="48" t="s">
+      <c r="AO90" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="AP90" s="48"/>
-      <c r="AQ90" s="48"/>
-      <c r="AR90" s="49" t="s">
+      <c r="AP90" s="43"/>
+      <c r="AQ90" s="43"/>
+      <c r="AR90" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="AS90" s="50"/>
-      <c r="AT90" s="50"/>
-      <c r="AU90" s="50"/>
-      <c r="AV90" s="50"/>
-      <c r="AW90" s="50"/>
-      <c r="AX90" s="50"/>
-      <c r="AY90" s="51"/>
+      <c r="AS90" s="52"/>
+      <c r="AT90" s="52"/>
+      <c r="AU90" s="52"/>
+      <c r="AV90" s="52"/>
+      <c r="AW90" s="52"/>
+      <c r="AX90" s="52"/>
+      <c r="AY90" s="53"/>
       <c r="AZ90" s="25" t="s">
         <v>54</v>
       </c>
@@ -5888,24 +5898,24 @@
       </c>
       <c r="T91" s="47"/>
       <c r="U91" s="47"/>
-      <c r="V91" s="43"/>
-      <c r="W91" s="45"/>
-      <c r="X91" s="45"/>
-      <c r="Y91" s="44"/>
-      <c r="Z91" s="43"/>
-      <c r="AA91" s="44"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="46"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="46"/>
+      <c r="Z91" s="44"/>
+      <c r="AA91" s="46"/>
       <c r="AB91" s="47" t="s">
         <v>7</v>
       </c>
       <c r="AC91" s="47"/>
-      <c r="AD91" s="43" t="s">
+      <c r="AD91" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AE91" s="44"/>
-      <c r="AF91" s="43" t="s">
+      <c r="AE91" s="46"/>
+      <c r="AF91" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="AG91" s="44"/>
+      <c r="AG91" s="46"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="7"/>
       <c r="AM91" s="6"/>
@@ -5913,16 +5923,16 @@
       <c r="AO91" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AP91" s="49" t="s">
+      <c r="AP91" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="AQ91" s="50"/>
-      <c r="AR91" s="50"/>
-      <c r="AS91" s="50"/>
-      <c r="AT91" s="50"/>
-      <c r="AU91" s="50"/>
-      <c r="AV91" s="50"/>
-      <c r="AW91" s="51"/>
+      <c r="AQ91" s="52"/>
+      <c r="AR91" s="52"/>
+      <c r="AS91" s="52"/>
+      <c r="AT91" s="52"/>
+      <c r="AU91" s="52"/>
+      <c r="AV91" s="52"/>
+      <c r="AW91" s="53"/>
       <c r="AX91" s="42" t="s">
         <v>54</v>
       </c>
@@ -5942,18 +5952,18 @@
       </c>
       <c r="T92" s="47"/>
       <c r="U92" s="47"/>
-      <c r="V92" s="43"/>
-      <c r="W92" s="45"/>
-      <c r="X92" s="45"/>
-      <c r="Y92" s="44"/>
-      <c r="Z92" s="43"/>
-      <c r="AA92" s="44"/>
+      <c r="V92" s="44"/>
+      <c r="W92" s="46"/>
+      <c r="X92" s="44"/>
+      <c r="Y92" s="46"/>
+      <c r="Z92" s="44"/>
+      <c r="AA92" s="46"/>
       <c r="AB92" s="47"/>
       <c r="AC92" s="47"/>
-      <c r="AD92" s="43"/>
-      <c r="AE92" s="44"/>
-      <c r="AF92" s="43"/>
-      <c r="AG92" s="44"/>
+      <c r="AD92" s="44"/>
+      <c r="AE92" s="46"/>
+      <c r="AF92" s="44"/>
+      <c r="AG92" s="46"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="7"/>
       <c r="AM92" s="6"/>
@@ -5986,18 +5996,18 @@
       </c>
       <c r="T93" s="47"/>
       <c r="U93" s="47"/>
-      <c r="V93" s="43"/>
-      <c r="W93" s="45"/>
-      <c r="X93" s="45"/>
-      <c r="Y93" s="44"/>
-      <c r="Z93" s="43"/>
-      <c r="AA93" s="44"/>
+      <c r="V93" s="44"/>
+      <c r="W93" s="46"/>
+      <c r="X93" s="44"/>
+      <c r="Y93" s="46"/>
+      <c r="Z93" s="44"/>
+      <c r="AA93" s="46"/>
       <c r="AB93" s="47"/>
       <c r="AC93" s="47"/>
-      <c r="AD93" s="43"/>
-      <c r="AE93" s="44"/>
-      <c r="AF93" s="43"/>
-      <c r="AG93" s="44"/>
+      <c r="AD93" s="44"/>
+      <c r="AE93" s="46"/>
+      <c r="AF93" s="44"/>
+      <c r="AG93" s="46"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="7"/>
       <c r="AM93" s="6"/>
@@ -6023,37 +6033,37 @@
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="52" t="s">
+      <c r="S94" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="T94" s="52"/>
-      <c r="U94" s="52"/>
-      <c r="V94" s="43"/>
-      <c r="W94" s="45"/>
-      <c r="X94" s="45"/>
-      <c r="Y94" s="44"/>
-      <c r="Z94" s="43"/>
-      <c r="AA94" s="44"/>
+      <c r="T94" s="59"/>
+      <c r="U94" s="59"/>
+      <c r="V94" s="44"/>
+      <c r="W94" s="46"/>
+      <c r="X94" s="44"/>
+      <c r="Y94" s="46"/>
+      <c r="Z94" s="44"/>
+      <c r="AA94" s="46"/>
       <c r="AB94" s="47"/>
       <c r="AC94" s="47"/>
-      <c r="AD94" s="43"/>
-      <c r="AE94" s="44"/>
-      <c r="AF94" s="43"/>
-      <c r="AG94" s="44"/>
+      <c r="AD94" s="44"/>
+      <c r="AE94" s="46"/>
+      <c r="AF94" s="44"/>
+      <c r="AG94" s="46"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="7"/>
       <c r="AM94" s="6"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
-      <c r="AP94" s="43" t="s">
+      <c r="AP94" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="AQ94" s="44"/>
+      <c r="AQ94" s="46"/>
       <c r="AR94" s="1"/>
-      <c r="AS94" s="43" t="s">
+      <c r="AS94" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AT94" s="44"/>
+      <c r="AT94" s="46"/>
       <c r="AU94" s="1"/>
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
@@ -6238,12 +6248,12 @@
         <v>120</v>
       </c>
       <c r="Q102" s="6"/>
-      <c r="R102" s="48" t="s">
+      <c r="R102" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="S102" s="48"/>
-      <c r="T102" s="48"/>
-      <c r="U102" s="43" t="s">
+      <c r="S102" s="43"/>
+      <c r="T102" s="43"/>
+      <c r="U102" s="44" t="s">
         <v>86</v>
       </c>
       <c r="V102" s="45"/>
@@ -6258,7 +6268,7 @@
         <v>85</v>
       </c>
       <c r="AC102" s="28"/>
-      <c r="AD102" s="43" t="s">
+      <c r="AD102" s="44" t="s">
         <v>55</v>
       </c>
       <c r="AE102" s="45"/>
@@ -6268,11 +6278,11 @@
       <c r="AI102" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AK102" s="48" t="s">
+      <c r="AK102" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="AL102" s="54"/>
-      <c r="AM102" s="43" t="s">
+      <c r="AL102" s="55"/>
+      <c r="AM102" s="44" t="s">
         <v>55</v>
       </c>
       <c r="AN102" s="45"/>
@@ -6283,17 +6293,17 @@
         <v>54</v>
       </c>
       <c r="AS102" s="1"/>
-      <c r="AT102" s="48" t="s">
+      <c r="AT102" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="AU102" s="48"/>
-      <c r="AV102" s="43"/>
+      <c r="AU102" s="43"/>
+      <c r="AV102" s="44"/>
       <c r="AW102" s="45"/>
-      <c r="AX102" s="44"/>
-      <c r="AZ102" s="43" t="s">
+      <c r="AX102" s="46"/>
+      <c r="AZ102" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="BA102" s="44"/>
+      <c r="BA102" s="46"/>
       <c r="BB102" s="1"/>
       <c r="BC102" s="7"/>
       <c r="BE102" s="6"/>
@@ -6418,20 +6428,20 @@
         <v>147</v>
       </c>
       <c r="Q104" s="6"/>
-      <c r="R104" s="43" t="s">
+      <c r="R104" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="S104" s="44"/>
+      <c r="S104" s="46"/>
       <c r="T104" s="1"/>
-      <c r="U104" s="43" t="s">
+      <c r="U104" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="V104" s="44"/>
+      <c r="V104" s="46"/>
       <c r="W104" s="1"/>
-      <c r="X104" s="43" t="s">
+      <c r="X104" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="Y104" s="44"/>
+      <c r="Y104" s="46"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
@@ -6593,49 +6603,49 @@
       <c r="R106" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S106" s="43" t="s">
+      <c r="S106" s="44" t="s">
         <v>82</v>
       </c>
       <c r="T106" s="45"/>
       <c r="U106" s="45"/>
-      <c r="V106" s="44"/>
-      <c r="W106" s="43" t="s">
+      <c r="V106" s="46"/>
+      <c r="W106" s="44" t="s">
         <v>83</v>
       </c>
       <c r="X106" s="45"/>
-      <c r="Y106" s="44"/>
-      <c r="Z106" s="43" t="s">
+      <c r="Y106" s="46"/>
+      <c r="Z106" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="AA106" s="44"/>
-      <c r="AB106" s="43" t="s">
+      <c r="AA106" s="46"/>
+      <c r="AB106" s="44" t="s">
         <v>88</v>
       </c>
       <c r="AC106" s="45"/>
-      <c r="AD106" s="44"/>
-      <c r="AE106" s="43" t="s">
+      <c r="AD106" s="46"/>
+      <c r="AE106" s="44" t="s">
         <v>85</v>
       </c>
       <c r="AF106" s="45"/>
-      <c r="AG106" s="44"/>
-      <c r="AH106" s="43" t="s">
+      <c r="AG106" s="46"/>
+      <c r="AH106" s="44" t="s">
         <v>87</v>
       </c>
       <c r="AI106" s="45"/>
-      <c r="AJ106" s="44"/>
-      <c r="AK106" s="43" t="s">
+      <c r="AJ106" s="46"/>
+      <c r="AK106" s="44" t="s">
         <v>152</v>
       </c>
       <c r="AL106" s="45"/>
-      <c r="AM106" s="44"/>
-      <c r="AN106" s="43" t="s">
+      <c r="AM106" s="46"/>
+      <c r="AN106" s="44" t="s">
         <v>161</v>
       </c>
       <c r="AO106" s="45"/>
       <c r="AP106" s="45"/>
       <c r="AQ106" s="45"/>
       <c r="AR106" s="45"/>
-      <c r="AS106" s="44"/>
+      <c r="AS106" s="46"/>
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
       <c r="AV106" s="1"/>
@@ -6743,7 +6753,7 @@
       </c>
       <c r="BK107" s="1"/>
       <c r="BL107" s="1"/>
-      <c r="BM107" s="43" t="s">
+      <c r="BM107" s="44" t="s">
         <v>55</v>
       </c>
       <c r="BN107" s="45"/>
@@ -6847,21 +6857,21 @@
       <c r="BU108" s="1"/>
       <c r="BV108" s="7"/>
       <c r="BX108" s="6"/>
-      <c r="BY108" s="48" t="s">
+      <c r="BY108" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="BZ108" s="48"/>
-      <c r="CA108" s="48"/>
-      <c r="CB108" s="49" t="s">
+      <c r="BZ108" s="43"/>
+      <c r="CA108" s="43"/>
+      <c r="CB108" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="CC108" s="50"/>
-      <c r="CD108" s="50"/>
-      <c r="CE108" s="50"/>
-      <c r="CF108" s="50"/>
-      <c r="CG108" s="50"/>
-      <c r="CH108" s="50"/>
-      <c r="CI108" s="51"/>
+      <c r="CC108" s="52"/>
+      <c r="CD108" s="52"/>
+      <c r="CE108" s="52"/>
+      <c r="CF108" s="52"/>
+      <c r="CG108" s="52"/>
+      <c r="CH108" s="52"/>
+      <c r="CI108" s="53"/>
       <c r="CJ108" s="16" t="s">
         <v>54</v>
       </c>
@@ -7011,20 +7021,20 @@
       <c r="BU110" s="1"/>
       <c r="BV110" s="7"/>
       <c r="BX110" s="6"/>
-      <c r="BY110" s="48" t="s">
+      <c r="BY110" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="BZ110" s="54"/>
-      <c r="CA110" s="49" t="s">
+      <c r="BZ110" s="55"/>
+      <c r="CA110" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="CB110" s="50"/>
-      <c r="CC110" s="50"/>
-      <c r="CD110" s="50"/>
-      <c r="CE110" s="50"/>
-      <c r="CF110" s="50"/>
-      <c r="CG110" s="50"/>
-      <c r="CH110" s="51"/>
+      <c r="CB110" s="52"/>
+      <c r="CC110" s="52"/>
+      <c r="CD110" s="52"/>
+      <c r="CE110" s="52"/>
+      <c r="CF110" s="52"/>
+      <c r="CG110" s="52"/>
+      <c r="CH110" s="53"/>
       <c r="CI110" s="16" t="s">
         <v>54</v>
       </c>
@@ -7161,7 +7171,7 @@
       <c r="BC112" s="7"/>
       <c r="BE112" s="6"/>
       <c r="BF112" s="1" t="s">
-        <v>104</v>
+        <v>291</v>
       </c>
       <c r="BG112" s="1"/>
       <c r="BH112" s="1"/>
@@ -7180,20 +7190,20 @@
       <c r="BU112" s="1"/>
       <c r="BV112" s="7"/>
       <c r="BX112" s="6"/>
-      <c r="BY112" s="48" t="s">
+      <c r="BY112" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="BZ112" s="54"/>
-      <c r="CA112" s="49" t="s">
+      <c r="BZ112" s="55"/>
+      <c r="CA112" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="CB112" s="50"/>
-      <c r="CC112" s="50"/>
-      <c r="CD112" s="50"/>
-      <c r="CE112" s="50"/>
-      <c r="CF112" s="50"/>
-      <c r="CG112" s="50"/>
-      <c r="CH112" s="51"/>
+      <c r="CB112" s="52"/>
+      <c r="CC112" s="52"/>
+      <c r="CD112" s="52"/>
+      <c r="CE112" s="52"/>
+      <c r="CF112" s="52"/>
+      <c r="CG112" s="52"/>
+      <c r="CH112" s="53"/>
       <c r="CI112" s="26" t="s">
         <v>54</v>
       </c>
@@ -7442,10 +7452,10 @@
       <c r="BM115" s="8"/>
       <c r="BN115" s="2"/>
       <c r="BO115" s="9"/>
-      <c r="BP115" s="43" t="s">
+      <c r="BP115" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="BQ115" s="44"/>
+      <c r="BQ115" s="46"/>
       <c r="BR115" s="1"/>
       <c r="BS115" s="1"/>
       <c r="BT115" s="1"/>
@@ -7523,15 +7533,15 @@
       <c r="BV116" s="7"/>
       <c r="BX116" s="6"/>
       <c r="BY116" s="1"/>
-      <c r="BZ116" s="43" t="s">
+      <c r="BZ116" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="CA116" s="44"/>
+      <c r="CA116" s="46"/>
       <c r="CB116" s="1"/>
-      <c r="CC116" s="43" t="s">
+      <c r="CC116" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="CD116" s="44"/>
+      <c r="CD116" s="46"/>
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
       <c r="CG116" s="1"/>
@@ -7587,14 +7597,14 @@
       <c r="BB117" s="1"/>
       <c r="BC117" s="7"/>
       <c r="BE117" s="6"/>
-      <c r="BH117" s="43" t="s">
+      <c r="BH117" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="BI117" s="44"/>
-      <c r="BK117" s="43" t="s">
+      <c r="BI117" s="46"/>
+      <c r="BK117" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="BL117" s="44"/>
+      <c r="BL117" s="46"/>
       <c r="BR117" s="1"/>
       <c r="BS117" s="1"/>
       <c r="BT117" s="1"/>
@@ -7821,10 +7831,10 @@
       <c r="AA126" s="47"/>
       <c r="AB126" s="47"/>
       <c r="AC126" s="1"/>
-      <c r="AD126" s="43" t="s">
+      <c r="AD126" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="AE126" s="44"/>
+      <c r="AE126" s="46"/>
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
@@ -8129,23 +8139,23 @@
       <c r="R130" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="S130" s="43" t="s">
+      <c r="S130" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="T130" s="44"/>
-      <c r="U130" s="43" t="s">
+      <c r="T130" s="46"/>
+      <c r="U130" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="V130" s="44"/>
-      <c r="W130" s="43" t="s">
+      <c r="V130" s="46"/>
+      <c r="W130" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="X130" s="44"/>
-      <c r="Y130" s="43" t="s">
+      <c r="X130" s="46"/>
+      <c r="Y130" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="Z130" s="44"/>
-      <c r="AA130" s="43" t="s">
+      <c r="Z130" s="46"/>
+      <c r="AA130" s="44" t="s">
         <v>167</v>
       </c>
       <c r="AB130" s="45"/>
@@ -8154,7 +8164,7 @@
       <c r="AE130" s="45"/>
       <c r="AF130" s="45"/>
       <c r="AG130" s="45"/>
-      <c r="AH130" s="44"/>
+      <c r="AH130" s="46"/>
       <c r="AI130" s="7"/>
       <c r="AL130" s="6"/>
       <c r="AV130" s="6"/>
@@ -8237,16 +8247,16 @@
     <row r="131" spans="4:119" ht="18" customHeight="1">
       <c r="Q131" s="6"/>
       <c r="R131" s="15"/>
-      <c r="S131" s="43"/>
-      <c r="T131" s="44"/>
-      <c r="U131" s="43"/>
-      <c r="V131" s="44" t="s">
+      <c r="S131" s="44"/>
+      <c r="T131" s="46"/>
+      <c r="U131" s="44"/>
+      <c r="V131" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="W131" s="43"/>
-      <c r="X131" s="44"/>
-      <c r="Y131" s="43"/>
-      <c r="Z131" s="44" t="s">
+      <c r="W131" s="44"/>
+      <c r="X131" s="46"/>
+      <c r="Y131" s="44"/>
+      <c r="Z131" s="46" t="s">
         <v>168</v>
       </c>
       <c r="AA131" s="47" t="s">
@@ -8292,27 +8302,27 @@
       </c>
       <c r="BE131" s="47"/>
       <c r="BF131" s="47"/>
-      <c r="BG131" s="43" t="s">
+      <c r="BG131" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="BH131" s="44"/>
+      <c r="BH131" s="46"/>
       <c r="BI131" s="1"/>
       <c r="BJ131" s="1"/>
       <c r="BK131" s="7"/>
       <c r="BM131" s="6"/>
       <c r="BN131" s="1"/>
-      <c r="BO131" s="43" t="s">
+      <c r="BO131" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="BP131" s="44"/>
-      <c r="BQ131" s="43" t="s">
+      <c r="BP131" s="46"/>
+      <c r="BQ131" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="BR131" s="44"/>
-      <c r="BS131" s="43" t="s">
+      <c r="BR131" s="46"/>
+      <c r="BS131" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="BT131" s="44"/>
+      <c r="BT131" s="46"/>
       <c r="BU131" s="1"/>
       <c r="BV131" s="1"/>
       <c r="BW131" s="1"/>
@@ -8335,12 +8345,12 @@
       <c r="CP131" s="9"/>
       <c r="CQ131" s="8"/>
       <c r="CR131" s="9"/>
-      <c r="CS131" s="43"/>
-      <c r="CT131" s="44"/>
-      <c r="CU131" s="43" t="s">
+      <c r="CS131" s="44"/>
+      <c r="CT131" s="46"/>
+      <c r="CU131" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="CV131" s="44"/>
+      <c r="CV131" s="46"/>
       <c r="CW131" s="1"/>
       <c r="CX131" s="1"/>
       <c r="CY131" s="7"/>
@@ -8366,16 +8376,16 @@
       </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="15"/>
-      <c r="S132" s="43"/>
-      <c r="T132" s="44"/>
-      <c r="U132" s="43"/>
-      <c r="V132" s="44" t="s">
+      <c r="S132" s="44"/>
+      <c r="T132" s="46"/>
+      <c r="U132" s="44"/>
+      <c r="V132" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="W132" s="43"/>
-      <c r="X132" s="44"/>
-      <c r="Y132" s="43"/>
-      <c r="Z132" s="44"/>
+      <c r="W132" s="44"/>
+      <c r="X132" s="46"/>
+      <c r="Y132" s="44"/>
+      <c r="Z132" s="46"/>
       <c r="AA132" s="47"/>
       <c r="AB132" s="47"/>
       <c r="AC132" s="47"/>
@@ -8400,32 +8410,32 @@
         <v>1</v>
       </c>
       <c r="AZ132" s="47"/>
-      <c r="BA132" s="56" t="s">
+      <c r="BA132" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="BB132" s="56"/>
-      <c r="BC132" s="56"/>
+      <c r="BB132" s="54"/>
+      <c r="BC132" s="54"/>
       <c r="BD132" s="47" t="s">
         <v>182</v>
       </c>
       <c r="BE132" s="47"/>
       <c r="BF132" s="47"/>
-      <c r="BG132" s="43" t="s">
+      <c r="BG132" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="BH132" s="44"/>
+      <c r="BH132" s="46"/>
       <c r="BI132" s="23" t="s">
         <v>206</v>
       </c>
       <c r="BK132" s="7"/>
       <c r="BM132" s="6"/>
       <c r="BN132" s="1"/>
-      <c r="BO132" s="43"/>
-      <c r="BP132" s="44"/>
-      <c r="BQ132" s="43"/>
-      <c r="BR132" s="44"/>
-      <c r="BS132" s="43"/>
-      <c r="BT132" s="44"/>
+      <c r="BO132" s="44"/>
+      <c r="BP132" s="46"/>
+      <c r="BQ132" s="44"/>
+      <c r="BR132" s="46"/>
+      <c r="BS132" s="44"/>
+      <c r="BT132" s="46"/>
       <c r="BU132" s="1"/>
       <c r="BV132" s="1"/>
       <c r="BW132" s="1"/>
@@ -8449,12 +8459,12 @@
       <c r="CP132" s="9"/>
       <c r="CQ132" s="8"/>
       <c r="CR132" s="9"/>
-      <c r="CS132" s="43"/>
-      <c r="CT132" s="44"/>
-      <c r="CU132" s="43" t="s">
+      <c r="CS132" s="44"/>
+      <c r="CT132" s="46"/>
+      <c r="CU132" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="CV132" s="44"/>
+      <c r="CV132" s="46"/>
       <c r="CW132" s="1"/>
       <c r="CX132" s="1"/>
       <c r="CY132" s="7"/>
@@ -8478,14 +8488,14 @@
       </c>
       <c r="Q133" s="6"/>
       <c r="R133" s="15"/>
-      <c r="S133" s="43"/>
-      <c r="T133" s="44"/>
-      <c r="U133" s="43"/>
-      <c r="V133" s="44"/>
-      <c r="W133" s="43"/>
-      <c r="X133" s="44"/>
-      <c r="Y133" s="43"/>
-      <c r="Z133" s="44"/>
+      <c r="S133" s="44"/>
+      <c r="T133" s="46"/>
+      <c r="U133" s="44"/>
+      <c r="V133" s="46"/>
+      <c r="W133" s="44"/>
+      <c r="X133" s="46"/>
+      <c r="Y133" s="44"/>
+      <c r="Z133" s="46"/>
       <c r="AA133" s="47"/>
       <c r="AB133" s="47"/>
       <c r="AC133" s="47"/>
@@ -8519,20 +8529,20 @@
       <c r="BD133" s="47"/>
       <c r="BE133" s="47"/>
       <c r="BF133" s="47"/>
-      <c r="BG133" s="43"/>
-      <c r="BH133" s="44"/>
+      <c r="BG133" s="44"/>
+      <c r="BH133" s="46"/>
       <c r="BI133" s="23" t="s">
         <v>207</v>
       </c>
       <c r="BK133" s="7"/>
       <c r="BM133" s="6"/>
       <c r="BN133" s="1"/>
-      <c r="BO133" s="43"/>
-      <c r="BP133" s="44"/>
-      <c r="BQ133" s="43"/>
-      <c r="BR133" s="44"/>
-      <c r="BS133" s="43"/>
-      <c r="BT133" s="44"/>
+      <c r="BO133" s="44"/>
+      <c r="BP133" s="46"/>
+      <c r="BQ133" s="44"/>
+      <c r="BR133" s="46"/>
+      <c r="BS133" s="44"/>
+      <c r="BT133" s="46"/>
       <c r="BU133" s="1"/>
       <c r="BV133" s="1" t="s">
         <v>190</v>
@@ -8585,14 +8595,14 @@
       </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="15"/>
-      <c r="S134" s="43"/>
-      <c r="T134" s="44"/>
-      <c r="U134" s="43"/>
-      <c r="V134" s="44"/>
-      <c r="W134" s="43"/>
-      <c r="X134" s="44"/>
-      <c r="Y134" s="43"/>
-      <c r="Z134" s="44"/>
+      <c r="S134" s="44"/>
+      <c r="T134" s="46"/>
+      <c r="U134" s="44"/>
+      <c r="V134" s="46"/>
+      <c r="W134" s="44"/>
+      <c r="X134" s="46"/>
+      <c r="Y134" s="44"/>
+      <c r="Z134" s="46"/>
       <c r="AA134" s="47"/>
       <c r="AB134" s="47"/>
       <c r="AC134" s="47"/>
@@ -8622,19 +8632,19 @@
       <c r="BD134" s="47"/>
       <c r="BE134" s="47"/>
       <c r="BF134" s="47"/>
-      <c r="BG134" s="43"/>
-      <c r="BH134" s="44"/>
+      <c r="BG134" s="44"/>
+      <c r="BH134" s="46"/>
       <c r="BI134" s="1"/>
       <c r="BJ134" s="1"/>
       <c r="BK134" s="7"/>
       <c r="BM134" s="6"/>
       <c r="BN134" s="1"/>
-      <c r="BO134" s="43"/>
-      <c r="BP134" s="44"/>
-      <c r="BQ134" s="43"/>
-      <c r="BR134" s="44"/>
-      <c r="BS134" s="43"/>
-      <c r="BT134" s="44"/>
+      <c r="BO134" s="44"/>
+      <c r="BP134" s="46"/>
+      <c r="BQ134" s="44"/>
+      <c r="BR134" s="46"/>
+      <c r="BS134" s="44"/>
+      <c r="BT134" s="46"/>
       <c r="BU134" s="1"/>
       <c r="BV134" s="1" t="s">
         <v>229</v>
@@ -8657,15 +8667,15 @@
       <c r="CK134" s="1"/>
       <c r="CL134" s="1"/>
       <c r="CM134" s="6"/>
-      <c r="CN134" s="43" t="s">
+      <c r="CN134" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="CO134" s="44"/>
+      <c r="CO134" s="46"/>
       <c r="CP134" s="1"/>
-      <c r="CQ134" s="43" t="s">
+      <c r="CQ134" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="CR134" s="44"/>
+      <c r="CR134" s="46"/>
       <c r="CS134" s="1"/>
       <c r="CT134" s="1"/>
       <c r="CU134" s="1"/>
@@ -8695,14 +8705,14 @@
       </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="15"/>
-      <c r="S135" s="43"/>
-      <c r="T135" s="44"/>
-      <c r="U135" s="43"/>
-      <c r="V135" s="44"/>
-      <c r="W135" s="43"/>
-      <c r="X135" s="44"/>
-      <c r="Y135" s="43"/>
-      <c r="Z135" s="44"/>
+      <c r="S135" s="44"/>
+      <c r="T135" s="46"/>
+      <c r="U135" s="44"/>
+      <c r="V135" s="46"/>
+      <c r="W135" s="44"/>
+      <c r="X135" s="46"/>
+      <c r="Y135" s="44"/>
+      <c r="Z135" s="46"/>
       <c r="AA135" s="47"/>
       <c r="AB135" s="47"/>
       <c r="AC135" s="47"/>
@@ -8797,14 +8807,14 @@
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="15"/>
-      <c r="S136" s="43"/>
-      <c r="T136" s="44"/>
-      <c r="U136" s="43"/>
-      <c r="V136" s="44"/>
-      <c r="W136" s="43"/>
-      <c r="X136" s="44"/>
-      <c r="Y136" s="43"/>
-      <c r="Z136" s="44"/>
+      <c r="S136" s="44"/>
+      <c r="T136" s="46"/>
+      <c r="U136" s="44"/>
+      <c r="V136" s="46"/>
+      <c r="W136" s="44"/>
+      <c r="X136" s="46"/>
+      <c r="Y136" s="44"/>
+      <c r="Z136" s="46"/>
       <c r="AA136" s="47"/>
       <c r="AB136" s="47"/>
       <c r="AC136" s="47"/>
@@ -8827,15 +8837,15 @@
       <c r="AX136" s="6"/>
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
-      <c r="BA136" s="43" t="s">
+      <c r="BA136" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="BB136" s="44"/>
+      <c r="BB136" s="46"/>
       <c r="BC136" s="1"/>
-      <c r="BD136" s="43" t="s">
+      <c r="BD136" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="BE136" s="44"/>
+      <c r="BE136" s="46"/>
       <c r="BF136" s="1"/>
       <c r="BG136" s="1"/>
       <c r="BH136" s="1"/>
@@ -8845,10 +8855,10 @@
       <c r="BM136" s="6"/>
       <c r="BN136" s="1"/>
       <c r="BO136" s="1"/>
-      <c r="BP136" s="43" t="s">
+      <c r="BP136" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="BQ136" s="44"/>
+      <c r="BQ136" s="46"/>
       <c r="BR136" s="1"/>
       <c r="BS136" s="1"/>
       <c r="BT136" s="1"/>
@@ -8897,10 +8907,10 @@
       </c>
       <c r="DJ136" s="47"/>
       <c r="DK136" s="47"/>
-      <c r="DL136" s="43" t="s">
+      <c r="DL136" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="DM136" s="44"/>
+      <c r="DM136" s="46"/>
       <c r="DN136" s="1"/>
       <c r="DO136" s="7"/>
     </row>
@@ -8910,14 +8920,14 @@
       </c>
       <c r="Q137" s="6"/>
       <c r="R137" s="15"/>
-      <c r="S137" s="43"/>
-      <c r="T137" s="44"/>
-      <c r="U137" s="43"/>
-      <c r="V137" s="44"/>
-      <c r="W137" s="43"/>
-      <c r="X137" s="44"/>
-      <c r="Y137" s="43"/>
-      <c r="Z137" s="44"/>
+      <c r="S137" s="44"/>
+      <c r="T137" s="46"/>
+      <c r="U137" s="44"/>
+      <c r="V137" s="46"/>
+      <c r="W137" s="44"/>
+      <c r="X137" s="46"/>
+      <c r="Y137" s="44"/>
+      <c r="Z137" s="46"/>
       <c r="AA137" s="47"/>
       <c r="AB137" s="47"/>
       <c r="AC137" s="47"/>
@@ -8929,15 +8939,15 @@
       <c r="AI137" s="7"/>
       <c r="AL137" s="6"/>
       <c r="AM137" s="1"/>
-      <c r="AN137" s="43" t="s">
+      <c r="AN137" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AO137" s="44"/>
+      <c r="AO137" s="46"/>
       <c r="AP137" s="1"/>
-      <c r="AQ137" s="43" t="s">
+      <c r="AQ137" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AR137" s="44"/>
+      <c r="AR137" s="46"/>
       <c r="AS137" s="1"/>
       <c r="AT137" s="1"/>
       <c r="AU137" s="7"/>
@@ -8996,10 +9006,10 @@
       </c>
       <c r="DJ137" s="47"/>
       <c r="DK137" s="47"/>
-      <c r="DL137" s="43" t="s">
+      <c r="DL137" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="DM137" s="44"/>
+      <c r="DM137" s="46"/>
       <c r="DN137" s="1"/>
       <c r="DO137" s="7"/>
     </row>
@@ -9012,14 +9022,14 @@
       </c>
       <c r="Q138" s="6"/>
       <c r="R138" s="15"/>
-      <c r="S138" s="43"/>
-      <c r="T138" s="44"/>
-      <c r="U138" s="43"/>
-      <c r="V138" s="44"/>
-      <c r="W138" s="43"/>
-      <c r="X138" s="44"/>
-      <c r="Y138" s="43"/>
-      <c r="Z138" s="44"/>
+      <c r="S138" s="44"/>
+      <c r="T138" s="46"/>
+      <c r="U138" s="44"/>
+      <c r="V138" s="46"/>
+      <c r="W138" s="44"/>
+      <c r="X138" s="46"/>
+      <c r="Y138" s="44"/>
+      <c r="Z138" s="46"/>
       <c r="AA138" s="47"/>
       <c r="AB138" s="47"/>
       <c r="AC138" s="47"/>
@@ -9087,8 +9097,8 @@
       <c r="DI138" s="47"/>
       <c r="DJ138" s="47"/>
       <c r="DK138" s="47"/>
-      <c r="DL138" s="43"/>
-      <c r="DM138" s="44"/>
+      <c r="DL138" s="44"/>
+      <c r="DM138" s="46"/>
       <c r="DN138" s="1"/>
       <c r="DO138" s="7"/>
     </row>
@@ -9145,15 +9155,15 @@
       <c r="BZ139" s="2"/>
       <c r="CA139" s="9"/>
       <c r="CC139" s="6"/>
-      <c r="CD139" s="43" t="s">
+      <c r="CD139" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="CE139" s="44"/>
+      <c r="CE139" s="46"/>
       <c r="CF139" s="1"/>
-      <c r="CG139" s="43" t="s">
+      <c r="CG139" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="CH139" s="44"/>
+      <c r="CH139" s="46"/>
       <c r="CI139" s="1"/>
       <c r="CJ139" s="7"/>
       <c r="CK139" s="1"/>
@@ -9170,8 +9180,8 @@
       <c r="DI139" s="47"/>
       <c r="DJ139" s="47"/>
       <c r="DK139" s="47"/>
-      <c r="DL139" s="43"/>
-      <c r="DM139" s="44"/>
+      <c r="DL139" s="44"/>
+      <c r="DM139" s="46"/>
       <c r="DN139" s="1"/>
       <c r="DO139" s="7"/>
     </row>
@@ -9242,10 +9252,10 @@
       <c r="DG141" s="1"/>
       <c r="DH141" s="1"/>
       <c r="DI141" s="1"/>
-      <c r="DJ141" s="43" t="s">
+      <c r="DJ141" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="DK141" s="44"/>
+      <c r="DK141" s="46"/>
       <c r="DL141" s="1"/>
       <c r="DM141" s="1"/>
       <c r="DN141" s="1"/>
@@ -9572,30 +9582,30 @@
       <c r="R153" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="S153" s="43" t="s">
+      <c r="S153" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="T153" s="44"/>
-      <c r="U153" s="43" t="s">
+      <c r="T153" s="46"/>
+      <c r="U153" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="V153" s="44"/>
-      <c r="W153" s="43" t="s">
+      <c r="V153" s="46"/>
+      <c r="W153" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="X153" s="44"/>
-      <c r="Y153" s="43" t="s">
+      <c r="X153" s="46"/>
+      <c r="Y153" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="Z153" s="44"/>
-      <c r="AA153" s="43" t="s">
+      <c r="Z153" s="46"/>
+      <c r="AA153" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="AB153" s="44"/>
-      <c r="AC153" s="43" t="s">
+      <c r="AB153" s="46"/>
+      <c r="AC153" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="AD153" s="44"/>
+      <c r="AD153" s="46"/>
       <c r="AE153" s="7"/>
       <c r="AH153" s="1"/>
       <c r="AI153" s="6"/>
@@ -9619,12 +9629,12 @@
       </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="11"/>
-      <c r="S154" s="43"/>
-      <c r="T154" s="44"/>
-      <c r="U154" s="43"/>
-      <c r="V154" s="44"/>
-      <c r="W154" s="43"/>
-      <c r="X154" s="44"/>
+      <c r="S154" s="44"/>
+      <c r="T154" s="46"/>
+      <c r="U154" s="44"/>
+      <c r="V154" s="46"/>
+      <c r="W154" s="44"/>
+      <c r="X154" s="46"/>
       <c r="Y154" s="11"/>
       <c r="Z154" s="13"/>
       <c r="AA154" s="11"/>
@@ -9659,12 +9669,12 @@
     <row r="155" spans="1:60" ht="18" customHeight="1">
       <c r="Q155" s="6"/>
       <c r="R155" s="11"/>
-      <c r="S155" s="43"/>
-      <c r="T155" s="44"/>
-      <c r="U155" s="43"/>
-      <c r="V155" s="44"/>
-      <c r="W155" s="43"/>
-      <c r="X155" s="44"/>
+      <c r="S155" s="44"/>
+      <c r="T155" s="46"/>
+      <c r="U155" s="44"/>
+      <c r="V155" s="46"/>
+      <c r="W155" s="44"/>
+      <c r="X155" s="46"/>
       <c r="Y155" s="11"/>
       <c r="Z155" s="13"/>
       <c r="AA155" s="11"/>
@@ -9694,12 +9704,12 @@
       </c>
       <c r="Q156" s="6"/>
       <c r="R156" s="11"/>
-      <c r="S156" s="43"/>
-      <c r="T156" s="44"/>
-      <c r="U156" s="43"/>
-      <c r="V156" s="44"/>
-      <c r="W156" s="43"/>
-      <c r="X156" s="44"/>
+      <c r="S156" s="44"/>
+      <c r="T156" s="46"/>
+      <c r="U156" s="44"/>
+      <c r="V156" s="46"/>
+      <c r="W156" s="44"/>
+      <c r="X156" s="46"/>
       <c r="Y156" s="11"/>
       <c r="Z156" s="13"/>
       <c r="AA156" s="11"/>
@@ -9731,12 +9741,12 @@
       </c>
       <c r="Q157" s="6"/>
       <c r="R157" s="11"/>
-      <c r="S157" s="43"/>
-      <c r="T157" s="44"/>
-      <c r="U157" s="43"/>
-      <c r="V157" s="44"/>
-      <c r="W157" s="43"/>
-      <c r="X157" s="44"/>
+      <c r="S157" s="44"/>
+      <c r="T157" s="46"/>
+      <c r="U157" s="44"/>
+      <c r="V157" s="46"/>
+      <c r="W157" s="44"/>
+      <c r="X157" s="46"/>
       <c r="Y157" s="11"/>
       <c r="Z157" s="13"/>
       <c r="AA157" s="11"/>
@@ -9766,12 +9776,12 @@
       </c>
       <c r="Q158" s="6"/>
       <c r="R158" s="11"/>
-      <c r="S158" s="43"/>
-      <c r="T158" s="44"/>
-      <c r="U158" s="43"/>
-      <c r="V158" s="44"/>
-      <c r="W158" s="43"/>
-      <c r="X158" s="44"/>
+      <c r="S158" s="44"/>
+      <c r="T158" s="46"/>
+      <c r="U158" s="44"/>
+      <c r="V158" s="46"/>
+      <c r="W158" s="44"/>
+      <c r="X158" s="46"/>
       <c r="Y158" s="11"/>
       <c r="Z158" s="13"/>
       <c r="AA158" s="11"/>
@@ -9801,12 +9811,12 @@
       </c>
       <c r="Q159" s="6"/>
       <c r="R159" s="11"/>
-      <c r="S159" s="43"/>
-      <c r="T159" s="44"/>
-      <c r="U159" s="43"/>
-      <c r="V159" s="44"/>
-      <c r="W159" s="43"/>
-      <c r="X159" s="44"/>
+      <c r="S159" s="44"/>
+      <c r="T159" s="46"/>
+      <c r="U159" s="44"/>
+      <c r="V159" s="46"/>
+      <c r="W159" s="44"/>
+      <c r="X159" s="46"/>
       <c r="Y159" s="11"/>
       <c r="Z159" s="13"/>
       <c r="AA159" s="11"/>
@@ -9836,12 +9846,12 @@
     <row r="160" spans="1:60" ht="18" customHeight="1">
       <c r="Q160" s="6"/>
       <c r="R160" s="11"/>
-      <c r="S160" s="43"/>
-      <c r="T160" s="44"/>
-      <c r="U160" s="43"/>
-      <c r="V160" s="44"/>
-      <c r="W160" s="43"/>
-      <c r="X160" s="44"/>
+      <c r="S160" s="44"/>
+      <c r="T160" s="46"/>
+      <c r="U160" s="44"/>
+      <c r="V160" s="46"/>
+      <c r="W160" s="44"/>
+      <c r="X160" s="46"/>
       <c r="Y160" s="11"/>
       <c r="Z160" s="13"/>
       <c r="AA160" s="11"/>
@@ -10454,11 +10464,11 @@
         <v>187</v>
       </c>
       <c r="X189" s="36"/>
-      <c r="Y189" s="57" t="s">
+      <c r="Y189" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="Z189" s="58"/>
-      <c r="AA189" s="59"/>
+      <c r="Z189" s="49"/>
+      <c r="AA189" s="50"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
@@ -10504,18 +10514,18 @@
       <c r="AH190" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AI190" s="43" t="s">
+      <c r="AI190" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="AJ190" s="44"/>
+      <c r="AJ190" s="46"/>
       <c r="AL190" s="40"/>
       <c r="AM190" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AN190" s="43" t="s">
+      <c r="AN190" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="AO190" s="44"/>
+      <c r="AO190" s="46"/>
       <c r="AP190" s="1"/>
       <c r="AQ190" s="7"/>
     </row>
@@ -10540,12 +10550,12 @@
       <c r="AE191" s="7"/>
       <c r="AG191" s="6"/>
       <c r="AH191" s="41"/>
-      <c r="AI191" s="43"/>
-      <c r="AJ191" s="44"/>
+      <c r="AI191" s="44"/>
+      <c r="AJ191" s="46"/>
       <c r="AL191" s="40"/>
       <c r="AM191" s="41"/>
-      <c r="AN191" s="43"/>
-      <c r="AO191" s="44"/>
+      <c r="AN191" s="44"/>
+      <c r="AO191" s="46"/>
       <c r="AP191" s="1"/>
       <c r="AQ191" s="7"/>
     </row>
@@ -10570,12 +10580,12 @@
       <c r="AE192" s="7"/>
       <c r="AG192" s="6"/>
       <c r="AH192" s="41"/>
-      <c r="AI192" s="43"/>
-      <c r="AJ192" s="44"/>
+      <c r="AI192" s="44"/>
+      <c r="AJ192" s="46"/>
       <c r="AL192" s="40"/>
       <c r="AM192" s="41"/>
-      <c r="AN192" s="43"/>
-      <c r="AO192" s="44"/>
+      <c r="AN192" s="44"/>
+      <c r="AO192" s="46"/>
       <c r="AP192" s="1"/>
       <c r="AQ192" s="7"/>
     </row>
@@ -10751,8 +10761,390 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="413">
+  <mergeCells count="418">
+    <mergeCell ref="BP115:BQ115"/>
+    <mergeCell ref="BH117:BI117"/>
+    <mergeCell ref="BK117:BL117"/>
+    <mergeCell ref="BM107:BQ107"/>
+    <mergeCell ref="U1:Y2"/>
+    <mergeCell ref="BI54:BJ54"/>
+    <mergeCell ref="BK54:BL54"/>
+    <mergeCell ref="BI55:BJ55"/>
+    <mergeCell ref="BK55:BL55"/>
+    <mergeCell ref="BI56:BJ56"/>
+    <mergeCell ref="BK56:BL56"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="BA66:BC66"/>
+    <mergeCell ref="BD66:BK66"/>
+    <mergeCell ref="BB70:BC70"/>
+    <mergeCell ref="BD70:BE70"/>
+    <mergeCell ref="BF70:BG70"/>
+    <mergeCell ref="AS94:AT94"/>
+    <mergeCell ref="AP94:AQ94"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="AE78:AF78"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:AC88"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="S92:U92"/>
+    <mergeCell ref="S93:U93"/>
+    <mergeCell ref="S94:U94"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="BC71:BD71"/>
+    <mergeCell ref="BE71:BF71"/>
+    <mergeCell ref="BG71:BH71"/>
+    <mergeCell ref="BC72:BD72"/>
+    <mergeCell ref="BB73:BC73"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:AB66"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AB90:AG90"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="Z90:AA90"/>
     <mergeCell ref="AP91:AW91"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="AO90:AQ90"/>
+    <mergeCell ref="AR90:AY90"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AD93:AE93"/>
+    <mergeCell ref="AF93:AG93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AD94:AE94"/>
+    <mergeCell ref="AF94:AG94"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AO38"/>
+    <mergeCell ref="S106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="AE106:AG106"/>
+    <mergeCell ref="AH106:AJ106"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="X48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="CA110:CH110"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AN37:AO37"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="BI58:BJ58"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="BK49:BL49"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="BK50:BL50"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BI52:BJ52"/>
+    <mergeCell ref="BK52:BL52"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="BY108:CA108"/>
+    <mergeCell ref="BC74:BD74"/>
+    <mergeCell ref="BC75:BD75"/>
+    <mergeCell ref="BN78:BO78"/>
+    <mergeCell ref="BI53:BJ53"/>
+    <mergeCell ref="BK53:BL53"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="Z126:AB126"/>
+    <mergeCell ref="AD126:AE126"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD102:AH102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="AM102:AQ102"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI32:AO32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="BP136:BQ136"/>
+    <mergeCell ref="AE131:AF131"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AE133:AF133"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="W136:X136"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="AY134:AZ134"/>
+    <mergeCell ref="BA134:BC134"/>
+    <mergeCell ref="BD134:BF134"/>
+    <mergeCell ref="BA136:BB136"/>
+    <mergeCell ref="BD136:BE136"/>
+    <mergeCell ref="AG131:AH131"/>
+    <mergeCell ref="AG132:AH132"/>
+    <mergeCell ref="AG133:AH133"/>
+    <mergeCell ref="AG134:AH134"/>
+    <mergeCell ref="AG135:AH135"/>
+    <mergeCell ref="AG136:AH136"/>
+    <mergeCell ref="BG133:BH133"/>
+    <mergeCell ref="CA112:CH112"/>
+    <mergeCell ref="AN106:AS106"/>
+    <mergeCell ref="BA132:BC132"/>
+    <mergeCell ref="AY131:AZ131"/>
+    <mergeCell ref="BA131:BC131"/>
+    <mergeCell ref="BD131:BF131"/>
+    <mergeCell ref="AY132:AZ132"/>
+    <mergeCell ref="BD132:BF132"/>
+    <mergeCell ref="AY133:AZ133"/>
+    <mergeCell ref="BA133:BC133"/>
+    <mergeCell ref="BD133:BF133"/>
+    <mergeCell ref="BZ116:CA116"/>
+    <mergeCell ref="CC116:CD116"/>
+    <mergeCell ref="BO131:BP131"/>
+    <mergeCell ref="BQ131:BR131"/>
+    <mergeCell ref="BS131:BT131"/>
+    <mergeCell ref="BO132:BP132"/>
+    <mergeCell ref="BQ132:BR132"/>
+    <mergeCell ref="BS132:BT132"/>
+    <mergeCell ref="BY112:BZ112"/>
+    <mergeCell ref="CB108:CI108"/>
+    <mergeCell ref="BY110:BZ110"/>
+    <mergeCell ref="BG131:BH131"/>
+    <mergeCell ref="BG132:BH132"/>
+    <mergeCell ref="BG134:BH134"/>
+    <mergeCell ref="CN134:CO134"/>
+    <mergeCell ref="CQ134:CR134"/>
+    <mergeCell ref="BO133:BP133"/>
+    <mergeCell ref="BQ133:BR133"/>
+    <mergeCell ref="BS133:BT133"/>
+    <mergeCell ref="BO134:BP134"/>
+    <mergeCell ref="BQ134:BR134"/>
+    <mergeCell ref="BS134:BT134"/>
+    <mergeCell ref="CU131:CV131"/>
+    <mergeCell ref="CU132:CV132"/>
+    <mergeCell ref="CS131:CT131"/>
+    <mergeCell ref="CS132:CT132"/>
+    <mergeCell ref="DD136:DE136"/>
+    <mergeCell ref="DF136:DH136"/>
+    <mergeCell ref="DI136:DK136"/>
+    <mergeCell ref="CD139:CE139"/>
+    <mergeCell ref="CG139:CH139"/>
+    <mergeCell ref="DD139:DE139"/>
+    <mergeCell ref="DF139:DH139"/>
+    <mergeCell ref="DI139:DK139"/>
+    <mergeCell ref="DL136:DM136"/>
+    <mergeCell ref="DD137:DE137"/>
+    <mergeCell ref="DF137:DH137"/>
+    <mergeCell ref="DI137:DK137"/>
+    <mergeCell ref="DL137:DM137"/>
+    <mergeCell ref="DD138:DE138"/>
+    <mergeCell ref="DF138:DH138"/>
+    <mergeCell ref="DI138:DK138"/>
+    <mergeCell ref="DL138:DM138"/>
+    <mergeCell ref="DL139:DM139"/>
+    <mergeCell ref="DJ141:DK141"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="AA130:AH130"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="Y131:Z131"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
+    <mergeCell ref="Y132:Z132"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
+    <mergeCell ref="Y133:Z133"/>
+    <mergeCell ref="U134:V134"/>
+    <mergeCell ref="W134:X134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="W135:X135"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="W137:X137"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="U138:V138"/>
+    <mergeCell ref="W138:X138"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="AC138:AD138"/>
+    <mergeCell ref="AO129:AR129"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="AC133:AD133"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AG137:AH137"/>
+    <mergeCell ref="AG138:AH138"/>
+    <mergeCell ref="W158:X158"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="AA153:AB153"/>
+    <mergeCell ref="AC153:AD153"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="U154:V154"/>
+    <mergeCell ref="W154:X154"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
     <mergeCell ref="AI192:AJ192"/>
     <mergeCell ref="Y189:AA189"/>
     <mergeCell ref="S187:V187"/>
@@ -10788,383 +11180,6 @@
     <mergeCell ref="W157:X157"/>
     <mergeCell ref="S158:T158"/>
     <mergeCell ref="U158:V158"/>
-    <mergeCell ref="W158:X158"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="AA153:AB153"/>
-    <mergeCell ref="AC153:AD153"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="U154:V154"/>
-    <mergeCell ref="W154:X154"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="AA138:AB138"/>
-    <mergeCell ref="AC138:AD138"/>
-    <mergeCell ref="AO129:AR129"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AA132:AB132"/>
-    <mergeCell ref="AC132:AD132"/>
-    <mergeCell ref="AA133:AB133"/>
-    <mergeCell ref="AC133:AD133"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="AC134:AD134"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AG137:AH137"/>
-    <mergeCell ref="AG138:AH138"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="U138:V138"/>
-    <mergeCell ref="W138:X138"/>
-    <mergeCell ref="Y138:Z138"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="DL139:DM139"/>
-    <mergeCell ref="DJ141:DK141"/>
-    <mergeCell ref="U130:V130"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="AA130:AH130"/>
-    <mergeCell ref="U131:V131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="Y131:Z131"/>
-    <mergeCell ref="U132:V132"/>
-    <mergeCell ref="W132:X132"/>
-    <mergeCell ref="Y132:Z132"/>
-    <mergeCell ref="U133:V133"/>
-    <mergeCell ref="W133:X133"/>
-    <mergeCell ref="Y133:Z133"/>
-    <mergeCell ref="U134:V134"/>
-    <mergeCell ref="W134:X134"/>
-    <mergeCell ref="Y134:Z134"/>
-    <mergeCell ref="U135:V135"/>
-    <mergeCell ref="W135:X135"/>
-    <mergeCell ref="Y135:Z135"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="W137:X137"/>
-    <mergeCell ref="DL136:DM136"/>
-    <mergeCell ref="DD137:DE137"/>
-    <mergeCell ref="DF137:DH137"/>
-    <mergeCell ref="DI137:DK137"/>
-    <mergeCell ref="DL137:DM137"/>
-    <mergeCell ref="DD138:DE138"/>
-    <mergeCell ref="DF138:DH138"/>
-    <mergeCell ref="DI138:DK138"/>
-    <mergeCell ref="DL138:DM138"/>
-    <mergeCell ref="CU131:CV131"/>
-    <mergeCell ref="CU132:CV132"/>
-    <mergeCell ref="CS131:CT131"/>
-    <mergeCell ref="CS132:CT132"/>
-    <mergeCell ref="DD136:DE136"/>
-    <mergeCell ref="DF136:DH136"/>
-    <mergeCell ref="DI136:DK136"/>
-    <mergeCell ref="CD139:CE139"/>
-    <mergeCell ref="CG139:CH139"/>
-    <mergeCell ref="DD139:DE139"/>
-    <mergeCell ref="DF139:DH139"/>
-    <mergeCell ref="DI139:DK139"/>
-    <mergeCell ref="BG134:BH134"/>
-    <mergeCell ref="CN134:CO134"/>
-    <mergeCell ref="CQ134:CR134"/>
-    <mergeCell ref="BO133:BP133"/>
-    <mergeCell ref="BQ133:BR133"/>
-    <mergeCell ref="BS133:BT133"/>
-    <mergeCell ref="BO134:BP134"/>
-    <mergeCell ref="BQ134:BR134"/>
-    <mergeCell ref="BS134:BT134"/>
-    <mergeCell ref="CA112:CH112"/>
-    <mergeCell ref="AN106:AS106"/>
-    <mergeCell ref="BA132:BC132"/>
-    <mergeCell ref="AY131:AZ131"/>
-    <mergeCell ref="BA131:BC131"/>
-    <mergeCell ref="BD131:BF131"/>
-    <mergeCell ref="AY132:AZ132"/>
-    <mergeCell ref="BD132:BF132"/>
-    <mergeCell ref="AY133:AZ133"/>
-    <mergeCell ref="BA133:BC133"/>
-    <mergeCell ref="BD133:BF133"/>
-    <mergeCell ref="BZ116:CA116"/>
-    <mergeCell ref="CC116:CD116"/>
-    <mergeCell ref="BO131:BP131"/>
-    <mergeCell ref="BQ131:BR131"/>
-    <mergeCell ref="BS131:BT131"/>
-    <mergeCell ref="BO132:BP132"/>
-    <mergeCell ref="BQ132:BR132"/>
-    <mergeCell ref="BS132:BT132"/>
-    <mergeCell ref="BY112:BZ112"/>
-    <mergeCell ref="CB108:CI108"/>
-    <mergeCell ref="BY110:BZ110"/>
-    <mergeCell ref="BG131:BH131"/>
-    <mergeCell ref="BG132:BH132"/>
-    <mergeCell ref="BP136:BQ136"/>
-    <mergeCell ref="AE131:AF131"/>
-    <mergeCell ref="AE132:AF132"/>
-    <mergeCell ref="AE133:AF133"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="AE135:AF135"/>
-    <mergeCell ref="AE136:AF136"/>
-    <mergeCell ref="W136:X136"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="Y130:Z130"/>
-    <mergeCell ref="U128:V128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="AY134:AZ134"/>
-    <mergeCell ref="BA134:BC134"/>
-    <mergeCell ref="BD134:BF134"/>
-    <mergeCell ref="BA136:BB136"/>
-    <mergeCell ref="BD136:BE136"/>
-    <mergeCell ref="AG131:AH131"/>
-    <mergeCell ref="AG132:AH132"/>
-    <mergeCell ref="AG133:AH133"/>
-    <mergeCell ref="AG134:AH134"/>
-    <mergeCell ref="AG135:AH135"/>
-    <mergeCell ref="AG136:AH136"/>
-    <mergeCell ref="BG133:BH133"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="Z126:AB126"/>
-    <mergeCell ref="AD126:AE126"/>
-    <mergeCell ref="AA131:AB131"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD102:AH102"/>
-    <mergeCell ref="AK102:AL102"/>
-    <mergeCell ref="AM102:AQ102"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AI32:AO32"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="CA110:CH110"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="BI58:BJ58"/>
-    <mergeCell ref="BH47:BI47"/>
-    <mergeCell ref="BJ47:BK47"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="BK49:BL49"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="BK50:BL50"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BI52:BJ52"/>
-    <mergeCell ref="BK52:BL52"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="BY108:CA108"/>
-    <mergeCell ref="BC74:BD74"/>
-    <mergeCell ref="BC75:BD75"/>
-    <mergeCell ref="BN78:BO78"/>
-    <mergeCell ref="BI53:BJ53"/>
-    <mergeCell ref="BK53:BL53"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="S106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="AE106:AG106"/>
-    <mergeCell ref="AH106:AJ106"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="X48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="V91:Y91"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="BB73:BC73"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:AB66"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="AB90:AG90"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="AF91:AG91"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AF93:AG93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AD94:AE94"/>
-    <mergeCell ref="AF94:AG94"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="V94:Y94"/>
-    <mergeCell ref="V93:Y93"/>
-    <mergeCell ref="BA66:BC66"/>
-    <mergeCell ref="BD66:BK66"/>
-    <mergeCell ref="BB70:BC70"/>
-    <mergeCell ref="BD70:BE70"/>
-    <mergeCell ref="BF70:BG70"/>
-    <mergeCell ref="BC71:BD71"/>
-    <mergeCell ref="BE71:BF71"/>
-    <mergeCell ref="BG71:BH71"/>
-    <mergeCell ref="BC72:BD72"/>
-    <mergeCell ref="BK56:BL56"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="BP115:BQ115"/>
-    <mergeCell ref="BH117:BI117"/>
-    <mergeCell ref="BK117:BL117"/>
-    <mergeCell ref="BM107:BQ107"/>
-    <mergeCell ref="U1:Y2"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="AO90:AQ90"/>
-    <mergeCell ref="AR90:AY90"/>
-    <mergeCell ref="AS94:AT94"/>
-    <mergeCell ref="AP94:AQ94"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="AE78:AF78"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:AC88"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="S92:U92"/>
-    <mergeCell ref="S93:U93"/>
-    <mergeCell ref="S94:U94"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="BI54:BJ54"/>
-    <mergeCell ref="BK54:BL54"/>
-    <mergeCell ref="BI55:BJ55"/>
-    <mergeCell ref="BK55:BL55"/>
-    <mergeCell ref="BI56:BJ56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/通用测试平台.xlsx
+++ b/通用测试平台.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="293">
   <si>
     <t>组织管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1237,6 +1237,10 @@
   </si>
   <si>
     <t>响应参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1801,28 +1805,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1834,22 +1832,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2374,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y100" workbookViewId="0">
-      <selection activeCell="BG123" sqref="BG123"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AP100" workbookViewId="0">
+      <selection activeCell="BX111" sqref="BX111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18" customHeight="1"/>
@@ -2385,38 +2389,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:46" ht="18" customHeight="1">
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="U1" s="57" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="U1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
     </row>
     <row r="2" spans="2:46" ht="18" customHeight="1">
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="30"/>
@@ -2583,18 +2587,18 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="56" t="s">
+      <c r="S10" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="56"/>
-      <c r="U10" s="43" t="s">
+      <c r="T10" s="52"/>
+      <c r="U10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43" t="s">
+      <c r="V10" s="48"/>
+      <c r="W10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="43"/>
+      <c r="X10" s="48"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2625,15 +2629,15 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="43" t="s">
+      <c r="T11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43" t="s">
+      <c r="U11" s="48"/>
+      <c r="V11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43" t="s">
+      <c r="W11" s="48"/>
+      <c r="X11" s="48" t="s">
         <v>8</v>
       </c>
       <c r="Y11" s="55"/>
@@ -2663,10 +2667,10 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="43" t="s">
+      <c r="T12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="43"/>
+      <c r="U12" s="48"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -2696,10 +2700,10 @@
     <row r="13" spans="2:46" ht="18" customHeight="1">
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="43" t="s">
+      <c r="S13" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="43"/>
+      <c r="T13" s="48"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -2737,10 +2741,10 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="43" t="s">
+      <c r="T14" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="43"/>
+      <c r="U14" s="48"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -2769,10 +2773,10 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="43" t="s">
+      <c r="T15" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="43"/>
+      <c r="U15" s="48"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -2868,10 +2872,10 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="44" t="s">
+      <c r="AE18" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="46"/>
+      <c r="AF18" s="44"/>
       <c r="AG18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -3065,24 +3069,24 @@
     <row r="28" spans="2:46" ht="18" customHeight="1">
       <c r="Q28" s="6"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="43" t="s">
+      <c r="S28" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="T28" s="43"/>
-      <c r="U28" s="44"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="43"/>
       <c r="V28" s="45"/>
-      <c r="W28" s="46"/>
+      <c r="W28" s="44"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="43" t="s">
+      <c r="Y28" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="46"/>
-      <c r="AD28" s="43" t="s">
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="44"/>
+      <c r="AD28" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="AE28" s="43"/>
+      <c r="AE28" s="48"/>
       <c r="AF28" s="47"/>
       <c r="AG28" s="47"/>
       <c r="AH28" s="47"/>
@@ -3090,10 +3094,10 @@
         <v>54</v>
       </c>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="44" t="s">
+      <c r="AK28" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AL28" s="46"/>
+      <c r="AL28" s="44"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -3220,37 +3224,37 @@
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="44" t="s">
+      <c r="S32" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="T32" s="46"/>
-      <c r="U32" s="44" t="s">
+      <c r="T32" s="44"/>
+      <c r="U32" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="V32" s="46"/>
-      <c r="W32" s="44" t="s">
+      <c r="V32" s="44"/>
+      <c r="W32" s="43" t="s">
         <v>16</v>
       </c>
       <c r="X32" s="45"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="44" t="s">
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="43" t="s">
         <v>17</v>
       </c>
       <c r="AA32" s="45"/>
-      <c r="AB32" s="46"/>
+      <c r="AB32" s="44"/>
       <c r="AC32" s="37" t="s">
         <v>22</v>
       </c>
       <c r="AD32" s="38"/>
-      <c r="AE32" s="44" t="s">
+      <c r="AE32" s="43" t="s">
         <v>28</v>
       </c>
       <c r="AF32" s="45"/>
-      <c r="AG32" s="44" t="s">
+      <c r="AG32" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="44" t="s">
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="43" t="s">
         <v>19</v>
       </c>
       <c r="AJ32" s="45"/>
@@ -3258,7 +3262,7 @@
       <c r="AL32" s="45"/>
       <c r="AM32" s="45"/>
       <c r="AN32" s="45"/>
-      <c r="AO32" s="46"/>
+      <c r="AO32" s="44"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
@@ -3271,39 +3275,39 @@
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="44" t="s">
+      <c r="S33" s="43"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="V33" s="46"/>
-      <c r="W33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="43"/>
       <c r="X33" s="45"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="43"/>
       <c r="AA33" s="45"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="46"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="44"/>
       <c r="AE33" s="11"/>
       <c r="AF33" s="13"/>
-      <c r="AG33" s="44" t="s">
+      <c r="AG33" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="44" t="s">
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="44" t="s">
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="43" t="s">
         <v>29</v>
       </c>
       <c r="AL33" s="45"/>
-      <c r="AM33" s="46"/>
-      <c r="AN33" s="44" t="s">
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AO33" s="46"/>
+      <c r="AO33" s="44"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
@@ -3316,39 +3320,39 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="44" t="s">
+      <c r="S34" s="43"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="V34" s="46"/>
-      <c r="W34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="43"/>
       <c r="X34" s="45"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="43"/>
       <c r="AA34" s="45"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="46"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="44"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="13"/>
-      <c r="AG34" s="44" t="s">
+      <c r="AG34" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="44" t="s">
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AJ34" s="46"/>
-      <c r="AK34" s="44" t="s">
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="43" t="s">
         <v>29</v>
       </c>
       <c r="AL34" s="45"/>
-      <c r="AM34" s="46"/>
-      <c r="AN34" s="44" t="s">
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AO34" s="46"/>
+      <c r="AO34" s="44"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
@@ -3361,37 +3365,37 @@
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="44" t="s">
+      <c r="S35" s="43"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="46"/>
-      <c r="W35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="43"/>
       <c r="X35" s="45"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="43"/>
       <c r="AA35" s="45"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="46"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="44"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="13"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
-      <c r="AI35" s="44" t="s">
+      <c r="AI35" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AJ35" s="46"/>
-      <c r="AK35" s="44" t="s">
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="43" t="s">
         <v>29</v>
       </c>
       <c r="AL35" s="45"/>
-      <c r="AM35" s="46"/>
-      <c r="AN35" s="44" t="s">
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AO35" s="46"/>
+      <c r="AO35" s="44"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
@@ -3404,12 +3408,12 @@
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="44" t="s">
+      <c r="S36" s="43"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="V36" s="46"/>
+      <c r="V36" s="44"/>
       <c r="W36" s="37"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="38"/>
@@ -3422,19 +3426,19 @@
       <c r="AF36" s="13"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
-      <c r="AI36" s="44" t="s">
+      <c r="AI36" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AJ36" s="46"/>
-      <c r="AK36" s="44" t="s">
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="43" t="s">
         <v>29</v>
       </c>
       <c r="AL36" s="45"/>
-      <c r="AM36" s="46"/>
-      <c r="AN36" s="44" t="s">
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AO36" s="46"/>
+      <c r="AO36" s="44"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
@@ -3447,37 +3451,37 @@
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="44" t="s">
+      <c r="S37" s="43"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="V37" s="46"/>
-      <c r="W37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="43"/>
       <c r="X37" s="45"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="43"/>
       <c r="AA37" s="45"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="46"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="44"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="13"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
-      <c r="AI37" s="44" t="s">
+      <c r="AI37" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="44" t="s">
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="43" t="s">
         <v>29</v>
       </c>
       <c r="AL37" s="45"/>
-      <c r="AM37" s="46"/>
-      <c r="AN37" s="44" t="s">
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AO37" s="46"/>
+      <c r="AO37" s="44"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
@@ -3487,29 +3491,29 @@
     <row r="38" spans="2:67" ht="18" customHeight="1">
       <c r="Q38" s="6"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="44"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="43"/>
       <c r="X38" s="45"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="43"/>
       <c r="AA38" s="45"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="46"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="44"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="13"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="44"/>
-      <c r="AJ38" s="46"/>
-      <c r="AK38" s="44"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="43"/>
       <c r="AL38" s="45"/>
-      <c r="AM38" s="46"/>
-      <c r="AN38" s="44"/>
-      <c r="AO38" s="46"/>
+      <c r="AM38" s="44"/>
+      <c r="AN38" s="43"/>
+      <c r="AO38" s="44"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
@@ -3944,15 +3948,15 @@
       <c r="AN51" s="6"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
-      <c r="AQ51" s="44" t="s">
+      <c r="AQ51" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AR51" s="46"/>
+      <c r="AR51" s="44"/>
       <c r="AS51" s="1"/>
-      <c r="AT51" s="44" t="s">
+      <c r="AT51" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AU51" s="46"/>
+      <c r="AU51" s="44"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
@@ -4244,10 +4248,10 @@
       <c r="BF58" s="6"/>
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
-      <c r="BI58" s="44" t="s">
+      <c r="BI58" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="BJ58" s="46"/>
+      <c r="BJ58" s="44"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
       <c r="BM58" s="1"/>
@@ -4410,21 +4414,21 @@
         <v>134</v>
       </c>
       <c r="Q66" s="6"/>
-      <c r="R66" s="43" t="s">
+      <c r="R66" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="51" t="s">
+      <c r="S66" s="48"/>
+      <c r="T66" s="48"/>
+      <c r="U66" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="V66" s="52"/>
-      <c r="W66" s="52"/>
-      <c r="X66" s="52"/>
-      <c r="Y66" s="52"/>
-      <c r="Z66" s="52"/>
-      <c r="AA66" s="52"/>
-      <c r="AB66" s="53"/>
+      <c r="V66" s="50"/>
+      <c r="W66" s="50"/>
+      <c r="X66" s="50"/>
+      <c r="Y66" s="50"/>
+      <c r="Z66" s="50"/>
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="51"/>
       <c r="AC66" s="16" t="s">
         <v>54</v>
       </c>
@@ -4433,10 +4437,10 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="44" t="s">
+      <c r="AI66" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AJ66" s="46"/>
+      <c r="AJ66" s="44"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
@@ -4452,21 +4456,21 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="7"/>
       <c r="AZ66" s="6"/>
-      <c r="BA66" s="43" t="s">
+      <c r="BA66" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="BB66" s="43"/>
-      <c r="BC66" s="43"/>
-      <c r="BD66" s="51" t="s">
+      <c r="BB66" s="48"/>
+      <c r="BC66" s="48"/>
+      <c r="BD66" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="BE66" s="52"/>
-      <c r="BF66" s="52"/>
-      <c r="BG66" s="52"/>
-      <c r="BH66" s="52"/>
-      <c r="BI66" s="52"/>
-      <c r="BJ66" s="52"/>
-      <c r="BK66" s="53"/>
+      <c r="BE66" s="50"/>
+      <c r="BF66" s="50"/>
+      <c r="BG66" s="50"/>
+      <c r="BH66" s="50"/>
+      <c r="BI66" s="50"/>
+      <c r="BJ66" s="50"/>
+      <c r="BK66" s="51"/>
       <c r="BL66" s="16" t="s">
         <v>54</v>
       </c>
@@ -4718,18 +4722,18 @@
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="58" t="s">
+      <c r="S70" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="T70" s="58"/>
-      <c r="U70" s="43" t="s">
+      <c r="T70" s="54"/>
+      <c r="U70" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43" t="s">
+      <c r="V70" s="48"/>
+      <c r="W70" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="X70" s="43"/>
+      <c r="X70" s="48"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -4758,18 +4762,18 @@
       <c r="AX70" s="7"/>
       <c r="AZ70" s="6"/>
       <c r="BA70" s="6"/>
-      <c r="BB70" s="56" t="s">
+      <c r="BB70" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="BC70" s="56"/>
-      <c r="BD70" s="43" t="s">
+      <c r="BC70" s="52"/>
+      <c r="BD70" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="BE70" s="43"/>
-      <c r="BF70" s="43" t="s">
+      <c r="BE70" s="48"/>
+      <c r="BF70" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="BG70" s="43"/>
+      <c r="BG70" s="48"/>
       <c r="BH70" s="7"/>
       <c r="BI70" s="1"/>
       <c r="BJ70" s="1"/>
@@ -4804,15 +4808,15 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="43" t="s">
+      <c r="T71" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43" t="s">
+      <c r="U71" s="48"/>
+      <c r="V71" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="W71" s="43"/>
-      <c r="X71" s="43" t="s">
+      <c r="W71" s="48"/>
+      <c r="X71" s="48" t="s">
         <v>8</v>
       </c>
       <c r="Y71" s="55"/>
@@ -4846,15 +4850,15 @@
       <c r="AZ71" s="6"/>
       <c r="BA71" s="6"/>
       <c r="BB71" s="1"/>
-      <c r="BC71" s="43" t="s">
+      <c r="BC71" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="BD71" s="43"/>
-      <c r="BE71" s="43" t="s">
+      <c r="BD71" s="48"/>
+      <c r="BE71" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="BF71" s="43"/>
-      <c r="BG71" s="43" t="s">
+      <c r="BF71" s="48"/>
+      <c r="BG71" s="48" t="s">
         <v>8</v>
       </c>
       <c r="BH71" s="55"/>
@@ -4893,10 +4897,10 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="43" t="s">
+      <c r="T72" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="43"/>
+      <c r="U72" s="48"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
@@ -4931,10 +4935,10 @@
       <c r="AZ72" s="6"/>
       <c r="BA72" s="6"/>
       <c r="BB72" s="1"/>
-      <c r="BC72" s="43" t="s">
+      <c r="BC72" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="BD72" s="43"/>
+      <c r="BD72" s="48"/>
       <c r="BE72" s="1"/>
       <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
@@ -4970,10 +4974,10 @@
     <row r="73" spans="3:85" ht="18" customHeight="1">
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="S73" s="43" t="s">
+      <c r="S73" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="T73" s="43"/>
+      <c r="T73" s="48"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -5010,10 +5014,10 @@
       <c r="AX73" s="7"/>
       <c r="AZ73" s="6"/>
       <c r="BA73" s="6"/>
-      <c r="BB73" s="43" t="s">
+      <c r="BB73" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="BC73" s="43"/>
+      <c r="BC73" s="48"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
       <c r="BF73" s="1"/>
@@ -5057,10 +5061,10 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="43" t="s">
+      <c r="T74" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="U74" s="43"/>
+      <c r="U74" s="48"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
@@ -5093,10 +5097,10 @@
       <c r="AZ74" s="6"/>
       <c r="BA74" s="6"/>
       <c r="BB74" s="1"/>
-      <c r="BC74" s="43" t="s">
+      <c r="BC74" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="BD74" s="43"/>
+      <c r="BD74" s="48"/>
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
       <c r="BG74" s="1"/>
@@ -5131,10 +5135,10 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="43" t="s">
+      <c r="T75" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="U75" s="43"/>
+      <c r="U75" s="48"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
@@ -5167,10 +5171,10 @@
       <c r="AZ75" s="6"/>
       <c r="BA75" s="6"/>
       <c r="BB75" s="1"/>
-      <c r="BC75" s="43" t="s">
+      <c r="BC75" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="BD75" s="43"/>
+      <c r="BD75" s="48"/>
       <c r="BE75" s="1"/>
       <c r="BF75" s="1"/>
       <c r="BG75" s="1"/>
@@ -5356,10 +5360,10 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
-      <c r="AE78" s="44" t="s">
+      <c r="AE78" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AF78" s="46"/>
+      <c r="AF78" s="44"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
@@ -5392,10 +5396,10 @@
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
       <c r="BM78" s="1"/>
-      <c r="BN78" s="44" t="s">
+      <c r="BN78" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="BO78" s="46"/>
+      <c r="BO78" s="44"/>
       <c r="BP78" s="1"/>
       <c r="BQ78" s="1"/>
       <c r="BR78" s="1"/>
@@ -5745,21 +5749,21 @@
     <row r="88" spans="2:85" ht="18" customHeight="1">
       <c r="Q88" s="6"/>
       <c r="R88" s="1"/>
-      <c r="S88" s="43" t="s">
+      <c r="S88" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="T88" s="43"/>
-      <c r="U88" s="43"/>
-      <c r="V88" s="51" t="s">
+      <c r="T88" s="48"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="W88" s="52"/>
-      <c r="X88" s="52"/>
-      <c r="Y88" s="52"/>
-      <c r="Z88" s="52"/>
-      <c r="AA88" s="52"/>
-      <c r="AB88" s="52"/>
-      <c r="AC88" s="53"/>
+      <c r="W88" s="50"/>
+      <c r="X88" s="50"/>
+      <c r="Y88" s="50"/>
+      <c r="Z88" s="50"/>
+      <c r="AA88" s="50"/>
+      <c r="AB88" s="50"/>
+      <c r="AC88" s="51"/>
       <c r="AD88" s="16" t="s">
         <v>54</v>
       </c>
@@ -5842,14 +5846,14 @@
       </c>
       <c r="T90" s="47"/>
       <c r="U90" s="47"/>
-      <c r="V90" s="44" t="s">
+      <c r="V90" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="W90" s="46"/>
-      <c r="X90" s="44" t="s">
+      <c r="W90" s="44"/>
+      <c r="X90" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="Y90" s="46"/>
+      <c r="Y90" s="44"/>
       <c r="Z90" s="47" t="s">
         <v>76</v>
       </c>
@@ -5866,21 +5870,21 @@
       <c r="AI90" s="7"/>
       <c r="AM90" s="6"/>
       <c r="AN90" s="1"/>
-      <c r="AO90" s="43" t="s">
+      <c r="AO90" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AP90" s="43"/>
-      <c r="AQ90" s="43"/>
-      <c r="AR90" s="51" t="s">
+      <c r="AP90" s="48"/>
+      <c r="AQ90" s="48"/>
+      <c r="AR90" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="AS90" s="52"/>
-      <c r="AT90" s="52"/>
-      <c r="AU90" s="52"/>
-      <c r="AV90" s="52"/>
-      <c r="AW90" s="52"/>
-      <c r="AX90" s="52"/>
-      <c r="AY90" s="53"/>
+      <c r="AS90" s="50"/>
+      <c r="AT90" s="50"/>
+      <c r="AU90" s="50"/>
+      <c r="AV90" s="50"/>
+      <c r="AW90" s="50"/>
+      <c r="AX90" s="50"/>
+      <c r="AY90" s="51"/>
       <c r="AZ90" s="25" t="s">
         <v>54</v>
       </c>
@@ -5898,24 +5902,24 @@
       </c>
       <c r="T91" s="47"/>
       <c r="U91" s="47"/>
-      <c r="V91" s="44"/>
-      <c r="W91" s="46"/>
-      <c r="X91" s="44"/>
-      <c r="Y91" s="46"/>
-      <c r="Z91" s="44"/>
-      <c r="AA91" s="46"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="43"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="43"/>
+      <c r="AA91" s="44"/>
       <c r="AB91" s="47" t="s">
         <v>7</v>
       </c>
       <c r="AC91" s="47"/>
-      <c r="AD91" s="44" t="s">
+      <c r="AD91" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AE91" s="46"/>
-      <c r="AF91" s="44" t="s">
+      <c r="AE91" s="44"/>
+      <c r="AF91" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="AG91" s="46"/>
+      <c r="AG91" s="44"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="7"/>
       <c r="AM91" s="6"/>
@@ -5923,16 +5927,16 @@
       <c r="AO91" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AP91" s="51" t="s">
+      <c r="AP91" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="AQ91" s="52"/>
-      <c r="AR91" s="52"/>
-      <c r="AS91" s="52"/>
-      <c r="AT91" s="52"/>
-      <c r="AU91" s="52"/>
-      <c r="AV91" s="52"/>
-      <c r="AW91" s="53"/>
+      <c r="AQ91" s="50"/>
+      <c r="AR91" s="50"/>
+      <c r="AS91" s="50"/>
+      <c r="AT91" s="50"/>
+      <c r="AU91" s="50"/>
+      <c r="AV91" s="50"/>
+      <c r="AW91" s="51"/>
       <c r="AX91" s="42" t="s">
         <v>54</v>
       </c>
@@ -5952,18 +5956,18 @@
       </c>
       <c r="T92" s="47"/>
       <c r="U92" s="47"/>
-      <c r="V92" s="44"/>
-      <c r="W92" s="46"/>
-      <c r="X92" s="44"/>
-      <c r="Y92" s="46"/>
-      <c r="Z92" s="44"/>
-      <c r="AA92" s="46"/>
+      <c r="V92" s="43"/>
+      <c r="W92" s="44"/>
+      <c r="X92" s="43"/>
+      <c r="Y92" s="44"/>
+      <c r="Z92" s="43"/>
+      <c r="AA92" s="44"/>
       <c r="AB92" s="47"/>
       <c r="AC92" s="47"/>
-      <c r="AD92" s="44"/>
-      <c r="AE92" s="46"/>
-      <c r="AF92" s="44"/>
-      <c r="AG92" s="46"/>
+      <c r="AD92" s="43"/>
+      <c r="AE92" s="44"/>
+      <c r="AF92" s="43"/>
+      <c r="AG92" s="44"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="7"/>
       <c r="AM92" s="6"/>
@@ -5996,18 +6000,18 @@
       </c>
       <c r="T93" s="47"/>
       <c r="U93" s="47"/>
-      <c r="V93" s="44"/>
-      <c r="W93" s="46"/>
-      <c r="X93" s="44"/>
-      <c r="Y93" s="46"/>
-      <c r="Z93" s="44"/>
-      <c r="AA93" s="46"/>
+      <c r="V93" s="43"/>
+      <c r="W93" s="44"/>
+      <c r="X93" s="43"/>
+      <c r="Y93" s="44"/>
+      <c r="Z93" s="43"/>
+      <c r="AA93" s="44"/>
       <c r="AB93" s="47"/>
       <c r="AC93" s="47"/>
-      <c r="AD93" s="44"/>
-      <c r="AE93" s="46"/>
-      <c r="AF93" s="44"/>
-      <c r="AG93" s="46"/>
+      <c r="AD93" s="43"/>
+      <c r="AE93" s="44"/>
+      <c r="AF93" s="43"/>
+      <c r="AG93" s="44"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="7"/>
       <c r="AM93" s="6"/>
@@ -6033,37 +6037,37 @@
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="59" t="s">
+      <c r="S94" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="T94" s="59"/>
-      <c r="U94" s="59"/>
-      <c r="V94" s="44"/>
-      <c r="W94" s="46"/>
-      <c r="X94" s="44"/>
-      <c r="Y94" s="46"/>
-      <c r="Z94" s="44"/>
-      <c r="AA94" s="46"/>
+      <c r="T94" s="53"/>
+      <c r="U94" s="53"/>
+      <c r="V94" s="43"/>
+      <c r="W94" s="44"/>
+      <c r="X94" s="43"/>
+      <c r="Y94" s="44"/>
+      <c r="Z94" s="43"/>
+      <c r="AA94" s="44"/>
       <c r="AB94" s="47"/>
       <c r="AC94" s="47"/>
-      <c r="AD94" s="44"/>
-      <c r="AE94" s="46"/>
-      <c r="AF94" s="44"/>
-      <c r="AG94" s="46"/>
+      <c r="AD94" s="43"/>
+      <c r="AE94" s="44"/>
+      <c r="AF94" s="43"/>
+      <c r="AG94" s="44"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="7"/>
       <c r="AM94" s="6"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
-      <c r="AP94" s="44" t="s">
+      <c r="AP94" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="AQ94" s="46"/>
+      <c r="AQ94" s="44"/>
       <c r="AR94" s="1"/>
-      <c r="AS94" s="44" t="s">
+      <c r="AS94" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AT94" s="46"/>
+      <c r="AT94" s="44"/>
       <c r="AU94" s="1"/>
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
@@ -6248,12 +6252,12 @@
         <v>120</v>
       </c>
       <c r="Q102" s="6"/>
-      <c r="R102" s="43" t="s">
+      <c r="R102" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="S102" s="43"/>
-      <c r="T102" s="43"/>
-      <c r="U102" s="44" t="s">
+      <c r="S102" s="48"/>
+      <c r="T102" s="48"/>
+      <c r="U102" s="43" t="s">
         <v>86</v>
       </c>
       <c r="V102" s="45"/>
@@ -6268,7 +6272,7 @@
         <v>85</v>
       </c>
       <c r="AC102" s="28"/>
-      <c r="AD102" s="44" t="s">
+      <c r="AD102" s="43" t="s">
         <v>55</v>
       </c>
       <c r="AE102" s="45"/>
@@ -6278,11 +6282,11 @@
       <c r="AI102" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AK102" s="43" t="s">
+      <c r="AK102" s="48" t="s">
         <v>87</v>
       </c>
       <c r="AL102" s="55"/>
-      <c r="AM102" s="44" t="s">
+      <c r="AM102" s="43" t="s">
         <v>55</v>
       </c>
       <c r="AN102" s="45"/>
@@ -6293,17 +6297,17 @@
         <v>54</v>
       </c>
       <c r="AS102" s="1"/>
-      <c r="AT102" s="43" t="s">
+      <c r="AT102" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="AU102" s="43"/>
-      <c r="AV102" s="44"/>
+      <c r="AU102" s="48"/>
+      <c r="AV102" s="43"/>
       <c r="AW102" s="45"/>
-      <c r="AX102" s="46"/>
-      <c r="AZ102" s="44" t="s">
+      <c r="AX102" s="44"/>
+      <c r="AZ102" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="BA102" s="46"/>
+      <c r="BA102" s="44"/>
       <c r="BB102" s="1"/>
       <c r="BC102" s="7"/>
       <c r="BE102" s="6"/>
@@ -6428,20 +6432,20 @@
         <v>147</v>
       </c>
       <c r="Q104" s="6"/>
-      <c r="R104" s="44" t="s">
+      <c r="R104" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="S104" s="46"/>
+      <c r="S104" s="44"/>
       <c r="T104" s="1"/>
-      <c r="U104" s="44" t="s">
+      <c r="U104" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="V104" s="46"/>
+      <c r="V104" s="44"/>
       <c r="W104" s="1"/>
-      <c r="X104" s="44" t="s">
+      <c r="X104" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="Y104" s="46"/>
+      <c r="Y104" s="44"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
@@ -6603,49 +6607,49 @@
       <c r="R106" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S106" s="44" t="s">
+      <c r="S106" s="43" t="s">
         <v>82</v>
       </c>
       <c r="T106" s="45"/>
       <c r="U106" s="45"/>
-      <c r="V106" s="46"/>
-      <c r="W106" s="44" t="s">
+      <c r="V106" s="44"/>
+      <c r="W106" s="43" t="s">
         <v>83</v>
       </c>
       <c r="X106" s="45"/>
-      <c r="Y106" s="46"/>
-      <c r="Z106" s="44" t="s">
+      <c r="Y106" s="44"/>
+      <c r="Z106" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="AA106" s="46"/>
-      <c r="AB106" s="44" t="s">
+      <c r="AA106" s="44"/>
+      <c r="AB106" s="43" t="s">
         <v>88</v>
       </c>
       <c r="AC106" s="45"/>
-      <c r="AD106" s="46"/>
-      <c r="AE106" s="44" t="s">
+      <c r="AD106" s="44"/>
+      <c r="AE106" s="43" t="s">
         <v>85</v>
       </c>
       <c r="AF106" s="45"/>
-      <c r="AG106" s="46"/>
-      <c r="AH106" s="44" t="s">
+      <c r="AG106" s="44"/>
+      <c r="AH106" s="43" t="s">
         <v>87</v>
       </c>
       <c r="AI106" s="45"/>
-      <c r="AJ106" s="46"/>
-      <c r="AK106" s="44" t="s">
+      <c r="AJ106" s="44"/>
+      <c r="AK106" s="43" t="s">
         <v>152</v>
       </c>
       <c r="AL106" s="45"/>
-      <c r="AM106" s="46"/>
-      <c r="AN106" s="44" t="s">
+      <c r="AM106" s="44"/>
+      <c r="AN106" s="43" t="s">
         <v>161</v>
       </c>
       <c r="AO106" s="45"/>
       <c r="AP106" s="45"/>
       <c r="AQ106" s="45"/>
       <c r="AR106" s="45"/>
-      <c r="AS106" s="46"/>
+      <c r="AS106" s="44"/>
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
       <c r="AV106" s="1"/>
@@ -6753,7 +6757,7 @@
       </c>
       <c r="BK107" s="1"/>
       <c r="BL107" s="1"/>
-      <c r="BM107" s="44" t="s">
+      <c r="BM107" s="43" t="s">
         <v>55</v>
       </c>
       <c r="BN107" s="45"/>
@@ -6857,21 +6861,21 @@
       <c r="BU108" s="1"/>
       <c r="BV108" s="7"/>
       <c r="BX108" s="6"/>
-      <c r="BY108" s="43" t="s">
+      <c r="BY108" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="BZ108" s="43"/>
-      <c r="CA108" s="43"/>
-      <c r="CB108" s="51" t="s">
+      <c r="BZ108" s="48"/>
+      <c r="CA108" s="48"/>
+      <c r="CB108" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="CC108" s="52"/>
-      <c r="CD108" s="52"/>
-      <c r="CE108" s="52"/>
-      <c r="CF108" s="52"/>
-      <c r="CG108" s="52"/>
-      <c r="CH108" s="52"/>
-      <c r="CI108" s="53"/>
+      <c r="CC108" s="50"/>
+      <c r="CD108" s="50"/>
+      <c r="CE108" s="50"/>
+      <c r="CF108" s="50"/>
+      <c r="CG108" s="50"/>
+      <c r="CH108" s="50"/>
+      <c r="CI108" s="51"/>
       <c r="CJ108" s="16" t="s">
         <v>54</v>
       </c>
@@ -7021,20 +7025,20 @@
       <c r="BU110" s="1"/>
       <c r="BV110" s="7"/>
       <c r="BX110" s="6"/>
-      <c r="BY110" s="43" t="s">
+      <c r="BY110" s="48" t="s">
         <v>85</v>
       </c>
       <c r="BZ110" s="55"/>
-      <c r="CA110" s="51" t="s">
+      <c r="CA110" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="CB110" s="52"/>
-      <c r="CC110" s="52"/>
-      <c r="CD110" s="52"/>
-      <c r="CE110" s="52"/>
-      <c r="CF110" s="52"/>
-      <c r="CG110" s="52"/>
-      <c r="CH110" s="53"/>
+      <c r="CB110" s="50"/>
+      <c r="CC110" s="50"/>
+      <c r="CD110" s="50"/>
+      <c r="CE110" s="50"/>
+      <c r="CF110" s="50"/>
+      <c r="CG110" s="50"/>
+      <c r="CH110" s="51"/>
       <c r="CI110" s="16" t="s">
         <v>54</v>
       </c>
@@ -7190,20 +7194,20 @@
       <c r="BU112" s="1"/>
       <c r="BV112" s="7"/>
       <c r="BX112" s="6"/>
-      <c r="BY112" s="43" t="s">
-        <v>87</v>
+      <c r="BY112" s="48" t="s">
+        <v>292</v>
       </c>
       <c r="BZ112" s="55"/>
-      <c r="CA112" s="51" t="s">
+      <c r="CA112" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="CB112" s="52"/>
-      <c r="CC112" s="52"/>
-      <c r="CD112" s="52"/>
-      <c r="CE112" s="52"/>
-      <c r="CF112" s="52"/>
-      <c r="CG112" s="52"/>
-      <c r="CH112" s="53"/>
+      <c r="CB112" s="50"/>
+      <c r="CC112" s="50"/>
+      <c r="CD112" s="50"/>
+      <c r="CE112" s="50"/>
+      <c r="CF112" s="50"/>
+      <c r="CG112" s="50"/>
+      <c r="CH112" s="51"/>
       <c r="CI112" s="26" t="s">
         <v>54</v>
       </c>
@@ -7452,10 +7456,10 @@
       <c r="BM115" s="8"/>
       <c r="BN115" s="2"/>
       <c r="BO115" s="9"/>
-      <c r="BP115" s="44" t="s">
+      <c r="BP115" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="BQ115" s="46"/>
+      <c r="BQ115" s="44"/>
       <c r="BR115" s="1"/>
       <c r="BS115" s="1"/>
       <c r="BT115" s="1"/>
@@ -7533,15 +7537,15 @@
       <c r="BV116" s="7"/>
       <c r="BX116" s="6"/>
       <c r="BY116" s="1"/>
-      <c r="BZ116" s="44" t="s">
+      <c r="BZ116" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="CA116" s="46"/>
+      <c r="CA116" s="44"/>
       <c r="CB116" s="1"/>
-      <c r="CC116" s="44" t="s">
+      <c r="CC116" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="CD116" s="46"/>
+      <c r="CD116" s="44"/>
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
       <c r="CG116" s="1"/>
@@ -7597,14 +7601,14 @@
       <c r="BB117" s="1"/>
       <c r="BC117" s="7"/>
       <c r="BE117" s="6"/>
-      <c r="BH117" s="44" t="s">
+      <c r="BH117" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="BI117" s="46"/>
-      <c r="BK117" s="44" t="s">
+      <c r="BI117" s="44"/>
+      <c r="BK117" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="BL117" s="46"/>
+      <c r="BL117" s="44"/>
       <c r="BR117" s="1"/>
       <c r="BS117" s="1"/>
       <c r="BT117" s="1"/>
@@ -7831,10 +7835,10 @@
       <c r="AA126" s="47"/>
       <c r="AB126" s="47"/>
       <c r="AC126" s="1"/>
-      <c r="AD126" s="44" t="s">
+      <c r="AD126" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AE126" s="46"/>
+      <c r="AE126" s="44"/>
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
@@ -8139,23 +8143,23 @@
       <c r="R130" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="S130" s="44" t="s">
+      <c r="S130" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="T130" s="46"/>
-      <c r="U130" s="44" t="s">
+      <c r="T130" s="44"/>
+      <c r="U130" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="V130" s="46"/>
-      <c r="W130" s="44" t="s">
+      <c r="V130" s="44"/>
+      <c r="W130" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="X130" s="46"/>
-      <c r="Y130" s="44" t="s">
+      <c r="X130" s="44"/>
+      <c r="Y130" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="Z130" s="46"/>
-      <c r="AA130" s="44" t="s">
+      <c r="Z130" s="44"/>
+      <c r="AA130" s="43" t="s">
         <v>167</v>
       </c>
       <c r="AB130" s="45"/>
@@ -8164,7 +8168,7 @@
       <c r="AE130" s="45"/>
       <c r="AF130" s="45"/>
       <c r="AG130" s="45"/>
-      <c r="AH130" s="46"/>
+      <c r="AH130" s="44"/>
       <c r="AI130" s="7"/>
       <c r="AL130" s="6"/>
       <c r="AV130" s="6"/>
@@ -8247,16 +8251,16 @@
     <row r="131" spans="4:119" ht="18" customHeight="1">
       <c r="Q131" s="6"/>
       <c r="R131" s="15"/>
-      <c r="S131" s="44"/>
-      <c r="T131" s="46"/>
-      <c r="U131" s="44"/>
-      <c r="V131" s="46" t="s">
+      <c r="S131" s="43"/>
+      <c r="T131" s="44"/>
+      <c r="U131" s="43"/>
+      <c r="V131" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="W131" s="44"/>
-      <c r="X131" s="46"/>
-      <c r="Y131" s="44"/>
-      <c r="Z131" s="46" t="s">
+      <c r="W131" s="43"/>
+      <c r="X131" s="44"/>
+      <c r="Y131" s="43"/>
+      <c r="Z131" s="44" t="s">
         <v>168</v>
       </c>
       <c r="AA131" s="47" t="s">
@@ -8302,27 +8306,27 @@
       </c>
       <c r="BE131" s="47"/>
       <c r="BF131" s="47"/>
-      <c r="BG131" s="44" t="s">
+      <c r="BG131" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="BH131" s="46"/>
+      <c r="BH131" s="44"/>
       <c r="BI131" s="1"/>
       <c r="BJ131" s="1"/>
       <c r="BK131" s="7"/>
       <c r="BM131" s="6"/>
       <c r="BN131" s="1"/>
-      <c r="BO131" s="44" t="s">
+      <c r="BO131" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="BP131" s="46"/>
-      <c r="BQ131" s="44" t="s">
+      <c r="BP131" s="44"/>
+      <c r="BQ131" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="BR131" s="46"/>
-      <c r="BS131" s="44" t="s">
+      <c r="BR131" s="44"/>
+      <c r="BS131" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="BT131" s="46"/>
+      <c r="BT131" s="44"/>
       <c r="BU131" s="1"/>
       <c r="BV131" s="1"/>
       <c r="BW131" s="1"/>
@@ -8345,12 +8349,12 @@
       <c r="CP131" s="9"/>
       <c r="CQ131" s="8"/>
       <c r="CR131" s="9"/>
-      <c r="CS131" s="44"/>
-      <c r="CT131" s="46"/>
-      <c r="CU131" s="44" t="s">
+      <c r="CS131" s="43"/>
+      <c r="CT131" s="44"/>
+      <c r="CU131" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="CV131" s="46"/>
+      <c r="CV131" s="44"/>
       <c r="CW131" s="1"/>
       <c r="CX131" s="1"/>
       <c r="CY131" s="7"/>
@@ -8376,16 +8380,16 @@
       </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="15"/>
-      <c r="S132" s="44"/>
-      <c r="T132" s="46"/>
-      <c r="U132" s="44"/>
-      <c r="V132" s="46" t="s">
+      <c r="S132" s="43"/>
+      <c r="T132" s="44"/>
+      <c r="U132" s="43"/>
+      <c r="V132" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="W132" s="44"/>
-      <c r="X132" s="46"/>
-      <c r="Y132" s="44"/>
-      <c r="Z132" s="46"/>
+      <c r="W132" s="43"/>
+      <c r="X132" s="44"/>
+      <c r="Y132" s="43"/>
+      <c r="Z132" s="44"/>
       <c r="AA132" s="47"/>
       <c r="AB132" s="47"/>
       <c r="AC132" s="47"/>
@@ -8410,32 +8414,32 @@
         <v>1</v>
       </c>
       <c r="AZ132" s="47"/>
-      <c r="BA132" s="54" t="s">
+      <c r="BA132" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="BB132" s="54"/>
-      <c r="BC132" s="54"/>
+      <c r="BB132" s="56"/>
+      <c r="BC132" s="56"/>
       <c r="BD132" s="47" t="s">
         <v>182</v>
       </c>
       <c r="BE132" s="47"/>
       <c r="BF132" s="47"/>
-      <c r="BG132" s="44" t="s">
+      <c r="BG132" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="BH132" s="46"/>
+      <c r="BH132" s="44"/>
       <c r="BI132" s="23" t="s">
         <v>206</v>
       </c>
       <c r="BK132" s="7"/>
       <c r="BM132" s="6"/>
       <c r="BN132" s="1"/>
-      <c r="BO132" s="44"/>
-      <c r="BP132" s="46"/>
-      <c r="BQ132" s="44"/>
-      <c r="BR132" s="46"/>
-      <c r="BS132" s="44"/>
-      <c r="BT132" s="46"/>
+      <c r="BO132" s="43"/>
+      <c r="BP132" s="44"/>
+      <c r="BQ132" s="43"/>
+      <c r="BR132" s="44"/>
+      <c r="BS132" s="43"/>
+      <c r="BT132" s="44"/>
       <c r="BU132" s="1"/>
       <c r="BV132" s="1"/>
       <c r="BW132" s="1"/>
@@ -8459,12 +8463,12 @@
       <c r="CP132" s="9"/>
       <c r="CQ132" s="8"/>
       <c r="CR132" s="9"/>
-      <c r="CS132" s="44"/>
-      <c r="CT132" s="46"/>
-      <c r="CU132" s="44" t="s">
+      <c r="CS132" s="43"/>
+      <c r="CT132" s="44"/>
+      <c r="CU132" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="CV132" s="46"/>
+      <c r="CV132" s="44"/>
       <c r="CW132" s="1"/>
       <c r="CX132" s="1"/>
       <c r="CY132" s="7"/>
@@ -8488,14 +8492,14 @@
       </c>
       <c r="Q133" s="6"/>
       <c r="R133" s="15"/>
-      <c r="S133" s="44"/>
-      <c r="T133" s="46"/>
-      <c r="U133" s="44"/>
-      <c r="V133" s="46"/>
-      <c r="W133" s="44"/>
-      <c r="X133" s="46"/>
-      <c r="Y133" s="44"/>
-      <c r="Z133" s="46"/>
+      <c r="S133" s="43"/>
+      <c r="T133" s="44"/>
+      <c r="U133" s="43"/>
+      <c r="V133" s="44"/>
+      <c r="W133" s="43"/>
+      <c r="X133" s="44"/>
+      <c r="Y133" s="43"/>
+      <c r="Z133" s="44"/>
       <c r="AA133" s="47"/>
       <c r="AB133" s="47"/>
       <c r="AC133" s="47"/>
@@ -8529,20 +8533,20 @@
       <c r="BD133" s="47"/>
       <c r="BE133" s="47"/>
       <c r="BF133" s="47"/>
-      <c r="BG133" s="44"/>
-      <c r="BH133" s="46"/>
+      <c r="BG133" s="43"/>
+      <c r="BH133" s="44"/>
       <c r="BI133" s="23" t="s">
         <v>207</v>
       </c>
       <c r="BK133" s="7"/>
       <c r="BM133" s="6"/>
       <c r="BN133" s="1"/>
-      <c r="BO133" s="44"/>
-      <c r="BP133" s="46"/>
-      <c r="BQ133" s="44"/>
-      <c r="BR133" s="46"/>
-      <c r="BS133" s="44"/>
-      <c r="BT133" s="46"/>
+      <c r="BO133" s="43"/>
+      <c r="BP133" s="44"/>
+      <c r="BQ133" s="43"/>
+      <c r="BR133" s="44"/>
+      <c r="BS133" s="43"/>
+      <c r="BT133" s="44"/>
       <c r="BU133" s="1"/>
       <c r="BV133" s="1" t="s">
         <v>190</v>
@@ -8595,14 +8599,14 @@
       </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="15"/>
-      <c r="S134" s="44"/>
-      <c r="T134" s="46"/>
-      <c r="U134" s="44"/>
-      <c r="V134" s="46"/>
-      <c r="W134" s="44"/>
-      <c r="X134" s="46"/>
-      <c r="Y134" s="44"/>
-      <c r="Z134" s="46"/>
+      <c r="S134" s="43"/>
+      <c r="T134" s="44"/>
+      <c r="U134" s="43"/>
+      <c r="V134" s="44"/>
+      <c r="W134" s="43"/>
+      <c r="X134" s="44"/>
+      <c r="Y134" s="43"/>
+      <c r="Z134" s="44"/>
       <c r="AA134" s="47"/>
       <c r="AB134" s="47"/>
       <c r="AC134" s="47"/>
@@ -8632,19 +8636,19 @@
       <c r="BD134" s="47"/>
       <c r="BE134" s="47"/>
       <c r="BF134" s="47"/>
-      <c r="BG134" s="44"/>
-      <c r="BH134" s="46"/>
+      <c r="BG134" s="43"/>
+      <c r="BH134" s="44"/>
       <c r="BI134" s="1"/>
       <c r="BJ134" s="1"/>
       <c r="BK134" s="7"/>
       <c r="BM134" s="6"/>
       <c r="BN134" s="1"/>
-      <c r="BO134" s="44"/>
-      <c r="BP134" s="46"/>
-      <c r="BQ134" s="44"/>
-      <c r="BR134" s="46"/>
-      <c r="BS134" s="44"/>
-      <c r="BT134" s="46"/>
+      <c r="BO134" s="43"/>
+      <c r="BP134" s="44"/>
+      <c r="BQ134" s="43"/>
+      <c r="BR134" s="44"/>
+      <c r="BS134" s="43"/>
+      <c r="BT134" s="44"/>
       <c r="BU134" s="1"/>
       <c r="BV134" s="1" t="s">
         <v>229</v>
@@ -8667,15 +8671,15 @@
       <c r="CK134" s="1"/>
       <c r="CL134" s="1"/>
       <c r="CM134" s="6"/>
-      <c r="CN134" s="44" t="s">
+      <c r="CN134" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="CO134" s="46"/>
+      <c r="CO134" s="44"/>
       <c r="CP134" s="1"/>
-      <c r="CQ134" s="44" t="s">
+      <c r="CQ134" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="CR134" s="46"/>
+      <c r="CR134" s="44"/>
       <c r="CS134" s="1"/>
       <c r="CT134" s="1"/>
       <c r="CU134" s="1"/>
@@ -8705,14 +8709,14 @@
       </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="15"/>
-      <c r="S135" s="44"/>
-      <c r="T135" s="46"/>
-      <c r="U135" s="44"/>
-      <c r="V135" s="46"/>
-      <c r="W135" s="44"/>
-      <c r="X135" s="46"/>
-      <c r="Y135" s="44"/>
-      <c r="Z135" s="46"/>
+      <c r="S135" s="43"/>
+      <c r="T135" s="44"/>
+      <c r="U135" s="43"/>
+      <c r="V135" s="44"/>
+      <c r="W135" s="43"/>
+      <c r="X135" s="44"/>
+      <c r="Y135" s="43"/>
+      <c r="Z135" s="44"/>
       <c r="AA135" s="47"/>
       <c r="AB135" s="47"/>
       <c r="AC135" s="47"/>
@@ -8807,14 +8811,14 @@
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="15"/>
-      <c r="S136" s="44"/>
-      <c r="T136" s="46"/>
-      <c r="U136" s="44"/>
-      <c r="V136" s="46"/>
-      <c r="W136" s="44"/>
-      <c r="X136" s="46"/>
-      <c r="Y136" s="44"/>
-      <c r="Z136" s="46"/>
+      <c r="S136" s="43"/>
+      <c r="T136" s="44"/>
+      <c r="U136" s="43"/>
+      <c r="V136" s="44"/>
+      <c r="W136" s="43"/>
+      <c r="X136" s="44"/>
+      <c r="Y136" s="43"/>
+      <c r="Z136" s="44"/>
       <c r="AA136" s="47"/>
       <c r="AB136" s="47"/>
       <c r="AC136" s="47"/>
@@ -8837,15 +8841,15 @@
       <c r="AX136" s="6"/>
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
-      <c r="BA136" s="44" t="s">
+      <c r="BA136" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="BB136" s="46"/>
+      <c r="BB136" s="44"/>
       <c r="BC136" s="1"/>
-      <c r="BD136" s="44" t="s">
+      <c r="BD136" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="BE136" s="46"/>
+      <c r="BE136" s="44"/>
       <c r="BF136" s="1"/>
       <c r="BG136" s="1"/>
       <c r="BH136" s="1"/>
@@ -8855,10 +8859,10 @@
       <c r="BM136" s="6"/>
       <c r="BN136" s="1"/>
       <c r="BO136" s="1"/>
-      <c r="BP136" s="44" t="s">
+      <c r="BP136" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="BQ136" s="46"/>
+      <c r="BQ136" s="44"/>
       <c r="BR136" s="1"/>
       <c r="BS136" s="1"/>
       <c r="BT136" s="1"/>
@@ -8907,10 +8911,10 @@
       </c>
       <c r="DJ136" s="47"/>
       <c r="DK136" s="47"/>
-      <c r="DL136" s="44" t="s">
+      <c r="DL136" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="DM136" s="46"/>
+      <c r="DM136" s="44"/>
       <c r="DN136" s="1"/>
       <c r="DO136" s="7"/>
     </row>
@@ -8920,14 +8924,14 @@
       </c>
       <c r="Q137" s="6"/>
       <c r="R137" s="15"/>
-      <c r="S137" s="44"/>
-      <c r="T137" s="46"/>
-      <c r="U137" s="44"/>
-      <c r="V137" s="46"/>
-      <c r="W137" s="44"/>
-      <c r="X137" s="46"/>
-      <c r="Y137" s="44"/>
-      <c r="Z137" s="46"/>
+      <c r="S137" s="43"/>
+      <c r="T137" s="44"/>
+      <c r="U137" s="43"/>
+      <c r="V137" s="44"/>
+      <c r="W137" s="43"/>
+      <c r="X137" s="44"/>
+      <c r="Y137" s="43"/>
+      <c r="Z137" s="44"/>
       <c r="AA137" s="47"/>
       <c r="AB137" s="47"/>
       <c r="AC137" s="47"/>
@@ -8939,15 +8943,15 @@
       <c r="AI137" s="7"/>
       <c r="AL137" s="6"/>
       <c r="AM137" s="1"/>
-      <c r="AN137" s="44" t="s">
+      <c r="AN137" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AO137" s="46"/>
+      <c r="AO137" s="44"/>
       <c r="AP137" s="1"/>
-      <c r="AQ137" s="44" t="s">
+      <c r="AQ137" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AR137" s="46"/>
+      <c r="AR137" s="44"/>
       <c r="AS137" s="1"/>
       <c r="AT137" s="1"/>
       <c r="AU137" s="7"/>
@@ -9006,10 +9010,10 @@
       </c>
       <c r="DJ137" s="47"/>
       <c r="DK137" s="47"/>
-      <c r="DL137" s="44" t="s">
+      <c r="DL137" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="DM137" s="46"/>
+      <c r="DM137" s="44"/>
       <c r="DN137" s="1"/>
       <c r="DO137" s="7"/>
     </row>
@@ -9022,14 +9026,14 @@
       </c>
       <c r="Q138" s="6"/>
       <c r="R138" s="15"/>
-      <c r="S138" s="44"/>
-      <c r="T138" s="46"/>
-      <c r="U138" s="44"/>
-      <c r="V138" s="46"/>
-      <c r="W138" s="44"/>
-      <c r="X138" s="46"/>
-      <c r="Y138" s="44"/>
-      <c r="Z138" s="46"/>
+      <c r="S138" s="43"/>
+      <c r="T138" s="44"/>
+      <c r="U138" s="43"/>
+      <c r="V138" s="44"/>
+      <c r="W138" s="43"/>
+      <c r="X138" s="44"/>
+      <c r="Y138" s="43"/>
+      <c r="Z138" s="44"/>
       <c r="AA138" s="47"/>
       <c r="AB138" s="47"/>
       <c r="AC138" s="47"/>
@@ -9097,8 +9101,8 @@
       <c r="DI138" s="47"/>
       <c r="DJ138" s="47"/>
       <c r="DK138" s="47"/>
-      <c r="DL138" s="44"/>
-      <c r="DM138" s="46"/>
+      <c r="DL138" s="43"/>
+      <c r="DM138" s="44"/>
       <c r="DN138" s="1"/>
       <c r="DO138" s="7"/>
     </row>
@@ -9155,15 +9159,15 @@
       <c r="BZ139" s="2"/>
       <c r="CA139" s="9"/>
       <c r="CC139" s="6"/>
-      <c r="CD139" s="44" t="s">
+      <c r="CD139" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="CE139" s="46"/>
+      <c r="CE139" s="44"/>
       <c r="CF139" s="1"/>
-      <c r="CG139" s="44" t="s">
+      <c r="CG139" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="CH139" s="46"/>
+      <c r="CH139" s="44"/>
       <c r="CI139" s="1"/>
       <c r="CJ139" s="7"/>
       <c r="CK139" s="1"/>
@@ -9180,8 +9184,8 @@
       <c r="DI139" s="47"/>
       <c r="DJ139" s="47"/>
       <c r="DK139" s="47"/>
-      <c r="DL139" s="44"/>
-      <c r="DM139" s="46"/>
+      <c r="DL139" s="43"/>
+      <c r="DM139" s="44"/>
       <c r="DN139" s="1"/>
       <c r="DO139" s="7"/>
     </row>
@@ -9252,10 +9256,10 @@
       <c r="DG141" s="1"/>
       <c r="DH141" s="1"/>
       <c r="DI141" s="1"/>
-      <c r="DJ141" s="44" t="s">
+      <c r="DJ141" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="DK141" s="46"/>
+      <c r="DK141" s="44"/>
       <c r="DL141" s="1"/>
       <c r="DM141" s="1"/>
       <c r="DN141" s="1"/>
@@ -9582,30 +9586,30 @@
       <c r="R153" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="S153" s="44" t="s">
+      <c r="S153" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="T153" s="46"/>
-      <c r="U153" s="44" t="s">
+      <c r="T153" s="44"/>
+      <c r="U153" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="V153" s="46"/>
-      <c r="W153" s="44" t="s">
+      <c r="V153" s="44"/>
+      <c r="W153" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="X153" s="46"/>
-      <c r="Y153" s="44" t="s">
+      <c r="X153" s="44"/>
+      <c r="Y153" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="Z153" s="46"/>
-      <c r="AA153" s="44" t="s">
+      <c r="Z153" s="44"/>
+      <c r="AA153" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="AB153" s="46"/>
-      <c r="AC153" s="44" t="s">
+      <c r="AB153" s="44"/>
+      <c r="AC153" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AD153" s="46"/>
+      <c r="AD153" s="44"/>
       <c r="AE153" s="7"/>
       <c r="AH153" s="1"/>
       <c r="AI153" s="6"/>
@@ -9629,12 +9633,12 @@
       </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="11"/>
-      <c r="S154" s="44"/>
-      <c r="T154" s="46"/>
-      <c r="U154" s="44"/>
-      <c r="V154" s="46"/>
-      <c r="W154" s="44"/>
-      <c r="X154" s="46"/>
+      <c r="S154" s="43"/>
+      <c r="T154" s="44"/>
+      <c r="U154" s="43"/>
+      <c r="V154" s="44"/>
+      <c r="W154" s="43"/>
+      <c r="X154" s="44"/>
       <c r="Y154" s="11"/>
       <c r="Z154" s="13"/>
       <c r="AA154" s="11"/>
@@ -9669,12 +9673,12 @@
     <row r="155" spans="1:60" ht="18" customHeight="1">
       <c r="Q155" s="6"/>
       <c r="R155" s="11"/>
-      <c r="S155" s="44"/>
-      <c r="T155" s="46"/>
-      <c r="U155" s="44"/>
-      <c r="V155" s="46"/>
-      <c r="W155" s="44"/>
-      <c r="X155" s="46"/>
+      <c r="S155" s="43"/>
+      <c r="T155" s="44"/>
+      <c r="U155" s="43"/>
+      <c r="V155" s="44"/>
+      <c r="W155" s="43"/>
+      <c r="X155" s="44"/>
       <c r="Y155" s="11"/>
       <c r="Z155" s="13"/>
       <c r="AA155" s="11"/>
@@ -9704,12 +9708,12 @@
       </c>
       <c r="Q156" s="6"/>
       <c r="R156" s="11"/>
-      <c r="S156" s="44"/>
-      <c r="T156" s="46"/>
-      <c r="U156" s="44"/>
-      <c r="V156" s="46"/>
-      <c r="W156" s="44"/>
-      <c r="X156" s="46"/>
+      <c r="S156" s="43"/>
+      <c r="T156" s="44"/>
+      <c r="U156" s="43"/>
+      <c r="V156" s="44"/>
+      <c r="W156" s="43"/>
+      <c r="X156" s="44"/>
       <c r="Y156" s="11"/>
       <c r="Z156" s="13"/>
       <c r="AA156" s="11"/>
@@ -9741,12 +9745,12 @@
       </c>
       <c r="Q157" s="6"/>
       <c r="R157" s="11"/>
-      <c r="S157" s="44"/>
-      <c r="T157" s="46"/>
-      <c r="U157" s="44"/>
-      <c r="V157" s="46"/>
-      <c r="W157" s="44"/>
-      <c r="X157" s="46"/>
+      <c r="S157" s="43"/>
+      <c r="T157" s="44"/>
+      <c r="U157" s="43"/>
+      <c r="V157" s="44"/>
+      <c r="W157" s="43"/>
+      <c r="X157" s="44"/>
       <c r="Y157" s="11"/>
       <c r="Z157" s="13"/>
       <c r="AA157" s="11"/>
@@ -9776,12 +9780,12 @@
       </c>
       <c r="Q158" s="6"/>
       <c r="R158" s="11"/>
-      <c r="S158" s="44"/>
-      <c r="T158" s="46"/>
-      <c r="U158" s="44"/>
-      <c r="V158" s="46"/>
-      <c r="W158" s="44"/>
-      <c r="X158" s="46"/>
+      <c r="S158" s="43"/>
+      <c r="T158" s="44"/>
+      <c r="U158" s="43"/>
+      <c r="V158" s="44"/>
+      <c r="W158" s="43"/>
+      <c r="X158" s="44"/>
       <c r="Y158" s="11"/>
       <c r="Z158" s="13"/>
       <c r="AA158" s="11"/>
@@ -9811,12 +9815,12 @@
       </c>
       <c r="Q159" s="6"/>
       <c r="R159" s="11"/>
-      <c r="S159" s="44"/>
-      <c r="T159" s="46"/>
-      <c r="U159" s="44"/>
-      <c r="V159" s="46"/>
-      <c r="W159" s="44"/>
-      <c r="X159" s="46"/>
+      <c r="S159" s="43"/>
+      <c r="T159" s="44"/>
+      <c r="U159" s="43"/>
+      <c r="V159" s="44"/>
+      <c r="W159" s="43"/>
+      <c r="X159" s="44"/>
       <c r="Y159" s="11"/>
       <c r="Z159" s="13"/>
       <c r="AA159" s="11"/>
@@ -9846,12 +9850,12 @@
     <row r="160" spans="1:60" ht="18" customHeight="1">
       <c r="Q160" s="6"/>
       <c r="R160" s="11"/>
-      <c r="S160" s="44"/>
-      <c r="T160" s="46"/>
-      <c r="U160" s="44"/>
-      <c r="V160" s="46"/>
-      <c r="W160" s="44"/>
-      <c r="X160" s="46"/>
+      <c r="S160" s="43"/>
+      <c r="T160" s="44"/>
+      <c r="U160" s="43"/>
+      <c r="V160" s="44"/>
+      <c r="W160" s="43"/>
+      <c r="X160" s="44"/>
       <c r="Y160" s="11"/>
       <c r="Z160" s="13"/>
       <c r="AA160" s="11"/>
@@ -10464,11 +10468,11 @@
         <v>187</v>
       </c>
       <c r="X189" s="36"/>
-      <c r="Y189" s="48" t="s">
+      <c r="Y189" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="Z189" s="49"/>
-      <c r="AA189" s="50"/>
+      <c r="Z189" s="58"/>
+      <c r="AA189" s="59"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
@@ -10514,18 +10518,18 @@
       <c r="AH190" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AI190" s="44" t="s">
+      <c r="AI190" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="AJ190" s="46"/>
+      <c r="AJ190" s="44"/>
       <c r="AL190" s="40"/>
       <c r="AM190" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AN190" s="44" t="s">
+      <c r="AN190" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="AO190" s="46"/>
+      <c r="AO190" s="44"/>
       <c r="AP190" s="1"/>
       <c r="AQ190" s="7"/>
     </row>
@@ -10550,12 +10554,12 @@
       <c r="AE191" s="7"/>
       <c r="AG191" s="6"/>
       <c r="AH191" s="41"/>
-      <c r="AI191" s="44"/>
-      <c r="AJ191" s="46"/>
+      <c r="AI191" s="43"/>
+      <c r="AJ191" s="44"/>
       <c r="AL191" s="40"/>
       <c r="AM191" s="41"/>
-      <c r="AN191" s="44"/>
-      <c r="AO191" s="46"/>
+      <c r="AN191" s="43"/>
+      <c r="AO191" s="44"/>
       <c r="AP191" s="1"/>
       <c r="AQ191" s="7"/>
     </row>
@@ -10580,12 +10584,12 @@
       <c r="AE192" s="7"/>
       <c r="AG192" s="6"/>
       <c r="AH192" s="41"/>
-      <c r="AI192" s="44"/>
-      <c r="AJ192" s="46"/>
+      <c r="AI192" s="43"/>
+      <c r="AJ192" s="44"/>
       <c r="AL192" s="40"/>
       <c r="AM192" s="41"/>
-      <c r="AN192" s="44"/>
-      <c r="AO192" s="46"/>
+      <c r="AN192" s="43"/>
+      <c r="AO192" s="44"/>
       <c r="AP192" s="1"/>
       <c r="AQ192" s="7"/>
     </row>
@@ -10762,6 +10766,400 @@
     </row>
   </sheetData>
   <mergeCells count="418">
+    <mergeCell ref="AT102:AU102"/>
+    <mergeCell ref="AV102:AX102"/>
+    <mergeCell ref="Y153:Z153"/>
+    <mergeCell ref="AL159:AO159"/>
+    <mergeCell ref="AL161:AO161"/>
+    <mergeCell ref="S149:V149"/>
+    <mergeCell ref="Z149:AC149"/>
+    <mergeCell ref="S159:T159"/>
+    <mergeCell ref="U159:V159"/>
+    <mergeCell ref="W159:X159"/>
+    <mergeCell ref="S160:T160"/>
+    <mergeCell ref="U160:V160"/>
+    <mergeCell ref="W160:X160"/>
+    <mergeCell ref="AL152:AO152"/>
+    <mergeCell ref="AN137:AO137"/>
+    <mergeCell ref="AQ137:AR137"/>
+    <mergeCell ref="S156:T156"/>
+    <mergeCell ref="U156:V156"/>
+    <mergeCell ref="W156:X156"/>
+    <mergeCell ref="S157:T157"/>
+    <mergeCell ref="U157:V157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="U158:V158"/>
+    <mergeCell ref="AI192:AJ192"/>
+    <mergeCell ref="Y189:AA189"/>
+    <mergeCell ref="S187:V187"/>
+    <mergeCell ref="AA187:AC187"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="U189:V189"/>
+    <mergeCell ref="AI190:AJ190"/>
+    <mergeCell ref="AI191:AJ191"/>
+    <mergeCell ref="AN190:AO190"/>
+    <mergeCell ref="AN191:AO191"/>
+    <mergeCell ref="AN192:AO192"/>
+    <mergeCell ref="W158:X158"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="AA153:AB153"/>
+    <mergeCell ref="AC153:AD153"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="U154:V154"/>
+    <mergeCell ref="W154:X154"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="AC138:AD138"/>
+    <mergeCell ref="AO129:AR129"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="AC133:AD133"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AG137:AH137"/>
+    <mergeCell ref="AG138:AH138"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="U138:V138"/>
+    <mergeCell ref="W138:X138"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="DL139:DM139"/>
+    <mergeCell ref="DJ141:DK141"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="AA130:AH130"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="Y131:Z131"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
+    <mergeCell ref="Y132:Z132"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
+    <mergeCell ref="Y133:Z133"/>
+    <mergeCell ref="U134:V134"/>
+    <mergeCell ref="W134:X134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="W135:X135"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="W137:X137"/>
+    <mergeCell ref="DL136:DM136"/>
+    <mergeCell ref="DD137:DE137"/>
+    <mergeCell ref="DF137:DH137"/>
+    <mergeCell ref="DI137:DK137"/>
+    <mergeCell ref="DL137:DM137"/>
+    <mergeCell ref="DD138:DE138"/>
+    <mergeCell ref="DF138:DH138"/>
+    <mergeCell ref="DI138:DK138"/>
+    <mergeCell ref="DL138:DM138"/>
+    <mergeCell ref="CU131:CV131"/>
+    <mergeCell ref="CU132:CV132"/>
+    <mergeCell ref="CS131:CT131"/>
+    <mergeCell ref="CS132:CT132"/>
+    <mergeCell ref="DD136:DE136"/>
+    <mergeCell ref="DF136:DH136"/>
+    <mergeCell ref="DI136:DK136"/>
+    <mergeCell ref="CD139:CE139"/>
+    <mergeCell ref="CG139:CH139"/>
+    <mergeCell ref="DD139:DE139"/>
+    <mergeCell ref="DF139:DH139"/>
+    <mergeCell ref="DI139:DK139"/>
+    <mergeCell ref="BG134:BH134"/>
+    <mergeCell ref="CN134:CO134"/>
+    <mergeCell ref="CQ134:CR134"/>
+    <mergeCell ref="BO133:BP133"/>
+    <mergeCell ref="BQ133:BR133"/>
+    <mergeCell ref="BS133:BT133"/>
+    <mergeCell ref="BO134:BP134"/>
+    <mergeCell ref="BQ134:BR134"/>
+    <mergeCell ref="BS134:BT134"/>
+    <mergeCell ref="CA112:CH112"/>
+    <mergeCell ref="AN106:AS106"/>
+    <mergeCell ref="BA132:BC132"/>
+    <mergeCell ref="AY131:AZ131"/>
+    <mergeCell ref="BA131:BC131"/>
+    <mergeCell ref="BD131:BF131"/>
+    <mergeCell ref="AY132:AZ132"/>
+    <mergeCell ref="BD132:BF132"/>
+    <mergeCell ref="AY133:AZ133"/>
+    <mergeCell ref="BA133:BC133"/>
+    <mergeCell ref="BD133:BF133"/>
+    <mergeCell ref="BZ116:CA116"/>
+    <mergeCell ref="CC116:CD116"/>
+    <mergeCell ref="BO131:BP131"/>
+    <mergeCell ref="BQ131:BR131"/>
+    <mergeCell ref="BS131:BT131"/>
+    <mergeCell ref="BO132:BP132"/>
+    <mergeCell ref="BQ132:BR132"/>
+    <mergeCell ref="BS132:BT132"/>
+    <mergeCell ref="BY112:BZ112"/>
+    <mergeCell ref="CB108:CI108"/>
+    <mergeCell ref="BY110:BZ110"/>
+    <mergeCell ref="BG131:BH131"/>
+    <mergeCell ref="BG132:BH132"/>
+    <mergeCell ref="BP136:BQ136"/>
+    <mergeCell ref="AE131:AF131"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AE133:AF133"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="W136:X136"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="AY134:AZ134"/>
+    <mergeCell ref="BA134:BC134"/>
+    <mergeCell ref="BD134:BF134"/>
+    <mergeCell ref="BA136:BB136"/>
+    <mergeCell ref="BD136:BE136"/>
+    <mergeCell ref="AG131:AH131"/>
+    <mergeCell ref="AG132:AH132"/>
+    <mergeCell ref="AG133:AH133"/>
+    <mergeCell ref="AG134:AH134"/>
+    <mergeCell ref="AG135:AH135"/>
+    <mergeCell ref="AG136:AH136"/>
+    <mergeCell ref="BG133:BH133"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="Z126:AB126"/>
+    <mergeCell ref="AD126:AE126"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD102:AH102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="AM102:AQ102"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI32:AO32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="CA110:CH110"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AN37:AO37"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="BI58:BJ58"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="BK49:BL49"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="BK50:BL50"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BI52:BJ52"/>
+    <mergeCell ref="BK52:BL52"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="BY108:CA108"/>
+    <mergeCell ref="BC74:BD74"/>
+    <mergeCell ref="BC75:BD75"/>
+    <mergeCell ref="BN78:BO78"/>
+    <mergeCell ref="BI53:BJ53"/>
+    <mergeCell ref="BK53:BL53"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AO38"/>
+    <mergeCell ref="S106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="AE106:AG106"/>
+    <mergeCell ref="AH106:AJ106"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="X48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AD93:AE93"/>
+    <mergeCell ref="AF93:AG93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AD94:AE94"/>
+    <mergeCell ref="AF94:AG94"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="BC71:BD71"/>
+    <mergeCell ref="BE71:BF71"/>
+    <mergeCell ref="BG71:BH71"/>
+    <mergeCell ref="BC72:BD72"/>
+    <mergeCell ref="BB73:BC73"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:AB66"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AB90:AG90"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="AP91:AW91"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="AO90:AQ90"/>
+    <mergeCell ref="AR90:AY90"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:AC88"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="S92:U92"/>
+    <mergeCell ref="S93:U93"/>
+    <mergeCell ref="S94:U94"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="X94:Y94"/>
     <mergeCell ref="BP115:BQ115"/>
     <mergeCell ref="BH117:BI117"/>
     <mergeCell ref="BK117:BL117"/>
@@ -10786,400 +11184,6 @@
     <mergeCell ref="AP94:AQ94"/>
     <mergeCell ref="T75:U75"/>
     <mergeCell ref="AE78:AF78"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:AC88"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="S92:U92"/>
-    <mergeCell ref="S93:U93"/>
-    <mergeCell ref="S94:U94"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="BC71:BD71"/>
-    <mergeCell ref="BE71:BF71"/>
-    <mergeCell ref="BG71:BH71"/>
-    <mergeCell ref="BC72:BD72"/>
-    <mergeCell ref="BB73:BC73"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:AB66"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="AB90:AG90"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="AP91:AW91"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="AO90:AQ90"/>
-    <mergeCell ref="AR90:AY90"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="AF91:AG91"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AF93:AG93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AD94:AE94"/>
-    <mergeCell ref="AF94:AG94"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="S106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="AE106:AG106"/>
-    <mergeCell ref="AH106:AJ106"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="X48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="CA110:CH110"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="BI58:BJ58"/>
-    <mergeCell ref="BH47:BI47"/>
-    <mergeCell ref="BJ47:BK47"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="BK49:BL49"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="BK50:BL50"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BI52:BJ52"/>
-    <mergeCell ref="BK52:BL52"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="BY108:CA108"/>
-    <mergeCell ref="BC74:BD74"/>
-    <mergeCell ref="BC75:BD75"/>
-    <mergeCell ref="BN78:BO78"/>
-    <mergeCell ref="BI53:BJ53"/>
-    <mergeCell ref="BK53:BL53"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="Z126:AB126"/>
-    <mergeCell ref="AD126:AE126"/>
-    <mergeCell ref="AA131:AB131"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD102:AH102"/>
-    <mergeCell ref="AK102:AL102"/>
-    <mergeCell ref="AM102:AQ102"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AI32:AO32"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="BP136:BQ136"/>
-    <mergeCell ref="AE131:AF131"/>
-    <mergeCell ref="AE132:AF132"/>
-    <mergeCell ref="AE133:AF133"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="AE135:AF135"/>
-    <mergeCell ref="AE136:AF136"/>
-    <mergeCell ref="W136:X136"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="Y130:Z130"/>
-    <mergeCell ref="U128:V128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="AY134:AZ134"/>
-    <mergeCell ref="BA134:BC134"/>
-    <mergeCell ref="BD134:BF134"/>
-    <mergeCell ref="BA136:BB136"/>
-    <mergeCell ref="BD136:BE136"/>
-    <mergeCell ref="AG131:AH131"/>
-    <mergeCell ref="AG132:AH132"/>
-    <mergeCell ref="AG133:AH133"/>
-    <mergeCell ref="AG134:AH134"/>
-    <mergeCell ref="AG135:AH135"/>
-    <mergeCell ref="AG136:AH136"/>
-    <mergeCell ref="BG133:BH133"/>
-    <mergeCell ref="CA112:CH112"/>
-    <mergeCell ref="AN106:AS106"/>
-    <mergeCell ref="BA132:BC132"/>
-    <mergeCell ref="AY131:AZ131"/>
-    <mergeCell ref="BA131:BC131"/>
-    <mergeCell ref="BD131:BF131"/>
-    <mergeCell ref="AY132:AZ132"/>
-    <mergeCell ref="BD132:BF132"/>
-    <mergeCell ref="AY133:AZ133"/>
-    <mergeCell ref="BA133:BC133"/>
-    <mergeCell ref="BD133:BF133"/>
-    <mergeCell ref="BZ116:CA116"/>
-    <mergeCell ref="CC116:CD116"/>
-    <mergeCell ref="BO131:BP131"/>
-    <mergeCell ref="BQ131:BR131"/>
-    <mergeCell ref="BS131:BT131"/>
-    <mergeCell ref="BO132:BP132"/>
-    <mergeCell ref="BQ132:BR132"/>
-    <mergeCell ref="BS132:BT132"/>
-    <mergeCell ref="BY112:BZ112"/>
-    <mergeCell ref="CB108:CI108"/>
-    <mergeCell ref="BY110:BZ110"/>
-    <mergeCell ref="BG131:BH131"/>
-    <mergeCell ref="BG132:BH132"/>
-    <mergeCell ref="BG134:BH134"/>
-    <mergeCell ref="CN134:CO134"/>
-    <mergeCell ref="CQ134:CR134"/>
-    <mergeCell ref="BO133:BP133"/>
-    <mergeCell ref="BQ133:BR133"/>
-    <mergeCell ref="BS133:BT133"/>
-    <mergeCell ref="BO134:BP134"/>
-    <mergeCell ref="BQ134:BR134"/>
-    <mergeCell ref="BS134:BT134"/>
-    <mergeCell ref="CU131:CV131"/>
-    <mergeCell ref="CU132:CV132"/>
-    <mergeCell ref="CS131:CT131"/>
-    <mergeCell ref="CS132:CT132"/>
-    <mergeCell ref="DD136:DE136"/>
-    <mergeCell ref="DF136:DH136"/>
-    <mergeCell ref="DI136:DK136"/>
-    <mergeCell ref="CD139:CE139"/>
-    <mergeCell ref="CG139:CH139"/>
-    <mergeCell ref="DD139:DE139"/>
-    <mergeCell ref="DF139:DH139"/>
-    <mergeCell ref="DI139:DK139"/>
-    <mergeCell ref="DL136:DM136"/>
-    <mergeCell ref="DD137:DE137"/>
-    <mergeCell ref="DF137:DH137"/>
-    <mergeCell ref="DI137:DK137"/>
-    <mergeCell ref="DL137:DM137"/>
-    <mergeCell ref="DD138:DE138"/>
-    <mergeCell ref="DF138:DH138"/>
-    <mergeCell ref="DI138:DK138"/>
-    <mergeCell ref="DL138:DM138"/>
-    <mergeCell ref="DL139:DM139"/>
-    <mergeCell ref="DJ141:DK141"/>
-    <mergeCell ref="U130:V130"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="AA130:AH130"/>
-    <mergeCell ref="U131:V131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="Y131:Z131"/>
-    <mergeCell ref="U132:V132"/>
-    <mergeCell ref="W132:X132"/>
-    <mergeCell ref="Y132:Z132"/>
-    <mergeCell ref="U133:V133"/>
-    <mergeCell ref="W133:X133"/>
-    <mergeCell ref="Y133:Z133"/>
-    <mergeCell ref="U134:V134"/>
-    <mergeCell ref="W134:X134"/>
-    <mergeCell ref="Y134:Z134"/>
-    <mergeCell ref="U135:V135"/>
-    <mergeCell ref="W135:X135"/>
-    <mergeCell ref="Y135:Z135"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="W137:X137"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="U138:V138"/>
-    <mergeCell ref="W138:X138"/>
-    <mergeCell ref="Y138:Z138"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="AA138:AB138"/>
-    <mergeCell ref="AC138:AD138"/>
-    <mergeCell ref="AO129:AR129"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AA132:AB132"/>
-    <mergeCell ref="AC132:AD132"/>
-    <mergeCell ref="AA133:AB133"/>
-    <mergeCell ref="AC133:AD133"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="AC134:AD134"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AG137:AH137"/>
-    <mergeCell ref="AG138:AH138"/>
-    <mergeCell ref="W158:X158"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="AA153:AB153"/>
-    <mergeCell ref="AC153:AD153"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="U154:V154"/>
-    <mergeCell ref="W154:X154"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="AI192:AJ192"/>
-    <mergeCell ref="Y189:AA189"/>
-    <mergeCell ref="S187:V187"/>
-    <mergeCell ref="AA187:AC187"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="U189:V189"/>
-    <mergeCell ref="AI190:AJ190"/>
-    <mergeCell ref="AI191:AJ191"/>
-    <mergeCell ref="AN190:AO190"/>
-    <mergeCell ref="AN191:AO191"/>
-    <mergeCell ref="AN192:AO192"/>
-    <mergeCell ref="AT102:AU102"/>
-    <mergeCell ref="AV102:AX102"/>
-    <mergeCell ref="Y153:Z153"/>
-    <mergeCell ref="AL159:AO159"/>
-    <mergeCell ref="AL161:AO161"/>
-    <mergeCell ref="S149:V149"/>
-    <mergeCell ref="Z149:AC149"/>
-    <mergeCell ref="S159:T159"/>
-    <mergeCell ref="U159:V159"/>
-    <mergeCell ref="W159:X159"/>
-    <mergeCell ref="S160:T160"/>
-    <mergeCell ref="U160:V160"/>
-    <mergeCell ref="W160:X160"/>
-    <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="AN137:AO137"/>
-    <mergeCell ref="AQ137:AR137"/>
-    <mergeCell ref="S156:T156"/>
-    <mergeCell ref="U156:V156"/>
-    <mergeCell ref="W156:X156"/>
-    <mergeCell ref="S157:T157"/>
-    <mergeCell ref="U157:V157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="U158:V158"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/通用测试平台.xlsx
+++ b/通用测试平台.xlsx
@@ -1351,7 +1351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1361,6 +1361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1725,7 +1731,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1805,22 +1811,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1832,30 +1844,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="217">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2378,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AP100" workbookViewId="0">
-      <selection activeCell="BX111" sqref="BX111"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="AA115" sqref="AA115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18" customHeight="1"/>
@@ -2389,38 +2397,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:46" ht="18" customHeight="1">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="U1" s="46" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="U1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
     </row>
     <row r="2" spans="2:46" ht="18" customHeight="1">
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="30"/>
@@ -2587,18 +2595,18 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="52" t="s">
+      <c r="S10" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="52"/>
-      <c r="U10" s="48" t="s">
+      <c r="T10" s="56"/>
+      <c r="U10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48" t="s">
+      <c r="V10" s="43"/>
+      <c r="W10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="48"/>
+      <c r="X10" s="43"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2629,15 +2637,15 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="48" t="s">
+      <c r="T11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48" t="s">
+      <c r="U11" s="43"/>
+      <c r="V11" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48" t="s">
+      <c r="W11" s="43"/>
+      <c r="X11" s="43" t="s">
         <v>8</v>
       </c>
       <c r="Y11" s="55"/>
@@ -2667,10 +2675,10 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="48" t="s">
+      <c r="T12" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="48"/>
+      <c r="U12" s="43"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -2700,10 +2708,10 @@
     <row r="13" spans="2:46" ht="18" customHeight="1">
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="48" t="s">
+      <c r="S13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="48"/>
+      <c r="T13" s="43"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -2741,10 +2749,10 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="48" t="s">
+      <c r="T14" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="48"/>
+      <c r="U14" s="43"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -2773,10 +2781,10 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="48" t="s">
+      <c r="T15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="48"/>
+      <c r="U15" s="43"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -2872,10 +2880,10 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="43" t="s">
+      <c r="AE18" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="44"/>
+      <c r="AF18" s="46"/>
       <c r="AG18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -3069,24 +3077,24 @@
     <row r="28" spans="2:46" ht="18" customHeight="1">
       <c r="Q28" s="6"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="48" t="s">
+      <c r="S28" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="T28" s="48"/>
-      <c r="U28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="44"/>
       <c r="V28" s="45"/>
-      <c r="W28" s="44"/>
+      <c r="W28" s="46"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="48" t="s">
+      <c r="Y28" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="44"/>
-      <c r="AD28" s="48" t="s">
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="46"/>
+      <c r="AD28" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AE28" s="48"/>
+      <c r="AE28" s="43"/>
       <c r="AF28" s="47"/>
       <c r="AG28" s="47"/>
       <c r="AH28" s="47"/>
@@ -3094,10 +3102,10 @@
         <v>54</v>
       </c>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="43" t="s">
+      <c r="AK28" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="AL28" s="44"/>
+      <c r="AL28" s="46"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -3224,37 +3232,37 @@
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="43" t="s">
+      <c r="S32" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="T32" s="44"/>
-      <c r="U32" s="43" t="s">
+      <c r="T32" s="46"/>
+      <c r="U32" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="V32" s="44"/>
-      <c r="W32" s="43" t="s">
+      <c r="V32" s="46"/>
+      <c r="W32" s="44" t="s">
         <v>16</v>
       </c>
       <c r="X32" s="45"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="43" t="s">
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="44" t="s">
         <v>17</v>
       </c>
       <c r="AA32" s="45"/>
-      <c r="AB32" s="44"/>
+      <c r="AB32" s="46"/>
       <c r="AC32" s="37" t="s">
         <v>22</v>
       </c>
       <c r="AD32" s="38"/>
-      <c r="AE32" s="43" t="s">
+      <c r="AE32" s="44" t="s">
         <v>28</v>
       </c>
       <c r="AF32" s="45"/>
-      <c r="AG32" s="43" t="s">
+      <c r="AG32" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="43" t="s">
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="44" t="s">
         <v>19</v>
       </c>
       <c r="AJ32" s="45"/>
@@ -3262,7 +3270,7 @@
       <c r="AL32" s="45"/>
       <c r="AM32" s="45"/>
       <c r="AN32" s="45"/>
-      <c r="AO32" s="44"/>
+      <c r="AO32" s="46"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
@@ -3275,39 +3283,39 @@
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="43" t="s">
+      <c r="S33" s="44"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="V33" s="44"/>
-      <c r="W33" s="43"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="44"/>
       <c r="X33" s="45"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="43"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="44"/>
       <c r="AA33" s="45"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="44"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="46"/>
       <c r="AE33" s="11"/>
       <c r="AF33" s="13"/>
-      <c r="AG33" s="43" t="s">
+      <c r="AG33" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="AH33" s="44"/>
-      <c r="AI33" s="43" t="s">
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="43" t="s">
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="44" t="s">
         <v>29</v>
       </c>
       <c r="AL33" s="45"/>
-      <c r="AM33" s="44"/>
-      <c r="AN33" s="43" t="s">
+      <c r="AM33" s="46"/>
+      <c r="AN33" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AO33" s="44"/>
+      <c r="AO33" s="46"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
@@ -3320,39 +3328,39 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="43" t="s">
+      <c r="S34" s="44"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="V34" s="44"/>
-      <c r="W34" s="43"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="44"/>
       <c r="X34" s="45"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="43"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="44"/>
       <c r="AA34" s="45"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="43"/>
-      <c r="AD34" s="44"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="46"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="13"/>
-      <c r="AG34" s="43" t="s">
+      <c r="AG34" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="AH34" s="44"/>
-      <c r="AI34" s="43" t="s">
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="43" t="s">
+      <c r="AJ34" s="46"/>
+      <c r="AK34" s="44" t="s">
         <v>29</v>
       </c>
       <c r="AL34" s="45"/>
-      <c r="AM34" s="44"/>
-      <c r="AN34" s="43" t="s">
+      <c r="AM34" s="46"/>
+      <c r="AN34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AO34" s="44"/>
+      <c r="AO34" s="46"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
@@ -3365,37 +3373,37 @@
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="43" t="s">
+      <c r="S35" s="44"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="44"/>
-      <c r="W35" s="43"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="44"/>
       <c r="X35" s="45"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="43"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="44"/>
       <c r="AA35" s="45"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="43"/>
-      <c r="AD35" s="44"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="46"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="13"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
-      <c r="AI35" s="43" t="s">
+      <c r="AI35" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AJ35" s="44"/>
-      <c r="AK35" s="43" t="s">
+      <c r="AJ35" s="46"/>
+      <c r="AK35" s="44" t="s">
         <v>29</v>
       </c>
       <c r="AL35" s="45"/>
-      <c r="AM35" s="44"/>
-      <c r="AN35" s="43" t="s">
+      <c r="AM35" s="46"/>
+      <c r="AN35" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AO35" s="44"/>
+      <c r="AO35" s="46"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
@@ -3408,12 +3416,12 @@
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="43" t="s">
+      <c r="S36" s="44"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="V36" s="44"/>
+      <c r="V36" s="46"/>
       <c r="W36" s="37"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="38"/>
@@ -3426,19 +3434,19 @@
       <c r="AF36" s="13"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
-      <c r="AI36" s="43" t="s">
+      <c r="AI36" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AJ36" s="44"/>
-      <c r="AK36" s="43" t="s">
+      <c r="AJ36" s="46"/>
+      <c r="AK36" s="44" t="s">
         <v>29</v>
       </c>
       <c r="AL36" s="45"/>
-      <c r="AM36" s="44"/>
-      <c r="AN36" s="43" t="s">
+      <c r="AM36" s="46"/>
+      <c r="AN36" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AO36" s="44"/>
+      <c r="AO36" s="46"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
@@ -3451,37 +3459,37 @@
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="43" t="s">
+      <c r="S37" s="44"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="V37" s="44"/>
-      <c r="W37" s="43"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="44"/>
       <c r="X37" s="45"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="43"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="44"/>
       <c r="AA37" s="45"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="43"/>
-      <c r="AD37" s="44"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="46"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="13"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
-      <c r="AI37" s="43" t="s">
+      <c r="AI37" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="43" t="s">
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="44" t="s">
         <v>29</v>
       </c>
       <c r="AL37" s="45"/>
-      <c r="AM37" s="44"/>
-      <c r="AN37" s="43" t="s">
+      <c r="AM37" s="46"/>
+      <c r="AN37" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AO37" s="44"/>
+      <c r="AO37" s="46"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
@@ -3491,29 +3499,29 @@
     <row r="38" spans="2:67" ht="18" customHeight="1">
       <c r="Q38" s="6"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="43"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="44"/>
       <c r="X38" s="45"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="43"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="44"/>
       <c r="AA38" s="45"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="43"/>
-      <c r="AD38" s="44"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="46"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="13"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="43"/>
-      <c r="AJ38" s="44"/>
-      <c r="AK38" s="43"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="46"/>
+      <c r="AK38" s="44"/>
       <c r="AL38" s="45"/>
-      <c r="AM38" s="44"/>
-      <c r="AN38" s="43"/>
-      <c r="AO38" s="44"/>
+      <c r="AM38" s="46"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="46"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
@@ -3948,15 +3956,15 @@
       <c r="AN51" s="6"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
-      <c r="AQ51" s="43" t="s">
+      <c r="AQ51" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AR51" s="44"/>
+      <c r="AR51" s="46"/>
       <c r="AS51" s="1"/>
-      <c r="AT51" s="43" t="s">
+      <c r="AT51" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AU51" s="44"/>
+      <c r="AU51" s="46"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
@@ -4248,10 +4256,10 @@
       <c r="BF58" s="6"/>
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
-      <c r="BI58" s="43" t="s">
+      <c r="BI58" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="BJ58" s="44"/>
+      <c r="BJ58" s="46"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
       <c r="BM58" s="1"/>
@@ -4414,21 +4422,21 @@
         <v>134</v>
       </c>
       <c r="Q66" s="6"/>
-      <c r="R66" s="48" t="s">
+      <c r="R66" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="S66" s="48"/>
-      <c r="T66" s="48"/>
-      <c r="U66" s="49" t="s">
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="V66" s="50"/>
-      <c r="W66" s="50"/>
-      <c r="X66" s="50"/>
-      <c r="Y66" s="50"/>
-      <c r="Z66" s="50"/>
-      <c r="AA66" s="50"/>
-      <c r="AB66" s="51"/>
+      <c r="V66" s="52"/>
+      <c r="W66" s="52"/>
+      <c r="X66" s="52"/>
+      <c r="Y66" s="52"/>
+      <c r="Z66" s="52"/>
+      <c r="AA66" s="52"/>
+      <c r="AB66" s="53"/>
       <c r="AC66" s="16" t="s">
         <v>54</v>
       </c>
@@ -4437,10 +4445,10 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="43" t="s">
+      <c r="AI66" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="AJ66" s="44"/>
+      <c r="AJ66" s="46"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
@@ -4456,21 +4464,21 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="7"/>
       <c r="AZ66" s="6"/>
-      <c r="BA66" s="48" t="s">
+      <c r="BA66" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BB66" s="48"/>
-      <c r="BC66" s="48"/>
-      <c r="BD66" s="49" t="s">
+      <c r="BB66" s="43"/>
+      <c r="BC66" s="43"/>
+      <c r="BD66" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="BE66" s="50"/>
-      <c r="BF66" s="50"/>
-      <c r="BG66" s="50"/>
-      <c r="BH66" s="50"/>
-      <c r="BI66" s="50"/>
-      <c r="BJ66" s="50"/>
-      <c r="BK66" s="51"/>
+      <c r="BE66" s="52"/>
+      <c r="BF66" s="52"/>
+      <c r="BG66" s="52"/>
+      <c r="BH66" s="52"/>
+      <c r="BI66" s="52"/>
+      <c r="BJ66" s="52"/>
+      <c r="BK66" s="53"/>
       <c r="BL66" s="16" t="s">
         <v>54</v>
       </c>
@@ -4722,18 +4730,18 @@
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="54" t="s">
+      <c r="S70" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="T70" s="54"/>
-      <c r="U70" s="48" t="s">
+      <c r="T70" s="58"/>
+      <c r="U70" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="V70" s="48"/>
-      <c r="W70" s="48" t="s">
+      <c r="V70" s="43"/>
+      <c r="W70" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="X70" s="48"/>
+      <c r="X70" s="43"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -4762,18 +4770,18 @@
       <c r="AX70" s="7"/>
       <c r="AZ70" s="6"/>
       <c r="BA70" s="6"/>
-      <c r="BB70" s="52" t="s">
+      <c r="BB70" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="BC70" s="52"/>
-      <c r="BD70" s="48" t="s">
+      <c r="BC70" s="56"/>
+      <c r="BD70" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="BE70" s="48"/>
-      <c r="BF70" s="48" t="s">
+      <c r="BE70" s="43"/>
+      <c r="BF70" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="BG70" s="48"/>
+      <c r="BG70" s="43"/>
       <c r="BH70" s="7"/>
       <c r="BI70" s="1"/>
       <c r="BJ70" s="1"/>
@@ -4808,15 +4816,15 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="48" t="s">
+      <c r="T71" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="48"/>
-      <c r="V71" s="48" t="s">
+      <c r="U71" s="43"/>
+      <c r="V71" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="W71" s="48"/>
-      <c r="X71" s="48" t="s">
+      <c r="W71" s="43"/>
+      <c r="X71" s="43" t="s">
         <v>8</v>
       </c>
       <c r="Y71" s="55"/>
@@ -4850,15 +4858,15 @@
       <c r="AZ71" s="6"/>
       <c r="BA71" s="6"/>
       <c r="BB71" s="1"/>
-      <c r="BC71" s="48" t="s">
+      <c r="BC71" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="BD71" s="48"/>
-      <c r="BE71" s="48" t="s">
+      <c r="BD71" s="43"/>
+      <c r="BE71" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="BF71" s="48"/>
-      <c r="BG71" s="48" t="s">
+      <c r="BF71" s="43"/>
+      <c r="BG71" s="43" t="s">
         <v>8</v>
       </c>
       <c r="BH71" s="55"/>
@@ -4897,10 +4905,10 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="48" t="s">
+      <c r="T72" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="48"/>
+      <c r="U72" s="43"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
@@ -4935,10 +4943,10 @@
       <c r="AZ72" s="6"/>
       <c r="BA72" s="6"/>
       <c r="BB72" s="1"/>
-      <c r="BC72" s="48" t="s">
+      <c r="BC72" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="BD72" s="48"/>
+      <c r="BD72" s="43"/>
       <c r="BE72" s="1"/>
       <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
@@ -4974,10 +4982,10 @@
     <row r="73" spans="3:85" ht="18" customHeight="1">
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="S73" s="48" t="s">
+      <c r="S73" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="T73" s="48"/>
+      <c r="T73" s="43"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -5014,10 +5022,10 @@
       <c r="AX73" s="7"/>
       <c r="AZ73" s="6"/>
       <c r="BA73" s="6"/>
-      <c r="BB73" s="48" t="s">
+      <c r="BB73" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="BC73" s="48"/>
+      <c r="BC73" s="43"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
       <c r="BF73" s="1"/>
@@ -5061,10 +5069,10 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="48" t="s">
+      <c r="T74" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="U74" s="48"/>
+      <c r="U74" s="43"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
@@ -5097,10 +5105,10 @@
       <c r="AZ74" s="6"/>
       <c r="BA74" s="6"/>
       <c r="BB74" s="1"/>
-      <c r="BC74" s="48" t="s">
+      <c r="BC74" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="BD74" s="48"/>
+      <c r="BD74" s="43"/>
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
       <c r="BG74" s="1"/>
@@ -5135,10 +5143,10 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="48" t="s">
+      <c r="T75" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="U75" s="48"/>
+      <c r="U75" s="43"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
@@ -5171,10 +5179,10 @@
       <c r="AZ75" s="6"/>
       <c r="BA75" s="6"/>
       <c r="BB75" s="1"/>
-      <c r="BC75" s="48" t="s">
+      <c r="BC75" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="BD75" s="48"/>
+      <c r="BD75" s="43"/>
       <c r="BE75" s="1"/>
       <c r="BF75" s="1"/>
       <c r="BG75" s="1"/>
@@ -5360,10 +5368,10 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
-      <c r="AE78" s="43" t="s">
+      <c r="AE78" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AF78" s="44"/>
+      <c r="AF78" s="46"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
@@ -5396,10 +5404,10 @@
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
       <c r="BM78" s="1"/>
-      <c r="BN78" s="43" t="s">
+      <c r="BN78" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="BO78" s="44"/>
+      <c r="BO78" s="46"/>
       <c r="BP78" s="1"/>
       <c r="BQ78" s="1"/>
       <c r="BR78" s="1"/>
@@ -5749,21 +5757,21 @@
     <row r="88" spans="2:85" ht="18" customHeight="1">
       <c r="Q88" s="6"/>
       <c r="R88" s="1"/>
-      <c r="S88" s="48" t="s">
+      <c r="S88" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="T88" s="48"/>
-      <c r="U88" s="48"/>
-      <c r="V88" s="49" t="s">
+      <c r="T88" s="43"/>
+      <c r="U88" s="43"/>
+      <c r="V88" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="W88" s="50"/>
-      <c r="X88" s="50"/>
-      <c r="Y88" s="50"/>
-      <c r="Z88" s="50"/>
-      <c r="AA88" s="50"/>
-      <c r="AB88" s="50"/>
-      <c r="AC88" s="51"/>
+      <c r="W88" s="52"/>
+      <c r="X88" s="52"/>
+      <c r="Y88" s="52"/>
+      <c r="Z88" s="52"/>
+      <c r="AA88" s="52"/>
+      <c r="AB88" s="52"/>
+      <c r="AC88" s="53"/>
       <c r="AD88" s="16" t="s">
         <v>54</v>
       </c>
@@ -5846,14 +5854,14 @@
       </c>
       <c r="T90" s="47"/>
       <c r="U90" s="47"/>
-      <c r="V90" s="43" t="s">
+      <c r="V90" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="W90" s="44"/>
-      <c r="X90" s="43" t="s">
+      <c r="W90" s="46"/>
+      <c r="X90" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="Y90" s="44"/>
+      <c r="Y90" s="46"/>
       <c r="Z90" s="47" t="s">
         <v>76</v>
       </c>
@@ -5870,21 +5878,21 @@
       <c r="AI90" s="7"/>
       <c r="AM90" s="6"/>
       <c r="AN90" s="1"/>
-      <c r="AO90" s="48" t="s">
+      <c r="AO90" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="AP90" s="48"/>
-      <c r="AQ90" s="48"/>
-      <c r="AR90" s="49" t="s">
+      <c r="AP90" s="43"/>
+      <c r="AQ90" s="43"/>
+      <c r="AR90" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="AS90" s="50"/>
-      <c r="AT90" s="50"/>
-      <c r="AU90" s="50"/>
-      <c r="AV90" s="50"/>
-      <c r="AW90" s="50"/>
-      <c r="AX90" s="50"/>
-      <c r="AY90" s="51"/>
+      <c r="AS90" s="52"/>
+      <c r="AT90" s="52"/>
+      <c r="AU90" s="52"/>
+      <c r="AV90" s="52"/>
+      <c r="AW90" s="52"/>
+      <c r="AX90" s="52"/>
+      <c r="AY90" s="53"/>
       <c r="AZ90" s="25" t="s">
         <v>54</v>
       </c>
@@ -5902,24 +5910,24 @@
       </c>
       <c r="T91" s="47"/>
       <c r="U91" s="47"/>
-      <c r="V91" s="43"/>
-      <c r="W91" s="44"/>
-      <c r="X91" s="43"/>
-      <c r="Y91" s="44"/>
-      <c r="Z91" s="43"/>
-      <c r="AA91" s="44"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="46"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="46"/>
+      <c r="Z91" s="44"/>
+      <c r="AA91" s="46"/>
       <c r="AB91" s="47" t="s">
         <v>7</v>
       </c>
       <c r="AC91" s="47"/>
-      <c r="AD91" s="43" t="s">
+      <c r="AD91" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AE91" s="44"/>
-      <c r="AF91" s="43" t="s">
+      <c r="AE91" s="46"/>
+      <c r="AF91" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="AG91" s="44"/>
+      <c r="AG91" s="46"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="7"/>
       <c r="AM91" s="6"/>
@@ -5927,16 +5935,16 @@
       <c r="AO91" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AP91" s="49" t="s">
+      <c r="AP91" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="AQ91" s="50"/>
-      <c r="AR91" s="50"/>
-      <c r="AS91" s="50"/>
-      <c r="AT91" s="50"/>
-      <c r="AU91" s="50"/>
-      <c r="AV91" s="50"/>
-      <c r="AW91" s="51"/>
+      <c r="AQ91" s="52"/>
+      <c r="AR91" s="52"/>
+      <c r="AS91" s="52"/>
+      <c r="AT91" s="52"/>
+      <c r="AU91" s="52"/>
+      <c r="AV91" s="52"/>
+      <c r="AW91" s="53"/>
       <c r="AX91" s="42" t="s">
         <v>54</v>
       </c>
@@ -5956,18 +5964,18 @@
       </c>
       <c r="T92" s="47"/>
       <c r="U92" s="47"/>
-      <c r="V92" s="43"/>
-      <c r="W92" s="44"/>
-      <c r="X92" s="43"/>
-      <c r="Y92" s="44"/>
-      <c r="Z92" s="43"/>
-      <c r="AA92" s="44"/>
+      <c r="V92" s="44"/>
+      <c r="W92" s="46"/>
+      <c r="X92" s="44"/>
+      <c r="Y92" s="46"/>
+      <c r="Z92" s="44"/>
+      <c r="AA92" s="46"/>
       <c r="AB92" s="47"/>
       <c r="AC92" s="47"/>
-      <c r="AD92" s="43"/>
-      <c r="AE92" s="44"/>
-      <c r="AF92" s="43"/>
-      <c r="AG92" s="44"/>
+      <c r="AD92" s="44"/>
+      <c r="AE92" s="46"/>
+      <c r="AF92" s="44"/>
+      <c r="AG92" s="46"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="7"/>
       <c r="AM92" s="6"/>
@@ -6000,18 +6008,18 @@
       </c>
       <c r="T93" s="47"/>
       <c r="U93" s="47"/>
-      <c r="V93" s="43"/>
-      <c r="W93" s="44"/>
-      <c r="X93" s="43"/>
-      <c r="Y93" s="44"/>
-      <c r="Z93" s="43"/>
-      <c r="AA93" s="44"/>
+      <c r="V93" s="44"/>
+      <c r="W93" s="46"/>
+      <c r="X93" s="44"/>
+      <c r="Y93" s="46"/>
+      <c r="Z93" s="44"/>
+      <c r="AA93" s="46"/>
       <c r="AB93" s="47"/>
       <c r="AC93" s="47"/>
-      <c r="AD93" s="43"/>
-      <c r="AE93" s="44"/>
-      <c r="AF93" s="43"/>
-      <c r="AG93" s="44"/>
+      <c r="AD93" s="44"/>
+      <c r="AE93" s="46"/>
+      <c r="AF93" s="44"/>
+      <c r="AG93" s="46"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="7"/>
       <c r="AM93" s="6"/>
@@ -6037,37 +6045,37 @@
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="53" t="s">
+      <c r="S94" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="T94" s="53"/>
-      <c r="U94" s="53"/>
-      <c r="V94" s="43"/>
-      <c r="W94" s="44"/>
-      <c r="X94" s="43"/>
-      <c r="Y94" s="44"/>
-      <c r="Z94" s="43"/>
-      <c r="AA94" s="44"/>
+      <c r="T94" s="59"/>
+      <c r="U94" s="59"/>
+      <c r="V94" s="44"/>
+      <c r="W94" s="46"/>
+      <c r="X94" s="44"/>
+      <c r="Y94" s="46"/>
+      <c r="Z94" s="44"/>
+      <c r="AA94" s="46"/>
       <c r="AB94" s="47"/>
       <c r="AC94" s="47"/>
-      <c r="AD94" s="43"/>
-      <c r="AE94" s="44"/>
-      <c r="AF94" s="43"/>
-      <c r="AG94" s="44"/>
+      <c r="AD94" s="44"/>
+      <c r="AE94" s="46"/>
+      <c r="AF94" s="44"/>
+      <c r="AG94" s="46"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="7"/>
       <c r="AM94" s="6"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
-      <c r="AP94" s="43" t="s">
+      <c r="AP94" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="AQ94" s="44"/>
+      <c r="AQ94" s="46"/>
       <c r="AR94" s="1"/>
-      <c r="AS94" s="43" t="s">
+      <c r="AS94" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AT94" s="44"/>
+      <c r="AT94" s="46"/>
       <c r="AU94" s="1"/>
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
@@ -6252,12 +6260,12 @@
         <v>120</v>
       </c>
       <c r="Q102" s="6"/>
-      <c r="R102" s="48" t="s">
+      <c r="R102" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="S102" s="48"/>
-      <c r="T102" s="48"/>
-      <c r="U102" s="43" t="s">
+      <c r="S102" s="43"/>
+      <c r="T102" s="43"/>
+      <c r="U102" s="44" t="s">
         <v>86</v>
       </c>
       <c r="V102" s="45"/>
@@ -6272,7 +6280,7 @@
         <v>85</v>
       </c>
       <c r="AC102" s="28"/>
-      <c r="AD102" s="43" t="s">
+      <c r="AD102" s="44" t="s">
         <v>55</v>
       </c>
       <c r="AE102" s="45"/>
@@ -6282,11 +6290,11 @@
       <c r="AI102" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AK102" s="48" t="s">
+      <c r="AK102" s="43" t="s">
         <v>87</v>
       </c>
       <c r="AL102" s="55"/>
-      <c r="AM102" s="43" t="s">
+      <c r="AM102" s="44" t="s">
         <v>55</v>
       </c>
       <c r="AN102" s="45"/>
@@ -6297,17 +6305,17 @@
         <v>54</v>
       </c>
       <c r="AS102" s="1"/>
-      <c r="AT102" s="48" t="s">
+      <c r="AT102" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="AU102" s="48"/>
-      <c r="AV102" s="43"/>
+      <c r="AU102" s="43"/>
+      <c r="AV102" s="44"/>
       <c r="AW102" s="45"/>
-      <c r="AX102" s="44"/>
-      <c r="AZ102" s="43" t="s">
+      <c r="AX102" s="46"/>
+      <c r="AZ102" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="BA102" s="44"/>
+      <c r="BA102" s="46"/>
       <c r="BB102" s="1"/>
       <c r="BC102" s="7"/>
       <c r="BE102" s="6"/>
@@ -6432,20 +6440,20 @@
         <v>147</v>
       </c>
       <c r="Q104" s="6"/>
-      <c r="R104" s="43" t="s">
+      <c r="R104" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="S104" s="44"/>
+      <c r="S104" s="46"/>
       <c r="T104" s="1"/>
-      <c r="U104" s="43" t="s">
+      <c r="U104" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="V104" s="44"/>
+      <c r="V104" s="46"/>
       <c r="W104" s="1"/>
-      <c r="X104" s="43" t="s">
+      <c r="X104" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="Y104" s="44"/>
+      <c r="Y104" s="46"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
@@ -6607,49 +6615,49 @@
       <c r="R106" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S106" s="43" t="s">
+      <c r="S106" s="44" t="s">
         <v>82</v>
       </c>
       <c r="T106" s="45"/>
       <c r="U106" s="45"/>
-      <c r="V106" s="44"/>
-      <c r="W106" s="43" t="s">
+      <c r="V106" s="46"/>
+      <c r="W106" s="44" t="s">
         <v>83</v>
       </c>
       <c r="X106" s="45"/>
-      <c r="Y106" s="44"/>
-      <c r="Z106" s="43" t="s">
+      <c r="Y106" s="46"/>
+      <c r="Z106" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="AA106" s="44"/>
-      <c r="AB106" s="43" t="s">
+      <c r="AA106" s="46"/>
+      <c r="AB106" s="44" t="s">
         <v>88</v>
       </c>
       <c r="AC106" s="45"/>
-      <c r="AD106" s="44"/>
-      <c r="AE106" s="43" t="s">
+      <c r="AD106" s="46"/>
+      <c r="AE106" s="44" t="s">
         <v>85</v>
       </c>
       <c r="AF106" s="45"/>
-      <c r="AG106" s="44"/>
-      <c r="AH106" s="43" t="s">
+      <c r="AG106" s="46"/>
+      <c r="AH106" s="44" t="s">
         <v>87</v>
       </c>
       <c r="AI106" s="45"/>
-      <c r="AJ106" s="44"/>
-      <c r="AK106" s="43" t="s">
+      <c r="AJ106" s="46"/>
+      <c r="AK106" s="44" t="s">
         <v>152</v>
       </c>
       <c r="AL106" s="45"/>
-      <c r="AM106" s="44"/>
-      <c r="AN106" s="43" t="s">
+      <c r="AM106" s="46"/>
+      <c r="AN106" s="44" t="s">
         <v>161</v>
       </c>
       <c r="AO106" s="45"/>
       <c r="AP106" s="45"/>
       <c r="AQ106" s="45"/>
       <c r="AR106" s="45"/>
-      <c r="AS106" s="44"/>
+      <c r="AS106" s="46"/>
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
       <c r="AV106" s="1"/>
@@ -6757,7 +6765,7 @@
       </c>
       <c r="BK107" s="1"/>
       <c r="BL107" s="1"/>
-      <c r="BM107" s="43" t="s">
+      <c r="BM107" s="44" t="s">
         <v>55</v>
       </c>
       <c r="BN107" s="45"/>
@@ -6861,21 +6869,21 @@
       <c r="BU108" s="1"/>
       <c r="BV108" s="7"/>
       <c r="BX108" s="6"/>
-      <c r="BY108" s="48" t="s">
+      <c r="BY108" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="BZ108" s="48"/>
-      <c r="CA108" s="48"/>
-      <c r="CB108" s="49" t="s">
+      <c r="BZ108" s="43"/>
+      <c r="CA108" s="43"/>
+      <c r="CB108" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="CC108" s="50"/>
-      <c r="CD108" s="50"/>
-      <c r="CE108" s="50"/>
-      <c r="CF108" s="50"/>
-      <c r="CG108" s="50"/>
-      <c r="CH108" s="50"/>
-      <c r="CI108" s="51"/>
+      <c r="CC108" s="52"/>
+      <c r="CD108" s="52"/>
+      <c r="CE108" s="52"/>
+      <c r="CF108" s="52"/>
+      <c r="CG108" s="52"/>
+      <c r="CH108" s="52"/>
+      <c r="CI108" s="53"/>
       <c r="CJ108" s="16" t="s">
         <v>54</v>
       </c>
@@ -7025,20 +7033,20 @@
       <c r="BU110" s="1"/>
       <c r="BV110" s="7"/>
       <c r="BX110" s="6"/>
-      <c r="BY110" s="48" t="s">
+      <c r="BY110" s="43" t="s">
         <v>85</v>
       </c>
       <c r="BZ110" s="55"/>
-      <c r="CA110" s="49" t="s">
+      <c r="CA110" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="CB110" s="50"/>
-      <c r="CC110" s="50"/>
-      <c r="CD110" s="50"/>
-      <c r="CE110" s="50"/>
-      <c r="CF110" s="50"/>
-      <c r="CG110" s="50"/>
-      <c r="CH110" s="51"/>
+      <c r="CB110" s="52"/>
+      <c r="CC110" s="52"/>
+      <c r="CD110" s="52"/>
+      <c r="CE110" s="52"/>
+      <c r="CF110" s="52"/>
+      <c r="CG110" s="52"/>
+      <c r="CH110" s="53"/>
       <c r="CI110" s="16" t="s">
         <v>54</v>
       </c>
@@ -7194,20 +7202,20 @@
       <c r="BU112" s="1"/>
       <c r="BV112" s="7"/>
       <c r="BX112" s="6"/>
-      <c r="BY112" s="48" t="s">
+      <c r="BY112" s="43" t="s">
         <v>292</v>
       </c>
       <c r="BZ112" s="55"/>
-      <c r="CA112" s="49" t="s">
+      <c r="CA112" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="CB112" s="50"/>
-      <c r="CC112" s="50"/>
-      <c r="CD112" s="50"/>
-      <c r="CE112" s="50"/>
-      <c r="CF112" s="50"/>
-      <c r="CG112" s="50"/>
-      <c r="CH112" s="51"/>
+      <c r="CB112" s="52"/>
+      <c r="CC112" s="52"/>
+      <c r="CD112" s="52"/>
+      <c r="CE112" s="52"/>
+      <c r="CF112" s="52"/>
+      <c r="CG112" s="52"/>
+      <c r="CH112" s="53"/>
       <c r="CI112" s="26" t="s">
         <v>54</v>
       </c>
@@ -7456,10 +7464,10 @@
       <c r="BM115" s="8"/>
       <c r="BN115" s="2"/>
       <c r="BO115" s="9"/>
-      <c r="BP115" s="43" t="s">
+      <c r="BP115" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="BQ115" s="44"/>
+      <c r="BQ115" s="46"/>
       <c r="BR115" s="1"/>
       <c r="BS115" s="1"/>
       <c r="BT115" s="1"/>
@@ -7537,15 +7545,15 @@
       <c r="BV116" s="7"/>
       <c r="BX116" s="6"/>
       <c r="BY116" s="1"/>
-      <c r="BZ116" s="43" t="s">
+      <c r="BZ116" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="CA116" s="44"/>
+      <c r="CA116" s="46"/>
       <c r="CB116" s="1"/>
-      <c r="CC116" s="43" t="s">
+      <c r="CC116" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="CD116" s="44"/>
+      <c r="CD116" s="46"/>
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
       <c r="CG116" s="1"/>
@@ -7601,14 +7609,14 @@
       <c r="BB117" s="1"/>
       <c r="BC117" s="7"/>
       <c r="BE117" s="6"/>
-      <c r="BH117" s="43" t="s">
+      <c r="BH117" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="BI117" s="44"/>
-      <c r="BK117" s="43" t="s">
+      <c r="BI117" s="46"/>
+      <c r="BK117" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="BL117" s="44"/>
+      <c r="BL117" s="46"/>
       <c r="BR117" s="1"/>
       <c r="BS117" s="1"/>
       <c r="BT117" s="1"/>
@@ -7639,7 +7647,7 @@
       <c r="F118" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="K118" s="31" t="s">
+      <c r="K118" s="60" t="s">
         <v>283</v>
       </c>
       <c r="Q118" s="8"/>
@@ -7721,7 +7729,7 @@
       <c r="F119" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="K119" s="29" t="s">
+      <c r="K119" s="61" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7729,7 +7737,7 @@
       <c r="F120" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="K120" s="29" t="s">
+      <c r="K120" s="61" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7737,7 +7745,7 @@
       <c r="F121" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="K121" s="29" t="s">
+      <c r="K121" s="61" t="s">
         <v>244</v>
       </c>
     </row>
@@ -7835,10 +7843,10 @@
       <c r="AA126" s="47"/>
       <c r="AB126" s="47"/>
       <c r="AC126" s="1"/>
-      <c r="AD126" s="43" t="s">
+      <c r="AD126" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="AE126" s="44"/>
+      <c r="AE126" s="46"/>
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
@@ -8143,23 +8151,23 @@
       <c r="R130" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="S130" s="43" t="s">
+      <c r="S130" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="T130" s="44"/>
-      <c r="U130" s="43" t="s">
+      <c r="T130" s="46"/>
+      <c r="U130" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="V130" s="44"/>
-      <c r="W130" s="43" t="s">
+      <c r="V130" s="46"/>
+      <c r="W130" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="X130" s="44"/>
-      <c r="Y130" s="43" t="s">
+      <c r="X130" s="46"/>
+      <c r="Y130" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="Z130" s="44"/>
-      <c r="AA130" s="43" t="s">
+      <c r="Z130" s="46"/>
+      <c r="AA130" s="44" t="s">
         <v>167</v>
       </c>
       <c r="AB130" s="45"/>
@@ -8168,7 +8176,7 @@
       <c r="AE130" s="45"/>
       <c r="AF130" s="45"/>
       <c r="AG130" s="45"/>
-      <c r="AH130" s="44"/>
+      <c r="AH130" s="46"/>
       <c r="AI130" s="7"/>
       <c r="AL130" s="6"/>
       <c r="AV130" s="6"/>
@@ -8251,16 +8259,16 @@
     <row r="131" spans="4:119" ht="18" customHeight="1">
       <c r="Q131" s="6"/>
       <c r="R131" s="15"/>
-      <c r="S131" s="43"/>
-      <c r="T131" s="44"/>
-      <c r="U131" s="43"/>
-      <c r="V131" s="44" t="s">
+      <c r="S131" s="44"/>
+      <c r="T131" s="46"/>
+      <c r="U131" s="44"/>
+      <c r="V131" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="W131" s="43"/>
-      <c r="X131" s="44"/>
-      <c r="Y131" s="43"/>
-      <c r="Z131" s="44" t="s">
+      <c r="W131" s="44"/>
+      <c r="X131" s="46"/>
+      <c r="Y131" s="44"/>
+      <c r="Z131" s="46" t="s">
         <v>168</v>
       </c>
       <c r="AA131" s="47" t="s">
@@ -8306,27 +8314,27 @@
       </c>
       <c r="BE131" s="47"/>
       <c r="BF131" s="47"/>
-      <c r="BG131" s="43" t="s">
+      <c r="BG131" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="BH131" s="44"/>
+      <c r="BH131" s="46"/>
       <c r="BI131" s="1"/>
       <c r="BJ131" s="1"/>
       <c r="BK131" s="7"/>
       <c r="BM131" s="6"/>
       <c r="BN131" s="1"/>
-      <c r="BO131" s="43" t="s">
+      <c r="BO131" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="BP131" s="44"/>
-      <c r="BQ131" s="43" t="s">
+      <c r="BP131" s="46"/>
+      <c r="BQ131" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="BR131" s="44"/>
-      <c r="BS131" s="43" t="s">
+      <c r="BR131" s="46"/>
+      <c r="BS131" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="BT131" s="44"/>
+      <c r="BT131" s="46"/>
       <c r="BU131" s="1"/>
       <c r="BV131" s="1"/>
       <c r="BW131" s="1"/>
@@ -8349,12 +8357,12 @@
       <c r="CP131" s="9"/>
       <c r="CQ131" s="8"/>
       <c r="CR131" s="9"/>
-      <c r="CS131" s="43"/>
-      <c r="CT131" s="44"/>
-      <c r="CU131" s="43" t="s">
+      <c r="CS131" s="44"/>
+      <c r="CT131" s="46"/>
+      <c r="CU131" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="CV131" s="44"/>
+      <c r="CV131" s="46"/>
       <c r="CW131" s="1"/>
       <c r="CX131" s="1"/>
       <c r="CY131" s="7"/>
@@ -8380,16 +8388,16 @@
       </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="15"/>
-      <c r="S132" s="43"/>
-      <c r="T132" s="44"/>
-      <c r="U132" s="43"/>
-      <c r="V132" s="44" t="s">
+      <c r="S132" s="44"/>
+      <c r="T132" s="46"/>
+      <c r="U132" s="44"/>
+      <c r="V132" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="W132" s="43"/>
-      <c r="X132" s="44"/>
-      <c r="Y132" s="43"/>
-      <c r="Z132" s="44"/>
+      <c r="W132" s="44"/>
+      <c r="X132" s="46"/>
+      <c r="Y132" s="44"/>
+      <c r="Z132" s="46"/>
       <c r="AA132" s="47"/>
       <c r="AB132" s="47"/>
       <c r="AC132" s="47"/>
@@ -8414,32 +8422,32 @@
         <v>1</v>
       </c>
       <c r="AZ132" s="47"/>
-      <c r="BA132" s="56" t="s">
+      <c r="BA132" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="BB132" s="56"/>
-      <c r="BC132" s="56"/>
+      <c r="BB132" s="54"/>
+      <c r="BC132" s="54"/>
       <c r="BD132" s="47" t="s">
         <v>182</v>
       </c>
       <c r="BE132" s="47"/>
       <c r="BF132" s="47"/>
-      <c r="BG132" s="43" t="s">
+      <c r="BG132" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="BH132" s="44"/>
+      <c r="BH132" s="46"/>
       <c r="BI132" s="23" t="s">
         <v>206</v>
       </c>
       <c r="BK132" s="7"/>
       <c r="BM132" s="6"/>
       <c r="BN132" s="1"/>
-      <c r="BO132" s="43"/>
-      <c r="BP132" s="44"/>
-      <c r="BQ132" s="43"/>
-      <c r="BR132" s="44"/>
-      <c r="BS132" s="43"/>
-      <c r="BT132" s="44"/>
+      <c r="BO132" s="44"/>
+      <c r="BP132" s="46"/>
+      <c r="BQ132" s="44"/>
+      <c r="BR132" s="46"/>
+      <c r="BS132" s="44"/>
+      <c r="BT132" s="46"/>
       <c r="BU132" s="1"/>
       <c r="BV132" s="1"/>
       <c r="BW132" s="1"/>
@@ -8463,12 +8471,12 @@
       <c r="CP132" s="9"/>
       <c r="CQ132" s="8"/>
       <c r="CR132" s="9"/>
-      <c r="CS132" s="43"/>
-      <c r="CT132" s="44"/>
-      <c r="CU132" s="43" t="s">
+      <c r="CS132" s="44"/>
+      <c r="CT132" s="46"/>
+      <c r="CU132" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="CV132" s="44"/>
+      <c r="CV132" s="46"/>
       <c r="CW132" s="1"/>
       <c r="CX132" s="1"/>
       <c r="CY132" s="7"/>
@@ -8492,14 +8500,14 @@
       </c>
       <c r="Q133" s="6"/>
       <c r="R133" s="15"/>
-      <c r="S133" s="43"/>
-      <c r="T133" s="44"/>
-      <c r="U133" s="43"/>
-      <c r="V133" s="44"/>
-      <c r="W133" s="43"/>
-      <c r="X133" s="44"/>
-      <c r="Y133" s="43"/>
-      <c r="Z133" s="44"/>
+      <c r="S133" s="44"/>
+      <c r="T133" s="46"/>
+      <c r="U133" s="44"/>
+      <c r="V133" s="46"/>
+      <c r="W133" s="44"/>
+      <c r="X133" s="46"/>
+      <c r="Y133" s="44"/>
+      <c r="Z133" s="46"/>
       <c r="AA133" s="47"/>
       <c r="AB133" s="47"/>
       <c r="AC133" s="47"/>
@@ -8533,20 +8541,20 @@
       <c r="BD133" s="47"/>
       <c r="BE133" s="47"/>
       <c r="BF133" s="47"/>
-      <c r="BG133" s="43"/>
-      <c r="BH133" s="44"/>
+      <c r="BG133" s="44"/>
+      <c r="BH133" s="46"/>
       <c r="BI133" s="23" t="s">
         <v>207</v>
       </c>
       <c r="BK133" s="7"/>
       <c r="BM133" s="6"/>
       <c r="BN133" s="1"/>
-      <c r="BO133" s="43"/>
-      <c r="BP133" s="44"/>
-      <c r="BQ133" s="43"/>
-      <c r="BR133" s="44"/>
-      <c r="BS133" s="43"/>
-      <c r="BT133" s="44"/>
+      <c r="BO133" s="44"/>
+      <c r="BP133" s="46"/>
+      <c r="BQ133" s="44"/>
+      <c r="BR133" s="46"/>
+      <c r="BS133" s="44"/>
+      <c r="BT133" s="46"/>
       <c r="BU133" s="1"/>
       <c r="BV133" s="1" t="s">
         <v>190</v>
@@ -8599,14 +8607,14 @@
       </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="15"/>
-      <c r="S134" s="43"/>
-      <c r="T134" s="44"/>
-      <c r="U134" s="43"/>
-      <c r="V134" s="44"/>
-      <c r="W134" s="43"/>
-      <c r="X134" s="44"/>
-      <c r="Y134" s="43"/>
-      <c r="Z134" s="44"/>
+      <c r="S134" s="44"/>
+      <c r="T134" s="46"/>
+      <c r="U134" s="44"/>
+      <c r="V134" s="46"/>
+      <c r="W134" s="44"/>
+      <c r="X134" s="46"/>
+      <c r="Y134" s="44"/>
+      <c r="Z134" s="46"/>
       <c r="AA134" s="47"/>
       <c r="AB134" s="47"/>
       <c r="AC134" s="47"/>
@@ -8636,19 +8644,19 @@
       <c r="BD134" s="47"/>
       <c r="BE134" s="47"/>
       <c r="BF134" s="47"/>
-      <c r="BG134" s="43"/>
-      <c r="BH134" s="44"/>
+      <c r="BG134" s="44"/>
+      <c r="BH134" s="46"/>
       <c r="BI134" s="1"/>
       <c r="BJ134" s="1"/>
       <c r="BK134" s="7"/>
       <c r="BM134" s="6"/>
       <c r="BN134" s="1"/>
-      <c r="BO134" s="43"/>
-      <c r="BP134" s="44"/>
-      <c r="BQ134" s="43"/>
-      <c r="BR134" s="44"/>
-      <c r="BS134" s="43"/>
-      <c r="BT134" s="44"/>
+      <c r="BO134" s="44"/>
+      <c r="BP134" s="46"/>
+      <c r="BQ134" s="44"/>
+      <c r="BR134" s="46"/>
+      <c r="BS134" s="44"/>
+      <c r="BT134" s="46"/>
       <c r="BU134" s="1"/>
       <c r="BV134" s="1" t="s">
         <v>229</v>
@@ -8671,15 +8679,15 @@
       <c r="CK134" s="1"/>
       <c r="CL134" s="1"/>
       <c r="CM134" s="6"/>
-      <c r="CN134" s="43" t="s">
+      <c r="CN134" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="CO134" s="44"/>
+      <c r="CO134" s="46"/>
       <c r="CP134" s="1"/>
-      <c r="CQ134" s="43" t="s">
+      <c r="CQ134" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="CR134" s="44"/>
+      <c r="CR134" s="46"/>
       <c r="CS134" s="1"/>
       <c r="CT134" s="1"/>
       <c r="CU134" s="1"/>
@@ -8709,14 +8717,14 @@
       </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="15"/>
-      <c r="S135" s="43"/>
-      <c r="T135" s="44"/>
-      <c r="U135" s="43"/>
-      <c r="V135" s="44"/>
-      <c r="W135" s="43"/>
-      <c r="X135" s="44"/>
-      <c r="Y135" s="43"/>
-      <c r="Z135" s="44"/>
+      <c r="S135" s="44"/>
+      <c r="T135" s="46"/>
+      <c r="U135" s="44"/>
+      <c r="V135" s="46"/>
+      <c r="W135" s="44"/>
+      <c r="X135" s="46"/>
+      <c r="Y135" s="44"/>
+      <c r="Z135" s="46"/>
       <c r="AA135" s="47"/>
       <c r="AB135" s="47"/>
       <c r="AC135" s="47"/>
@@ -8811,14 +8819,14 @@
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="15"/>
-      <c r="S136" s="43"/>
-      <c r="T136" s="44"/>
-      <c r="U136" s="43"/>
-      <c r="V136" s="44"/>
-      <c r="W136" s="43"/>
-      <c r="X136" s="44"/>
-      <c r="Y136" s="43"/>
-      <c r="Z136" s="44"/>
+      <c r="S136" s="44"/>
+      <c r="T136" s="46"/>
+      <c r="U136" s="44"/>
+      <c r="V136" s="46"/>
+      <c r="W136" s="44"/>
+      <c r="X136" s="46"/>
+      <c r="Y136" s="44"/>
+      <c r="Z136" s="46"/>
       <c r="AA136" s="47"/>
       <c r="AB136" s="47"/>
       <c r="AC136" s="47"/>
@@ -8841,15 +8849,15 @@
       <c r="AX136" s="6"/>
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
-      <c r="BA136" s="43" t="s">
+      <c r="BA136" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="BB136" s="44"/>
+      <c r="BB136" s="46"/>
       <c r="BC136" s="1"/>
-      <c r="BD136" s="43" t="s">
+      <c r="BD136" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="BE136" s="44"/>
+      <c r="BE136" s="46"/>
       <c r="BF136" s="1"/>
       <c r="BG136" s="1"/>
       <c r="BH136" s="1"/>
@@ -8859,10 +8867,10 @@
       <c r="BM136" s="6"/>
       <c r="BN136" s="1"/>
       <c r="BO136" s="1"/>
-      <c r="BP136" s="43" t="s">
+      <c r="BP136" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="BQ136" s="44"/>
+      <c r="BQ136" s="46"/>
       <c r="BR136" s="1"/>
       <c r="BS136" s="1"/>
       <c r="BT136" s="1"/>
@@ -8911,10 +8919,10 @@
       </c>
       <c r="DJ136" s="47"/>
       <c r="DK136" s="47"/>
-      <c r="DL136" s="43" t="s">
+      <c r="DL136" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="DM136" s="44"/>
+      <c r="DM136" s="46"/>
       <c r="DN136" s="1"/>
       <c r="DO136" s="7"/>
     </row>
@@ -8924,14 +8932,14 @@
       </c>
       <c r="Q137" s="6"/>
       <c r="R137" s="15"/>
-      <c r="S137" s="43"/>
-      <c r="T137" s="44"/>
-      <c r="U137" s="43"/>
-      <c r="V137" s="44"/>
-      <c r="W137" s="43"/>
-      <c r="X137" s="44"/>
-      <c r="Y137" s="43"/>
-      <c r="Z137" s="44"/>
+      <c r="S137" s="44"/>
+      <c r="T137" s="46"/>
+      <c r="U137" s="44"/>
+      <c r="V137" s="46"/>
+      <c r="W137" s="44"/>
+      <c r="X137" s="46"/>
+      <c r="Y137" s="44"/>
+      <c r="Z137" s="46"/>
       <c r="AA137" s="47"/>
       <c r="AB137" s="47"/>
       <c r="AC137" s="47"/>
@@ -8943,15 +8951,15 @@
       <c r="AI137" s="7"/>
       <c r="AL137" s="6"/>
       <c r="AM137" s="1"/>
-      <c r="AN137" s="43" t="s">
+      <c r="AN137" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AO137" s="44"/>
+      <c r="AO137" s="46"/>
       <c r="AP137" s="1"/>
-      <c r="AQ137" s="43" t="s">
+      <c r="AQ137" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AR137" s="44"/>
+      <c r="AR137" s="46"/>
       <c r="AS137" s="1"/>
       <c r="AT137" s="1"/>
       <c r="AU137" s="7"/>
@@ -9010,10 +9018,10 @@
       </c>
       <c r="DJ137" s="47"/>
       <c r="DK137" s="47"/>
-      <c r="DL137" s="43" t="s">
+      <c r="DL137" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="DM137" s="44"/>
+      <c r="DM137" s="46"/>
       <c r="DN137" s="1"/>
       <c r="DO137" s="7"/>
     </row>
@@ -9026,14 +9034,14 @@
       </c>
       <c r="Q138" s="6"/>
       <c r="R138" s="15"/>
-      <c r="S138" s="43"/>
-      <c r="T138" s="44"/>
-      <c r="U138" s="43"/>
-      <c r="V138" s="44"/>
-      <c r="W138" s="43"/>
-      <c r="X138" s="44"/>
-      <c r="Y138" s="43"/>
-      <c r="Z138" s="44"/>
+      <c r="S138" s="44"/>
+      <c r="T138" s="46"/>
+      <c r="U138" s="44"/>
+      <c r="V138" s="46"/>
+      <c r="W138" s="44"/>
+      <c r="X138" s="46"/>
+      <c r="Y138" s="44"/>
+      <c r="Z138" s="46"/>
       <c r="AA138" s="47"/>
       <c r="AB138" s="47"/>
       <c r="AC138" s="47"/>
@@ -9101,8 +9109,8 @@
       <c r="DI138" s="47"/>
       <c r="DJ138" s="47"/>
       <c r="DK138" s="47"/>
-      <c r="DL138" s="43"/>
-      <c r="DM138" s="44"/>
+      <c r="DL138" s="44"/>
+      <c r="DM138" s="46"/>
       <c r="DN138" s="1"/>
       <c r="DO138" s="7"/>
     </row>
@@ -9159,15 +9167,15 @@
       <c r="BZ139" s="2"/>
       <c r="CA139" s="9"/>
       <c r="CC139" s="6"/>
-      <c r="CD139" s="43" t="s">
+      <c r="CD139" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="CE139" s="44"/>
+      <c r="CE139" s="46"/>
       <c r="CF139" s="1"/>
-      <c r="CG139" s="43" t="s">
+      <c r="CG139" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="CH139" s="44"/>
+      <c r="CH139" s="46"/>
       <c r="CI139" s="1"/>
       <c r="CJ139" s="7"/>
       <c r="CK139" s="1"/>
@@ -9184,8 +9192,8 @@
       <c r="DI139" s="47"/>
       <c r="DJ139" s="47"/>
       <c r="DK139" s="47"/>
-      <c r="DL139" s="43"/>
-      <c r="DM139" s="44"/>
+      <c r="DL139" s="44"/>
+      <c r="DM139" s="46"/>
       <c r="DN139" s="1"/>
       <c r="DO139" s="7"/>
     </row>
@@ -9256,10 +9264,10 @@
       <c r="DG141" s="1"/>
       <c r="DH141" s="1"/>
       <c r="DI141" s="1"/>
-      <c r="DJ141" s="43" t="s">
+      <c r="DJ141" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="DK141" s="44"/>
+      <c r="DK141" s="46"/>
       <c r="DL141" s="1"/>
       <c r="DM141" s="1"/>
       <c r="DN141" s="1"/>
@@ -9586,30 +9594,30 @@
       <c r="R153" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="S153" s="43" t="s">
+      <c r="S153" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="T153" s="44"/>
-      <c r="U153" s="43" t="s">
+      <c r="T153" s="46"/>
+      <c r="U153" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="V153" s="44"/>
-      <c r="W153" s="43" t="s">
+      <c r="V153" s="46"/>
+      <c r="W153" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="X153" s="44"/>
-      <c r="Y153" s="43" t="s">
+      <c r="X153" s="46"/>
+      <c r="Y153" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="Z153" s="44"/>
-      <c r="AA153" s="43" t="s">
+      <c r="Z153" s="46"/>
+      <c r="AA153" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="AB153" s="44"/>
-      <c r="AC153" s="43" t="s">
+      <c r="AB153" s="46"/>
+      <c r="AC153" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="AD153" s="44"/>
+      <c r="AD153" s="46"/>
       <c r="AE153" s="7"/>
       <c r="AH153" s="1"/>
       <c r="AI153" s="6"/>
@@ -9633,12 +9641,12 @@
       </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="11"/>
-      <c r="S154" s="43"/>
-      <c r="T154" s="44"/>
-      <c r="U154" s="43"/>
-      <c r="V154" s="44"/>
-      <c r="W154" s="43"/>
-      <c r="X154" s="44"/>
+      <c r="S154" s="44"/>
+      <c r="T154" s="46"/>
+      <c r="U154" s="44"/>
+      <c r="V154" s="46"/>
+      <c r="W154" s="44"/>
+      <c r="X154" s="46"/>
       <c r="Y154" s="11"/>
       <c r="Z154" s="13"/>
       <c r="AA154" s="11"/>
@@ -9673,12 +9681,12 @@
     <row r="155" spans="1:60" ht="18" customHeight="1">
       <c r="Q155" s="6"/>
       <c r="R155" s="11"/>
-      <c r="S155" s="43"/>
-      <c r="T155" s="44"/>
-      <c r="U155" s="43"/>
-      <c r="V155" s="44"/>
-      <c r="W155" s="43"/>
-      <c r="X155" s="44"/>
+      <c r="S155" s="44"/>
+      <c r="T155" s="46"/>
+      <c r="U155" s="44"/>
+      <c r="V155" s="46"/>
+      <c r="W155" s="44"/>
+      <c r="X155" s="46"/>
       <c r="Y155" s="11"/>
       <c r="Z155" s="13"/>
       <c r="AA155" s="11"/>
@@ -9708,12 +9716,12 @@
       </c>
       <c r="Q156" s="6"/>
       <c r="R156" s="11"/>
-      <c r="S156" s="43"/>
-      <c r="T156" s="44"/>
-      <c r="U156" s="43"/>
-      <c r="V156" s="44"/>
-      <c r="W156" s="43"/>
-      <c r="X156" s="44"/>
+      <c r="S156" s="44"/>
+      <c r="T156" s="46"/>
+      <c r="U156" s="44"/>
+      <c r="V156" s="46"/>
+      <c r="W156" s="44"/>
+      <c r="X156" s="46"/>
       <c r="Y156" s="11"/>
       <c r="Z156" s="13"/>
       <c r="AA156" s="11"/>
@@ -9745,12 +9753,12 @@
       </c>
       <c r="Q157" s="6"/>
       <c r="R157" s="11"/>
-      <c r="S157" s="43"/>
-      <c r="T157" s="44"/>
-      <c r="U157" s="43"/>
-      <c r="V157" s="44"/>
-      <c r="W157" s="43"/>
-      <c r="X157" s="44"/>
+      <c r="S157" s="44"/>
+      <c r="T157" s="46"/>
+      <c r="U157" s="44"/>
+      <c r="V157" s="46"/>
+      <c r="W157" s="44"/>
+      <c r="X157" s="46"/>
       <c r="Y157" s="11"/>
       <c r="Z157" s="13"/>
       <c r="AA157" s="11"/>
@@ -9780,12 +9788,12 @@
       </c>
       <c r="Q158" s="6"/>
       <c r="R158" s="11"/>
-      <c r="S158" s="43"/>
-      <c r="T158" s="44"/>
-      <c r="U158" s="43"/>
-      <c r="V158" s="44"/>
-      <c r="W158" s="43"/>
-      <c r="X158" s="44"/>
+      <c r="S158" s="44"/>
+      <c r="T158" s="46"/>
+      <c r="U158" s="44"/>
+      <c r="V158" s="46"/>
+      <c r="W158" s="44"/>
+      <c r="X158" s="46"/>
       <c r="Y158" s="11"/>
       <c r="Z158" s="13"/>
       <c r="AA158" s="11"/>
@@ -9815,12 +9823,12 @@
       </c>
       <c r="Q159" s="6"/>
       <c r="R159" s="11"/>
-      <c r="S159" s="43"/>
-      <c r="T159" s="44"/>
-      <c r="U159" s="43"/>
-      <c r="V159" s="44"/>
-      <c r="W159" s="43"/>
-      <c r="X159" s="44"/>
+      <c r="S159" s="44"/>
+      <c r="T159" s="46"/>
+      <c r="U159" s="44"/>
+      <c r="V159" s="46"/>
+      <c r="W159" s="44"/>
+      <c r="X159" s="46"/>
       <c r="Y159" s="11"/>
       <c r="Z159" s="13"/>
       <c r="AA159" s="11"/>
@@ -9850,12 +9858,12 @@
     <row r="160" spans="1:60" ht="18" customHeight="1">
       <c r="Q160" s="6"/>
       <c r="R160" s="11"/>
-      <c r="S160" s="43"/>
-      <c r="T160" s="44"/>
-      <c r="U160" s="43"/>
-      <c r="V160" s="44"/>
-      <c r="W160" s="43"/>
-      <c r="X160" s="44"/>
+      <c r="S160" s="44"/>
+      <c r="T160" s="46"/>
+      <c r="U160" s="44"/>
+      <c r="V160" s="46"/>
+      <c r="W160" s="44"/>
+      <c r="X160" s="46"/>
       <c r="Y160" s="11"/>
       <c r="Z160" s="13"/>
       <c r="AA160" s="11"/>
@@ -10468,11 +10476,11 @@
         <v>187</v>
       </c>
       <c r="X189" s="36"/>
-      <c r="Y189" s="57" t="s">
+      <c r="Y189" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="Z189" s="58"/>
-      <c r="AA189" s="59"/>
+      <c r="Z189" s="49"/>
+      <c r="AA189" s="50"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
@@ -10518,18 +10526,18 @@
       <c r="AH190" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AI190" s="43" t="s">
+      <c r="AI190" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="AJ190" s="44"/>
+      <c r="AJ190" s="46"/>
       <c r="AL190" s="40"/>
       <c r="AM190" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AN190" s="43" t="s">
+      <c r="AN190" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="AO190" s="44"/>
+      <c r="AO190" s="46"/>
       <c r="AP190" s="1"/>
       <c r="AQ190" s="7"/>
     </row>
@@ -10554,12 +10562,12 @@
       <c r="AE191" s="7"/>
       <c r="AG191" s="6"/>
       <c r="AH191" s="41"/>
-      <c r="AI191" s="43"/>
-      <c r="AJ191" s="44"/>
+      <c r="AI191" s="44"/>
+      <c r="AJ191" s="46"/>
       <c r="AL191" s="40"/>
       <c r="AM191" s="41"/>
-      <c r="AN191" s="43"/>
-      <c r="AO191" s="44"/>
+      <c r="AN191" s="44"/>
+      <c r="AO191" s="46"/>
       <c r="AP191" s="1"/>
       <c r="AQ191" s="7"/>
     </row>
@@ -10584,12 +10592,12 @@
       <c r="AE192" s="7"/>
       <c r="AG192" s="6"/>
       <c r="AH192" s="41"/>
-      <c r="AI192" s="43"/>
-      <c r="AJ192" s="44"/>
+      <c r="AI192" s="44"/>
+      <c r="AJ192" s="46"/>
       <c r="AL192" s="40"/>
       <c r="AM192" s="41"/>
-      <c r="AN192" s="43"/>
-      <c r="AO192" s="44"/>
+      <c r="AN192" s="44"/>
+      <c r="AO192" s="46"/>
       <c r="AP192" s="1"/>
       <c r="AQ192" s="7"/>
     </row>
@@ -10766,6 +10774,400 @@
     </row>
   </sheetData>
   <mergeCells count="418">
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="BP115:BQ115"/>
+    <mergeCell ref="BH117:BI117"/>
+    <mergeCell ref="BK117:BL117"/>
+    <mergeCell ref="BM107:BQ107"/>
+    <mergeCell ref="U1:Y2"/>
+    <mergeCell ref="BI54:BJ54"/>
+    <mergeCell ref="BK54:BL54"/>
+    <mergeCell ref="BI55:BJ55"/>
+    <mergeCell ref="BK55:BL55"/>
+    <mergeCell ref="BI56:BJ56"/>
+    <mergeCell ref="BK56:BL56"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="BA66:BC66"/>
+    <mergeCell ref="BD66:BK66"/>
+    <mergeCell ref="BB70:BC70"/>
+    <mergeCell ref="BD70:BE70"/>
+    <mergeCell ref="BF70:BG70"/>
+    <mergeCell ref="AS94:AT94"/>
+    <mergeCell ref="AP94:AQ94"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="BC71:BD71"/>
+    <mergeCell ref="BE71:BF71"/>
+    <mergeCell ref="BG71:BH71"/>
+    <mergeCell ref="BC72:BD72"/>
+    <mergeCell ref="BB73:BC73"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:AB66"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AB90:AG90"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="AP91:AW91"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="AO90:AQ90"/>
+    <mergeCell ref="AR90:AY90"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:AC88"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="AE78:AF78"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AD93:AE93"/>
+    <mergeCell ref="AF93:AG93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AD94:AE94"/>
+    <mergeCell ref="AF94:AG94"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="S92:U92"/>
+    <mergeCell ref="S93:U93"/>
+    <mergeCell ref="S94:U94"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AO38"/>
+    <mergeCell ref="S106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="AE106:AG106"/>
+    <mergeCell ref="AH106:AJ106"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="X48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="CA110:CH110"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AN37:AO37"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="BI58:BJ58"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="BK49:BL49"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="BK50:BL50"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BI52:BJ52"/>
+    <mergeCell ref="BK52:BL52"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="BY108:CA108"/>
+    <mergeCell ref="BC74:BD74"/>
+    <mergeCell ref="BC75:BD75"/>
+    <mergeCell ref="BN78:BO78"/>
+    <mergeCell ref="BI53:BJ53"/>
+    <mergeCell ref="BK53:BL53"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="Z126:AB126"/>
+    <mergeCell ref="AD126:AE126"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD102:AH102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="AM102:AQ102"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI32:AO32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="BP136:BQ136"/>
+    <mergeCell ref="AE131:AF131"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AE133:AF133"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="W136:X136"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="AY134:AZ134"/>
+    <mergeCell ref="BA134:BC134"/>
+    <mergeCell ref="BD134:BF134"/>
+    <mergeCell ref="BA136:BB136"/>
+    <mergeCell ref="BD136:BE136"/>
+    <mergeCell ref="AG131:AH131"/>
+    <mergeCell ref="AG132:AH132"/>
+    <mergeCell ref="AG133:AH133"/>
+    <mergeCell ref="AG134:AH134"/>
+    <mergeCell ref="AG135:AH135"/>
+    <mergeCell ref="AG136:AH136"/>
+    <mergeCell ref="BG133:BH133"/>
+    <mergeCell ref="CA112:CH112"/>
+    <mergeCell ref="AN106:AS106"/>
+    <mergeCell ref="BA132:BC132"/>
+    <mergeCell ref="AY131:AZ131"/>
+    <mergeCell ref="BA131:BC131"/>
+    <mergeCell ref="BD131:BF131"/>
+    <mergeCell ref="AY132:AZ132"/>
+    <mergeCell ref="BD132:BF132"/>
+    <mergeCell ref="AY133:AZ133"/>
+    <mergeCell ref="BA133:BC133"/>
+    <mergeCell ref="BD133:BF133"/>
+    <mergeCell ref="BZ116:CA116"/>
+    <mergeCell ref="CC116:CD116"/>
+    <mergeCell ref="BO131:BP131"/>
+    <mergeCell ref="BQ131:BR131"/>
+    <mergeCell ref="BS131:BT131"/>
+    <mergeCell ref="BO132:BP132"/>
+    <mergeCell ref="BQ132:BR132"/>
+    <mergeCell ref="BS132:BT132"/>
+    <mergeCell ref="BY112:BZ112"/>
+    <mergeCell ref="CB108:CI108"/>
+    <mergeCell ref="BY110:BZ110"/>
+    <mergeCell ref="BG131:BH131"/>
+    <mergeCell ref="BG132:BH132"/>
+    <mergeCell ref="BG134:BH134"/>
+    <mergeCell ref="CN134:CO134"/>
+    <mergeCell ref="CQ134:CR134"/>
+    <mergeCell ref="BO133:BP133"/>
+    <mergeCell ref="BQ133:BR133"/>
+    <mergeCell ref="BS133:BT133"/>
+    <mergeCell ref="BO134:BP134"/>
+    <mergeCell ref="BQ134:BR134"/>
+    <mergeCell ref="BS134:BT134"/>
+    <mergeCell ref="CU131:CV131"/>
+    <mergeCell ref="CU132:CV132"/>
+    <mergeCell ref="CS131:CT131"/>
+    <mergeCell ref="CS132:CT132"/>
+    <mergeCell ref="DD136:DE136"/>
+    <mergeCell ref="DF136:DH136"/>
+    <mergeCell ref="DI136:DK136"/>
+    <mergeCell ref="CD139:CE139"/>
+    <mergeCell ref="CG139:CH139"/>
+    <mergeCell ref="DD139:DE139"/>
+    <mergeCell ref="DF139:DH139"/>
+    <mergeCell ref="DI139:DK139"/>
+    <mergeCell ref="DL136:DM136"/>
+    <mergeCell ref="DD137:DE137"/>
+    <mergeCell ref="DF137:DH137"/>
+    <mergeCell ref="DI137:DK137"/>
+    <mergeCell ref="DL137:DM137"/>
+    <mergeCell ref="DD138:DE138"/>
+    <mergeCell ref="DF138:DH138"/>
+    <mergeCell ref="DI138:DK138"/>
+    <mergeCell ref="DL138:DM138"/>
+    <mergeCell ref="DL139:DM139"/>
+    <mergeCell ref="DJ141:DK141"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="AA130:AH130"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="Y131:Z131"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
+    <mergeCell ref="Y132:Z132"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
+    <mergeCell ref="Y133:Z133"/>
+    <mergeCell ref="U134:V134"/>
+    <mergeCell ref="W134:X134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="W135:X135"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="W137:X137"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="U138:V138"/>
+    <mergeCell ref="W138:X138"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="AC138:AD138"/>
+    <mergeCell ref="AO129:AR129"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="AC133:AD133"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AG137:AH137"/>
+    <mergeCell ref="AG138:AH138"/>
+    <mergeCell ref="W158:X158"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="AA153:AB153"/>
+    <mergeCell ref="AC153:AD153"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="U154:V154"/>
+    <mergeCell ref="W154:X154"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
+    <mergeCell ref="AI192:AJ192"/>
+    <mergeCell ref="Y189:AA189"/>
+    <mergeCell ref="S187:V187"/>
+    <mergeCell ref="AA187:AC187"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="U189:V189"/>
+    <mergeCell ref="AI190:AJ190"/>
+    <mergeCell ref="AI191:AJ191"/>
+    <mergeCell ref="AN190:AO190"/>
+    <mergeCell ref="AN191:AO191"/>
+    <mergeCell ref="AN192:AO192"/>
     <mergeCell ref="AT102:AU102"/>
     <mergeCell ref="AV102:AX102"/>
     <mergeCell ref="Y153:Z153"/>
@@ -10790,400 +11192,6 @@
     <mergeCell ref="W157:X157"/>
     <mergeCell ref="S158:T158"/>
     <mergeCell ref="U158:V158"/>
-    <mergeCell ref="AI192:AJ192"/>
-    <mergeCell ref="Y189:AA189"/>
-    <mergeCell ref="S187:V187"/>
-    <mergeCell ref="AA187:AC187"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="U189:V189"/>
-    <mergeCell ref="AI190:AJ190"/>
-    <mergeCell ref="AI191:AJ191"/>
-    <mergeCell ref="AN190:AO190"/>
-    <mergeCell ref="AN191:AO191"/>
-    <mergeCell ref="AN192:AO192"/>
-    <mergeCell ref="W158:X158"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="AA153:AB153"/>
-    <mergeCell ref="AC153:AD153"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="U154:V154"/>
-    <mergeCell ref="W154:X154"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="AA138:AB138"/>
-    <mergeCell ref="AC138:AD138"/>
-    <mergeCell ref="AO129:AR129"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AA132:AB132"/>
-    <mergeCell ref="AC132:AD132"/>
-    <mergeCell ref="AA133:AB133"/>
-    <mergeCell ref="AC133:AD133"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="AC134:AD134"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AG137:AH137"/>
-    <mergeCell ref="AG138:AH138"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="U138:V138"/>
-    <mergeCell ref="W138:X138"/>
-    <mergeCell ref="Y138:Z138"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="DL139:DM139"/>
-    <mergeCell ref="DJ141:DK141"/>
-    <mergeCell ref="U130:V130"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="AA130:AH130"/>
-    <mergeCell ref="U131:V131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="Y131:Z131"/>
-    <mergeCell ref="U132:V132"/>
-    <mergeCell ref="W132:X132"/>
-    <mergeCell ref="Y132:Z132"/>
-    <mergeCell ref="U133:V133"/>
-    <mergeCell ref="W133:X133"/>
-    <mergeCell ref="Y133:Z133"/>
-    <mergeCell ref="U134:V134"/>
-    <mergeCell ref="W134:X134"/>
-    <mergeCell ref="Y134:Z134"/>
-    <mergeCell ref="U135:V135"/>
-    <mergeCell ref="W135:X135"/>
-    <mergeCell ref="Y135:Z135"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="W137:X137"/>
-    <mergeCell ref="DL136:DM136"/>
-    <mergeCell ref="DD137:DE137"/>
-    <mergeCell ref="DF137:DH137"/>
-    <mergeCell ref="DI137:DK137"/>
-    <mergeCell ref="DL137:DM137"/>
-    <mergeCell ref="DD138:DE138"/>
-    <mergeCell ref="DF138:DH138"/>
-    <mergeCell ref="DI138:DK138"/>
-    <mergeCell ref="DL138:DM138"/>
-    <mergeCell ref="CU131:CV131"/>
-    <mergeCell ref="CU132:CV132"/>
-    <mergeCell ref="CS131:CT131"/>
-    <mergeCell ref="CS132:CT132"/>
-    <mergeCell ref="DD136:DE136"/>
-    <mergeCell ref="DF136:DH136"/>
-    <mergeCell ref="DI136:DK136"/>
-    <mergeCell ref="CD139:CE139"/>
-    <mergeCell ref="CG139:CH139"/>
-    <mergeCell ref="DD139:DE139"/>
-    <mergeCell ref="DF139:DH139"/>
-    <mergeCell ref="DI139:DK139"/>
-    <mergeCell ref="BG134:BH134"/>
-    <mergeCell ref="CN134:CO134"/>
-    <mergeCell ref="CQ134:CR134"/>
-    <mergeCell ref="BO133:BP133"/>
-    <mergeCell ref="BQ133:BR133"/>
-    <mergeCell ref="BS133:BT133"/>
-    <mergeCell ref="BO134:BP134"/>
-    <mergeCell ref="BQ134:BR134"/>
-    <mergeCell ref="BS134:BT134"/>
-    <mergeCell ref="CA112:CH112"/>
-    <mergeCell ref="AN106:AS106"/>
-    <mergeCell ref="BA132:BC132"/>
-    <mergeCell ref="AY131:AZ131"/>
-    <mergeCell ref="BA131:BC131"/>
-    <mergeCell ref="BD131:BF131"/>
-    <mergeCell ref="AY132:AZ132"/>
-    <mergeCell ref="BD132:BF132"/>
-    <mergeCell ref="AY133:AZ133"/>
-    <mergeCell ref="BA133:BC133"/>
-    <mergeCell ref="BD133:BF133"/>
-    <mergeCell ref="BZ116:CA116"/>
-    <mergeCell ref="CC116:CD116"/>
-    <mergeCell ref="BO131:BP131"/>
-    <mergeCell ref="BQ131:BR131"/>
-    <mergeCell ref="BS131:BT131"/>
-    <mergeCell ref="BO132:BP132"/>
-    <mergeCell ref="BQ132:BR132"/>
-    <mergeCell ref="BS132:BT132"/>
-    <mergeCell ref="BY112:BZ112"/>
-    <mergeCell ref="CB108:CI108"/>
-    <mergeCell ref="BY110:BZ110"/>
-    <mergeCell ref="BG131:BH131"/>
-    <mergeCell ref="BG132:BH132"/>
-    <mergeCell ref="BP136:BQ136"/>
-    <mergeCell ref="AE131:AF131"/>
-    <mergeCell ref="AE132:AF132"/>
-    <mergeCell ref="AE133:AF133"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="AE135:AF135"/>
-    <mergeCell ref="AE136:AF136"/>
-    <mergeCell ref="W136:X136"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="Y130:Z130"/>
-    <mergeCell ref="U128:V128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="AY134:AZ134"/>
-    <mergeCell ref="BA134:BC134"/>
-    <mergeCell ref="BD134:BF134"/>
-    <mergeCell ref="BA136:BB136"/>
-    <mergeCell ref="BD136:BE136"/>
-    <mergeCell ref="AG131:AH131"/>
-    <mergeCell ref="AG132:AH132"/>
-    <mergeCell ref="AG133:AH133"/>
-    <mergeCell ref="AG134:AH134"/>
-    <mergeCell ref="AG135:AH135"/>
-    <mergeCell ref="AG136:AH136"/>
-    <mergeCell ref="BG133:BH133"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="Z126:AB126"/>
-    <mergeCell ref="AD126:AE126"/>
-    <mergeCell ref="AA131:AB131"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD102:AH102"/>
-    <mergeCell ref="AK102:AL102"/>
-    <mergeCell ref="AM102:AQ102"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AI32:AO32"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="CA110:CH110"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="BI58:BJ58"/>
-    <mergeCell ref="BH47:BI47"/>
-    <mergeCell ref="BJ47:BK47"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="BK49:BL49"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="BK50:BL50"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BI52:BJ52"/>
-    <mergeCell ref="BK52:BL52"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="BY108:CA108"/>
-    <mergeCell ref="BC74:BD74"/>
-    <mergeCell ref="BC75:BD75"/>
-    <mergeCell ref="BN78:BO78"/>
-    <mergeCell ref="BI53:BJ53"/>
-    <mergeCell ref="BK53:BL53"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="S106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="AE106:AG106"/>
-    <mergeCell ref="AH106:AJ106"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="X48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="AF91:AG91"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AF93:AG93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AD94:AE94"/>
-    <mergeCell ref="AF94:AG94"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="BC71:BD71"/>
-    <mergeCell ref="BE71:BF71"/>
-    <mergeCell ref="BG71:BH71"/>
-    <mergeCell ref="BC72:BD72"/>
-    <mergeCell ref="BB73:BC73"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:AB66"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="AB90:AG90"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="AP91:AW91"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="AO90:AQ90"/>
-    <mergeCell ref="AR90:AY90"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:AC88"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="S92:U92"/>
-    <mergeCell ref="S93:U93"/>
-    <mergeCell ref="S94:U94"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="BP115:BQ115"/>
-    <mergeCell ref="BH117:BI117"/>
-    <mergeCell ref="BK117:BL117"/>
-    <mergeCell ref="BM107:BQ107"/>
-    <mergeCell ref="U1:Y2"/>
-    <mergeCell ref="BI54:BJ54"/>
-    <mergeCell ref="BK54:BL54"/>
-    <mergeCell ref="BI55:BJ55"/>
-    <mergeCell ref="BK55:BL55"/>
-    <mergeCell ref="BI56:BJ56"/>
-    <mergeCell ref="BK56:BL56"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="BA66:BC66"/>
-    <mergeCell ref="BD66:BK66"/>
-    <mergeCell ref="BB70:BC70"/>
-    <mergeCell ref="BD70:BE70"/>
-    <mergeCell ref="BF70:BG70"/>
-    <mergeCell ref="AS94:AT94"/>
-    <mergeCell ref="AP94:AQ94"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="AE78:AF78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/通用测试平台.xlsx
+++ b/通用测试平台.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="294">
   <si>
     <t>组织管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1241,6 +1241,10 @@
   </si>
   <si>
     <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{para_id:}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1811,19 +1815,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1835,35 +1868,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="217">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2386,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="AA115" sqref="AA115"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF121" workbookViewId="0">
+      <selection activeCell="BG132" sqref="BG132:BH132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18" customHeight="1"/>
@@ -2397,38 +2401,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:46" ht="18" customHeight="1">
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="U1" s="57" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="U1" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
     </row>
     <row r="2" spans="2:46" ht="18" customHeight="1">
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
     </row>
     <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="30"/>
@@ -2595,18 +2599,18 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="56" t="s">
+      <c r="S10" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="56"/>
-      <c r="U10" s="43" t="s">
+      <c r="T10" s="54"/>
+      <c r="U10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43" t="s">
+      <c r="V10" s="50"/>
+      <c r="W10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="43"/>
+      <c r="X10" s="50"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2637,18 +2641,18 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="43" t="s">
+      <c r="T11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43" t="s">
+      <c r="U11" s="50"/>
+      <c r="V11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43" t="s">
+      <c r="W11" s="50"/>
+      <c r="X11" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="55"/>
+      <c r="Y11" s="56"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -2675,10 +2679,10 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="43" t="s">
+      <c r="T12" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="43"/>
+      <c r="U12" s="50"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -2708,10 +2712,10 @@
     <row r="13" spans="2:46" ht="18" customHeight="1">
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="43" t="s">
+      <c r="S13" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="43"/>
+      <c r="T13" s="50"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -2749,10 +2753,10 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="43" t="s">
+      <c r="T14" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="43"/>
+      <c r="U14" s="50"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -2781,10 +2785,10 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="43" t="s">
+      <c r="T15" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="43"/>
+      <c r="U15" s="50"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -2880,7 +2884,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="44" t="s">
+      <c r="AE18" s="45" t="s">
         <v>13</v>
       </c>
       <c r="AF18" s="46"/>
@@ -3077,32 +3081,32 @@
     <row r="28" spans="2:46" ht="18" customHeight="1">
       <c r="Q28" s="6"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="43" t="s">
+      <c r="S28" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="T28" s="43"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="45"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="47"/>
       <c r="W28" s="46"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="43" t="s">
+      <c r="Y28" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="44"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="45"/>
       <c r="AB28" s="46"/>
-      <c r="AD28" s="43" t="s">
+      <c r="AD28" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AE28" s="43"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="47"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
       <c r="AI28" s="24" t="s">
         <v>54</v>
       </c>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="44" t="s">
+      <c r="AK28" s="45" t="s">
         <v>116</v>
       </c>
       <c r="AL28" s="46"/>
@@ -3156,18 +3160,18 @@
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="47" t="s">
+      <c r="S30" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47" t="s">
+      <c r="T30" s="49"/>
+      <c r="U30" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47" t="s">
+      <c r="V30" s="49"/>
+      <c r="W30" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="X30" s="47"/>
+      <c r="X30" s="49"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -3232,44 +3236,44 @@
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="44" t="s">
+      <c r="S32" s="45" t="s">
         <v>14</v>
       </c>
       <c r="T32" s="46"/>
-      <c r="U32" s="44" t="s">
+      <c r="U32" s="45" t="s">
         <v>15</v>
       </c>
       <c r="V32" s="46"/>
-      <c r="W32" s="44" t="s">
+      <c r="W32" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="45"/>
+      <c r="X32" s="47"/>
       <c r="Y32" s="46"/>
-      <c r="Z32" s="44" t="s">
+      <c r="Z32" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AA32" s="45"/>
+      <c r="AA32" s="47"/>
       <c r="AB32" s="46"/>
       <c r="AC32" s="37" t="s">
         <v>22</v>
       </c>
       <c r="AD32" s="38"/>
-      <c r="AE32" s="44" t="s">
+      <c r="AE32" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="44" t="s">
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="45" t="s">
         <v>30</v>
       </c>
       <c r="AH32" s="46"/>
-      <c r="AI32" s="44" t="s">
+      <c r="AI32" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="45"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="47"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="47"/>
       <c r="AO32" s="46"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
@@ -3283,36 +3287,36 @@
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="44"/>
+      <c r="S33" s="45"/>
       <c r="T33" s="46"/>
-      <c r="U33" s="44" t="s">
+      <c r="U33" s="45" t="s">
         <v>23</v>
       </c>
       <c r="V33" s="46"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="47"/>
       <c r="Y33" s="46"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="47"/>
       <c r="AB33" s="46"/>
-      <c r="AC33" s="44"/>
+      <c r="AC33" s="45"/>
       <c r="AD33" s="46"/>
       <c r="AE33" s="11"/>
       <c r="AF33" s="13"/>
-      <c r="AG33" s="44" t="s">
+      <c r="AG33" s="45" t="s">
         <v>287</v>
       </c>
       <c r="AH33" s="46"/>
-      <c r="AI33" s="44" t="s">
+      <c r="AI33" s="45" t="s">
         <v>20</v>
       </c>
       <c r="AJ33" s="46"/>
-      <c r="AK33" s="44" t="s">
+      <c r="AK33" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AL33" s="45"/>
+      <c r="AL33" s="47"/>
       <c r="AM33" s="46"/>
-      <c r="AN33" s="44" t="s">
+      <c r="AN33" s="45" t="s">
         <v>21</v>
       </c>
       <c r="AO33" s="46"/>
@@ -3328,36 +3332,36 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="44"/>
+      <c r="S34" s="45"/>
       <c r="T34" s="46"/>
-      <c r="U34" s="44" t="s">
+      <c r="U34" s="45" t="s">
         <v>24</v>
       </c>
       <c r="V34" s="46"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="47"/>
       <c r="Y34" s="46"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="47"/>
       <c r="AB34" s="46"/>
-      <c r="AC34" s="44"/>
+      <c r="AC34" s="45"/>
       <c r="AD34" s="46"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="13"/>
-      <c r="AG34" s="44" t="s">
+      <c r="AG34" s="45" t="s">
         <v>288</v>
       </c>
       <c r="AH34" s="46"/>
-      <c r="AI34" s="44" t="s">
+      <c r="AI34" s="45" t="s">
         <v>20</v>
       </c>
       <c r="AJ34" s="46"/>
-      <c r="AK34" s="44" t="s">
+      <c r="AK34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AL34" s="45"/>
+      <c r="AL34" s="47"/>
       <c r="AM34" s="46"/>
-      <c r="AN34" s="44" t="s">
+      <c r="AN34" s="45" t="s">
         <v>8</v>
       </c>
       <c r="AO34" s="46"/>
@@ -3373,34 +3377,34 @@
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="44"/>
+      <c r="S35" s="45"/>
       <c r="T35" s="46"/>
-      <c r="U35" s="44" t="s">
+      <c r="U35" s="45" t="s">
         <v>25</v>
       </c>
       <c r="V35" s="46"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="47"/>
       <c r="Y35" s="46"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="47"/>
       <c r="AB35" s="46"/>
-      <c r="AC35" s="44"/>
+      <c r="AC35" s="45"/>
       <c r="AD35" s="46"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="13"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
-      <c r="AI35" s="44" t="s">
+      <c r="AI35" s="45" t="s">
         <v>20</v>
       </c>
       <c r="AJ35" s="46"/>
-      <c r="AK35" s="44" t="s">
+      <c r="AK35" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AL35" s="45"/>
+      <c r="AL35" s="47"/>
       <c r="AM35" s="46"/>
-      <c r="AN35" s="44" t="s">
+      <c r="AN35" s="45" t="s">
         <v>8</v>
       </c>
       <c r="AO35" s="46"/>
@@ -3416,9 +3420,9 @@
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="44"/>
+      <c r="S36" s="45"/>
       <c r="T36" s="46"/>
-      <c r="U36" s="44" t="s">
+      <c r="U36" s="45" t="s">
         <v>26</v>
       </c>
       <c r="V36" s="46"/>
@@ -3434,16 +3438,16 @@
       <c r="AF36" s="13"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
-      <c r="AI36" s="44" t="s">
+      <c r="AI36" s="45" t="s">
         <v>20</v>
       </c>
       <c r="AJ36" s="46"/>
-      <c r="AK36" s="44" t="s">
+      <c r="AK36" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AL36" s="45"/>
+      <c r="AL36" s="47"/>
       <c r="AM36" s="46"/>
-      <c r="AN36" s="44" t="s">
+      <c r="AN36" s="45" t="s">
         <v>8</v>
       </c>
       <c r="AO36" s="46"/>
@@ -3459,34 +3463,34 @@
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="44"/>
+      <c r="S37" s="45"/>
       <c r="T37" s="46"/>
-      <c r="U37" s="44" t="s">
+      <c r="U37" s="45" t="s">
         <v>27</v>
       </c>
       <c r="V37" s="46"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="47"/>
       <c r="Y37" s="46"/>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="47"/>
       <c r="AB37" s="46"/>
-      <c r="AC37" s="44"/>
+      <c r="AC37" s="45"/>
       <c r="AD37" s="46"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="13"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
-      <c r="AI37" s="44" t="s">
+      <c r="AI37" s="45" t="s">
         <v>20</v>
       </c>
       <c r="AJ37" s="46"/>
-      <c r="AK37" s="44" t="s">
+      <c r="AK37" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AL37" s="45"/>
+      <c r="AL37" s="47"/>
       <c r="AM37" s="46"/>
-      <c r="AN37" s="44" t="s">
+      <c r="AN37" s="45" t="s">
         <v>8</v>
       </c>
       <c r="AO37" s="46"/>
@@ -3499,28 +3503,28 @@
     <row r="38" spans="2:67" ht="18" customHeight="1">
       <c r="Q38" s="6"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="44"/>
+      <c r="S38" s="45"/>
       <c r="T38" s="46"/>
-      <c r="U38" s="44"/>
+      <c r="U38" s="45"/>
       <c r="V38" s="46"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="47"/>
       <c r="Y38" s="46"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="47"/>
       <c r="AB38" s="46"/>
-      <c r="AC38" s="44"/>
+      <c r="AC38" s="45"/>
       <c r="AD38" s="46"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="13"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="44"/>
+      <c r="AI38" s="45"/>
       <c r="AJ38" s="46"/>
-      <c r="AK38" s="44"/>
-      <c r="AL38" s="45"/>
+      <c r="AK38" s="45"/>
+      <c r="AL38" s="47"/>
       <c r="AM38" s="46"/>
-      <c r="AN38" s="44"/>
+      <c r="AN38" s="45"/>
       <c r="AO38" s="46"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
@@ -3671,10 +3675,10 @@
         <v>131</v>
       </c>
       <c r="Q46" s="6"/>
-      <c r="R46" s="47" t="s">
+      <c r="R46" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="S46" s="47"/>
+      <c r="S46" s="49"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -3750,14 +3754,14 @@
       <c r="BB47" s="7"/>
       <c r="BF47" s="6"/>
       <c r="BG47" s="1"/>
-      <c r="BH47" s="47" t="s">
+      <c r="BH47" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="BI47" s="47"/>
-      <c r="BJ47" s="47" t="s">
+      <c r="BI47" s="49"/>
+      <c r="BJ47" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="BK47" s="47"/>
+      <c r="BK47" s="49"/>
       <c r="BL47" s="1"/>
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
@@ -3771,23 +3775,23 @@
       <c r="R48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S48" s="47" t="s">
+      <c r="S48" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47" t="s">
+      <c r="T48" s="49"/>
+      <c r="U48" s="49"/>
+      <c r="V48" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="W48" s="47"/>
-      <c r="X48" s="47" t="s">
+      <c r="W48" s="49"/>
+      <c r="X48" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="47"/>
-      <c r="AA48" s="47"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
@@ -3826,23 +3830,23 @@
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="15"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="47" t="s">
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Y49" s="47"/>
-      <c r="Z49" s="47" t="s">
+      <c r="Y49" s="49"/>
+      <c r="Z49" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="AA49" s="47"/>
-      <c r="AB49" s="47" t="s">
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="AC49" s="47"/>
+      <c r="AC49" s="49"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
@@ -3867,14 +3871,14 @@
       <c r="BH49" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BI49" s="47" t="s">
+      <c r="BI49" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="BJ49" s="47"/>
-      <c r="BK49" s="47" t="s">
+      <c r="BJ49" s="49"/>
+      <c r="BK49" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="BL49" s="47"/>
+      <c r="BL49" s="49"/>
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
       <c r="BO49" s="7"/>
@@ -3885,17 +3889,17 @@
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="15"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="47"/>
-      <c r="Y50" s="47"/>
-      <c r="Z50" s="47"/>
-      <c r="AA50" s="47"/>
-      <c r="AB50" s="47"/>
-      <c r="AC50" s="47"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="49"/>
+      <c r="X50" s="49"/>
+      <c r="Y50" s="49"/>
+      <c r="Z50" s="49"/>
+      <c r="AA50" s="49"/>
+      <c r="AB50" s="49"/>
+      <c r="AC50" s="49"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
@@ -3920,14 +3924,14 @@
       <c r="BH50" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BI50" s="47" t="s">
+      <c r="BI50" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="BJ50" s="47"/>
-      <c r="BK50" s="47" t="s">
+      <c r="BJ50" s="49"/>
+      <c r="BK50" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="BL50" s="47"/>
+      <c r="BL50" s="49"/>
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
       <c r="BO50" s="7"/>
@@ -3938,17 +3942,17 @@
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="15"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="47"/>
-      <c r="Y51" s="47"/>
-      <c r="Z51" s="47"/>
-      <c r="AA51" s="47"/>
-      <c r="AB51" s="47"/>
-      <c r="AC51" s="47"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="49"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="49"/>
+      <c r="X51" s="49"/>
+      <c r="Y51" s="49"/>
+      <c r="Z51" s="49"/>
+      <c r="AA51" s="49"/>
+      <c r="AB51" s="49"/>
+      <c r="AC51" s="49"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
@@ -3956,12 +3960,12 @@
       <c r="AN51" s="6"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
-      <c r="AQ51" s="44" t="s">
+      <c r="AQ51" s="45" t="s">
         <v>36</v>
       </c>
       <c r="AR51" s="46"/>
       <c r="AS51" s="1"/>
-      <c r="AT51" s="44" t="s">
+      <c r="AT51" s="45" t="s">
         <v>37</v>
       </c>
       <c r="AU51" s="46"/>
@@ -3977,14 +3981,14 @@
       <c r="BH51" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BI51" s="47" t="s">
+      <c r="BI51" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="BJ51" s="47"/>
-      <c r="BK51" s="47" t="s">
+      <c r="BJ51" s="49"/>
+      <c r="BK51" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="BL51" s="47"/>
+      <c r="BL51" s="49"/>
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
       <c r="BO51" s="7"/>
@@ -3992,17 +3996,17 @@
     <row r="52" spans="2:67" ht="18" customHeight="1">
       <c r="Q52" s="6"/>
       <c r="R52" s="15"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="47"/>
-      <c r="Y52" s="47"/>
-      <c r="Z52" s="47"/>
-      <c r="AA52" s="47"/>
-      <c r="AB52" s="47"/>
-      <c r="AC52" s="47"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="49"/>
+      <c r="V52" s="49"/>
+      <c r="W52" s="49"/>
+      <c r="X52" s="49"/>
+      <c r="Y52" s="49"/>
+      <c r="Z52" s="49"/>
+      <c r="AA52" s="49"/>
+      <c r="AB52" s="49"/>
+      <c r="AC52" s="49"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
@@ -4027,14 +4031,14 @@
       <c r="BH52" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BI52" s="47" t="s">
+      <c r="BI52" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="BJ52" s="47"/>
-      <c r="BK52" s="47" t="s">
+      <c r="BJ52" s="49"/>
+      <c r="BK52" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="BL52" s="47"/>
+      <c r="BL52" s="49"/>
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
       <c r="BO52" s="7"/>
@@ -4042,17 +4046,17 @@
     <row r="53" spans="2:67" ht="18" customHeight="1">
       <c r="Q53" s="6"/>
       <c r="R53" s="15"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="47"/>
-      <c r="Y53" s="47"/>
-      <c r="Z53" s="47"/>
-      <c r="AA53" s="47"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="47"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="49"/>
+      <c r="V53" s="49"/>
+      <c r="W53" s="49"/>
+      <c r="X53" s="49"/>
+      <c r="Y53" s="49"/>
+      <c r="Z53" s="49"/>
+      <c r="AA53" s="49"/>
+      <c r="AB53" s="49"/>
+      <c r="AC53" s="49"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
@@ -4077,10 +4081,10 @@
       <c r="BH53" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BI53" s="47"/>
-      <c r="BJ53" s="47"/>
-      <c r="BK53" s="47"/>
-      <c r="BL53" s="47"/>
+      <c r="BI53" s="49"/>
+      <c r="BJ53" s="49"/>
+      <c r="BK53" s="49"/>
+      <c r="BL53" s="49"/>
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
       <c r="BO53" s="7"/>
@@ -4088,17 +4092,17 @@
     <row r="54" spans="2:67" ht="18" customHeight="1">
       <c r="Q54" s="6"/>
       <c r="R54" s="15"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="47"/>
-      <c r="Y54" s="47"/>
-      <c r="Z54" s="47"/>
-      <c r="AA54" s="47"/>
-      <c r="AB54" s="47"/>
-      <c r="AC54" s="47"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="49"/>
+      <c r="W54" s="49"/>
+      <c r="X54" s="49"/>
+      <c r="Y54" s="49"/>
+      <c r="Z54" s="49"/>
+      <c r="AA54" s="49"/>
+      <c r="AB54" s="49"/>
+      <c r="AC54" s="49"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
@@ -4123,10 +4127,10 @@
       <c r="BH54" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BI54" s="47"/>
-      <c r="BJ54" s="47"/>
-      <c r="BK54" s="47"/>
-      <c r="BL54" s="47"/>
+      <c r="BI54" s="49"/>
+      <c r="BJ54" s="49"/>
+      <c r="BK54" s="49"/>
+      <c r="BL54" s="49"/>
       <c r="BM54" s="1"/>
       <c r="BN54" s="1"/>
       <c r="BO54" s="7"/>
@@ -4134,17 +4138,17 @@
     <row r="55" spans="2:67" ht="18" customHeight="1">
       <c r="Q55" s="6"/>
       <c r="R55" s="15"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="47"/>
-      <c r="Y55" s="47"/>
-      <c r="Z55" s="47"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="47"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="49"/>
+      <c r="Z55" s="49"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="49"/>
+      <c r="AC55" s="49"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
@@ -4169,10 +4173,10 @@
       <c r="BH55" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BI55" s="47"/>
-      <c r="BJ55" s="47"/>
-      <c r="BK55" s="47"/>
-      <c r="BL55" s="47"/>
+      <c r="BI55" s="49"/>
+      <c r="BJ55" s="49"/>
+      <c r="BK55" s="49"/>
+      <c r="BL55" s="49"/>
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
       <c r="BO55" s="7"/>
@@ -4180,17 +4184,17 @@
     <row r="56" spans="2:67" ht="18" customHeight="1">
       <c r="Q56" s="6"/>
       <c r="R56" s="15"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="47"/>
-      <c r="Y56" s="47"/>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="49"/>
+      <c r="W56" s="49"/>
+      <c r="X56" s="49"/>
+      <c r="Y56" s="49"/>
+      <c r="Z56" s="49"/>
+      <c r="AA56" s="49"/>
+      <c r="AB56" s="49"/>
+      <c r="AC56" s="49"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
@@ -4198,10 +4202,10 @@
       <c r="BF56" s="6"/>
       <c r="BG56" s="1"/>
       <c r="BH56" s="15"/>
-      <c r="BI56" s="47"/>
-      <c r="BJ56" s="47"/>
-      <c r="BK56" s="47"/>
-      <c r="BL56" s="47"/>
+      <c r="BI56" s="49"/>
+      <c r="BJ56" s="49"/>
+      <c r="BK56" s="49"/>
+      <c r="BL56" s="49"/>
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
       <c r="BO56" s="7"/>
@@ -4256,7 +4260,7 @@
       <c r="BF58" s="6"/>
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
-      <c r="BI58" s="44" t="s">
+      <c r="BI58" s="45" t="s">
         <v>50</v>
       </c>
       <c r="BJ58" s="46"/>
@@ -4422,11 +4426,11 @@
         <v>134</v>
       </c>
       <c r="Q66" s="6"/>
-      <c r="R66" s="43" t="s">
+      <c r="R66" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="50"/>
       <c r="U66" s="51" t="s">
         <v>55</v>
       </c>
@@ -4445,7 +4449,7 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="44" t="s">
+      <c r="AI66" s="45" t="s">
         <v>116</v>
       </c>
       <c r="AJ66" s="46"/>
@@ -4464,11 +4468,11 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="7"/>
       <c r="AZ66" s="6"/>
-      <c r="BA66" s="43" t="s">
+      <c r="BA66" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="BB66" s="43"/>
-      <c r="BC66" s="43"/>
+      <c r="BB66" s="50"/>
+      <c r="BC66" s="50"/>
       <c r="BD66" s="51" t="s">
         <v>55</v>
       </c>
@@ -4730,18 +4734,18 @@
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="58" t="s">
+      <c r="S70" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="T70" s="58"/>
-      <c r="U70" s="43" t="s">
+      <c r="T70" s="55"/>
+      <c r="U70" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43" t="s">
+      <c r="V70" s="50"/>
+      <c r="W70" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="X70" s="43"/>
+      <c r="X70" s="50"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -4770,18 +4774,18 @@
       <c r="AX70" s="7"/>
       <c r="AZ70" s="6"/>
       <c r="BA70" s="6"/>
-      <c r="BB70" s="56" t="s">
+      <c r="BB70" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="BC70" s="56"/>
-      <c r="BD70" s="43" t="s">
+      <c r="BC70" s="54"/>
+      <c r="BD70" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="BE70" s="43"/>
-      <c r="BF70" s="43" t="s">
+      <c r="BE70" s="50"/>
+      <c r="BF70" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="BG70" s="43"/>
+      <c r="BG70" s="50"/>
       <c r="BH70" s="7"/>
       <c r="BI70" s="1"/>
       <c r="BJ70" s="1"/>
@@ -4816,18 +4820,18 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="43" t="s">
+      <c r="T71" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43" t="s">
+      <c r="U71" s="50"/>
+      <c r="V71" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="W71" s="43"/>
-      <c r="X71" s="43" t="s">
+      <c r="W71" s="50"/>
+      <c r="X71" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Y71" s="55"/>
+      <c r="Y71" s="56"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
@@ -4858,18 +4862,18 @@
       <c r="AZ71" s="6"/>
       <c r="BA71" s="6"/>
       <c r="BB71" s="1"/>
-      <c r="BC71" s="43" t="s">
+      <c r="BC71" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="BD71" s="43"/>
-      <c r="BE71" s="43" t="s">
+      <c r="BD71" s="50"/>
+      <c r="BE71" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="BF71" s="43"/>
-      <c r="BG71" s="43" t="s">
+      <c r="BF71" s="50"/>
+      <c r="BG71" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="BH71" s="55"/>
+      <c r="BH71" s="56"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
@@ -4905,10 +4909,10 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="43" t="s">
+      <c r="T72" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="43"/>
+      <c r="U72" s="50"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
@@ -4943,10 +4947,10 @@
       <c r="AZ72" s="6"/>
       <c r="BA72" s="6"/>
       <c r="BB72" s="1"/>
-      <c r="BC72" s="43" t="s">
+      <c r="BC72" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="BD72" s="43"/>
+      <c r="BD72" s="50"/>
       <c r="BE72" s="1"/>
       <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
@@ -4982,10 +4986,10 @@
     <row r="73" spans="3:85" ht="18" customHeight="1">
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="S73" s="43" t="s">
+      <c r="S73" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="T73" s="43"/>
+      <c r="T73" s="50"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -5022,10 +5026,10 @@
       <c r="AX73" s="7"/>
       <c r="AZ73" s="6"/>
       <c r="BA73" s="6"/>
-      <c r="BB73" s="43" t="s">
+      <c r="BB73" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="BC73" s="43"/>
+      <c r="BC73" s="50"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
       <c r="BF73" s="1"/>
@@ -5069,10 +5073,10 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="43" t="s">
+      <c r="T74" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="U74" s="43"/>
+      <c r="U74" s="50"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
@@ -5105,10 +5109,10 @@
       <c r="AZ74" s="6"/>
       <c r="BA74" s="6"/>
       <c r="BB74" s="1"/>
-      <c r="BC74" s="43" t="s">
+      <c r="BC74" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="BD74" s="43"/>
+      <c r="BD74" s="50"/>
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
       <c r="BG74" s="1"/>
@@ -5143,10 +5147,10 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="43" t="s">
+      <c r="T75" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="U75" s="43"/>
+      <c r="U75" s="50"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
@@ -5179,10 +5183,10 @@
       <c r="AZ75" s="6"/>
       <c r="BA75" s="6"/>
       <c r="BB75" s="1"/>
-      <c r="BC75" s="43" t="s">
+      <c r="BC75" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="BD75" s="43"/>
+      <c r="BD75" s="50"/>
       <c r="BE75" s="1"/>
       <c r="BF75" s="1"/>
       <c r="BG75" s="1"/>
@@ -5368,7 +5372,7 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
-      <c r="AE78" s="44" t="s">
+      <c r="AE78" s="45" t="s">
         <v>13</v>
       </c>
       <c r="AF78" s="46"/>
@@ -5404,7 +5408,7 @@
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
       <c r="BM78" s="1"/>
-      <c r="BN78" s="44" t="s">
+      <c r="BN78" s="45" t="s">
         <v>13</v>
       </c>
       <c r="BO78" s="46"/>
@@ -5757,11 +5761,11 @@
     <row r="88" spans="2:85" ht="18" customHeight="1">
       <c r="Q88" s="6"/>
       <c r="R88" s="1"/>
-      <c r="S88" s="43" t="s">
+      <c r="S88" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="T88" s="43"/>
-      <c r="U88" s="43"/>
+      <c r="T88" s="50"/>
+      <c r="U88" s="50"/>
       <c r="V88" s="51" t="s">
         <v>55</v>
       </c>
@@ -5805,10 +5809,10 @@
       </c>
       <c r="Q89" s="6"/>
       <c r="R89" s="1"/>
-      <c r="S89" s="47" t="s">
+      <c r="S89" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="T89" s="47"/>
+      <c r="T89" s="49"/>
       <c r="U89" s="14"/>
       <c r="V89" s="20"/>
       <c r="W89" s="20"/>
@@ -5849,40 +5853,40 @@
       </c>
       <c r="Q90" s="6"/>
       <c r="R90" s="1"/>
-      <c r="S90" s="47" t="s">
+      <c r="S90" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="T90" s="47"/>
-      <c r="U90" s="47"/>
-      <c r="V90" s="44" t="s">
+      <c r="T90" s="49"/>
+      <c r="U90" s="49"/>
+      <c r="V90" s="45" t="s">
         <v>290</v>
       </c>
       <c r="W90" s="46"/>
-      <c r="X90" s="44" t="s">
+      <c r="X90" s="45" t="s">
         <v>73</v>
       </c>
       <c r="Y90" s="46"/>
-      <c r="Z90" s="47" t="s">
+      <c r="Z90" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AA90" s="47"/>
-      <c r="AB90" s="47" t="s">
+      <c r="AA90" s="49"/>
+      <c r="AB90" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="AC90" s="47"/>
-      <c r="AD90" s="47"/>
-      <c r="AE90" s="47"/>
-      <c r="AF90" s="47"/>
-      <c r="AG90" s="47"/>
+      <c r="AC90" s="49"/>
+      <c r="AD90" s="49"/>
+      <c r="AE90" s="49"/>
+      <c r="AF90" s="49"/>
+      <c r="AG90" s="49"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="7"/>
       <c r="AM90" s="6"/>
       <c r="AN90" s="1"/>
-      <c r="AO90" s="43" t="s">
+      <c r="AO90" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="AP90" s="43"/>
-      <c r="AQ90" s="43"/>
+      <c r="AP90" s="50"/>
+      <c r="AQ90" s="50"/>
       <c r="AR90" s="51" t="s">
         <v>55</v>
       </c>
@@ -5905,26 +5909,26 @@
       </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="1"/>
-      <c r="S91" s="47" t="s">
+      <c r="S91" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="T91" s="47"/>
-      <c r="U91" s="47"/>
-      <c r="V91" s="44"/>
+      <c r="T91" s="49"/>
+      <c r="U91" s="49"/>
+      <c r="V91" s="45"/>
       <c r="W91" s="46"/>
-      <c r="X91" s="44"/>
+      <c r="X91" s="45"/>
       <c r="Y91" s="46"/>
-      <c r="Z91" s="44"/>
+      <c r="Z91" s="45"/>
       <c r="AA91" s="46"/>
-      <c r="AB91" s="47" t="s">
+      <c r="AB91" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AC91" s="47"/>
-      <c r="AD91" s="44" t="s">
+      <c r="AC91" s="49"/>
+      <c r="AD91" s="45" t="s">
         <v>8</v>
       </c>
       <c r="AE91" s="46"/>
-      <c r="AF91" s="44" t="s">
+      <c r="AF91" s="45" t="s">
         <v>75</v>
       </c>
       <c r="AG91" s="46"/>
@@ -5959,22 +5963,22 @@
       </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="1"/>
-      <c r="S92" s="47" t="s">
+      <c r="S92" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="44"/>
+      <c r="T92" s="49"/>
+      <c r="U92" s="49"/>
+      <c r="V92" s="45"/>
       <c r="W92" s="46"/>
-      <c r="X92" s="44"/>
+      <c r="X92" s="45"/>
       <c r="Y92" s="46"/>
-      <c r="Z92" s="44"/>
+      <c r="Z92" s="45"/>
       <c r="AA92" s="46"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
-      <c r="AD92" s="44"/>
+      <c r="AB92" s="49"/>
+      <c r="AC92" s="49"/>
+      <c r="AD92" s="45"/>
       <c r="AE92" s="46"/>
-      <c r="AF92" s="44"/>
+      <c r="AF92" s="45"/>
       <c r="AG92" s="46"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="7"/>
@@ -6003,22 +6007,22 @@
       </c>
       <c r="Q93" s="6"/>
       <c r="R93" s="1"/>
-      <c r="S93" s="47" t="s">
+      <c r="S93" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
-      <c r="V93" s="44"/>
+      <c r="T93" s="49"/>
+      <c r="U93" s="49"/>
+      <c r="V93" s="45"/>
       <c r="W93" s="46"/>
-      <c r="X93" s="44"/>
+      <c r="X93" s="45"/>
       <c r="Y93" s="46"/>
-      <c r="Z93" s="44"/>
+      <c r="Z93" s="45"/>
       <c r="AA93" s="46"/>
-      <c r="AB93" s="47"/>
-      <c r="AC93" s="47"/>
-      <c r="AD93" s="44"/>
+      <c r="AB93" s="49"/>
+      <c r="AC93" s="49"/>
+      <c r="AD93" s="45"/>
       <c r="AE93" s="46"/>
-      <c r="AF93" s="44"/>
+      <c r="AF93" s="45"/>
       <c r="AG93" s="46"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="7"/>
@@ -6045,34 +6049,34 @@
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="59" t="s">
+      <c r="S94" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="T94" s="59"/>
-      <c r="U94" s="59"/>
-      <c r="V94" s="44"/>
+      <c r="T94" s="57"/>
+      <c r="U94" s="57"/>
+      <c r="V94" s="45"/>
       <c r="W94" s="46"/>
-      <c r="X94" s="44"/>
+      <c r="X94" s="45"/>
       <c r="Y94" s="46"/>
-      <c r="Z94" s="44"/>
+      <c r="Z94" s="45"/>
       <c r="AA94" s="46"/>
-      <c r="AB94" s="47"/>
-      <c r="AC94" s="47"/>
-      <c r="AD94" s="44"/>
+      <c r="AB94" s="49"/>
+      <c r="AC94" s="49"/>
+      <c r="AD94" s="45"/>
       <c r="AE94" s="46"/>
-      <c r="AF94" s="44"/>
+      <c r="AF94" s="45"/>
       <c r="AG94" s="46"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="7"/>
       <c r="AM94" s="6"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
-      <c r="AP94" s="44" t="s">
+      <c r="AP94" s="45" t="s">
         <v>145</v>
       </c>
       <c r="AQ94" s="46"/>
       <c r="AR94" s="1"/>
-      <c r="AS94" s="44" t="s">
+      <c r="AS94" s="45" t="s">
         <v>37</v>
       </c>
       <c r="AT94" s="46"/>
@@ -6260,18 +6264,18 @@
         <v>120</v>
       </c>
       <c r="Q102" s="6"/>
-      <c r="R102" s="43" t="s">
+      <c r="R102" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="S102" s="43"/>
-      <c r="T102" s="43"/>
-      <c r="U102" s="44" t="s">
+      <c r="S102" s="50"/>
+      <c r="T102" s="50"/>
+      <c r="U102" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="V102" s="45"/>
-      <c r="W102" s="45"/>
-      <c r="X102" s="45"/>
-      <c r="Y102" s="45"/>
+      <c r="V102" s="47"/>
+      <c r="W102" s="47"/>
+      <c r="X102" s="47"/>
+      <c r="Y102" s="47"/>
       <c r="Z102" s="26" t="s">
         <v>54</v>
       </c>
@@ -6280,39 +6284,39 @@
         <v>85</v>
       </c>
       <c r="AC102" s="28"/>
-      <c r="AD102" s="44" t="s">
+      <c r="AD102" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="AE102" s="45"/>
-      <c r="AF102" s="45"/>
-      <c r="AG102" s="45"/>
-      <c r="AH102" s="45"/>
+      <c r="AE102" s="47"/>
+      <c r="AF102" s="47"/>
+      <c r="AG102" s="47"/>
+      <c r="AH102" s="47"/>
       <c r="AI102" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AK102" s="43" t="s">
+      <c r="AK102" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="AL102" s="55"/>
-      <c r="AM102" s="44" t="s">
+      <c r="AL102" s="56"/>
+      <c r="AM102" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="AN102" s="45"/>
-      <c r="AO102" s="45"/>
-      <c r="AP102" s="45"/>
-      <c r="AQ102" s="45"/>
+      <c r="AN102" s="47"/>
+      <c r="AO102" s="47"/>
+      <c r="AP102" s="47"/>
+      <c r="AQ102" s="47"/>
       <c r="AR102" s="26" t="s">
         <v>54</v>
       </c>
       <c r="AS102" s="1"/>
-      <c r="AT102" s="43" t="s">
+      <c r="AT102" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AU102" s="43"/>
-      <c r="AV102" s="44"/>
-      <c r="AW102" s="45"/>
+      <c r="AU102" s="50"/>
+      <c r="AV102" s="45"/>
+      <c r="AW102" s="47"/>
       <c r="AX102" s="46"/>
-      <c r="AZ102" s="44" t="s">
+      <c r="AZ102" s="45" t="s">
         <v>116</v>
       </c>
       <c r="BA102" s="46"/>
@@ -6440,17 +6444,17 @@
         <v>147</v>
       </c>
       <c r="Q104" s="6"/>
-      <c r="R104" s="44" t="s">
+      <c r="R104" s="45" t="s">
         <v>95</v>
       </c>
       <c r="S104" s="46"/>
       <c r="T104" s="1"/>
-      <c r="U104" s="44" t="s">
+      <c r="U104" s="45" t="s">
         <v>96</v>
       </c>
       <c r="V104" s="46"/>
       <c r="W104" s="1"/>
-      <c r="X104" s="44" t="s">
+      <c r="X104" s="45" t="s">
         <v>97</v>
       </c>
       <c r="Y104" s="46"/>
@@ -6615,48 +6619,48 @@
       <c r="R106" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S106" s="44" t="s">
+      <c r="S106" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="T106" s="45"/>
-      <c r="U106" s="45"/>
+      <c r="T106" s="47"/>
+      <c r="U106" s="47"/>
       <c r="V106" s="46"/>
-      <c r="W106" s="44" t="s">
+      <c r="W106" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="X106" s="45"/>
+      <c r="X106" s="47"/>
       <c r="Y106" s="46"/>
-      <c r="Z106" s="44" t="s">
+      <c r="Z106" s="45" t="s">
         <v>84</v>
       </c>
       <c r="AA106" s="46"/>
-      <c r="AB106" s="44" t="s">
+      <c r="AB106" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="AC106" s="45"/>
+      <c r="AC106" s="47"/>
       <c r="AD106" s="46"/>
-      <c r="AE106" s="44" t="s">
+      <c r="AE106" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="AF106" s="45"/>
+      <c r="AF106" s="47"/>
       <c r="AG106" s="46"/>
-      <c r="AH106" s="44" t="s">
+      <c r="AH106" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="AI106" s="45"/>
+      <c r="AI106" s="47"/>
       <c r="AJ106" s="46"/>
-      <c r="AK106" s="44" t="s">
+      <c r="AK106" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="AL106" s="45"/>
+      <c r="AL106" s="47"/>
       <c r="AM106" s="46"/>
-      <c r="AN106" s="44" t="s">
+      <c r="AN106" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="AO106" s="45"/>
-      <c r="AP106" s="45"/>
-      <c r="AQ106" s="45"/>
-      <c r="AR106" s="45"/>
+      <c r="AO106" s="47"/>
+      <c r="AP106" s="47"/>
+      <c r="AQ106" s="47"/>
+      <c r="AR106" s="47"/>
       <c r="AS106" s="46"/>
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
@@ -6765,13 +6769,13 @@
       </c>
       <c r="BK107" s="1"/>
       <c r="BL107" s="1"/>
-      <c r="BM107" s="44" t="s">
+      <c r="BM107" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="BN107" s="45"/>
-      <c r="BO107" s="45"/>
-      <c r="BP107" s="45"/>
-      <c r="BQ107" s="45"/>
+      <c r="BN107" s="47"/>
+      <c r="BO107" s="47"/>
+      <c r="BP107" s="47"/>
+      <c r="BQ107" s="47"/>
       <c r="BR107" s="32" t="s">
         <v>54</v>
       </c>
@@ -6869,11 +6873,11 @@
       <c r="BU108" s="1"/>
       <c r="BV108" s="7"/>
       <c r="BX108" s="6"/>
-      <c r="BY108" s="43" t="s">
+      <c r="BY108" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="BZ108" s="43"/>
-      <c r="CA108" s="43"/>
+      <c r="BZ108" s="50"/>
+      <c r="CA108" s="50"/>
       <c r="CB108" s="51" t="s">
         <v>86</v>
       </c>
@@ -7033,10 +7037,10 @@
       <c r="BU110" s="1"/>
       <c r="BV110" s="7"/>
       <c r="BX110" s="6"/>
-      <c r="BY110" s="43" t="s">
+      <c r="BY110" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="BZ110" s="55"/>
+      <c r="BZ110" s="56"/>
       <c r="CA110" s="51" t="s">
         <v>86</v>
       </c>
@@ -7202,10 +7206,10 @@
       <c r="BU112" s="1"/>
       <c r="BV112" s="7"/>
       <c r="BX112" s="6"/>
-      <c r="BY112" s="43" t="s">
+      <c r="BY112" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="BZ112" s="55"/>
+      <c r="BZ112" s="56"/>
       <c r="CA112" s="51" t="s">
         <v>55</v>
       </c>
@@ -7464,7 +7468,7 @@
       <c r="BM115" s="8"/>
       <c r="BN115" s="2"/>
       <c r="BO115" s="9"/>
-      <c r="BP115" s="44" t="s">
+      <c r="BP115" s="45" t="s">
         <v>103</v>
       </c>
       <c r="BQ115" s="46"/>
@@ -7545,12 +7549,12 @@
       <c r="BV116" s="7"/>
       <c r="BX116" s="6"/>
       <c r="BY116" s="1"/>
-      <c r="BZ116" s="44" t="s">
+      <c r="BZ116" s="45" t="s">
         <v>13</v>
       </c>
       <c r="CA116" s="46"/>
       <c r="CB116" s="1"/>
-      <c r="CC116" s="44" t="s">
+      <c r="CC116" s="45" t="s">
         <v>37</v>
       </c>
       <c r="CD116" s="46"/>
@@ -7609,11 +7613,11 @@
       <c r="BB117" s="1"/>
       <c r="BC117" s="7"/>
       <c r="BE117" s="6"/>
-      <c r="BH117" s="44" t="s">
+      <c r="BH117" s="45" t="s">
         <v>13</v>
       </c>
       <c r="BI117" s="46"/>
-      <c r="BK117" s="44" t="s">
+      <c r="BK117" s="45" t="s">
         <v>37</v>
       </c>
       <c r="BL117" s="46"/>
@@ -7647,7 +7651,7 @@
       <c r="F118" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="K118" s="60" t="s">
+      <c r="K118" s="43" t="s">
         <v>283</v>
       </c>
       <c r="Q118" s="8"/>
@@ -7729,7 +7733,7 @@
       <c r="F119" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="K119" s="61" t="s">
+      <c r="K119" s="44" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7737,7 +7741,7 @@
       <c r="F120" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="K120" s="61" t="s">
+      <c r="K120" s="44" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7745,7 +7749,7 @@
       <c r="F121" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="K121" s="61" t="s">
+      <c r="K121" s="44" t="s">
         <v>244</v>
       </c>
     </row>
@@ -7831,19 +7835,19 @@
         <v>164</v>
       </c>
       <c r="S126" s="1"/>
-      <c r="T126" s="47"/>
-      <c r="U126" s="47"/>
-      <c r="V126" s="47"/>
+      <c r="T126" s="49"/>
+      <c r="U126" s="49"/>
+      <c r="V126" s="49"/>
       <c r="W126" s="1"/>
       <c r="X126" s="1" t="s">
         <v>166</v>
       </c>
       <c r="Y126" s="1"/>
-      <c r="Z126" s="47"/>
-      <c r="AA126" s="47"/>
-      <c r="AB126" s="47"/>
+      <c r="Z126" s="49"/>
+      <c r="AA126" s="49"/>
+      <c r="AB126" s="49"/>
       <c r="AC126" s="1"/>
-      <c r="AD126" s="44" t="s">
+      <c r="AD126" s="45" t="s">
         <v>116</v>
       </c>
       <c r="AE126" s="46"/>
@@ -7919,20 +7923,20 @@
         <v>222</v>
       </c>
       <c r="Q128" s="6"/>
-      <c r="R128" s="47" t="s">
+      <c r="R128" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="S128" s="47"/>
+      <c r="S128" s="49"/>
       <c r="T128" s="1"/>
-      <c r="U128" s="47" t="s">
+      <c r="U128" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="V128" s="47"/>
+      <c r="V128" s="49"/>
       <c r="W128" s="1"/>
-      <c r="X128" s="47" t="s">
+      <c r="X128" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="Y128" s="47"/>
+      <c r="Y128" s="49"/>
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
@@ -8053,10 +8057,10 @@
         <v>205</v>
       </c>
       <c r="AN129" s="1"/>
-      <c r="AO129" s="47"/>
-      <c r="AP129" s="47"/>
-      <c r="AQ129" s="47"/>
-      <c r="AR129" s="47"/>
+      <c r="AO129" s="49"/>
+      <c r="AP129" s="49"/>
+      <c r="AQ129" s="49"/>
+      <c r="AR129" s="49"/>
       <c r="AS129" s="26" t="s">
         <v>54</v>
       </c>
@@ -8151,31 +8155,31 @@
       <c r="R130" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="S130" s="44" t="s">
+      <c r="S130" s="45" t="s">
         <v>203</v>
       </c>
       <c r="T130" s="46"/>
-      <c r="U130" s="44" t="s">
+      <c r="U130" s="45" t="s">
         <v>219</v>
       </c>
       <c r="V130" s="46"/>
-      <c r="W130" s="44" t="s">
+      <c r="W130" s="45" t="s">
         <v>166</v>
       </c>
       <c r="X130" s="46"/>
-      <c r="Y130" s="44" t="s">
+      <c r="Y130" s="45" t="s">
         <v>174</v>
       </c>
       <c r="Z130" s="46"/>
-      <c r="AA130" s="44" t="s">
+      <c r="AA130" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="AB130" s="45"/>
-      <c r="AC130" s="45"/>
-      <c r="AD130" s="45"/>
-      <c r="AE130" s="45"/>
-      <c r="AF130" s="45"/>
-      <c r="AG130" s="45"/>
+      <c r="AB130" s="47"/>
+      <c r="AC130" s="47"/>
+      <c r="AD130" s="47"/>
+      <c r="AE130" s="47"/>
+      <c r="AF130" s="47"/>
+      <c r="AG130" s="47"/>
       <c r="AH130" s="46"/>
       <c r="AI130" s="7"/>
       <c r="AL130" s="6"/>
@@ -8259,34 +8263,34 @@
     <row r="131" spans="4:119" ht="18" customHeight="1">
       <c r="Q131" s="6"/>
       <c r="R131" s="15"/>
-      <c r="S131" s="44"/>
+      <c r="S131" s="45"/>
       <c r="T131" s="46"/>
-      <c r="U131" s="44"/>
+      <c r="U131" s="45"/>
       <c r="V131" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="W131" s="44"/>
+      <c r="W131" s="45"/>
       <c r="X131" s="46"/>
-      <c r="Y131" s="44"/>
+      <c r="Y131" s="45"/>
       <c r="Z131" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AA131" s="47" t="s">
+      <c r="AA131" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="AB131" s="47"/>
-      <c r="AC131" s="47" t="s">
+      <c r="AB131" s="49"/>
+      <c r="AC131" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="AD131" s="47"/>
-      <c r="AE131" s="47" t="s">
+      <c r="AD131" s="49"/>
+      <c r="AE131" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="AF131" s="47"/>
-      <c r="AG131" s="47" t="s">
+      <c r="AF131" s="49"/>
+      <c r="AG131" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="AH131" s="47"/>
+      <c r="AH131" s="49"/>
       <c r="AI131" s="7"/>
       <c r="AL131" s="6"/>
       <c r="AM131" s="1" t="s">
@@ -8300,21 +8304,21 @@
       <c r="AS131" s="13"/>
       <c r="AU131" s="7"/>
       <c r="AX131" s="6"/>
-      <c r="AY131" s="47" t="s">
+      <c r="AY131" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="AZ131" s="47"/>
-      <c r="BA131" s="47" t="s">
+      <c r="AZ131" s="49"/>
+      <c r="BA131" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="BB131" s="47"/>
-      <c r="BC131" s="47"/>
-      <c r="BD131" s="47" t="s">
+      <c r="BB131" s="49"/>
+      <c r="BC131" s="49"/>
+      <c r="BD131" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="BE131" s="47"/>
-      <c r="BF131" s="47"/>
-      <c r="BG131" s="44" t="s">
+      <c r="BE131" s="49"/>
+      <c r="BF131" s="49"/>
+      <c r="BG131" s="45" t="s">
         <v>197</v>
       </c>
       <c r="BH131" s="46"/>
@@ -8323,15 +8327,15 @@
       <c r="BK131" s="7"/>
       <c r="BM131" s="6"/>
       <c r="BN131" s="1"/>
-      <c r="BO131" s="44" t="s">
+      <c r="BO131" s="45" t="s">
         <v>179</v>
       </c>
       <c r="BP131" s="46"/>
-      <c r="BQ131" s="44" t="s">
+      <c r="BQ131" s="45" t="s">
         <v>187</v>
       </c>
       <c r="BR131" s="46"/>
-      <c r="BS131" s="44" t="s">
+      <c r="BS131" s="45" t="s">
         <v>188</v>
       </c>
       <c r="BT131" s="46"/>
@@ -8357,9 +8361,9 @@
       <c r="CP131" s="9"/>
       <c r="CQ131" s="8"/>
       <c r="CR131" s="9"/>
-      <c r="CS131" s="44"/>
+      <c r="CS131" s="45"/>
       <c r="CT131" s="46"/>
-      <c r="CU131" s="44" t="s">
+      <c r="CU131" s="45" t="s">
         <v>102</v>
       </c>
       <c r="CV131" s="46"/>
@@ -8388,24 +8392,24 @@
       </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="15"/>
-      <c r="S132" s="44"/>
+      <c r="S132" s="45"/>
       <c r="T132" s="46"/>
-      <c r="U132" s="44"/>
+      <c r="U132" s="45"/>
       <c r="V132" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="W132" s="44"/>
+      <c r="W132" s="45"/>
       <c r="X132" s="46"/>
-      <c r="Y132" s="44"/>
+      <c r="Y132" s="45"/>
       <c r="Z132" s="46"/>
-      <c r="AA132" s="47"/>
-      <c r="AB132" s="47"/>
-      <c r="AC132" s="47"/>
-      <c r="AD132" s="47"/>
-      <c r="AE132" s="47"/>
-      <c r="AF132" s="47"/>
-      <c r="AG132" s="47"/>
-      <c r="AH132" s="47"/>
+      <c r="AA132" s="49"/>
+      <c r="AB132" s="49"/>
+      <c r="AC132" s="49"/>
+      <c r="AD132" s="49"/>
+      <c r="AE132" s="49"/>
+      <c r="AF132" s="49"/>
+      <c r="AG132" s="49"/>
+      <c r="AH132" s="49"/>
       <c r="AI132" s="7"/>
       <c r="AL132" s="6"/>
       <c r="AM132" s="1"/>
@@ -8418,21 +8422,21 @@
       <c r="AT132" s="1"/>
       <c r="AU132" s="7"/>
       <c r="AX132" s="6"/>
-      <c r="AY132" s="47">
+      <c r="AY132" s="49">
         <v>1</v>
       </c>
-      <c r="AZ132" s="47"/>
-      <c r="BA132" s="54" t="s">
+      <c r="AZ132" s="49"/>
+      <c r="BA132" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="BB132" s="54"/>
-      <c r="BC132" s="54"/>
-      <c r="BD132" s="47" t="s">
+      <c r="BB132" s="58"/>
+      <c r="BC132" s="58"/>
+      <c r="BD132" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="BE132" s="47"/>
-      <c r="BF132" s="47"/>
-      <c r="BG132" s="44" t="s">
+      <c r="BE132" s="49"/>
+      <c r="BF132" s="49"/>
+      <c r="BG132" s="45" t="s">
         <v>198</v>
       </c>
       <c r="BH132" s="46"/>
@@ -8442,11 +8446,11 @@
       <c r="BK132" s="7"/>
       <c r="BM132" s="6"/>
       <c r="BN132" s="1"/>
-      <c r="BO132" s="44"/>
+      <c r="BO132" s="45"/>
       <c r="BP132" s="46"/>
-      <c r="BQ132" s="44"/>
+      <c r="BQ132" s="45"/>
       <c r="BR132" s="46"/>
-      <c r="BS132" s="44"/>
+      <c r="BS132" s="45"/>
       <c r="BT132" s="46"/>
       <c r="BU132" s="1"/>
       <c r="BV132" s="1"/>
@@ -8471,9 +8475,9 @@
       <c r="CP132" s="9"/>
       <c r="CQ132" s="8"/>
       <c r="CR132" s="9"/>
-      <c r="CS132" s="44"/>
+      <c r="CS132" s="45"/>
       <c r="CT132" s="46"/>
-      <c r="CU132" s="44" t="s">
+      <c r="CU132" s="45" t="s">
         <v>103</v>
       </c>
       <c r="CV132" s="46"/>
@@ -8500,22 +8504,22 @@
       </c>
       <c r="Q133" s="6"/>
       <c r="R133" s="15"/>
-      <c r="S133" s="44"/>
+      <c r="S133" s="45"/>
       <c r="T133" s="46"/>
-      <c r="U133" s="44"/>
+      <c r="U133" s="45"/>
       <c r="V133" s="46"/>
-      <c r="W133" s="44"/>
+      <c r="W133" s="45"/>
       <c r="X133" s="46"/>
-      <c r="Y133" s="44"/>
+      <c r="Y133" s="45"/>
       <c r="Z133" s="46"/>
-      <c r="AA133" s="47"/>
-      <c r="AB133" s="47"/>
-      <c r="AC133" s="47"/>
-      <c r="AD133" s="47"/>
-      <c r="AE133" s="47"/>
-      <c r="AF133" s="47"/>
-      <c r="AG133" s="47"/>
-      <c r="AH133" s="47"/>
+      <c r="AA133" s="49"/>
+      <c r="AB133" s="49"/>
+      <c r="AC133" s="49"/>
+      <c r="AD133" s="49"/>
+      <c r="AE133" s="49"/>
+      <c r="AF133" s="49"/>
+      <c r="AG133" s="49"/>
+      <c r="AH133" s="49"/>
       <c r="AI133" s="7"/>
       <c r="AL133" s="6"/>
       <c r="AM133" s="1" t="s">
@@ -8529,19 +8533,19 @@
       <c r="AS133" s="5"/>
       <c r="AU133" s="7"/>
       <c r="AX133" s="6"/>
-      <c r="AY133" s="47">
+      <c r="AY133" s="49">
         <v>2</v>
       </c>
-      <c r="AZ133" s="47"/>
-      <c r="BA133" s="47" t="s">
+      <c r="AZ133" s="49"/>
+      <c r="BA133" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="BB133" s="47"/>
-      <c r="BC133" s="47"/>
-      <c r="BD133" s="47"/>
-      <c r="BE133" s="47"/>
-      <c r="BF133" s="47"/>
-      <c r="BG133" s="44"/>
+      <c r="BB133" s="49"/>
+      <c r="BC133" s="49"/>
+      <c r="BD133" s="49"/>
+      <c r="BE133" s="49"/>
+      <c r="BF133" s="49"/>
+      <c r="BG133" s="45"/>
       <c r="BH133" s="46"/>
       <c r="BI133" s="23" t="s">
         <v>207</v>
@@ -8549,11 +8553,11 @@
       <c r="BK133" s="7"/>
       <c r="BM133" s="6"/>
       <c r="BN133" s="1"/>
-      <c r="BO133" s="44"/>
+      <c r="BO133" s="45"/>
       <c r="BP133" s="46"/>
-      <c r="BQ133" s="44"/>
+      <c r="BQ133" s="45"/>
       <c r="BR133" s="46"/>
-      <c r="BS133" s="44"/>
+      <c r="BS133" s="45"/>
       <c r="BT133" s="46"/>
       <c r="BU133" s="1"/>
       <c r="BV133" s="1" t="s">
@@ -8607,22 +8611,22 @@
       </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="15"/>
-      <c r="S134" s="44"/>
+      <c r="S134" s="45"/>
       <c r="T134" s="46"/>
-      <c r="U134" s="44"/>
+      <c r="U134" s="45"/>
       <c r="V134" s="46"/>
-      <c r="W134" s="44"/>
+      <c r="W134" s="45"/>
       <c r="X134" s="46"/>
-      <c r="Y134" s="44"/>
+      <c r="Y134" s="45"/>
       <c r="Z134" s="46"/>
-      <c r="AA134" s="47"/>
-      <c r="AB134" s="47"/>
-      <c r="AC134" s="47"/>
-      <c r="AD134" s="47"/>
-      <c r="AE134" s="47"/>
-      <c r="AF134" s="47"/>
-      <c r="AG134" s="47"/>
-      <c r="AH134" s="47"/>
+      <c r="AA134" s="49"/>
+      <c r="AB134" s="49"/>
+      <c r="AC134" s="49"/>
+      <c r="AD134" s="49"/>
+      <c r="AE134" s="49"/>
+      <c r="AF134" s="49"/>
+      <c r="AG134" s="49"/>
+      <c r="AH134" s="49"/>
       <c r="AI134" s="7"/>
       <c r="AL134" s="6"/>
       <c r="AM134" s="1"/>
@@ -8634,28 +8638,28 @@
       <c r="AS134" s="7"/>
       <c r="AU134" s="7"/>
       <c r="AX134" s="6"/>
-      <c r="AY134" s="47">
+      <c r="AY134" s="49">
         <v>3</v>
       </c>
-      <c r="AZ134" s="47"/>
-      <c r="BA134" s="47"/>
-      <c r="BB134" s="47"/>
-      <c r="BC134" s="47"/>
-      <c r="BD134" s="47"/>
-      <c r="BE134" s="47"/>
-      <c r="BF134" s="47"/>
-      <c r="BG134" s="44"/>
+      <c r="AZ134" s="49"/>
+      <c r="BA134" s="49"/>
+      <c r="BB134" s="49"/>
+      <c r="BC134" s="49"/>
+      <c r="BD134" s="49"/>
+      <c r="BE134" s="49"/>
+      <c r="BF134" s="49"/>
+      <c r="BG134" s="45"/>
       <c r="BH134" s="46"/>
       <c r="BI134" s="1"/>
       <c r="BJ134" s="1"/>
       <c r="BK134" s="7"/>
       <c r="BM134" s="6"/>
       <c r="BN134" s="1"/>
-      <c r="BO134" s="44"/>
+      <c r="BO134" s="45"/>
       <c r="BP134" s="46"/>
-      <c r="BQ134" s="44"/>
+      <c r="BQ134" s="45"/>
       <c r="BR134" s="46"/>
-      <c r="BS134" s="44"/>
+      <c r="BS134" s="45"/>
       <c r="BT134" s="46"/>
       <c r="BU134" s="1"/>
       <c r="BV134" s="1" t="s">
@@ -8679,12 +8683,12 @@
       <c r="CK134" s="1"/>
       <c r="CL134" s="1"/>
       <c r="CM134" s="6"/>
-      <c r="CN134" s="44" t="s">
+      <c r="CN134" s="45" t="s">
         <v>13</v>
       </c>
       <c r="CO134" s="46"/>
       <c r="CP134" s="1"/>
-      <c r="CQ134" s="44" t="s">
+      <c r="CQ134" s="45" t="s">
         <v>37</v>
       </c>
       <c r="CR134" s="46"/>
@@ -8717,22 +8721,22 @@
       </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="15"/>
-      <c r="S135" s="44"/>
+      <c r="S135" s="45"/>
       <c r="T135" s="46"/>
-      <c r="U135" s="44"/>
+      <c r="U135" s="45"/>
       <c r="V135" s="46"/>
-      <c r="W135" s="44"/>
+      <c r="W135" s="45"/>
       <c r="X135" s="46"/>
-      <c r="Y135" s="44"/>
+      <c r="Y135" s="45"/>
       <c r="Z135" s="46"/>
-      <c r="AA135" s="47"/>
-      <c r="AB135" s="47"/>
-      <c r="AC135" s="47"/>
-      <c r="AD135" s="47"/>
-      <c r="AE135" s="47"/>
-      <c r="AF135" s="47"/>
-      <c r="AG135" s="47"/>
-      <c r="AH135" s="47"/>
+      <c r="AA135" s="49"/>
+      <c r="AB135" s="49"/>
+      <c r="AC135" s="49"/>
+      <c r="AD135" s="49"/>
+      <c r="AE135" s="49"/>
+      <c r="AF135" s="49"/>
+      <c r="AG135" s="49"/>
+      <c r="AH135" s="49"/>
       <c r="AI135" s="7"/>
       <c r="AL135" s="6"/>
       <c r="AM135" s="1"/>
@@ -8819,22 +8823,22 @@
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="15"/>
-      <c r="S136" s="44"/>
+      <c r="S136" s="45"/>
       <c r="T136" s="46"/>
-      <c r="U136" s="44"/>
+      <c r="U136" s="45"/>
       <c r="V136" s="46"/>
-      <c r="W136" s="44"/>
+      <c r="W136" s="45"/>
       <c r="X136" s="46"/>
-      <c r="Y136" s="44"/>
+      <c r="Y136" s="45"/>
       <c r="Z136" s="46"/>
-      <c r="AA136" s="47"/>
-      <c r="AB136" s="47"/>
-      <c r="AC136" s="47"/>
-      <c r="AD136" s="47"/>
-      <c r="AE136" s="47"/>
-      <c r="AF136" s="47"/>
-      <c r="AG136" s="47"/>
-      <c r="AH136" s="47"/>
+      <c r="AA136" s="49"/>
+      <c r="AB136" s="49"/>
+      <c r="AC136" s="49"/>
+      <c r="AD136" s="49"/>
+      <c r="AE136" s="49"/>
+      <c r="AF136" s="49"/>
+      <c r="AG136" s="49"/>
+      <c r="AH136" s="49"/>
       <c r="AI136" s="7"/>
       <c r="AL136" s="6"/>
       <c r="AM136" s="1"/>
@@ -8849,12 +8853,12 @@
       <c r="AX136" s="6"/>
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
-      <c r="BA136" s="44" t="s">
+      <c r="BA136" s="45" t="s">
         <v>13</v>
       </c>
       <c r="BB136" s="46"/>
       <c r="BC136" s="1"/>
-      <c r="BD136" s="44" t="s">
+      <c r="BD136" s="45" t="s">
         <v>37</v>
       </c>
       <c r="BE136" s="46"/>
@@ -8867,7 +8871,7 @@
       <c r="BM136" s="6"/>
       <c r="BN136" s="1"/>
       <c r="BO136" s="1"/>
-      <c r="BP136" s="44" t="s">
+      <c r="BP136" s="45" t="s">
         <v>189</v>
       </c>
       <c r="BQ136" s="46"/>
@@ -8905,21 +8909,21 @@
       <c r="CX136" s="2"/>
       <c r="CY136" s="9"/>
       <c r="DC136" s="6"/>
-      <c r="DD136" s="47" t="s">
+      <c r="DD136" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="DE136" s="47"/>
-      <c r="DF136" s="47" t="s">
+      <c r="DE136" s="49"/>
+      <c r="DF136" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="DG136" s="47"/>
-      <c r="DH136" s="47"/>
-      <c r="DI136" s="47" t="s">
+      <c r="DG136" s="49"/>
+      <c r="DH136" s="49"/>
+      <c r="DI136" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="DJ136" s="47"/>
-      <c r="DK136" s="47"/>
-      <c r="DL136" s="44" t="s">
+      <c r="DJ136" s="49"/>
+      <c r="DK136" s="49"/>
+      <c r="DL136" s="45" t="s">
         <v>197</v>
       </c>
       <c r="DM136" s="46"/>
@@ -8932,31 +8936,31 @@
       </c>
       <c r="Q137" s="6"/>
       <c r="R137" s="15"/>
-      <c r="S137" s="44"/>
+      <c r="S137" s="45"/>
       <c r="T137" s="46"/>
-      <c r="U137" s="44"/>
+      <c r="U137" s="45"/>
       <c r="V137" s="46"/>
-      <c r="W137" s="44"/>
+      <c r="W137" s="45"/>
       <c r="X137" s="46"/>
-      <c r="Y137" s="44"/>
+      <c r="Y137" s="45"/>
       <c r="Z137" s="46"/>
-      <c r="AA137" s="47"/>
-      <c r="AB137" s="47"/>
-      <c r="AC137" s="47"/>
-      <c r="AD137" s="47"/>
-      <c r="AE137" s="47"/>
-      <c r="AF137" s="47"/>
-      <c r="AG137" s="47"/>
-      <c r="AH137" s="47"/>
+      <c r="AA137" s="49"/>
+      <c r="AB137" s="49"/>
+      <c r="AC137" s="49"/>
+      <c r="AD137" s="49"/>
+      <c r="AE137" s="49"/>
+      <c r="AF137" s="49"/>
+      <c r="AG137" s="49"/>
+      <c r="AH137" s="49"/>
       <c r="AI137" s="7"/>
       <c r="AL137" s="6"/>
       <c r="AM137" s="1"/>
-      <c r="AN137" s="44" t="s">
+      <c r="AN137" s="45" t="s">
         <v>13</v>
       </c>
       <c r="AO137" s="46"/>
       <c r="AP137" s="1"/>
-      <c r="AQ137" s="44" t="s">
+      <c r="AQ137" s="45" t="s">
         <v>37</v>
       </c>
       <c r="AR137" s="46"/>
@@ -9004,21 +9008,21 @@
       <c r="CL137" s="1"/>
       <c r="CM137" s="1"/>
       <c r="DC137" s="6"/>
-      <c r="DD137" s="47">
+      <c r="DD137" s="49">
         <v>1</v>
       </c>
-      <c r="DE137" s="47"/>
-      <c r="DF137" s="47" t="s">
+      <c r="DE137" s="49"/>
+      <c r="DF137" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="DG137" s="47"/>
-      <c r="DH137" s="47"/>
-      <c r="DI137" s="47" t="s">
+      <c r="DG137" s="49"/>
+      <c r="DH137" s="49"/>
+      <c r="DI137" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="DJ137" s="47"/>
-      <c r="DK137" s="47"/>
-      <c r="DL137" s="44" t="s">
+      <c r="DJ137" s="49"/>
+      <c r="DK137" s="49"/>
+      <c r="DL137" s="45" t="s">
         <v>184</v>
       </c>
       <c r="DM137" s="46"/>
@@ -9034,22 +9038,22 @@
       </c>
       <c r="Q138" s="6"/>
       <c r="R138" s="15"/>
-      <c r="S138" s="44"/>
+      <c r="S138" s="45"/>
       <c r="T138" s="46"/>
-      <c r="U138" s="44"/>
+      <c r="U138" s="45"/>
       <c r="V138" s="46"/>
-      <c r="W138" s="44"/>
+      <c r="W138" s="45"/>
       <c r="X138" s="46"/>
-      <c r="Y138" s="44"/>
+      <c r="Y138" s="45"/>
       <c r="Z138" s="46"/>
-      <c r="AA138" s="47"/>
-      <c r="AB138" s="47"/>
-      <c r="AC138" s="47"/>
-      <c r="AD138" s="47"/>
-      <c r="AE138" s="47"/>
-      <c r="AF138" s="47"/>
-      <c r="AG138" s="47"/>
-      <c r="AH138" s="47"/>
+      <c r="AA138" s="49"/>
+      <c r="AB138" s="49"/>
+      <c r="AC138" s="49"/>
+      <c r="AD138" s="49"/>
+      <c r="AE138" s="49"/>
+      <c r="AF138" s="49"/>
+      <c r="AG138" s="49"/>
+      <c r="AH138" s="49"/>
       <c r="AI138" s="7"/>
       <c r="AL138" s="8"/>
       <c r="AM138" s="2"/>
@@ -9097,19 +9101,19 @@
       <c r="CL138" s="1"/>
       <c r="CM138" s="1"/>
       <c r="DC138" s="6"/>
-      <c r="DD138" s="47">
+      <c r="DD138" s="49">
         <v>2</v>
       </c>
-      <c r="DE138" s="47"/>
-      <c r="DF138" s="47" t="s">
+      <c r="DE138" s="49"/>
+      <c r="DF138" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="DG138" s="47"/>
-      <c r="DH138" s="47"/>
-      <c r="DI138" s="47"/>
-      <c r="DJ138" s="47"/>
-      <c r="DK138" s="47"/>
-      <c r="DL138" s="44"/>
+      <c r="DG138" s="49"/>
+      <c r="DH138" s="49"/>
+      <c r="DI138" s="49"/>
+      <c r="DJ138" s="49"/>
+      <c r="DK138" s="49"/>
+      <c r="DL138" s="45"/>
       <c r="DM138" s="46"/>
       <c r="DN138" s="1"/>
       <c r="DO138" s="7"/>
@@ -9167,12 +9171,12 @@
       <c r="BZ139" s="2"/>
       <c r="CA139" s="9"/>
       <c r="CC139" s="6"/>
-      <c r="CD139" s="44" t="s">
+      <c r="CD139" s="45" t="s">
         <v>13</v>
       </c>
       <c r="CE139" s="46"/>
       <c r="CF139" s="1"/>
-      <c r="CG139" s="44" t="s">
+      <c r="CG139" s="45" t="s">
         <v>37</v>
       </c>
       <c r="CH139" s="46"/>
@@ -9182,17 +9186,17 @@
       <c r="CL139" s="1"/>
       <c r="CM139" s="1"/>
       <c r="DC139" s="6"/>
-      <c r="DD139" s="47">
+      <c r="DD139" s="49">
         <v>3</v>
       </c>
-      <c r="DE139" s="47"/>
-      <c r="DF139" s="47"/>
-      <c r="DG139" s="47"/>
-      <c r="DH139" s="47"/>
-      <c r="DI139" s="47"/>
-      <c r="DJ139" s="47"/>
-      <c r="DK139" s="47"/>
-      <c r="DL139" s="44"/>
+      <c r="DE139" s="49"/>
+      <c r="DF139" s="49"/>
+      <c r="DG139" s="49"/>
+      <c r="DH139" s="49"/>
+      <c r="DI139" s="49"/>
+      <c r="DJ139" s="49"/>
+      <c r="DK139" s="49"/>
+      <c r="DL139" s="45"/>
       <c r="DM139" s="46"/>
       <c r="DN139" s="1"/>
       <c r="DO139" s="7"/>
@@ -9247,7 +9251,9 @@
     </row>
     <row r="141" spans="4:119" ht="18" customHeight="1">
       <c r="CC141" s="8"/>
-      <c r="CD141" s="2"/>
+      <c r="CD141" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="CE141" s="2"/>
       <c r="CF141" s="2"/>
       <c r="CG141" s="2"/>
@@ -9264,7 +9270,7 @@
       <c r="DG141" s="1"/>
       <c r="DH141" s="1"/>
       <c r="DI141" s="1"/>
-      <c r="DJ141" s="44" t="s">
+      <c r="DJ141" s="45" t="s">
         <v>50</v>
       </c>
       <c r="DK141" s="46"/>
@@ -9421,10 +9427,10 @@
       <c r="R149" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="S149" s="47"/>
-      <c r="T149" s="47"/>
-      <c r="U149" s="47"/>
-      <c r="V149" s="47"/>
+      <c r="S149" s="49"/>
+      <c r="T149" s="49"/>
+      <c r="U149" s="49"/>
+      <c r="V149" s="49"/>
       <c r="W149" s="26" t="s">
         <v>54</v>
       </c>
@@ -9432,10 +9438,10 @@
       <c r="Y149" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="Z149" s="47"/>
-      <c r="AA149" s="47"/>
-      <c r="AB149" s="47"/>
-      <c r="AC149" s="47"/>
+      <c r="Z149" s="49"/>
+      <c r="AA149" s="49"/>
+      <c r="AB149" s="49"/>
+      <c r="AC149" s="49"/>
       <c r="AD149" s="26" t="s">
         <v>54</v>
       </c>
@@ -9572,10 +9578,10 @@
         <v>203</v>
       </c>
       <c r="AK152" s="1"/>
-      <c r="AL152" s="47"/>
-      <c r="AM152" s="47"/>
-      <c r="AN152" s="47"/>
-      <c r="AO152" s="47"/>
+      <c r="AL152" s="49"/>
+      <c r="AM152" s="49"/>
+      <c r="AN152" s="49"/>
+      <c r="AO152" s="49"/>
       <c r="AP152" s="26" t="s">
         <v>54</v>
       </c>
@@ -9594,27 +9600,27 @@
       <c r="R153" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="S153" s="44" t="s">
+      <c r="S153" s="45" t="s">
         <v>208</v>
       </c>
       <c r="T153" s="46"/>
-      <c r="U153" s="44" t="s">
+      <c r="U153" s="45" t="s">
         <v>203</v>
       </c>
       <c r="V153" s="46"/>
-      <c r="W153" s="44" t="s">
+      <c r="W153" s="45" t="s">
         <v>165</v>
       </c>
       <c r="X153" s="46"/>
-      <c r="Y153" s="44" t="s">
+      <c r="Y153" s="45" t="s">
         <v>174</v>
       </c>
       <c r="Z153" s="46"/>
-      <c r="AA153" s="44" t="s">
+      <c r="AA153" s="45" t="s">
         <v>204</v>
       </c>
       <c r="AB153" s="46"/>
-      <c r="AC153" s="44" t="s">
+      <c r="AC153" s="45" t="s">
         <v>167</v>
       </c>
       <c r="AD153" s="46"/>
@@ -9641,11 +9647,11 @@
       </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="11"/>
-      <c r="S154" s="44"/>
+      <c r="S154" s="45"/>
       <c r="T154" s="46"/>
-      <c r="U154" s="44"/>
+      <c r="U154" s="45"/>
       <c r="V154" s="46"/>
-      <c r="W154" s="44"/>
+      <c r="W154" s="45"/>
       <c r="X154" s="46"/>
       <c r="Y154" s="11"/>
       <c r="Z154" s="13"/>
@@ -9681,11 +9687,11 @@
     <row r="155" spans="1:60" ht="18" customHeight="1">
       <c r="Q155" s="6"/>
       <c r="R155" s="11"/>
-      <c r="S155" s="44"/>
+      <c r="S155" s="45"/>
       <c r="T155" s="46"/>
-      <c r="U155" s="44"/>
+      <c r="U155" s="45"/>
       <c r="V155" s="46"/>
-      <c r="W155" s="44"/>
+      <c r="W155" s="45"/>
       <c r="X155" s="46"/>
       <c r="Y155" s="11"/>
       <c r="Z155" s="13"/>
@@ -9716,11 +9722,11 @@
       </c>
       <c r="Q156" s="6"/>
       <c r="R156" s="11"/>
-      <c r="S156" s="44"/>
+      <c r="S156" s="45"/>
       <c r="T156" s="46"/>
-      <c r="U156" s="44"/>
+      <c r="U156" s="45"/>
       <c r="V156" s="46"/>
-      <c r="W156" s="44"/>
+      <c r="W156" s="45"/>
       <c r="X156" s="46"/>
       <c r="Y156" s="11"/>
       <c r="Z156" s="13"/>
@@ -9753,11 +9759,11 @@
       </c>
       <c r="Q157" s="6"/>
       <c r="R157" s="11"/>
-      <c r="S157" s="44"/>
+      <c r="S157" s="45"/>
       <c r="T157" s="46"/>
-      <c r="U157" s="44"/>
+      <c r="U157" s="45"/>
       <c r="V157" s="46"/>
-      <c r="W157" s="44"/>
+      <c r="W157" s="45"/>
       <c r="X157" s="46"/>
       <c r="Y157" s="11"/>
       <c r="Z157" s="13"/>
@@ -9788,11 +9794,11 @@
       </c>
       <c r="Q158" s="6"/>
       <c r="R158" s="11"/>
-      <c r="S158" s="44"/>
+      <c r="S158" s="45"/>
       <c r="T158" s="46"/>
-      <c r="U158" s="44"/>
+      <c r="U158" s="45"/>
       <c r="V158" s="46"/>
-      <c r="W158" s="44"/>
+      <c r="W158" s="45"/>
       <c r="X158" s="46"/>
       <c r="Y158" s="11"/>
       <c r="Z158" s="13"/>
@@ -9823,11 +9829,11 @@
       </c>
       <c r="Q159" s="6"/>
       <c r="R159" s="11"/>
-      <c r="S159" s="44"/>
+      <c r="S159" s="45"/>
       <c r="T159" s="46"/>
-      <c r="U159" s="44"/>
+      <c r="U159" s="45"/>
       <c r="V159" s="46"/>
-      <c r="W159" s="44"/>
+      <c r="W159" s="45"/>
       <c r="X159" s="46"/>
       <c r="Y159" s="11"/>
       <c r="Z159" s="13"/>
@@ -9841,10 +9847,10 @@
       <c r="AJ159" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AL159" s="47"/>
-      <c r="AM159" s="47"/>
-      <c r="AN159" s="47"/>
-      <c r="AO159" s="47"/>
+      <c r="AL159" s="49"/>
+      <c r="AM159" s="49"/>
+      <c r="AN159" s="49"/>
+      <c r="AO159" s="49"/>
       <c r="AP159" s="26" t="s">
         <v>54</v>
       </c>
@@ -9858,11 +9864,11 @@
     <row r="160" spans="1:60" ht="18" customHeight="1">
       <c r="Q160" s="6"/>
       <c r="R160" s="11"/>
-      <c r="S160" s="44"/>
+      <c r="S160" s="45"/>
       <c r="T160" s="46"/>
-      <c r="U160" s="44"/>
+      <c r="U160" s="45"/>
       <c r="V160" s="46"/>
-      <c r="W160" s="44"/>
+      <c r="W160" s="45"/>
       <c r="X160" s="46"/>
       <c r="Y160" s="11"/>
       <c r="Z160" s="13"/>
@@ -9898,10 +9904,10 @@
         <v>204</v>
       </c>
       <c r="AK161" s="1"/>
-      <c r="AL161" s="47"/>
-      <c r="AM161" s="47"/>
-      <c r="AN161" s="47"/>
-      <c r="AO161" s="47"/>
+      <c r="AL161" s="49"/>
+      <c r="AM161" s="49"/>
+      <c r="AN161" s="49"/>
+      <c r="AO161" s="49"/>
       <c r="AP161" s="26" t="s">
         <v>54</v>
       </c>
@@ -10412,10 +10418,10 @@
       <c r="R187" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="S187" s="47"/>
-      <c r="T187" s="47"/>
-      <c r="U187" s="47"/>
-      <c r="V187" s="47"/>
+      <c r="S187" s="49"/>
+      <c r="T187" s="49"/>
+      <c r="U187" s="49"/>
+      <c r="V187" s="49"/>
       <c r="W187" s="26" t="s">
         <v>54</v>
       </c>
@@ -10424,9 +10430,9 @@
         <v>179</v>
       </c>
       <c r="Z187" s="1"/>
-      <c r="AA187" s="47"/>
-      <c r="AB187" s="47"/>
-      <c r="AC187" s="47"/>
+      <c r="AA187" s="49"/>
+      <c r="AB187" s="49"/>
+      <c r="AC187" s="49"/>
       <c r="AD187" s="1"/>
       <c r="AE187" s="7"/>
     </row>
@@ -10464,23 +10470,23 @@
       <c r="R189" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="S189" s="47" t="s">
+      <c r="S189" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="T189" s="47"/>
-      <c r="U189" s="47" t="s">
+      <c r="T189" s="49"/>
+      <c r="U189" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="V189" s="47"/>
+      <c r="V189" s="49"/>
       <c r="W189" s="36" t="s">
         <v>187</v>
       </c>
       <c r="X189" s="36"/>
-      <c r="Y189" s="48" t="s">
+      <c r="Y189" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="Z189" s="49"/>
-      <c r="AA189" s="50"/>
+      <c r="Z189" s="60"/>
+      <c r="AA189" s="61"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
@@ -10526,7 +10532,7 @@
       <c r="AH190" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AI190" s="44" t="s">
+      <c r="AI190" s="45" t="s">
         <v>269</v>
       </c>
       <c r="AJ190" s="46"/>
@@ -10534,7 +10540,7 @@
       <c r="AM190" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AN190" s="44" t="s">
+      <c r="AN190" s="45" t="s">
         <v>269</v>
       </c>
       <c r="AO190" s="46"/>
@@ -10562,11 +10568,11 @@
       <c r="AE191" s="7"/>
       <c r="AG191" s="6"/>
       <c r="AH191" s="41"/>
-      <c r="AI191" s="44"/>
+      <c r="AI191" s="45"/>
       <c r="AJ191" s="46"/>
       <c r="AL191" s="40"/>
       <c r="AM191" s="41"/>
-      <c r="AN191" s="44"/>
+      <c r="AN191" s="45"/>
       <c r="AO191" s="46"/>
       <c r="AP191" s="1"/>
       <c r="AQ191" s="7"/>
@@ -10592,11 +10598,11 @@
       <c r="AE192" s="7"/>
       <c r="AG192" s="6"/>
       <c r="AH192" s="41"/>
-      <c r="AI192" s="44"/>
+      <c r="AI192" s="45"/>
       <c r="AJ192" s="46"/>
       <c r="AL192" s="40"/>
       <c r="AM192" s="41"/>
-      <c r="AN192" s="44"/>
+      <c r="AN192" s="45"/>
       <c r="AO192" s="46"/>
       <c r="AP192" s="1"/>
       <c r="AQ192" s="7"/>
@@ -10774,6 +10780,400 @@
     </row>
   </sheetData>
   <mergeCells count="418">
+    <mergeCell ref="AT102:AU102"/>
+    <mergeCell ref="AV102:AX102"/>
+    <mergeCell ref="Y153:Z153"/>
+    <mergeCell ref="AL159:AO159"/>
+    <mergeCell ref="AL161:AO161"/>
+    <mergeCell ref="S149:V149"/>
+    <mergeCell ref="Z149:AC149"/>
+    <mergeCell ref="S159:T159"/>
+    <mergeCell ref="U159:V159"/>
+    <mergeCell ref="W159:X159"/>
+    <mergeCell ref="S160:T160"/>
+    <mergeCell ref="U160:V160"/>
+    <mergeCell ref="W160:X160"/>
+    <mergeCell ref="AL152:AO152"/>
+    <mergeCell ref="AN137:AO137"/>
+    <mergeCell ref="AQ137:AR137"/>
+    <mergeCell ref="S156:T156"/>
+    <mergeCell ref="U156:V156"/>
+    <mergeCell ref="W156:X156"/>
+    <mergeCell ref="S157:T157"/>
+    <mergeCell ref="U157:V157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="U158:V158"/>
+    <mergeCell ref="AI192:AJ192"/>
+    <mergeCell ref="Y189:AA189"/>
+    <mergeCell ref="S187:V187"/>
+    <mergeCell ref="AA187:AC187"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="U189:V189"/>
+    <mergeCell ref="AI190:AJ190"/>
+    <mergeCell ref="AI191:AJ191"/>
+    <mergeCell ref="AN190:AO190"/>
+    <mergeCell ref="AN191:AO191"/>
+    <mergeCell ref="AN192:AO192"/>
+    <mergeCell ref="W158:X158"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="AA153:AB153"/>
+    <mergeCell ref="AC153:AD153"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="U154:V154"/>
+    <mergeCell ref="W154:X154"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="AC138:AD138"/>
+    <mergeCell ref="AO129:AR129"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="AC133:AD133"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AG137:AH137"/>
+    <mergeCell ref="AG138:AH138"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="U138:V138"/>
+    <mergeCell ref="W138:X138"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="DL139:DM139"/>
+    <mergeCell ref="DJ141:DK141"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="AA130:AH130"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="Y131:Z131"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
+    <mergeCell ref="Y132:Z132"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
+    <mergeCell ref="Y133:Z133"/>
+    <mergeCell ref="U134:V134"/>
+    <mergeCell ref="W134:X134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="W135:X135"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="W137:X137"/>
+    <mergeCell ref="DL136:DM136"/>
+    <mergeCell ref="DD137:DE137"/>
+    <mergeCell ref="DF137:DH137"/>
+    <mergeCell ref="DI137:DK137"/>
+    <mergeCell ref="DL137:DM137"/>
+    <mergeCell ref="DD138:DE138"/>
+    <mergeCell ref="DF138:DH138"/>
+    <mergeCell ref="DI138:DK138"/>
+    <mergeCell ref="DL138:DM138"/>
+    <mergeCell ref="CU131:CV131"/>
+    <mergeCell ref="CU132:CV132"/>
+    <mergeCell ref="CS131:CT131"/>
+    <mergeCell ref="CS132:CT132"/>
+    <mergeCell ref="DD136:DE136"/>
+    <mergeCell ref="DF136:DH136"/>
+    <mergeCell ref="DI136:DK136"/>
+    <mergeCell ref="CD139:CE139"/>
+    <mergeCell ref="CG139:CH139"/>
+    <mergeCell ref="DD139:DE139"/>
+    <mergeCell ref="DF139:DH139"/>
+    <mergeCell ref="DI139:DK139"/>
+    <mergeCell ref="BG134:BH134"/>
+    <mergeCell ref="CN134:CO134"/>
+    <mergeCell ref="CQ134:CR134"/>
+    <mergeCell ref="BO133:BP133"/>
+    <mergeCell ref="BQ133:BR133"/>
+    <mergeCell ref="BS133:BT133"/>
+    <mergeCell ref="BO134:BP134"/>
+    <mergeCell ref="BQ134:BR134"/>
+    <mergeCell ref="BS134:BT134"/>
+    <mergeCell ref="CA112:CH112"/>
+    <mergeCell ref="AN106:AS106"/>
+    <mergeCell ref="BA132:BC132"/>
+    <mergeCell ref="AY131:AZ131"/>
+    <mergeCell ref="BA131:BC131"/>
+    <mergeCell ref="BD131:BF131"/>
+    <mergeCell ref="AY132:AZ132"/>
+    <mergeCell ref="BD132:BF132"/>
+    <mergeCell ref="AY133:AZ133"/>
+    <mergeCell ref="BA133:BC133"/>
+    <mergeCell ref="BD133:BF133"/>
+    <mergeCell ref="BZ116:CA116"/>
+    <mergeCell ref="CC116:CD116"/>
+    <mergeCell ref="BO131:BP131"/>
+    <mergeCell ref="BQ131:BR131"/>
+    <mergeCell ref="BS131:BT131"/>
+    <mergeCell ref="BO132:BP132"/>
+    <mergeCell ref="BQ132:BR132"/>
+    <mergeCell ref="BS132:BT132"/>
+    <mergeCell ref="BY112:BZ112"/>
+    <mergeCell ref="CB108:CI108"/>
+    <mergeCell ref="BY110:BZ110"/>
+    <mergeCell ref="BG131:BH131"/>
+    <mergeCell ref="BG132:BH132"/>
+    <mergeCell ref="BP136:BQ136"/>
+    <mergeCell ref="AE131:AF131"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AE133:AF133"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="W136:X136"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="AY134:AZ134"/>
+    <mergeCell ref="BA134:BC134"/>
+    <mergeCell ref="BD134:BF134"/>
+    <mergeCell ref="BA136:BB136"/>
+    <mergeCell ref="BD136:BE136"/>
+    <mergeCell ref="AG131:AH131"/>
+    <mergeCell ref="AG132:AH132"/>
+    <mergeCell ref="AG133:AH133"/>
+    <mergeCell ref="AG134:AH134"/>
+    <mergeCell ref="AG135:AH135"/>
+    <mergeCell ref="AG136:AH136"/>
+    <mergeCell ref="BG133:BH133"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="Z126:AB126"/>
+    <mergeCell ref="AD126:AE126"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD102:AH102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="AM102:AQ102"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI32:AO32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="CA110:CH110"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AN37:AO37"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="BI58:BJ58"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="BK49:BL49"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="BK50:BL50"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BI52:BJ52"/>
+    <mergeCell ref="BK52:BL52"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="BY108:CA108"/>
+    <mergeCell ref="BC74:BD74"/>
+    <mergeCell ref="BC75:BD75"/>
+    <mergeCell ref="BN78:BO78"/>
+    <mergeCell ref="BI53:BJ53"/>
+    <mergeCell ref="BK53:BL53"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AO38"/>
+    <mergeCell ref="S106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="AE106:AG106"/>
+    <mergeCell ref="AH106:AJ106"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="X48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AD93:AE93"/>
+    <mergeCell ref="AF93:AG93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AD94:AE94"/>
+    <mergeCell ref="AF94:AG94"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="S92:U92"/>
+    <mergeCell ref="S93:U93"/>
+    <mergeCell ref="S94:U94"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="BC71:BD71"/>
+    <mergeCell ref="BE71:BF71"/>
+    <mergeCell ref="BG71:BH71"/>
+    <mergeCell ref="BC72:BD72"/>
+    <mergeCell ref="BB73:BC73"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:AB66"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AB90:AG90"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="AP91:AW91"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="AO90:AQ90"/>
+    <mergeCell ref="AR90:AY90"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:AC88"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="AE78:AF78"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="S49:U49"/>
     <mergeCell ref="V94:W94"/>
     <mergeCell ref="X94:Y94"/>
     <mergeCell ref="BP115:BQ115"/>
@@ -10798,400 +11198,6 @@
     <mergeCell ref="BF70:BG70"/>
     <mergeCell ref="AS94:AT94"/>
     <mergeCell ref="AP94:AQ94"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="BC71:BD71"/>
-    <mergeCell ref="BE71:BF71"/>
-    <mergeCell ref="BG71:BH71"/>
-    <mergeCell ref="BC72:BD72"/>
-    <mergeCell ref="BB73:BC73"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:AB66"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="AB90:AG90"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="AP91:AW91"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="AO90:AQ90"/>
-    <mergeCell ref="AR90:AY90"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:AC88"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="AE78:AF78"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="AF91:AG91"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AF93:AG93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AD94:AE94"/>
-    <mergeCell ref="AF94:AG94"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="S92:U92"/>
-    <mergeCell ref="S93:U93"/>
-    <mergeCell ref="S94:U94"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="S106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="AE106:AG106"/>
-    <mergeCell ref="AH106:AJ106"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="X48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="CA110:CH110"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="BI58:BJ58"/>
-    <mergeCell ref="BH47:BI47"/>
-    <mergeCell ref="BJ47:BK47"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="BK49:BL49"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="BK50:BL50"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BI52:BJ52"/>
-    <mergeCell ref="BK52:BL52"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="BY108:CA108"/>
-    <mergeCell ref="BC74:BD74"/>
-    <mergeCell ref="BC75:BD75"/>
-    <mergeCell ref="BN78:BO78"/>
-    <mergeCell ref="BI53:BJ53"/>
-    <mergeCell ref="BK53:BL53"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="Z126:AB126"/>
-    <mergeCell ref="AD126:AE126"/>
-    <mergeCell ref="AA131:AB131"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD102:AH102"/>
-    <mergeCell ref="AK102:AL102"/>
-    <mergeCell ref="AM102:AQ102"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AI32:AO32"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="BP136:BQ136"/>
-    <mergeCell ref="AE131:AF131"/>
-    <mergeCell ref="AE132:AF132"/>
-    <mergeCell ref="AE133:AF133"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="AE135:AF135"/>
-    <mergeCell ref="AE136:AF136"/>
-    <mergeCell ref="W136:X136"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="Y130:Z130"/>
-    <mergeCell ref="U128:V128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="AY134:AZ134"/>
-    <mergeCell ref="BA134:BC134"/>
-    <mergeCell ref="BD134:BF134"/>
-    <mergeCell ref="BA136:BB136"/>
-    <mergeCell ref="BD136:BE136"/>
-    <mergeCell ref="AG131:AH131"/>
-    <mergeCell ref="AG132:AH132"/>
-    <mergeCell ref="AG133:AH133"/>
-    <mergeCell ref="AG134:AH134"/>
-    <mergeCell ref="AG135:AH135"/>
-    <mergeCell ref="AG136:AH136"/>
-    <mergeCell ref="BG133:BH133"/>
-    <mergeCell ref="CA112:CH112"/>
-    <mergeCell ref="AN106:AS106"/>
-    <mergeCell ref="BA132:BC132"/>
-    <mergeCell ref="AY131:AZ131"/>
-    <mergeCell ref="BA131:BC131"/>
-    <mergeCell ref="BD131:BF131"/>
-    <mergeCell ref="AY132:AZ132"/>
-    <mergeCell ref="BD132:BF132"/>
-    <mergeCell ref="AY133:AZ133"/>
-    <mergeCell ref="BA133:BC133"/>
-    <mergeCell ref="BD133:BF133"/>
-    <mergeCell ref="BZ116:CA116"/>
-    <mergeCell ref="CC116:CD116"/>
-    <mergeCell ref="BO131:BP131"/>
-    <mergeCell ref="BQ131:BR131"/>
-    <mergeCell ref="BS131:BT131"/>
-    <mergeCell ref="BO132:BP132"/>
-    <mergeCell ref="BQ132:BR132"/>
-    <mergeCell ref="BS132:BT132"/>
-    <mergeCell ref="BY112:BZ112"/>
-    <mergeCell ref="CB108:CI108"/>
-    <mergeCell ref="BY110:BZ110"/>
-    <mergeCell ref="BG131:BH131"/>
-    <mergeCell ref="BG132:BH132"/>
-    <mergeCell ref="BG134:BH134"/>
-    <mergeCell ref="CN134:CO134"/>
-    <mergeCell ref="CQ134:CR134"/>
-    <mergeCell ref="BO133:BP133"/>
-    <mergeCell ref="BQ133:BR133"/>
-    <mergeCell ref="BS133:BT133"/>
-    <mergeCell ref="BO134:BP134"/>
-    <mergeCell ref="BQ134:BR134"/>
-    <mergeCell ref="BS134:BT134"/>
-    <mergeCell ref="CU131:CV131"/>
-    <mergeCell ref="CU132:CV132"/>
-    <mergeCell ref="CS131:CT131"/>
-    <mergeCell ref="CS132:CT132"/>
-    <mergeCell ref="DD136:DE136"/>
-    <mergeCell ref="DF136:DH136"/>
-    <mergeCell ref="DI136:DK136"/>
-    <mergeCell ref="CD139:CE139"/>
-    <mergeCell ref="CG139:CH139"/>
-    <mergeCell ref="DD139:DE139"/>
-    <mergeCell ref="DF139:DH139"/>
-    <mergeCell ref="DI139:DK139"/>
-    <mergeCell ref="DL136:DM136"/>
-    <mergeCell ref="DD137:DE137"/>
-    <mergeCell ref="DF137:DH137"/>
-    <mergeCell ref="DI137:DK137"/>
-    <mergeCell ref="DL137:DM137"/>
-    <mergeCell ref="DD138:DE138"/>
-    <mergeCell ref="DF138:DH138"/>
-    <mergeCell ref="DI138:DK138"/>
-    <mergeCell ref="DL138:DM138"/>
-    <mergeCell ref="DL139:DM139"/>
-    <mergeCell ref="DJ141:DK141"/>
-    <mergeCell ref="U130:V130"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="AA130:AH130"/>
-    <mergeCell ref="U131:V131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="Y131:Z131"/>
-    <mergeCell ref="U132:V132"/>
-    <mergeCell ref="W132:X132"/>
-    <mergeCell ref="Y132:Z132"/>
-    <mergeCell ref="U133:V133"/>
-    <mergeCell ref="W133:X133"/>
-    <mergeCell ref="Y133:Z133"/>
-    <mergeCell ref="U134:V134"/>
-    <mergeCell ref="W134:X134"/>
-    <mergeCell ref="Y134:Z134"/>
-    <mergeCell ref="U135:V135"/>
-    <mergeCell ref="W135:X135"/>
-    <mergeCell ref="Y135:Z135"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="W137:X137"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="U138:V138"/>
-    <mergeCell ref="W138:X138"/>
-    <mergeCell ref="Y138:Z138"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="AA138:AB138"/>
-    <mergeCell ref="AC138:AD138"/>
-    <mergeCell ref="AO129:AR129"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AA132:AB132"/>
-    <mergeCell ref="AC132:AD132"/>
-    <mergeCell ref="AA133:AB133"/>
-    <mergeCell ref="AC133:AD133"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="AC134:AD134"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AG137:AH137"/>
-    <mergeCell ref="AG138:AH138"/>
-    <mergeCell ref="W158:X158"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="AA153:AB153"/>
-    <mergeCell ref="AC153:AD153"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="U154:V154"/>
-    <mergeCell ref="W154:X154"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="AI192:AJ192"/>
-    <mergeCell ref="Y189:AA189"/>
-    <mergeCell ref="S187:V187"/>
-    <mergeCell ref="AA187:AC187"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="U189:V189"/>
-    <mergeCell ref="AI190:AJ190"/>
-    <mergeCell ref="AI191:AJ191"/>
-    <mergeCell ref="AN190:AO190"/>
-    <mergeCell ref="AN191:AO191"/>
-    <mergeCell ref="AN192:AO192"/>
-    <mergeCell ref="AT102:AU102"/>
-    <mergeCell ref="AV102:AX102"/>
-    <mergeCell ref="Y153:Z153"/>
-    <mergeCell ref="AL159:AO159"/>
-    <mergeCell ref="AL161:AO161"/>
-    <mergeCell ref="S149:V149"/>
-    <mergeCell ref="Z149:AC149"/>
-    <mergeCell ref="S159:T159"/>
-    <mergeCell ref="U159:V159"/>
-    <mergeCell ref="W159:X159"/>
-    <mergeCell ref="S160:T160"/>
-    <mergeCell ref="U160:V160"/>
-    <mergeCell ref="W160:X160"/>
-    <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="AN137:AO137"/>
-    <mergeCell ref="AQ137:AR137"/>
-    <mergeCell ref="S156:T156"/>
-    <mergeCell ref="U156:V156"/>
-    <mergeCell ref="W156:X156"/>
-    <mergeCell ref="S157:T157"/>
-    <mergeCell ref="U157:V157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="U158:V158"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/通用测试平台.xlsx
+++ b/通用测试平台.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="295">
   <si>
     <t>组织管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1245,6 +1245,10 @@
   </si>
   <si>
     <t>{para_id:}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1735,7 +1739,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1817,22 +1821,31 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1844,30 +1857,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="217">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2391,7 +2399,7 @@
   <dimension ref="A1:DO200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF121" workbookViewId="0">
-      <selection activeCell="BG132" sqref="BG132:BH132"/>
+      <selection activeCell="BK143" sqref="BK143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18" customHeight="1"/>
@@ -2401,38 +2409,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:46" ht="18" customHeight="1">
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="U1" s="48" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="U1" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
     </row>
     <row r="2" spans="2:46" ht="18" customHeight="1">
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
     </row>
     <row r="3" spans="2:46" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="30"/>
@@ -2599,18 +2607,18 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="54" t="s">
+      <c r="S10" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="54"/>
-      <c r="U10" s="50" t="s">
+      <c r="T10" s="59"/>
+      <c r="U10" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50" t="s">
+      <c r="V10" s="46"/>
+      <c r="W10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="50"/>
+      <c r="X10" s="46"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2641,18 +2649,18 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="50" t="s">
+      <c r="T11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50" t="s">
+      <c r="U11" s="46"/>
+      <c r="V11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50" t="s">
+      <c r="W11" s="46"/>
+      <c r="X11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="56"/>
+      <c r="Y11" s="58"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -2679,10 +2687,10 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="50" t="s">
+      <c r="T12" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="50"/>
+      <c r="U12" s="46"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -2712,10 +2720,10 @@
     <row r="13" spans="2:46" ht="18" customHeight="1">
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="50" t="s">
+      <c r="S13" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="50"/>
+      <c r="T13" s="46"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -2753,10 +2761,10 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="50" t="s">
+      <c r="T14" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="50"/>
+      <c r="U14" s="46"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -2785,10 +2793,10 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="50" t="s">
+      <c r="T15" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="50"/>
+      <c r="U15" s="46"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -2884,10 +2892,10 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="45" t="s">
+      <c r="AE18" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="46"/>
+      <c r="AF18" s="49"/>
       <c r="AG18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -3081,35 +3089,35 @@
     <row r="28" spans="2:46" ht="18" customHeight="1">
       <c r="Q28" s="6"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="50" t="s">
+      <c r="S28" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="T28" s="50"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="49"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="50" t="s">
+      <c r="Y28" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="46"/>
-      <c r="AD28" s="50" t="s">
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="49"/>
+      <c r="AD28" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
       <c r="AI28" s="24" t="s">
         <v>54</v>
       </c>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="45" t="s">
+      <c r="AK28" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="AL28" s="46"/>
+      <c r="AL28" s="49"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -3160,18 +3168,18 @@
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="49" t="s">
+      <c r="S30" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49" t="s">
+      <c r="T30" s="50"/>
+      <c r="U30" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49" t="s">
+      <c r="V30" s="50"/>
+      <c r="W30" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="X30" s="49"/>
+      <c r="X30" s="50"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -3236,45 +3244,45 @@
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="45" t="s">
+      <c r="S32" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="T32" s="46"/>
-      <c r="U32" s="45" t="s">
+      <c r="T32" s="49"/>
+      <c r="U32" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="V32" s="46"/>
-      <c r="W32" s="45" t="s">
+      <c r="V32" s="49"/>
+      <c r="W32" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="45" t="s">
+      <c r="X32" s="48"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="46"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="49"/>
       <c r="AC32" s="37" t="s">
         <v>22</v>
       </c>
       <c r="AD32" s="38"/>
-      <c r="AE32" s="45" t="s">
+      <c r="AE32" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AF32" s="47"/>
-      <c r="AG32" s="45" t="s">
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="45" t="s">
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="47"/>
-      <c r="AL32" s="47"/>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="47"/>
-      <c r="AO32" s="46"/>
+      <c r="AJ32" s="48"/>
+      <c r="AK32" s="48"/>
+      <c r="AL32" s="48"/>
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="48"/>
+      <c r="AO32" s="49"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
@@ -3287,39 +3295,39 @@
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="45" t="s">
+      <c r="S33" s="47"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="V33" s="46"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="46"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="49"/>
       <c r="AE33" s="11"/>
       <c r="AF33" s="13"/>
-      <c r="AG33" s="45" t="s">
+      <c r="AG33" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="45" t="s">
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="45" t="s">
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="AL33" s="47"/>
-      <c r="AM33" s="46"/>
-      <c r="AN33" s="45" t="s">
+      <c r="AL33" s="48"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AO33" s="46"/>
+      <c r="AO33" s="49"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
@@ -3332,39 +3340,39 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="45" t="s">
+      <c r="S34" s="47"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="V34" s="46"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="46"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="49"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="13"/>
-      <c r="AG34" s="45" t="s">
+      <c r="AG34" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="45" t="s">
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AJ34" s="46"/>
-      <c r="AK34" s="45" t="s">
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="AL34" s="47"/>
-      <c r="AM34" s="46"/>
-      <c r="AN34" s="45" t="s">
+      <c r="AL34" s="48"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AO34" s="46"/>
+      <c r="AO34" s="49"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
@@ -3377,37 +3385,37 @@
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="45" t="s">
+      <c r="S35" s="47"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="46"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="45"/>
-      <c r="AD35" s="46"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="47"/>
+      <c r="AD35" s="49"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="13"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
-      <c r="AI35" s="45" t="s">
+      <c r="AI35" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AJ35" s="46"/>
-      <c r="AK35" s="45" t="s">
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="AL35" s="47"/>
-      <c r="AM35" s="46"/>
-      <c r="AN35" s="45" t="s">
+      <c r="AL35" s="48"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AO35" s="46"/>
+      <c r="AO35" s="49"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
@@ -3420,12 +3428,12 @@
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="45" t="s">
+      <c r="S36" s="47"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="V36" s="46"/>
+      <c r="V36" s="49"/>
       <c r="W36" s="37"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="38"/>
@@ -3438,19 +3446,19 @@
       <c r="AF36" s="13"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
-      <c r="AI36" s="45" t="s">
+      <c r="AI36" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AJ36" s="46"/>
-      <c r="AK36" s="45" t="s">
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="AL36" s="47"/>
-      <c r="AM36" s="46"/>
-      <c r="AN36" s="45" t="s">
+      <c r="AL36" s="48"/>
+      <c r="AM36" s="49"/>
+      <c r="AN36" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AO36" s="46"/>
+      <c r="AO36" s="49"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
@@ -3463,37 +3471,37 @@
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="45" t="s">
+      <c r="S37" s="47"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="V37" s="46"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="46"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="49"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="13"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
-      <c r="AI37" s="45" t="s">
+      <c r="AI37" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="45" t="s">
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="AL37" s="47"/>
-      <c r="AM37" s="46"/>
-      <c r="AN37" s="45" t="s">
+      <c r="AL37" s="48"/>
+      <c r="AM37" s="49"/>
+      <c r="AN37" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AO37" s="46"/>
+      <c r="AO37" s="49"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
@@ -3503,29 +3511,29 @@
     <row r="38" spans="2:67" ht="18" customHeight="1">
       <c r="Q38" s="6"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="46"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="49"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="13"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="46"/>
-      <c r="AK38" s="45"/>
-      <c r="AL38" s="47"/>
-      <c r="AM38" s="46"/>
-      <c r="AN38" s="45"/>
-      <c r="AO38" s="46"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="49"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="48"/>
+      <c r="AM38" s="49"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="49"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
@@ -3675,10 +3683,10 @@
         <v>131</v>
       </c>
       <c r="Q46" s="6"/>
-      <c r="R46" s="49" t="s">
+      <c r="R46" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S46" s="49"/>
+      <c r="S46" s="50"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -3754,14 +3762,14 @@
       <c r="BB47" s="7"/>
       <c r="BF47" s="6"/>
       <c r="BG47" s="1"/>
-      <c r="BH47" s="49" t="s">
+      <c r="BH47" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="BI47" s="49"/>
-      <c r="BJ47" s="49" t="s">
+      <c r="BI47" s="50"/>
+      <c r="BJ47" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="BK47" s="49"/>
+      <c r="BK47" s="50"/>
       <c r="BL47" s="1"/>
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
@@ -3775,23 +3783,23 @@
       <c r="R48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S48" s="49" t="s">
+      <c r="S48" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="T48" s="49"/>
-      <c r="U48" s="49"/>
-      <c r="V48" s="49" t="s">
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="W48" s="49"/>
-      <c r="X48" s="49" t="s">
+      <c r="W48" s="50"/>
+      <c r="X48" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
@@ -3830,23 +3838,23 @@
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="15"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="49"/>
-      <c r="U49" s="49"/>
-      <c r="V49" s="49"/>
-      <c r="W49" s="49"/>
-      <c r="X49" s="49" t="s">
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="Y49" s="49"/>
-      <c r="Z49" s="49" t="s">
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="AA49" s="49"/>
-      <c r="AB49" s="49" t="s">
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AC49" s="49"/>
+      <c r="AC49" s="50"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
@@ -3871,14 +3879,14 @@
       <c r="BH49" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BI49" s="49" t="s">
+      <c r="BI49" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="BJ49" s="49"/>
-      <c r="BK49" s="49" t="s">
+      <c r="BJ49" s="50"/>
+      <c r="BK49" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="BL49" s="49"/>
+      <c r="BL49" s="50"/>
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
       <c r="BO49" s="7"/>
@@ -3889,17 +3897,17 @@
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="15"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="49"/>
-      <c r="W50" s="49"/>
-      <c r="X50" s="49"/>
-      <c r="Y50" s="49"/>
-      <c r="Z50" s="49"/>
-      <c r="AA50" s="49"/>
-      <c r="AB50" s="49"/>
-      <c r="AC50" s="49"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="50"/>
+      <c r="Y50" s="50"/>
+      <c r="Z50" s="50"/>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="50"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
@@ -3924,14 +3932,14 @@
       <c r="BH50" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BI50" s="49" t="s">
+      <c r="BI50" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="BJ50" s="49"/>
-      <c r="BK50" s="49" t="s">
+      <c r="BJ50" s="50"/>
+      <c r="BK50" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="BL50" s="49"/>
+      <c r="BL50" s="50"/>
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
       <c r="BO50" s="7"/>
@@ -3942,17 +3950,17 @@
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="15"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="49"/>
-      <c r="U51" s="49"/>
-      <c r="V51" s="49"/>
-      <c r="W51" s="49"/>
-      <c r="X51" s="49"/>
-      <c r="Y51" s="49"/>
-      <c r="Z51" s="49"/>
-      <c r="AA51" s="49"/>
-      <c r="AB51" s="49"/>
-      <c r="AC51" s="49"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="50"/>
+      <c r="Y51" s="50"/>
+      <c r="Z51" s="50"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
@@ -3960,15 +3968,15 @@
       <c r="AN51" s="6"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
-      <c r="AQ51" s="45" t="s">
+      <c r="AQ51" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AR51" s="46"/>
+      <c r="AR51" s="49"/>
       <c r="AS51" s="1"/>
-      <c r="AT51" s="45" t="s">
+      <c r="AT51" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AU51" s="46"/>
+      <c r="AU51" s="49"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
@@ -3981,14 +3989,14 @@
       <c r="BH51" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BI51" s="49" t="s">
+      <c r="BI51" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="BJ51" s="49"/>
-      <c r="BK51" s="49" t="s">
+      <c r="BJ51" s="50"/>
+      <c r="BK51" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="BL51" s="49"/>
+      <c r="BL51" s="50"/>
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
       <c r="BO51" s="7"/>
@@ -3996,17 +4004,17 @@
     <row r="52" spans="2:67" ht="18" customHeight="1">
       <c r="Q52" s="6"/>
       <c r="R52" s="15"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="49"/>
-      <c r="V52" s="49"/>
-      <c r="W52" s="49"/>
-      <c r="X52" s="49"/>
-      <c r="Y52" s="49"/>
-      <c r="Z52" s="49"/>
-      <c r="AA52" s="49"/>
-      <c r="AB52" s="49"/>
-      <c r="AC52" s="49"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="50"/>
+      <c r="X52" s="50"/>
+      <c r="Y52" s="50"/>
+      <c r="Z52" s="50"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="50"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
@@ -4031,14 +4039,14 @@
       <c r="BH52" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BI52" s="49" t="s">
+      <c r="BI52" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="BJ52" s="49"/>
-      <c r="BK52" s="49" t="s">
+      <c r="BJ52" s="50"/>
+      <c r="BK52" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="BL52" s="49"/>
+      <c r="BL52" s="50"/>
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
       <c r="BO52" s="7"/>
@@ -4046,17 +4054,17 @@
     <row r="53" spans="2:67" ht="18" customHeight="1">
       <c r="Q53" s="6"/>
       <c r="R53" s="15"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="49"/>
-      <c r="U53" s="49"/>
-      <c r="V53" s="49"/>
-      <c r="W53" s="49"/>
-      <c r="X53" s="49"/>
-      <c r="Y53" s="49"/>
-      <c r="Z53" s="49"/>
-      <c r="AA53" s="49"/>
-      <c r="AB53" s="49"/>
-      <c r="AC53" s="49"/>
+      <c r="S53" s="50"/>
+      <c r="T53" s="50"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="50"/>
+      <c r="X53" s="50"/>
+      <c r="Y53" s="50"/>
+      <c r="Z53" s="50"/>
+      <c r="AA53" s="50"/>
+      <c r="AB53" s="50"/>
+      <c r="AC53" s="50"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
@@ -4081,10 +4089,10 @@
       <c r="BH53" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BI53" s="49"/>
-      <c r="BJ53" s="49"/>
-      <c r="BK53" s="49"/>
-      <c r="BL53" s="49"/>
+      <c r="BI53" s="50"/>
+      <c r="BJ53" s="50"/>
+      <c r="BK53" s="50"/>
+      <c r="BL53" s="50"/>
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
       <c r="BO53" s="7"/>
@@ -4092,17 +4100,17 @@
     <row r="54" spans="2:67" ht="18" customHeight="1">
       <c r="Q54" s="6"/>
       <c r="R54" s="15"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="49"/>
-      <c r="V54" s="49"/>
-      <c r="W54" s="49"/>
-      <c r="X54" s="49"/>
-      <c r="Y54" s="49"/>
-      <c r="Z54" s="49"/>
-      <c r="AA54" s="49"/>
-      <c r="AB54" s="49"/>
-      <c r="AC54" s="49"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="50"/>
+      <c r="U54" s="50"/>
+      <c r="V54" s="50"/>
+      <c r="W54" s="50"/>
+      <c r="X54" s="50"/>
+      <c r="Y54" s="50"/>
+      <c r="Z54" s="50"/>
+      <c r="AA54" s="50"/>
+      <c r="AB54" s="50"/>
+      <c r="AC54" s="50"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
@@ -4127,10 +4135,10 @@
       <c r="BH54" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BI54" s="49"/>
-      <c r="BJ54" s="49"/>
-      <c r="BK54" s="49"/>
-      <c r="BL54" s="49"/>
+      <c r="BI54" s="50"/>
+      <c r="BJ54" s="50"/>
+      <c r="BK54" s="50"/>
+      <c r="BL54" s="50"/>
       <c r="BM54" s="1"/>
       <c r="BN54" s="1"/>
       <c r="BO54" s="7"/>
@@ -4138,17 +4146,17 @@
     <row r="55" spans="2:67" ht="18" customHeight="1">
       <c r="Q55" s="6"/>
       <c r="R55" s="15"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="49"/>
-      <c r="Z55" s="49"/>
-      <c r="AA55" s="49"/>
-      <c r="AB55" s="49"/>
-      <c r="AC55" s="49"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="50"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="50"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
@@ -4173,10 +4181,10 @@
       <c r="BH55" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BI55" s="49"/>
-      <c r="BJ55" s="49"/>
-      <c r="BK55" s="49"/>
-      <c r="BL55" s="49"/>
+      <c r="BI55" s="50"/>
+      <c r="BJ55" s="50"/>
+      <c r="BK55" s="50"/>
+      <c r="BL55" s="50"/>
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
       <c r="BO55" s="7"/>
@@ -4184,17 +4192,17 @@
     <row r="56" spans="2:67" ht="18" customHeight="1">
       <c r="Q56" s="6"/>
       <c r="R56" s="15"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="49"/>
-      <c r="V56" s="49"/>
-      <c r="W56" s="49"/>
-      <c r="X56" s="49"/>
-      <c r="Y56" s="49"/>
-      <c r="Z56" s="49"/>
-      <c r="AA56" s="49"/>
-      <c r="AB56" s="49"/>
-      <c r="AC56" s="49"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
+      <c r="W56" s="50"/>
+      <c r="X56" s="50"/>
+      <c r="Y56" s="50"/>
+      <c r="Z56" s="50"/>
+      <c r="AA56" s="50"/>
+      <c r="AB56" s="50"/>
+      <c r="AC56" s="50"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
@@ -4202,10 +4210,10 @@
       <c r="BF56" s="6"/>
       <c r="BG56" s="1"/>
       <c r="BH56" s="15"/>
-      <c r="BI56" s="49"/>
-      <c r="BJ56" s="49"/>
-      <c r="BK56" s="49"/>
-      <c r="BL56" s="49"/>
+      <c r="BI56" s="50"/>
+      <c r="BJ56" s="50"/>
+      <c r="BK56" s="50"/>
+      <c r="BL56" s="50"/>
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
       <c r="BO56" s="7"/>
@@ -4260,10 +4268,10 @@
       <c r="BF58" s="6"/>
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
-      <c r="BI58" s="45" t="s">
+      <c r="BI58" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="BJ58" s="46"/>
+      <c r="BJ58" s="49"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
       <c r="BM58" s="1"/>
@@ -4426,21 +4434,21 @@
         <v>134</v>
       </c>
       <c r="Q66" s="6"/>
-      <c r="R66" s="50" t="s">
+      <c r="R66" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="S66" s="50"/>
-      <c r="T66" s="50"/>
-      <c r="U66" s="51" t="s">
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="V66" s="52"/>
-      <c r="W66" s="52"/>
-      <c r="X66" s="52"/>
-      <c r="Y66" s="52"/>
-      <c r="Z66" s="52"/>
-      <c r="AA66" s="52"/>
-      <c r="AB66" s="53"/>
+      <c r="V66" s="55"/>
+      <c r="W66" s="55"/>
+      <c r="X66" s="55"/>
+      <c r="Y66" s="55"/>
+      <c r="Z66" s="55"/>
+      <c r="AA66" s="55"/>
+      <c r="AB66" s="56"/>
       <c r="AC66" s="16" t="s">
         <v>54</v>
       </c>
@@ -4449,10 +4457,10 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="45" t="s">
+      <c r="AI66" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="AJ66" s="46"/>
+      <c r="AJ66" s="49"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
@@ -4468,21 +4476,21 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="7"/>
       <c r="AZ66" s="6"/>
-      <c r="BA66" s="50" t="s">
+      <c r="BA66" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="BB66" s="50"/>
-      <c r="BC66" s="50"/>
-      <c r="BD66" s="51" t="s">
+      <c r="BB66" s="46"/>
+      <c r="BC66" s="46"/>
+      <c r="BD66" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="BE66" s="52"/>
-      <c r="BF66" s="52"/>
-      <c r="BG66" s="52"/>
-      <c r="BH66" s="52"/>
-      <c r="BI66" s="52"/>
-      <c r="BJ66" s="52"/>
-      <c r="BK66" s="53"/>
+      <c r="BE66" s="55"/>
+      <c r="BF66" s="55"/>
+      <c r="BG66" s="55"/>
+      <c r="BH66" s="55"/>
+      <c r="BI66" s="55"/>
+      <c r="BJ66" s="55"/>
+      <c r="BK66" s="56"/>
       <c r="BL66" s="16" t="s">
         <v>54</v>
       </c>
@@ -4734,18 +4742,18 @@
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="55" t="s">
+      <c r="S70" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="T70" s="55"/>
-      <c r="U70" s="50" t="s">
+      <c r="T70" s="62"/>
+      <c r="U70" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="V70" s="50"/>
-      <c r="W70" s="50" t="s">
+      <c r="V70" s="46"/>
+      <c r="W70" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="X70" s="50"/>
+      <c r="X70" s="46"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -4774,18 +4782,18 @@
       <c r="AX70" s="7"/>
       <c r="AZ70" s="6"/>
       <c r="BA70" s="6"/>
-      <c r="BB70" s="54" t="s">
+      <c r="BB70" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="BC70" s="54"/>
-      <c r="BD70" s="50" t="s">
+      <c r="BC70" s="59"/>
+      <c r="BD70" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="BE70" s="50"/>
-      <c r="BF70" s="50" t="s">
+      <c r="BE70" s="46"/>
+      <c r="BF70" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="BG70" s="50"/>
+      <c r="BG70" s="46"/>
       <c r="BH70" s="7"/>
       <c r="BI70" s="1"/>
       <c r="BJ70" s="1"/>
@@ -4820,18 +4828,18 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="50" t="s">
+      <c r="T71" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="50"/>
-      <c r="V71" s="50" t="s">
+      <c r="U71" s="46"/>
+      <c r="V71" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="W71" s="50"/>
-      <c r="X71" s="50" t="s">
+      <c r="W71" s="46"/>
+      <c r="X71" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="Y71" s="56"/>
+      <c r="Y71" s="58"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
@@ -4862,18 +4870,18 @@
       <c r="AZ71" s="6"/>
       <c r="BA71" s="6"/>
       <c r="BB71" s="1"/>
-      <c r="BC71" s="50" t="s">
+      <c r="BC71" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="BD71" s="50"/>
-      <c r="BE71" s="50" t="s">
+      <c r="BD71" s="46"/>
+      <c r="BE71" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="BF71" s="50"/>
-      <c r="BG71" s="50" t="s">
+      <c r="BF71" s="46"/>
+      <c r="BG71" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="BH71" s="56"/>
+      <c r="BH71" s="58"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
@@ -4909,10 +4917,10 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="50" t="s">
+      <c r="T72" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="U72" s="50"/>
+      <c r="U72" s="46"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
@@ -4947,10 +4955,10 @@
       <c r="AZ72" s="6"/>
       <c r="BA72" s="6"/>
       <c r="BB72" s="1"/>
-      <c r="BC72" s="50" t="s">
+      <c r="BC72" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="BD72" s="50"/>
+      <c r="BD72" s="46"/>
       <c r="BE72" s="1"/>
       <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
@@ -4986,10 +4994,10 @@
     <row r="73" spans="3:85" ht="18" customHeight="1">
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="S73" s="50" t="s">
+      <c r="S73" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="T73" s="50"/>
+      <c r="T73" s="46"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -5026,10 +5034,10 @@
       <c r="AX73" s="7"/>
       <c r="AZ73" s="6"/>
       <c r="BA73" s="6"/>
-      <c r="BB73" s="50" t="s">
+      <c r="BB73" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="BC73" s="50"/>
+      <c r="BC73" s="46"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
       <c r="BF73" s="1"/>
@@ -5073,10 +5081,10 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="50" t="s">
+      <c r="T74" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="U74" s="50"/>
+      <c r="U74" s="46"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
@@ -5109,10 +5117,10 @@
       <c r="AZ74" s="6"/>
       <c r="BA74" s="6"/>
       <c r="BB74" s="1"/>
-      <c r="BC74" s="50" t="s">
+      <c r="BC74" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="BD74" s="50"/>
+      <c r="BD74" s="46"/>
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
       <c r="BG74" s="1"/>
@@ -5147,10 +5155,10 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="50" t="s">
+      <c r="T75" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="U75" s="50"/>
+      <c r="U75" s="46"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
@@ -5183,10 +5191,10 @@
       <c r="AZ75" s="6"/>
       <c r="BA75" s="6"/>
       <c r="BB75" s="1"/>
-      <c r="BC75" s="50" t="s">
+      <c r="BC75" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="BD75" s="50"/>
+      <c r="BD75" s="46"/>
       <c r="BE75" s="1"/>
       <c r="BF75" s="1"/>
       <c r="BG75" s="1"/>
@@ -5372,10 +5380,10 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
-      <c r="AE78" s="45" t="s">
+      <c r="AE78" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AF78" s="46"/>
+      <c r="AF78" s="49"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
@@ -5408,10 +5416,10 @@
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
       <c r="BM78" s="1"/>
-      <c r="BN78" s="45" t="s">
+      <c r="BN78" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="BO78" s="46"/>
+      <c r="BO78" s="49"/>
       <c r="BP78" s="1"/>
       <c r="BQ78" s="1"/>
       <c r="BR78" s="1"/>
@@ -5761,21 +5769,21 @@
     <row r="88" spans="2:85" ht="18" customHeight="1">
       <c r="Q88" s="6"/>
       <c r="R88" s="1"/>
-      <c r="S88" s="50" t="s">
+      <c r="S88" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="T88" s="50"/>
-      <c r="U88" s="50"/>
-      <c r="V88" s="51" t="s">
+      <c r="T88" s="46"/>
+      <c r="U88" s="46"/>
+      <c r="V88" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="W88" s="52"/>
-      <c r="X88" s="52"/>
-      <c r="Y88" s="52"/>
-      <c r="Z88" s="52"/>
-      <c r="AA88" s="52"/>
-      <c r="AB88" s="52"/>
-      <c r="AC88" s="53"/>
+      <c r="W88" s="55"/>
+      <c r="X88" s="55"/>
+      <c r="Y88" s="55"/>
+      <c r="Z88" s="55"/>
+      <c r="AA88" s="55"/>
+      <c r="AB88" s="55"/>
+      <c r="AC88" s="56"/>
       <c r="AD88" s="16" t="s">
         <v>54</v>
       </c>
@@ -5809,10 +5817,10 @@
       </c>
       <c r="Q89" s="6"/>
       <c r="R89" s="1"/>
-      <c r="S89" s="49" t="s">
+      <c r="S89" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="T89" s="49"/>
+      <c r="T89" s="50"/>
       <c r="U89" s="14"/>
       <c r="V89" s="20"/>
       <c r="W89" s="20"/>
@@ -5853,50 +5861,50 @@
       </c>
       <c r="Q90" s="6"/>
       <c r="R90" s="1"/>
-      <c r="S90" s="49" t="s">
+      <c r="S90" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="T90" s="49"/>
-      <c r="U90" s="49"/>
-      <c r="V90" s="45" t="s">
+      <c r="T90" s="50"/>
+      <c r="U90" s="50"/>
+      <c r="V90" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="W90" s="46"/>
-      <c r="X90" s="45" t="s">
+      <c r="W90" s="49"/>
+      <c r="X90" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="Y90" s="46"/>
-      <c r="Z90" s="49" t="s">
+      <c r="Y90" s="49"/>
+      <c r="Z90" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="AA90" s="49"/>
-      <c r="AB90" s="49" t="s">
+      <c r="AA90" s="50"/>
+      <c r="AB90" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="AC90" s="49"/>
-      <c r="AD90" s="49"/>
-      <c r="AE90" s="49"/>
-      <c r="AF90" s="49"/>
-      <c r="AG90" s="49"/>
+      <c r="AC90" s="50"/>
+      <c r="AD90" s="50"/>
+      <c r="AE90" s="50"/>
+      <c r="AF90" s="50"/>
+      <c r="AG90" s="50"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="7"/>
       <c r="AM90" s="6"/>
       <c r="AN90" s="1"/>
-      <c r="AO90" s="50" t="s">
+      <c r="AO90" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AP90" s="50"/>
-      <c r="AQ90" s="50"/>
-      <c r="AR90" s="51" t="s">
+      <c r="AP90" s="46"/>
+      <c r="AQ90" s="46"/>
+      <c r="AR90" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AS90" s="52"/>
-      <c r="AT90" s="52"/>
-      <c r="AU90" s="52"/>
-      <c r="AV90" s="52"/>
-      <c r="AW90" s="52"/>
-      <c r="AX90" s="52"/>
-      <c r="AY90" s="53"/>
+      <c r="AS90" s="55"/>
+      <c r="AT90" s="55"/>
+      <c r="AU90" s="55"/>
+      <c r="AV90" s="55"/>
+      <c r="AW90" s="55"/>
+      <c r="AX90" s="55"/>
+      <c r="AY90" s="56"/>
       <c r="AZ90" s="25" t="s">
         <v>54</v>
       </c>
@@ -5909,29 +5917,29 @@
       </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="1"/>
-      <c r="S91" s="49" t="s">
+      <c r="S91" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="T91" s="49"/>
-      <c r="U91" s="49"/>
-      <c r="V91" s="45"/>
-      <c r="W91" s="46"/>
-      <c r="X91" s="45"/>
-      <c r="Y91" s="46"/>
-      <c r="Z91" s="45"/>
-      <c r="AA91" s="46"/>
-      <c r="AB91" s="49" t="s">
+      <c r="T91" s="50"/>
+      <c r="U91" s="50"/>
+      <c r="V91" s="47"/>
+      <c r="W91" s="49"/>
+      <c r="X91" s="47"/>
+      <c r="Y91" s="49"/>
+      <c r="Z91" s="47"/>
+      <c r="AA91" s="49"/>
+      <c r="AB91" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AC91" s="49"/>
-      <c r="AD91" s="45" t="s">
+      <c r="AC91" s="50"/>
+      <c r="AD91" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AE91" s="46"/>
-      <c r="AF91" s="45" t="s">
+      <c r="AE91" s="49"/>
+      <c r="AF91" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="AG91" s="46"/>
+      <c r="AG91" s="49"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="7"/>
       <c r="AM91" s="6"/>
@@ -5939,16 +5947,16 @@
       <c r="AO91" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AP91" s="51" t="s">
+      <c r="AP91" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AQ91" s="52"/>
-      <c r="AR91" s="52"/>
-      <c r="AS91" s="52"/>
-      <c r="AT91" s="52"/>
-      <c r="AU91" s="52"/>
-      <c r="AV91" s="52"/>
-      <c r="AW91" s="53"/>
+      <c r="AQ91" s="55"/>
+      <c r="AR91" s="55"/>
+      <c r="AS91" s="55"/>
+      <c r="AT91" s="55"/>
+      <c r="AU91" s="55"/>
+      <c r="AV91" s="55"/>
+      <c r="AW91" s="56"/>
       <c r="AX91" s="42" t="s">
         <v>54</v>
       </c>
@@ -5963,23 +5971,23 @@
       </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="1"/>
-      <c r="S92" s="49" t="s">
+      <c r="S92" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="T92" s="49"/>
-      <c r="U92" s="49"/>
-      <c r="V92" s="45"/>
-      <c r="W92" s="46"/>
-      <c r="X92" s="45"/>
-      <c r="Y92" s="46"/>
-      <c r="Z92" s="45"/>
-      <c r="AA92" s="46"/>
-      <c r="AB92" s="49"/>
-      <c r="AC92" s="49"/>
-      <c r="AD92" s="45"/>
-      <c r="AE92" s="46"/>
-      <c r="AF92" s="45"/>
-      <c r="AG92" s="46"/>
+      <c r="T92" s="50"/>
+      <c r="U92" s="50"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="49"/>
+      <c r="X92" s="47"/>
+      <c r="Y92" s="49"/>
+      <c r="Z92" s="47"/>
+      <c r="AA92" s="49"/>
+      <c r="AB92" s="50"/>
+      <c r="AC92" s="50"/>
+      <c r="AD92" s="47"/>
+      <c r="AE92" s="49"/>
+      <c r="AF92" s="47"/>
+      <c r="AG92" s="49"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="7"/>
       <c r="AM92" s="6"/>
@@ -6007,23 +6015,23 @@
       </c>
       <c r="Q93" s="6"/>
       <c r="R93" s="1"/>
-      <c r="S93" s="49" t="s">
+      <c r="S93" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="T93" s="49"/>
-      <c r="U93" s="49"/>
-      <c r="V93" s="45"/>
-      <c r="W93" s="46"/>
-      <c r="X93" s="45"/>
-      <c r="Y93" s="46"/>
-      <c r="Z93" s="45"/>
-      <c r="AA93" s="46"/>
-      <c r="AB93" s="49"/>
-      <c r="AC93" s="49"/>
-      <c r="AD93" s="45"/>
-      <c r="AE93" s="46"/>
-      <c r="AF93" s="45"/>
-      <c r="AG93" s="46"/>
+      <c r="T93" s="50"/>
+      <c r="U93" s="50"/>
+      <c r="V93" s="47"/>
+      <c r="W93" s="49"/>
+      <c r="X93" s="47"/>
+      <c r="Y93" s="49"/>
+      <c r="Z93" s="47"/>
+      <c r="AA93" s="49"/>
+      <c r="AB93" s="50"/>
+      <c r="AC93" s="50"/>
+      <c r="AD93" s="47"/>
+      <c r="AE93" s="49"/>
+      <c r="AF93" s="47"/>
+      <c r="AG93" s="49"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="7"/>
       <c r="AM93" s="6"/>
@@ -6049,37 +6057,37 @@
       </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="1"/>
-      <c r="S94" s="57" t="s">
+      <c r="S94" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="T94" s="57"/>
-      <c r="U94" s="57"/>
-      <c r="V94" s="45"/>
-      <c r="W94" s="46"/>
-      <c r="X94" s="45"/>
-      <c r="Y94" s="46"/>
-      <c r="Z94" s="45"/>
-      <c r="AA94" s="46"/>
-      <c r="AB94" s="49"/>
-      <c r="AC94" s="49"/>
-      <c r="AD94" s="45"/>
-      <c r="AE94" s="46"/>
-      <c r="AF94" s="45"/>
-      <c r="AG94" s="46"/>
+      <c r="T94" s="60"/>
+      <c r="U94" s="60"/>
+      <c r="V94" s="47"/>
+      <c r="W94" s="49"/>
+      <c r="X94" s="47"/>
+      <c r="Y94" s="49"/>
+      <c r="Z94" s="47"/>
+      <c r="AA94" s="49"/>
+      <c r="AB94" s="50"/>
+      <c r="AC94" s="50"/>
+      <c r="AD94" s="47"/>
+      <c r="AE94" s="49"/>
+      <c r="AF94" s="47"/>
+      <c r="AG94" s="49"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="7"/>
       <c r="AM94" s="6"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
-      <c r="AP94" s="45" t="s">
+      <c r="AP94" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="AQ94" s="46"/>
+      <c r="AQ94" s="49"/>
       <c r="AR94" s="1"/>
-      <c r="AS94" s="45" t="s">
+      <c r="AS94" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AT94" s="46"/>
+      <c r="AT94" s="49"/>
       <c r="AU94" s="1"/>
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
@@ -6264,18 +6272,18 @@
         <v>120</v>
       </c>
       <c r="Q102" s="6"/>
-      <c r="R102" s="50" t="s">
+      <c r="R102" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="S102" s="50"/>
-      <c r="T102" s="50"/>
-      <c r="U102" s="45" t="s">
+      <c r="S102" s="46"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="V102" s="47"/>
-      <c r="W102" s="47"/>
-      <c r="X102" s="47"/>
-      <c r="Y102" s="47"/>
+      <c r="V102" s="48"/>
+      <c r="W102" s="48"/>
+      <c r="X102" s="48"/>
+      <c r="Y102" s="48"/>
       <c r="Z102" s="26" t="s">
         <v>54</v>
       </c>
@@ -6284,42 +6292,42 @@
         <v>85</v>
       </c>
       <c r="AC102" s="28"/>
-      <c r="AD102" s="45" t="s">
+      <c r="AD102" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="AE102" s="47"/>
-      <c r="AF102" s="47"/>
-      <c r="AG102" s="47"/>
-      <c r="AH102" s="47"/>
+      <c r="AE102" s="48"/>
+      <c r="AF102" s="48"/>
+      <c r="AG102" s="48"/>
+      <c r="AH102" s="48"/>
       <c r="AI102" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AK102" s="50" t="s">
+      <c r="AK102" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AL102" s="56"/>
-      <c r="AM102" s="45" t="s">
+      <c r="AL102" s="58"/>
+      <c r="AM102" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="AN102" s="47"/>
-      <c r="AO102" s="47"/>
-      <c r="AP102" s="47"/>
-      <c r="AQ102" s="47"/>
+      <c r="AN102" s="48"/>
+      <c r="AO102" s="48"/>
+      <c r="AP102" s="48"/>
+      <c r="AQ102" s="48"/>
       <c r="AR102" s="26" t="s">
         <v>54</v>
       </c>
       <c r="AS102" s="1"/>
-      <c r="AT102" s="50" t="s">
+      <c r="AT102" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="AU102" s="50"/>
-      <c r="AV102" s="45"/>
-      <c r="AW102" s="47"/>
-      <c r="AX102" s="46"/>
-      <c r="AZ102" s="45" t="s">
+      <c r="AU102" s="46"/>
+      <c r="AV102" s="47"/>
+      <c r="AW102" s="48"/>
+      <c r="AX102" s="49"/>
+      <c r="AZ102" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="BA102" s="46"/>
+      <c r="BA102" s="49"/>
       <c r="BB102" s="1"/>
       <c r="BC102" s="7"/>
       <c r="BE102" s="6"/>
@@ -6444,20 +6452,20 @@
         <v>147</v>
       </c>
       <c r="Q104" s="6"/>
-      <c r="R104" s="45" t="s">
+      <c r="R104" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="S104" s="46"/>
+      <c r="S104" s="49"/>
       <c r="T104" s="1"/>
-      <c r="U104" s="45" t="s">
+      <c r="U104" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="V104" s="46"/>
+      <c r="V104" s="49"/>
       <c r="W104" s="1"/>
-      <c r="X104" s="45" t="s">
+      <c r="X104" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="Y104" s="46"/>
+      <c r="Y104" s="49"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
@@ -6619,49 +6627,49 @@
       <c r="R106" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S106" s="45" t="s">
+      <c r="S106" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="T106" s="47"/>
-      <c r="U106" s="47"/>
-      <c r="V106" s="46"/>
-      <c r="W106" s="45" t="s">
+      <c r="T106" s="48"/>
+      <c r="U106" s="48"/>
+      <c r="V106" s="49"/>
+      <c r="W106" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="X106" s="47"/>
-      <c r="Y106" s="46"/>
-      <c r="Z106" s="45" t="s">
+      <c r="X106" s="48"/>
+      <c r="Y106" s="49"/>
+      <c r="Z106" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="AA106" s="46"/>
-      <c r="AB106" s="45" t="s">
+      <c r="AA106" s="49"/>
+      <c r="AB106" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="AC106" s="47"/>
-      <c r="AD106" s="46"/>
-      <c r="AE106" s="45" t="s">
+      <c r="AC106" s="48"/>
+      <c r="AD106" s="49"/>
+      <c r="AE106" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="AF106" s="47"/>
-      <c r="AG106" s="46"/>
-      <c r="AH106" s="45" t="s">
+      <c r="AF106" s="48"/>
+      <c r="AG106" s="49"/>
+      <c r="AH106" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="AI106" s="47"/>
-      <c r="AJ106" s="46"/>
-      <c r="AK106" s="45" t="s">
+      <c r="AI106" s="48"/>
+      <c r="AJ106" s="49"/>
+      <c r="AK106" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="AL106" s="47"/>
-      <c r="AM106" s="46"/>
-      <c r="AN106" s="45" t="s">
+      <c r="AL106" s="48"/>
+      <c r="AM106" s="49"/>
+      <c r="AN106" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="AO106" s="47"/>
-      <c r="AP106" s="47"/>
-      <c r="AQ106" s="47"/>
-      <c r="AR106" s="47"/>
-      <c r="AS106" s="46"/>
+      <c r="AO106" s="48"/>
+      <c r="AP106" s="48"/>
+      <c r="AQ106" s="48"/>
+      <c r="AR106" s="48"/>
+      <c r="AS106" s="49"/>
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
       <c r="AV106" s="1"/>
@@ -6769,13 +6777,13 @@
       </c>
       <c r="BK107" s="1"/>
       <c r="BL107" s="1"/>
-      <c r="BM107" s="45" t="s">
+      <c r="BM107" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="BN107" s="47"/>
-      <c r="BO107" s="47"/>
-      <c r="BP107" s="47"/>
-      <c r="BQ107" s="47"/>
+      <c r="BN107" s="48"/>
+      <c r="BO107" s="48"/>
+      <c r="BP107" s="48"/>
+      <c r="BQ107" s="48"/>
       <c r="BR107" s="32" t="s">
         <v>54</v>
       </c>
@@ -6873,21 +6881,21 @@
       <c r="BU108" s="1"/>
       <c r="BV108" s="7"/>
       <c r="BX108" s="6"/>
-      <c r="BY108" s="50" t="s">
+      <c r="BY108" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="BZ108" s="50"/>
-      <c r="CA108" s="50"/>
-      <c r="CB108" s="51" t="s">
+      <c r="BZ108" s="46"/>
+      <c r="CA108" s="46"/>
+      <c r="CB108" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="CC108" s="52"/>
-      <c r="CD108" s="52"/>
-      <c r="CE108" s="52"/>
-      <c r="CF108" s="52"/>
-      <c r="CG108" s="52"/>
-      <c r="CH108" s="52"/>
-      <c r="CI108" s="53"/>
+      <c r="CC108" s="55"/>
+      <c r="CD108" s="55"/>
+      <c r="CE108" s="55"/>
+      <c r="CF108" s="55"/>
+      <c r="CG108" s="55"/>
+      <c r="CH108" s="55"/>
+      <c r="CI108" s="56"/>
       <c r="CJ108" s="16" t="s">
         <v>54</v>
       </c>
@@ -7037,20 +7045,20 @@
       <c r="BU110" s="1"/>
       <c r="BV110" s="7"/>
       <c r="BX110" s="6"/>
-      <c r="BY110" s="50" t="s">
+      <c r="BY110" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="BZ110" s="56"/>
-      <c r="CA110" s="51" t="s">
+      <c r="BZ110" s="58"/>
+      <c r="CA110" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="CB110" s="52"/>
-      <c r="CC110" s="52"/>
-      <c r="CD110" s="52"/>
-      <c r="CE110" s="52"/>
-      <c r="CF110" s="52"/>
-      <c r="CG110" s="52"/>
-      <c r="CH110" s="53"/>
+      <c r="CB110" s="55"/>
+      <c r="CC110" s="55"/>
+      <c r="CD110" s="55"/>
+      <c r="CE110" s="55"/>
+      <c r="CF110" s="55"/>
+      <c r="CG110" s="55"/>
+      <c r="CH110" s="56"/>
       <c r="CI110" s="16" t="s">
         <v>54</v>
       </c>
@@ -7206,20 +7214,20 @@
       <c r="BU112" s="1"/>
       <c r="BV112" s="7"/>
       <c r="BX112" s="6"/>
-      <c r="BY112" s="50" t="s">
+      <c r="BY112" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="BZ112" s="56"/>
-      <c r="CA112" s="51" t="s">
+      <c r="BZ112" s="58"/>
+      <c r="CA112" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="CB112" s="52"/>
-      <c r="CC112" s="52"/>
-      <c r="CD112" s="52"/>
-      <c r="CE112" s="52"/>
-      <c r="CF112" s="52"/>
-      <c r="CG112" s="52"/>
-      <c r="CH112" s="53"/>
+      <c r="CB112" s="55"/>
+      <c r="CC112" s="55"/>
+      <c r="CD112" s="55"/>
+      <c r="CE112" s="55"/>
+      <c r="CF112" s="55"/>
+      <c r="CG112" s="55"/>
+      <c r="CH112" s="56"/>
       <c r="CI112" s="26" t="s">
         <v>54</v>
       </c>
@@ -7468,10 +7476,10 @@
       <c r="BM115" s="8"/>
       <c r="BN115" s="2"/>
       <c r="BO115" s="9"/>
-      <c r="BP115" s="45" t="s">
+      <c r="BP115" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="BQ115" s="46"/>
+      <c r="BQ115" s="49"/>
       <c r="BR115" s="1"/>
       <c r="BS115" s="1"/>
       <c r="BT115" s="1"/>
@@ -7549,15 +7557,15 @@
       <c r="BV116" s="7"/>
       <c r="BX116" s="6"/>
       <c r="BY116" s="1"/>
-      <c r="BZ116" s="45" t="s">
+      <c r="BZ116" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="CA116" s="46"/>
+      <c r="CA116" s="49"/>
       <c r="CB116" s="1"/>
-      <c r="CC116" s="45" t="s">
+      <c r="CC116" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="CD116" s="46"/>
+      <c r="CD116" s="49"/>
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
       <c r="CG116" s="1"/>
@@ -7613,14 +7621,14 @@
       <c r="BB117" s="1"/>
       <c r="BC117" s="7"/>
       <c r="BE117" s="6"/>
-      <c r="BH117" s="45" t="s">
+      <c r="BH117" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="BI117" s="46"/>
-      <c r="BK117" s="45" t="s">
+      <c r="BI117" s="49"/>
+      <c r="BK117" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="BL117" s="46"/>
+      <c r="BL117" s="49"/>
       <c r="BR117" s="1"/>
       <c r="BS117" s="1"/>
       <c r="BT117" s="1"/>
@@ -7835,22 +7843,22 @@
         <v>164</v>
       </c>
       <c r="S126" s="1"/>
-      <c r="T126" s="49"/>
-      <c r="U126" s="49"/>
-      <c r="V126" s="49"/>
+      <c r="T126" s="50"/>
+      <c r="U126" s="50"/>
+      <c r="V126" s="50"/>
       <c r="W126" s="1"/>
       <c r="X126" s="1" t="s">
         <v>166</v>
       </c>
       <c r="Y126" s="1"/>
-      <c r="Z126" s="49"/>
-      <c r="AA126" s="49"/>
-      <c r="AB126" s="49"/>
+      <c r="Z126" s="50"/>
+      <c r="AA126" s="50"/>
+      <c r="AB126" s="50"/>
       <c r="AC126" s="1"/>
-      <c r="AD126" s="45" t="s">
+      <c r="AD126" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="AE126" s="46"/>
+      <c r="AE126" s="49"/>
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
@@ -7923,20 +7931,20 @@
         <v>222</v>
       </c>
       <c r="Q128" s="6"/>
-      <c r="R128" s="49" t="s">
+      <c r="R128" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="S128" s="49"/>
+      <c r="S128" s="50"/>
       <c r="T128" s="1"/>
-      <c r="U128" s="49" t="s">
+      <c r="U128" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="V128" s="49"/>
+      <c r="V128" s="50"/>
       <c r="W128" s="1"/>
-      <c r="X128" s="49" t="s">
+      <c r="X128" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="Y128" s="49"/>
+      <c r="Y128" s="50"/>
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
@@ -8057,10 +8065,10 @@
         <v>205</v>
       </c>
       <c r="AN129" s="1"/>
-      <c r="AO129" s="49"/>
-      <c r="AP129" s="49"/>
-      <c r="AQ129" s="49"/>
-      <c r="AR129" s="49"/>
+      <c r="AO129" s="50"/>
+      <c r="AP129" s="50"/>
+      <c r="AQ129" s="50"/>
+      <c r="AR129" s="50"/>
       <c r="AS129" s="26" t="s">
         <v>54</v>
       </c>
@@ -8155,32 +8163,32 @@
       <c r="R130" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="S130" s="45" t="s">
+      <c r="S130" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="T130" s="46"/>
-      <c r="U130" s="45" t="s">
+      <c r="T130" s="49"/>
+      <c r="U130" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="V130" s="46"/>
-      <c r="W130" s="45" t="s">
+      <c r="V130" s="49"/>
+      <c r="W130" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="X130" s="46"/>
-      <c r="Y130" s="45" t="s">
+      <c r="X130" s="49"/>
+      <c r="Y130" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="Z130" s="46"/>
-      <c r="AA130" s="45" t="s">
+      <c r="Z130" s="49"/>
+      <c r="AA130" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="AB130" s="47"/>
-      <c r="AC130" s="47"/>
-      <c r="AD130" s="47"/>
-      <c r="AE130" s="47"/>
-      <c r="AF130" s="47"/>
-      <c r="AG130" s="47"/>
-      <c r="AH130" s="46"/>
+      <c r="AB130" s="48"/>
+      <c r="AC130" s="48"/>
+      <c r="AD130" s="48"/>
+      <c r="AE130" s="48"/>
+      <c r="AF130" s="48"/>
+      <c r="AG130" s="48"/>
+      <c r="AH130" s="49"/>
       <c r="AI130" s="7"/>
       <c r="AL130" s="6"/>
       <c r="AV130" s="6"/>
@@ -8263,34 +8271,34 @@
     <row r="131" spans="4:119" ht="18" customHeight="1">
       <c r="Q131" s="6"/>
       <c r="R131" s="15"/>
-      <c r="S131" s="45"/>
-      <c r="T131" s="46"/>
-      <c r="U131" s="45"/>
-      <c r="V131" s="46" t="s">
+      <c r="S131" s="47"/>
+      <c r="T131" s="49"/>
+      <c r="U131" s="47"/>
+      <c r="V131" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="W131" s="45"/>
-      <c r="X131" s="46"/>
-      <c r="Y131" s="45"/>
-      <c r="Z131" s="46" t="s">
+      <c r="W131" s="47"/>
+      <c r="X131" s="49"/>
+      <c r="Y131" s="47"/>
+      <c r="Z131" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="AA131" s="49" t="s">
+      <c r="AA131" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="AB131" s="49"/>
-      <c r="AC131" s="49" t="s">
+      <c r="AB131" s="50"/>
+      <c r="AC131" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="AD131" s="49"/>
-      <c r="AE131" s="49" t="s">
+      <c r="AD131" s="50"/>
+      <c r="AE131" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="AF131" s="49"/>
-      <c r="AG131" s="49" t="s">
+      <c r="AF131" s="50"/>
+      <c r="AG131" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="AH131" s="49"/>
+      <c r="AH131" s="50"/>
       <c r="AI131" s="7"/>
       <c r="AL131" s="6"/>
       <c r="AM131" s="1" t="s">
@@ -8304,41 +8312,43 @@
       <c r="AS131" s="13"/>
       <c r="AU131" s="7"/>
       <c r="AX131" s="6"/>
-      <c r="AY131" s="49" t="s">
+      <c r="AY131" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="AZ131" s="49"/>
-      <c r="BA131" s="49" t="s">
+      <c r="AZ131" s="50"/>
+      <c r="BA131" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="BB131" s="49"/>
-      <c r="BC131" s="49"/>
-      <c r="BD131" s="49" t="s">
+      <c r="BB131" s="50"/>
+      <c r="BC131" s="50"/>
+      <c r="BD131" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="BE131" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="BE131" s="49"/>
-      <c r="BF131" s="49"/>
-      <c r="BG131" s="45" t="s">
+      <c r="BF131" s="23"/>
+      <c r="BG131" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="BH131" s="46"/>
+      <c r="BH131" s="49"/>
       <c r="BI131" s="1"/>
       <c r="BJ131" s="1"/>
       <c r="BK131" s="7"/>
       <c r="BM131" s="6"/>
       <c r="BN131" s="1"/>
-      <c r="BO131" s="45" t="s">
+      <c r="BO131" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="BP131" s="46"/>
-      <c r="BQ131" s="45" t="s">
+      <c r="BP131" s="49"/>
+      <c r="BQ131" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="BR131" s="46"/>
-      <c r="BS131" s="45" t="s">
+      <c r="BR131" s="49"/>
+      <c r="BS131" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="BT131" s="46"/>
+      <c r="BT131" s="49"/>
       <c r="BU131" s="1"/>
       <c r="BV131" s="1"/>
       <c r="BW131" s="1"/>
@@ -8361,12 +8371,12 @@
       <c r="CP131" s="9"/>
       <c r="CQ131" s="8"/>
       <c r="CR131" s="9"/>
-      <c r="CS131" s="45"/>
-      <c r="CT131" s="46"/>
-      <c r="CU131" s="45" t="s">
+      <c r="CS131" s="47"/>
+      <c r="CT131" s="49"/>
+      <c r="CU131" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="CV131" s="46"/>
+      <c r="CV131" s="49"/>
       <c r="CW131" s="1"/>
       <c r="CX131" s="1"/>
       <c r="CY131" s="7"/>
@@ -8392,24 +8402,24 @@
       </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="15"/>
-      <c r="S132" s="45"/>
-      <c r="T132" s="46"/>
-      <c r="U132" s="45"/>
-      <c r="V132" s="46" t="s">
+      <c r="S132" s="47"/>
+      <c r="T132" s="49"/>
+      <c r="U132" s="47"/>
+      <c r="V132" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="W132" s="45"/>
-      <c r="X132" s="46"/>
-      <c r="Y132" s="45"/>
-      <c r="Z132" s="46"/>
-      <c r="AA132" s="49"/>
-      <c r="AB132" s="49"/>
-      <c r="AC132" s="49"/>
-      <c r="AD132" s="49"/>
-      <c r="AE132" s="49"/>
-      <c r="AF132" s="49"/>
-      <c r="AG132" s="49"/>
-      <c r="AH132" s="49"/>
+      <c r="W132" s="47"/>
+      <c r="X132" s="49"/>
+      <c r="Y132" s="47"/>
+      <c r="Z132" s="49"/>
+      <c r="AA132" s="50"/>
+      <c r="AB132" s="50"/>
+      <c r="AC132" s="50"/>
+      <c r="AD132" s="50"/>
+      <c r="AE132" s="50"/>
+      <c r="AF132" s="50"/>
+      <c r="AG132" s="50"/>
+      <c r="AH132" s="50"/>
       <c r="AI132" s="7"/>
       <c r="AL132" s="6"/>
       <c r="AM132" s="1"/>
@@ -8422,36 +8432,36 @@
       <c r="AT132" s="1"/>
       <c r="AU132" s="7"/>
       <c r="AX132" s="6"/>
-      <c r="AY132" s="49">
+      <c r="AY132" s="50">
         <v>1</v>
       </c>
-      <c r="AZ132" s="49"/>
-      <c r="BA132" s="58" t="s">
+      <c r="AZ132" s="50"/>
+      <c r="BA132" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="BB132" s="58"/>
-      <c r="BC132" s="58"/>
-      <c r="BD132" s="49" t="s">
+      <c r="BB132" s="57"/>
+      <c r="BC132" s="57"/>
+      <c r="BD132" s="15"/>
+      <c r="BE132" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="BE132" s="49"/>
-      <c r="BF132" s="49"/>
-      <c r="BG132" s="45" t="s">
+      <c r="BF132" s="23"/>
+      <c r="BG132" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="BH132" s="46"/>
+      <c r="BH132" s="49"/>
       <c r="BI132" s="23" t="s">
         <v>206</v>
       </c>
       <c r="BK132" s="7"/>
       <c r="BM132" s="6"/>
       <c r="BN132" s="1"/>
-      <c r="BO132" s="45"/>
-      <c r="BP132" s="46"/>
-      <c r="BQ132" s="45"/>
-      <c r="BR132" s="46"/>
-      <c r="BS132" s="45"/>
-      <c r="BT132" s="46"/>
+      <c r="BO132" s="47"/>
+      <c r="BP132" s="49"/>
+      <c r="BQ132" s="47"/>
+      <c r="BR132" s="49"/>
+      <c r="BS132" s="47"/>
+      <c r="BT132" s="49"/>
       <c r="BU132" s="1"/>
       <c r="BV132" s="1"/>
       <c r="BW132" s="1"/>
@@ -8475,12 +8485,12 @@
       <c r="CP132" s="9"/>
       <c r="CQ132" s="8"/>
       <c r="CR132" s="9"/>
-      <c r="CS132" s="45"/>
-      <c r="CT132" s="46"/>
-      <c r="CU132" s="45" t="s">
+      <c r="CS132" s="47"/>
+      <c r="CT132" s="49"/>
+      <c r="CU132" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="CV132" s="46"/>
+      <c r="CV132" s="49"/>
       <c r="CW132" s="1"/>
       <c r="CX132" s="1"/>
       <c r="CY132" s="7"/>
@@ -8504,22 +8514,22 @@
       </c>
       <c r="Q133" s="6"/>
       <c r="R133" s="15"/>
-      <c r="S133" s="45"/>
-      <c r="T133" s="46"/>
-      <c r="U133" s="45"/>
-      <c r="V133" s="46"/>
-      <c r="W133" s="45"/>
-      <c r="X133" s="46"/>
-      <c r="Y133" s="45"/>
-      <c r="Z133" s="46"/>
-      <c r="AA133" s="49"/>
-      <c r="AB133" s="49"/>
-      <c r="AC133" s="49"/>
-      <c r="AD133" s="49"/>
-      <c r="AE133" s="49"/>
-      <c r="AF133" s="49"/>
-      <c r="AG133" s="49"/>
-      <c r="AH133" s="49"/>
+      <c r="S133" s="47"/>
+      <c r="T133" s="49"/>
+      <c r="U133" s="47"/>
+      <c r="V133" s="49"/>
+      <c r="W133" s="47"/>
+      <c r="X133" s="49"/>
+      <c r="Y133" s="47"/>
+      <c r="Z133" s="49"/>
+      <c r="AA133" s="50"/>
+      <c r="AB133" s="50"/>
+      <c r="AC133" s="50"/>
+      <c r="AD133" s="50"/>
+      <c r="AE133" s="50"/>
+      <c r="AF133" s="50"/>
+      <c r="AG133" s="50"/>
+      <c r="AH133" s="50"/>
       <c r="AI133" s="7"/>
       <c r="AL133" s="6"/>
       <c r="AM133" s="1" t="s">
@@ -8533,32 +8543,34 @@
       <c r="AS133" s="5"/>
       <c r="AU133" s="7"/>
       <c r="AX133" s="6"/>
-      <c r="AY133" s="49">
+      <c r="AY133" s="50">
         <v>2</v>
       </c>
-      <c r="AZ133" s="49"/>
-      <c r="BA133" s="49" t="s">
+      <c r="AZ133" s="50"/>
+      <c r="BA133" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="BB133" s="49"/>
-      <c r="BC133" s="49"/>
-      <c r="BD133" s="49"/>
-      <c r="BE133" s="49"/>
-      <c r="BF133" s="49"/>
-      <c r="BG133" s="45"/>
-      <c r="BH133" s="46"/>
+      <c r="BB133" s="50"/>
+      <c r="BC133" s="50"/>
+      <c r="BD133" s="15"/>
+      <c r="BE133" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF133" s="23"/>
+      <c r="BG133" s="47"/>
+      <c r="BH133" s="49"/>
       <c r="BI133" s="23" t="s">
         <v>207</v>
       </c>
       <c r="BK133" s="7"/>
       <c r="BM133" s="6"/>
       <c r="BN133" s="1"/>
-      <c r="BO133" s="45"/>
-      <c r="BP133" s="46"/>
-      <c r="BQ133" s="45"/>
-      <c r="BR133" s="46"/>
-      <c r="BS133" s="45"/>
-      <c r="BT133" s="46"/>
+      <c r="BO133" s="47"/>
+      <c r="BP133" s="49"/>
+      <c r="BQ133" s="47"/>
+      <c r="BR133" s="49"/>
+      <c r="BS133" s="47"/>
+      <c r="BT133" s="49"/>
       <c r="BU133" s="1"/>
       <c r="BV133" s="1" t="s">
         <v>190</v>
@@ -8611,22 +8623,22 @@
       </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="15"/>
-      <c r="S134" s="45"/>
-      <c r="T134" s="46"/>
-      <c r="U134" s="45"/>
-      <c r="V134" s="46"/>
-      <c r="W134" s="45"/>
-      <c r="X134" s="46"/>
-      <c r="Y134" s="45"/>
-      <c r="Z134" s="46"/>
-      <c r="AA134" s="49"/>
-      <c r="AB134" s="49"/>
-      <c r="AC134" s="49"/>
-      <c r="AD134" s="49"/>
-      <c r="AE134" s="49"/>
-      <c r="AF134" s="49"/>
-      <c r="AG134" s="49"/>
-      <c r="AH134" s="49"/>
+      <c r="S134" s="47"/>
+      <c r="T134" s="49"/>
+      <c r="U134" s="47"/>
+      <c r="V134" s="49"/>
+      <c r="W134" s="47"/>
+      <c r="X134" s="49"/>
+      <c r="Y134" s="47"/>
+      <c r="Z134" s="49"/>
+      <c r="AA134" s="50"/>
+      <c r="AB134" s="50"/>
+      <c r="AC134" s="50"/>
+      <c r="AD134" s="50"/>
+      <c r="AE134" s="50"/>
+      <c r="AF134" s="50"/>
+      <c r="AG134" s="50"/>
+      <c r="AH134" s="50"/>
       <c r="AI134" s="7"/>
       <c r="AL134" s="6"/>
       <c r="AM134" s="1"/>
@@ -8638,29 +8650,31 @@
       <c r="AS134" s="7"/>
       <c r="AU134" s="7"/>
       <c r="AX134" s="6"/>
-      <c r="AY134" s="49">
+      <c r="AY134" s="50">
         <v>3</v>
       </c>
-      <c r="AZ134" s="49"/>
-      <c r="BA134" s="49"/>
-      <c r="BB134" s="49"/>
-      <c r="BC134" s="49"/>
-      <c r="BD134" s="49"/>
-      <c r="BE134" s="49"/>
-      <c r="BF134" s="49"/>
-      <c r="BG134" s="45"/>
-      <c r="BH134" s="46"/>
+      <c r="AZ134" s="50"/>
+      <c r="BA134" s="50"/>
+      <c r="BB134" s="50"/>
+      <c r="BC134" s="50"/>
+      <c r="BD134" s="15"/>
+      <c r="BE134" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF134" s="23"/>
+      <c r="BG134" s="47"/>
+      <c r="BH134" s="49"/>
       <c r="BI134" s="1"/>
       <c r="BJ134" s="1"/>
       <c r="BK134" s="7"/>
       <c r="BM134" s="6"/>
       <c r="BN134" s="1"/>
-      <c r="BO134" s="45"/>
-      <c r="BP134" s="46"/>
-      <c r="BQ134" s="45"/>
-      <c r="BR134" s="46"/>
-      <c r="BS134" s="45"/>
-      <c r="BT134" s="46"/>
+      <c r="BO134" s="47"/>
+      <c r="BP134" s="49"/>
+      <c r="BQ134" s="47"/>
+      <c r="BR134" s="49"/>
+      <c r="BS134" s="47"/>
+      <c r="BT134" s="49"/>
       <c r="BU134" s="1"/>
       <c r="BV134" s="1" t="s">
         <v>229</v>
@@ -8683,15 +8697,15 @@
       <c r="CK134" s="1"/>
       <c r="CL134" s="1"/>
       <c r="CM134" s="6"/>
-      <c r="CN134" s="45" t="s">
+      <c r="CN134" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="CO134" s="46"/>
+      <c r="CO134" s="49"/>
       <c r="CP134" s="1"/>
-      <c r="CQ134" s="45" t="s">
+      <c r="CQ134" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="CR134" s="46"/>
+      <c r="CR134" s="49"/>
       <c r="CS134" s="1"/>
       <c r="CT134" s="1"/>
       <c r="CU134" s="1"/>
@@ -8721,22 +8735,22 @@
       </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="15"/>
-      <c r="S135" s="45"/>
-      <c r="T135" s="46"/>
-      <c r="U135" s="45"/>
-      <c r="V135" s="46"/>
-      <c r="W135" s="45"/>
-      <c r="X135" s="46"/>
-      <c r="Y135" s="45"/>
-      <c r="Z135" s="46"/>
-      <c r="AA135" s="49"/>
-      <c r="AB135" s="49"/>
-      <c r="AC135" s="49"/>
-      <c r="AD135" s="49"/>
-      <c r="AE135" s="49"/>
-      <c r="AF135" s="49"/>
-      <c r="AG135" s="49"/>
-      <c r="AH135" s="49"/>
+      <c r="S135" s="47"/>
+      <c r="T135" s="49"/>
+      <c r="U135" s="47"/>
+      <c r="V135" s="49"/>
+      <c r="W135" s="47"/>
+      <c r="X135" s="49"/>
+      <c r="Y135" s="47"/>
+      <c r="Z135" s="49"/>
+      <c r="AA135" s="50"/>
+      <c r="AB135" s="50"/>
+      <c r="AC135" s="50"/>
+      <c r="AD135" s="50"/>
+      <c r="AE135" s="50"/>
+      <c r="AF135" s="50"/>
+      <c r="AG135" s="50"/>
+      <c r="AH135" s="50"/>
       <c r="AI135" s="7"/>
       <c r="AL135" s="6"/>
       <c r="AM135" s="1"/>
@@ -8823,22 +8837,22 @@
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="15"/>
-      <c r="S136" s="45"/>
-      <c r="T136" s="46"/>
-      <c r="U136" s="45"/>
-      <c r="V136" s="46"/>
-      <c r="W136" s="45"/>
-      <c r="X136" s="46"/>
-      <c r="Y136" s="45"/>
-      <c r="Z136" s="46"/>
-      <c r="AA136" s="49"/>
-      <c r="AB136" s="49"/>
-      <c r="AC136" s="49"/>
-      <c r="AD136" s="49"/>
-      <c r="AE136" s="49"/>
-      <c r="AF136" s="49"/>
-      <c r="AG136" s="49"/>
-      <c r="AH136" s="49"/>
+      <c r="S136" s="47"/>
+      <c r="T136" s="49"/>
+      <c r="U136" s="47"/>
+      <c r="V136" s="49"/>
+      <c r="W136" s="47"/>
+      <c r="X136" s="49"/>
+      <c r="Y136" s="47"/>
+      <c r="Z136" s="49"/>
+      <c r="AA136" s="50"/>
+      <c r="AB136" s="50"/>
+      <c r="AC136" s="50"/>
+      <c r="AD136" s="50"/>
+      <c r="AE136" s="50"/>
+      <c r="AF136" s="50"/>
+      <c r="AG136" s="50"/>
+      <c r="AH136" s="50"/>
       <c r="AI136" s="7"/>
       <c r="AL136" s="6"/>
       <c r="AM136" s="1"/>
@@ -8853,15 +8867,15 @@
       <c r="AX136" s="6"/>
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
-      <c r="BA136" s="45" t="s">
+      <c r="BA136" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="BB136" s="46"/>
+      <c r="BB136" s="49"/>
       <c r="BC136" s="1"/>
-      <c r="BD136" s="45" t="s">
+      <c r="BD136" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="BE136" s="46"/>
+      <c r="BE136" s="49"/>
       <c r="BF136" s="1"/>
       <c r="BG136" s="1"/>
       <c r="BH136" s="1"/>
@@ -8871,10 +8885,10 @@
       <c r="BM136" s="6"/>
       <c r="BN136" s="1"/>
       <c r="BO136" s="1"/>
-      <c r="BP136" s="45" t="s">
+      <c r="BP136" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="BQ136" s="46"/>
+      <c r="BQ136" s="49"/>
       <c r="BR136" s="1"/>
       <c r="BS136" s="1"/>
       <c r="BT136" s="1"/>
@@ -8909,24 +8923,24 @@
       <c r="CX136" s="2"/>
       <c r="CY136" s="9"/>
       <c r="DC136" s="6"/>
-      <c r="DD136" s="49" t="s">
+      <c r="DD136" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="DE136" s="49"/>
-      <c r="DF136" s="49" t="s">
+      <c r="DE136" s="50"/>
+      <c r="DF136" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="DG136" s="49"/>
-      <c r="DH136" s="49"/>
-      <c r="DI136" s="49" t="s">
+      <c r="DG136" s="50"/>
+      <c r="DH136" s="50"/>
+      <c r="DI136" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="DJ136" s="49"/>
-      <c r="DK136" s="49"/>
-      <c r="DL136" s="45" t="s">
+      <c r="DJ136" s="50"/>
+      <c r="DK136" s="50"/>
+      <c r="DL136" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="DM136" s="46"/>
+      <c r="DM136" s="49"/>
       <c r="DN136" s="1"/>
       <c r="DO136" s="7"/>
     </row>
@@ -8936,34 +8950,34 @@
       </c>
       <c r="Q137" s="6"/>
       <c r="R137" s="15"/>
-      <c r="S137" s="45"/>
-      <c r="T137" s="46"/>
-      <c r="U137" s="45"/>
-      <c r="V137" s="46"/>
-      <c r="W137" s="45"/>
-      <c r="X137" s="46"/>
-      <c r="Y137" s="45"/>
-      <c r="Z137" s="46"/>
-      <c r="AA137" s="49"/>
-      <c r="AB137" s="49"/>
-      <c r="AC137" s="49"/>
-      <c r="AD137" s="49"/>
-      <c r="AE137" s="49"/>
-      <c r="AF137" s="49"/>
-      <c r="AG137" s="49"/>
-      <c r="AH137" s="49"/>
+      <c r="S137" s="47"/>
+      <c r="T137" s="49"/>
+      <c r="U137" s="47"/>
+      <c r="V137" s="49"/>
+      <c r="W137" s="47"/>
+      <c r="X137" s="49"/>
+      <c r="Y137" s="47"/>
+      <c r="Z137" s="49"/>
+      <c r="AA137" s="50"/>
+      <c r="AB137" s="50"/>
+      <c r="AC137" s="50"/>
+      <c r="AD137" s="50"/>
+      <c r="AE137" s="50"/>
+      <c r="AF137" s="50"/>
+      <c r="AG137" s="50"/>
+      <c r="AH137" s="50"/>
       <c r="AI137" s="7"/>
       <c r="AL137" s="6"/>
       <c r="AM137" s="1"/>
-      <c r="AN137" s="45" t="s">
+      <c r="AN137" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AO137" s="46"/>
+      <c r="AO137" s="49"/>
       <c r="AP137" s="1"/>
-      <c r="AQ137" s="45" t="s">
+      <c r="AQ137" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AR137" s="46"/>
+      <c r="AR137" s="49"/>
       <c r="AS137" s="1"/>
       <c r="AT137" s="1"/>
       <c r="AU137" s="7"/>
@@ -9008,24 +9022,24 @@
       <c r="CL137" s="1"/>
       <c r="CM137" s="1"/>
       <c r="DC137" s="6"/>
-      <c r="DD137" s="49">
+      <c r="DD137" s="50">
         <v>1</v>
       </c>
-      <c r="DE137" s="49"/>
-      <c r="DF137" s="49" t="s">
+      <c r="DE137" s="50"/>
+      <c r="DF137" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="DG137" s="49"/>
-      <c r="DH137" s="49"/>
-      <c r="DI137" s="49" t="s">
+      <c r="DG137" s="50"/>
+      <c r="DH137" s="50"/>
+      <c r="DI137" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="DJ137" s="49"/>
-      <c r="DK137" s="49"/>
-      <c r="DL137" s="45" t="s">
+      <c r="DJ137" s="50"/>
+      <c r="DK137" s="50"/>
+      <c r="DL137" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="DM137" s="46"/>
+      <c r="DM137" s="49"/>
       <c r="DN137" s="1"/>
       <c r="DO137" s="7"/>
     </row>
@@ -9038,22 +9052,22 @@
       </c>
       <c r="Q138" s="6"/>
       <c r="R138" s="15"/>
-      <c r="S138" s="45"/>
-      <c r="T138" s="46"/>
-      <c r="U138" s="45"/>
-      <c r="V138" s="46"/>
-      <c r="W138" s="45"/>
-      <c r="X138" s="46"/>
-      <c r="Y138" s="45"/>
-      <c r="Z138" s="46"/>
-      <c r="AA138" s="49"/>
-      <c r="AB138" s="49"/>
-      <c r="AC138" s="49"/>
-      <c r="AD138" s="49"/>
-      <c r="AE138" s="49"/>
-      <c r="AF138" s="49"/>
-      <c r="AG138" s="49"/>
-      <c r="AH138" s="49"/>
+      <c r="S138" s="47"/>
+      <c r="T138" s="49"/>
+      <c r="U138" s="47"/>
+      <c r="V138" s="49"/>
+      <c r="W138" s="47"/>
+      <c r="X138" s="49"/>
+      <c r="Y138" s="47"/>
+      <c r="Z138" s="49"/>
+      <c r="AA138" s="50"/>
+      <c r="AB138" s="50"/>
+      <c r="AC138" s="50"/>
+      <c r="AD138" s="50"/>
+      <c r="AE138" s="50"/>
+      <c r="AF138" s="50"/>
+      <c r="AG138" s="50"/>
+      <c r="AH138" s="50"/>
       <c r="AI138" s="7"/>
       <c r="AL138" s="8"/>
       <c r="AM138" s="2"/>
@@ -9101,20 +9115,20 @@
       <c r="CL138" s="1"/>
       <c r="CM138" s="1"/>
       <c r="DC138" s="6"/>
-      <c r="DD138" s="49">
+      <c r="DD138" s="50">
         <v>2</v>
       </c>
-      <c r="DE138" s="49"/>
-      <c r="DF138" s="49" t="s">
+      <c r="DE138" s="50"/>
+      <c r="DF138" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="DG138" s="49"/>
-      <c r="DH138" s="49"/>
-      <c r="DI138" s="49"/>
-      <c r="DJ138" s="49"/>
-      <c r="DK138" s="49"/>
-      <c r="DL138" s="45"/>
-      <c r="DM138" s="46"/>
+      <c r="DG138" s="50"/>
+      <c r="DH138" s="50"/>
+      <c r="DI138" s="50"/>
+      <c r="DJ138" s="50"/>
+      <c r="DK138" s="50"/>
+      <c r="DL138" s="47"/>
+      <c r="DM138" s="49"/>
       <c r="DN138" s="1"/>
       <c r="DO138" s="7"/>
     </row>
@@ -9171,33 +9185,33 @@
       <c r="BZ139" s="2"/>
       <c r="CA139" s="9"/>
       <c r="CC139" s="6"/>
-      <c r="CD139" s="45" t="s">
+      <c r="CD139" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="CE139" s="46"/>
+      <c r="CE139" s="49"/>
       <c r="CF139" s="1"/>
-      <c r="CG139" s="45" t="s">
+      <c r="CG139" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="CH139" s="46"/>
+      <c r="CH139" s="49"/>
       <c r="CI139" s="1"/>
       <c r="CJ139" s="7"/>
       <c r="CK139" s="1"/>
       <c r="CL139" s="1"/>
       <c r="CM139" s="1"/>
       <c r="DC139" s="6"/>
-      <c r="DD139" s="49">
+      <c r="DD139" s="50">
         <v>3</v>
       </c>
-      <c r="DE139" s="49"/>
-      <c r="DF139" s="49"/>
-      <c r="DG139" s="49"/>
-      <c r="DH139" s="49"/>
-      <c r="DI139" s="49"/>
-      <c r="DJ139" s="49"/>
-      <c r="DK139" s="49"/>
-      <c r="DL139" s="45"/>
-      <c r="DM139" s="46"/>
+      <c r="DE139" s="50"/>
+      <c r="DF139" s="50"/>
+      <c r="DG139" s="50"/>
+      <c r="DH139" s="50"/>
+      <c r="DI139" s="50"/>
+      <c r="DJ139" s="50"/>
+      <c r="DK139" s="50"/>
+      <c r="DL139" s="47"/>
+      <c r="DM139" s="49"/>
       <c r="DN139" s="1"/>
       <c r="DO139" s="7"/>
     </row>
@@ -9270,10 +9284,10 @@
       <c r="DG141" s="1"/>
       <c r="DH141" s="1"/>
       <c r="DI141" s="1"/>
-      <c r="DJ141" s="45" t="s">
+      <c r="DJ141" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="DK141" s="46"/>
+      <c r="DK141" s="49"/>
       <c r="DL141" s="1"/>
       <c r="DM141" s="1"/>
       <c r="DN141" s="1"/>
@@ -9427,10 +9441,10 @@
       <c r="R149" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="S149" s="49"/>
-      <c r="T149" s="49"/>
-      <c r="U149" s="49"/>
-      <c r="V149" s="49"/>
+      <c r="S149" s="50"/>
+      <c r="T149" s="50"/>
+      <c r="U149" s="50"/>
+      <c r="V149" s="50"/>
       <c r="W149" s="26" t="s">
         <v>54</v>
       </c>
@@ -9438,10 +9452,10 @@
       <c r="Y149" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="Z149" s="49"/>
-      <c r="AA149" s="49"/>
-      <c r="AB149" s="49"/>
-      <c r="AC149" s="49"/>
+      <c r="Z149" s="50"/>
+      <c r="AA149" s="50"/>
+      <c r="AB149" s="50"/>
+      <c r="AC149" s="50"/>
       <c r="AD149" s="26" t="s">
         <v>54</v>
       </c>
@@ -9578,10 +9592,10 @@
         <v>203</v>
       </c>
       <c r="AK152" s="1"/>
-      <c r="AL152" s="49"/>
-      <c r="AM152" s="49"/>
-      <c r="AN152" s="49"/>
-      <c r="AO152" s="49"/>
+      <c r="AL152" s="50"/>
+      <c r="AM152" s="50"/>
+      <c r="AN152" s="50"/>
+      <c r="AO152" s="50"/>
       <c r="AP152" s="26" t="s">
         <v>54</v>
       </c>
@@ -9600,30 +9614,30 @@
       <c r="R153" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="S153" s="45" t="s">
+      <c r="S153" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="T153" s="46"/>
-      <c r="U153" s="45" t="s">
+      <c r="T153" s="49"/>
+      <c r="U153" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="V153" s="46"/>
-      <c r="W153" s="45" t="s">
+      <c r="V153" s="49"/>
+      <c r="W153" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="X153" s="46"/>
-      <c r="Y153" s="45" t="s">
+      <c r="X153" s="49"/>
+      <c r="Y153" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="Z153" s="46"/>
-      <c r="AA153" s="45" t="s">
+      <c r="Z153" s="49"/>
+      <c r="AA153" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="AB153" s="46"/>
-      <c r="AC153" s="45" t="s">
+      <c r="AB153" s="49"/>
+      <c r="AC153" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="AD153" s="46"/>
+      <c r="AD153" s="49"/>
       <c r="AE153" s="7"/>
       <c r="AH153" s="1"/>
       <c r="AI153" s="6"/>
@@ -9647,12 +9661,12 @@
       </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="11"/>
-      <c r="S154" s="45"/>
-      <c r="T154" s="46"/>
-      <c r="U154" s="45"/>
-      <c r="V154" s="46"/>
-      <c r="W154" s="45"/>
-      <c r="X154" s="46"/>
+      <c r="S154" s="47"/>
+      <c r="T154" s="49"/>
+      <c r="U154" s="47"/>
+      <c r="V154" s="49"/>
+      <c r="W154" s="47"/>
+      <c r="X154" s="49"/>
       <c r="Y154" s="11"/>
       <c r="Z154" s="13"/>
       <c r="AA154" s="11"/>
@@ -9687,12 +9701,12 @@
     <row r="155" spans="1:60" ht="18" customHeight="1">
       <c r="Q155" s="6"/>
       <c r="R155" s="11"/>
-      <c r="S155" s="45"/>
-      <c r="T155" s="46"/>
-      <c r="U155" s="45"/>
-      <c r="V155" s="46"/>
-      <c r="W155" s="45"/>
-      <c r="X155" s="46"/>
+      <c r="S155" s="47"/>
+      <c r="T155" s="49"/>
+      <c r="U155" s="47"/>
+      <c r="V155" s="49"/>
+      <c r="W155" s="47"/>
+      <c r="X155" s="49"/>
       <c r="Y155" s="11"/>
       <c r="Z155" s="13"/>
       <c r="AA155" s="11"/>
@@ -9722,12 +9736,12 @@
       </c>
       <c r="Q156" s="6"/>
       <c r="R156" s="11"/>
-      <c r="S156" s="45"/>
-      <c r="T156" s="46"/>
-      <c r="U156" s="45"/>
-      <c r="V156" s="46"/>
-      <c r="W156" s="45"/>
-      <c r="X156" s="46"/>
+      <c r="S156" s="47"/>
+      <c r="T156" s="49"/>
+      <c r="U156" s="47"/>
+      <c r="V156" s="49"/>
+      <c r="W156" s="47"/>
+      <c r="X156" s="49"/>
       <c r="Y156" s="11"/>
       <c r="Z156" s="13"/>
       <c r="AA156" s="11"/>
@@ -9759,12 +9773,12 @@
       </c>
       <c r="Q157" s="6"/>
       <c r="R157" s="11"/>
-      <c r="S157" s="45"/>
-      <c r="T157" s="46"/>
-      <c r="U157" s="45"/>
-      <c r="V157" s="46"/>
-      <c r="W157" s="45"/>
-      <c r="X157" s="46"/>
+      <c r="S157" s="47"/>
+      <c r="T157" s="49"/>
+      <c r="U157" s="47"/>
+      <c r="V157" s="49"/>
+      <c r="W157" s="47"/>
+      <c r="X157" s="49"/>
       <c r="Y157" s="11"/>
       <c r="Z157" s="13"/>
       <c r="AA157" s="11"/>
@@ -9794,12 +9808,12 @@
       </c>
       <c r="Q158" s="6"/>
       <c r="R158" s="11"/>
-      <c r="S158" s="45"/>
-      <c r="T158" s="46"/>
-      <c r="U158" s="45"/>
-      <c r="V158" s="46"/>
-      <c r="W158" s="45"/>
-      <c r="X158" s="46"/>
+      <c r="S158" s="47"/>
+      <c r="T158" s="49"/>
+      <c r="U158" s="47"/>
+      <c r="V158" s="49"/>
+      <c r="W158" s="47"/>
+      <c r="X158" s="49"/>
       <c r="Y158" s="11"/>
       <c r="Z158" s="13"/>
       <c r="AA158" s="11"/>
@@ -9829,12 +9843,12 @@
       </c>
       <c r="Q159" s="6"/>
       <c r="R159" s="11"/>
-      <c r="S159" s="45"/>
-      <c r="T159" s="46"/>
-      <c r="U159" s="45"/>
-      <c r="V159" s="46"/>
-      <c r="W159" s="45"/>
-      <c r="X159" s="46"/>
+      <c r="S159" s="47"/>
+      <c r="T159" s="49"/>
+      <c r="U159" s="47"/>
+      <c r="V159" s="49"/>
+      <c r="W159" s="47"/>
+      <c r="X159" s="49"/>
       <c r="Y159" s="11"/>
       <c r="Z159" s="13"/>
       <c r="AA159" s="11"/>
@@ -9847,10 +9861,10 @@
       <c r="AJ159" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AL159" s="49"/>
-      <c r="AM159" s="49"/>
-      <c r="AN159" s="49"/>
-      <c r="AO159" s="49"/>
+      <c r="AL159" s="50"/>
+      <c r="AM159" s="50"/>
+      <c r="AN159" s="50"/>
+      <c r="AO159" s="50"/>
       <c r="AP159" s="26" t="s">
         <v>54</v>
       </c>
@@ -9864,12 +9878,12 @@
     <row r="160" spans="1:60" ht="18" customHeight="1">
       <c r="Q160" s="6"/>
       <c r="R160" s="11"/>
-      <c r="S160" s="45"/>
-      <c r="T160" s="46"/>
-      <c r="U160" s="45"/>
-      <c r="V160" s="46"/>
-      <c r="W160" s="45"/>
-      <c r="X160" s="46"/>
+      <c r="S160" s="47"/>
+      <c r="T160" s="49"/>
+      <c r="U160" s="47"/>
+      <c r="V160" s="49"/>
+      <c r="W160" s="47"/>
+      <c r="X160" s="49"/>
       <c r="Y160" s="11"/>
       <c r="Z160" s="13"/>
       <c r="AA160" s="11"/>
@@ -9904,10 +9918,10 @@
         <v>204</v>
       </c>
       <c r="AK161" s="1"/>
-      <c r="AL161" s="49"/>
-      <c r="AM161" s="49"/>
-      <c r="AN161" s="49"/>
-      <c r="AO161" s="49"/>
+      <c r="AL161" s="50"/>
+      <c r="AM161" s="50"/>
+      <c r="AN161" s="50"/>
+      <c r="AO161" s="50"/>
       <c r="AP161" s="26" t="s">
         <v>54</v>
       </c>
@@ -10418,10 +10432,10 @@
       <c r="R187" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="S187" s="49"/>
-      <c r="T187" s="49"/>
-      <c r="U187" s="49"/>
-      <c r="V187" s="49"/>
+      <c r="S187" s="50"/>
+      <c r="T187" s="50"/>
+      <c r="U187" s="50"/>
+      <c r="V187" s="50"/>
       <c r="W187" s="26" t="s">
         <v>54</v>
       </c>
@@ -10430,9 +10444,9 @@
         <v>179</v>
       </c>
       <c r="Z187" s="1"/>
-      <c r="AA187" s="49"/>
-      <c r="AB187" s="49"/>
-      <c r="AC187" s="49"/>
+      <c r="AA187" s="50"/>
+      <c r="AB187" s="50"/>
+      <c r="AC187" s="50"/>
       <c r="AD187" s="1"/>
       <c r="AE187" s="7"/>
     </row>
@@ -10470,23 +10484,23 @@
       <c r="R189" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="S189" s="49" t="s">
+      <c r="S189" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="T189" s="49"/>
-      <c r="U189" s="49" t="s">
+      <c r="T189" s="50"/>
+      <c r="U189" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="V189" s="49"/>
+      <c r="V189" s="50"/>
       <c r="W189" s="36" t="s">
         <v>187</v>
       </c>
       <c r="X189" s="36"/>
-      <c r="Y189" s="59" t="s">
+      <c r="Y189" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="Z189" s="60"/>
-      <c r="AA189" s="61"/>
+      <c r="Z189" s="52"/>
+      <c r="AA189" s="53"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
@@ -10532,18 +10546,18 @@
       <c r="AH190" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AI190" s="45" t="s">
+      <c r="AI190" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="AJ190" s="46"/>
+      <c r="AJ190" s="49"/>
       <c r="AL190" s="40"/>
       <c r="AM190" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AN190" s="45" t="s">
+      <c r="AN190" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="AO190" s="46"/>
+      <c r="AO190" s="49"/>
       <c r="AP190" s="1"/>
       <c r="AQ190" s="7"/>
     </row>
@@ -10568,12 +10582,12 @@
       <c r="AE191" s="7"/>
       <c r="AG191" s="6"/>
       <c r="AH191" s="41"/>
-      <c r="AI191" s="45"/>
-      <c r="AJ191" s="46"/>
+      <c r="AI191" s="47"/>
+      <c r="AJ191" s="49"/>
       <c r="AL191" s="40"/>
       <c r="AM191" s="41"/>
-      <c r="AN191" s="45"/>
-      <c r="AO191" s="46"/>
+      <c r="AN191" s="47"/>
+      <c r="AO191" s="49"/>
       <c r="AP191" s="1"/>
       <c r="AQ191" s="7"/>
     </row>
@@ -10598,12 +10612,12 @@
       <c r="AE192" s="7"/>
       <c r="AG192" s="6"/>
       <c r="AH192" s="41"/>
-      <c r="AI192" s="45"/>
-      <c r="AJ192" s="46"/>
+      <c r="AI192" s="47"/>
+      <c r="AJ192" s="49"/>
       <c r="AL192" s="40"/>
       <c r="AM192" s="41"/>
-      <c r="AN192" s="45"/>
-      <c r="AO192" s="46"/>
+      <c r="AN192" s="47"/>
+      <c r="AO192" s="49"/>
       <c r="AP192" s="1"/>
       <c r="AQ192" s="7"/>
     </row>
@@ -10779,7 +10793,397 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="418">
+  <mergeCells count="414">
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="BP115:BQ115"/>
+    <mergeCell ref="BH117:BI117"/>
+    <mergeCell ref="BK117:BL117"/>
+    <mergeCell ref="BM107:BQ107"/>
+    <mergeCell ref="U1:Y2"/>
+    <mergeCell ref="BI54:BJ54"/>
+    <mergeCell ref="BK54:BL54"/>
+    <mergeCell ref="BI55:BJ55"/>
+    <mergeCell ref="BK55:BL55"/>
+    <mergeCell ref="BI56:BJ56"/>
+    <mergeCell ref="BK56:BL56"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="BA66:BC66"/>
+    <mergeCell ref="BD66:BK66"/>
+    <mergeCell ref="BB70:BC70"/>
+    <mergeCell ref="BD70:BE70"/>
+    <mergeCell ref="BF70:BG70"/>
+    <mergeCell ref="AS94:AT94"/>
+    <mergeCell ref="AP94:AQ94"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="BC71:BD71"/>
+    <mergeCell ref="BE71:BF71"/>
+    <mergeCell ref="BG71:BH71"/>
+    <mergeCell ref="BC72:BD72"/>
+    <mergeCell ref="BB73:BC73"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:AB66"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AB90:AG90"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="AP91:AW91"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="AO90:AQ90"/>
+    <mergeCell ref="AR90:AY90"/>
+    <mergeCell ref="S88:U88"/>
+    <mergeCell ref="V88:AC88"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="S90:U90"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="AE78:AF78"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AD93:AE93"/>
+    <mergeCell ref="AF93:AG93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AD94:AE94"/>
+    <mergeCell ref="AF94:AG94"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="S92:U92"/>
+    <mergeCell ref="S93:U93"/>
+    <mergeCell ref="S94:U94"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AO38"/>
+    <mergeCell ref="S106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="Z106:AA106"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="AE106:AG106"/>
+    <mergeCell ref="AH106:AJ106"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="X48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="CA110:CH110"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AN37:AO37"/>
+    <mergeCell ref="AQ51:AR51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="BI58:BJ58"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="BI49:BJ49"/>
+    <mergeCell ref="BK49:BL49"/>
+    <mergeCell ref="BI50:BJ50"/>
+    <mergeCell ref="BK50:BL50"/>
+    <mergeCell ref="BI51:BJ51"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BI52:BJ52"/>
+    <mergeCell ref="BK52:BL52"/>
+    <mergeCell ref="AZ102:BA102"/>
+    <mergeCell ref="BY108:CA108"/>
+    <mergeCell ref="BC74:BD74"/>
+    <mergeCell ref="BC75:BD75"/>
+    <mergeCell ref="BN78:BO78"/>
+    <mergeCell ref="BI53:BJ53"/>
+    <mergeCell ref="BK53:BL53"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="Z126:AB126"/>
+    <mergeCell ref="AD126:AE126"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD102:AH102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="AM102:AQ102"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI32:AO32"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="BP136:BQ136"/>
+    <mergeCell ref="AE131:AF131"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AE133:AF133"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="W136:X136"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="AY134:AZ134"/>
+    <mergeCell ref="BA134:BC134"/>
+    <mergeCell ref="BA136:BB136"/>
+    <mergeCell ref="BD136:BE136"/>
+    <mergeCell ref="AG131:AH131"/>
+    <mergeCell ref="AG132:AH132"/>
+    <mergeCell ref="AG133:AH133"/>
+    <mergeCell ref="AG134:AH134"/>
+    <mergeCell ref="AG135:AH135"/>
+    <mergeCell ref="AG136:AH136"/>
+    <mergeCell ref="BG133:BH133"/>
+    <mergeCell ref="CA112:CH112"/>
+    <mergeCell ref="AN106:AS106"/>
+    <mergeCell ref="BA132:BC132"/>
+    <mergeCell ref="AY131:AZ131"/>
+    <mergeCell ref="BA131:BC131"/>
+    <mergeCell ref="AY132:AZ132"/>
+    <mergeCell ref="AY133:AZ133"/>
+    <mergeCell ref="BA133:BC133"/>
+    <mergeCell ref="BZ116:CA116"/>
+    <mergeCell ref="CC116:CD116"/>
+    <mergeCell ref="BO131:BP131"/>
+    <mergeCell ref="BQ131:BR131"/>
+    <mergeCell ref="BS131:BT131"/>
+    <mergeCell ref="BO132:BP132"/>
+    <mergeCell ref="BQ132:BR132"/>
+    <mergeCell ref="BS132:BT132"/>
+    <mergeCell ref="BY112:BZ112"/>
+    <mergeCell ref="CB108:CI108"/>
+    <mergeCell ref="BY110:BZ110"/>
+    <mergeCell ref="BG131:BH131"/>
+    <mergeCell ref="BG132:BH132"/>
+    <mergeCell ref="BG134:BH134"/>
+    <mergeCell ref="CN134:CO134"/>
+    <mergeCell ref="CQ134:CR134"/>
+    <mergeCell ref="BO133:BP133"/>
+    <mergeCell ref="BQ133:BR133"/>
+    <mergeCell ref="BS133:BT133"/>
+    <mergeCell ref="BO134:BP134"/>
+    <mergeCell ref="BQ134:BR134"/>
+    <mergeCell ref="BS134:BT134"/>
+    <mergeCell ref="CU131:CV131"/>
+    <mergeCell ref="CU132:CV132"/>
+    <mergeCell ref="CS131:CT131"/>
+    <mergeCell ref="CS132:CT132"/>
+    <mergeCell ref="DD136:DE136"/>
+    <mergeCell ref="DF136:DH136"/>
+    <mergeCell ref="DI136:DK136"/>
+    <mergeCell ref="CD139:CE139"/>
+    <mergeCell ref="CG139:CH139"/>
+    <mergeCell ref="DD139:DE139"/>
+    <mergeCell ref="DF139:DH139"/>
+    <mergeCell ref="DI139:DK139"/>
+    <mergeCell ref="DL136:DM136"/>
+    <mergeCell ref="DD137:DE137"/>
+    <mergeCell ref="DF137:DH137"/>
+    <mergeCell ref="DI137:DK137"/>
+    <mergeCell ref="DL137:DM137"/>
+    <mergeCell ref="DD138:DE138"/>
+    <mergeCell ref="DF138:DH138"/>
+    <mergeCell ref="DI138:DK138"/>
+    <mergeCell ref="DL138:DM138"/>
+    <mergeCell ref="DL139:DM139"/>
+    <mergeCell ref="DJ141:DK141"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="AA130:AH130"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="Y131:Z131"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
+    <mergeCell ref="Y132:Z132"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
+    <mergeCell ref="Y133:Z133"/>
+    <mergeCell ref="U134:V134"/>
+    <mergeCell ref="W134:X134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="W135:X135"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="U136:V136"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="U137:V137"/>
+    <mergeCell ref="W137:X137"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="U138:V138"/>
+    <mergeCell ref="W138:X138"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="AC138:AD138"/>
+    <mergeCell ref="AO129:AR129"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="AC133:AD133"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AG137:AH137"/>
+    <mergeCell ref="AG138:AH138"/>
+    <mergeCell ref="W158:X158"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="U153:V153"/>
+    <mergeCell ref="W153:X153"/>
+    <mergeCell ref="AA153:AB153"/>
+    <mergeCell ref="AC153:AD153"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="U154:V154"/>
+    <mergeCell ref="W154:X154"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
+    <mergeCell ref="AI192:AJ192"/>
+    <mergeCell ref="Y189:AA189"/>
+    <mergeCell ref="S187:V187"/>
+    <mergeCell ref="AA187:AC187"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="U189:V189"/>
+    <mergeCell ref="AI190:AJ190"/>
+    <mergeCell ref="AI191:AJ191"/>
+    <mergeCell ref="AN190:AO190"/>
+    <mergeCell ref="AN191:AO191"/>
+    <mergeCell ref="AN192:AO192"/>
     <mergeCell ref="AT102:AU102"/>
     <mergeCell ref="AV102:AX102"/>
     <mergeCell ref="Y153:Z153"/>
@@ -10804,400 +11208,6 @@
     <mergeCell ref="W157:X157"/>
     <mergeCell ref="S158:T158"/>
     <mergeCell ref="U158:V158"/>
-    <mergeCell ref="AI192:AJ192"/>
-    <mergeCell ref="Y189:AA189"/>
-    <mergeCell ref="S187:V187"/>
-    <mergeCell ref="AA187:AC187"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="U189:V189"/>
-    <mergeCell ref="AI190:AJ190"/>
-    <mergeCell ref="AI191:AJ191"/>
-    <mergeCell ref="AN190:AO190"/>
-    <mergeCell ref="AN191:AO191"/>
-    <mergeCell ref="AN192:AO192"/>
-    <mergeCell ref="W158:X158"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="U153:V153"/>
-    <mergeCell ref="W153:X153"/>
-    <mergeCell ref="AA153:AB153"/>
-    <mergeCell ref="AC153:AD153"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="U154:V154"/>
-    <mergeCell ref="W154:X154"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="AA138:AB138"/>
-    <mergeCell ref="AC138:AD138"/>
-    <mergeCell ref="AO129:AR129"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AA132:AB132"/>
-    <mergeCell ref="AC132:AD132"/>
-    <mergeCell ref="AA133:AB133"/>
-    <mergeCell ref="AC133:AD133"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="AC134:AD134"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="AE137:AF137"/>
-    <mergeCell ref="AE138:AF138"/>
-    <mergeCell ref="AG137:AH137"/>
-    <mergeCell ref="AG138:AH138"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="U138:V138"/>
-    <mergeCell ref="W138:X138"/>
-    <mergeCell ref="Y138:Z138"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="DL139:DM139"/>
-    <mergeCell ref="DJ141:DK141"/>
-    <mergeCell ref="U130:V130"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="AA130:AH130"/>
-    <mergeCell ref="U131:V131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="Y131:Z131"/>
-    <mergeCell ref="U132:V132"/>
-    <mergeCell ref="W132:X132"/>
-    <mergeCell ref="Y132:Z132"/>
-    <mergeCell ref="U133:V133"/>
-    <mergeCell ref="W133:X133"/>
-    <mergeCell ref="Y133:Z133"/>
-    <mergeCell ref="U134:V134"/>
-    <mergeCell ref="W134:X134"/>
-    <mergeCell ref="Y134:Z134"/>
-    <mergeCell ref="U135:V135"/>
-    <mergeCell ref="W135:X135"/>
-    <mergeCell ref="Y135:Z135"/>
-    <mergeCell ref="U136:V136"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="U137:V137"/>
-    <mergeCell ref="W137:X137"/>
-    <mergeCell ref="DL136:DM136"/>
-    <mergeCell ref="DD137:DE137"/>
-    <mergeCell ref="DF137:DH137"/>
-    <mergeCell ref="DI137:DK137"/>
-    <mergeCell ref="DL137:DM137"/>
-    <mergeCell ref="DD138:DE138"/>
-    <mergeCell ref="DF138:DH138"/>
-    <mergeCell ref="DI138:DK138"/>
-    <mergeCell ref="DL138:DM138"/>
-    <mergeCell ref="CU131:CV131"/>
-    <mergeCell ref="CU132:CV132"/>
-    <mergeCell ref="CS131:CT131"/>
-    <mergeCell ref="CS132:CT132"/>
-    <mergeCell ref="DD136:DE136"/>
-    <mergeCell ref="DF136:DH136"/>
-    <mergeCell ref="DI136:DK136"/>
-    <mergeCell ref="CD139:CE139"/>
-    <mergeCell ref="CG139:CH139"/>
-    <mergeCell ref="DD139:DE139"/>
-    <mergeCell ref="DF139:DH139"/>
-    <mergeCell ref="DI139:DK139"/>
-    <mergeCell ref="BG134:BH134"/>
-    <mergeCell ref="CN134:CO134"/>
-    <mergeCell ref="CQ134:CR134"/>
-    <mergeCell ref="BO133:BP133"/>
-    <mergeCell ref="BQ133:BR133"/>
-    <mergeCell ref="BS133:BT133"/>
-    <mergeCell ref="BO134:BP134"/>
-    <mergeCell ref="BQ134:BR134"/>
-    <mergeCell ref="BS134:BT134"/>
-    <mergeCell ref="CA112:CH112"/>
-    <mergeCell ref="AN106:AS106"/>
-    <mergeCell ref="BA132:BC132"/>
-    <mergeCell ref="AY131:AZ131"/>
-    <mergeCell ref="BA131:BC131"/>
-    <mergeCell ref="BD131:BF131"/>
-    <mergeCell ref="AY132:AZ132"/>
-    <mergeCell ref="BD132:BF132"/>
-    <mergeCell ref="AY133:AZ133"/>
-    <mergeCell ref="BA133:BC133"/>
-    <mergeCell ref="BD133:BF133"/>
-    <mergeCell ref="BZ116:CA116"/>
-    <mergeCell ref="CC116:CD116"/>
-    <mergeCell ref="BO131:BP131"/>
-    <mergeCell ref="BQ131:BR131"/>
-    <mergeCell ref="BS131:BT131"/>
-    <mergeCell ref="BO132:BP132"/>
-    <mergeCell ref="BQ132:BR132"/>
-    <mergeCell ref="BS132:BT132"/>
-    <mergeCell ref="BY112:BZ112"/>
-    <mergeCell ref="CB108:CI108"/>
-    <mergeCell ref="BY110:BZ110"/>
-    <mergeCell ref="BG131:BH131"/>
-    <mergeCell ref="BG132:BH132"/>
-    <mergeCell ref="BP136:BQ136"/>
-    <mergeCell ref="AE131:AF131"/>
-    <mergeCell ref="AE132:AF132"/>
-    <mergeCell ref="AE133:AF133"/>
-    <mergeCell ref="AE134:AF134"/>
-    <mergeCell ref="AE135:AF135"/>
-    <mergeCell ref="AE136:AF136"/>
-    <mergeCell ref="W136:X136"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="Y130:Z130"/>
-    <mergeCell ref="U128:V128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="AY134:AZ134"/>
-    <mergeCell ref="BA134:BC134"/>
-    <mergeCell ref="BD134:BF134"/>
-    <mergeCell ref="BA136:BB136"/>
-    <mergeCell ref="BD136:BE136"/>
-    <mergeCell ref="AG131:AH131"/>
-    <mergeCell ref="AG132:AH132"/>
-    <mergeCell ref="AG133:AH133"/>
-    <mergeCell ref="AG134:AH134"/>
-    <mergeCell ref="AG135:AH135"/>
-    <mergeCell ref="AG136:AH136"/>
-    <mergeCell ref="BG133:BH133"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="Z126:AB126"/>
-    <mergeCell ref="AD126:AE126"/>
-    <mergeCell ref="AA131:AB131"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD102:AH102"/>
-    <mergeCell ref="AK102:AL102"/>
-    <mergeCell ref="AM102:AQ102"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AI32:AO32"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="CA110:CH110"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AQ51:AR51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="BI58:BJ58"/>
-    <mergeCell ref="BH47:BI47"/>
-    <mergeCell ref="BJ47:BK47"/>
-    <mergeCell ref="BI49:BJ49"/>
-    <mergeCell ref="BK49:BL49"/>
-    <mergeCell ref="BI50:BJ50"/>
-    <mergeCell ref="BK50:BL50"/>
-    <mergeCell ref="BI51:BJ51"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BI52:BJ52"/>
-    <mergeCell ref="BK52:BL52"/>
-    <mergeCell ref="AZ102:BA102"/>
-    <mergeCell ref="BY108:CA108"/>
-    <mergeCell ref="BC74:BD74"/>
-    <mergeCell ref="BC75:BD75"/>
-    <mergeCell ref="BN78:BO78"/>
-    <mergeCell ref="BI53:BJ53"/>
-    <mergeCell ref="BK53:BL53"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="S106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="Z106:AA106"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="AE106:AG106"/>
-    <mergeCell ref="AH106:AJ106"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="X48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="AF91:AG91"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AF93:AG93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AD94:AE94"/>
-    <mergeCell ref="AF94:AG94"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="S92:U92"/>
-    <mergeCell ref="S93:U93"/>
-    <mergeCell ref="S94:U94"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="BC71:BD71"/>
-    <mergeCell ref="BE71:BF71"/>
-    <mergeCell ref="BG71:BH71"/>
-    <mergeCell ref="BC72:BD72"/>
-    <mergeCell ref="BB73:BC73"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="U66:AB66"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="AB90:AG90"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="AP91:AW91"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="AO90:AQ90"/>
-    <mergeCell ref="AR90:AY90"/>
-    <mergeCell ref="S88:U88"/>
-    <mergeCell ref="V88:AC88"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="S90:U90"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="AE78:AF78"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="BP115:BQ115"/>
-    <mergeCell ref="BH117:BI117"/>
-    <mergeCell ref="BK117:BL117"/>
-    <mergeCell ref="BM107:BQ107"/>
-    <mergeCell ref="U1:Y2"/>
-    <mergeCell ref="BI54:BJ54"/>
-    <mergeCell ref="BK54:BL54"/>
-    <mergeCell ref="BI55:BJ55"/>
-    <mergeCell ref="BK55:BL55"/>
-    <mergeCell ref="BI56:BJ56"/>
-    <mergeCell ref="BK56:BL56"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="BA66:BC66"/>
-    <mergeCell ref="BD66:BK66"/>
-    <mergeCell ref="BB70:BC70"/>
-    <mergeCell ref="BD70:BE70"/>
-    <mergeCell ref="BF70:BG70"/>
-    <mergeCell ref="AS94:AT94"/>
-    <mergeCell ref="AP94:AQ94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
